--- a/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
@@ -1,24 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\valuationquan\AIindex\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3A6CD4-4F54-4F37-A0C5-A1AB7D86E81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="model2(1)mean" sheetId="13" r:id="rId1"/>
     <sheet name="model2(1)MA250" sheetId="10" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'model2(1)MA250'!$O$1:$O$187</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'model2(1)mean'!$O$1:$O$188</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'model2(1)MA250'!$O$1:$O$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'model2(1)mean'!$O$1:$O$83</definedName>
     <definedName name="金额" localSheetId="1">OFFSET('model2(1)MA250'!J1,0,0,COUNTA('model2(1)MA250'!J:J)-1)</definedName>
     <definedName name="金额" localSheetId="0">OFFSET('model2(1)mean'!J1,0,0,COUNTA('model2(1)mean'!J:J)-1)</definedName>
     <definedName name="时间" localSheetId="1">OFFSET('model2(1)MA250'!A1,0,0,COUNTA('model2(1)MA250'!A:A)-1)</definedName>
@@ -28,7 +22,7 @@
     <definedName name="资金" localSheetId="1">OFFSET('model2(1)MA250'!H1,0,0,COUNTA('model2(1)MA250'!H:H)-1)</definedName>
     <definedName name="资金" localSheetId="0">OFFSET('model2(1)mean'!H1,0,0,COUNTA('model2(1)mean'!H:H)-1)</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -158,7 +152,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
@@ -505,14 +499,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -566,34 +559,34 @@
     <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="28">
-    <cellStyle name="20% - 着色 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20% - 着色 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20% - 着色 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - 着色 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - 着色 5" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20% - 着色 6" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="40% - 着色 1" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="40% - 着色 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="40% - 着色 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="40% - 着色 4" xfId="11" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="40% - 着色 5" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="40% - 着色 6" xfId="13" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="60% - 着色 1" xfId="14" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="60% - 着色 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="60% - 着色 3" xfId="16" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="60% - 着色 4" xfId="17" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="60% - 着色 5" xfId="18" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="60% - 着色 6" xfId="19" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="差_主要板块" xfId="20" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="20% - 着色 1" xfId="2"/>
+    <cellStyle name="20% - 着色 2" xfId="3"/>
+    <cellStyle name="20% - 着色 3" xfId="4"/>
+    <cellStyle name="20% - 着色 4" xfId="5"/>
+    <cellStyle name="20% - 着色 5" xfId="6"/>
+    <cellStyle name="20% - 着色 6" xfId="7"/>
+    <cellStyle name="40% - 着色 1" xfId="8"/>
+    <cellStyle name="40% - 着色 2" xfId="9"/>
+    <cellStyle name="40% - 着色 3" xfId="10"/>
+    <cellStyle name="40% - 着色 4" xfId="11"/>
+    <cellStyle name="40% - 着色 5" xfId="12"/>
+    <cellStyle name="40% - 着色 6" xfId="13"/>
+    <cellStyle name="60% - 着色 1" xfId="14"/>
+    <cellStyle name="60% - 着色 2" xfId="15"/>
+    <cellStyle name="60% - 着色 3" xfId="16"/>
+    <cellStyle name="60% - 着色 4" xfId="17"/>
+    <cellStyle name="60% - 着色 5" xfId="18"/>
+    <cellStyle name="60% - 着色 6" xfId="19"/>
+    <cellStyle name="差_主要板块" xfId="20"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="好_主要板块" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="着色 1" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="着色 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="着色 3" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="着色 4" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="着色 5" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="着色 6" xfId="27" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="好_主要板块" xfId="21"/>
+    <cellStyle name="着色 1" xfId="22"/>
+    <cellStyle name="着色 2" xfId="23"/>
+    <cellStyle name="着色 3" xfId="24"/>
+    <cellStyle name="着色 4" xfId="25"/>
+    <cellStyle name="着色 5" xfId="26"/>
+    <cellStyle name="着色 6" xfId="27"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -630,7 +623,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -709,6 +702,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1216,7 +1210,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3F74-4DDF-B785-43F3E88DDF16}"/>
             </c:ext>
@@ -1702,7 +1696,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3F74-4DDF-B785-43F3E88DDF16}"/>
             </c:ext>
@@ -2191,7 +2185,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-3F74-4DDF-B785-43F3E88DDF16}"/>
             </c:ext>
@@ -2205,12 +2199,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="82215680"/>
-        <c:axId val="300118400"/>
+        <c:axId val="233129088"/>
+        <c:axId val="245176576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="82215680"/>
+        <c:axId val="233129088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2253,14 +2248,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300118400"/>
+        <c:crossAx val="245176576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="300118400"/>
+        <c:axId val="245176576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2309,7 +2304,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82215680"/>
+        <c:crossAx val="233129088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2398,7 +2393,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -2450,6 +2445,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2885,7 +2881,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-44FC-4CF7-AEC2-660318BEDD89}"/>
             </c:ext>
@@ -3302,7 +3298,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-44FC-4CF7-AEC2-660318BEDD89}"/>
             </c:ext>
@@ -3719,7 +3715,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-44FC-4CF7-AEC2-660318BEDD89}"/>
             </c:ext>
@@ -3733,12 +3729,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="519096192"/>
-        <c:axId val="535965696"/>
+        <c:axId val="254874752"/>
+        <c:axId val="254876288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="519096192"/>
+        <c:axId val="254874752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3781,14 +3778,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="535965696"/>
+        <c:crossAx val="254876288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="535965696"/>
+        <c:axId val="254876288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3837,7 +3834,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519096192"/>
+        <c:crossAx val="254874752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3945,7 +3942,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3988,7 +3985,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4297,193 +4294,193 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF180"/>
+  <dimension ref="A1:AF76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C10" sqref="C10"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" style="3" customWidth="1"/>
-    <col min="7" max="8" width="11.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.77734375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="3" customWidth="1"/>
+    <col min="7" max="8" width="11.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.75" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="2"/>
     <col min="14" max="14" width="9" style="1"/>
-    <col min="15" max="15" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.33203125" style="1" customWidth="1"/>
-    <col min="18" max="19" width="11.109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.33203125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.21875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="10.109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.375" style="1" customWidth="1"/>
+    <col min="18" max="19" width="11.125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.25" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.125" style="1" customWidth="1"/>
     <col min="23" max="23" width="9" style="1"/>
-    <col min="24" max="24" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="26" width="9" style="1"/>
-    <col min="27" max="27" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="29" width="9" style="1"/>
-    <col min="30" max="30" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="31" max="50" width="9" style="1"/>
-    <col min="51" max="51" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="52" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="13" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="14"/>
-    </row>
-    <row r="2" spans="1:32" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="25"/>
-      <c r="M2" s="20"/>
+      <c r="M1" s="13"/>
+    </row>
+    <row r="2" spans="1:32" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="24"/>
+      <c r="M2" s="19"/>
     </row>
     <row r="3" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5">
         <v>1550</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5">
         <f>MIN(F:F)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="9"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="8"/>
     </row>
     <row r="4" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="A4" s="15">
         <v>42825</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="25">
         <v>0.97609000000000001</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="20">
         <v>0.99386428571428564</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="21">
         <v>27.550142857142728</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="22">
         <v>28.225002671006493</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="22">
         <v>28.225002671006493</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="22">
         <v>27.550142857142728</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="22">
         <v>27.550142857142728</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="22">
         <v>27.550142857142728</v>
       </c>
-      <c r="J4" s="23">
-        <v>0</v>
-      </c>
-      <c r="K4" s="22">
-        <v>0</v>
-      </c>
-      <c r="L4" s="8"/>
-      <c r="O4" s="27" t="s">
+      <c r="J4" s="22">
+        <v>0</v>
+      </c>
+      <c r="K4" s="21">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="O4" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="P4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="Q4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="12" t="s">
+      <c r="R4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="S4" s="12" t="s">
+      <c r="S4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="T4" s="28" t="s">
+      <c r="T4" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="U4" s="12" t="s">
+      <c r="U4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="V4" s="12" t="s">
+      <c r="V4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="X4" s="7">
+      <c r="X4" s="6">
         <v>43098</v>
       </c>
-      <c r="Y4" s="8">
+      <c r="Y4" s="7">
         <f>VLOOKUP(X4,O:P,2,)</f>
         <v>304.12500617544276</v>
       </c>
-      <c r="Z4" s="8">
+      <c r="Z4" s="7">
         <f t="shared" ref="Z4:Z5" si="0">0-Y4</f>
         <v>-304.12500617544276</v>
       </c>
-      <c r="AA4" s="7">
+      <c r="AA4" s="6">
         <v>43098</v>
       </c>
       <c r="AB4" s="1">
@@ -4494,89 +4491,89 @@
         <f t="shared" ref="AC4" si="1">0-AB4</f>
         <v>-304.12500617544276</v>
       </c>
-      <c r="AD4" s="7">
+      <c r="AD4" s="6">
         <v>43098</v>
       </c>
-      <c r="AE4" s="8">
+      <c r="AE4" s="7">
         <f>VLOOKUP(AD4,O:P,2,)</f>
         <v>304.12500617544276</v>
       </c>
-      <c r="AF4" s="8">
+      <c r="AF4" s="7">
         <f t="shared" ref="AF4" si="2">0-AE4</f>
         <v>-304.12500617544276</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <v>42853</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="25">
         <v>0.88445000000000007</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="20">
         <v>0.95655781250000005</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="21">
         <v>111.76710937499996</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <v>126.36905350782968</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="22">
         <v>154.59405617883618</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="22">
         <v>136.73071298737167</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="22">
         <v>139.31725223214269</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="22">
         <v>136.73071298737167</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="22">
         <v>-2.5865392447710178</v>
       </c>
-      <c r="K5" s="22">
-        <v>0</v>
-      </c>
-      <c r="L5" s="8"/>
-      <c r="O5" s="7">
+      <c r="K5" s="21">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="O5" s="6">
         <v>43098</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="10">
         <v>304.12500617544276</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="5">
         <v>304.12500617544276</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="5">
         <v>328.80443799445595</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="5">
         <v>24.679431819013189</v>
       </c>
-      <c r="T5" s="6">
+      <c r="T5" s="5">
         <v>251.21204627564666</v>
       </c>
-      <c r="U5" s="10">
+      <c r="U5" s="9">
         <v>8.1148972685186532E-2</v>
       </c>
-      <c r="V5" s="10">
+      <c r="V5" s="9">
         <v>8.1148972685186532E-2</v>
       </c>
-      <c r="X5" s="7">
+      <c r="X5" s="6">
         <v>43462</v>
       </c>
-      <c r="Y5" s="8">
+      <c r="Y5" s="7">
         <f>VLOOKUP(X5,O:P,2,)</f>
         <v>1807.7843670854991</v>
       </c>
-      <c r="Z5" s="8">
+      <c r="Z5" s="7">
         <f t="shared" si="0"/>
         <v>-1807.7843670854991</v>
       </c>
-      <c r="AA5" s="7">
+      <c r="AA5" s="6">
         <v>43462</v>
       </c>
       <c r="AB5" s="1">
@@ -4587,84 +4584,84 @@
         <f t="shared" ref="AC5:AC6" si="3">0-AB5</f>
         <v>-1807.7843670854991</v>
       </c>
-      <c r="AD5" s="7">
+      <c r="AD5" s="6">
         <v>43462</v>
       </c>
-      <c r="AE5" s="8">
+      <c r="AE5" s="7">
         <f>VLOOKUP(AD5,O:P,2,)</f>
         <v>1807.7843670854991</v>
       </c>
-      <c r="AF5" s="8">
+      <c r="AF5" s="7">
         <f t="shared" ref="AF5:AF7" si="4">0-AE5</f>
         <v>-1807.7843670854991</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+      <c r="A6" s="15">
         <v>42886</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="25">
         <v>0.84275</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="20">
         <v>0.91796173076923115</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="21">
         <v>116.57818269230829</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="22">
         <v>138.33068251831301</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="22">
         <v>292.92473869714922</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="22">
         <v>246.86232353702252</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="22">
         <v>255.89543492445097</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="22">
         <v>246.86232353702252</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="22">
         <v>-9.0331113874284483</v>
       </c>
-      <c r="K6" s="22">
-        <v>0</v>
-      </c>
-      <c r="L6" s="8"/>
-      <c r="O6" s="7">
+      <c r="K6" s="21">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="O6" s="6">
         <v>43462</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="10">
         <v>1807.7843670854991</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="5">
         <v>2111.9093732609417</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="5">
         <v>1961.8999213933344</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="5">
         <v>-150.00945186760737</v>
       </c>
-      <c r="T6" s="6">
+      <c r="T6" s="5">
         <v>317.52088040945171</v>
       </c>
-      <c r="U6" s="10">
+      <c r="U6" s="9">
         <v>-7.1030250524425617E-2</v>
       </c>
-      <c r="V6" s="10">
+      <c r="V6" s="9">
         <v>-6.2582124461404876E-2</v>
       </c>
-      <c r="X6" s="7">
+      <c r="X6" s="6">
         <v>43462</v>
       </c>
-      <c r="Z6" s="8">
+      <c r="Z6" s="7">
         <v>1961.8999213933344</v>
       </c>
-      <c r="AA6" s="7">
+      <c r="AA6" s="6">
         <v>43830</v>
       </c>
       <c r="AB6" s="1">
@@ -4675,226 +4672,226 @@
         <f t="shared" si="3"/>
         <v>-287.98245355098834</v>
       </c>
-      <c r="AD6" s="7">
+      <c r="AD6" s="6">
         <v>43830</v>
       </c>
-      <c r="AE6" s="8">
+      <c r="AE6" s="7">
         <f>VLOOKUP(AD6,O:P,2,)</f>
         <v>287.98245355098834</v>
       </c>
-      <c r="AF6" s="8">
+      <c r="AF6" s="7">
         <f t="shared" si="4"/>
         <v>-287.98245355098834</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+      <c r="A7" s="15">
         <v>42916</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="25">
         <v>0.91246000000000005</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="20">
         <v>0.90437932432432466</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="21">
         <v>-12.525047297296849</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="22">
         <v>-13.726680947435337</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="22">
         <v>279.19805774971388</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="22">
         <v>254.75705977430394</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="22">
         <v>255.89543492445097</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="22">
         <v>267.28210707160076</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="22">
         <v>11.386672147149795</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="21">
         <v>12.525047297296849</v>
       </c>
-      <c r="L7" s="8"/>
-      <c r="O7" s="7">
+      <c r="L7" s="7"/>
+      <c r="O7" s="6">
         <v>43830</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="10">
         <v>287.98245355098834</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="5">
         <v>2399.8918268119301</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7" s="5">
         <v>3217.6093105743603</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7" s="5">
         <v>817.71748376243022</v>
       </c>
-      <c r="T7" s="6">
+      <c r="T7" s="5">
         <v>1365.8977430166979</v>
       </c>
-      <c r="U7" s="10">
+      <c r="U7" s="9">
         <v>0.34073097571597816</v>
       </c>
-      <c r="V7" s="10">
+      <c r="V7" s="9">
         <v>0.15583831681496263</v>
       </c>
-      <c r="Z7" s="9">
+      <c r="Z7" s="8">
         <f>IRR(Z4:Z6)</f>
         <v>-6.2582124461404876E-2</v>
       </c>
-      <c r="AA7" s="7">
+      <c r="AA7" s="6">
         <v>43830</v>
       </c>
       <c r="AC7" s="1">
         <v>3217.6093105743603</v>
       </c>
-      <c r="AD7" s="7">
+      <c r="AD7" s="6">
         <v>44196</v>
       </c>
-      <c r="AE7" s="8">
+      <c r="AE7" s="7">
         <f>VLOOKUP(AD7,O:P,2,)</f>
         <v>0</v>
       </c>
-      <c r="AF7" s="8">
+      <c r="AF7" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+      <c r="A8" s="15">
         <v>42947</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="25">
         <v>0.89419999999999999</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="20">
         <v>0.90019273684210555</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="21">
         <v>9.2887421052636032</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="22">
         <v>10.38776795489108</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="22">
         <v>289.58582570460499</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="22">
         <v>258.94764534505777</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="22">
         <v>265.18417702971459</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="22">
         <v>271.47269264235462</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="22">
         <v>6.2885156126400261</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="21">
         <v>12.525047297296849</v>
       </c>
-      <c r="L8" s="8"/>
-      <c r="O8" s="7">
+      <c r="L8" s="7"/>
+      <c r="O8" s="6">
         <v>44196</v>
       </c>
-      <c r="P8" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="6">
+      <c r="P8" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5">
         <v>2399.8918268119301</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="5">
         <v>3420.824392859301</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="5">
         <v>1020.932566047371</v>
       </c>
-      <c r="T8" s="6">
+      <c r="T8" s="5">
         <v>3420.824392859301</v>
       </c>
-      <c r="U8" s="10">
+      <c r="U8" s="9">
         <v>0.42540774323299424</v>
       </c>
-      <c r="V8" s="10">
+      <c r="V8" s="9">
         <v>0.12448297099432648</v>
       </c>
       <c r="AC8" s="2">
         <f>IRR(AC4:AC7)</f>
         <v>0.15583831681496263</v>
       </c>
-      <c r="AD8" s="7">
+      <c r="AD8" s="6">
         <v>44196</v>
       </c>
-      <c r="AF8" s="8">
+      <c r="AF8" s="7">
         <v>3420.824392859301</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+      <c r="A9" s="15">
         <v>42978</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="25">
         <v>0.97410000000000008</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="20">
         <v>0.90535008474576273</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="21">
         <v>-106.56236864406789</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="22">
         <v>-109.39571773336195</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="22">
         <v>180.19010797124304</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="22">
         <v>175.52318417478784</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="22">
         <v>265.18417702971459</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="22">
         <v>294.61060011615257</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="22">
         <v>29.426423086437978</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K9" s="21">
         <v>119.08741594136474</v>
       </c>
-      <c r="L9" s="8"/>
-      <c r="O9" s="7">
+      <c r="L9" s="7"/>
+      <c r="O9" s="6">
         <v>44561</v>
       </c>
-      <c r="P9" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="6">
+      <c r="P9" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5">
         <v>2399.8918268119301</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9" s="5">
         <v>3420.824392859301</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S9" s="5">
         <v>1020.932566047371</v>
       </c>
-      <c r="T9" s="6">
+      <c r="T9" s="5">
         <v>3420.824392859301</v>
       </c>
-      <c r="U9" s="10">
+      <c r="U9" s="9">
         <v>0.42540774323299424</v>
       </c>
-      <c r="V9" s="10">
+      <c r="V9" s="9">
         <v>0.11623036743162096</v>
       </c>
       <c r="AF9" s="2">
@@ -4903,65 +4900,65 @@
       </c>
     </row>
     <row r="10" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+      <c r="A10" s="15">
         <v>43007</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="25">
         <v>0.97174000000000005</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="20">
         <v>0.91768381294964019</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="21">
         <v>-83.787089928057782</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="22">
         <v>-86.223773774937513</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="22">
         <v>93.966334196305525</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="22">
         <v>91.310845591917939</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="22">
         <v>265.18417702971459</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="22">
         <v>294.18535146134047</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="22">
         <v>29.001174431625884</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="21">
         <v>202.87450586942253</v>
       </c>
-      <c r="L10" s="8"/>
-      <c r="O10" s="7">
+      <c r="L10" s="7"/>
+      <c r="O10" s="6">
         <v>44925</v>
       </c>
-      <c r="P10" s="11">
+      <c r="P10" s="10">
         <v>1191.9854404928446</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10" s="5">
         <v>3591.8772673047747</v>
       </c>
-      <c r="R10" s="6">
+      <c r="R10" s="5">
         <v>4692.9521370177645</v>
       </c>
-      <c r="S10" s="6">
+      <c r="S10" s="5">
         <v>1101.0748697129898</v>
       </c>
-      <c r="T10" s="6">
+      <c r="T10" s="5">
         <v>3420.824392859301</v>
       </c>
-      <c r="U10" s="10">
+      <c r="U10" s="9">
         <v>0.30654579423845396</v>
       </c>
-      <c r="V10" s="10">
+      <c r="V10" s="9">
         <v>9.2107928430304797E-2</v>
       </c>
-      <c r="X10" s="7">
+      <c r="X10" s="6">
         <v>43098</v>
       </c>
       <c r="Y10" s="1">
@@ -4971,7 +4968,7 @@
         <f>-Y10</f>
         <v>-18.350992705669857</v>
       </c>
-      <c r="AA10" s="7">
+      <c r="AA10" s="6">
         <v>43098</v>
       </c>
       <c r="AB10" s="1">
@@ -4983,41 +4980,41 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+      <c r="A11" s="15">
         <v>43039</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="25">
         <v>0.94596999999999998</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="20">
         <v>0.92351769230769187</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="21">
         <v>-34.801076923077559</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="22">
         <v>-36.788774404132859</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="22">
         <v>57.177559792172666</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="22">
         <v>54.088256236601573</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="22">
         <v>265.18417702971459</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="22">
         <v>291.76383902910169</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="22">
         <v>26.579661999387099</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K11" s="21">
         <v>237.67558279250011</v>
       </c>
-      <c r="L11" s="8"/>
-      <c r="X11" s="7">
+      <c r="L11" s="7"/>
+      <c r="X11" s="6">
         <v>43462</v>
       </c>
       <c r="Y11" s="1">
@@ -5027,7 +5024,7 @@
         <f>-Y11</f>
         <v>-255.17901000780921</v>
       </c>
-      <c r="AA11" s="7">
+      <c r="AA11" s="6">
         <v>43462</v>
       </c>
       <c r="AB11" s="1">
@@ -5039,41 +5036,41 @@
       </c>
     </row>
     <row r="12" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="A12" s="15">
         <v>43069</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="25">
         <v>0.93876000000000004</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="20">
         <v>0.93002679775280872</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="21">
         <v>-13.536463483146544</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="22">
         <v>-14.419514554461783</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="22">
         <v>42.758045237710881</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="22">
         <v>40.139542547353471</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="22">
         <v>265.18417702971459</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="22">
         <v>291.35158882300016</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="22">
         <v>26.167411793285567</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K12" s="21">
         <v>251.21204627564666</v>
       </c>
-      <c r="L12" s="8"/>
-      <c r="X12" s="7">
+      <c r="L12" s="7"/>
+      <c r="X12" s="6">
         <v>43830</v>
       </c>
       <c r="Y12" s="1">
@@ -5083,7 +5080,7 @@
         <f>-Y12</f>
         <v>-51.512876965237467</v>
       </c>
-      <c r="AA12" s="7">
+      <c r="AA12" s="6">
         <v>43830</v>
       </c>
       <c r="AB12" s="1">
@@ -5095,41 +5092,41 @@
       </c>
     </row>
     <row r="13" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+      <c r="A13" s="15">
         <v>43098</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="25">
         <v>0.90395999999999999</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="20">
         <v>0.92908311557788914</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="21">
         <v>38.940829145728188</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="22">
         <v>43.07804454370568</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="22">
         <v>85.836089781416561</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="22">
         <v>77.59239171880931</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="22">
         <v>304.12500617544276</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="22">
         <v>328.80443799445595</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="22">
         <v>24.679431819013189</v>
       </c>
-      <c r="K13" s="22">
+      <c r="K13" s="21">
         <v>251.21204627564666</v>
       </c>
-      <c r="L13" s="8"/>
-      <c r="X13" s="7">
+      <c r="L13" s="7"/>
+      <c r="X13" s="6">
         <v>44196</v>
       </c>
       <c r="Y13" s="1">
@@ -5139,7 +5136,7 @@
         <f>-Y13</f>
         <v>0</v>
       </c>
-      <c r="AA13" s="7">
+      <c r="AA13" s="6">
         <v>44196</v>
       </c>
       <c r="AB13" s="1">
@@ -5151,41 +5148,41 @@
       </c>
     </row>
     <row r="14" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+      <c r="A14" s="15">
         <v>43131</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="25">
         <v>0.86690999999999996</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="20">
         <v>0.92713140271493188</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="21">
         <v>93.34317420814449</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="22">
         <v>107.67343116141755</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="22">
         <v>193.50952094283411</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="22">
         <v>167.75533880055232</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="22">
         <v>397.46818038358725</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="22">
         <v>418.96738507619898</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="22">
         <v>21.499204692611727</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="21">
         <v>251.21204627564666</v>
       </c>
-      <c r="L14" s="8"/>
-      <c r="X14" s="7">
+      <c r="L14" s="7"/>
+      <c r="X14" s="6">
         <v>44561</v>
       </c>
       <c r="Y14" s="1">
@@ -5195,7 +5192,7 @@
         <f>-Y14</f>
         <v>0</v>
       </c>
-      <c r="AA14" s="7">
+      <c r="AA14" s="6">
         <v>44561</v>
       </c>
       <c r="AB14" s="1">
@@ -5207,47 +5204,47 @@
       </c>
     </row>
     <row r="15" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
+      <c r="A15" s="15">
         <v>43159</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="25">
         <v>0.8518</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="20">
         <v>0.91968983050847442</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="21">
         <v>105.22923728813534</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="22">
         <v>123.53749388135165</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="22">
         <v>317.04701482418579</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="22">
         <v>270.06064722724147</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="22">
         <v>502.69741767172258</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="22">
         <v>521.27269350288816</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="22">
         <v>18.575275831165584</v>
       </c>
-      <c r="K15" s="22">
+      <c r="K15" s="21">
         <v>251.21204627564666</v>
       </c>
-      <c r="L15" s="8"/>
-      <c r="X15" s="7">
+      <c r="L15" s="7"/>
+      <c r="X15" s="6">
         <v>44561</v>
       </c>
       <c r="Z15" s="1">
         <v>499.59426954009558</v>
       </c>
-      <c r="AA15" s="7">
+      <c r="AA15" s="6">
         <v>44925</v>
       </c>
       <c r="AB15" s="1">
@@ -5259,45 +5256,45 @@
       </c>
     </row>
     <row r="16" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
+      <c r="A16" s="15">
         <v>43189</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="25">
         <v>0.95575999999999994</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="20">
         <v>0.91931608527131781</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="21">
         <v>-56.488067829457314</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="22">
         <v>-59.102774576731939</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="22">
         <v>257.94424024745388</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="22">
         <v>246.53278705890651</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="22">
         <v>502.69741767172258</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="22">
         <v>554.23290116401051</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="22">
         <v>51.535483492287938</v>
       </c>
-      <c r="K16" s="22">
+      <c r="K16" s="21">
         <v>307.70011410510398</v>
       </c>
-      <c r="L16" s="8"/>
+      <c r="L16" s="7"/>
       <c r="Z16" s="2">
         <f>IRR(Z10:Z15)</f>
         <v>0.11623036743162096</v>
       </c>
-      <c r="AA16" s="7">
+      <c r="AA16" s="6">
         <v>44925</v>
       </c>
       <c r="AC16" s="1">
@@ -5305,2429 +5302,2142 @@
       </c>
     </row>
     <row r="17" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
+      <c r="A17" s="15">
         <v>43217</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="25">
         <v>0.92662</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="20">
         <v>0.92028402173913049</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="21">
         <v>-9.8207663043477442</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="22">
         <v>-10.598482985849371</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="22">
         <v>247.34575726160452</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="22">
         <v>229.19552559374799</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="22">
         <v>502.69741767172258</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="22">
         <v>546.71640600319972</v>
       </c>
-      <c r="J17" s="23">
+      <c r="J17" s="22">
         <v>44.018988331477146</v>
       </c>
-      <c r="K17" s="22">
+      <c r="K17" s="21">
         <v>317.52088040945171</v>
       </c>
-      <c r="L17" s="8"/>
+      <c r="L17" s="7"/>
       <c r="AC17" s="2">
         <f>IRR(AC10:AC16)</f>
         <v>9.2107928430304797E-2</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
+      <c r="A18" s="15">
         <v>43251</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="25">
         <v>0.88405999999999996</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="20">
         <v>0.91991989932885943</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="21">
         <v>55.582843959732173</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="22">
         <v>62.87225296895253</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="22">
         <v>310.21801023055707</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="22">
         <v>274.25133412442625</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="22">
         <v>558.28026163145478</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="22">
         <v>591.77221453387801</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J18" s="22">
         <v>33.491952902423236</v>
       </c>
-      <c r="K18" s="22">
+      <c r="K18" s="21">
         <v>317.52088040945171</v>
       </c>
-      <c r="L18" s="8"/>
+      <c r="L18" s="7"/>
     </row>
     <row r="19" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
+      <c r="A19" s="15">
         <v>43280</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="25">
         <v>0.81235999999999997</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="20">
         <v>0.91462415094339644</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="21">
         <v>158.50943396226452</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="22">
         <v>195.12215515567547</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="22">
         <v>505.34016538623257</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="22">
         <v>410.51813675315987</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="22">
         <v>716.78969559371933</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="22">
         <v>728.03901716261157</v>
       </c>
-      <c r="J19" s="23">
+      <c r="J19" s="22">
         <v>11.249321568892242</v>
       </c>
-      <c r="K19" s="22">
+      <c r="K19" s="21">
         <v>317.52088040945171</v>
       </c>
-      <c r="L19" s="8"/>
+      <c r="L19" s="7"/>
     </row>
     <row r="20" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
+      <c r="A20" s="15">
         <v>43312</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="25">
         <v>0.8131799999999999</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="20">
         <v>0.90820861764705896</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="21">
         <v>147.29435735294155</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="22">
         <v>181.13376786559132</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="22">
         <v>686.47393325182384</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="22">
         <v>558.22687304171802</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="22">
         <v>864.0840529466609</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="22">
         <v>875.74775345116973</v>
       </c>
-      <c r="J20" s="23">
+      <c r="J20" s="22">
         <v>11.663700504508824</v>
       </c>
-      <c r="K20" s="22">
+      <c r="K20" s="21">
         <v>317.52088040945171</v>
       </c>
-      <c r="L20" s="8"/>
+      <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16">
+      <c r="A21" s="15">
         <v>43343</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="25">
         <v>0.77766999999999997</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="20">
         <v>0.90034011019283766</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="21">
         <v>190.13867079889843</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="22">
         <v>244.49788573417831</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="22">
         <v>930.97181898600218</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="22">
         <v>723.98885447084433</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="22">
         <v>1054.2227237455593</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="22">
         <v>1041.509734880296</v>
       </c>
-      <c r="J21" s="23">
+      <c r="J21" s="22">
         <v>-12.712988865263242</v>
       </c>
-      <c r="K21" s="22">
+      <c r="K21" s="21">
         <v>317.52088040945171</v>
       </c>
-      <c r="L21" s="9"/>
+      <c r="L21" s="8"/>
     </row>
     <row r="22" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
+      <c r="A22" s="15">
         <v>43371</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="25">
         <v>0.76784000000000008</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="20">
         <v>0.8937382984293194</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="21">
         <v>195.14236256544496</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="22">
         <v>254.14456470807062</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="22">
         <v>1185.1163836940727</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="22">
         <v>909.97976405565691</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="22">
         <v>1249.3650863110042</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="22">
         <v>1227.5006444651085</v>
       </c>
-      <c r="J22" s="23">
+      <c r="J22" s="22">
         <v>-21.864441845895726</v>
       </c>
-      <c r="K22" s="22">
+      <c r="K22" s="21">
         <v>317.52088040945171</v>
       </c>
-      <c r="L22" s="8"/>
+      <c r="L22" s="7"/>
     </row>
     <row r="23" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16">
+      <c r="A23" s="15">
         <v>43404</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B23" s="25">
         <v>0.67677999999999994</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="20">
         <v>0.88415025000000003</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="21">
         <v>321.42388750000015</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="22">
         <v>474.93112606755545</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="22">
         <v>1660.0475097616281</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="22">
         <v>1123.4869536564745</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="22">
         <v>1570.7889738110043</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I23" s="22">
         <v>1441.0078340659261</v>
       </c>
-      <c r="J23" s="23">
+      <c r="J23" s="22">
         <v>-129.78113974507824</v>
       </c>
-      <c r="K23" s="22">
+      <c r="K23" s="21">
         <v>317.52088040945171</v>
       </c>
-      <c r="L23" s="8"/>
+      <c r="L23" s="7"/>
     </row>
     <row r="24" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16">
+      <c r="A24" s="15">
         <v>43434</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="25">
         <v>0.7214299999999999</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="20">
         <v>0.87621106635071089</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="21">
         <v>239.91065284360204</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="22">
         <v>332.54876127081224</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="22">
         <v>1992.5962710324404</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="22">
         <v>1437.5187278109333</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="22">
         <v>1810.6996266546064</v>
       </c>
-      <c r="I24" s="23">
+      <c r="I24" s="22">
         <v>1755.0396082203852</v>
       </c>
-      <c r="J24" s="23">
+      <c r="J24" s="22">
         <v>-55.660018434221229</v>
       </c>
-      <c r="K24" s="22">
+      <c r="K24" s="21">
         <v>317.52088040945171</v>
       </c>
-      <c r="L24" s="8"/>
+      <c r="L24" s="7"/>
       <c r="O24" s="3"/>
     </row>
     <row r="25" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16">
+      <c r="A25" s="15">
         <v>43462</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="25">
         <v>0.67408000000000001</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="20">
         <v>0.86840886877828072</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="21">
         <v>301.2097466063351</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="22">
         <v>446.84569577251233</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="22">
         <v>2439.4419668049527</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="22">
         <v>1644.3790409838825</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="22">
         <v>2111.9093732609417</v>
       </c>
-      <c r="I25" s="23">
+      <c r="I25" s="22">
         <v>1961.8999213933344</v>
       </c>
-      <c r="J25" s="23">
+      <c r="J25" s="22">
         <v>-150.00945186760737</v>
       </c>
-      <c r="K25" s="22">
+      <c r="K25" s="21">
         <v>317.52088040945171</v>
       </c>
-      <c r="L25" s="8"/>
+      <c r="L25" s="7"/>
     </row>
     <row r="26" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16">
+      <c r="A26" s="15">
         <v>43496</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B26" s="25">
         <v>0.67819000000000007</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="20">
         <v>0.86047514038876904</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="21">
         <v>282.54196760259191</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="22">
         <v>416.61181616153567</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="22">
         <v>2856.0537829664881</v>
       </c>
-      <c r="G26" s="23">
+      <c r="G26" s="22">
         <v>1936.9471150700429</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="22">
         <v>2394.4513408635335</v>
       </c>
-      <c r="I26" s="23">
+      <c r="I26" s="22">
         <v>2254.4679954794947</v>
       </c>
-      <c r="J26" s="23">
+      <c r="J26" s="22">
         <v>-139.98334538403878</v>
       </c>
-      <c r="K26" s="22">
+      <c r="K26" s="21">
         <v>317.52088040945171</v>
       </c>
-      <c r="L26" s="8"/>
+      <c r="L26" s="7"/>
     </row>
     <row r="27" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16">
+      <c r="A27" s="15">
         <v>43524</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="25">
         <v>0.85648000000000002</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="20">
         <v>0.8580328242677826</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="21">
         <v>2.406877615063002</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="22">
         <v>2.8101971033334134</v>
       </c>
-      <c r="F27" s="23">
+      <c r="F27" s="22">
         <v>2858.8639800698215</v>
       </c>
-      <c r="G27" s="23">
+      <c r="G27" s="22">
         <v>2448.5598216502008</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="22">
         <v>2396.8582184785964</v>
       </c>
-      <c r="I27" s="23">
+      <c r="I27" s="22">
         <v>2766.0807020596526</v>
       </c>
-      <c r="J27" s="23">
+      <c r="J27" s="22">
         <v>369.22248358105617</v>
       </c>
-      <c r="K27" s="22">
+      <c r="K27" s="21">
         <v>317.52088040945171</v>
       </c>
-      <c r="L27" s="8"/>
+      <c r="L27" s="7"/>
     </row>
     <row r="28" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16">
+      <c r="A28" s="15">
         <v>43553</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="25">
         <v>0.94580999999999993</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="20">
         <v>0.86124096192384803</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="21">
         <v>-131.08200901803545</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E28" s="22">
         <v>-138.59232723066521</v>
       </c>
-      <c r="F28" s="23">
+      <c r="F28" s="22">
         <v>2720.2716528391566</v>
       </c>
-      <c r="G28" s="23">
+      <c r="G28" s="22">
         <v>2572.8601319718023</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H28" s="22">
         <v>2396.8582184785964</v>
       </c>
-      <c r="I28" s="23">
+      <c r="I28" s="22">
         <v>3021.4630213992896</v>
       </c>
-      <c r="J28" s="23">
+      <c r="J28" s="22">
         <v>624.60480292069315</v>
       </c>
-      <c r="K28" s="22">
+      <c r="K28" s="21">
         <v>448.60288942748718</v>
       </c>
-      <c r="L28" s="8"/>
+      <c r="L28" s="7"/>
     </row>
     <row r="29" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16">
+      <c r="A29" s="15">
         <v>43585</v>
       </c>
-      <c r="B29" s="26">
+      <c r="B29" s="25">
         <v>0.9108099999999999</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="20">
         <v>0.86549344230769254</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="21">
         <v>-70.24066442307641</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="22">
         <v>-77.118899027323394</v>
       </c>
-      <c r="F29" s="23">
+      <c r="F29" s="22">
         <v>2643.152753811833</v>
       </c>
-      <c r="G29" s="23">
+      <c r="G29" s="22">
         <v>2407.4099596993556</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H29" s="22">
         <v>2396.8582184785964</v>
       </c>
-      <c r="I29" s="23">
+      <c r="I29" s="22">
         <v>2926.2535135499193</v>
       </c>
-      <c r="J29" s="23">
+      <c r="J29" s="22">
         <v>529.39529507132283</v>
       </c>
-      <c r="K29" s="22">
+      <c r="K29" s="21">
         <v>518.84355385056358</v>
       </c>
-      <c r="L29" s="8"/>
+      <c r="L29" s="7"/>
     </row>
     <row r="30" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16">
+      <c r="A30" s="15">
         <v>43616</v>
       </c>
-      <c r="B30" s="26">
+      <c r="B30" s="25">
         <v>0.86360000000000003</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="20">
         <v>0.86555716666666693</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="21">
         <v>3.0336083333336927</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="22">
         <v>3.5127470279454522</v>
       </c>
-      <c r="F30" s="23">
+      <c r="F30" s="22">
         <v>2646.6655008397784</v>
       </c>
-      <c r="G30" s="23">
+      <c r="G30" s="22">
         <v>2285.6603265252329</v>
       </c>
-      <c r="H30" s="23">
+      <c r="H30" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I30" s="23">
+      <c r="I30" s="22">
         <v>2804.5038803757966</v>
       </c>
-      <c r="J30" s="23">
+      <c r="J30" s="22">
         <v>404.61205356386654</v>
       </c>
-      <c r="K30" s="22">
+      <c r="K30" s="21">
         <v>518.84355385056358</v>
       </c>
-      <c r="L30" s="8"/>
+      <c r="L30" s="7"/>
     </row>
     <row r="31" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="16">
+      <c r="A31" s="15">
         <v>43644</v>
       </c>
-      <c r="B31" s="26">
+      <c r="B31" s="25">
         <v>0.88732</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="20">
         <v>0.86554053667263009</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D31" s="21">
         <v>-33.758168157423356</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E31" s="22">
         <v>-38.045088758760485</v>
       </c>
-      <c r="F31" s="23">
+      <c r="F31" s="22">
         <v>2608.620412081018</v>
       </c>
-      <c r="G31" s="23">
+      <c r="G31" s="22">
         <v>2314.6810640477288</v>
       </c>
-      <c r="H31" s="23">
+      <c r="H31" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I31" s="23">
+      <c r="I31" s="22">
         <v>2867.2827860557159</v>
       </c>
-      <c r="J31" s="23">
+      <c r="J31" s="22">
         <v>467.3909592437858</v>
       </c>
-      <c r="K31" s="22">
+      <c r="K31" s="21">
         <v>552.60172200798695</v>
       </c>
-      <c r="L31" s="8"/>
+      <c r="L31" s="7"/>
     </row>
     <row r="32" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16">
+      <c r="A32" s="15">
         <v>43677</v>
       </c>
-      <c r="B32" s="26">
+      <c r="B32" s="25">
         <v>0.89222000000000001</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="20">
         <v>0.86642510309278375</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D32" s="21">
         <v>-39.982090206185198</v>
       </c>
-      <c r="E32" s="23">
+      <c r="E32" s="22">
         <v>-44.811918816194655</v>
       </c>
-      <c r="F32" s="23">
+      <c r="F32" s="22">
         <v>2563.8084932648235</v>
       </c>
-      <c r="G32" s="23">
+      <c r="G32" s="22">
         <v>2287.4812138607408</v>
       </c>
-      <c r="H32" s="23">
+      <c r="H32" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I32" s="23">
+      <c r="I32" s="22">
         <v>2880.065026074913</v>
       </c>
-      <c r="J32" s="23">
+      <c r="J32" s="22">
         <v>480.17319926298296</v>
       </c>
-      <c r="K32" s="22">
+      <c r="K32" s="21">
         <v>592.5838122141721</v>
       </c>
-      <c r="L32" s="8"/>
+      <c r="L32" s="7"/>
     </row>
     <row r="33" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="16">
+      <c r="A33" s="15">
         <v>43707</v>
       </c>
-      <c r="B33" s="26">
+      <c r="B33" s="25">
         <v>0.92357</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="20">
         <v>0.86719825870646772</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D33" s="21">
         <v>-87.376199004975035</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33" s="22">
         <v>-94.607013009273828</v>
       </c>
-      <c r="F33" s="23">
+      <c r="F33" s="22">
         <v>2469.2014802555495</v>
       </c>
-      <c r="G33" s="23">
+      <c r="G33" s="22">
         <v>2280.4804111196181</v>
       </c>
-      <c r="H33" s="23">
+      <c r="H33" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I33" s="23">
+      <c r="I33" s="22">
         <v>2960.4404223387655</v>
       </c>
-      <c r="J33" s="23">
+      <c r="J33" s="22">
         <v>560.54859552683547</v>
       </c>
-      <c r="K33" s="22">
+      <c r="K33" s="21">
         <v>679.96001121914719</v>
       </c>
-      <c r="L33" s="8"/>
+      <c r="L33" s="7"/>
     </row>
     <row r="34" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="16">
+      <c r="A34" s="15">
         <v>43738</v>
       </c>
-      <c r="B34" s="26">
+      <c r="B34" s="25">
         <v>0.95855999999999997</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="20">
         <v>0.87132205457463874</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D34" s="21">
         <v>-135.21881540930991</v>
       </c>
-      <c r="E34" s="23">
+      <c r="E34" s="22">
         <v>-141.0645295122996</v>
       </c>
-      <c r="F34" s="23">
+      <c r="F34" s="22">
         <v>2328.1369507432501</v>
       </c>
-      <c r="G34" s="23">
+      <c r="G34" s="22">
         <v>2231.6589555044498</v>
       </c>
-      <c r="H34" s="23">
+      <c r="H34" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I34" s="23">
+      <c r="I34" s="22">
         <v>3046.8377821329068</v>
       </c>
-      <c r="J34" s="23">
+      <c r="J34" s="22">
         <v>646.94595532097674</v>
       </c>
-      <c r="K34" s="22">
+      <c r="K34" s="21">
         <v>815.17882662845705</v>
       </c>
-      <c r="L34" s="8"/>
-    </row>
-    <row r="35" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="16">
+      <c r="L34" s="7"/>
+    </row>
+    <row r="35" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="15">
         <v>43769</v>
       </c>
-      <c r="B35" s="26">
+      <c r="B35" s="25">
         <v>0.97238999999999998</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="20">
         <v>0.87426804992199714</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="21">
         <v>-152.08902262090442</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E35" s="22">
         <v>-156.40743181326877</v>
       </c>
-      <c r="F35" s="23">
+      <c r="F35" s="22">
         <v>2171.7295189299812</v>
       </c>
-      <c r="G35" s="23">
+      <c r="G35" s="22">
         <v>2111.7680669123242</v>
       </c>
-      <c r="H35" s="23">
+      <c r="H35" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I35" s="23">
+      <c r="I35" s="22">
         <v>3079.0359161616857</v>
       </c>
-      <c r="J35" s="23">
+      <c r="J35" s="22">
         <v>679.14408934975563</v>
       </c>
-      <c r="K35" s="22">
+      <c r="K35" s="21">
         <v>967.26784924936146</v>
       </c>
-      <c r="L35" s="8"/>
-    </row>
-    <row r="36" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="16">
+      <c r="L35" s="7"/>
+    </row>
+    <row r="36" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="15">
         <v>43798</v>
       </c>
-      <c r="B36" s="26">
+      <c r="B36" s="25">
         <v>0.97728999999999999</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="20">
         <v>0.87806616314199404</v>
       </c>
-      <c r="D36" s="22">
+      <c r="D36" s="21">
         <v>-153.79694712990923</v>
       </c>
-      <c r="E36" s="23">
+      <c r="E36" s="22">
         <v>-157.37083888089433</v>
       </c>
-      <c r="F36" s="23">
+      <c r="F36" s="22">
         <v>2014.3586800490868</v>
       </c>
-      <c r="G36" s="23">
+      <c r="G36" s="22">
         <v>1968.6125944251721</v>
       </c>
-      <c r="H36" s="23">
+      <c r="H36" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I36" s="23">
+      <c r="I36" s="22">
         <v>3089.6773908044429</v>
       </c>
-      <c r="J36" s="23">
+      <c r="J36" s="22">
         <v>689.78556399251283</v>
       </c>
-      <c r="K36" s="22">
+      <c r="K36" s="21">
         <v>1121.0647963792708</v>
       </c>
-      <c r="L36" s="8"/>
+      <c r="L36" s="7"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="16">
+    <row r="37" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="15">
         <v>43830</v>
       </c>
-      <c r="B37" s="26">
+      <c r="B37" s="25">
         <v>1.0407999999999999</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37" s="20">
         <v>0.8828432602339179</v>
       </c>
-      <c r="D37" s="22">
+      <c r="D37" s="21">
         <v>-244.83294663742717</v>
       </c>
-      <c r="E37" s="23">
+      <c r="E37" s="22">
         <v>-235.2353445786195</v>
       </c>
-      <c r="F37" s="23">
+      <c r="F37" s="22">
         <v>1779.1233354704673</v>
       </c>
-      <c r="G37" s="23">
+      <c r="G37" s="22">
         <v>1851.7115675576622</v>
       </c>
-      <c r="H37" s="23">
+      <c r="H37" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I37" s="23">
+      <c r="I37" s="22">
         <v>3217.6093105743603</v>
       </c>
-      <c r="J37" s="23">
+      <c r="J37" s="22">
         <v>817.71748376243022</v>
       </c>
-      <c r="K37" s="22">
+      <c r="K37" s="21">
         <v>1365.8977430166979</v>
       </c>
-      <c r="L37" s="8"/>
-    </row>
-    <row r="38" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="16">
+      <c r="L37" s="7"/>
+    </row>
+    <row r="38" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="15">
         <v>43853</v>
       </c>
-      <c r="B38" s="26">
+      <c r="B38" s="25">
         <v>1.13632</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="20">
         <v>0.88820977142857116</v>
       </c>
-      <c r="D38" s="22">
+      <c r="D38" s="21">
         <v>-384.57085428571469</v>
       </c>
-      <c r="E38" s="23">
+      <c r="E38" s="22">
         <v>-338.43534768878015</v>
       </c>
-      <c r="F38" s="23">
+      <c r="F38" s="22">
         <v>1440.6879877816871</v>
       </c>
-      <c r="G38" s="23">
+      <c r="G38" s="22">
         <v>1637.0825742760867</v>
       </c>
-      <c r="H38" s="23">
+      <c r="H38" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I38" s="23">
+      <c r="I38" s="22">
         <v>3387.5511715784992</v>
       </c>
-      <c r="J38" s="23">
+      <c r="J38" s="22">
         <v>987.65934476656912</v>
       </c>
-      <c r="K38" s="22">
+      <c r="K38" s="21">
         <v>1750.4685973024125</v>
       </c>
-      <c r="L38" s="8"/>
-    </row>
-    <row r="39" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="16">
+      <c r="L38" s="7"/>
+    </row>
+    <row r="39" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="15">
         <v>43889</v>
       </c>
-      <c r="B39" s="26">
+      <c r="B39" s="25">
         <v>1.2075199999999999</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39" s="20">
         <v>0.89720491666666646</v>
       </c>
-      <c r="D39" s="22">
+      <c r="D39" s="21">
         <v>-480.98837916666685</v>
       </c>
-      <c r="E39" s="23">
+      <c r="E39" s="22">
         <v>-398.32746386533296</v>
       </c>
-      <c r="F39" s="23">
+      <c r="F39" s="22">
         <v>1042.3605239163542</v>
       </c>
-      <c r="G39" s="23">
+      <c r="G39" s="22">
         <v>1258.6711798394758</v>
       </c>
-      <c r="H39" s="23">
+      <c r="H39" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I39" s="23">
+      <c r="I39" s="22">
         <v>3490.1281563085554</v>
       </c>
-      <c r="J39" s="23">
+      <c r="J39" s="22">
         <v>1090.2363294966253</v>
       </c>
-      <c r="K39" s="22">
+      <c r="K39" s="21">
         <v>2231.4569764690796</v>
       </c>
-      <c r="L39" s="8"/>
-    </row>
-    <row r="40" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="16">
+      <c r="L39" s="7"/>
+    </row>
+    <row r="40" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="15">
         <v>43921</v>
       </c>
-      <c r="B40" s="26">
+      <c r="B40" s="25">
         <v>1.0721400000000001</v>
       </c>
-      <c r="C40" s="21">
+      <c r="C40" s="20">
         <v>0.90529318059299169</v>
       </c>
-      <c r="D40" s="22">
+      <c r="D40" s="21">
         <v>-258.61257008086301</v>
       </c>
-      <c r="E40" s="23">
+      <c r="E40" s="22">
         <v>-241.21156759458933</v>
       </c>
-      <c r="F40" s="23">
+      <c r="F40" s="22">
         <v>801.1489563217649</v>
       </c>
-      <c r="G40" s="23">
+      <c r="G40" s="22">
         <v>858.94384203081711</v>
       </c>
-      <c r="H40" s="23">
+      <c r="H40" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I40" s="23">
+      <c r="I40" s="22">
         <v>3349.0133885807595</v>
       </c>
-      <c r="J40" s="23">
+      <c r="J40" s="22">
         <v>949.12156176882945</v>
       </c>
-      <c r="K40" s="22">
+      <c r="K40" s="21">
         <v>2490.0695465499425</v>
       </c>
-      <c r="L40" s="8"/>
-    </row>
-    <row r="41" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="16">
+      <c r="L40" s="7"/>
+    </row>
+    <row r="41" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="15">
         <v>43951</v>
       </c>
-      <c r="B41" s="26">
+      <c r="B41" s="25">
         <v>1.13618</v>
       </c>
-      <c r="C41" s="21">
+      <c r="C41" s="20">
         <v>0.91107858453473123</v>
       </c>
-      <c r="D41" s="22">
+      <c r="D41" s="21">
         <v>-348.90719397116652</v>
       </c>
-      <c r="E41" s="23">
+      <c r="E41" s="22">
         <v>-307.08795610833363</v>
       </c>
-      <c r="F41" s="23">
+      <c r="F41" s="22">
         <v>494.06100021343127</v>
       </c>
-      <c r="G41" s="23">
+      <c r="G41" s="22">
         <v>561.34222722249638</v>
       </c>
-      <c r="H41" s="23">
+      <c r="H41" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I41" s="23">
+      <c r="I41" s="22">
         <v>3400.3189677436058</v>
       </c>
-      <c r="J41" s="23">
+      <c r="J41" s="22">
         <v>1000.4271409316757</v>
       </c>
-      <c r="K41" s="22">
+      <c r="K41" s="21">
         <v>2838.9767405211091</v>
       </c>
-      <c r="L41" s="8"/>
-    </row>
-    <row r="42" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="16">
+      <c r="L41" s="7"/>
+    </row>
+    <row r="42" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="15">
         <v>43980</v>
       </c>
-      <c r="B42" s="26">
+      <c r="B42" s="25">
         <v>1.12294</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="20">
         <v>0.91666642765685002</v>
       </c>
-      <c r="D42" s="22">
+      <c r="D42" s="21">
         <v>-319.72403713188254</v>
       </c>
-      <c r="E42" s="23">
+      <c r="E42" s="22">
         <v>-284.72049898648419</v>
       </c>
-      <c r="F42" s="23">
+      <c r="F42" s="22">
         <v>209.34050122694708</v>
       </c>
-      <c r="G42" s="23">
+      <c r="G42" s="22">
         <v>235.07682244778798</v>
       </c>
-      <c r="H42" s="23">
+      <c r="H42" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I42" s="23">
+      <c r="I42" s="22">
         <v>3393.7776001007796</v>
       </c>
-      <c r="J42" s="23">
+      <c r="J42" s="22">
         <v>993.88577328884958</v>
       </c>
-      <c r="K42" s="22">
+      <c r="K42" s="21">
         <v>3158.7007776529917</v>
       </c>
-      <c r="L42" s="8"/>
-    </row>
-    <row r="43" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="16">
+      <c r="L42" s="7"/>
+    </row>
+    <row r="43" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="15">
         <v>44012</v>
       </c>
-      <c r="B43" s="26">
+      <c r="B43" s="25">
         <v>1.25214</v>
       </c>
-      <c r="C43" s="21">
+      <c r="C43" s="20">
         <v>0.92355369538077381</v>
       </c>
-      <c r="D43" s="22">
+      <c r="D43" s="21">
         <v>-262.12361520630952</v>
       </c>
-      <c r="E43" s="23">
+      <c r="E43" s="22">
         <v>-209.34050122694708</v>
       </c>
-      <c r="F43" s="23">
-        <v>0</v>
-      </c>
-      <c r="G43" s="23">
-        <v>0</v>
-      </c>
-      <c r="H43" s="23">
+      <c r="F43" s="22">
+        <v>0</v>
+      </c>
+      <c r="G43" s="22">
+        <v>0</v>
+      </c>
+      <c r="H43" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I43" s="23">
+      <c r="I43" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J43" s="23">
+      <c r="J43" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K43" s="22">
+      <c r="K43" s="21">
         <v>3420.824392859301</v>
       </c>
-      <c r="L43" s="8"/>
-    </row>
-    <row r="44" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="16">
+      <c r="L43" s="7"/>
+    </row>
+    <row r="44" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="15">
         <v>44043</v>
       </c>
-      <c r="B44" s="26">
+      <c r="B44" s="25">
         <v>1.3561700000000001</v>
       </c>
-      <c r="C44" s="21">
+      <c r="C44" s="20">
         <v>0.93564675970873734</v>
       </c>
-      <c r="D44" s="22">
-        <v>0</v>
-      </c>
-      <c r="E44" s="23">
-        <v>0</v>
-      </c>
-      <c r="F44" s="23">
-        <v>0</v>
-      </c>
-      <c r="G44" s="23">
-        <v>0</v>
-      </c>
-      <c r="H44" s="23">
+      <c r="D44" s="21">
+        <v>0</v>
+      </c>
+      <c r="E44" s="22">
+        <v>0</v>
+      </c>
+      <c r="F44" s="22">
+        <v>0</v>
+      </c>
+      <c r="G44" s="22">
+        <v>0</v>
+      </c>
+      <c r="H44" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I44" s="23">
+      <c r="I44" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J44" s="23">
+      <c r="J44" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K44" s="22">
+      <c r="K44" s="21">
         <v>3420.824392859301</v>
       </c>
-      <c r="L44" s="8"/>
-    </row>
-    <row r="45" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="16">
+      <c r="L44" s="7"/>
+    </row>
+    <row r="45" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="15">
         <v>44074</v>
       </c>
-      <c r="B45" s="26">
+      <c r="B45" s="25">
         <v>1.35833</v>
       </c>
-      <c r="C45" s="21">
+      <c r="C45" s="20">
         <v>0.9459795739644965</v>
       </c>
-      <c r="D45" s="22">
-        <v>0</v>
-      </c>
-      <c r="E45" s="23">
-        <v>0</v>
-      </c>
-      <c r="F45" s="23">
-        <v>0</v>
-      </c>
-      <c r="G45" s="23">
-        <v>0</v>
-      </c>
-      <c r="H45" s="23">
+      <c r="D45" s="21">
+        <v>0</v>
+      </c>
+      <c r="E45" s="22">
+        <v>0</v>
+      </c>
+      <c r="F45" s="22">
+        <v>0</v>
+      </c>
+      <c r="G45" s="22">
+        <v>0</v>
+      </c>
+      <c r="H45" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I45" s="23">
+      <c r="I45" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J45" s="23">
+      <c r="J45" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K45" s="22">
+      <c r="K45" s="21">
         <v>3420.824392859301</v>
       </c>
-      <c r="L45" s="8"/>
-    </row>
-    <row r="46" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="16">
+      <c r="L45" s="7"/>
+    </row>
+    <row r="46" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="15">
         <v>44104</v>
       </c>
-      <c r="B46" s="26">
+      <c r="B46" s="25">
         <v>1.2336199999999999</v>
       </c>
-      <c r="C46" s="21">
+      <c r="C46" s="20">
         <v>0.95444417531718506</v>
       </c>
-      <c r="D46" s="22">
-        <v>0</v>
-      </c>
-      <c r="E46" s="23">
-        <v>0</v>
-      </c>
-      <c r="F46" s="23">
-        <v>0</v>
-      </c>
-      <c r="G46" s="23">
-        <v>0</v>
-      </c>
-      <c r="H46" s="23">
+      <c r="D46" s="21">
+        <v>0</v>
+      </c>
+      <c r="E46" s="22">
+        <v>0</v>
+      </c>
+      <c r="F46" s="22">
+        <v>0</v>
+      </c>
+      <c r="G46" s="22">
+        <v>0</v>
+      </c>
+      <c r="H46" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I46" s="23">
+      <c r="I46" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J46" s="23">
+      <c r="J46" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K46" s="22">
+      <c r="K46" s="21">
         <v>3420.824392859301</v>
       </c>
-      <c r="L46" s="8"/>
-    </row>
-    <row r="47" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="16">
+      <c r="L46" s="7"/>
+    </row>
+    <row r="47" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="15">
         <v>44134</v>
       </c>
-      <c r="B47" s="26">
+      <c r="B47" s="25">
         <v>1.2367600000000001</v>
       </c>
-      <c r="C47" s="21">
+      <c r="C47" s="20">
         <v>0.96014630804076961</v>
       </c>
-      <c r="D47" s="22">
-        <v>0</v>
-      </c>
-      <c r="E47" s="23">
-        <v>0</v>
-      </c>
-      <c r="F47" s="23">
-        <v>0</v>
-      </c>
-      <c r="G47" s="23">
-        <v>0</v>
-      </c>
-      <c r="H47" s="23">
+      <c r="D47" s="21">
+        <v>0</v>
+      </c>
+      <c r="E47" s="22">
+        <v>0</v>
+      </c>
+      <c r="F47" s="22">
+        <v>0</v>
+      </c>
+      <c r="G47" s="22">
+        <v>0</v>
+      </c>
+      <c r="H47" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I47" s="23">
+      <c r="I47" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J47" s="23">
+      <c r="J47" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K47" s="22">
+      <c r="K47" s="21">
         <v>3420.824392859301</v>
       </c>
-      <c r="L47" s="8"/>
-    </row>
-    <row r="48" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="16">
+      <c r="L47" s="7"/>
+    </row>
+    <row r="48" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="15">
         <v>44165</v>
       </c>
-      <c r="B48" s="26">
+      <c r="B48" s="25">
         <v>1.23942</v>
       </c>
-      <c r="C48" s="21">
+      <c r="C48" s="20">
         <v>0.96710720132743311</v>
       </c>
-      <c r="D48" s="22">
-        <v>0</v>
-      </c>
-      <c r="E48" s="23">
-        <v>0</v>
-      </c>
-      <c r="F48" s="23">
-        <v>0</v>
-      </c>
-      <c r="G48" s="23">
-        <v>0</v>
-      </c>
-      <c r="H48" s="23">
+      <c r="D48" s="21">
+        <v>0</v>
+      </c>
+      <c r="E48" s="22">
+        <v>0</v>
+      </c>
+      <c r="F48" s="22">
+        <v>0</v>
+      </c>
+      <c r="G48" s="22">
+        <v>0</v>
+      </c>
+      <c r="H48" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I48" s="23">
+      <c r="I48" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J48" s="23">
+      <c r="J48" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K48" s="22">
+      <c r="K48" s="21">
         <v>3420.824392859301</v>
       </c>
-      <c r="L48" s="8"/>
-    </row>
-    <row r="49" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="16">
+      <c r="L48" s="7"/>
+    </row>
+    <row r="49" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="15">
         <v>44196</v>
       </c>
-      <c r="B49" s="26">
+      <c r="B49" s="25">
         <v>1.2531099999999999</v>
       </c>
-      <c r="C49" s="21">
+      <c r="C49" s="20">
         <v>0.97392800431499404</v>
       </c>
-      <c r="D49" s="22">
-        <v>0</v>
-      </c>
-      <c r="E49" s="23">
-        <v>0</v>
-      </c>
-      <c r="F49" s="23">
-        <v>0</v>
-      </c>
-      <c r="G49" s="23">
-        <v>0</v>
-      </c>
-      <c r="H49" s="23">
+      <c r="D49" s="21">
+        <v>0</v>
+      </c>
+      <c r="E49" s="22">
+        <v>0</v>
+      </c>
+      <c r="F49" s="22">
+        <v>0</v>
+      </c>
+      <c r="G49" s="22">
+        <v>0</v>
+      </c>
+      <c r="H49" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I49" s="23">
+      <c r="I49" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J49" s="23">
+      <c r="J49" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K49" s="22">
+      <c r="K49" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="16">
+    <row r="50" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="15">
         <v>44225</v>
       </c>
-      <c r="B50" s="26">
+      <c r="B50" s="25">
         <v>1.2375</v>
       </c>
-      <c r="C50" s="21">
+      <c r="C50" s="20">
         <v>0.98019564941921822</v>
       </c>
-      <c r="D50" s="22">
-        <v>0</v>
-      </c>
-      <c r="E50" s="23">
-        <v>0</v>
-      </c>
-      <c r="F50" s="23">
-        <v>0</v>
-      </c>
-      <c r="G50" s="23">
-        <v>0</v>
-      </c>
-      <c r="H50" s="23">
+      <c r="D50" s="21">
+        <v>0</v>
+      </c>
+      <c r="E50" s="22">
+        <v>0</v>
+      </c>
+      <c r="F50" s="22">
+        <v>0</v>
+      </c>
+      <c r="G50" s="22">
+        <v>0</v>
+      </c>
+      <c r="H50" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I50" s="23">
+      <c r="I50" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J50" s="23">
+      <c r="J50" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K50" s="22">
+      <c r="K50" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="16">
+    <row r="51" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="15">
         <v>44253</v>
       </c>
-      <c r="B51" s="26">
+      <c r="B51" s="25">
         <v>1.23967</v>
       </c>
-      <c r="C51" s="21">
+      <c r="C51" s="20">
         <v>0.984757931392931</v>
       </c>
-      <c r="D51" s="22">
-        <v>0</v>
-      </c>
-      <c r="E51" s="23">
-        <v>0</v>
-      </c>
-      <c r="F51" s="23">
-        <v>0</v>
-      </c>
-      <c r="G51" s="23">
-        <v>0</v>
-      </c>
-      <c r="H51" s="23">
+      <c r="D51" s="21">
+        <v>0</v>
+      </c>
+      <c r="E51" s="22">
+        <v>0</v>
+      </c>
+      <c r="F51" s="22">
+        <v>0</v>
+      </c>
+      <c r="G51" s="22">
+        <v>0</v>
+      </c>
+      <c r="H51" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I51" s="23">
+      <c r="I51" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J51" s="23">
+      <c r="J51" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K51" s="22">
+      <c r="K51" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="16">
+    <row r="52" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="15">
         <v>44286</v>
       </c>
-      <c r="B52" s="26">
+      <c r="B52" s="25">
         <v>1.15709</v>
       </c>
-      <c r="C52" s="21">
+      <c r="C52" s="20">
         <v>0.98919197969543116</v>
       </c>
-      <c r="D52" s="22">
-        <v>0</v>
-      </c>
-      <c r="E52" s="23">
-        <v>0</v>
-      </c>
-      <c r="F52" s="23">
-        <v>0</v>
-      </c>
-      <c r="G52" s="23">
-        <v>0</v>
-      </c>
-      <c r="H52" s="23">
+      <c r="D52" s="21">
+        <v>0</v>
+      </c>
+      <c r="E52" s="22">
+        <v>0</v>
+      </c>
+      <c r="F52" s="22">
+        <v>0</v>
+      </c>
+      <c r="G52" s="22">
+        <v>0</v>
+      </c>
+      <c r="H52" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I52" s="23">
+      <c r="I52" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J52" s="23">
+      <c r="J52" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K52" s="22">
+      <c r="K52" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="16">
+    <row r="53" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="15">
         <v>44316</v>
       </c>
-      <c r="B53" s="26">
+      <c r="B53" s="25">
         <v>1.17998</v>
       </c>
-      <c r="C53" s="21">
+      <c r="C53" s="20">
         <v>0.99311644135188804</v>
       </c>
-      <c r="D53" s="22">
-        <v>0</v>
-      </c>
-      <c r="E53" s="23">
-        <v>0</v>
-      </c>
-      <c r="F53" s="23">
-        <v>0</v>
-      </c>
-      <c r="G53" s="23">
-        <v>0</v>
-      </c>
-      <c r="H53" s="23">
+      <c r="D53" s="21">
+        <v>0</v>
+      </c>
+      <c r="E53" s="22">
+        <v>0</v>
+      </c>
+      <c r="F53" s="22">
+        <v>0</v>
+      </c>
+      <c r="G53" s="22">
+        <v>0</v>
+      </c>
+      <c r="H53" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I53" s="23">
+      <c r="I53" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J53" s="23">
+      <c r="J53" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K53" s="22">
+      <c r="K53" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="16">
+    <row r="54" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="15">
         <v>44347</v>
       </c>
-      <c r="B54" s="26">
+      <c r="B54" s="25">
         <v>1.2623</v>
       </c>
-      <c r="C54" s="21">
+      <c r="C54" s="20">
         <v>0.99678004882812443</v>
       </c>
-      <c r="D54" s="22">
-        <v>0</v>
-      </c>
-      <c r="E54" s="23">
-        <v>0</v>
-      </c>
-      <c r="F54" s="23">
-        <v>0</v>
-      </c>
-      <c r="G54" s="23">
-        <v>0</v>
-      </c>
-      <c r="H54" s="23">
+      <c r="D54" s="21">
+        <v>0</v>
+      </c>
+      <c r="E54" s="22">
+        <v>0</v>
+      </c>
+      <c r="F54" s="22">
+        <v>0</v>
+      </c>
+      <c r="G54" s="22">
+        <v>0</v>
+      </c>
+      <c r="H54" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I54" s="23">
+      <c r="I54" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J54" s="23">
+      <c r="J54" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K54" s="22">
+      <c r="K54" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="16">
+    <row r="55" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="15">
         <v>44377</v>
       </c>
-      <c r="B55" s="26">
+      <c r="B55" s="25">
         <v>1.33643</v>
       </c>
-      <c r="C55" s="21">
+      <c r="C55" s="20">
         <v>1.0025140478468895</v>
       </c>
-      <c r="D55" s="22">
-        <v>0</v>
-      </c>
-      <c r="E55" s="23">
-        <v>0</v>
-      </c>
-      <c r="F55" s="23">
-        <v>0</v>
-      </c>
-      <c r="G55" s="23">
-        <v>0</v>
-      </c>
-      <c r="H55" s="23">
+      <c r="D55" s="21">
+        <v>0</v>
+      </c>
+      <c r="E55" s="22">
+        <v>0</v>
+      </c>
+      <c r="F55" s="22">
+        <v>0</v>
+      </c>
+      <c r="G55" s="22">
+        <v>0</v>
+      </c>
+      <c r="H55" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I55" s="23">
+      <c r="I55" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J55" s="23">
+      <c r="J55" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K55" s="22">
+      <c r="K55" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="16">
+    <row r="56" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="15">
         <v>44407</v>
       </c>
-      <c r="B56" s="26">
+      <c r="B56" s="25">
         <v>1.28626</v>
       </c>
-      <c r="C56" s="21">
+      <c r="C56" s="20">
         <v>1.0086370852858479</v>
       </c>
-      <c r="D56" s="22">
-        <v>0</v>
-      </c>
-      <c r="E56" s="23">
-        <v>0</v>
-      </c>
-      <c r="F56" s="23">
-        <v>0</v>
-      </c>
-      <c r="G56" s="23">
-        <v>0</v>
-      </c>
-      <c r="H56" s="23">
+      <c r="D56" s="21">
+        <v>0</v>
+      </c>
+      <c r="E56" s="22">
+        <v>0</v>
+      </c>
+      <c r="F56" s="22">
+        <v>0</v>
+      </c>
+      <c r="G56" s="22">
+        <v>0</v>
+      </c>
+      <c r="H56" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I56" s="23">
+      <c r="I56" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J56" s="23">
+      <c r="J56" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K56" s="22">
+      <c r="K56" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="16">
+    <row r="57" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="15">
         <v>44439</v>
       </c>
-      <c r="B57" s="26">
+      <c r="B57" s="25">
         <v>1.2177899999999999</v>
       </c>
-      <c r="C57" s="21">
+      <c r="C57" s="20">
         <v>1.0138825528007342</v>
       </c>
-      <c r="D57" s="22">
-        <v>0</v>
-      </c>
-      <c r="E57" s="23">
-        <v>0</v>
-      </c>
-      <c r="F57" s="23">
-        <v>0</v>
-      </c>
-      <c r="G57" s="23">
-        <v>0</v>
-      </c>
-      <c r="H57" s="23">
+      <c r="D57" s="21">
+        <v>0</v>
+      </c>
+      <c r="E57" s="22">
+        <v>0</v>
+      </c>
+      <c r="F57" s="22">
+        <v>0</v>
+      </c>
+      <c r="G57" s="22">
+        <v>0</v>
+      </c>
+      <c r="H57" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I57" s="23">
+      <c r="I57" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J57" s="23">
+      <c r="J57" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K57" s="22">
+      <c r="K57" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="16">
+    <row r="58" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="15">
         <v>44469</v>
       </c>
-      <c r="B58" s="26">
+      <c r="B58" s="25">
         <v>1.20347</v>
       </c>
-      <c r="C58" s="21">
+      <c r="C58" s="20">
         <v>1.0177556176735794</v>
       </c>
-      <c r="D58" s="22">
-        <v>0</v>
-      </c>
-      <c r="E58" s="23">
-        <v>0</v>
-      </c>
-      <c r="F58" s="23">
-        <v>0</v>
-      </c>
-      <c r="G58" s="23">
-        <v>0</v>
-      </c>
-      <c r="H58" s="23">
+      <c r="D58" s="21">
+        <v>0</v>
+      </c>
+      <c r="E58" s="22">
+        <v>0</v>
+      </c>
+      <c r="F58" s="22">
+        <v>0</v>
+      </c>
+      <c r="G58" s="22">
+        <v>0</v>
+      </c>
+      <c r="H58" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I58" s="23">
+      <c r="I58" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J58" s="23">
+      <c r="J58" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K58" s="22">
+      <c r="K58" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="16">
+    <row r="59" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="15">
         <v>44498</v>
       </c>
-      <c r="B59" s="26">
+      <c r="B59" s="25">
         <v>1.1970999999999998</v>
       </c>
-      <c r="C59" s="21">
+      <c r="C59" s="20">
         <v>1.0204018311111105</v>
       </c>
-      <c r="D59" s="22">
-        <v>0</v>
-      </c>
-      <c r="E59" s="23">
-        <v>0</v>
-      </c>
-      <c r="F59" s="23">
-        <v>0</v>
-      </c>
-      <c r="G59" s="23">
-        <v>0</v>
-      </c>
-      <c r="H59" s="23">
+      <c r="D59" s="21">
+        <v>0</v>
+      </c>
+      <c r="E59" s="22">
+        <v>0</v>
+      </c>
+      <c r="F59" s="22">
+        <v>0</v>
+      </c>
+      <c r="G59" s="22">
+        <v>0</v>
+      </c>
+      <c r="H59" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I59" s="23">
+      <c r="I59" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J59" s="23">
+      <c r="J59" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K59" s="22">
+      <c r="K59" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="16">
+    <row r="60" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="15">
         <v>44530</v>
       </c>
-      <c r="B60" s="26">
+      <c r="B60" s="25">
         <v>1.23373</v>
       </c>
-      <c r="C60" s="21">
+      <c r="C60" s="20">
         <v>1.0245603661726232</v>
       </c>
-      <c r="D60" s="22">
-        <v>0</v>
-      </c>
-      <c r="E60" s="23">
-        <v>0</v>
-      </c>
-      <c r="F60" s="23">
-        <v>0</v>
-      </c>
-      <c r="G60" s="23">
-        <v>0</v>
-      </c>
-      <c r="H60" s="23">
+      <c r="D60" s="21">
+        <v>0</v>
+      </c>
+      <c r="E60" s="22">
+        <v>0</v>
+      </c>
+      <c r="F60" s="22">
+        <v>0</v>
+      </c>
+      <c r="G60" s="22">
+        <v>0</v>
+      </c>
+      <c r="H60" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I60" s="23">
+      <c r="I60" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J60" s="23">
+      <c r="J60" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K60" s="22">
+      <c r="K60" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="16">
+    <row r="61" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="15">
         <v>44561</v>
       </c>
-      <c r="B61" s="26">
+      <c r="B61" s="25">
         <v>1.2554100000000001</v>
       </c>
-      <c r="C61" s="21">
+      <c r="C61" s="20">
         <v>1.0289409572649562</v>
       </c>
-      <c r="D61" s="22">
-        <v>0</v>
-      </c>
-      <c r="E61" s="23">
-        <v>0</v>
-      </c>
-      <c r="F61" s="23">
-        <v>0</v>
-      </c>
-      <c r="G61" s="23">
-        <v>0</v>
-      </c>
-      <c r="H61" s="23">
+      <c r="D61" s="21">
+        <v>0</v>
+      </c>
+      <c r="E61" s="22">
+        <v>0</v>
+      </c>
+      <c r="F61" s="22">
+        <v>0</v>
+      </c>
+      <c r="G61" s="22">
+        <v>0</v>
+      </c>
+      <c r="H61" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I61" s="23">
+      <c r="I61" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J61" s="23">
+      <c r="J61" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K61" s="22">
+      <c r="K61" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="16">
+    <row r="62" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="15">
         <v>44589</v>
       </c>
-      <c r="B62" s="26">
+      <c r="B62" s="25">
         <v>1.11076</v>
       </c>
-      <c r="C62" s="21">
+      <c r="C62" s="20">
         <v>1.0316563299663286</v>
       </c>
-      <c r="D62" s="22">
-        <v>0</v>
-      </c>
-      <c r="E62" s="23">
-        <v>0</v>
-      </c>
-      <c r="F62" s="23">
-        <v>0</v>
-      </c>
-      <c r="G62" s="23">
-        <v>0</v>
-      </c>
-      <c r="H62" s="23">
+      <c r="D62" s="21">
+        <v>0</v>
+      </c>
+      <c r="E62" s="22">
+        <v>0</v>
+      </c>
+      <c r="F62" s="22">
+        <v>0</v>
+      </c>
+      <c r="G62" s="22">
+        <v>0</v>
+      </c>
+      <c r="H62" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I62" s="23">
+      <c r="I62" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J62" s="23">
+      <c r="J62" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K62" s="22">
+      <c r="K62" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="16">
+    <row r="63" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="15">
         <v>44620</v>
       </c>
-      <c r="B63" s="26">
+      <c r="B63" s="25">
         <v>1.15177</v>
       </c>
-      <c r="C63" s="21">
+      <c r="C63" s="20">
         <v>1.0331931727574739</v>
       </c>
-      <c r="D63" s="22">
-        <v>0</v>
-      </c>
-      <c r="E63" s="23">
-        <v>0</v>
-      </c>
-      <c r="F63" s="23">
-        <v>0</v>
-      </c>
-      <c r="G63" s="23">
-        <v>0</v>
-      </c>
-      <c r="H63" s="23">
+      <c r="D63" s="21">
+        <v>0</v>
+      </c>
+      <c r="E63" s="22">
+        <v>0</v>
+      </c>
+      <c r="F63" s="22">
+        <v>0</v>
+      </c>
+      <c r="G63" s="22">
+        <v>0</v>
+      </c>
+      <c r="H63" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I63" s="23">
+      <c r="I63" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J63" s="23">
+      <c r="J63" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K63" s="22">
+      <c r="K63" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="16">
+    <row r="64" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="15">
         <v>44651</v>
       </c>
-      <c r="B64" s="26">
+      <c r="B64" s="25">
         <v>1.0468499999999998</v>
       </c>
-      <c r="C64" s="21">
+      <c r="C64" s="20">
         <v>1.0340066340668286</v>
       </c>
-      <c r="D64" s="22">
-        <v>0</v>
-      </c>
-      <c r="E64" s="23">
-        <v>0</v>
-      </c>
-      <c r="F64" s="23">
-        <v>0</v>
-      </c>
-      <c r="G64" s="23">
-        <v>0</v>
-      </c>
-      <c r="H64" s="23">
+      <c r="D64" s="21">
+        <v>0</v>
+      </c>
+      <c r="E64" s="22">
+        <v>0</v>
+      </c>
+      <c r="F64" s="22">
+        <v>0</v>
+      </c>
+      <c r="G64" s="22">
+        <v>0</v>
+      </c>
+      <c r="H64" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I64" s="23">
+      <c r="I64" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J64" s="23">
+      <c r="J64" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K64" s="22">
+      <c r="K64" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="16">
+    <row r="65" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="15">
         <v>44680</v>
       </c>
-      <c r="B65" s="26">
+      <c r="B65" s="25">
         <v>0.83169999999999999</v>
       </c>
-      <c r="C65" s="21">
+      <c r="C65" s="20">
         <v>1.032387961476724</v>
       </c>
-      <c r="D65" s="22">
+      <c r="D65" s="21">
         <v>311.06634028892216</v>
       </c>
-      <c r="E65" s="23">
+      <c r="E65" s="22">
         <v>374.01267318615146</v>
       </c>
-      <c r="F65" s="23">
+      <c r="F65" s="22">
         <v>374.01267318615146</v>
       </c>
-      <c r="G65" s="23">
+      <c r="G65" s="22">
         <v>311.06634028892216</v>
       </c>
-      <c r="H65" s="23">
+      <c r="H65" s="22">
         <v>2710.9581671008523</v>
       </c>
-      <c r="I65" s="23">
+      <c r="I65" s="22">
         <v>3731.8907331482233</v>
       </c>
-      <c r="J65" s="23">
+      <c r="J65" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K65" s="22">
+      <c r="K65" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="16">
+    <row r="66" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="15">
         <v>44712</v>
       </c>
-      <c r="B66" s="26">
+      <c r="B66" s="25">
         <v>0.90644000000000002</v>
       </c>
-      <c r="C66" s="21">
+      <c r="C66" s="20">
         <v>1.0300312806324092</v>
       </c>
-      <c r="D66" s="22">
+      <c r="D66" s="21">
         <v>191.56648498023426</v>
       </c>
-      <c r="E66" s="23">
+      <c r="E66" s="22">
         <v>211.3393991662264</v>
       </c>
-      <c r="F66" s="23">
+      <c r="F66" s="22">
         <v>585.35207235237783</v>
       </c>
-      <c r="G66" s="23">
+      <c r="G66" s="22">
         <v>530.58653246308938</v>
       </c>
-      <c r="H66" s="23">
+      <c r="H66" s="22">
         <v>2902.5246520810865</v>
       </c>
-      <c r="I66" s="23">
+      <c r="I66" s="22">
         <v>3951.4109253223905</v>
       </c>
-      <c r="J66" s="23">
+      <c r="J66" s="22">
         <v>1048.886273241304</v>
       </c>
-      <c r="K66" s="22">
+      <c r="K66" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="16">
+    <row r="67" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="15">
         <v>44742</v>
       </c>
-      <c r="B67" s="26">
+      <c r="B67" s="25">
         <v>0.99066999999999994</v>
       </c>
-      <c r="C67" s="21">
+      <c r="C67" s="20">
         <v>1.0286842768273694</v>
       </c>
-      <c r="D67" s="22">
+      <c r="D67" s="21">
         <v>58.922129082422671</v>
       </c>
-      <c r="E67" s="23">
+      <c r="E67" s="22">
         <v>59.477049958535815</v>
       </c>
-      <c r="F67" s="23">
+      <c r="F67" s="22">
         <v>644.82912231091359</v>
       </c>
-      <c r="G67" s="23">
+      <c r="G67" s="22">
         <v>638.81286659975274</v>
       </c>
-      <c r="H67" s="23">
+      <c r="H67" s="22">
         <v>2961.4467811635091</v>
       </c>
-      <c r="I67" s="23">
+      <c r="I67" s="22">
         <v>4059.6372594590539</v>
       </c>
-      <c r="J67" s="23">
+      <c r="J67" s="22">
         <v>1098.1904782955448</v>
       </c>
-      <c r="K67" s="22">
+      <c r="K67" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="16">
+    <row r="68" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="15">
         <v>44771</v>
       </c>
-      <c r="B68" s="26">
+      <c r="B68" s="25">
         <v>1.01267</v>
       </c>
-      <c r="C68" s="21">
+      <c r="C68" s="20">
         <v>1.0278637413924998</v>
       </c>
-      <c r="D68" s="22">
+      <c r="D68" s="21">
         <v>23.550299158374767</v>
       </c>
-      <c r="E68" s="23">
+      <c r="E68" s="22">
         <v>23.255650071962997</v>
       </c>
-      <c r="F68" s="23">
+      <c r="F68" s="22">
         <v>668.08477238287662</v>
       </c>
-      <c r="G68" s="23">
+      <c r="G68" s="22">
         <v>676.5494064489676</v>
       </c>
-      <c r="H68" s="23">
+      <c r="H68" s="22">
         <v>2984.9970803218839</v>
       </c>
-      <c r="I68" s="23">
+      <c r="I68" s="22">
         <v>4097.3737993082686</v>
       </c>
-      <c r="J68" s="23">
+      <c r="J68" s="22">
         <v>1112.3767189863847</v>
       </c>
-      <c r="K68" s="22">
+      <c r="K68" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="16">
+    <row r="69" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="15">
         <v>44804</v>
       </c>
-      <c r="B69" s="26">
+      <c r="B69" s="25">
         <v>0.95750000000000002</v>
       </c>
-      <c r="C69" s="21">
+      <c r="C69" s="20">
         <v>1.0277413007518783</v>
       </c>
-      <c r="D69" s="22">
+      <c r="D69" s="21">
         <v>108.87401616541135</v>
       </c>
-      <c r="E69" s="23">
+      <c r="E69" s="22">
         <v>113.70654429807973</v>
       </c>
-      <c r="F69" s="23">
+      <c r="F69" s="22">
         <v>781.79131668095636</v>
       </c>
-      <c r="G69" s="23">
+      <c r="G69" s="22">
         <v>748.56518572201571</v>
       </c>
-      <c r="H69" s="23">
+      <c r="H69" s="22">
         <v>3093.8710964872953</v>
       </c>
-      <c r="I69" s="23">
+      <c r="I69" s="22">
         <v>4169.3895785813165</v>
       </c>
-      <c r="J69" s="23">
+      <c r="J69" s="22">
         <v>1075.5184820940212</v>
       </c>
-      <c r="K69" s="22">
+      <c r="K69" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="16">
+    <row r="70" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="15">
         <v>44834</v>
       </c>
-      <c r="B70" s="26">
+      <c r="B70" s="25">
         <v>0.85887999999999998</v>
       </c>
-      <c r="C70" s="21">
+      <c r="C70" s="20">
         <v>1.0261969874167267</v>
       </c>
-      <c r="D70" s="22">
+      <c r="D70" s="21">
         <v>259.34133049592646</v>
       </c>
-      <c r="E70" s="23">
+      <c r="E70" s="22">
         <v>301.95292764521992</v>
       </c>
-      <c r="F70" s="23">
+      <c r="F70" s="22">
         <v>1083.7442443261762</v>
       </c>
-      <c r="G70" s="23">
+      <c r="G70" s="22">
         <v>930.80625656686618</v>
       </c>
-      <c r="H70" s="23">
+      <c r="H70" s="22">
         <v>3353.2124269832216</v>
       </c>
-      <c r="I70" s="23">
+      <c r="I70" s="22">
         <v>4351.6306494261671</v>
       </c>
-      <c r="J70" s="23">
+      <c r="J70" s="22">
         <v>998.41822244294553</v>
       </c>
-      <c r="K70" s="22">
+      <c r="K70" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="16">
+    <row r="71" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="15">
         <v>44865</v>
       </c>
-      <c r="B71" s="26">
+      <c r="B71" s="25">
         <v>0.96957000000000004</v>
       </c>
-      <c r="C71" s="21">
+      <c r="C71" s="20">
         <v>1.0250083101682501</v>
       </c>
-      <c r="D71" s="22">
+      <c r="D71" s="21">
         <v>85.929380760787609</v>
       </c>
-      <c r="E71" s="23">
+      <c r="E71" s="22">
         <v>88.626278412891907</v>
       </c>
-      <c r="F71" s="23">
+      <c r="F71" s="22">
         <v>1172.3705227390681</v>
       </c>
-      <c r="G71" s="23">
+      <c r="G71" s="22">
         <v>1136.6952877321182</v>
       </c>
-      <c r="H71" s="23">
+      <c r="H71" s="22">
         <v>3439.1418077440094</v>
       </c>
-      <c r="I71" s="23">
+      <c r="I71" s="22">
         <v>4557.5196805914193</v>
       </c>
-      <c r="J71" s="23">
+      <c r="J71" s="22">
         <v>1118.3778728474099</v>
       </c>
-      <c r="K71" s="22">
+      <c r="K71" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="16">
+    <row r="72" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="15">
         <v>44895</v>
       </c>
-      <c r="B72" s="26">
+      <c r="B72" s="25">
         <v>0.99405999999999994</v>
       </c>
-      <c r="C72" s="21">
+      <c r="C72" s="20">
         <v>1.0247448956083498</v>
       </c>
-      <c r="D72" s="22">
+      <c r="D72" s="21">
         <v>47.561588192942281</v>
       </c>
-      <c r="E72" s="23">
+      <c r="E72" s="22">
         <v>47.845792198601977</v>
       </c>
-      <c r="F72" s="23">
+      <c r="F72" s="22">
         <v>1220.2163149376699</v>
       </c>
-      <c r="G72" s="23">
+      <c r="G72" s="22">
         <v>1212.9682300269401</v>
       </c>
-      <c r="H72" s="23">
+      <c r="H72" s="22">
         <v>3486.7033959369519</v>
       </c>
-      <c r="I72" s="23">
+      <c r="I72" s="22">
         <v>4633.7926228862416</v>
       </c>
-      <c r="J72" s="23">
+      <c r="J72" s="22">
         <v>1147.0892269492897</v>
       </c>
-      <c r="K72" s="22">
+      <c r="K72" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="16">
+    <row r="73" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="15">
         <v>44925</v>
       </c>
-      <c r="B73" s="26">
+      <c r="B73" s="25">
         <v>0.95635000000000003</v>
       </c>
-      <c r="C73" s="21">
+      <c r="C73" s="20">
         <v>1.0242041105598856</v>
       </c>
-      <c r="D73" s="22">
+      <c r="D73" s="21">
         <v>105.1738713678226</v>
       </c>
-      <c r="E73" s="23">
+      <c r="E73" s="22">
         <v>109.97424726075452</v>
       </c>
-      <c r="F73" s="23">
+      <c r="F73" s="22">
         <v>1330.1905621984245</v>
       </c>
-      <c r="G73" s="23">
+      <c r="G73" s="22">
         <v>1272.1277441584632</v>
       </c>
-      <c r="H73" s="23">
+      <c r="H73" s="22">
         <v>3591.8772673047747</v>
       </c>
-      <c r="I73" s="23">
+      <c r="I73" s="22">
         <v>4692.9521370177645</v>
       </c>
-      <c r="J73" s="23">
+      <c r="J73" s="22">
         <v>1101.0748697129898</v>
       </c>
-      <c r="K73" s="22">
+      <c r="K73" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="16">
+    <row r="74" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="15">
         <v>44957</v>
       </c>
-      <c r="B74" s="26">
+      <c r="B74" s="25">
         <v>1.08087</v>
       </c>
-      <c r="C74" s="21">
+      <c r="C74" s="20">
         <v>1.0241600981079177</v>
       </c>
-      <c r="D74" s="22">
+      <c r="D74" s="21">
         <v>-87.900347932727485</v>
       </c>
-      <c r="E74" s="23">
+      <c r="E74" s="22">
         <v>-81.323700290254592</v>
       </c>
-      <c r="F74" s="23">
+      <c r="F74" s="22">
         <v>1248.8668619081698</v>
       </c>
-      <c r="G74" s="23">
+      <c r="G74" s="22">
         <v>1349.8627250306834</v>
       </c>
-      <c r="H74" s="23">
+      <c r="H74" s="22">
         <v>3591.8772673047747</v>
       </c>
-      <c r="I74" s="23">
+      <c r="I74" s="22">
         <v>4858.5874658227121</v>
       </c>
-      <c r="J74" s="23">
+      <c r="J74" s="22">
         <v>1266.7101985179374</v>
       </c>
-      <c r="K74" s="22">
+      <c r="K74" s="21">
         <v>3508.7247407920286</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="16">
+    <row r="75" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="15">
         <v>44985</v>
       </c>
-      <c r="B75" s="26">
+      <c r="B75" s="25">
         <v>1.16859</v>
       </c>
-      <c r="C75" s="21">
+      <c r="C75" s="20">
         <v>1.0261586247408419</v>
       </c>
-      <c r="D75" s="22">
+      <c r="D75" s="21">
         <v>-220.76863165169516</v>
       </c>
-      <c r="E75" s="23">
+      <c r="E75" s="22">
         <v>-188.91880954970961</v>
       </c>
-      <c r="F75" s="23">
+      <c r="F75" s="22">
         <v>1059.9480523584602</v>
       </c>
-      <c r="G75" s="23">
+      <c r="G75" s="22">
         <v>1238.6446945055732</v>
       </c>
-      <c r="H75" s="23">
+      <c r="H75" s="22">
         <v>3591.8772673047747</v>
       </c>
-      <c r="I75" s="23">
+      <c r="I75" s="22">
         <v>4968.1380669492974</v>
       </c>
-      <c r="J75" s="23">
+      <c r="J75" s="22">
         <v>1376.2607996445226</v>
       </c>
-      <c r="K75" s="22">
+      <c r="K75" s="21">
         <v>3729.4933724437237</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="16">
+    <row r="76" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="15">
         <v>45016</v>
       </c>
-      <c r="B76" s="26">
+      <c r="B76" s="25">
         <v>1.2989900000000001</v>
       </c>
-      <c r="C76" s="21">
+      <c r="C76" s="20">
         <v>1.0293158435374137</v>
       </c>
-      <c r="D76" s="22">
+      <c r="D76" s="21">
         <v>-417.99494251700895</v>
       </c>
-      <c r="E76" s="23">
+      <c r="E76" s="22">
         <v>-321.78457302751286</v>
       </c>
-      <c r="F76" s="23">
+      <c r="F76" s="22">
         <v>738.16347933094744</v>
       </c>
-      <c r="G76" s="23">
+      <c r="G76" s="22">
         <v>958.86697801610751</v>
       </c>
-      <c r="H76" s="23">
+      <c r="H76" s="22">
         <v>3591.8772673047747</v>
       </c>
-      <c r="I76" s="23">
+      <c r="I76" s="22">
         <v>5106.3552929768402</v>
       </c>
-      <c r="J76" s="23">
+      <c r="J76" s="22">
         <v>1514.4780256720655</v>
       </c>
-      <c r="K76" s="22">
+      <c r="K76" s="21">
         <v>4147.4883149607331</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L93" s="8"/>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L94" s="8"/>
-    </row>
-    <row r="95" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L95" s="8"/>
-    </row>
-    <row r="96" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L96" s="8"/>
-    </row>
-    <row r="97" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L97" s="8"/>
-    </row>
-    <row r="98" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L98" s="8"/>
-    </row>
-    <row r="99" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L99" s="8"/>
-    </row>
-    <row r="100" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L100" s="8"/>
-    </row>
-    <row r="101" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L101" s="8"/>
-    </row>
-    <row r="102" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L102" s="8"/>
-    </row>
-    <row r="103" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L103" s="8"/>
-    </row>
-    <row r="104" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L104" s="8"/>
-    </row>
-    <row r="105" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L105" s="8"/>
-      <c r="O105" s="3"/>
-    </row>
-    <row r="106" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L106" s="8"/>
-    </row>
-    <row r="107" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L107" s="8"/>
-    </row>
-    <row r="108" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L108" s="8"/>
-    </row>
-    <row r="109" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L109" s="8"/>
-    </row>
-    <row r="110" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L110" s="8"/>
-    </row>
-    <row r="111" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L111" s="8"/>
-    </row>
-    <row r="112" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L112" s="8"/>
-    </row>
-    <row r="113" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L113" s="8"/>
-    </row>
-    <row r="114" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L114" s="8"/>
-    </row>
-    <row r="115" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L115" s="8"/>
-    </row>
-    <row r="116" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L116" s="8"/>
-    </row>
-    <row r="117" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L117" s="8"/>
-      <c r="O117" s="3"/>
-    </row>
-    <row r="118" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L118" s="8"/>
-    </row>
-    <row r="119" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L119" s="8"/>
-    </row>
-    <row r="120" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L120" s="8"/>
-    </row>
-    <row r="121" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L121" s="8"/>
-    </row>
-    <row r="122" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L122" s="8"/>
-    </row>
-    <row r="123" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L123" s="8"/>
-    </row>
-    <row r="124" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L124" s="8"/>
-    </row>
-    <row r="125" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L125" s="8"/>
-    </row>
-    <row r="126" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L126" s="8"/>
-    </row>
-    <row r="127" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L127" s="8"/>
-    </row>
-    <row r="128" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L128" s="8"/>
-    </row>
-    <row r="129" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L129" s="8"/>
-      <c r="O129" s="3"/>
-    </row>
-    <row r="130" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L130" s="8"/>
-    </row>
-    <row r="131" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L131" s="8"/>
-    </row>
-    <row r="132" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L132" s="8"/>
-    </row>
-    <row r="133" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L133" s="8"/>
-    </row>
-    <row r="134" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L134" s="8"/>
-    </row>
-    <row r="135" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L135" s="8"/>
-    </row>
-    <row r="136" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L136" s="8"/>
-    </row>
-    <row r="137" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L137" s="8"/>
-    </row>
-    <row r="138" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L138" s="8"/>
-    </row>
-    <row r="139" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L139" s="8"/>
-    </row>
-    <row r="140" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L140" s="8"/>
-    </row>
-    <row r="141" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L141" s="8"/>
-      <c r="O141" s="3"/>
-    </row>
-    <row r="142" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L142" s="8"/>
-    </row>
-    <row r="143" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L143" s="8"/>
-    </row>
-    <row r="144" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L144" s="8"/>
-    </row>
-    <row r="145" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L145" s="8"/>
-    </row>
-    <row r="146" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L146" s="8"/>
-    </row>
-    <row r="147" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L147" s="8"/>
-    </row>
-    <row r="148" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L148" s="8"/>
-    </row>
-    <row r="149" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L149" s="8"/>
-    </row>
-    <row r="150" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L150" s="8"/>
-    </row>
-    <row r="151" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L151" s="8"/>
-    </row>
-    <row r="152" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L152" s="8"/>
-    </row>
-    <row r="153" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L153" s="8"/>
-      <c r="O153" s="3"/>
-    </row>
-    <row r="154" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L154" s="8"/>
-    </row>
-    <row r="155" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L155" s="8"/>
-    </row>
-    <row r="156" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L156" s="8"/>
-    </row>
-    <row r="157" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L157" s="8"/>
-    </row>
-    <row r="158" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L158" s="8"/>
-    </row>
-    <row r="159" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L159" s="8"/>
-    </row>
-    <row r="160" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L160" s="8"/>
-    </row>
-    <row r="161" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L161" s="8"/>
-    </row>
-    <row r="162" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L162" s="8"/>
-    </row>
-    <row r="163" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L163" s="8"/>
-    </row>
-    <row r="164" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L164" s="8"/>
-    </row>
-    <row r="165" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L165" s="8"/>
-      <c r="O165" s="3"/>
-    </row>
-    <row r="166" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L166" s="8"/>
-    </row>
-    <row r="167" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L167" s="8"/>
-    </row>
-    <row r="168" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L168" s="4"/>
-    </row>
-    <row r="169" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L169" s="4"/>
-    </row>
-    <row r="170" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L170" s="4"/>
-    </row>
-    <row r="171" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L171" s="4"/>
-    </row>
-    <row r="172" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L172" s="4"/>
-    </row>
-    <row r="173" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L173" s="4"/>
-    </row>
-    <row r="174" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L174" s="4"/>
-    </row>
-    <row r="175" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L175" s="4"/>
-    </row>
-    <row r="176" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L176" s="4"/>
-    </row>
-    <row r="177" spans="12:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L177" s="4"/>
-    </row>
-    <row r="178" spans="12:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L178" s="4"/>
-    </row>
-    <row r="179" spans="12:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L179" s="4"/>
-    </row>
-    <row r="180" spans="12:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L180" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7743,179 +7453,179 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF180"/>
+  <dimension ref="A1:AF64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C10" sqref="C10"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" style="3" customWidth="1"/>
-    <col min="7" max="8" width="11.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.77734375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="3" customWidth="1"/>
+    <col min="7" max="8" width="11.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.75" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="2"/>
     <col min="14" max="14" width="9" style="1"/>
-    <col min="15" max="15" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.33203125" style="1" customWidth="1"/>
-    <col min="18" max="19" width="11.109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.33203125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.21875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="10.109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.375" style="1" customWidth="1"/>
+    <col min="18" max="19" width="11.125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.25" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.125" style="1" customWidth="1"/>
     <col min="23" max="23" width="9" style="1"/>
-    <col min="24" max="24" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="26" width="9" style="1"/>
-    <col min="27" max="27" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="29" width="9" style="1"/>
-    <col min="30" max="30" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="31" max="50" width="9" style="1"/>
-    <col min="51" max="51" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="52" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="13" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="14"/>
-    </row>
-    <row r="2" spans="1:32" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="25"/>
-      <c r="M2" s="20"/>
+      <c r="M1" s="13"/>
+    </row>
+    <row r="2" spans="1:32" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="24"/>
+      <c r="M2" s="19"/>
     </row>
     <row r="3" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5">
         <v>1550</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5">
         <f>MIN(F:F)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="8"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="A4" s="15">
         <v>43189</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="25">
         <v>0.95575999999999994</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="20">
         <v>0.91680896000000012</v>
       </c>
-      <c r="D4" s="22">
-        <v>0</v>
-      </c>
-      <c r="E4" s="23">
-        <v>0</v>
-      </c>
-      <c r="F4" s="23">
-        <v>0</v>
-      </c>
-      <c r="G4" s="23">
-        <v>0</v>
-      </c>
-      <c r="H4" s="23">
-        <v>0</v>
-      </c>
-      <c r="I4" s="23">
-        <v>0</v>
-      </c>
-      <c r="J4" s="23">
-        <v>0</v>
-      </c>
-      <c r="K4" s="22">
-        <v>0</v>
-      </c>
-      <c r="L4" s="8"/>
-      <c r="O4" s="27" t="s">
+      <c r="D4" s="21">
+        <v>0</v>
+      </c>
+      <c r="E4" s="22">
+        <v>0</v>
+      </c>
+      <c r="F4" s="22">
+        <v>0</v>
+      </c>
+      <c r="G4" s="22">
+        <v>0</v>
+      </c>
+      <c r="H4" s="22">
+        <v>0</v>
+      </c>
+      <c r="I4" s="22">
+        <v>0</v>
+      </c>
+      <c r="J4" s="22">
+        <v>0</v>
+      </c>
+      <c r="K4" s="21">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="O4" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="P4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="Q4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="12" t="s">
+      <c r="R4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="S4" s="12" t="s">
+      <c r="S4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="T4" s="28" t="s">
+      <c r="T4" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="U4" s="12" t="s">
+      <c r="U4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="V4" s="12" t="s">
+      <c r="V4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="X4" s="7">
+      <c r="X4" s="6">
         <v>43462</v>
       </c>
       <c r="Y4" s="1">
@@ -7926,18 +7636,18 @@
         <f t="shared" ref="Z4" si="0">0-Y4</f>
         <v>-1431.6926540000038</v>
       </c>
-      <c r="AA4" s="7">
+      <c r="AA4" s="6">
         <v>43462</v>
       </c>
-      <c r="AB4" s="8">
+      <c r="AB4" s="7">
         <f>VLOOKUP(AA4,O:P,2,)</f>
         <v>1431.6926540000038</v>
       </c>
-      <c r="AC4" s="8">
+      <c r="AC4" s="7">
         <f t="shared" ref="AC4:AC6" si="1">0-AB4</f>
         <v>-1431.6926540000038</v>
       </c>
-      <c r="AD4" s="7">
+      <c r="AD4" s="6">
         <v>43462</v>
       </c>
       <c r="AE4" s="1">
@@ -7949,65 +7659,65 @@
       </c>
     </row>
     <row r="5" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <v>43217</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="25">
         <v>0.92662</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="20">
         <v>0.91465696000000007</v>
       </c>
-      <c r="D5" s="22">
-        <v>0</v>
-      </c>
-      <c r="E5" s="23">
-        <v>0</v>
-      </c>
-      <c r="F5" s="23">
-        <v>0</v>
-      </c>
-      <c r="G5" s="23">
-        <v>0</v>
-      </c>
-      <c r="H5" s="23">
-        <v>0</v>
-      </c>
-      <c r="I5" s="23">
-        <v>0</v>
-      </c>
-      <c r="J5" s="23">
-        <v>0</v>
-      </c>
-      <c r="K5" s="22">
-        <v>0</v>
-      </c>
-      <c r="L5" s="8"/>
-      <c r="O5" s="7">
+      <c r="D5" s="21">
+        <v>0</v>
+      </c>
+      <c r="E5" s="22">
+        <v>0</v>
+      </c>
+      <c r="F5" s="22">
+        <v>0</v>
+      </c>
+      <c r="G5" s="22">
+        <v>0</v>
+      </c>
+      <c r="H5" s="22">
+        <v>0</v>
+      </c>
+      <c r="I5" s="22">
+        <v>0</v>
+      </c>
+      <c r="J5" s="22">
+        <v>0</v>
+      </c>
+      <c r="K5" s="21">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="O5" s="6">
         <v>43462</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="10">
         <v>1431.6926540000038</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="5">
         <v>1431.6926540000038</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="5">
         <v>1305.2741513950191</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="5">
         <v>-126.41850260498472</v>
       </c>
-      <c r="T5" s="6">
-        <v>0</v>
-      </c>
-      <c r="U5" s="10">
+      <c r="T5" s="5">
+        <v>0</v>
+      </c>
+      <c r="U5" s="9">
         <v>-8.8300028816788487E-2</v>
       </c>
-      <c r="V5" s="10">
+      <c r="V5" s="9">
         <v>-8.8300028816788487E-2</v>
       </c>
-      <c r="X5" s="7">
+      <c r="X5" s="6">
         <v>43830</v>
       </c>
       <c r="Y5" s="1">
@@ -8018,18 +7728,18 @@
         <f t="shared" ref="Z5" si="2">0-Y5</f>
         <v>-193.28661200000033</v>
       </c>
-      <c r="AA5" s="7">
+      <c r="AA5" s="6">
         <v>43830</v>
       </c>
-      <c r="AB5" s="8">
+      <c r="AB5" s="7">
         <f>VLOOKUP(AA5,O:P,2,)</f>
         <v>193.28661200000033</v>
       </c>
-      <c r="AC5" s="8">
+      <c r="AC5" s="7">
         <f t="shared" si="1"/>
         <v>-193.28661200000033</v>
       </c>
-      <c r="AD5" s="7">
+      <c r="AD5" s="6">
         <v>43830</v>
       </c>
       <c r="AE5" s="1">
@@ -8041,82 +7751,82 @@
       </c>
     </row>
     <row r="6" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+      <c r="A6" s="15">
         <v>43251</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="25">
         <v>0.88405999999999996</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="20">
         <v>0.91904036000000011</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="21">
         <v>54.219558000000241</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="22">
         <v>61.330178947130563</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="22">
         <v>61.330178947130563</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="22">
         <v>54.219558000000241</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="22">
         <v>54.219558000000241</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="22">
         <v>54.219558000000241</v>
       </c>
-      <c r="J6" s="23">
-        <v>0</v>
-      </c>
-      <c r="K6" s="22">
-        <v>0</v>
-      </c>
-      <c r="L6" s="8"/>
-      <c r="O6" s="7">
+      <c r="J6" s="22">
+        <v>0</v>
+      </c>
+      <c r="K6" s="21">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="O6" s="6">
         <v>43830</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="10">
         <v>193.28661200000033</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="5">
         <v>1624.9792660000041</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="5">
         <v>2121.5860729661367</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="5">
         <v>496.60680696613258</v>
       </c>
-      <c r="T6" s="6">
+      <c r="T6" s="5">
         <v>1754.5207020000048</v>
       </c>
-      <c r="U6" s="10">
+      <c r="U6" s="9">
         <v>0.30560808827337449</v>
       </c>
-      <c r="V6" s="10">
+      <c r="V6" s="9">
         <v>0.15168919836337369</v>
       </c>
-      <c r="X6" s="7">
+      <c r="X6" s="6">
         <v>43830</v>
       </c>
       <c r="Z6" s="1">
         <v>2121.5860729661367</v>
       </c>
-      <c r="AA6" s="7">
+      <c r="AA6" s="6">
         <v>44196</v>
       </c>
-      <c r="AB6" s="8">
+      <c r="AB6" s="7">
         <f>VLOOKUP(AA6,O:P,2,)</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="8">
+      <c r="AC6" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD6" s="7">
+      <c r="AD6" s="6">
         <v>44196</v>
       </c>
       <c r="AE6" s="1">
@@ -8128,75 +7838,75 @@
       </c>
     </row>
     <row r="7" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+      <c r="A7" s="15">
         <v>43280</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="25">
         <v>0.81235999999999997</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="20">
         <v>0.91734940000000031</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="21">
         <v>162.73357000000053</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="22">
         <v>200.32198778866578</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="22">
         <v>261.65216673579636</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="22">
         <v>212.55575416949151</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="22">
         <v>216.95312800000076</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="22">
         <v>212.55575416949151</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="22">
         <v>-4.3973738305092525</v>
       </c>
-      <c r="K7" s="22">
-        <v>0</v>
-      </c>
-      <c r="L7" s="8"/>
-      <c r="O7" s="7">
+      <c r="K7" s="21">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7"/>
+      <c r="O7" s="6">
         <v>44196</v>
       </c>
-      <c r="P7" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="6">
+      <c r="P7" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
         <v>1624.9792660000041</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7" s="5">
         <v>2160.3103145693699</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7" s="5">
         <v>535.33104856936575</v>
       </c>
-      <c r="T7" s="6">
+      <c r="T7" s="5">
         <v>2160.3103145693699</v>
       </c>
-      <c r="U7" s="10">
+      <c r="U7" s="9">
         <v>0.32943869486231608</v>
       </c>
-      <c r="V7" s="10">
+      <c r="V7" s="9">
         <v>0.10369660281505078</v>
       </c>
       <c r="Z7" s="2">
         <f>IRR(Z4:Z6)</f>
         <v>0.15168919836337369</v>
       </c>
-      <c r="AA7" s="7">
+      <c r="AA7" s="6">
         <v>44196</v>
       </c>
-      <c r="AC7" s="8">
+      <c r="AC7" s="7">
         <v>2160.3103145693699</v>
       </c>
-      <c r="AD7" s="7">
+      <c r="AD7" s="6">
         <v>44561</v>
       </c>
       <c r="AE7" s="1">
@@ -8208,69 +7918,69 @@
       </c>
     </row>
     <row r="8" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+      <c r="A8" s="15">
         <v>43312</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="25">
         <v>0.8131799999999999</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="20">
         <v>0.91070244000000022</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="21">
         <v>151.15978200000049</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="22">
         <v>185.88723529845853</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="22">
         <v>447.53940203425486</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="22">
         <v>363.93009094621533</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="22">
         <v>368.11291000000125</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="22">
         <v>363.93009094621533</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="22">
         <v>-4.18281905378592</v>
       </c>
-      <c r="K8" s="22">
-        <v>0</v>
-      </c>
-      <c r="L8" s="8"/>
-      <c r="O8" s="7">
+      <c r="K8" s="21">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="O8" s="6">
         <v>44561</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P8" s="10">
         <v>439.433556000002</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="5">
         <v>2064.4128220000061</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="5">
         <v>2633.6658962308707</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="5">
         <v>569.25307423086451</v>
       </c>
-      <c r="T8" s="6">
+      <c r="T8" s="5">
         <v>2365.5016705693652</v>
       </c>
-      <c r="U8" s="10">
+      <c r="U8" s="9">
         <v>0.2757457559672446</v>
       </c>
-      <c r="V8" s="10">
+      <c r="V8" s="9">
         <v>9.161448749478418E-2</v>
       </c>
       <c r="AC8" s="2">
         <f>IRR(AC4:AC7)</f>
         <v>0.10369660281505078</v>
       </c>
-      <c r="AD8" s="7">
+      <c r="AD8" s="6">
         <v>44561</v>
       </c>
       <c r="AF8" s="1">
@@ -8278,62 +7988,62 @@
       </c>
     </row>
     <row r="9" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+      <c r="A9" s="15">
         <v>43343</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="25">
         <v>0.77766999999999997</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="20">
         <v>0.89930640000000006</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="21">
         <v>188.53642000000013</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="22">
         <v>242.43756349094107</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="22">
         <v>689.97696552519596</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="22">
         <v>536.57438677997914</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="22">
         <v>556.64933000000133</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="22">
         <v>536.57438677997914</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="22">
         <v>-20.074943220022192</v>
       </c>
-      <c r="K9" s="22">
-        <v>0</v>
-      </c>
-      <c r="L9" s="8"/>
-      <c r="O9" s="7">
+      <c r="K9" s="21">
+        <v>0</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="O9" s="6">
         <v>44925</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P9" s="10">
         <v>2771.7310180000009</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="5">
         <v>4836.143840000007</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9" s="5">
         <v>5394.8728413640729</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S9" s="5">
         <v>558.72900136406588</v>
       </c>
-      <c r="T9" s="6">
+      <c r="T9" s="5">
         <v>2365.5016705693652</v>
       </c>
-      <c r="U9" s="10">
+      <c r="U9" s="9">
         <v>0.11553192374941128</v>
       </c>
-      <c r="V9" s="10">
+      <c r="V9" s="9">
         <v>6.5682800424140098E-2</v>
       </c>
       <c r="AF9" s="2">
@@ -8342,41 +8052,41 @@
       </c>
     </row>
     <row r="10" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+      <c r="A10" s="15">
         <v>43371</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="25">
         <v>0.76784000000000008</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="20">
         <v>0.8825278000000002</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="21">
         <v>177.76609000000019</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="22">
         <v>231.51449520733507</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="22">
         <v>921.4914607325311</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="22">
         <v>707.55800320886669</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="22">
         <v>734.41542000000152</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="22">
         <v>707.55800320886669</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="22">
         <v>-26.857416791134824</v>
       </c>
-      <c r="K10" s="22">
-        <v>0</v>
-      </c>
-      <c r="L10" s="8"/>
-      <c r="X10" s="7">
+      <c r="K10" s="21">
+        <v>0</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="X10" s="6">
         <v>43462</v>
       </c>
       <c r="Y10" s="1">
@@ -8388,41 +8098,41 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+      <c r="A11" s="15">
         <v>43404</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="25">
         <v>0.67677999999999994</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="20">
         <v>0.86133792000000031</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="21">
         <v>286.06477600000056</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="22">
         <v>422.68503206359611</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="22">
         <v>1344.1764927961271</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="22">
         <v>909.71176679456289</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="22">
         <v>1020.480196000002</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="22">
         <v>909.71176679456289</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="22">
         <v>-110.76842920543913</v>
       </c>
-      <c r="K11" s="22">
-        <v>0</v>
-      </c>
-      <c r="L11" s="8"/>
-      <c r="X11" s="7">
+      <c r="K11" s="21">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="X11" s="6">
         <v>43830</v>
       </c>
       <c r="Y11" s="1">
@@ -8434,41 +8144,41 @@
       </c>
     </row>
     <row r="12" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="A12" s="15">
         <v>43434</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="25">
         <v>0.7214299999999999</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="20">
         <v>0.83959144000000063</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="21">
         <v>183.15023200000113</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="22">
         <v>253.8711059978115</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="22">
         <v>1598.0475987939387</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="22">
         <v>1152.879479197911</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="22">
         <v>1203.6304280000031</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="22">
         <v>1152.879479197911</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="22">
         <v>-50.750948802092125</v>
       </c>
-      <c r="K12" s="22">
-        <v>0</v>
-      </c>
-      <c r="L12" s="8"/>
-      <c r="X12" s="7">
+      <c r="K12" s="21">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="X12" s="6">
         <v>44196</v>
       </c>
       <c r="Y12" s="1">
@@ -8480,41 +8190,41 @@
       </c>
     </row>
     <row r="13" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+      <c r="A13" s="15">
         <v>43462</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="25">
         <v>0.67408000000000001</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="20">
         <v>0.82121692000000046</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="21">
         <v>228.06222600000069</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="22">
         <v>338.33109719914654</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="22">
         <v>1936.3786959930853</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="22">
         <v>1305.2741513950191</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="22">
         <v>1431.6926540000038</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="22">
         <v>1305.2741513950191</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="22">
         <v>-126.41850260498472</v>
       </c>
-      <c r="K13" s="22">
-        <v>0</v>
-      </c>
-      <c r="L13" s="8"/>
-      <c r="X13" s="7">
+      <c r="K13" s="21">
+        <v>0</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="X13" s="6">
         <v>44561</v>
       </c>
       <c r="Y13" s="1">
@@ -8526,41 +8236,41 @@
       </c>
     </row>
     <row r="14" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+      <c r="A14" s="15">
         <v>43496</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="25">
         <v>0.67819000000000007</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="20">
         <v>0.80289104000000022</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="21">
         <v>193.28661200000025</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="22">
         <v>285.00363025110988</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="22">
         <v>2221.3823262441952</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="22">
         <v>1506.5192798355508</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="22">
         <v>1506.5192798355508</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="22">
         <v>-118.45998616445331</v>
       </c>
-      <c r="K14" s="22">
-        <v>0</v>
-      </c>
-      <c r="L14" s="8"/>
-      <c r="X14" s="7">
+      <c r="K14" s="21">
+        <v>0</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="X14" s="6">
         <v>44925</v>
       </c>
       <c r="Y14" s="1">
@@ -8572,41 +8282,41 @@
       </c>
     </row>
     <row r="15" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
+      <c r="A15" s="15">
         <v>43524</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="25">
         <v>0.85648000000000002</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="20">
         <v>0.79863988000000019</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="21">
         <v>-89.65218599999973</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="22">
         <v>-104.67516579488105</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="22">
         <v>2116.707160449314</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="22">
         <v>1812.9173487816286</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="22">
         <v>1902.5695347816284</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="22">
         <v>277.59026878162422</v>
       </c>
-      <c r="K15" s="22">
+      <c r="K15" s="21">
         <v>89.65218599999973</v>
       </c>
-      <c r="L15" s="8"/>
-      <c r="X15" s="7">
+      <c r="L15" s="7"/>
+      <c r="X15" s="6">
         <v>44925</v>
       </c>
       <c r="Z15" s="1">
@@ -8614,2057 +8324,1757 @@
       </c>
     </row>
     <row r="16" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
+      <c r="A16" s="15">
         <v>43553</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="25">
         <v>0.94580999999999993</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="20">
         <v>0.80337899999999995</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="21">
         <v>-220.76804999999996</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="22">
         <v>-233.41691248770891</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="22">
         <v>1883.290247961605</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="22">
         <v>1781.2347494245655</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="22">
         <v>2091.654985424565</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="22">
         <v>466.67571942456084</v>
       </c>
-      <c r="K16" s="22">
+      <c r="K16" s="21">
         <v>310.4202359999997</v>
       </c>
-      <c r="L16" s="8"/>
+      <c r="L16" s="7"/>
       <c r="Z16" s="2">
         <f>IRR(Z10:Z15)</f>
         <v>6.5682800424140098E-2</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
+      <c r="A17" s="15">
         <v>43585</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="25">
         <v>0.9108099999999999</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="20">
         <v>0.80660947999999977</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="21">
         <v>-161.5108060000002</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="22">
         <v>-177.32656207112376</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="22">
         <v>1705.9636858904812</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="22">
         <v>1553.808784745909</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="22">
         <v>2025.7398267459089</v>
       </c>
-      <c r="J17" s="23">
+      <c r="J17" s="22">
         <v>400.76056074590474</v>
       </c>
-      <c r="K17" s="22">
+      <c r="K17" s="21">
         <v>471.93104199999993</v>
       </c>
-      <c r="L17" s="8"/>
+      <c r="L17" s="7"/>
     </row>
     <row r="18" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
+      <c r="A18" s="15">
         <v>43616</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="25">
         <v>0.86360000000000003</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="20">
         <v>0.8020255199999996</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="21">
         <v>-95.440444000000667</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="22">
         <v>-110.51464103751813</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="22">
         <v>1595.449044852963</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="22">
         <v>1377.8297951350189</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="22">
         <v>1945.2012811350196</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J18" s="22">
         <v>320.22201513501545</v>
       </c>
-      <c r="K18" s="22">
+      <c r="K18" s="21">
         <v>567.37148600000057</v>
       </c>
-      <c r="L18" s="8"/>
+      <c r="L18" s="7"/>
     </row>
     <row r="19" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
+      <c r="A19" s="15">
         <v>43644</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="25">
         <v>0.88732</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="20">
         <v>0.80021431999999926</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="21">
         <v>-135.01380400000116</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="22">
         <v>-152.15909029437086</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="22">
         <v>1443.2899545585922</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="22">
         <v>1280.6600424789301</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="22">
         <v>1983.0453324789319</v>
       </c>
-      <c r="J19" s="23">
+      <c r="J19" s="22">
         <v>358.06606647892772</v>
       </c>
-      <c r="K19" s="22">
+      <c r="K19" s="21">
         <v>702.38529000000176</v>
       </c>
-      <c r="L19" s="8"/>
+      <c r="L19" s="7"/>
     </row>
     <row r="20" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
+      <c r="A20" s="15">
         <v>43677</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="25">
         <v>0.89222000000000001</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="20">
         <v>0.80840215999999976</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="21">
         <v>-129.9176520000004</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="22">
         <v>-145.61167873394498</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="22">
         <v>1297.6782758246472</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="22">
         <v>1157.8145112562668</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="22">
         <v>1990.1174532562691</v>
       </c>
-      <c r="J20" s="23">
+      <c r="J20" s="22">
         <v>365.13818725626493</v>
       </c>
-      <c r="K20" s="22">
+      <c r="K20" s="21">
         <v>832.30294200000219</v>
       </c>
-      <c r="L20" s="8"/>
+      <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16">
+      <c r="A21" s="15">
         <v>43707</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="25">
         <v>0.92357</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="20">
         <v>0.81579543999999959</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="21">
         <v>-167.05056800000062</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="22">
         <v>-180.87483136091538</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="22">
         <v>1116.8034444637319</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="22">
         <v>1031.4461572033688</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="22">
         <v>2030.7996672033717</v>
       </c>
-      <c r="J21" s="23">
+      <c r="J21" s="22">
         <v>405.82040120336751</v>
       </c>
-      <c r="K21" s="22">
+      <c r="K21" s="21">
         <v>999.35351000000287</v>
       </c>
-      <c r="L21" s="9"/>
+      <c r="L21" s="8"/>
     </row>
     <row r="22" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
+      <c r="A22" s="15">
         <v>43738</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="25">
         <v>0.95855999999999997</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="20">
         <v>0.83312139999999968</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="21">
         <v>-194.42983000000044</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="22">
         <v>-202.83532590552542</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="22">
         <v>913.96811855820647</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="22">
         <v>876.09327972515439</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="22">
         <v>2069.876619725158</v>
       </c>
-      <c r="J22" s="23">
+      <c r="J22" s="22">
         <v>444.89735372515383</v>
       </c>
-      <c r="K22" s="22">
+      <c r="K22" s="21">
         <v>1193.7833400000034</v>
       </c>
-      <c r="L22" s="8"/>
+      <c r="L22" s="7"/>
     </row>
     <row r="23" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16">
+      <c r="A23" s="15">
         <v>43769</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B23" s="25">
         <v>0.97238999999999998</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="20">
         <v>0.85132979999999947</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="21">
         <v>-187.64331000000078</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="22">
         <v>-192.97124610495871</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="22">
         <v>720.99687245324776</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="22">
         <v>701.09014880481357</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I23" s="22">
         <v>2082.5167988048179</v>
       </c>
-      <c r="J23" s="23">
+      <c r="J23" s="22">
         <v>457.53753280481374</v>
       </c>
-      <c r="K23" s="22">
+      <c r="K23" s="21">
         <v>1381.4266500000042</v>
       </c>
-      <c r="L23" s="8"/>
+      <c r="L23" s="7"/>
       <c r="O23" s="3"/>
     </row>
     <row r="24" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16">
+      <c r="A24" s="15">
         <v>43798</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="25">
         <v>0.97728999999999999</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="20">
         <v>0.87548991999999959</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="21">
         <v>-157.79012400000062</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="22">
         <v>-161.45680811222934</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="22">
         <v>559.54006434101848</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="22">
         <v>546.83290947983392</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I24" s="23">
+      <c r="I24" s="22">
         <v>2086.0496834798387</v>
       </c>
-      <c r="J24" s="23">
+      <c r="J24" s="22">
         <v>461.07041747983453</v>
       </c>
-      <c r="K24" s="22">
+      <c r="K24" s="21">
         <v>1539.2167740000048</v>
       </c>
-      <c r="L24" s="8"/>
+      <c r="L24" s="7"/>
     </row>
     <row r="25" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16">
+      <c r="A25" s="15">
         <v>43830</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="25">
         <v>1.0407999999999999</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="20">
         <v>0.90189423999999996</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="21">
         <v>-215.30392799999998</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="22">
         <v>-206.86388162951576</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="22">
         <v>352.67618271150275</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="22">
         <v>367.06537096613204</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I25" s="23">
+      <c r="I25" s="22">
         <v>2121.5860729661367</v>
       </c>
-      <c r="J25" s="23">
+      <c r="J25" s="22">
         <v>496.60680696613258</v>
       </c>
-      <c r="K25" s="22">
+      <c r="K25" s="21">
         <v>1754.5207020000048</v>
       </c>
-      <c r="L25" s="8"/>
+      <c r="L25" s="7"/>
     </row>
     <row r="26" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16">
+      <c r="A26" s="15">
         <v>43853</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B26" s="25">
         <v>1.13632</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="20">
         <v>0.92962908</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="21">
         <v>-320.370926</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="22">
         <v>-281.93724127006476</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="22">
         <v>70.738941441437987</v>
       </c>
-      <c r="G26" s="23">
+      <c r="G26" s="22">
         <v>80.38207393873482</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I26" s="23">
+      <c r="I26" s="22">
         <v>2155.2737019387396</v>
       </c>
-      <c r="J26" s="23">
+      <c r="J26" s="22">
         <v>530.29443593873543</v>
       </c>
-      <c r="K26" s="22">
+      <c r="K26" s="21">
         <v>2074.8916280000049</v>
       </c>
-      <c r="L26" s="8"/>
+      <c r="L26" s="7"/>
     </row>
     <row r="27" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16">
+      <c r="A27" s="15">
         <v>43889</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="25">
         <v>1.2075199999999999</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="20">
         <v>0.96966315999999997</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="21">
         <v>-85.418686569365192</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="22">
         <v>-70.738941441437987</v>
       </c>
-      <c r="F27" s="23">
-        <v>0</v>
-      </c>
-      <c r="G27" s="23">
-        <v>0</v>
-      </c>
-      <c r="H27" s="23">
+      <c r="F27" s="22">
+        <v>0</v>
+      </c>
+      <c r="G27" s="22">
+        <v>0</v>
+      </c>
+      <c r="H27" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I27" s="23">
+      <c r="I27" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J27" s="23">
+      <c r="J27" s="22">
         <v>535.33104856936575</v>
       </c>
-      <c r="K27" s="22">
+      <c r="K27" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L27" s="8"/>
+      <c r="L27" s="7"/>
     </row>
     <row r="28" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16">
+      <c r="A28" s="15">
         <v>43921</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="25">
         <v>1.0721400000000001</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="20">
         <v>0.99416948000000038</v>
       </c>
-      <c r="D28" s="22">
-        <v>0</v>
-      </c>
-      <c r="E28" s="23">
-        <v>0</v>
-      </c>
-      <c r="F28" s="23">
-        <v>0</v>
-      </c>
-      <c r="G28" s="23">
-        <v>0</v>
-      </c>
-      <c r="H28" s="23">
+      <c r="D28" s="21">
+        <v>0</v>
+      </c>
+      <c r="E28" s="22">
+        <v>0</v>
+      </c>
+      <c r="F28" s="22">
+        <v>0</v>
+      </c>
+      <c r="G28" s="22">
+        <v>0</v>
+      </c>
+      <c r="H28" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I28" s="23">
+      <c r="I28" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J28" s="23">
+      <c r="J28" s="22">
         <v>535.33104856936575</v>
       </c>
-      <c r="K28" s="22">
+      <c r="K28" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L28" s="8"/>
+      <c r="L28" s="7"/>
     </row>
     <row r="29" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16">
+      <c r="A29" s="15">
         <v>43951</v>
       </c>
-      <c r="B29" s="26">
+      <c r="B29" s="25">
         <v>1.13618</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="20">
         <v>1.0066833200000003</v>
       </c>
-      <c r="D29" s="22">
-        <v>0</v>
-      </c>
-      <c r="E29" s="23">
-        <v>0</v>
-      </c>
-      <c r="F29" s="23">
-        <v>0</v>
-      </c>
-      <c r="G29" s="23">
-        <v>0</v>
-      </c>
-      <c r="H29" s="23">
+      <c r="D29" s="21">
+        <v>0</v>
+      </c>
+      <c r="E29" s="22">
+        <v>0</v>
+      </c>
+      <c r="F29" s="22">
+        <v>0</v>
+      </c>
+      <c r="G29" s="22">
+        <v>0</v>
+      </c>
+      <c r="H29" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I29" s="23">
+      <c r="I29" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J29" s="23">
+      <c r="J29" s="22">
         <v>535.33104856936575</v>
       </c>
-      <c r="K29" s="22">
+      <c r="K29" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L29" s="8"/>
+      <c r="L29" s="7"/>
     </row>
     <row r="30" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16">
+      <c r="A30" s="15">
         <v>43980</v>
       </c>
-      <c r="B30" s="26">
+      <c r="B30" s="25">
         <v>1.12294</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="20">
         <v>1.0254032800000001</v>
       </c>
-      <c r="D30" s="22">
-        <v>0</v>
-      </c>
-      <c r="E30" s="23">
-        <v>0</v>
-      </c>
-      <c r="F30" s="23">
-        <v>0</v>
-      </c>
-      <c r="G30" s="23">
-        <v>0</v>
-      </c>
-      <c r="H30" s="23">
+      <c r="D30" s="21">
+        <v>0</v>
+      </c>
+      <c r="E30" s="22">
+        <v>0</v>
+      </c>
+      <c r="F30" s="22">
+        <v>0</v>
+      </c>
+      <c r="G30" s="22">
+        <v>0</v>
+      </c>
+      <c r="H30" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I30" s="23">
+      <c r="I30" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J30" s="23">
+      <c r="J30" s="22">
         <v>535.33104856936575</v>
       </c>
-      <c r="K30" s="22">
+      <c r="K30" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L30" s="8"/>
+      <c r="L30" s="7"/>
     </row>
     <row r="31" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="16">
+      <c r="A31" s="15">
         <v>44012</v>
       </c>
-      <c r="B31" s="26">
+      <c r="B31" s="25">
         <v>1.25214</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="20">
         <v>1.0521240799999996</v>
       </c>
-      <c r="D31" s="22">
-        <v>0</v>
-      </c>
-      <c r="E31" s="23">
-        <v>0</v>
-      </c>
-      <c r="F31" s="23">
-        <v>0</v>
-      </c>
-      <c r="G31" s="23">
-        <v>0</v>
-      </c>
-      <c r="H31" s="23">
+      <c r="D31" s="21">
+        <v>0</v>
+      </c>
+      <c r="E31" s="22">
+        <v>0</v>
+      </c>
+      <c r="F31" s="22">
+        <v>0</v>
+      </c>
+      <c r="G31" s="22">
+        <v>0</v>
+      </c>
+      <c r="H31" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I31" s="23">
+      <c r="I31" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J31" s="23">
+      <c r="J31" s="22">
         <v>535.33104856936575</v>
       </c>
-      <c r="K31" s="22">
+      <c r="K31" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L31" s="8"/>
+      <c r="L31" s="7"/>
     </row>
     <row r="32" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16">
+      <c r="A32" s="15">
         <v>44043</v>
       </c>
-      <c r="B32" s="26">
+      <c r="B32" s="25">
         <v>1.3561700000000001</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="20">
         <v>1.09524756</v>
       </c>
-      <c r="D32" s="22">
-        <v>0</v>
-      </c>
-      <c r="E32" s="23">
-        <v>0</v>
-      </c>
-      <c r="F32" s="23">
-        <v>0</v>
-      </c>
-      <c r="G32" s="23">
-        <v>0</v>
-      </c>
-      <c r="H32" s="23">
+      <c r="D32" s="21">
+        <v>0</v>
+      </c>
+      <c r="E32" s="22">
+        <v>0</v>
+      </c>
+      <c r="F32" s="22">
+        <v>0</v>
+      </c>
+      <c r="G32" s="22">
+        <v>0</v>
+      </c>
+      <c r="H32" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I32" s="23">
+      <c r="I32" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J32" s="23">
+      <c r="J32" s="22">
         <v>535.33104856936575</v>
       </c>
-      <c r="K32" s="22">
+      <c r="K32" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L32" s="8"/>
+      <c r="L32" s="7"/>
     </row>
     <row r="33" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="16">
+      <c r="A33" s="15">
         <v>44074</v>
       </c>
-      <c r="B33" s="26">
+      <c r="B33" s="25">
         <v>1.35833</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="20">
         <v>1.1352650000000004</v>
       </c>
-      <c r="D33" s="22">
-        <v>0</v>
-      </c>
-      <c r="E33" s="23">
-        <v>0</v>
-      </c>
-      <c r="F33" s="23">
-        <v>0</v>
-      </c>
-      <c r="G33" s="23">
-        <v>0</v>
-      </c>
-      <c r="H33" s="23">
+      <c r="D33" s="21">
+        <v>0</v>
+      </c>
+      <c r="E33" s="22">
+        <v>0</v>
+      </c>
+      <c r="F33" s="22">
+        <v>0</v>
+      </c>
+      <c r="G33" s="22">
+        <v>0</v>
+      </c>
+      <c r="H33" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I33" s="23">
+      <c r="I33" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J33" s="23">
+      <c r="J33" s="22">
         <v>535.33104856936575</v>
       </c>
-      <c r="K33" s="22">
+      <c r="K33" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L33" s="8"/>
+      <c r="L33" s="7"/>
     </row>
     <row r="34" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="16">
+      <c r="A34" s="15">
         <v>44104</v>
       </c>
-      <c r="B34" s="26">
+      <c r="B34" s="25">
         <v>1.2336199999999999</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="20">
         <v>1.1624354799999996</v>
       </c>
-      <c r="D34" s="22">
-        <v>0</v>
-      </c>
-      <c r="E34" s="23">
-        <v>0</v>
-      </c>
-      <c r="F34" s="23">
-        <v>0</v>
-      </c>
-      <c r="G34" s="23">
-        <v>0</v>
-      </c>
-      <c r="H34" s="23">
+      <c r="D34" s="21">
+        <v>0</v>
+      </c>
+      <c r="E34" s="22">
+        <v>0</v>
+      </c>
+      <c r="F34" s="22">
+        <v>0</v>
+      </c>
+      <c r="G34" s="22">
+        <v>0</v>
+      </c>
+      <c r="H34" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I34" s="23">
+      <c r="I34" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J34" s="23">
+      <c r="J34" s="22">
         <v>535.33104856936575</v>
       </c>
-      <c r="K34" s="22">
+      <c r="K34" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L34" s="8"/>
+      <c r="L34" s="7"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="16">
+    <row r="35" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="15">
         <v>44134</v>
       </c>
-      <c r="B35" s="26">
+      <c r="B35" s="25">
         <v>1.2367600000000001</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="20">
         <v>1.1809904399999995</v>
       </c>
-      <c r="D35" s="22">
-        <v>0</v>
-      </c>
-      <c r="E35" s="23">
-        <v>0</v>
-      </c>
-      <c r="F35" s="23">
-        <v>0</v>
-      </c>
-      <c r="G35" s="23">
-        <v>0</v>
-      </c>
-      <c r="H35" s="23">
+      <c r="D35" s="21">
+        <v>0</v>
+      </c>
+      <c r="E35" s="22">
+        <v>0</v>
+      </c>
+      <c r="F35" s="22">
+        <v>0</v>
+      </c>
+      <c r="G35" s="22">
+        <v>0</v>
+      </c>
+      <c r="H35" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I35" s="23">
+      <c r="I35" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J35" s="23">
+      <c r="J35" s="22">
         <v>535.33104856936575</v>
       </c>
-      <c r="K35" s="22">
+      <c r="K35" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L35" s="8"/>
-    </row>
-    <row r="36" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="16">
+      <c r="L35" s="7"/>
+    </row>
+    <row r="36" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="15">
         <v>44165</v>
       </c>
-      <c r="B36" s="26">
+      <c r="B36" s="25">
         <v>1.23942</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="20">
         <v>1.2036349600000003</v>
       </c>
-      <c r="D36" s="22">
-        <v>0</v>
-      </c>
-      <c r="E36" s="23">
-        <v>0</v>
-      </c>
-      <c r="F36" s="23">
-        <v>0</v>
-      </c>
-      <c r="G36" s="23">
-        <v>0</v>
-      </c>
-      <c r="H36" s="23">
+      <c r="D36" s="21">
+        <v>0</v>
+      </c>
+      <c r="E36" s="22">
+        <v>0</v>
+      </c>
+      <c r="F36" s="22">
+        <v>0</v>
+      </c>
+      <c r="G36" s="22">
+        <v>0</v>
+      </c>
+      <c r="H36" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I36" s="23">
+      <c r="I36" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J36" s="23">
+      <c r="J36" s="22">
         <v>535.33104856936575</v>
       </c>
-      <c r="K36" s="22">
+      <c r="K36" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L36" s="8"/>
-    </row>
-    <row r="37" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="16">
+      <c r="L36" s="7"/>
+    </row>
+    <row r="37" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="15">
         <v>44196</v>
       </c>
-      <c r="B37" s="26">
+      <c r="B37" s="25">
         <v>1.2531099999999999</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37" s="20">
         <v>1.2247530400000011</v>
       </c>
-      <c r="D37" s="22">
-        <v>0</v>
-      </c>
-      <c r="E37" s="23">
-        <v>0</v>
-      </c>
-      <c r="F37" s="23">
-        <v>0</v>
-      </c>
-      <c r="G37" s="23">
-        <v>0</v>
-      </c>
-      <c r="H37" s="23">
+      <c r="D37" s="21">
+        <v>0</v>
+      </c>
+      <c r="E37" s="22">
+        <v>0</v>
+      </c>
+      <c r="F37" s="22">
+        <v>0</v>
+      </c>
+      <c r="G37" s="22">
+        <v>0</v>
+      </c>
+      <c r="H37" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I37" s="23">
+      <c r="I37" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J37" s="23">
+      <c r="J37" s="22">
         <v>535.33104856936575</v>
       </c>
-      <c r="K37" s="22">
+      <c r="K37" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L37" s="8"/>
-    </row>
-    <row r="38" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="16">
+      <c r="L37" s="7"/>
+    </row>
+    <row r="38" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="15">
         <v>44225</v>
       </c>
-      <c r="B38" s="26">
+      <c r="B38" s="25">
         <v>1.2375</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="20">
         <v>1.2398494000000004</v>
       </c>
-      <c r="D38" s="22">
+      <c r="D38" s="21">
         <v>3.6415700000006046</v>
       </c>
-      <c r="E38" s="23">
+      <c r="E38" s="22">
         <v>2.9426828282833166</v>
       </c>
-      <c r="F38" s="23">
+      <c r="F38" s="22">
         <v>2.9426828282833166</v>
       </c>
-      <c r="G38" s="23">
+      <c r="G38" s="22">
         <v>3.6415700000006046</v>
       </c>
-      <c r="H38" s="23">
+      <c r="H38" s="22">
         <v>1628.6208360000048</v>
       </c>
-      <c r="I38" s="23">
+      <c r="I38" s="22">
         <v>2163.9518845693706</v>
       </c>
-      <c r="J38" s="23">
+      <c r="J38" s="22">
         <v>535.33104856936575</v>
       </c>
-      <c r="K38" s="22">
+      <c r="K38" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L38" s="8"/>
-    </row>
-    <row r="39" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="16">
+      <c r="L38" s="7"/>
+    </row>
+    <row r="39" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="15">
         <v>44253</v>
       </c>
-      <c r="B39" s="26">
+      <c r="B39" s="25">
         <v>1.23967</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39" s="20">
         <v>1.2465734400000006</v>
       </c>
-      <c r="D39" s="22">
+      <c r="D39" s="21">
         <v>10.700332000000834</v>
       </c>
-      <c r="E39" s="23">
+      <c r="E39" s="22">
         <v>8.6315971185886848</v>
       </c>
-      <c r="F39" s="23">
+      <c r="F39" s="22">
         <v>11.574279946872002</v>
       </c>
-      <c r="G39" s="23">
+      <c r="G39" s="22">
         <v>14.348287621738816</v>
       </c>
-      <c r="H39" s="23">
+      <c r="H39" s="22">
         <v>1639.3211680000056</v>
       </c>
-      <c r="I39" s="23">
+      <c r="I39" s="22">
         <v>2174.6586021911089</v>
       </c>
-      <c r="J39" s="23">
+      <c r="J39" s="22">
         <v>535.33743419110328</v>
       </c>
-      <c r="K39" s="22">
+      <c r="K39" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L39" s="8"/>
-    </row>
-    <row r="40" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="16">
+      <c r="L39" s="7"/>
+    </row>
+    <row r="40" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="15">
         <v>44286</v>
       </c>
-      <c r="B40" s="26">
+      <c r="B40" s="25">
         <v>1.15709</v>
       </c>
-      <c r="C40" s="21">
+      <c r="C40" s="20">
         <v>1.2413199199999996</v>
       </c>
-      <c r="D40" s="22">
+      <c r="D40" s="21">
         <v>130.55637599999943</v>
       </c>
-      <c r="E40" s="23">
+      <c r="E40" s="22">
         <v>112.83165181619358</v>
       </c>
-      <c r="F40" s="23">
+      <c r="F40" s="22">
         <v>124.40593176306558</v>
       </c>
-      <c r="G40" s="23">
+      <c r="G40" s="22">
         <v>143.94885958372555</v>
       </c>
-      <c r="H40" s="23">
+      <c r="H40" s="22">
         <v>1769.8775440000049</v>
       </c>
-      <c r="I40" s="23">
+      <c r="I40" s="22">
         <v>2304.2591741530955</v>
       </c>
-      <c r="J40" s="23">
+      <c r="J40" s="22">
         <v>534.38163015309055</v>
       </c>
-      <c r="K40" s="22">
+      <c r="K40" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L40" s="8"/>
-    </row>
-    <row r="41" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="16">
+      <c r="L40" s="7"/>
+    </row>
+    <row r="41" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="15">
         <v>44316</v>
       </c>
-      <c r="B41" s="26">
+      <c r="B41" s="25">
         <v>1.17998</v>
       </c>
-      <c r="C41" s="21">
+      <c r="C41" s="20">
         <v>1.2470086399999996</v>
       </c>
-      <c r="D41" s="22">
+      <c r="D41" s="21">
         <v>103.89439199999927</v>
       </c>
-      <c r="E41" s="23">
+      <c r="E41" s="22">
         <v>88.047587247240855</v>
       </c>
-      <c r="F41" s="23">
+      <c r="F41" s="22">
         <v>212.45351901030642</v>
       </c>
-      <c r="G41" s="23">
+      <c r="G41" s="22">
         <v>250.69090336178138</v>
       </c>
-      <c r="H41" s="23">
+      <c r="H41" s="22">
         <v>1873.7719360000042</v>
       </c>
-      <c r="I41" s="23">
+      <c r="I41" s="22">
         <v>2411.0012179311511</v>
       </c>
-      <c r="J41" s="23">
+      <c r="J41" s="22">
         <v>537.22928193114694</v>
       </c>
-      <c r="K41" s="22">
+      <c r="K41" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L41" s="8"/>
-    </row>
-    <row r="42" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="16">
+      <c r="L41" s="7"/>
+    </row>
+    <row r="42" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="15">
         <v>44347</v>
       </c>
-      <c r="B42" s="26">
+      <c r="B42" s="25">
         <v>1.2623</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="20">
         <v>1.2505698399999998</v>
       </c>
-      <c r="D42" s="22">
+      <c r="D42" s="21">
         <v>-18.18174800000024</v>
       </c>
-      <c r="E42" s="23">
+      <c r="E42" s="22">
         <v>-14.403666323378152</v>
       </c>
-      <c r="F42" s="23">
+      <c r="F42" s="22">
         <v>198.04985268692826</v>
       </c>
-      <c r="G42" s="23">
+      <c r="G42" s="22">
         <v>249.99832904670953</v>
       </c>
-      <c r="H42" s="23">
+      <c r="H42" s="22">
         <v>1873.7719360000042</v>
       </c>
-      <c r="I42" s="23">
+      <c r="I42" s="22">
         <v>2428.4903916160797</v>
       </c>
-      <c r="J42" s="23">
+      <c r="J42" s="22">
         <v>554.71845561607552</v>
       </c>
-      <c r="K42" s="22">
+      <c r="K42" s="21">
         <v>2178.4920625693703</v>
       </c>
-      <c r="L42" s="8"/>
-    </row>
-    <row r="43" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="16">
+      <c r="L42" s="7"/>
+    </row>
+    <row r="43" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="15">
         <v>44377</v>
       </c>
-      <c r="B43" s="26">
+      <c r="B43" s="25">
         <v>1.33643</v>
       </c>
-      <c r="C43" s="21">
+      <c r="C43" s="20">
         <v>1.261064600000001</v>
       </c>
-      <c r="D43" s="22">
+      <c r="D43" s="21">
         <v>-116.8163699999985</v>
       </c>
-      <c r="E43" s="23">
+      <c r="E43" s="22">
         <v>-87.409269471650958</v>
       </c>
-      <c r="F43" s="23">
+      <c r="F43" s="22">
         <v>110.6405832152773</v>
       </c>
-      <c r="G43" s="23">
+      <c r="G43" s="22">
         <v>147.86339462639305</v>
       </c>
-      <c r="H43" s="23">
+      <c r="H43" s="22">
         <v>1873.7719360000042</v>
       </c>
-      <c r="I43" s="23">
+      <c r="I43" s="22">
         <v>2443.171827195762</v>
       </c>
-      <c r="J43" s="23">
+      <c r="J43" s="22">
         <v>569.39989119575785</v>
       </c>
-      <c r="K43" s="22">
+      <c r="K43" s="21">
         <v>2295.308432569369</v>
       </c>
-      <c r="L43" s="8"/>
-    </row>
-    <row r="44" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="16">
+      <c r="L43" s="7"/>
+    </row>
+    <row r="44" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="15">
         <v>44407</v>
       </c>
-      <c r="B44" s="26">
+      <c r="B44" s="25">
         <v>1.28626</v>
       </c>
-      <c r="C44" s="21">
+      <c r="C44" s="20">
         <v>1.2582182800000008</v>
       </c>
-      <c r="D44" s="22">
+      <c r="D44" s="21">
         <v>-43.464665999998701</v>
       </c>
-      <c r="E44" s="23">
+      <c r="E44" s="22">
         <v>-33.791508715188769</v>
       </c>
-      <c r="F44" s="23">
+      <c r="F44" s="22">
         <v>76.849074500088534</v>
       </c>
-      <c r="G44" s="23">
+      <c r="G44" s="22">
         <v>98.847890566483869</v>
       </c>
-      <c r="H44" s="23">
+      <c r="H44" s="22">
         <v>1873.7719360000042</v>
       </c>
-      <c r="I44" s="23">
+      <c r="I44" s="22">
         <v>2437.6209891358512</v>
       </c>
-      <c r="J44" s="23">
+      <c r="J44" s="22">
         <v>563.84905313584704</v>
       </c>
-      <c r="K44" s="22">
+      <c r="K44" s="21">
         <v>2338.7730985693674</v>
       </c>
-      <c r="L44" s="8"/>
-    </row>
-    <row r="45" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="16">
+      <c r="L44" s="7"/>
+    </row>
+    <row r="45" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="15">
         <v>44439</v>
       </c>
-      <c r="B45" s="26">
+      <c r="B45" s="25">
         <v>1.2177899999999999</v>
       </c>
-      <c r="C45" s="21">
+      <c r="C45" s="20">
         <v>1.2513532000000005</v>
       </c>
-      <c r="D45" s="22">
+      <c r="D45" s="21">
         <v>52.022960000000886</v>
       </c>
-      <c r="E45" s="23">
+      <c r="E45" s="22">
         <v>42.719155190961402</v>
       </c>
-      <c r="F45" s="23">
+      <c r="F45" s="22">
         <v>119.56822969104994</v>
       </c>
-      <c r="G45" s="23">
+      <c r="G45" s="22">
         <v>145.6089944354637</v>
       </c>
-      <c r="H45" s="23">
+      <c r="H45" s="22">
         <v>1925.7948960000051</v>
       </c>
-      <c r="I45" s="23">
+      <c r="I45" s="22">
         <v>2484.3820930048309</v>
       </c>
-      <c r="J45" s="23">
+      <c r="J45" s="22">
         <v>558.58719700482584</v>
       </c>
-      <c r="K45" s="22">
+      <c r="K45" s="21">
         <v>2338.7730985693674</v>
       </c>
-      <c r="L45" s="8"/>
-    </row>
-    <row r="46" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="16">
+      <c r="L45" s="7"/>
+    </row>
+    <row r="46" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="15">
         <v>44469</v>
       </c>
-      <c r="B46" s="26">
+      <c r="B46" s="25">
         <v>1.20347</v>
       </c>
-      <c r="C46" s="21">
+      <c r="C46" s="20">
         <v>1.2445208000000001</v>
       </c>
-      <c r="D46" s="22">
+      <c r="D46" s="21">
         <v>63.628740000000086</v>
       </c>
-      <c r="E46" s="23">
+      <c r="E46" s="22">
         <v>52.871064505139373</v>
       </c>
-      <c r="F46" s="23">
+      <c r="F46" s="22">
         <v>172.43929419618931</v>
       </c>
-      <c r="G46" s="23">
+      <c r="G46" s="22">
         <v>207.52551738628796</v>
       </c>
-      <c r="H46" s="23">
+      <c r="H46" s="22">
         <v>1989.4236360000052</v>
       </c>
-      <c r="I46" s="23">
+      <c r="I46" s="22">
         <v>2546.2986159556554</v>
       </c>
-      <c r="J46" s="23">
+      <c r="J46" s="22">
         <v>556.87497995565013</v>
       </c>
-      <c r="K46" s="22">
+      <c r="K46" s="21">
         <v>2338.7730985693674</v>
       </c>
-      <c r="L46" s="8"/>
-    </row>
-    <row r="47" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="16">
+      <c r="L46" s="7"/>
+    </row>
+    <row r="47" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="15">
         <v>44498</v>
       </c>
-      <c r="B47" s="26">
+      <c r="B47" s="25">
         <v>1.1970999999999998</v>
       </c>
-      <c r="C47" s="21">
+      <c r="C47" s="20">
         <v>1.2406920799999999</v>
       </c>
-      <c r="D47" s="22">
+      <c r="D47" s="21">
         <v>67.567724000000055</v>
       </c>
-      <c r="E47" s="23">
+      <c r="E47" s="22">
         <v>56.442840197143148</v>
       </c>
-      <c r="F47" s="23">
+      <c r="F47" s="22">
         <v>228.88213439333245</v>
       </c>
-      <c r="G47" s="23">
+      <c r="G47" s="22">
         <v>273.99480308225822</v>
       </c>
-      <c r="H47" s="23">
+      <c r="H47" s="22">
         <v>2056.9913600000054</v>
       </c>
-      <c r="I47" s="23">
+      <c r="I47" s="22">
         <v>2612.7679016516258</v>
       </c>
-      <c r="J47" s="23">
+      <c r="J47" s="22">
         <v>555.77654165162039</v>
       </c>
-      <c r="K47" s="22">
+      <c r="K47" s="21">
         <v>2338.7730985693674</v>
       </c>
-      <c r="L47" s="8"/>
-    </row>
-    <row r="48" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="16">
+      <c r="L47" s="7"/>
+    </row>
+    <row r="48" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="15">
         <v>44530</v>
       </c>
-      <c r="B48" s="26">
+      <c r="B48" s="25">
         <v>1.23373</v>
       </c>
-      <c r="C48" s="21">
+      <c r="C48" s="20">
         <v>1.2385180400000004</v>
       </c>
-      <c r="D48" s="22">
+      <c r="D48" s="21">
         <v>7.4214620000006786</v>
       </c>
-      <c r="E48" s="23">
+      <c r="E48" s="22">
         <v>6.0154669173973874</v>
       </c>
-      <c r="F48" s="23">
+      <c r="F48" s="22">
         <v>234.89760131072984</v>
       </c>
-      <c r="G48" s="23">
+      <c r="G48" s="22">
         <v>289.80021766508673</v>
       </c>
-      <c r="H48" s="23">
+      <c r="H48" s="22">
         <v>2064.4128220000061</v>
       </c>
-      <c r="I48" s="23">
+      <c r="I48" s="22">
         <v>2628.5733162344541</v>
       </c>
-      <c r="J48" s="23">
+      <c r="J48" s="22">
         <v>564.16049423444792</v>
       </c>
-      <c r="K48" s="22">
+      <c r="K48" s="21">
         <v>2338.7730985693674</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="16">
+    <row r="49" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="15">
         <v>44561</v>
       </c>
-      <c r="B49" s="26">
+      <c r="B49" s="25">
         <v>1.2554100000000001</v>
       </c>
-      <c r="C49" s="21">
+      <c r="C49" s="20">
         <v>1.2381657600000016</v>
       </c>
-      <c r="D49" s="22">
+      <c r="D49" s="21">
         <v>-26.728571999997797</v>
       </c>
-      <c r="E49" s="23">
+      <c r="E49" s="22">
         <v>-21.290711401054473</v>
       </c>
-      <c r="F49" s="23">
+      <c r="F49" s="22">
         <v>213.60688990967537</v>
       </c>
-      <c r="G49" s="23">
+      <c r="G49" s="22">
         <v>268.16422566150561</v>
       </c>
-      <c r="H49" s="23">
+      <c r="H49" s="22">
         <v>2064.4128220000061</v>
       </c>
-      <c r="I49" s="23">
+      <c r="I49" s="22">
         <v>2633.6658962308707</v>
       </c>
-      <c r="J49" s="23">
+      <c r="J49" s="22">
         <v>569.25307423086451</v>
       </c>
-      <c r="K49" s="22">
+      <c r="K49" s="21">
         <v>2365.5016705693652</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="16">
+    <row r="50" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="15">
         <v>44589</v>
       </c>
-      <c r="B50" s="26">
+      <c r="B50" s="25">
         <v>1.11076</v>
       </c>
-      <c r="C50" s="21">
+      <c r="C50" s="20">
         <v>1.2355355200000004</v>
       </c>
-      <c r="D50" s="22">
+      <c r="D50" s="21">
         <v>193.40205600000073</v>
       </c>
-      <c r="E50" s="23">
+      <c r="E50" s="22">
         <v>174.11687133134137</v>
       </c>
-      <c r="F50" s="23">
+      <c r="F50" s="22">
         <v>387.72376124101675</v>
       </c>
-      <c r="G50" s="23">
+      <c r="G50" s="22">
         <v>430.66804503607176</v>
       </c>
-      <c r="H50" s="23">
+      <c r="H50" s="22">
         <v>2257.814878000007</v>
       </c>
-      <c r="I50" s="23">
+      <c r="I50" s="22">
         <v>2796.169715605437</v>
       </c>
-      <c r="J50" s="23">
+      <c r="J50" s="22">
         <v>538.35483760543002</v>
       </c>
-      <c r="K50" s="22">
+      <c r="K50" s="21">
         <v>2365.5016705693652</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="16">
+    <row r="51" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="15">
         <v>44620</v>
       </c>
-      <c r="B51" s="26">
+      <c r="B51" s="25">
         <v>1.15177</v>
       </c>
-      <c r="C51" s="21">
+      <c r="C51" s="20">
         <v>1.2277890400000004</v>
       </c>
-      <c r="D51" s="22">
+      <c r="D51" s="21">
         <v>117.82951200000075</v>
       </c>
-      <c r="E51" s="23">
+      <c r="E51" s="22">
         <v>102.30298757564509</v>
       </c>
-      <c r="F51" s="23">
+      <c r="F51" s="22">
         <v>490.02674881666184</v>
       </c>
-      <c r="G51" s="23">
+      <c r="G51" s="22">
         <v>564.39810848456659</v>
       </c>
-      <c r="H51" s="23">
+      <c r="H51" s="22">
         <v>2375.6443900000077</v>
       </c>
-      <c r="I51" s="23">
+      <c r="I51" s="22">
         <v>2929.8997790539315</v>
       </c>
-      <c r="J51" s="23">
+      <c r="J51" s="22">
         <v>554.25538905392386</v>
       </c>
-      <c r="K51" s="22">
+      <c r="K51" s="21">
         <v>2365.5016705693652</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="16">
+    <row r="52" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="15">
         <v>44651</v>
       </c>
-      <c r="B52" s="26">
+      <c r="B52" s="25">
         <v>1.0468499999999998</v>
       </c>
-      <c r="C52" s="21">
+      <c r="C52" s="20">
         <v>1.2143669200000002</v>
       </c>
-      <c r="D52" s="22">
+      <c r="D52" s="21">
         <v>259.65122600000063</v>
       </c>
-      <c r="E52" s="23">
+      <c r="E52" s="22">
         <v>248.03097482925031</v>
       </c>
-      <c r="F52" s="23">
+      <c r="F52" s="22">
         <v>738.05772364591212</v>
       </c>
-      <c r="G52" s="23">
+      <c r="G52" s="22">
         <v>772.63572799872293</v>
       </c>
-      <c r="H52" s="23">
+      <c r="H52" s="22">
         <v>2635.2956160000085</v>
       </c>
-      <c r="I52" s="23">
+      <c r="I52" s="22">
         <v>3138.137398568088</v>
       </c>
-      <c r="J52" s="23">
+      <c r="J52" s="22">
         <v>502.84178256807945</v>
       </c>
-      <c r="K52" s="22">
+      <c r="K52" s="21">
         <v>2365.5016705693652</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="16">
+    <row r="53" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="15">
         <v>44680</v>
       </c>
-      <c r="B53" s="26">
+      <c r="B53" s="25">
         <v>0.83169999999999999</v>
       </c>
-      <c r="C53" s="21">
+      <c r="C53" s="20">
         <v>1.1967078799999999</v>
       </c>
-      <c r="D53" s="22">
+      <c r="D53" s="21">
         <v>565.76221399999997</v>
       </c>
-      <c r="E53" s="23">
+      <c r="E53" s="22">
         <v>680.24794276782495</v>
       </c>
-      <c r="F53" s="23">
+      <c r="F53" s="22">
         <v>1418.3056664137371</v>
       </c>
-      <c r="G53" s="23">
+      <c r="G53" s="22">
         <v>1179.6048227563051</v>
       </c>
-      <c r="H53" s="23">
+      <c r="H53" s="22">
         <v>3201.0578300000084</v>
       </c>
-      <c r="I53" s="23">
+      <c r="I53" s="22">
         <v>3545.1064933256703</v>
       </c>
-      <c r="J53" s="23">
+      <c r="J53" s="22">
         <v>344.04866332566189</v>
       </c>
-      <c r="K53" s="22">
+      <c r="K53" s="21">
         <v>2365.5016705693652</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="16">
+    <row r="54" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="15">
         <v>44712</v>
       </c>
-      <c r="B54" s="26">
+      <c r="B54" s="25">
         <v>0.90644000000000002</v>
       </c>
-      <c r="C54" s="21">
+      <c r="C54" s="20">
         <v>1.1734625999999997</v>
       </c>
-      <c r="D54" s="22">
+      <c r="D54" s="21">
         <v>413.88502999999946</v>
       </c>
-      <c r="E54" s="23">
+      <c r="E54" s="22">
         <v>456.60499316005411</v>
       </c>
-      <c r="F54" s="23">
+      <c r="F54" s="22">
         <v>1874.9106595737912</v>
       </c>
-      <c r="G54" s="23">
+      <c r="G54" s="22">
         <v>1699.4940182640673</v>
       </c>
-      <c r="H54" s="23">
+      <c r="H54" s="22">
         <v>3614.9428600000078</v>
       </c>
-      <c r="I54" s="23">
+      <c r="I54" s="22">
         <v>4064.9956888334327</v>
       </c>
-      <c r="J54" s="23">
+      <c r="J54" s="22">
         <v>450.05282883342488</v>
       </c>
-      <c r="K54" s="22">
+      <c r="K54" s="21">
         <v>2365.5016705693652</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="16">
+    <row r="55" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="15">
         <v>44742</v>
       </c>
-      <c r="B55" s="26">
+      <c r="B55" s="25">
         <v>0.99066999999999994</v>
       </c>
-      <c r="C55" s="21">
+      <c r="C55" s="20">
         <v>1.1480034399999997</v>
       </c>
-      <c r="D55" s="22">
+      <c r="D55" s="21">
         <v>243.86683199999956</v>
       </c>
-      <c r="E55" s="23">
+      <c r="E55" s="22">
         <v>246.16353780774585</v>
       </c>
-      <c r="F55" s="23">
+      <c r="F55" s="22">
         <v>2121.074197381537</v>
       </c>
-      <c r="G55" s="23">
+      <c r="G55" s="22">
         <v>2101.284575119967</v>
       </c>
-      <c r="H55" s="23">
+      <c r="H55" s="22">
         <v>3858.8096920000075</v>
       </c>
-      <c r="I55" s="23">
+      <c r="I55" s="22">
         <v>4466.7862456893326</v>
       </c>
-      <c r="J55" s="23">
+      <c r="J55" s="22">
         <v>607.9765536893251</v>
       </c>
-      <c r="K55" s="22">
+      <c r="K55" s="21">
         <v>2365.5016705693652</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="16">
+    <row r="56" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="15">
         <v>44771</v>
       </c>
-      <c r="B56" s="26">
+      <c r="B56" s="25">
         <v>1.01267</v>
       </c>
-      <c r="C56" s="21">
+      <c r="C56" s="20">
         <v>1.1203607999999998</v>
       </c>
-      <c r="D56" s="22">
+      <c r="D56" s="21">
         <v>166.9207399999998</v>
       </c>
-      <c r="E56" s="23">
+      <c r="E56" s="22">
         <v>164.83231457434289</v>
       </c>
-      <c r="F56" s="23">
+      <c r="F56" s="22">
         <v>2285.90651195588</v>
       </c>
-      <c r="G56" s="23">
+      <c r="G56" s="22">
         <v>2314.8689474623607</v>
       </c>
-      <c r="H56" s="23">
+      <c r="H56" s="22">
         <v>4025.7304320000076</v>
       </c>
-      <c r="I56" s="23">
+      <c r="I56" s="22">
         <v>4680.3706180317258</v>
       </c>
-      <c r="J56" s="23">
+      <c r="J56" s="22">
         <v>654.64018603171826</v>
       </c>
-      <c r="K56" s="22">
+      <c r="K56" s="21">
         <v>2365.5016705693652</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="16">
+    <row r="57" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="15">
         <v>44804</v>
       </c>
-      <c r="B57" s="26">
+      <c r="B57" s="25">
         <v>0.95750000000000002</v>
       </c>
-      <c r="C57" s="21">
+      <c r="C57" s="20">
         <v>1.0959177199999997</v>
       </c>
-      <c r="D57" s="22">
+      <c r="D57" s="21">
         <v>214.54746599999942</v>
       </c>
-      <c r="E57" s="23">
+      <c r="E57" s="22">
         <v>224.07046057441192</v>
       </c>
-      <c r="F57" s="23">
+      <c r="F57" s="22">
         <v>2509.9769725302917</v>
       </c>
-      <c r="G57" s="23">
+      <c r="G57" s="22">
         <v>2403.3029511977543</v>
       </c>
-      <c r="H57" s="23">
+      <c r="H57" s="22">
         <v>4240.2778980000066</v>
       </c>
-      <c r="I57" s="23">
+      <c r="I57" s="22">
         <v>4768.8046217671199</v>
       </c>
-      <c r="J57" s="23">
+      <c r="J57" s="22">
         <v>528.52672376711325</v>
       </c>
-      <c r="K57" s="22">
+      <c r="K57" s="21">
         <v>2365.5016705693652</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="16">
+    <row r="58" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="15">
         <v>44834</v>
       </c>
-      <c r="B58" s="26">
+      <c r="B58" s="25">
         <v>0.85887999999999998</v>
       </c>
-      <c r="C58" s="21">
+      <c r="C58" s="20">
         <v>1.06964792</v>
       </c>
-      <c r="D58" s="22">
+      <c r="D58" s="21">
         <v>326.69027599999998</v>
       </c>
-      <c r="E58" s="23">
+      <c r="E58" s="22">
         <v>380.36777663934424</v>
       </c>
-      <c r="F58" s="23">
+      <c r="F58" s="22">
         <v>2890.3447491696361</v>
       </c>
-      <c r="G58" s="23">
+      <c r="G58" s="22">
         <v>2482.459298166817</v>
       </c>
-      <c r="H58" s="23">
+      <c r="H58" s="22">
         <v>4566.9681740000069</v>
       </c>
-      <c r="I58" s="23">
+      <c r="I58" s="22">
         <v>4847.9609687361826</v>
       </c>
-      <c r="J58" s="23">
+      <c r="J58" s="22">
         <v>280.99279473617571</v>
       </c>
-      <c r="K58" s="22">
+      <c r="K58" s="21">
         <v>2365.5016705693652</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="16">
+    <row r="59" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="15">
         <v>44865</v>
       </c>
-      <c r="B59" s="26">
+      <c r="B59" s="25">
         <v>0.96957000000000004</v>
       </c>
-      <c r="C59" s="21">
+      <c r="C59" s="20">
         <v>1.0512867600000002</v>
       </c>
-      <c r="D59" s="22">
+      <c r="D59" s="21">
         <v>126.66097800000026</v>
       </c>
-      <c r="E59" s="23">
+      <c r="E59" s="22">
         <v>130.63623874501093</v>
       </c>
-      <c r="F59" s="23">
+      <c r="F59" s="22">
         <v>3020.9809879146469</v>
       </c>
-      <c r="G59" s="23">
+      <c r="G59" s="22">
         <v>2929.0525364524042</v>
       </c>
-      <c r="H59" s="23">
+      <c r="H59" s="22">
         <v>4693.6291520000068</v>
       </c>
-      <c r="I59" s="23">
+      <c r="I59" s="22">
         <v>5294.5542070217689</v>
       </c>
-      <c r="J59" s="23">
+      <c r="J59" s="22">
         <v>600.92505502176209</v>
       </c>
-      <c r="K59" s="22">
+      <c r="K59" s="21">
         <v>2365.5016705693652</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="16">
+    <row r="60" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="15">
         <v>44895</v>
       </c>
-      <c r="B60" s="26">
+      <c r="B60" s="25">
         <v>0.99405999999999994</v>
       </c>
-      <c r="C60" s="21">
+      <c r="C60" s="20">
         <v>1.0324731600000001</v>
       </c>
-      <c r="D60" s="22">
+      <c r="D60" s="21">
         <v>59.540398000000259</v>
       </c>
-      <c r="E60" s="23">
+      <c r="E60" s="22">
         <v>59.896181317023384</v>
       </c>
-      <c r="F60" s="23">
+      <c r="F60" s="22">
         <v>3080.8771692316705</v>
       </c>
-      <c r="G60" s="23">
+      <c r="G60" s="22">
         <v>3062.5767588464341</v>
       </c>
-      <c r="H60" s="23">
+      <c r="H60" s="22">
         <v>4753.1695500000069</v>
       </c>
-      <c r="I60" s="23">
+      <c r="I60" s="22">
         <v>5428.0784294157993</v>
       </c>
-      <c r="J60" s="23">
+      <c r="J60" s="22">
         <v>674.9088794157924</v>
       </c>
-      <c r="K60" s="22">
+      <c r="K60" s="21">
         <v>2365.5016705693652</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="16">
+    <row r="61" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="15">
         <v>44925</v>
       </c>
-      <c r="B61" s="26">
+      <c r="B61" s="25">
         <v>0.95635000000000003</v>
       </c>
-      <c r="C61" s="21">
+      <c r="C61" s="20">
         <v>1.0098818000000001</v>
       </c>
-      <c r="D61" s="22">
+      <c r="D61" s="21">
         <v>82.974290000000025</v>
       </c>
-      <c r="E61" s="23">
+      <c r="E61" s="22">
         <v>86.761426256077812</v>
       </c>
-      <c r="F61" s="23">
+      <c r="F61" s="22">
         <v>3167.6385954877483</v>
       </c>
-      <c r="G61" s="23">
+      <c r="G61" s="22">
         <v>3029.3711707947082</v>
       </c>
-      <c r="H61" s="23">
+      <c r="H61" s="22">
         <v>4836.143840000007</v>
       </c>
-      <c r="I61" s="23">
+      <c r="I61" s="22">
         <v>5394.8728413640729</v>
       </c>
-      <c r="J61" s="23">
+      <c r="J61" s="22">
         <v>558.72900136406588</v>
       </c>
-      <c r="K61" s="22">
+      <c r="K61" s="21">
         <v>2365.5016705693652</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="16">
+    <row r="62" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="15">
         <v>44957</v>
       </c>
-      <c r="B62" s="26">
+      <c r="B62" s="25">
         <v>1.08087</v>
       </c>
-      <c r="C62" s="21">
+      <c r="C62" s="20">
         <v>0.99600491999999985</v>
       </c>
-      <c r="D62" s="22">
+      <c r="D62" s="21">
         <v>-131.54087400000023</v>
       </c>
-      <c r="E62" s="23">
+      <c r="E62" s="22">
         <v>-121.69907019345548</v>
       </c>
-      <c r="F62" s="23">
+      <c r="F62" s="22">
         <v>3045.9395252942927</v>
       </c>
-      <c r="G62" s="23">
+      <c r="G62" s="22">
         <v>3292.2646547048421</v>
       </c>
-      <c r="H62" s="23">
+      <c r="H62" s="22">
         <v>4836.143840000007</v>
       </c>
-      <c r="I62" s="23">
+      <c r="I62" s="22">
         <v>5789.307199274208</v>
       </c>
-      <c r="J62" s="23">
+      <c r="J62" s="22">
         <v>953.16335927420096</v>
       </c>
-      <c r="K62" s="22">
+      <c r="K62" s="21">
         <v>2497.0425445693654</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="16">
+    <row r="63" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="15">
         <v>44985</v>
       </c>
-      <c r="B63" s="26">
+      <c r="B63" s="25">
         <v>1.16859</v>
       </c>
-      <c r="C63" s="21">
+      <c r="C63" s="20">
         <v>0.99612511999999998</v>
       </c>
-      <c r="D63" s="22">
+      <c r="D63" s="21">
         <v>-267.32056400000005</v>
       </c>
-      <c r="E63" s="23">
+      <c r="E63" s="22">
         <v>-228.75479338347927</v>
       </c>
-      <c r="F63" s="23">
+      <c r="F63" s="22">
         <v>2817.1847319108133</v>
       </c>
-      <c r="G63" s="23">
+      <c r="G63" s="22">
         <v>3292.1339058636572</v>
       </c>
-      <c r="H63" s="23">
+      <c r="H63" s="22">
         <v>4836.143840000007</v>
       </c>
-      <c r="I63" s="23">
+      <c r="I63" s="22">
         <v>6056.4970144330227</v>
       </c>
-      <c r="J63" s="23">
+      <c r="J63" s="22">
         <v>1220.3531744330157</v>
       </c>
-      <c r="K63" s="22">
+      <c r="K63" s="21">
         <v>2764.3631085693655</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="16">
+    <row r="64" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="15">
         <v>45016</v>
       </c>
-      <c r="B64" s="26">
+      <c r="B64" s="25">
         <v>1.2989900000000001</v>
       </c>
-      <c r="C64" s="21">
+      <c r="C64" s="20">
         <v>1.0068202799999997</v>
       </c>
-      <c r="D64" s="22">
+      <c r="D64" s="21">
         <v>-452.86306600000063</v>
       </c>
-      <c r="E64" s="23">
+      <c r="E64" s="22">
         <v>-348.62706102433475</v>
       </c>
-      <c r="F64" s="23">
+      <c r="F64" s="22">
         <v>2468.5576708864787</v>
       </c>
-      <c r="G64" s="23">
+      <c r="G64" s="22">
         <v>3206.631728904827</v>
       </c>
-      <c r="H64" s="23">
+      <c r="H64" s="22">
         <v>4836.143840000007</v>
       </c>
-      <c r="I64" s="23">
+      <c r="I64" s="22">
         <v>6423.8579034741933</v>
       </c>
-      <c r="J64" s="23">
+      <c r="J64" s="22">
         <v>1587.7140634741863</v>
       </c>
-      <c r="K64" s="22">
+      <c r="K64" s="21">
         <v>3217.2261745693663</v>
       </c>
-    </row>
-    <row r="65" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L93" s="8"/>
-    </row>
-    <row r="94" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L94" s="8"/>
-    </row>
-    <row r="95" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L95" s="8"/>
-    </row>
-    <row r="96" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L96" s="8"/>
-    </row>
-    <row r="97" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L97" s="8"/>
-    </row>
-    <row r="98" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L98" s="8"/>
-    </row>
-    <row r="99" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L99" s="8"/>
-    </row>
-    <row r="100" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L100" s="8"/>
-    </row>
-    <row r="101" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L101" s="8"/>
-    </row>
-    <row r="102" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L102" s="8"/>
-    </row>
-    <row r="103" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L103" s="8"/>
-    </row>
-    <row r="104" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L104" s="8"/>
-      <c r="O104" s="3"/>
-    </row>
-    <row r="105" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L105" s="8"/>
-    </row>
-    <row r="106" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L106" s="8"/>
-    </row>
-    <row r="107" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L107" s="8"/>
-    </row>
-    <row r="108" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L108" s="8"/>
-    </row>
-    <row r="109" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L109" s="8"/>
-    </row>
-    <row r="110" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L110" s="8"/>
-    </row>
-    <row r="111" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L111" s="8"/>
-    </row>
-    <row r="112" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L112" s="8"/>
-    </row>
-    <row r="113" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L113" s="8"/>
-    </row>
-    <row r="114" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L114" s="8"/>
-    </row>
-    <row r="115" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L115" s="8"/>
-    </row>
-    <row r="116" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L116" s="8"/>
-      <c r="O116" s="3"/>
-    </row>
-    <row r="117" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L117" s="8"/>
-    </row>
-    <row r="118" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L118" s="8"/>
-    </row>
-    <row r="119" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L119" s="8"/>
-    </row>
-    <row r="120" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L120" s="8"/>
-    </row>
-    <row r="121" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L121" s="8"/>
-    </row>
-    <row r="122" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L122" s="8"/>
-    </row>
-    <row r="123" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L123" s="8"/>
-    </row>
-    <row r="124" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L124" s="8"/>
-    </row>
-    <row r="125" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L125" s="8"/>
-    </row>
-    <row r="126" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L126" s="8"/>
-    </row>
-    <row r="127" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L127" s="8"/>
-    </row>
-    <row r="128" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L128" s="8"/>
-      <c r="O128" s="3"/>
-    </row>
-    <row r="129" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L129" s="8"/>
-    </row>
-    <row r="130" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L130" s="8"/>
-    </row>
-    <row r="131" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L131" s="8"/>
-    </row>
-    <row r="132" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L132" s="8"/>
-    </row>
-    <row r="133" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L133" s="8"/>
-    </row>
-    <row r="134" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L134" s="8"/>
-    </row>
-    <row r="135" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L135" s="8"/>
-    </row>
-    <row r="136" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L136" s="8"/>
-    </row>
-    <row r="137" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L137" s="8"/>
-    </row>
-    <row r="138" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L138" s="8"/>
-    </row>
-    <row r="139" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L139" s="8"/>
-    </row>
-    <row r="140" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L140" s="8"/>
-      <c r="O140" s="3"/>
-    </row>
-    <row r="141" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L141" s="8"/>
-    </row>
-    <row r="142" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L142" s="8"/>
-    </row>
-    <row r="143" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L143" s="8"/>
-    </row>
-    <row r="144" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L144" s="8"/>
-    </row>
-    <row r="145" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L145" s="8"/>
-    </row>
-    <row r="146" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L146" s="8"/>
-    </row>
-    <row r="147" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L147" s="8"/>
-    </row>
-    <row r="148" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L148" s="8"/>
-    </row>
-    <row r="149" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L149" s="8"/>
-    </row>
-    <row r="150" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L150" s="8"/>
-    </row>
-    <row r="151" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L151" s="8"/>
-    </row>
-    <row r="152" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L152" s="8"/>
-      <c r="O152" s="3"/>
-    </row>
-    <row r="153" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L153" s="8"/>
-    </row>
-    <row r="154" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L154" s="8"/>
-    </row>
-    <row r="155" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L155" s="8"/>
-    </row>
-    <row r="156" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L156" s="8"/>
-    </row>
-    <row r="157" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L157" s="8"/>
-    </row>
-    <row r="158" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L158" s="8"/>
-    </row>
-    <row r="159" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L159" s="8"/>
-    </row>
-    <row r="160" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L160" s="8"/>
-    </row>
-    <row r="161" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L161" s="8"/>
-    </row>
-    <row r="162" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L162" s="8"/>
-    </row>
-    <row r="163" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L163" s="8"/>
-    </row>
-    <row r="164" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L164" s="8"/>
-      <c r="O164" s="3"/>
-    </row>
-    <row r="165" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L165" s="8"/>
-    </row>
-    <row r="166" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L166" s="8"/>
-    </row>
-    <row r="167" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L167" s="8"/>
-    </row>
-    <row r="168" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L168" s="4"/>
-    </row>
-    <row r="169" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L169" s="4"/>
-    </row>
-    <row r="170" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L170" s="4"/>
-    </row>
-    <row r="171" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L171" s="4"/>
-    </row>
-    <row r="172" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L172" s="4"/>
-    </row>
-    <row r="173" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L173" s="4"/>
-    </row>
-    <row r="174" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L174" s="4"/>
-    </row>
-    <row r="175" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L175" s="4"/>
-    </row>
-    <row r="176" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L176" s="4"/>
-    </row>
-    <row r="177" spans="12:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L177" s="4"/>
-    </row>
-    <row r="178" spans="12:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L178" s="4"/>
-    </row>
-    <row r="179" spans="12:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L179" s="4"/>
-    </row>
-    <row r="180" spans="12:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L180" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="17280" windowHeight="8880" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="model2(1)mean" sheetId="13" r:id="rId1"/>
     <sheet name="model2(1)MA250" sheetId="10" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'model2(1)MA250'!$O$1:$O$71</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'model2(1)mean'!$O$1:$O$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'model2(1)MA250'!$O$1:$O$188</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'model2(1)mean'!$O$1:$O$189</definedName>
     <definedName name="金额" localSheetId="1">OFFSET('model2(1)MA250'!J1,0,0,COUNTA('model2(1)MA250'!J:J)-1)</definedName>
     <definedName name="金额" localSheetId="0">OFFSET('model2(1)mean'!J1,0,0,COUNTA('model2(1)mean'!J:J)-1)</definedName>
     <definedName name="时间" localSheetId="1">OFFSET('model2(1)MA250'!A1,0,0,COUNTA('model2(1)MA250'!A:A)-1)</definedName>
@@ -158,7 +158,7 @@
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -499,13 +499,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -758,7 +759,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -977,6 +978,9 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -986,7 +990,7 @@
               <c:f>'model2(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1204,6 +1208,9 @@
                   <c:v>3591.8772673047747</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>3591.8772673047747</c:v>
+                </c:pt>
+                <c:pt idx="73">
                   <c:v>3591.8772673047747</c:v>
                 </c:pt>
               </c:numCache>
@@ -1247,7 +1254,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1466,6 +1473,9 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1475,7 +1485,7 @@
               <c:f>'model2(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1691,6 +1701,9 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>4968.1380669492974</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5106.3552929768402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1733,7 +1746,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1952,6 +1965,9 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1961,7 +1977,7 @@
               <c:f>'model2(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2180,6 +2196,9 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>1514.4780256720655</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1462.3784473008877</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2201,11 +2220,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="233129088"/>
-        <c:axId val="245176576"/>
+        <c:axId val="82215680"/>
+        <c:axId val="300118400"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="233129088"/>
+        <c:axId val="82215680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2248,14 +2267,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245176576"/>
+        <c:crossAx val="300118400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="245176576"/>
+        <c:axId val="300118400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2304,7 +2323,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233129088"/>
+        <c:crossAx val="82215680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2501,7 +2520,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="61"/>
+                <c:ptCount val="62"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2684,6 +2703,9 @@
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2693,7 +2715,7 @@
               <c:f>'model2(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="61"/>
+                <c:ptCount val="62"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2875,6 +2897,9 @@
                   <c:v>4836.143840000007</c:v>
                 </c:pt>
                 <c:pt idx="60">
+                  <c:v>4836.143840000007</c:v>
+                </c:pt>
+                <c:pt idx="61">
                   <c:v>4836.143840000007</c:v>
                 </c:pt>
               </c:numCache>
@@ -2918,7 +2943,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="61"/>
+                <c:ptCount val="62"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3101,6 +3126,9 @@
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3110,7 +3138,7 @@
               <c:f>'model2(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="61"/>
+                <c:ptCount val="62"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3293,6 +3321,9 @@
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>6423.8579034741933</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6249.6271030630251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3335,7 +3366,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="61"/>
+                <c:ptCount val="62"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3518,6 +3549,9 @@
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3527,7 +3561,7 @@
               <c:f>'model2(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="61"/>
+                <c:ptCount val="62"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3710,6 +3744,9 @@
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>1587.7140634741863</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1413.4832630630181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3731,11 +3768,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="254874752"/>
-        <c:axId val="254876288"/>
+        <c:axId val="519096192"/>
+        <c:axId val="535965696"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="254874752"/>
+        <c:axId val="519096192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3778,14 +3815,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254876288"/>
+        <c:crossAx val="535965696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="254876288"/>
+        <c:axId val="535965696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3834,7 +3871,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254874752"/>
+        <c:crossAx val="519096192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4296,15 +4333,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF76"/>
+  <dimension ref="A1:AF181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C10" sqref="C10"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.75" style="1" customWidth="1"/>
@@ -4336,151 +4373,151 @@
     <col min="52" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="1:32" s="13" customFormat="1" ht="27" customHeight="1">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="13"/>
-    </row>
-    <row r="2" spans="1:32" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="24"/>
-      <c r="M2" s="19"/>
-    </row>
-    <row r="3" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5">
+      <c r="M1" s="14"/>
+    </row>
+    <row r="2" spans="1:32" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="24"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="25"/>
+      <c r="M2" s="20"/>
+    </row>
+    <row r="3" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6">
         <v>1550</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6">
         <f>MIN(F:F)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="8"/>
-    </row>
-    <row r="4" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="H3" s="6"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="9"/>
+    </row>
+    <row r="4" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A4" s="16">
         <v>42825</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="26">
         <v>0.97609000000000001</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="21">
         <v>0.99386428571428564</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="22">
         <v>27.550142857142728</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="23">
         <v>28.225002671006493</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="23">
         <v>28.225002671006493</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="23">
         <v>27.550142857142728</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="23">
         <v>27.550142857142728</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="23">
         <v>27.550142857142728</v>
       </c>
-      <c r="J4" s="22">
-        <v>0</v>
-      </c>
-      <c r="K4" s="21">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7"/>
-      <c r="O4" s="26" t="s">
+      <c r="J4" s="23">
+        <v>0</v>
+      </c>
+      <c r="K4" s="22">
+        <v>0</v>
+      </c>
+      <c r="L4" s="8"/>
+      <c r="O4" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="S4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="T4" s="27" t="s">
+      <c r="T4" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="U4" s="11" t="s">
+      <c r="U4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="V4" s="11" t="s">
+      <c r="V4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="X4" s="6">
+      <c r="X4" s="7">
         <v>43098</v>
       </c>
-      <c r="Y4" s="7">
+      <c r="Y4" s="8">
         <f>VLOOKUP(X4,O:P,2,)</f>
         <v>304.12500617544276</v>
       </c>
-      <c r="Z4" s="7">
+      <c r="Z4" s="8">
         <f t="shared" ref="Z4:Z5" si="0">0-Y4</f>
         <v>-304.12500617544276</v>
       </c>
-      <c r="AA4" s="6">
+      <c r="AA4" s="7">
         <v>43098</v>
       </c>
       <c r="AB4" s="1">
@@ -4491,89 +4528,89 @@
         <f t="shared" ref="AC4" si="1">0-AB4</f>
         <v>-304.12500617544276</v>
       </c>
-      <c r="AD4" s="6">
+      <c r="AD4" s="7">
         <v>43098</v>
       </c>
-      <c r="AE4" s="7">
+      <c r="AE4" s="8">
         <f>VLOOKUP(AD4,O:P,2,)</f>
         <v>304.12500617544276</v>
       </c>
-      <c r="AF4" s="7">
+      <c r="AF4" s="8">
         <f t="shared" ref="AF4" si="2">0-AE4</f>
         <v>-304.12500617544276</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+    <row r="5" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A5" s="16">
         <v>42853</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="26">
         <v>0.88445000000000007</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="21">
         <v>0.95655781250000005</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="22">
         <v>111.76710937499996</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="23">
         <v>126.36905350782968</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="23">
         <v>154.59405617883618</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="23">
         <v>136.73071298737167</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="23">
         <v>139.31725223214269</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="23">
         <v>136.73071298737167</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="23">
         <v>-2.5865392447710178</v>
       </c>
-      <c r="K5" s="21">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7"/>
-      <c r="O5" s="6">
+      <c r="K5" s="22">
+        <v>0</v>
+      </c>
+      <c r="L5" s="8"/>
+      <c r="O5" s="7">
         <v>43098</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="11">
         <v>304.12500617544276</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="6">
         <v>304.12500617544276</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="6">
         <v>328.80443799445595</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="6">
         <v>24.679431819013189</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5" s="6">
         <v>251.21204627564666</v>
       </c>
-      <c r="U5" s="9">
+      <c r="U5" s="10">
         <v>8.1148972685186532E-2</v>
       </c>
-      <c r="V5" s="9">
+      <c r="V5" s="10">
         <v>8.1148972685186532E-2</v>
       </c>
-      <c r="X5" s="6">
+      <c r="X5" s="7">
         <v>43462</v>
       </c>
-      <c r="Y5" s="7">
+      <c r="Y5" s="8">
         <f>VLOOKUP(X5,O:P,2,)</f>
         <v>1807.7843670854991</v>
       </c>
-      <c r="Z5" s="7">
+      <c r="Z5" s="8">
         <f t="shared" si="0"/>
         <v>-1807.7843670854991</v>
       </c>
-      <c r="AA5" s="6">
+      <c r="AA5" s="7">
         <v>43462</v>
       </c>
       <c r="AB5" s="1">
@@ -4584,84 +4621,84 @@
         <f t="shared" ref="AC5:AC6" si="3">0-AB5</f>
         <v>-1807.7843670854991</v>
       </c>
-      <c r="AD5" s="6">
+      <c r="AD5" s="7">
         <v>43462</v>
       </c>
-      <c r="AE5" s="7">
+      <c r="AE5" s="8">
         <f>VLOOKUP(AD5,O:P,2,)</f>
         <v>1807.7843670854991</v>
       </c>
-      <c r="AF5" s="7">
+      <c r="AF5" s="8">
         <f t="shared" ref="AF5:AF7" si="4">0-AE5</f>
         <v>-1807.7843670854991</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+    <row r="6" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A6" s="16">
         <v>42886</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="26">
         <v>0.84275</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="21">
         <v>0.91796173076923115</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="22">
         <v>116.57818269230829</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="23">
         <v>138.33068251831301</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="23">
         <v>292.92473869714922</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="23">
         <v>246.86232353702252</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="23">
         <v>255.89543492445097</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="23">
         <v>246.86232353702252</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="23">
         <v>-9.0331113874284483</v>
       </c>
-      <c r="K6" s="21">
-        <v>0</v>
-      </c>
-      <c r="L6" s="7"/>
-      <c r="O6" s="6">
+      <c r="K6" s="22">
+        <v>0</v>
+      </c>
+      <c r="L6" s="8"/>
+      <c r="O6" s="7">
         <v>43462</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="11">
         <v>1807.7843670854991</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="6">
         <v>2111.9093732609417</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="6">
         <v>1961.8999213933344</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="6">
         <v>-150.00945186760737</v>
       </c>
-      <c r="T6" s="5">
+      <c r="T6" s="6">
         <v>317.52088040945171</v>
       </c>
-      <c r="U6" s="9">
+      <c r="U6" s="10">
         <v>-7.1030250524425617E-2</v>
       </c>
-      <c r="V6" s="9">
+      <c r="V6" s="10">
         <v>-6.2582124461404876E-2</v>
       </c>
-      <c r="X6" s="6">
+      <c r="X6" s="7">
         <v>43462</v>
       </c>
-      <c r="Z6" s="7">
+      <c r="Z6" s="8">
         <v>1961.8999213933344</v>
       </c>
-      <c r="AA6" s="6">
+      <c r="AA6" s="7">
         <v>43830</v>
       </c>
       <c r="AB6" s="1">
@@ -4672,226 +4709,226 @@
         <f t="shared" si="3"/>
         <v>-287.98245355098834</v>
       </c>
-      <c r="AD6" s="6">
+      <c r="AD6" s="7">
         <v>43830</v>
       </c>
-      <c r="AE6" s="7">
+      <c r="AE6" s="8">
         <f>VLOOKUP(AD6,O:P,2,)</f>
         <v>287.98245355098834</v>
       </c>
-      <c r="AF6" s="7">
+      <c r="AF6" s="8">
         <f t="shared" si="4"/>
         <v>-287.98245355098834</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+    <row r="7" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A7" s="16">
         <v>42916</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="26">
         <v>0.91246000000000005</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="21">
         <v>0.90437932432432466</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="22">
         <v>-12.525047297296849</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="23">
         <v>-13.726680947435337</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="23">
         <v>279.19805774971388</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="23">
         <v>254.75705977430394</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="23">
         <v>255.89543492445097</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="23">
         <v>267.28210707160076</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="23">
         <v>11.386672147149795</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="22">
         <v>12.525047297296849</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="O7" s="6">
+      <c r="L7" s="8"/>
+      <c r="O7" s="7">
         <v>43830</v>
       </c>
-      <c r="P7" s="10">
+      <c r="P7" s="11">
         <v>287.98245355098834</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="6">
         <v>2399.8918268119301</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7" s="6">
         <v>3217.6093105743603</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="6">
         <v>817.71748376243022</v>
       </c>
-      <c r="T7" s="5">
+      <c r="T7" s="6">
         <v>1365.8977430166979</v>
       </c>
-      <c r="U7" s="9">
+      <c r="U7" s="10">
         <v>0.34073097571597816</v>
       </c>
-      <c r="V7" s="9">
+      <c r="V7" s="10">
         <v>0.15583831681496263</v>
       </c>
-      <c r="Z7" s="8">
+      <c r="Z7" s="9">
         <f>IRR(Z4:Z6)</f>
         <v>-6.2582124461404876E-2</v>
       </c>
-      <c r="AA7" s="6">
+      <c r="AA7" s="7">
         <v>43830</v>
       </c>
       <c r="AC7" s="1">
         <v>3217.6093105743603</v>
       </c>
-      <c r="AD7" s="6">
+      <c r="AD7" s="7">
         <v>44196</v>
       </c>
-      <c r="AE7" s="7">
+      <c r="AE7" s="8">
         <f>VLOOKUP(AD7,O:P,2,)</f>
         <v>0</v>
       </c>
-      <c r="AF7" s="7">
+      <c r="AF7" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+    <row r="8" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A8" s="16">
         <v>42947</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="26">
         <v>0.89419999999999999</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="21">
         <v>0.90019273684210555</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="22">
         <v>9.2887421052636032</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="23">
         <v>10.38776795489108</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="23">
         <v>289.58582570460499</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="23">
         <v>258.94764534505777</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="23">
         <v>265.18417702971459</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="23">
         <v>271.47269264235462</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="23">
         <v>6.2885156126400261</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="22">
         <v>12.525047297296849</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="O8" s="6">
+      <c r="L8" s="8"/>
+      <c r="O8" s="7">
         <v>44196</v>
       </c>
-      <c r="P8" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="5">
+      <c r="P8" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
         <v>2399.8918268119301</v>
       </c>
-      <c r="R8" s="5">
+      <c r="R8" s="6">
         <v>3420.824392859301</v>
       </c>
-      <c r="S8" s="5">
+      <c r="S8" s="6">
         <v>1020.932566047371</v>
       </c>
-      <c r="T8" s="5">
+      <c r="T8" s="6">
         <v>3420.824392859301</v>
       </c>
-      <c r="U8" s="9">
+      <c r="U8" s="10">
         <v>0.42540774323299424</v>
       </c>
-      <c r="V8" s="9">
+      <c r="V8" s="10">
         <v>0.12448297099432648</v>
       </c>
       <c r="AC8" s="2">
         <f>IRR(AC4:AC7)</f>
         <v>0.15583831681496263</v>
       </c>
-      <c r="AD8" s="6">
+      <c r="AD8" s="7">
         <v>44196</v>
       </c>
-      <c r="AF8" s="7">
+      <c r="AF8" s="8">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+    <row r="9" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A9" s="16">
         <v>42978</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="26">
         <v>0.97410000000000008</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="21">
         <v>0.90535008474576273</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="22">
         <v>-106.56236864406789</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="23">
         <v>-109.39571773336195</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="23">
         <v>180.19010797124304</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="23">
         <v>175.52318417478784</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="23">
         <v>265.18417702971459</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="23">
         <v>294.61060011615257</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="23">
         <v>29.426423086437978</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="22">
         <v>119.08741594136474</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="O9" s="6">
+      <c r="L9" s="8"/>
+      <c r="O9" s="7">
         <v>44561</v>
       </c>
-      <c r="P9" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="5">
+      <c r="P9" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
         <v>2399.8918268119301</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9" s="6">
         <v>3420.824392859301</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9" s="6">
         <v>1020.932566047371</v>
       </c>
-      <c r="T9" s="5">
+      <c r="T9" s="6">
         <v>3420.824392859301</v>
       </c>
-      <c r="U9" s="9">
+      <c r="U9" s="10">
         <v>0.42540774323299424</v>
       </c>
-      <c r="V9" s="9">
+      <c r="V9" s="10">
         <v>0.11623036743162096</v>
       </c>
       <c r="AF9" s="2">
@@ -4899,66 +4936,66 @@
         <v>0.12448297099432648</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+    <row r="10" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A10" s="16">
         <v>43007</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="26">
         <v>0.97174000000000005</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="21">
         <v>0.91768381294964019</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="22">
         <v>-83.787089928057782</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="23">
         <v>-86.223773774937513</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="23">
         <v>93.966334196305525</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="23">
         <v>91.310845591917939</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="23">
         <v>265.18417702971459</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="23">
         <v>294.18535146134047</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="23">
         <v>29.001174431625884</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="22">
         <v>202.87450586942253</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="O10" s="6">
+      <c r="L10" s="8"/>
+      <c r="O10" s="7">
         <v>44925</v>
       </c>
-      <c r="P10" s="10">
+      <c r="P10" s="11">
         <v>1191.9854404928446</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="Q10" s="6">
         <v>3591.8772673047747</v>
       </c>
-      <c r="R10" s="5">
+      <c r="R10" s="6">
         <v>4692.9521370177645</v>
       </c>
-      <c r="S10" s="5">
+      <c r="S10" s="6">
         <v>1101.0748697129898</v>
       </c>
-      <c r="T10" s="5">
+      <c r="T10" s="6">
         <v>3420.824392859301</v>
       </c>
-      <c r="U10" s="9">
+      <c r="U10" s="10">
         <v>0.30654579423845396</v>
       </c>
-      <c r="V10" s="9">
+      <c r="V10" s="10">
         <v>9.2107928430304797E-2</v>
       </c>
-      <c r="X10" s="6">
+      <c r="X10" s="7">
         <v>43098</v>
       </c>
       <c r="Y10" s="1">
@@ -4968,7 +5005,7 @@
         <f>-Y10</f>
         <v>-18.350992705669857</v>
       </c>
-      <c r="AA10" s="6">
+      <c r="AA10" s="7">
         <v>43098</v>
       </c>
       <c r="AB10" s="1">
@@ -4979,42 +5016,42 @@
         <v>-18.350992705669857</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+    <row r="11" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A11" s="16">
         <v>43039</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="26">
         <v>0.94596999999999998</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="21">
         <v>0.92351769230769187</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="22">
         <v>-34.801076923077559</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="23">
         <v>-36.788774404132859</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="23">
         <v>57.177559792172666</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="23">
         <v>54.088256236601573</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="23">
         <v>265.18417702971459</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="23">
         <v>291.76383902910169</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="23">
         <v>26.579661999387099</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K11" s="22">
         <v>237.67558279250011</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="X11" s="6">
+      <c r="L11" s="8"/>
+      <c r="X11" s="7">
         <v>43462</v>
       </c>
       <c r="Y11" s="1">
@@ -5024,7 +5061,7 @@
         <f>-Y11</f>
         <v>-255.17901000780921</v>
       </c>
-      <c r="AA11" s="6">
+      <c r="AA11" s="7">
         <v>43462</v>
       </c>
       <c r="AB11" s="1">
@@ -5035,42 +5072,42 @@
         <v>-255.17901000780921</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+    <row r="12" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A12" s="16">
         <v>43069</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="26">
         <v>0.93876000000000004</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="21">
         <v>0.93002679775280872</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="22">
         <v>-13.536463483146544</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="23">
         <v>-14.419514554461783</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="23">
         <v>42.758045237710881</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="23">
         <v>40.139542547353471</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="23">
         <v>265.18417702971459</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="23">
         <v>291.35158882300016</v>
       </c>
-      <c r="J12" s="22">
+      <c r="J12" s="23">
         <v>26.167411793285567</v>
       </c>
-      <c r="K12" s="21">
+      <c r="K12" s="22">
         <v>251.21204627564666</v>
       </c>
-      <c r="L12" s="7"/>
-      <c r="X12" s="6">
+      <c r="L12" s="8"/>
+      <c r="X12" s="7">
         <v>43830</v>
       </c>
       <c r="Y12" s="1">
@@ -5080,7 +5117,7 @@
         <f>-Y12</f>
         <v>-51.512876965237467</v>
       </c>
-      <c r="AA12" s="6">
+      <c r="AA12" s="7">
         <v>43830</v>
       </c>
       <c r="AB12" s="1">
@@ -5091,42 +5128,42 @@
         <v>-51.512876965237467</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+    <row r="13" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A13" s="16">
         <v>43098</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="26">
         <v>0.90395999999999999</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="21">
         <v>0.92908311557788914</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="22">
         <v>38.940829145728188</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="23">
         <v>43.07804454370568</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="23">
         <v>85.836089781416561</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="23">
         <v>77.59239171880931</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="23">
         <v>304.12500617544276</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="23">
         <v>328.80443799445595</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="23">
         <v>24.679431819013189</v>
       </c>
-      <c r="K13" s="21">
+      <c r="K13" s="22">
         <v>251.21204627564666</v>
       </c>
-      <c r="L13" s="7"/>
-      <c r="X13" s="6">
+      <c r="L13" s="8"/>
+      <c r="X13" s="7">
         <v>44196</v>
       </c>
       <c r="Y13" s="1">
@@ -5136,7 +5173,7 @@
         <f>-Y13</f>
         <v>0</v>
       </c>
-      <c r="AA13" s="6">
+      <c r="AA13" s="7">
         <v>44196</v>
       </c>
       <c r="AB13" s="1">
@@ -5147,42 +5184,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+    <row r="14" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A14" s="16">
         <v>43131</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="26">
         <v>0.86690999999999996</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="21">
         <v>0.92713140271493188</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="22">
         <v>93.34317420814449</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="23">
         <v>107.67343116141755</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="23">
         <v>193.50952094283411</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="23">
         <v>167.75533880055232</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="23">
         <v>397.46818038358725</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="23">
         <v>418.96738507619898</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="23">
         <v>21.499204692611727</v>
       </c>
-      <c r="K14" s="21">
+      <c r="K14" s="22">
         <v>251.21204627564666</v>
       </c>
-      <c r="L14" s="7"/>
-      <c r="X14" s="6">
+      <c r="L14" s="8"/>
+      <c r="X14" s="7">
         <v>44561</v>
       </c>
       <c r="Y14" s="1">
@@ -5192,7 +5229,7 @@
         <f>-Y14</f>
         <v>0</v>
       </c>
-      <c r="AA14" s="6">
+      <c r="AA14" s="7">
         <v>44561</v>
       </c>
       <c r="AB14" s="1">
@@ -5203,48 +5240,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+    <row r="15" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A15" s="16">
         <v>43159</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="26">
         <v>0.8518</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="21">
         <v>0.91968983050847442</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="22">
         <v>105.22923728813534</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="23">
         <v>123.53749388135165</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="23">
         <v>317.04701482418579</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="23">
         <v>270.06064722724147</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="23">
         <v>502.69741767172258</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="23">
         <v>521.27269350288816</v>
       </c>
-      <c r="J15" s="22">
+      <c r="J15" s="23">
         <v>18.575275831165584</v>
       </c>
-      <c r="K15" s="21">
+      <c r="K15" s="22">
         <v>251.21204627564666</v>
       </c>
-      <c r="L15" s="7"/>
-      <c r="X15" s="6">
+      <c r="L15" s="8"/>
+      <c r="X15" s="7">
         <v>44561</v>
       </c>
       <c r="Z15" s="1">
         <v>499.59426954009558</v>
       </c>
-      <c r="AA15" s="6">
+      <c r="AA15" s="7">
         <v>44925</v>
       </c>
       <c r="AB15" s="1">
@@ -5255,2189 +5292,2511 @@
         <v>-153.10026037530758</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+    <row r="16" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A16" s="16">
         <v>43189</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="26">
         <v>0.95575999999999994</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="21">
         <v>0.91931608527131781</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="22">
         <v>-56.488067829457314</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="23">
         <v>-59.102774576731939</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="23">
         <v>257.94424024745388</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="23">
         <v>246.53278705890651</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="23">
         <v>502.69741767172258</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="23">
         <v>554.23290116401051</v>
       </c>
-      <c r="J16" s="22">
+      <c r="J16" s="23">
         <v>51.535483492287938</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="22">
         <v>307.70011410510398</v>
       </c>
-      <c r="L16" s="7"/>
+      <c r="L16" s="8"/>
       <c r="Z16" s="2">
         <f>IRR(Z10:Z15)</f>
         <v>0.11623036743162096</v>
       </c>
-      <c r="AA16" s="6">
+      <c r="AA16" s="7">
         <v>44925</v>
       </c>
       <c r="AC16" s="1">
         <v>668.05173961811045</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
+    <row r="17" spans="1:29" ht="14.1" customHeight="1">
+      <c r="A17" s="16">
         <v>43217</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="26">
         <v>0.92662</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="21">
         <v>0.92028402173913049</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="22">
         <v>-9.8207663043477442</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="23">
         <v>-10.598482985849371</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="23">
         <v>247.34575726160452</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="23">
         <v>229.19552559374799</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17" s="23">
         <v>502.69741767172258</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="23">
         <v>546.71640600319972</v>
       </c>
-      <c r="J17" s="22">
+      <c r="J17" s="23">
         <v>44.018988331477146</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K17" s="22">
         <v>317.52088040945171</v>
       </c>
-      <c r="L17" s="7"/>
+      <c r="L17" s="8"/>
       <c r="AC17" s="2">
         <f>IRR(AC10:AC16)</f>
         <v>9.2107928430304797E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
+    <row r="18" spans="1:29" ht="14.1" customHeight="1">
+      <c r="A18" s="16">
         <v>43251</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="26">
         <v>0.88405999999999996</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="21">
         <v>0.91991989932885943</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="22">
         <v>55.582843959732173</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="23">
         <v>62.87225296895253</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="23">
         <v>310.21801023055707</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="23">
         <v>274.25133412442625</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="23">
         <v>558.28026163145478</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="23">
         <v>591.77221453387801</v>
       </c>
-      <c r="J18" s="22">
+      <c r="J18" s="23">
         <v>33.491952902423236</v>
       </c>
-      <c r="K18" s="21">
+      <c r="K18" s="22">
         <v>317.52088040945171</v>
       </c>
-      <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="1:29" ht="14.1" customHeight="1">
+      <c r="A19" s="16">
         <v>43280</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="26">
         <v>0.81235999999999997</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="21">
         <v>0.91462415094339644</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="22">
         <v>158.50943396226452</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="23">
         <v>195.12215515567547</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="23">
         <v>505.34016538623257</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="23">
         <v>410.51813675315987</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19" s="23">
         <v>716.78969559371933</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="23">
         <v>728.03901716261157</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J19" s="23">
         <v>11.249321568892242</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="22">
         <v>317.52088040945171</v>
       </c>
-      <c r="L19" s="7"/>
-    </row>
-    <row r="20" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="1:29" ht="14.1" customHeight="1">
+      <c r="A20" s="16">
         <v>43312</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="26">
         <v>0.8131799999999999</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="21">
         <v>0.90820861764705896</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="22">
         <v>147.29435735294155</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="23">
         <v>181.13376786559132</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="23">
         <v>686.47393325182384</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="23">
         <v>558.22687304171802</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H20" s="23">
         <v>864.0840529466609</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="23">
         <v>875.74775345116973</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J20" s="23">
         <v>11.663700504508824</v>
       </c>
-      <c r="K20" s="21">
+      <c r="K20" s="22">
         <v>317.52088040945171</v>
       </c>
-      <c r="L20" s="7"/>
-    </row>
-    <row r="21" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="1:29" ht="14.1" customHeight="1">
+      <c r="A21" s="16">
         <v>43343</v>
       </c>
-      <c r="B21" s="25">
+      <c r="B21" s="26">
         <v>0.77766999999999997</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="21">
         <v>0.90034011019283766</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="22">
         <v>190.13867079889843</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="23">
         <v>244.49788573417831</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="23">
         <v>930.97181898600218</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="23">
         <v>723.98885447084433</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="23">
         <v>1054.2227237455593</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="23">
         <v>1041.509734880296</v>
       </c>
-      <c r="J21" s="22">
+      <c r="J21" s="23">
         <v>-12.712988865263242</v>
       </c>
-      <c r="K21" s="21">
+      <c r="K21" s="22">
         <v>317.52088040945171</v>
       </c>
-      <c r="L21" s="8"/>
-    </row>
-    <row r="22" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
+      <c r="L21" s="9"/>
+    </row>
+    <row r="22" spans="1:29" ht="14.1" customHeight="1">
+      <c r="A22" s="16">
         <v>43371</v>
       </c>
-      <c r="B22" s="25">
+      <c r="B22" s="26">
         <v>0.76784000000000008</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="21">
         <v>0.8937382984293194</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="22">
         <v>195.14236256544496</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="23">
         <v>254.14456470807062</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="23">
         <v>1185.1163836940727</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="23">
         <v>909.97976405565691</v>
       </c>
-      <c r="H22" s="22">
+      <c r="H22" s="23">
         <v>1249.3650863110042</v>
       </c>
-      <c r="I22" s="22">
+      <c r="I22" s="23">
         <v>1227.5006444651085</v>
       </c>
-      <c r="J22" s="22">
+      <c r="J22" s="23">
         <v>-21.864441845895726</v>
       </c>
-      <c r="K22" s="21">
+      <c r="K22" s="22">
         <v>317.52088040945171</v>
       </c>
-      <c r="L22" s="7"/>
-    </row>
-    <row r="23" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:29" ht="14.1" customHeight="1">
+      <c r="A23" s="16">
         <v>43404</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B23" s="26">
         <v>0.67677999999999994</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="21">
         <v>0.88415025000000003</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="22">
         <v>321.42388750000015</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="23">
         <v>474.93112606755545</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="23">
         <v>1660.0475097616281</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G23" s="23">
         <v>1123.4869536564745</v>
       </c>
-      <c r="H23" s="22">
+      <c r="H23" s="23">
         <v>1570.7889738110043</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I23" s="23">
         <v>1441.0078340659261</v>
       </c>
-      <c r="J23" s="22">
+      <c r="J23" s="23">
         <v>-129.78113974507824</v>
       </c>
-      <c r="K23" s="21">
+      <c r="K23" s="22">
         <v>317.52088040945171</v>
       </c>
-      <c r="L23" s="7"/>
-    </row>
-    <row r="24" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="1:29" ht="14.1" customHeight="1">
+      <c r="A24" s="16">
         <v>43434</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="26">
         <v>0.7214299999999999</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="21">
         <v>0.87621106635071089</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="22">
         <v>239.91065284360204</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="23">
         <v>332.54876127081224</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F24" s="23">
         <v>1992.5962710324404</v>
       </c>
-      <c r="G24" s="22">
+      <c r="G24" s="23">
         <v>1437.5187278109333</v>
       </c>
-      <c r="H24" s="22">
+      <c r="H24" s="23">
         <v>1810.6996266546064</v>
       </c>
-      <c r="I24" s="22">
+      <c r="I24" s="23">
         <v>1755.0396082203852</v>
       </c>
-      <c r="J24" s="22">
+      <c r="J24" s="23">
         <v>-55.660018434221229</v>
       </c>
-      <c r="K24" s="21">
+      <c r="K24" s="22">
         <v>317.52088040945171</v>
       </c>
-      <c r="L24" s="7"/>
+      <c r="L24" s="8"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15">
+    <row r="25" spans="1:29" ht="14.1" customHeight="1">
+      <c r="A25" s="16">
         <v>43462</v>
       </c>
-      <c r="B25" s="25">
+      <c r="B25" s="26">
         <v>0.67408000000000001</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="21">
         <v>0.86840886877828072</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="22">
         <v>301.2097466063351</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="23">
         <v>446.84569577251233</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F25" s="23">
         <v>2439.4419668049527</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G25" s="23">
         <v>1644.3790409838825</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H25" s="23">
         <v>2111.9093732609417</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I25" s="23">
         <v>1961.8999213933344</v>
       </c>
-      <c r="J25" s="22">
+      <c r="J25" s="23">
         <v>-150.00945186760737</v>
       </c>
-      <c r="K25" s="21">
+      <c r="K25" s="22">
         <v>317.52088040945171</v>
       </c>
-      <c r="L25" s="7"/>
-    </row>
-    <row r="26" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
+      <c r="L25" s="8"/>
+    </row>
+    <row r="26" spans="1:29" ht="14.1" customHeight="1">
+      <c r="A26" s="16">
         <v>43496</v>
       </c>
-      <c r="B26" s="25">
+      <c r="B26" s="26">
         <v>0.67819000000000007</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="21">
         <v>0.86047514038876904</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="22">
         <v>282.54196760259191</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="23">
         <v>416.61181616153567</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F26" s="23">
         <v>2856.0537829664881</v>
       </c>
-      <c r="G26" s="22">
+      <c r="G26" s="23">
         <v>1936.9471150700429</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H26" s="23">
         <v>2394.4513408635335</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I26" s="23">
         <v>2254.4679954794947</v>
       </c>
-      <c r="J26" s="22">
+      <c r="J26" s="23">
         <v>-139.98334538403878</v>
       </c>
-      <c r="K26" s="21">
+      <c r="K26" s="22">
         <v>317.52088040945171</v>
       </c>
-      <c r="L26" s="7"/>
-    </row>
-    <row r="27" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15">
+      <c r="L26" s="8"/>
+    </row>
+    <row r="27" spans="1:29" ht="14.1" customHeight="1">
+      <c r="A27" s="16">
         <v>43524</v>
       </c>
-      <c r="B27" s="25">
+      <c r="B27" s="26">
         <v>0.85648000000000002</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="21">
         <v>0.8580328242677826</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="22">
         <v>2.406877615063002</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E27" s="23">
         <v>2.8101971033334134</v>
       </c>
-      <c r="F27" s="22">
+      <c r="F27" s="23">
         <v>2858.8639800698215</v>
       </c>
-      <c r="G27" s="22">
+      <c r="G27" s="23">
         <v>2448.5598216502008</v>
       </c>
-      <c r="H27" s="22">
+      <c r="H27" s="23">
         <v>2396.8582184785964</v>
       </c>
-      <c r="I27" s="22">
+      <c r="I27" s="23">
         <v>2766.0807020596526</v>
       </c>
-      <c r="J27" s="22">
+      <c r="J27" s="23">
         <v>369.22248358105617</v>
       </c>
-      <c r="K27" s="21">
+      <c r="K27" s="22">
         <v>317.52088040945171</v>
       </c>
-      <c r="L27" s="7"/>
-    </row>
-    <row r="28" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15">
+      <c r="L27" s="8"/>
+    </row>
+    <row r="28" spans="1:29" ht="14.1" customHeight="1">
+      <c r="A28" s="16">
         <v>43553</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="26">
         <v>0.94580999999999993</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="21">
         <v>0.86124096192384803</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="22">
         <v>-131.08200901803545</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E28" s="23">
         <v>-138.59232723066521</v>
       </c>
-      <c r="F28" s="22">
+      <c r="F28" s="23">
         <v>2720.2716528391566</v>
       </c>
-      <c r="G28" s="22">
+      <c r="G28" s="23">
         <v>2572.8601319718023</v>
       </c>
-      <c r="H28" s="22">
+      <c r="H28" s="23">
         <v>2396.8582184785964</v>
       </c>
-      <c r="I28" s="22">
+      <c r="I28" s="23">
         <v>3021.4630213992896</v>
       </c>
-      <c r="J28" s="22">
+      <c r="J28" s="23">
         <v>624.60480292069315</v>
       </c>
-      <c r="K28" s="21">
+      <c r="K28" s="22">
         <v>448.60288942748718</v>
       </c>
-      <c r="L28" s="7"/>
-    </row>
-    <row r="29" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15">
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="1:29" ht="14.1" customHeight="1">
+      <c r="A29" s="16">
         <v>43585</v>
       </c>
-      <c r="B29" s="25">
+      <c r="B29" s="26">
         <v>0.9108099999999999</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="21">
         <v>0.86549344230769254</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="22">
         <v>-70.24066442307641</v>
       </c>
-      <c r="E29" s="22">
+      <c r="E29" s="23">
         <v>-77.118899027323394</v>
       </c>
-      <c r="F29" s="22">
+      <c r="F29" s="23">
         <v>2643.152753811833</v>
       </c>
-      <c r="G29" s="22">
+      <c r="G29" s="23">
         <v>2407.4099596993556</v>
       </c>
-      <c r="H29" s="22">
+      <c r="H29" s="23">
         <v>2396.8582184785964</v>
       </c>
-      <c r="I29" s="22">
+      <c r="I29" s="23">
         <v>2926.2535135499193</v>
       </c>
-      <c r="J29" s="22">
+      <c r="J29" s="23">
         <v>529.39529507132283</v>
       </c>
-      <c r="K29" s="21">
+      <c r="K29" s="22">
         <v>518.84355385056358</v>
       </c>
-      <c r="L29" s="7"/>
-    </row>
-    <row r="30" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15">
+      <c r="L29" s="8"/>
+    </row>
+    <row r="30" spans="1:29" ht="14.1" customHeight="1">
+      <c r="A30" s="16">
         <v>43616</v>
       </c>
-      <c r="B30" s="25">
+      <c r="B30" s="26">
         <v>0.86360000000000003</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="21">
         <v>0.86555716666666693</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="22">
         <v>3.0336083333336927</v>
       </c>
-      <c r="E30" s="22">
+      <c r="E30" s="23">
         <v>3.5127470279454522</v>
       </c>
-      <c r="F30" s="22">
+      <c r="F30" s="23">
         <v>2646.6655008397784</v>
       </c>
-      <c r="G30" s="22">
+      <c r="G30" s="23">
         <v>2285.6603265252329</v>
       </c>
-      <c r="H30" s="22">
+      <c r="H30" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I30" s="22">
+      <c r="I30" s="23">
         <v>2804.5038803757966</v>
       </c>
-      <c r="J30" s="22">
+      <c r="J30" s="23">
         <v>404.61205356386654</v>
       </c>
-      <c r="K30" s="21">
+      <c r="K30" s="22">
         <v>518.84355385056358</v>
       </c>
-      <c r="L30" s="7"/>
-    </row>
-    <row r="31" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15">
+      <c r="L30" s="8"/>
+    </row>
+    <row r="31" spans="1:29" ht="14.1" customHeight="1">
+      <c r="A31" s="16">
         <v>43644</v>
       </c>
-      <c r="B31" s="25">
+      <c r="B31" s="26">
         <v>0.88732</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="21">
         <v>0.86554053667263009</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="22">
         <v>-33.758168157423356</v>
       </c>
-      <c r="E31" s="22">
+      <c r="E31" s="23">
         <v>-38.045088758760485</v>
       </c>
-      <c r="F31" s="22">
+      <c r="F31" s="23">
         <v>2608.620412081018</v>
       </c>
-      <c r="G31" s="22">
+      <c r="G31" s="23">
         <v>2314.6810640477288</v>
       </c>
-      <c r="H31" s="22">
+      <c r="H31" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I31" s="22">
+      <c r="I31" s="23">
         <v>2867.2827860557159</v>
       </c>
-      <c r="J31" s="22">
+      <c r="J31" s="23">
         <v>467.3909592437858</v>
       </c>
-      <c r="K31" s="21">
+      <c r="K31" s="22">
         <v>552.60172200798695</v>
       </c>
-      <c r="L31" s="7"/>
-    </row>
-    <row r="32" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15">
+      <c r="L31" s="8"/>
+    </row>
+    <row r="32" spans="1:29" ht="14.1" customHeight="1">
+      <c r="A32" s="16">
         <v>43677</v>
       </c>
-      <c r="B32" s="25">
+      <c r="B32" s="26">
         <v>0.89222000000000001</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="21">
         <v>0.86642510309278375</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="22">
         <v>-39.982090206185198</v>
       </c>
-      <c r="E32" s="22">
+      <c r="E32" s="23">
         <v>-44.811918816194655</v>
       </c>
-      <c r="F32" s="22">
+      <c r="F32" s="23">
         <v>2563.8084932648235</v>
       </c>
-      <c r="G32" s="22">
+      <c r="G32" s="23">
         <v>2287.4812138607408</v>
       </c>
-      <c r="H32" s="22">
+      <c r="H32" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I32" s="22">
+      <c r="I32" s="23">
         <v>2880.065026074913</v>
       </c>
-      <c r="J32" s="22">
+      <c r="J32" s="23">
         <v>480.17319926298296</v>
       </c>
-      <c r="K32" s="21">
+      <c r="K32" s="22">
         <v>592.5838122141721</v>
       </c>
-      <c r="L32" s="7"/>
-    </row>
-    <row r="33" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15">
+      <c r="L32" s="8"/>
+    </row>
+    <row r="33" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A33" s="16">
         <v>43707</v>
       </c>
-      <c r="B33" s="25">
+      <c r="B33" s="26">
         <v>0.92357</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="21">
         <v>0.86719825870646772</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="22">
         <v>-87.376199004975035</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="23">
         <v>-94.607013009273828</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F33" s="23">
         <v>2469.2014802555495</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G33" s="23">
         <v>2280.4804111196181</v>
       </c>
-      <c r="H33" s="22">
+      <c r="H33" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I33" s="22">
+      <c r="I33" s="23">
         <v>2960.4404223387655</v>
       </c>
-      <c r="J33" s="22">
+      <c r="J33" s="23">
         <v>560.54859552683547</v>
       </c>
-      <c r="K33" s="21">
+      <c r="K33" s="22">
         <v>679.96001121914719</v>
       </c>
-      <c r="L33" s="7"/>
-    </row>
-    <row r="34" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15">
+      <c r="L33" s="8"/>
+    </row>
+    <row r="34" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A34" s="16">
         <v>43738</v>
       </c>
-      <c r="B34" s="25">
+      <c r="B34" s="26">
         <v>0.95855999999999997</v>
       </c>
-      <c r="C34" s="20">
+      <c r="C34" s="21">
         <v>0.87132205457463874</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D34" s="22">
         <v>-135.21881540930991</v>
       </c>
-      <c r="E34" s="22">
+      <c r="E34" s="23">
         <v>-141.0645295122996</v>
       </c>
-      <c r="F34" s="22">
+      <c r="F34" s="23">
         <v>2328.1369507432501</v>
       </c>
-      <c r="G34" s="22">
+      <c r="G34" s="23">
         <v>2231.6589555044498</v>
       </c>
-      <c r="H34" s="22">
+      <c r="H34" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I34" s="22">
+      <c r="I34" s="23">
         <v>3046.8377821329068</v>
       </c>
-      <c r="J34" s="22">
+      <c r="J34" s="23">
         <v>646.94595532097674</v>
       </c>
-      <c r="K34" s="21">
+      <c r="K34" s="22">
         <v>815.17882662845705</v>
       </c>
-      <c r="L34" s="7"/>
-    </row>
-    <row r="35" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="15">
+      <c r="L34" s="8"/>
+    </row>
+    <row r="35" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A35" s="16">
         <v>43769</v>
       </c>
-      <c r="B35" s="25">
+      <c r="B35" s="26">
         <v>0.97238999999999998</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35" s="21">
         <v>0.87426804992199714</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35" s="22">
         <v>-152.08902262090442</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E35" s="23">
         <v>-156.40743181326877</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F35" s="23">
         <v>2171.7295189299812</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G35" s="23">
         <v>2111.7680669123242</v>
       </c>
-      <c r="H35" s="22">
+      <c r="H35" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I35" s="22">
+      <c r="I35" s="23">
         <v>3079.0359161616857</v>
       </c>
-      <c r="J35" s="22">
+      <c r="J35" s="23">
         <v>679.14408934975563</v>
       </c>
-      <c r="K35" s="21">
+      <c r="K35" s="22">
         <v>967.26784924936146</v>
       </c>
-      <c r="L35" s="7"/>
-    </row>
-    <row r="36" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="15">
+      <c r="L35" s="8"/>
+    </row>
+    <row r="36" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A36" s="16">
         <v>43798</v>
       </c>
-      <c r="B36" s="25">
+      <c r="B36" s="26">
         <v>0.97728999999999999</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C36" s="21">
         <v>0.87806616314199404</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36" s="22">
         <v>-153.79694712990923</v>
       </c>
-      <c r="E36" s="22">
+      <c r="E36" s="23">
         <v>-157.37083888089433</v>
       </c>
-      <c r="F36" s="22">
+      <c r="F36" s="23">
         <v>2014.3586800490868</v>
       </c>
-      <c r="G36" s="22">
+      <c r="G36" s="23">
         <v>1968.6125944251721</v>
       </c>
-      <c r="H36" s="22">
+      <c r="H36" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I36" s="22">
+      <c r="I36" s="23">
         <v>3089.6773908044429</v>
       </c>
-      <c r="J36" s="22">
+      <c r="J36" s="23">
         <v>689.78556399251283</v>
       </c>
-      <c r="K36" s="21">
+      <c r="K36" s="22">
         <v>1121.0647963792708</v>
       </c>
-      <c r="L36" s="7"/>
+      <c r="L36" s="8"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="15">
+    <row r="37" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A37" s="16">
         <v>43830</v>
       </c>
-      <c r="B37" s="25">
+      <c r="B37" s="26">
         <v>1.0407999999999999</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C37" s="21">
         <v>0.8828432602339179</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D37" s="22">
         <v>-244.83294663742717</v>
       </c>
-      <c r="E37" s="22">
+      <c r="E37" s="23">
         <v>-235.2353445786195</v>
       </c>
-      <c r="F37" s="22">
+      <c r="F37" s="23">
         <v>1779.1233354704673</v>
       </c>
-      <c r="G37" s="22">
+      <c r="G37" s="23">
         <v>1851.7115675576622</v>
       </c>
-      <c r="H37" s="22">
+      <c r="H37" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I37" s="22">
+      <c r="I37" s="23">
         <v>3217.6093105743603</v>
       </c>
-      <c r="J37" s="22">
+      <c r="J37" s="23">
         <v>817.71748376243022</v>
       </c>
-      <c r="K37" s="21">
+      <c r="K37" s="22">
         <v>1365.8977430166979</v>
       </c>
-      <c r="L37" s="7"/>
-    </row>
-    <row r="38" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="15">
+      <c r="L37" s="8"/>
+    </row>
+    <row r="38" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A38" s="16">
         <v>43853</v>
       </c>
-      <c r="B38" s="25">
+      <c r="B38" s="26">
         <v>1.13632</v>
       </c>
-      <c r="C38" s="20">
+      <c r="C38" s="21">
         <v>0.88820977142857116</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D38" s="22">
         <v>-384.57085428571469</v>
       </c>
-      <c r="E38" s="22">
+      <c r="E38" s="23">
         <v>-338.43534768878015</v>
       </c>
-      <c r="F38" s="22">
+      <c r="F38" s="23">
         <v>1440.6879877816871</v>
       </c>
-      <c r="G38" s="22">
+      <c r="G38" s="23">
         <v>1637.0825742760867</v>
       </c>
-      <c r="H38" s="22">
+      <c r="H38" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I38" s="22">
+      <c r="I38" s="23">
         <v>3387.5511715784992</v>
       </c>
-      <c r="J38" s="22">
+      <c r="J38" s="23">
         <v>987.65934476656912</v>
       </c>
-      <c r="K38" s="21">
+      <c r="K38" s="22">
         <v>1750.4685973024125</v>
       </c>
-      <c r="L38" s="7"/>
-    </row>
-    <row r="39" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="15">
+      <c r="L38" s="8"/>
+    </row>
+    <row r="39" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A39" s="16">
         <v>43889</v>
       </c>
-      <c r="B39" s="25">
+      <c r="B39" s="26">
         <v>1.2075199999999999</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C39" s="21">
         <v>0.89720491666666646</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D39" s="22">
         <v>-480.98837916666685</v>
       </c>
-      <c r="E39" s="22">
+      <c r="E39" s="23">
         <v>-398.32746386533296</v>
       </c>
-      <c r="F39" s="22">
+      <c r="F39" s="23">
         <v>1042.3605239163542</v>
       </c>
-      <c r="G39" s="22">
+      <c r="G39" s="23">
         <v>1258.6711798394758</v>
       </c>
-      <c r="H39" s="22">
+      <c r="H39" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I39" s="22">
+      <c r="I39" s="23">
         <v>3490.1281563085554</v>
       </c>
-      <c r="J39" s="22">
+      <c r="J39" s="23">
         <v>1090.2363294966253</v>
       </c>
-      <c r="K39" s="21">
+      <c r="K39" s="22">
         <v>2231.4569764690796</v>
       </c>
-      <c r="L39" s="7"/>
-    </row>
-    <row r="40" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="15">
+      <c r="L39" s="8"/>
+    </row>
+    <row r="40" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A40" s="16">
         <v>43921</v>
       </c>
-      <c r="B40" s="25">
+      <c r="B40" s="26">
         <v>1.0721400000000001</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C40" s="21">
         <v>0.90529318059299169</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D40" s="22">
         <v>-258.61257008086301</v>
       </c>
-      <c r="E40" s="22">
+      <c r="E40" s="23">
         <v>-241.21156759458933</v>
       </c>
-      <c r="F40" s="22">
+      <c r="F40" s="23">
         <v>801.1489563217649</v>
       </c>
-      <c r="G40" s="22">
+      <c r="G40" s="23">
         <v>858.94384203081711</v>
       </c>
-      <c r="H40" s="22">
+      <c r="H40" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I40" s="22">
+      <c r="I40" s="23">
         <v>3349.0133885807595</v>
       </c>
-      <c r="J40" s="22">
+      <c r="J40" s="23">
         <v>949.12156176882945</v>
       </c>
-      <c r="K40" s="21">
+      <c r="K40" s="22">
         <v>2490.0695465499425</v>
       </c>
-      <c r="L40" s="7"/>
-    </row>
-    <row r="41" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="15">
+      <c r="L40" s="8"/>
+    </row>
+    <row r="41" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A41" s="16">
         <v>43951</v>
       </c>
-      <c r="B41" s="25">
+      <c r="B41" s="26">
         <v>1.13618</v>
       </c>
-      <c r="C41" s="20">
+      <c r="C41" s="21">
         <v>0.91107858453473123</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D41" s="22">
         <v>-348.90719397116652</v>
       </c>
-      <c r="E41" s="22">
+      <c r="E41" s="23">
         <v>-307.08795610833363</v>
       </c>
-      <c r="F41" s="22">
+      <c r="F41" s="23">
         <v>494.06100021343127</v>
       </c>
-      <c r="G41" s="22">
+      <c r="G41" s="23">
         <v>561.34222722249638</v>
       </c>
-      <c r="H41" s="22">
+      <c r="H41" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I41" s="22">
+      <c r="I41" s="23">
         <v>3400.3189677436058</v>
       </c>
-      <c r="J41" s="22">
+      <c r="J41" s="23">
         <v>1000.4271409316757</v>
       </c>
-      <c r="K41" s="21">
+      <c r="K41" s="22">
         <v>2838.9767405211091</v>
       </c>
-      <c r="L41" s="7"/>
-    </row>
-    <row r="42" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="15">
+      <c r="L41" s="8"/>
+    </row>
+    <row r="42" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A42" s="16">
         <v>43980</v>
       </c>
-      <c r="B42" s="25">
+      <c r="B42" s="26">
         <v>1.12294</v>
       </c>
-      <c r="C42" s="20">
+      <c r="C42" s="21">
         <v>0.91666642765685002</v>
       </c>
-      <c r="D42" s="21">
+      <c r="D42" s="22">
         <v>-319.72403713188254</v>
       </c>
-      <c r="E42" s="22">
+      <c r="E42" s="23">
         <v>-284.72049898648419</v>
       </c>
-      <c r="F42" s="22">
+      <c r="F42" s="23">
         <v>209.34050122694708</v>
       </c>
-      <c r="G42" s="22">
+      <c r="G42" s="23">
         <v>235.07682244778798</v>
       </c>
-      <c r="H42" s="22">
+      <c r="H42" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I42" s="22">
+      <c r="I42" s="23">
         <v>3393.7776001007796</v>
       </c>
-      <c r="J42" s="22">
+      <c r="J42" s="23">
         <v>993.88577328884958</v>
       </c>
-      <c r="K42" s="21">
+      <c r="K42" s="22">
         <v>3158.7007776529917</v>
       </c>
-      <c r="L42" s="7"/>
-    </row>
-    <row r="43" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="15">
+      <c r="L42" s="8"/>
+    </row>
+    <row r="43" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A43" s="16">
         <v>44012</v>
       </c>
-      <c r="B43" s="25">
+      <c r="B43" s="26">
         <v>1.25214</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="21">
         <v>0.92355369538077381</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D43" s="22">
         <v>-262.12361520630952</v>
       </c>
-      <c r="E43" s="22">
+      <c r="E43" s="23">
         <v>-209.34050122694708</v>
       </c>
-      <c r="F43" s="22">
-        <v>0</v>
-      </c>
-      <c r="G43" s="22">
-        <v>0</v>
-      </c>
-      <c r="H43" s="22">
+      <c r="F43" s="23">
+        <v>0</v>
+      </c>
+      <c r="G43" s="23">
+        <v>0</v>
+      </c>
+      <c r="H43" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I43" s="22">
+      <c r="I43" s="23">
         <v>3420.824392859301</v>
       </c>
-      <c r="J43" s="22">
+      <c r="J43" s="23">
         <v>1020.932566047371</v>
       </c>
-      <c r="K43" s="21">
+      <c r="K43" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="L43" s="7"/>
-    </row>
-    <row r="44" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="15">
+      <c r="L43" s="8"/>
+    </row>
+    <row r="44" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A44" s="16">
         <v>44043</v>
       </c>
-      <c r="B44" s="25">
+      <c r="B44" s="26">
         <v>1.3561700000000001</v>
       </c>
-      <c r="C44" s="20">
+      <c r="C44" s="21">
         <v>0.93564675970873734</v>
       </c>
-      <c r="D44" s="21">
-        <v>0</v>
-      </c>
-      <c r="E44" s="22">
-        <v>0</v>
-      </c>
-      <c r="F44" s="22">
-        <v>0</v>
-      </c>
-      <c r="G44" s="22">
-        <v>0</v>
-      </c>
-      <c r="H44" s="22">
+      <c r="D44" s="22">
+        <v>0</v>
+      </c>
+      <c r="E44" s="23">
+        <v>0</v>
+      </c>
+      <c r="F44" s="23">
+        <v>0</v>
+      </c>
+      <c r="G44" s="23">
+        <v>0</v>
+      </c>
+      <c r="H44" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I44" s="22">
+      <c r="I44" s="23">
         <v>3420.824392859301</v>
       </c>
-      <c r="J44" s="22">
+      <c r="J44" s="23">
         <v>1020.932566047371</v>
       </c>
-      <c r="K44" s="21">
+      <c r="K44" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="L44" s="7"/>
-    </row>
-    <row r="45" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="15">
+      <c r="L44" s="8"/>
+    </row>
+    <row r="45" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A45" s="16">
         <v>44074</v>
       </c>
-      <c r="B45" s="25">
+      <c r="B45" s="26">
         <v>1.35833</v>
       </c>
-      <c r="C45" s="20">
+      <c r="C45" s="21">
         <v>0.9459795739644965</v>
       </c>
-      <c r="D45" s="21">
-        <v>0</v>
-      </c>
-      <c r="E45" s="22">
-        <v>0</v>
-      </c>
-      <c r="F45" s="22">
-        <v>0</v>
-      </c>
-      <c r="G45" s="22">
-        <v>0</v>
-      </c>
-      <c r="H45" s="22">
+      <c r="D45" s="22">
+        <v>0</v>
+      </c>
+      <c r="E45" s="23">
+        <v>0</v>
+      </c>
+      <c r="F45" s="23">
+        <v>0</v>
+      </c>
+      <c r="G45" s="23">
+        <v>0</v>
+      </c>
+      <c r="H45" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I45" s="22">
+      <c r="I45" s="23">
         <v>3420.824392859301</v>
       </c>
-      <c r="J45" s="22">
+      <c r="J45" s="23">
         <v>1020.932566047371</v>
       </c>
-      <c r="K45" s="21">
+      <c r="K45" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="L45" s="7"/>
-    </row>
-    <row r="46" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="15">
+      <c r="L45" s="8"/>
+    </row>
+    <row r="46" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A46" s="16">
         <v>44104</v>
       </c>
-      <c r="B46" s="25">
+      <c r="B46" s="26">
         <v>1.2336199999999999</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C46" s="21">
         <v>0.95444417531718506</v>
       </c>
-      <c r="D46" s="21">
-        <v>0</v>
-      </c>
-      <c r="E46" s="22">
-        <v>0</v>
-      </c>
-      <c r="F46" s="22">
-        <v>0</v>
-      </c>
-      <c r="G46" s="22">
-        <v>0</v>
-      </c>
-      <c r="H46" s="22">
+      <c r="D46" s="22">
+        <v>0</v>
+      </c>
+      <c r="E46" s="23">
+        <v>0</v>
+      </c>
+      <c r="F46" s="23">
+        <v>0</v>
+      </c>
+      <c r="G46" s="23">
+        <v>0</v>
+      </c>
+      <c r="H46" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I46" s="22">
+      <c r="I46" s="23">
         <v>3420.824392859301</v>
       </c>
-      <c r="J46" s="22">
+      <c r="J46" s="23">
         <v>1020.932566047371</v>
       </c>
-      <c r="K46" s="21">
+      <c r="K46" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="L46" s="7"/>
-    </row>
-    <row r="47" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="15">
+      <c r="L46" s="8"/>
+    </row>
+    <row r="47" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A47" s="16">
         <v>44134</v>
       </c>
-      <c r="B47" s="25">
+      <c r="B47" s="26">
         <v>1.2367600000000001</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C47" s="21">
         <v>0.96014630804076961</v>
       </c>
-      <c r="D47" s="21">
-        <v>0</v>
-      </c>
-      <c r="E47" s="22">
-        <v>0</v>
-      </c>
-      <c r="F47" s="22">
-        <v>0</v>
-      </c>
-      <c r="G47" s="22">
-        <v>0</v>
-      </c>
-      <c r="H47" s="22">
+      <c r="D47" s="22">
+        <v>0</v>
+      </c>
+      <c r="E47" s="23">
+        <v>0</v>
+      </c>
+      <c r="F47" s="23">
+        <v>0</v>
+      </c>
+      <c r="G47" s="23">
+        <v>0</v>
+      </c>
+      <c r="H47" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I47" s="22">
+      <c r="I47" s="23">
         <v>3420.824392859301</v>
       </c>
-      <c r="J47" s="22">
+      <c r="J47" s="23">
         <v>1020.932566047371</v>
       </c>
-      <c r="K47" s="21">
+      <c r="K47" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="L47" s="7"/>
-    </row>
-    <row r="48" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="15">
+      <c r="L47" s="8"/>
+    </row>
+    <row r="48" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A48" s="16">
         <v>44165</v>
       </c>
-      <c r="B48" s="25">
+      <c r="B48" s="26">
         <v>1.23942</v>
       </c>
-      <c r="C48" s="20">
+      <c r="C48" s="21">
         <v>0.96710720132743311</v>
       </c>
-      <c r="D48" s="21">
-        <v>0</v>
-      </c>
-      <c r="E48" s="22">
-        <v>0</v>
-      </c>
-      <c r="F48" s="22">
-        <v>0</v>
-      </c>
-      <c r="G48" s="22">
-        <v>0</v>
-      </c>
-      <c r="H48" s="22">
+      <c r="D48" s="22">
+        <v>0</v>
+      </c>
+      <c r="E48" s="23">
+        <v>0</v>
+      </c>
+      <c r="F48" s="23">
+        <v>0</v>
+      </c>
+      <c r="G48" s="23">
+        <v>0</v>
+      </c>
+      <c r="H48" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I48" s="22">
+      <c r="I48" s="23">
         <v>3420.824392859301</v>
       </c>
-      <c r="J48" s="22">
+      <c r="J48" s="23">
         <v>1020.932566047371</v>
       </c>
-      <c r="K48" s="21">
+      <c r="K48" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="L48" s="7"/>
-    </row>
-    <row r="49" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="15">
+      <c r="L48" s="8"/>
+    </row>
+    <row r="49" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A49" s="16">
         <v>44196</v>
       </c>
-      <c r="B49" s="25">
+      <c r="B49" s="26">
         <v>1.2531099999999999</v>
       </c>
-      <c r="C49" s="20">
+      <c r="C49" s="21">
         <v>0.97392800431499404</v>
       </c>
-      <c r="D49" s="21">
-        <v>0</v>
-      </c>
-      <c r="E49" s="22">
-        <v>0</v>
-      </c>
-      <c r="F49" s="22">
-        <v>0</v>
-      </c>
-      <c r="G49" s="22">
-        <v>0</v>
-      </c>
-      <c r="H49" s="22">
+      <c r="D49" s="22">
+        <v>0</v>
+      </c>
+      <c r="E49" s="23">
+        <v>0</v>
+      </c>
+      <c r="F49" s="23">
+        <v>0</v>
+      </c>
+      <c r="G49" s="23">
+        <v>0</v>
+      </c>
+      <c r="H49" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I49" s="22">
+      <c r="I49" s="23">
         <v>3420.824392859301</v>
       </c>
-      <c r="J49" s="22">
+      <c r="J49" s="23">
         <v>1020.932566047371</v>
       </c>
-      <c r="K49" s="21">
+      <c r="K49" s="22">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="15">
+    <row r="50" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A50" s="16">
         <v>44225</v>
       </c>
-      <c r="B50" s="25">
+      <c r="B50" s="26">
         <v>1.2375</v>
       </c>
-      <c r="C50" s="20">
+      <c r="C50" s="21">
         <v>0.98019564941921822</v>
       </c>
-      <c r="D50" s="21">
-        <v>0</v>
-      </c>
-      <c r="E50" s="22">
-        <v>0</v>
-      </c>
-      <c r="F50" s="22">
-        <v>0</v>
-      </c>
-      <c r="G50" s="22">
-        <v>0</v>
-      </c>
-      <c r="H50" s="22">
+      <c r="D50" s="22">
+        <v>0</v>
+      </c>
+      <c r="E50" s="23">
+        <v>0</v>
+      </c>
+      <c r="F50" s="23">
+        <v>0</v>
+      </c>
+      <c r="G50" s="23">
+        <v>0</v>
+      </c>
+      <c r="H50" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I50" s="22">
+      <c r="I50" s="23">
         <v>3420.824392859301</v>
       </c>
-      <c r="J50" s="22">
+      <c r="J50" s="23">
         <v>1020.932566047371</v>
       </c>
-      <c r="K50" s="21">
+      <c r="K50" s="22">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="15">
+    <row r="51" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A51" s="16">
         <v>44253</v>
       </c>
-      <c r="B51" s="25">
+      <c r="B51" s="26">
         <v>1.23967</v>
       </c>
-      <c r="C51" s="20">
+      <c r="C51" s="21">
         <v>0.984757931392931</v>
       </c>
-      <c r="D51" s="21">
-        <v>0</v>
-      </c>
-      <c r="E51" s="22">
-        <v>0</v>
-      </c>
-      <c r="F51" s="22">
-        <v>0</v>
-      </c>
-      <c r="G51" s="22">
-        <v>0</v>
-      </c>
-      <c r="H51" s="22">
+      <c r="D51" s="22">
+        <v>0</v>
+      </c>
+      <c r="E51" s="23">
+        <v>0</v>
+      </c>
+      <c r="F51" s="23">
+        <v>0</v>
+      </c>
+      <c r="G51" s="23">
+        <v>0</v>
+      </c>
+      <c r="H51" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I51" s="22">
+      <c r="I51" s="23">
         <v>3420.824392859301</v>
       </c>
-      <c r="J51" s="22">
+      <c r="J51" s="23">
         <v>1020.932566047371</v>
       </c>
-      <c r="K51" s="21">
+      <c r="K51" s="22">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="15">
+    <row r="52" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A52" s="16">
         <v>44286</v>
       </c>
-      <c r="B52" s="25">
+      <c r="B52" s="26">
         <v>1.15709</v>
       </c>
-      <c r="C52" s="20">
+      <c r="C52" s="21">
         <v>0.98919197969543116</v>
       </c>
-      <c r="D52" s="21">
-        <v>0</v>
-      </c>
-      <c r="E52" s="22">
-        <v>0</v>
-      </c>
-      <c r="F52" s="22">
-        <v>0</v>
-      </c>
-      <c r="G52" s="22">
-        <v>0</v>
-      </c>
-      <c r="H52" s="22">
+      <c r="D52" s="22">
+        <v>0</v>
+      </c>
+      <c r="E52" s="23">
+        <v>0</v>
+      </c>
+      <c r="F52" s="23">
+        <v>0</v>
+      </c>
+      <c r="G52" s="23">
+        <v>0</v>
+      </c>
+      <c r="H52" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I52" s="22">
+      <c r="I52" s="23">
         <v>3420.824392859301</v>
       </c>
-      <c r="J52" s="22">
+      <c r="J52" s="23">
         <v>1020.932566047371</v>
       </c>
-      <c r="K52" s="21">
+      <c r="K52" s="22">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="15">
+    <row r="53" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A53" s="16">
         <v>44316</v>
       </c>
-      <c r="B53" s="25">
+      <c r="B53" s="26">
         <v>1.17998</v>
       </c>
-      <c r="C53" s="20">
+      <c r="C53" s="21">
         <v>0.99311644135188804</v>
       </c>
-      <c r="D53" s="21">
-        <v>0</v>
-      </c>
-      <c r="E53" s="22">
-        <v>0</v>
-      </c>
-      <c r="F53" s="22">
-        <v>0</v>
-      </c>
-      <c r="G53" s="22">
-        <v>0</v>
-      </c>
-      <c r="H53" s="22">
+      <c r="D53" s="22">
+        <v>0</v>
+      </c>
+      <c r="E53" s="23">
+        <v>0</v>
+      </c>
+      <c r="F53" s="23">
+        <v>0</v>
+      </c>
+      <c r="G53" s="23">
+        <v>0</v>
+      </c>
+      <c r="H53" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I53" s="22">
+      <c r="I53" s="23">
         <v>3420.824392859301</v>
       </c>
-      <c r="J53" s="22">
+      <c r="J53" s="23">
         <v>1020.932566047371</v>
       </c>
-      <c r="K53" s="21">
+      <c r="K53" s="22">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="15">
+    <row r="54" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A54" s="16">
         <v>44347</v>
       </c>
-      <c r="B54" s="25">
+      <c r="B54" s="26">
         <v>1.2623</v>
       </c>
-      <c r="C54" s="20">
+      <c r="C54" s="21">
         <v>0.99678004882812443</v>
       </c>
-      <c r="D54" s="21">
-        <v>0</v>
-      </c>
-      <c r="E54" s="22">
-        <v>0</v>
-      </c>
-      <c r="F54" s="22">
-        <v>0</v>
-      </c>
-      <c r="G54" s="22">
-        <v>0</v>
-      </c>
-      <c r="H54" s="22">
+      <c r="D54" s="22">
+        <v>0</v>
+      </c>
+      <c r="E54" s="23">
+        <v>0</v>
+      </c>
+      <c r="F54" s="23">
+        <v>0</v>
+      </c>
+      <c r="G54" s="23">
+        <v>0</v>
+      </c>
+      <c r="H54" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I54" s="22">
+      <c r="I54" s="23">
         <v>3420.824392859301</v>
       </c>
-      <c r="J54" s="22">
+      <c r="J54" s="23">
         <v>1020.932566047371</v>
       </c>
-      <c r="K54" s="21">
+      <c r="K54" s="22">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="15">
+    <row r="55" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A55" s="16">
         <v>44377</v>
       </c>
-      <c r="B55" s="25">
+      <c r="B55" s="26">
         <v>1.33643</v>
       </c>
-      <c r="C55" s="20">
+      <c r="C55" s="21">
         <v>1.0025140478468895</v>
       </c>
-      <c r="D55" s="21">
-        <v>0</v>
-      </c>
-      <c r="E55" s="22">
-        <v>0</v>
-      </c>
-      <c r="F55" s="22">
-        <v>0</v>
-      </c>
-      <c r="G55" s="22">
-        <v>0</v>
-      </c>
-      <c r="H55" s="22">
+      <c r="D55" s="22">
+        <v>0</v>
+      </c>
+      <c r="E55" s="23">
+        <v>0</v>
+      </c>
+      <c r="F55" s="23">
+        <v>0</v>
+      </c>
+      <c r="G55" s="23">
+        <v>0</v>
+      </c>
+      <c r="H55" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I55" s="22">
+      <c r="I55" s="23">
         <v>3420.824392859301</v>
       </c>
-      <c r="J55" s="22">
+      <c r="J55" s="23">
         <v>1020.932566047371</v>
       </c>
-      <c r="K55" s="21">
+      <c r="K55" s="22">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="15">
+    <row r="56" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A56" s="16">
         <v>44407</v>
       </c>
-      <c r="B56" s="25">
+      <c r="B56" s="26">
         <v>1.28626</v>
       </c>
-      <c r="C56" s="20">
+      <c r="C56" s="21">
         <v>1.0086370852858479</v>
       </c>
-      <c r="D56" s="21">
-        <v>0</v>
-      </c>
-      <c r="E56" s="22">
-        <v>0</v>
-      </c>
-      <c r="F56" s="22">
-        <v>0</v>
-      </c>
-      <c r="G56" s="22">
-        <v>0</v>
-      </c>
-      <c r="H56" s="22">
+      <c r="D56" s="22">
+        <v>0</v>
+      </c>
+      <c r="E56" s="23">
+        <v>0</v>
+      </c>
+      <c r="F56" s="23">
+        <v>0</v>
+      </c>
+      <c r="G56" s="23">
+        <v>0</v>
+      </c>
+      <c r="H56" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I56" s="22">
+      <c r="I56" s="23">
         <v>3420.824392859301</v>
       </c>
-      <c r="J56" s="22">
+      <c r="J56" s="23">
         <v>1020.932566047371</v>
       </c>
-      <c r="K56" s="21">
+      <c r="K56" s="22">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="15">
+    <row r="57" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A57" s="16">
         <v>44439</v>
       </c>
-      <c r="B57" s="25">
+      <c r="B57" s="26">
         <v>1.2177899999999999</v>
       </c>
-      <c r="C57" s="20">
+      <c r="C57" s="21">
         <v>1.0138825528007342</v>
       </c>
-      <c r="D57" s="21">
-        <v>0</v>
-      </c>
-      <c r="E57" s="22">
-        <v>0</v>
-      </c>
-      <c r="F57" s="22">
-        <v>0</v>
-      </c>
-      <c r="G57" s="22">
-        <v>0</v>
-      </c>
-      <c r="H57" s="22">
+      <c r="D57" s="22">
+        <v>0</v>
+      </c>
+      <c r="E57" s="23">
+        <v>0</v>
+      </c>
+      <c r="F57" s="23">
+        <v>0</v>
+      </c>
+      <c r="G57" s="23">
+        <v>0</v>
+      </c>
+      <c r="H57" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I57" s="22">
+      <c r="I57" s="23">
         <v>3420.824392859301</v>
       </c>
-      <c r="J57" s="22">
+      <c r="J57" s="23">
         <v>1020.932566047371</v>
       </c>
-      <c r="K57" s="21">
+      <c r="K57" s="22">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="15">
+    <row r="58" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A58" s="16">
         <v>44469</v>
       </c>
-      <c r="B58" s="25">
+      <c r="B58" s="26">
         <v>1.20347</v>
       </c>
-      <c r="C58" s="20">
+      <c r="C58" s="21">
         <v>1.0177556176735794</v>
       </c>
-      <c r="D58" s="21">
-        <v>0</v>
-      </c>
-      <c r="E58" s="22">
-        <v>0</v>
-      </c>
-      <c r="F58" s="22">
-        <v>0</v>
-      </c>
-      <c r="G58" s="22">
-        <v>0</v>
-      </c>
-      <c r="H58" s="22">
+      <c r="D58" s="22">
+        <v>0</v>
+      </c>
+      <c r="E58" s="23">
+        <v>0</v>
+      </c>
+      <c r="F58" s="23">
+        <v>0</v>
+      </c>
+      <c r="G58" s="23">
+        <v>0</v>
+      </c>
+      <c r="H58" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I58" s="22">
+      <c r="I58" s="23">
         <v>3420.824392859301</v>
       </c>
-      <c r="J58" s="22">
+      <c r="J58" s="23">
         <v>1020.932566047371</v>
       </c>
-      <c r="K58" s="21">
+      <c r="K58" s="22">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="15">
+    <row r="59" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A59" s="16">
         <v>44498</v>
       </c>
-      <c r="B59" s="25">
+      <c r="B59" s="26">
         <v>1.1970999999999998</v>
       </c>
-      <c r="C59" s="20">
+      <c r="C59" s="21">
         <v>1.0204018311111105</v>
       </c>
-      <c r="D59" s="21">
-        <v>0</v>
-      </c>
-      <c r="E59" s="22">
-        <v>0</v>
-      </c>
-      <c r="F59" s="22">
-        <v>0</v>
-      </c>
-      <c r="G59" s="22">
-        <v>0</v>
-      </c>
-      <c r="H59" s="22">
+      <c r="D59" s="22">
+        <v>0</v>
+      </c>
+      <c r="E59" s="23">
+        <v>0</v>
+      </c>
+      <c r="F59" s="23">
+        <v>0</v>
+      </c>
+      <c r="G59" s="23">
+        <v>0</v>
+      </c>
+      <c r="H59" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I59" s="22">
+      <c r="I59" s="23">
         <v>3420.824392859301</v>
       </c>
-      <c r="J59" s="22">
+      <c r="J59" s="23">
         <v>1020.932566047371</v>
       </c>
-      <c r="K59" s="21">
+      <c r="K59" s="22">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="15">
+    <row r="60" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A60" s="16">
         <v>44530</v>
       </c>
-      <c r="B60" s="25">
+      <c r="B60" s="26">
         <v>1.23373</v>
       </c>
-      <c r="C60" s="20">
+      <c r="C60" s="21">
         <v>1.0245603661726232</v>
       </c>
-      <c r="D60" s="21">
-        <v>0</v>
-      </c>
-      <c r="E60" s="22">
-        <v>0</v>
-      </c>
-      <c r="F60" s="22">
-        <v>0</v>
-      </c>
-      <c r="G60" s="22">
-        <v>0</v>
-      </c>
-      <c r="H60" s="22">
+      <c r="D60" s="22">
+        <v>0</v>
+      </c>
+      <c r="E60" s="23">
+        <v>0</v>
+      </c>
+      <c r="F60" s="23">
+        <v>0</v>
+      </c>
+      <c r="G60" s="23">
+        <v>0</v>
+      </c>
+      <c r="H60" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I60" s="22">
+      <c r="I60" s="23">
         <v>3420.824392859301</v>
       </c>
-      <c r="J60" s="22">
+      <c r="J60" s="23">
         <v>1020.932566047371</v>
       </c>
-      <c r="K60" s="21">
+      <c r="K60" s="22">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="15">
+    <row r="61" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A61" s="16">
         <v>44561</v>
       </c>
-      <c r="B61" s="25">
+      <c r="B61" s="26">
         <v>1.2554100000000001</v>
       </c>
-      <c r="C61" s="20">
+      <c r="C61" s="21">
         <v>1.0289409572649562</v>
       </c>
-      <c r="D61" s="21">
-        <v>0</v>
-      </c>
-      <c r="E61" s="22">
-        <v>0</v>
-      </c>
-      <c r="F61" s="22">
-        <v>0</v>
-      </c>
-      <c r="G61" s="22">
-        <v>0</v>
-      </c>
-      <c r="H61" s="22">
+      <c r="D61" s="22">
+        <v>0</v>
+      </c>
+      <c r="E61" s="23">
+        <v>0</v>
+      </c>
+      <c r="F61" s="23">
+        <v>0</v>
+      </c>
+      <c r="G61" s="23">
+        <v>0</v>
+      </c>
+      <c r="H61" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I61" s="22">
+      <c r="I61" s="23">
         <v>3420.824392859301</v>
       </c>
-      <c r="J61" s="22">
+      <c r="J61" s="23">
         <v>1020.932566047371</v>
       </c>
-      <c r="K61" s="21">
+      <c r="K61" s="22">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="15">
+    <row r="62" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A62" s="16">
         <v>44589</v>
       </c>
-      <c r="B62" s="25">
+      <c r="B62" s="26">
         <v>1.11076</v>
       </c>
-      <c r="C62" s="20">
+      <c r="C62" s="21">
         <v>1.0316563299663286</v>
       </c>
-      <c r="D62" s="21">
-        <v>0</v>
-      </c>
-      <c r="E62" s="22">
-        <v>0</v>
-      </c>
-      <c r="F62" s="22">
-        <v>0</v>
-      </c>
-      <c r="G62" s="22">
-        <v>0</v>
-      </c>
-      <c r="H62" s="22">
+      <c r="D62" s="22">
+        <v>0</v>
+      </c>
+      <c r="E62" s="23">
+        <v>0</v>
+      </c>
+      <c r="F62" s="23">
+        <v>0</v>
+      </c>
+      <c r="G62" s="23">
+        <v>0</v>
+      </c>
+      <c r="H62" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I62" s="22">
+      <c r="I62" s="23">
         <v>3420.824392859301</v>
       </c>
-      <c r="J62" s="22">
+      <c r="J62" s="23">
         <v>1020.932566047371</v>
       </c>
-      <c r="K62" s="21">
+      <c r="K62" s="22">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="15">
+    <row r="63" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A63" s="16">
         <v>44620</v>
       </c>
-      <c r="B63" s="25">
+      <c r="B63" s="26">
         <v>1.15177</v>
       </c>
-      <c r="C63" s="20">
+      <c r="C63" s="21">
         <v>1.0331931727574739</v>
       </c>
-      <c r="D63" s="21">
-        <v>0</v>
-      </c>
-      <c r="E63" s="22">
-        <v>0</v>
-      </c>
-      <c r="F63" s="22">
-        <v>0</v>
-      </c>
-      <c r="G63" s="22">
-        <v>0</v>
-      </c>
-      <c r="H63" s="22">
+      <c r="D63" s="22">
+        <v>0</v>
+      </c>
+      <c r="E63" s="23">
+        <v>0</v>
+      </c>
+      <c r="F63" s="23">
+        <v>0</v>
+      </c>
+      <c r="G63" s="23">
+        <v>0</v>
+      </c>
+      <c r="H63" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I63" s="22">
+      <c r="I63" s="23">
         <v>3420.824392859301</v>
       </c>
-      <c r="J63" s="22">
+      <c r="J63" s="23">
         <v>1020.932566047371</v>
       </c>
-      <c r="K63" s="21">
+      <c r="K63" s="22">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="15">
+    <row r="64" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A64" s="16">
         <v>44651</v>
       </c>
-      <c r="B64" s="25">
+      <c r="B64" s="26">
         <v>1.0468499999999998</v>
       </c>
-      <c r="C64" s="20">
+      <c r="C64" s="21">
         <v>1.0340066340668286</v>
       </c>
-      <c r="D64" s="21">
-        <v>0</v>
-      </c>
-      <c r="E64" s="22">
-        <v>0</v>
-      </c>
-      <c r="F64" s="22">
-        <v>0</v>
-      </c>
-      <c r="G64" s="22">
-        <v>0</v>
-      </c>
-      <c r="H64" s="22">
+      <c r="D64" s="22">
+        <v>0</v>
+      </c>
+      <c r="E64" s="23">
+        <v>0</v>
+      </c>
+      <c r="F64" s="23">
+        <v>0</v>
+      </c>
+      <c r="G64" s="23">
+        <v>0</v>
+      </c>
+      <c r="H64" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I64" s="22">
+      <c r="I64" s="23">
         <v>3420.824392859301</v>
       </c>
-      <c r="J64" s="22">
+      <c r="J64" s="23">
         <v>1020.932566047371</v>
       </c>
-      <c r="K64" s="21">
+      <c r="K64" s="22">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="15">
+    <row r="65" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A65" s="16">
         <v>44680</v>
       </c>
-      <c r="B65" s="25">
+      <c r="B65" s="26">
         <v>0.83169999999999999</v>
       </c>
-      <c r="C65" s="20">
+      <c r="C65" s="21">
         <v>1.032387961476724</v>
       </c>
-      <c r="D65" s="21">
+      <c r="D65" s="22">
         <v>311.06634028892216</v>
       </c>
-      <c r="E65" s="22">
+      <c r="E65" s="23">
         <v>374.01267318615146</v>
       </c>
-      <c r="F65" s="22">
+      <c r="F65" s="23">
         <v>374.01267318615146</v>
       </c>
-      <c r="G65" s="22">
+      <c r="G65" s="23">
         <v>311.06634028892216</v>
       </c>
-      <c r="H65" s="22">
+      <c r="H65" s="23">
         <v>2710.9581671008523</v>
       </c>
-      <c r="I65" s="22">
+      <c r="I65" s="23">
         <v>3731.8907331482233</v>
       </c>
-      <c r="J65" s="22">
+      <c r="J65" s="23">
         <v>1020.932566047371</v>
       </c>
-      <c r="K65" s="21">
+      <c r="K65" s="22">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="15">
+    <row r="66" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A66" s="16">
         <v>44712</v>
       </c>
-      <c r="B66" s="25">
+      <c r="B66" s="26">
         <v>0.90644000000000002</v>
       </c>
-      <c r="C66" s="20">
+      <c r="C66" s="21">
         <v>1.0300312806324092</v>
       </c>
-      <c r="D66" s="21">
+      <c r="D66" s="22">
         <v>191.56648498023426</v>
       </c>
-      <c r="E66" s="22">
+      <c r="E66" s="23">
         <v>211.3393991662264</v>
       </c>
-      <c r="F66" s="22">
+      <c r="F66" s="23">
         <v>585.35207235237783</v>
       </c>
-      <c r="G66" s="22">
+      <c r="G66" s="23">
         <v>530.58653246308938</v>
       </c>
-      <c r="H66" s="22">
+      <c r="H66" s="23">
         <v>2902.5246520810865</v>
       </c>
-      <c r="I66" s="22">
+      <c r="I66" s="23">
         <v>3951.4109253223905</v>
       </c>
-      <c r="J66" s="22">
+      <c r="J66" s="23">
         <v>1048.886273241304</v>
       </c>
-      <c r="K66" s="21">
+      <c r="K66" s="22">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="15">
+    <row r="67" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A67" s="16">
         <v>44742</v>
       </c>
-      <c r="B67" s="25">
+      <c r="B67" s="26">
         <v>0.99066999999999994</v>
       </c>
-      <c r="C67" s="20">
+      <c r="C67" s="21">
         <v>1.0286842768273694</v>
       </c>
-      <c r="D67" s="21">
+      <c r="D67" s="22">
         <v>58.922129082422671</v>
       </c>
-      <c r="E67" s="22">
+      <c r="E67" s="23">
         <v>59.477049958535815</v>
       </c>
-      <c r="F67" s="22">
+      <c r="F67" s="23">
         <v>644.82912231091359</v>
       </c>
-      <c r="G67" s="22">
+      <c r="G67" s="23">
         <v>638.81286659975274</v>
       </c>
-      <c r="H67" s="22">
+      <c r="H67" s="23">
         <v>2961.4467811635091</v>
       </c>
-      <c r="I67" s="22">
+      <c r="I67" s="23">
         <v>4059.6372594590539</v>
       </c>
-      <c r="J67" s="22">
+      <c r="J67" s="23">
         <v>1098.1904782955448</v>
       </c>
-      <c r="K67" s="21">
+      <c r="K67" s="22">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="15">
+    <row r="68" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A68" s="16">
         <v>44771</v>
       </c>
-      <c r="B68" s="25">
+      <c r="B68" s="26">
         <v>1.01267</v>
       </c>
-      <c r="C68" s="20">
+      <c r="C68" s="21">
         <v>1.0278637413924998</v>
       </c>
-      <c r="D68" s="21">
+      <c r="D68" s="22">
         <v>23.550299158374767</v>
       </c>
-      <c r="E68" s="22">
+      <c r="E68" s="23">
         <v>23.255650071962997</v>
       </c>
-      <c r="F68" s="22">
+      <c r="F68" s="23">
         <v>668.08477238287662</v>
       </c>
-      <c r="G68" s="22">
+      <c r="G68" s="23">
         <v>676.5494064489676</v>
       </c>
-      <c r="H68" s="22">
+      <c r="H68" s="23">
         <v>2984.9970803218839</v>
       </c>
-      <c r="I68" s="22">
+      <c r="I68" s="23">
         <v>4097.3737993082686</v>
       </c>
-      <c r="J68" s="22">
+      <c r="J68" s="23">
         <v>1112.3767189863847</v>
       </c>
-      <c r="K68" s="21">
+      <c r="K68" s="22">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="15">
+    <row r="69" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A69" s="16">
         <v>44804</v>
       </c>
-      <c r="B69" s="25">
+      <c r="B69" s="26">
         <v>0.95750000000000002</v>
       </c>
-      <c r="C69" s="20">
+      <c r="C69" s="21">
         <v>1.0277413007518783</v>
       </c>
-      <c r="D69" s="21">
+      <c r="D69" s="22">
         <v>108.87401616541135</v>
       </c>
-      <c r="E69" s="22">
+      <c r="E69" s="23">
         <v>113.70654429807973</v>
       </c>
-      <c r="F69" s="22">
+      <c r="F69" s="23">
         <v>781.79131668095636</v>
       </c>
-      <c r="G69" s="22">
+      <c r="G69" s="23">
         <v>748.56518572201571</v>
       </c>
-      <c r="H69" s="22">
+      <c r="H69" s="23">
         <v>3093.8710964872953</v>
       </c>
-      <c r="I69" s="22">
+      <c r="I69" s="23">
         <v>4169.3895785813165</v>
       </c>
-      <c r="J69" s="22">
+      <c r="J69" s="23">
         <v>1075.5184820940212</v>
       </c>
-      <c r="K69" s="21">
+      <c r="K69" s="22">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="15">
+    <row r="70" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A70" s="16">
         <v>44834</v>
       </c>
-      <c r="B70" s="25">
+      <c r="B70" s="26">
         <v>0.85887999999999998</v>
       </c>
-      <c r="C70" s="20">
+      <c r="C70" s="21">
         <v>1.0261969874167267</v>
       </c>
-      <c r="D70" s="21">
+      <c r="D70" s="22">
         <v>259.34133049592646</v>
       </c>
-      <c r="E70" s="22">
+      <c r="E70" s="23">
         <v>301.95292764521992</v>
       </c>
-      <c r="F70" s="22">
+      <c r="F70" s="23">
         <v>1083.7442443261762</v>
       </c>
-      <c r="G70" s="22">
+      <c r="G70" s="23">
         <v>930.80625656686618</v>
       </c>
-      <c r="H70" s="22">
+      <c r="H70" s="23">
         <v>3353.2124269832216</v>
       </c>
-      <c r="I70" s="22">
+      <c r="I70" s="23">
         <v>4351.6306494261671</v>
       </c>
-      <c r="J70" s="22">
+      <c r="J70" s="23">
         <v>998.41822244294553</v>
       </c>
-      <c r="K70" s="21">
+      <c r="K70" s="22">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="15">
+    <row r="71" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A71" s="16">
         <v>44865</v>
       </c>
-      <c r="B71" s="25">
+      <c r="B71" s="26">
         <v>0.96957000000000004</v>
       </c>
-      <c r="C71" s="20">
+      <c r="C71" s="21">
         <v>1.0250083101682501</v>
       </c>
-      <c r="D71" s="21">
+      <c r="D71" s="22">
         <v>85.929380760787609</v>
       </c>
-      <c r="E71" s="22">
+      <c r="E71" s="23">
         <v>88.626278412891907</v>
       </c>
-      <c r="F71" s="22">
+      <c r="F71" s="23">
         <v>1172.3705227390681</v>
       </c>
-      <c r="G71" s="22">
+      <c r="G71" s="23">
         <v>1136.6952877321182</v>
       </c>
-      <c r="H71" s="22">
+      <c r="H71" s="23">
         <v>3439.1418077440094</v>
       </c>
-      <c r="I71" s="22">
+      <c r="I71" s="23">
         <v>4557.5196805914193</v>
       </c>
-      <c r="J71" s="22">
+      <c r="J71" s="23">
         <v>1118.3778728474099</v>
       </c>
-      <c r="K71" s="21">
+      <c r="K71" s="22">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="15">
+    <row r="72" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A72" s="16">
         <v>44895</v>
       </c>
-      <c r="B72" s="25">
+      <c r="B72" s="26">
         <v>0.99405999999999994</v>
       </c>
-      <c r="C72" s="20">
+      <c r="C72" s="21">
         <v>1.0247448956083498</v>
       </c>
-      <c r="D72" s="21">
+      <c r="D72" s="22">
         <v>47.561588192942281</v>
       </c>
-      <c r="E72" s="22">
+      <c r="E72" s="23">
         <v>47.845792198601977</v>
       </c>
-      <c r="F72" s="22">
+      <c r="F72" s="23">
         <v>1220.2163149376699</v>
       </c>
-      <c r="G72" s="22">
+      <c r="G72" s="23">
         <v>1212.9682300269401</v>
       </c>
-      <c r="H72" s="22">
+      <c r="H72" s="23">
         <v>3486.7033959369519</v>
       </c>
-      <c r="I72" s="22">
+      <c r="I72" s="23">
         <v>4633.7926228862416</v>
       </c>
-      <c r="J72" s="22">
+      <c r="J72" s="23">
         <v>1147.0892269492897</v>
       </c>
-      <c r="K72" s="21">
+      <c r="K72" s="22">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="15">
+    <row r="73" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A73" s="16">
         <v>44925</v>
       </c>
-      <c r="B73" s="25">
+      <c r="B73" s="26">
         <v>0.95635000000000003</v>
       </c>
-      <c r="C73" s="20">
+      <c r="C73" s="21">
         <v>1.0242041105598856</v>
       </c>
-      <c r="D73" s="21">
+      <c r="D73" s="22">
         <v>105.1738713678226</v>
       </c>
-      <c r="E73" s="22">
+      <c r="E73" s="23">
         <v>109.97424726075452</v>
       </c>
-      <c r="F73" s="22">
+      <c r="F73" s="23">
         <v>1330.1905621984245</v>
       </c>
-      <c r="G73" s="22">
+      <c r="G73" s="23">
         <v>1272.1277441584632</v>
       </c>
-      <c r="H73" s="22">
+      <c r="H73" s="23">
         <v>3591.8772673047747</v>
       </c>
-      <c r="I73" s="22">
+      <c r="I73" s="23">
         <v>4692.9521370177645</v>
       </c>
-      <c r="J73" s="22">
+      <c r="J73" s="23">
         <v>1101.0748697129898</v>
       </c>
-      <c r="K73" s="21">
+      <c r="K73" s="22">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="15">
+    <row r="74" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A74" s="16">
         <v>44957</v>
       </c>
-      <c r="B74" s="25">
+      <c r="B74" s="26">
         <v>1.08087</v>
       </c>
-      <c r="C74" s="20">
+      <c r="C74" s="21">
         <v>1.0241600981079177</v>
       </c>
-      <c r="D74" s="21">
+      <c r="D74" s="22">
         <v>-87.900347932727485</v>
       </c>
-      <c r="E74" s="22">
+      <c r="E74" s="23">
         <v>-81.323700290254592</v>
       </c>
-      <c r="F74" s="22">
+      <c r="F74" s="23">
         <v>1248.8668619081698</v>
       </c>
-      <c r="G74" s="22">
+      <c r="G74" s="23">
         <v>1349.8627250306834</v>
       </c>
-      <c r="H74" s="22">
+      <c r="H74" s="23">
         <v>3591.8772673047747</v>
       </c>
-      <c r="I74" s="22">
+      <c r="I74" s="23">
         <v>4858.5874658227121</v>
       </c>
-      <c r="J74" s="22">
+      <c r="J74" s="23">
         <v>1266.7101985179374</v>
       </c>
-      <c r="K74" s="21">
+      <c r="K74" s="22">
         <v>3508.7247407920286</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="15">
+    <row r="75" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A75" s="16">
         <v>44985</v>
       </c>
-      <c r="B75" s="25">
+      <c r="B75" s="26">
         <v>1.16859</v>
       </c>
-      <c r="C75" s="20">
+      <c r="C75" s="21">
         <v>1.0261586247408419</v>
       </c>
-      <c r="D75" s="21">
+      <c r="D75" s="22">
         <v>-220.76863165169516</v>
       </c>
-      <c r="E75" s="22">
+      <c r="E75" s="23">
         <v>-188.91880954970961</v>
       </c>
-      <c r="F75" s="22">
+      <c r="F75" s="23">
         <v>1059.9480523584602</v>
       </c>
-      <c r="G75" s="22">
+      <c r="G75" s="23">
         <v>1238.6446945055732</v>
       </c>
-      <c r="H75" s="22">
+      <c r="H75" s="23">
         <v>3591.8772673047747</v>
       </c>
-      <c r="I75" s="22">
+      <c r="I75" s="23">
         <v>4968.1380669492974</v>
       </c>
-      <c r="J75" s="22">
+      <c r="J75" s="23">
         <v>1376.2607996445226</v>
       </c>
-      <c r="K75" s="21">
+      <c r="K75" s="22">
         <v>3729.4933724437237</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="15">
+    <row r="76" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A76" s="16">
         <v>45016</v>
       </c>
-      <c r="B76" s="25">
+      <c r="B76" s="26">
         <v>1.2989900000000001</v>
       </c>
-      <c r="C76" s="20">
+      <c r="C76" s="21">
         <v>1.0293158435374137</v>
       </c>
-      <c r="D76" s="21">
+      <c r="D76" s="22">
         <v>-417.99494251700895</v>
       </c>
-      <c r="E76" s="22">
+      <c r="E76" s="23">
         <v>-321.78457302751286</v>
       </c>
-      <c r="F76" s="22">
+      <c r="F76" s="23">
         <v>738.16347933094744</v>
       </c>
-      <c r="G76" s="22">
+      <c r="G76" s="23">
         <v>958.86697801610751</v>
       </c>
-      <c r="H76" s="22">
+      <c r="H76" s="23">
         <v>3591.8772673047747</v>
       </c>
-      <c r="I76" s="22">
+      <c r="I76" s="23">
         <v>5106.3552929768402</v>
       </c>
-      <c r="J76" s="22">
+      <c r="J76" s="23">
         <v>1514.4780256720655</v>
       </c>
-      <c r="K76" s="21">
+      <c r="K76" s="22">
         <v>4147.4883149607331</v>
       </c>
+    </row>
+    <row r="77" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A77" s="16">
+        <v>45044</v>
+      </c>
+      <c r="B77" s="26">
+        <v>1.22841</v>
+      </c>
+      <c r="C77" s="21">
+        <v>1.0326041370047001</v>
+      </c>
+      <c r="D77" s="22">
+        <v>-303.49908764271481</v>
+      </c>
+      <c r="E77" s="23">
+        <v>-247.06660450722057</v>
+      </c>
+      <c r="F77" s="23">
+        <v>491.09687482372686</v>
+      </c>
+      <c r="G77" s="23">
+        <v>603.26831200221432</v>
+      </c>
+      <c r="H77" s="23">
+        <v>3591.8772673047747</v>
+      </c>
+      <c r="I77" s="23">
+        <v>5054.2557146056624</v>
+      </c>
+      <c r="J77" s="23">
+        <v>1462.3784473008877</v>
+      </c>
+      <c r="K77" s="22">
+        <v>4450.9874026034477</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="14.1" customHeight="1"/>
+    <row r="79" spans="1:11" ht="14.1" customHeight="1"/>
+    <row r="80" spans="1:11" ht="14.1" customHeight="1"/>
+    <row r="81" spans="12:15" ht="14.1" customHeight="1"/>
+    <row r="82" spans="12:15" ht="14.1" customHeight="1"/>
+    <row r="83" spans="12:15" ht="14.1" customHeight="1"/>
+    <row r="84" spans="12:15" ht="14.1" customHeight="1"/>
+    <row r="85" spans="12:15" ht="14.1" customHeight="1"/>
+    <row r="86" spans="12:15" ht="14.1" customHeight="1"/>
+    <row r="87" spans="12:15" ht="14.1" customHeight="1"/>
+    <row r="88" spans="12:15" ht="14.1" customHeight="1"/>
+    <row r="89" spans="12:15" ht="14.1" customHeight="1"/>
+    <row r="90" spans="12:15" ht="14.1" customHeight="1"/>
+    <row r="91" spans="12:15" ht="14.1" customHeight="1"/>
+    <row r="92" spans="12:15" ht="14.1" customHeight="1"/>
+    <row r="93" spans="12:15" ht="14.1" customHeight="1"/>
+    <row r="94" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L94" s="8"/>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L95" s="8"/>
+    </row>
+    <row r="96" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L96" s="8"/>
+    </row>
+    <row r="97" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L97" s="8"/>
+    </row>
+    <row r="98" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L98" s="8"/>
+    </row>
+    <row r="99" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L99" s="8"/>
+    </row>
+    <row r="100" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L100" s="8"/>
+    </row>
+    <row r="101" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L101" s="8"/>
+    </row>
+    <row r="102" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L102" s="8"/>
+    </row>
+    <row r="103" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L103" s="8"/>
+    </row>
+    <row r="104" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L104" s="8"/>
+    </row>
+    <row r="105" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L105" s="8"/>
+    </row>
+    <row r="106" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L106" s="8"/>
+      <c r="O106" s="3"/>
+    </row>
+    <row r="107" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L107" s="8"/>
+    </row>
+    <row r="108" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L108" s="8"/>
+    </row>
+    <row r="109" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L109" s="8"/>
+    </row>
+    <row r="110" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L110" s="8"/>
+    </row>
+    <row r="111" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L111" s="8"/>
+    </row>
+    <row r="112" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L112" s="8"/>
+    </row>
+    <row r="113" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L113" s="8"/>
+    </row>
+    <row r="114" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L114" s="8"/>
+    </row>
+    <row r="115" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L115" s="8"/>
+    </row>
+    <row r="116" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L116" s="8"/>
+    </row>
+    <row r="117" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L117" s="8"/>
+    </row>
+    <row r="118" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L118" s="8"/>
+      <c r="O118" s="3"/>
+    </row>
+    <row r="119" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L119" s="8"/>
+    </row>
+    <row r="120" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L120" s="8"/>
+    </row>
+    <row r="121" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L121" s="8"/>
+    </row>
+    <row r="122" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L122" s="8"/>
+    </row>
+    <row r="123" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L123" s="8"/>
+    </row>
+    <row r="124" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L124" s="8"/>
+    </row>
+    <row r="125" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L125" s="8"/>
+    </row>
+    <row r="126" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L126" s="8"/>
+    </row>
+    <row r="127" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L127" s="8"/>
+    </row>
+    <row r="128" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L128" s="8"/>
+    </row>
+    <row r="129" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L129" s="8"/>
+    </row>
+    <row r="130" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L130" s="8"/>
+      <c r="O130" s="3"/>
+    </row>
+    <row r="131" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L131" s="8"/>
+    </row>
+    <row r="132" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L132" s="8"/>
+    </row>
+    <row r="133" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L133" s="8"/>
+    </row>
+    <row r="134" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L134" s="8"/>
+    </row>
+    <row r="135" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L135" s="8"/>
+    </row>
+    <row r="136" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L136" s="8"/>
+    </row>
+    <row r="137" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L137" s="8"/>
+    </row>
+    <row r="138" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L138" s="8"/>
+    </row>
+    <row r="139" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L139" s="8"/>
+    </row>
+    <row r="140" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L140" s="8"/>
+    </row>
+    <row r="141" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L141" s="8"/>
+    </row>
+    <row r="142" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L142" s="8"/>
+      <c r="O142" s="3"/>
+    </row>
+    <row r="143" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L143" s="8"/>
+    </row>
+    <row r="144" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L144" s="8"/>
+    </row>
+    <row r="145" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L145" s="8"/>
+    </row>
+    <row r="146" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L146" s="8"/>
+    </row>
+    <row r="147" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L147" s="8"/>
+    </row>
+    <row r="148" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L148" s="8"/>
+    </row>
+    <row r="149" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L149" s="8"/>
+    </row>
+    <row r="150" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L150" s="8"/>
+    </row>
+    <row r="151" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L151" s="8"/>
+    </row>
+    <row r="152" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L152" s="8"/>
+    </row>
+    <row r="153" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L153" s="8"/>
+    </row>
+    <row r="154" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L154" s="8"/>
+      <c r="O154" s="3"/>
+    </row>
+    <row r="155" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L155" s="8"/>
+    </row>
+    <row r="156" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L156" s="8"/>
+    </row>
+    <row r="157" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L157" s="8"/>
+    </row>
+    <row r="158" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L158" s="8"/>
+    </row>
+    <row r="159" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L159" s="8"/>
+    </row>
+    <row r="160" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L160" s="8"/>
+    </row>
+    <row r="161" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L161" s="8"/>
+    </row>
+    <row r="162" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L162" s="8"/>
+    </row>
+    <row r="163" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L163" s="8"/>
+    </row>
+    <row r="164" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L164" s="8"/>
+    </row>
+    <row r="165" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L165" s="8"/>
+    </row>
+    <row r="166" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L166" s="8"/>
+      <c r="O166" s="3"/>
+    </row>
+    <row r="167" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L167" s="8"/>
+    </row>
+    <row r="168" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L168" s="8"/>
+    </row>
+    <row r="169" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L169" s="4"/>
+    </row>
+    <row r="170" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L170" s="4"/>
+    </row>
+    <row r="171" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L171" s="4"/>
+    </row>
+    <row r="172" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L172" s="4"/>
+    </row>
+    <row r="173" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L173" s="4"/>
+    </row>
+    <row r="174" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L174" s="4"/>
+    </row>
+    <row r="175" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L175" s="4"/>
+    </row>
+    <row r="176" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L176" s="4"/>
+    </row>
+    <row r="177" spans="12:12" ht="14.1" customHeight="1">
+      <c r="L177" s="4"/>
+    </row>
+    <row r="178" spans="12:12" ht="14.1" customHeight="1">
+      <c r="L178" s="4"/>
+    </row>
+    <row r="179" spans="12:12" ht="14.1" customHeight="1">
+      <c r="L179" s="4"/>
+    </row>
+    <row r="180" spans="12:12" ht="14.1" customHeight="1">
+      <c r="L180" s="4"/>
+    </row>
+    <row r="181" spans="12:12" ht="14.1" customHeight="1">
+      <c r="L181" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7455,15 +7814,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF64"/>
+  <dimension ref="A1:AF181"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C10" sqref="C10"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.75" style="1" customWidth="1"/>
@@ -7495,137 +7854,137 @@
     <col min="52" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:32" s="13" customFormat="1" ht="27" customHeight="1">
+      <c r="A1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="13"/>
-    </row>
-    <row r="2" spans="1:32" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="24"/>
-      <c r="M2" s="19"/>
-    </row>
-    <row r="3" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5">
+      <c r="M1" s="14"/>
+    </row>
+    <row r="2" spans="1:32" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="24"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="25"/>
+      <c r="M2" s="20"/>
+    </row>
+    <row r="3" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6">
         <v>1550</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6">
         <f>MIN(F:F)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="H3" s="6"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A4" s="16">
         <v>43189</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="26">
         <v>0.95575999999999994</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="21">
         <v>0.91680896000000012</v>
       </c>
-      <c r="D4" s="21">
-        <v>0</v>
-      </c>
-      <c r="E4" s="22">
-        <v>0</v>
-      </c>
-      <c r="F4" s="22">
-        <v>0</v>
-      </c>
-      <c r="G4" s="22">
-        <v>0</v>
-      </c>
-      <c r="H4" s="22">
-        <v>0</v>
-      </c>
-      <c r="I4" s="22">
-        <v>0</v>
-      </c>
-      <c r="J4" s="22">
-        <v>0</v>
-      </c>
-      <c r="K4" s="21">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7"/>
-      <c r="O4" s="26" t="s">
+      <c r="D4" s="22">
+        <v>0</v>
+      </c>
+      <c r="E4" s="23">
+        <v>0</v>
+      </c>
+      <c r="F4" s="23">
+        <v>0</v>
+      </c>
+      <c r="G4" s="23">
+        <v>0</v>
+      </c>
+      <c r="H4" s="23">
+        <v>0</v>
+      </c>
+      <c r="I4" s="23">
+        <v>0</v>
+      </c>
+      <c r="J4" s="23">
+        <v>0</v>
+      </c>
+      <c r="K4" s="22">
+        <v>0</v>
+      </c>
+      <c r="L4" s="8"/>
+      <c r="O4" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="S4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="T4" s="27" t="s">
+      <c r="T4" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="U4" s="11" t="s">
+      <c r="U4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="V4" s="11" t="s">
+      <c r="V4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="X4" s="6">
+      <c r="X4" s="7">
         <v>43462</v>
       </c>
       <c r="Y4" s="1">
@@ -7636,18 +7995,18 @@
         <f t="shared" ref="Z4" si="0">0-Y4</f>
         <v>-1431.6926540000038</v>
       </c>
-      <c r="AA4" s="6">
+      <c r="AA4" s="7">
         <v>43462</v>
       </c>
-      <c r="AB4" s="7">
+      <c r="AB4" s="8">
         <f>VLOOKUP(AA4,O:P,2,)</f>
         <v>1431.6926540000038</v>
       </c>
-      <c r="AC4" s="7">
+      <c r="AC4" s="8">
         <f t="shared" ref="AC4:AC6" si="1">0-AB4</f>
         <v>-1431.6926540000038</v>
       </c>
-      <c r="AD4" s="6">
+      <c r="AD4" s="7">
         <v>43462</v>
       </c>
       <c r="AE4" s="1">
@@ -7658,66 +8017,66 @@
         <v>-185.03707217220185</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+    <row r="5" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A5" s="16">
         <v>43217</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="26">
         <v>0.92662</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="21">
         <v>0.91465696000000007</v>
       </c>
-      <c r="D5" s="21">
-        <v>0</v>
-      </c>
-      <c r="E5" s="22">
-        <v>0</v>
-      </c>
-      <c r="F5" s="22">
-        <v>0</v>
-      </c>
-      <c r="G5" s="22">
-        <v>0</v>
-      </c>
-      <c r="H5" s="22">
-        <v>0</v>
-      </c>
-      <c r="I5" s="22">
-        <v>0</v>
-      </c>
-      <c r="J5" s="22">
-        <v>0</v>
-      </c>
-      <c r="K5" s="21">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7"/>
-      <c r="O5" s="6">
+      <c r="D5" s="22">
+        <v>0</v>
+      </c>
+      <c r="E5" s="23">
+        <v>0</v>
+      </c>
+      <c r="F5" s="23">
+        <v>0</v>
+      </c>
+      <c r="G5" s="23">
+        <v>0</v>
+      </c>
+      <c r="H5" s="23">
+        <v>0</v>
+      </c>
+      <c r="I5" s="23">
+        <v>0</v>
+      </c>
+      <c r="J5" s="23">
+        <v>0</v>
+      </c>
+      <c r="K5" s="22">
+        <v>0</v>
+      </c>
+      <c r="L5" s="8"/>
+      <c r="O5" s="7">
         <v>43462</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="11">
         <v>1431.6926540000038</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="6">
         <v>1431.6926540000038</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="6">
         <v>1305.2741513950191</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="6">
         <v>-126.41850260498472</v>
       </c>
-      <c r="T5" s="5">
-        <v>0</v>
-      </c>
-      <c r="U5" s="9">
+      <c r="T5" s="6">
+        <v>0</v>
+      </c>
+      <c r="U5" s="10">
         <v>-8.8300028816788487E-2</v>
       </c>
-      <c r="V5" s="9">
+      <c r="V5" s="10">
         <v>-8.8300028816788487E-2</v>
       </c>
-      <c r="X5" s="6">
+      <c r="X5" s="7">
         <v>43830</v>
       </c>
       <c r="Y5" s="1">
@@ -7728,18 +8087,18 @@
         <f t="shared" ref="Z5" si="2">0-Y5</f>
         <v>-193.28661200000033</v>
       </c>
-      <c r="AA5" s="6">
+      <c r="AA5" s="7">
         <v>43830</v>
       </c>
-      <c r="AB5" s="7">
+      <c r="AB5" s="8">
         <f>VLOOKUP(AA5,O:P,2,)</f>
         <v>193.28661200000033</v>
       </c>
-      <c r="AC5" s="7">
+      <c r="AC5" s="8">
         <f t="shared" si="1"/>
         <v>-193.28661200000033</v>
       </c>
-      <c r="AD5" s="6">
+      <c r="AD5" s="7">
         <v>43830</v>
       </c>
       <c r="AE5" s="1">
@@ -7750,83 +8109,83 @@
         <v>-24.103041534476546</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+    <row r="6" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A6" s="16">
         <v>43251</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="26">
         <v>0.88405999999999996</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="21">
         <v>0.91904036000000011</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="22">
         <v>54.219558000000241</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="23">
         <v>61.330178947130563</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="23">
         <v>61.330178947130563</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="23">
         <v>54.219558000000241</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="23">
         <v>54.219558000000241</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="23">
         <v>54.219558000000241</v>
       </c>
-      <c r="J6" s="22">
-        <v>0</v>
-      </c>
-      <c r="K6" s="21">
-        <v>0</v>
-      </c>
-      <c r="L6" s="7"/>
-      <c r="O6" s="6">
+      <c r="J6" s="23">
+        <v>0</v>
+      </c>
+      <c r="K6" s="22">
+        <v>0</v>
+      </c>
+      <c r="L6" s="8"/>
+      <c r="O6" s="7">
         <v>43830</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="11">
         <v>193.28661200000033</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="6">
         <v>1624.9792660000041</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="6">
         <v>2121.5860729661367</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="6">
         <v>496.60680696613258</v>
       </c>
-      <c r="T6" s="5">
+      <c r="T6" s="6">
         <v>1754.5207020000048</v>
       </c>
-      <c r="U6" s="9">
+      <c r="U6" s="10">
         <v>0.30560808827337449</v>
       </c>
-      <c r="V6" s="9">
+      <c r="V6" s="10">
         <v>0.15168919836337369</v>
       </c>
-      <c r="X6" s="6">
+      <c r="X6" s="7">
         <v>43830</v>
       </c>
       <c r="Z6" s="1">
         <v>2121.5860729661367</v>
       </c>
-      <c r="AA6" s="6">
+      <c r="AA6" s="7">
         <v>44196</v>
       </c>
-      <c r="AB6" s="7">
+      <c r="AB6" s="8">
         <f>VLOOKUP(AA6,O:P,2,)</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="7">
+      <c r="AC6" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD6" s="6">
+      <c r="AD6" s="7">
         <v>44196</v>
       </c>
       <c r="AE6" s="1">
@@ -7837,76 +8196,76 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+    <row r="7" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A7" s="16">
         <v>43280</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="26">
         <v>0.81235999999999997</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="21">
         <v>0.91734940000000031</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="22">
         <v>162.73357000000053</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="23">
         <v>200.32198778866578</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="23">
         <v>261.65216673579636</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="23">
         <v>212.55575416949151</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="23">
         <v>216.95312800000076</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="23">
         <v>212.55575416949151</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="23">
         <v>-4.3973738305092525</v>
       </c>
-      <c r="K7" s="21">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7"/>
-      <c r="O7" s="6">
+      <c r="K7" s="22">
+        <v>0</v>
+      </c>
+      <c r="L7" s="8"/>
+      <c r="O7" s="7">
         <v>44196</v>
       </c>
-      <c r="P7" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="5">
+      <c r="P7" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
         <v>1624.9792660000041</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7" s="6">
         <v>2160.3103145693699</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="6">
         <v>535.33104856936575</v>
       </c>
-      <c r="T7" s="5">
+      <c r="T7" s="6">
         <v>2160.3103145693699</v>
       </c>
-      <c r="U7" s="9">
+      <c r="U7" s="10">
         <v>0.32943869486231608</v>
       </c>
-      <c r="V7" s="9">
+      <c r="V7" s="10">
         <v>0.10369660281505078</v>
       </c>
       <c r="Z7" s="2">
         <f>IRR(Z4:Z6)</f>
         <v>0.15168919836337369</v>
       </c>
-      <c r="AA7" s="6">
+      <c r="AA7" s="7">
         <v>44196</v>
       </c>
-      <c r="AC7" s="7">
+      <c r="AC7" s="8">
         <v>2160.3103145693699</v>
       </c>
-      <c r="AD7" s="6">
+      <c r="AD7" s="7">
         <v>44561</v>
       </c>
       <c r="AE7" s="1">
@@ -7917,133 +8276,133 @@
         <v>-25.382097087861155</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+    <row r="8" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A8" s="16">
         <v>43312</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="26">
         <v>0.8131799999999999</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="21">
         <v>0.91070244000000022</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="22">
         <v>151.15978200000049</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="23">
         <v>185.88723529845853</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="23">
         <v>447.53940203425486</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="23">
         <v>363.93009094621533</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="23">
         <v>368.11291000000125</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="23">
         <v>363.93009094621533</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="23">
         <v>-4.18281905378592</v>
       </c>
-      <c r="K8" s="21">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7"/>
-      <c r="O8" s="6">
+      <c r="K8" s="22">
+        <v>0</v>
+      </c>
+      <c r="L8" s="8"/>
+      <c r="O8" s="7">
         <v>44561</v>
       </c>
-      <c r="P8" s="10">
+      <c r="P8" s="11">
         <v>439.433556000002</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q8" s="6">
         <v>2064.4128220000061</v>
       </c>
-      <c r="R8" s="5">
+      <c r="R8" s="6">
         <v>2633.6658962308707</v>
       </c>
-      <c r="S8" s="5">
+      <c r="S8" s="6">
         <v>569.25307423086451</v>
       </c>
-      <c r="T8" s="5">
+      <c r="T8" s="6">
         <v>2365.5016705693652</v>
       </c>
-      <c r="U8" s="9">
+      <c r="U8" s="10">
         <v>0.2757457559672446</v>
       </c>
-      <c r="V8" s="9">
+      <c r="V8" s="10">
         <v>9.161448749478418E-2</v>
       </c>
       <c r="AC8" s="2">
         <f>IRR(AC4:AC7)</f>
         <v>0.10369660281505078</v>
       </c>
-      <c r="AD8" s="6">
+      <c r="AD8" s="7">
         <v>44561</v>
       </c>
       <c r="AF8" s="1">
         <v>321.80638751270993</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+    <row r="9" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A9" s="16">
         <v>43343</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="26">
         <v>0.77766999999999997</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="21">
         <v>0.89930640000000006</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="22">
         <v>188.53642000000013</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="23">
         <v>242.43756349094107</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="23">
         <v>689.97696552519596</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="23">
         <v>536.57438677997914</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="23">
         <v>556.64933000000133</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="23">
         <v>536.57438677997914</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="23">
         <v>-20.074943220022192</v>
       </c>
-      <c r="K9" s="21">
-        <v>0</v>
-      </c>
-      <c r="L9" s="7"/>
-      <c r="O9" s="6">
+      <c r="K9" s="22">
+        <v>0</v>
+      </c>
+      <c r="L9" s="8"/>
+      <c r="O9" s="7">
         <v>44925</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="11">
         <v>2771.7310180000009</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q9" s="6">
         <v>4836.143840000007</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9" s="6">
         <v>5394.8728413640729</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9" s="6">
         <v>558.72900136406588</v>
       </c>
-      <c r="T9" s="5">
+      <c r="T9" s="6">
         <v>2365.5016705693652</v>
       </c>
-      <c r="U9" s="9">
+      <c r="U9" s="10">
         <v>0.11553192374941128</v>
       </c>
-      <c r="V9" s="9">
+      <c r="V9" s="10">
         <v>6.5682800424140098E-2</v>
       </c>
       <c r="AF9" s="2">
@@ -8051,42 +8410,42 @@
         <v>9.161448749478418E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+    <row r="10" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A10" s="16">
         <v>43371</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="26">
         <v>0.76784000000000008</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="21">
         <v>0.8825278000000002</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="22">
         <v>177.76609000000019</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="23">
         <v>231.51449520733507</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="23">
         <v>921.4914607325311</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="23">
         <v>707.55800320886669</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="23">
         <v>734.41542000000152</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="23">
         <v>707.55800320886669</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="23">
         <v>-26.857416791134824</v>
       </c>
-      <c r="K10" s="21">
-        <v>0</v>
-      </c>
-      <c r="L10" s="7"/>
-      <c r="X10" s="6">
+      <c r="K10" s="22">
+        <v>0</v>
+      </c>
+      <c r="L10" s="8"/>
+      <c r="X10" s="7">
         <v>43462</v>
       </c>
       <c r="Y10" s="1">
@@ -8097,42 +8456,42 @@
         <v>-185.03707217220185</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+    <row r="11" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A11" s="16">
         <v>43404</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="26">
         <v>0.67677999999999994</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="21">
         <v>0.86133792000000031</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="22">
         <v>286.06477600000056</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="23">
         <v>422.68503206359611</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="23">
         <v>1344.1764927961271</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="23">
         <v>909.71176679456289</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="23">
         <v>1020.480196000002</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="23">
         <v>909.71176679456289</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="23">
         <v>-110.76842920543913</v>
       </c>
-      <c r="K11" s="21">
-        <v>0</v>
-      </c>
-      <c r="L11" s="7"/>
-      <c r="X11" s="6">
+      <c r="K11" s="22">
+        <v>0</v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="X11" s="7">
         <v>43830</v>
       </c>
       <c r="Y11" s="1">
@@ -8143,42 +8502,42 @@
         <v>-24.103041534476546</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+    <row r="12" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A12" s="16">
         <v>43434</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="26">
         <v>0.7214299999999999</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="21">
         <v>0.83959144000000063</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="22">
         <v>183.15023200000113</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="23">
         <v>253.8711059978115</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="23">
         <v>1598.0475987939387</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="23">
         <v>1152.879479197911</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="23">
         <v>1203.6304280000031</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="23">
         <v>1152.879479197911</v>
       </c>
-      <c r="J12" s="22">
+      <c r="J12" s="23">
         <v>-50.750948802092125</v>
       </c>
-      <c r="K12" s="21">
-        <v>0</v>
-      </c>
-      <c r="L12" s="7"/>
-      <c r="X12" s="6">
+      <c r="K12" s="22">
+        <v>0</v>
+      </c>
+      <c r="L12" s="8"/>
+      <c r="X12" s="7">
         <v>44196</v>
       </c>
       <c r="Y12" s="1">
@@ -8189,42 +8548,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+    <row r="13" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A13" s="16">
         <v>43462</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="26">
         <v>0.67408000000000001</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="21">
         <v>0.82121692000000046</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="22">
         <v>228.06222600000069</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="23">
         <v>338.33109719914654</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="23">
         <v>1936.3786959930853</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="23">
         <v>1305.2741513950191</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="23">
         <v>1431.6926540000038</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="23">
         <v>1305.2741513950191</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="23">
         <v>-126.41850260498472</v>
       </c>
-      <c r="K13" s="21">
-        <v>0</v>
-      </c>
-      <c r="L13" s="7"/>
-      <c r="X13" s="6">
+      <c r="K13" s="22">
+        <v>0</v>
+      </c>
+      <c r="L13" s="8"/>
+      <c r="X13" s="7">
         <v>44561</v>
       </c>
       <c r="Y13" s="1">
@@ -8235,42 +8594,42 @@
         <v>-25.382097087861155</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+    <row r="14" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A14" s="16">
         <v>43496</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="26">
         <v>0.67819000000000007</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="21">
         <v>0.80289104000000022</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="22">
         <v>193.28661200000025</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="23">
         <v>285.00363025110988</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="23">
         <v>2221.3823262441952</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="23">
         <v>1506.5192798355508</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="23">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="23">
         <v>1506.5192798355508</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="23">
         <v>-118.45998616445331</v>
       </c>
-      <c r="K14" s="21">
-        <v>0</v>
-      </c>
-      <c r="L14" s="7"/>
-      <c r="X14" s="6">
+      <c r="K14" s="22">
+        <v>0</v>
+      </c>
+      <c r="L14" s="8"/>
+      <c r="X14" s="7">
         <v>44925</v>
       </c>
       <c r="Y14" s="1">
@@ -8281,1800 +8640,2135 @@
         <v>-565.58588458679435</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+    <row r="15" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A15" s="16">
         <v>43524</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="26">
         <v>0.85648000000000002</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="21">
         <v>0.79863988000000019</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="22">
         <v>-89.65218599999973</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="23">
         <v>-104.67516579488105</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="23">
         <v>2116.707160449314</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="23">
         <v>1812.9173487816286</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="23">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="23">
         <v>1902.5695347816284</v>
       </c>
-      <c r="J15" s="22">
+      <c r="J15" s="23">
         <v>277.59026878162422</v>
       </c>
-      <c r="K15" s="21">
+      <c r="K15" s="22">
         <v>89.65218599999973</v>
       </c>
-      <c r="L15" s="7"/>
-      <c r="X15" s="6">
+      <c r="L15" s="8"/>
+      <c r="X15" s="7">
         <v>44925</v>
       </c>
       <c r="Z15" s="1">
         <v>916.97898329904501</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+    <row r="16" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A16" s="16">
         <v>43553</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="26">
         <v>0.94580999999999993</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="21">
         <v>0.80337899999999995</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="22">
         <v>-220.76804999999996</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="23">
         <v>-233.41691248770891</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="23">
         <v>1883.290247961605</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="23">
         <v>1781.2347494245655</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="23">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="23">
         <v>2091.654985424565</v>
       </c>
-      <c r="J16" s="22">
+      <c r="J16" s="23">
         <v>466.67571942456084</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="22">
         <v>310.4202359999997</v>
       </c>
-      <c r="L16" s="7"/>
+      <c r="L16" s="8"/>
       <c r="Z16" s="2">
         <f>IRR(Z10:Z15)</f>
         <v>6.5682800424140098E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
+    <row r="17" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A17" s="16">
         <v>43585</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="26">
         <v>0.9108099999999999</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="21">
         <v>0.80660947999999977</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="22">
         <v>-161.5108060000002</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="23">
         <v>-177.32656207112376</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="23">
         <v>1705.9636858904812</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="23">
         <v>1553.808784745909</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17" s="23">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="23">
         <v>2025.7398267459089</v>
       </c>
-      <c r="J17" s="22">
+      <c r="J17" s="23">
         <v>400.76056074590474</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K17" s="22">
         <v>471.93104199999993</v>
       </c>
-      <c r="L17" s="7"/>
-    </row>
-    <row r="18" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A18" s="16">
         <v>43616</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="26">
         <v>0.86360000000000003</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="21">
         <v>0.8020255199999996</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="22">
         <v>-95.440444000000667</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="23">
         <v>-110.51464103751813</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="23">
         <v>1595.449044852963</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="23">
         <v>1377.8297951350189</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="23">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="23">
         <v>1945.2012811350196</v>
       </c>
-      <c r="J18" s="22">
+      <c r="J18" s="23">
         <v>320.22201513501545</v>
       </c>
-      <c r="K18" s="21">
+      <c r="K18" s="22">
         <v>567.37148600000057</v>
       </c>
-      <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A19" s="16">
         <v>43644</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="26">
         <v>0.88732</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="21">
         <v>0.80021431999999926</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="22">
         <v>-135.01380400000116</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="23">
         <v>-152.15909029437086</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="23">
         <v>1443.2899545585922</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="23">
         <v>1280.6600424789301</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19" s="23">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="23">
         <v>1983.0453324789319</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J19" s="23">
         <v>358.06606647892772</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="22">
         <v>702.38529000000176</v>
       </c>
-      <c r="L19" s="7"/>
-    </row>
-    <row r="20" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A20" s="16">
         <v>43677</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="26">
         <v>0.89222000000000001</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="21">
         <v>0.80840215999999976</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="22">
         <v>-129.9176520000004</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="23">
         <v>-145.61167873394498</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="23">
         <v>1297.6782758246472</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="23">
         <v>1157.8145112562668</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H20" s="23">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="23">
         <v>1990.1174532562691</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J20" s="23">
         <v>365.13818725626493</v>
       </c>
-      <c r="K20" s="21">
+      <c r="K20" s="22">
         <v>832.30294200000219</v>
       </c>
-      <c r="L20" s="7"/>
-    </row>
-    <row r="21" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A21" s="16">
         <v>43707</v>
       </c>
-      <c r="B21" s="25">
+      <c r="B21" s="26">
         <v>0.92357</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="21">
         <v>0.81579543999999959</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="22">
         <v>-167.05056800000062</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="23">
         <v>-180.87483136091538</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="23">
         <v>1116.8034444637319</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="23">
         <v>1031.4461572033688</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="23">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="23">
         <v>2030.7996672033717</v>
       </c>
-      <c r="J21" s="22">
+      <c r="J21" s="23">
         <v>405.82040120336751</v>
       </c>
-      <c r="K21" s="21">
+      <c r="K21" s="22">
         <v>999.35351000000287</v>
       </c>
-      <c r="L21" s="8"/>
-    </row>
-    <row r="22" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
+      <c r="L21" s="9"/>
+    </row>
+    <row r="22" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A22" s="16">
         <v>43738</v>
       </c>
-      <c r="B22" s="25">
+      <c r="B22" s="26">
         <v>0.95855999999999997</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="21">
         <v>0.83312139999999968</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="22">
         <v>-194.42983000000044</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="23">
         <v>-202.83532590552542</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="23">
         <v>913.96811855820647</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="23">
         <v>876.09327972515439</v>
       </c>
-      <c r="H22" s="22">
+      <c r="H22" s="23">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I22" s="22">
+      <c r="I22" s="23">
         <v>2069.876619725158</v>
       </c>
-      <c r="J22" s="22">
+      <c r="J22" s="23">
         <v>444.89735372515383</v>
       </c>
-      <c r="K22" s="21">
+      <c r="K22" s="22">
         <v>1193.7833400000034</v>
       </c>
-      <c r="L22" s="7"/>
-    </row>
-    <row r="23" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A23" s="16">
         <v>43769</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B23" s="26">
         <v>0.97238999999999998</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="21">
         <v>0.85132979999999947</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="22">
         <v>-187.64331000000078</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="23">
         <v>-192.97124610495871</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="23">
         <v>720.99687245324776</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G23" s="23">
         <v>701.09014880481357</v>
       </c>
-      <c r="H23" s="22">
+      <c r="H23" s="23">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I23" s="23">
         <v>2082.5167988048179</v>
       </c>
-      <c r="J23" s="22">
+      <c r="J23" s="23">
         <v>457.53753280481374</v>
       </c>
-      <c r="K23" s="21">
+      <c r="K23" s="22">
         <v>1381.4266500000042</v>
       </c>
-      <c r="L23" s="7"/>
+      <c r="L23" s="8"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
+    <row r="24" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A24" s="16">
         <v>43798</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="26">
         <v>0.97728999999999999</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="21">
         <v>0.87548991999999959</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="22">
         <v>-157.79012400000062</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="23">
         <v>-161.45680811222934</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F24" s="23">
         <v>559.54006434101848</v>
       </c>
-      <c r="G24" s="22">
+      <c r="G24" s="23">
         <v>546.83290947983392</v>
       </c>
-      <c r="H24" s="22">
+      <c r="H24" s="23">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I24" s="22">
+      <c r="I24" s="23">
         <v>2086.0496834798387</v>
       </c>
-      <c r="J24" s="22">
+      <c r="J24" s="23">
         <v>461.07041747983453</v>
       </c>
-      <c r="K24" s="21">
+      <c r="K24" s="22">
         <v>1539.2167740000048</v>
       </c>
-      <c r="L24" s="7"/>
-    </row>
-    <row r="25" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15">
+      <c r="L24" s="8"/>
+    </row>
+    <row r="25" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A25" s="16">
         <v>43830</v>
       </c>
-      <c r="B25" s="25">
+      <c r="B25" s="26">
         <v>1.0407999999999999</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="21">
         <v>0.90189423999999996</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="22">
         <v>-215.30392799999998</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="23">
         <v>-206.86388162951576</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F25" s="23">
         <v>352.67618271150275</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G25" s="23">
         <v>367.06537096613204</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H25" s="23">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I25" s="23">
         <v>2121.5860729661367</v>
       </c>
-      <c r="J25" s="22">
+      <c r="J25" s="23">
         <v>496.60680696613258</v>
       </c>
-      <c r="K25" s="21">
+      <c r="K25" s="22">
         <v>1754.5207020000048</v>
       </c>
-      <c r="L25" s="7"/>
-    </row>
-    <row r="26" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
+      <c r="L25" s="8"/>
+    </row>
+    <row r="26" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A26" s="16">
         <v>43853</v>
       </c>
-      <c r="B26" s="25">
+      <c r="B26" s="26">
         <v>1.13632</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="21">
         <v>0.92962908</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="22">
         <v>-320.370926</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="23">
         <v>-281.93724127006476</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F26" s="23">
         <v>70.738941441437987</v>
       </c>
-      <c r="G26" s="22">
+      <c r="G26" s="23">
         <v>80.38207393873482</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H26" s="23">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I26" s="23">
         <v>2155.2737019387396</v>
       </c>
-      <c r="J26" s="22">
+      <c r="J26" s="23">
         <v>530.29443593873543</v>
       </c>
-      <c r="K26" s="21">
+      <c r="K26" s="22">
         <v>2074.8916280000049</v>
       </c>
-      <c r="L26" s="7"/>
-    </row>
-    <row r="27" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15">
+      <c r="L26" s="8"/>
+    </row>
+    <row r="27" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A27" s="16">
         <v>43889</v>
       </c>
-      <c r="B27" s="25">
+      <c r="B27" s="26">
         <v>1.2075199999999999</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="21">
         <v>0.96966315999999997</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="22">
         <v>-85.418686569365192</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E27" s="23">
         <v>-70.738941441437987</v>
       </c>
-      <c r="F27" s="22">
-        <v>0</v>
-      </c>
-      <c r="G27" s="22">
-        <v>0</v>
-      </c>
-      <c r="H27" s="22">
+      <c r="F27" s="23">
+        <v>0</v>
+      </c>
+      <c r="G27" s="23">
+        <v>0</v>
+      </c>
+      <c r="H27" s="23">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I27" s="22">
+      <c r="I27" s="23">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J27" s="22">
+      <c r="J27" s="23">
         <v>535.33104856936575</v>
       </c>
-      <c r="K27" s="21">
+      <c r="K27" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L27" s="7"/>
-    </row>
-    <row r="28" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15">
+      <c r="L27" s="8"/>
+    </row>
+    <row r="28" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A28" s="16">
         <v>43921</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="26">
         <v>1.0721400000000001</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="21">
         <v>0.99416948000000038</v>
       </c>
-      <c r="D28" s="21">
-        <v>0</v>
-      </c>
-      <c r="E28" s="22">
-        <v>0</v>
-      </c>
-      <c r="F28" s="22">
-        <v>0</v>
-      </c>
-      <c r="G28" s="22">
-        <v>0</v>
-      </c>
-      <c r="H28" s="22">
+      <c r="D28" s="22">
+        <v>0</v>
+      </c>
+      <c r="E28" s="23">
+        <v>0</v>
+      </c>
+      <c r="F28" s="23">
+        <v>0</v>
+      </c>
+      <c r="G28" s="23">
+        <v>0</v>
+      </c>
+      <c r="H28" s="23">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I28" s="22">
+      <c r="I28" s="23">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J28" s="22">
+      <c r="J28" s="23">
         <v>535.33104856936575</v>
       </c>
-      <c r="K28" s="21">
+      <c r="K28" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L28" s="7"/>
-    </row>
-    <row r="29" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15">
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A29" s="16">
         <v>43951</v>
       </c>
-      <c r="B29" s="25">
+      <c r="B29" s="26">
         <v>1.13618</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="21">
         <v>1.0066833200000003</v>
       </c>
-      <c r="D29" s="21">
-        <v>0</v>
-      </c>
-      <c r="E29" s="22">
-        <v>0</v>
-      </c>
-      <c r="F29" s="22">
-        <v>0</v>
-      </c>
-      <c r="G29" s="22">
-        <v>0</v>
-      </c>
-      <c r="H29" s="22">
+      <c r="D29" s="22">
+        <v>0</v>
+      </c>
+      <c r="E29" s="23">
+        <v>0</v>
+      </c>
+      <c r="F29" s="23">
+        <v>0</v>
+      </c>
+      <c r="G29" s="23">
+        <v>0</v>
+      </c>
+      <c r="H29" s="23">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I29" s="22">
+      <c r="I29" s="23">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J29" s="22">
+      <c r="J29" s="23">
         <v>535.33104856936575</v>
       </c>
-      <c r="K29" s="21">
+      <c r="K29" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L29" s="7"/>
-    </row>
-    <row r="30" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15">
+      <c r="L29" s="8"/>
+    </row>
+    <row r="30" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A30" s="16">
         <v>43980</v>
       </c>
-      <c r="B30" s="25">
+      <c r="B30" s="26">
         <v>1.12294</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="21">
         <v>1.0254032800000001</v>
       </c>
-      <c r="D30" s="21">
-        <v>0</v>
-      </c>
-      <c r="E30" s="22">
-        <v>0</v>
-      </c>
-      <c r="F30" s="22">
-        <v>0</v>
-      </c>
-      <c r="G30" s="22">
-        <v>0</v>
-      </c>
-      <c r="H30" s="22">
+      <c r="D30" s="22">
+        <v>0</v>
+      </c>
+      <c r="E30" s="23">
+        <v>0</v>
+      </c>
+      <c r="F30" s="23">
+        <v>0</v>
+      </c>
+      <c r="G30" s="23">
+        <v>0</v>
+      </c>
+      <c r="H30" s="23">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I30" s="22">
+      <c r="I30" s="23">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J30" s="22">
+      <c r="J30" s="23">
         <v>535.33104856936575</v>
       </c>
-      <c r="K30" s="21">
+      <c r="K30" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L30" s="7"/>
-    </row>
-    <row r="31" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15">
+      <c r="L30" s="8"/>
+    </row>
+    <row r="31" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A31" s="16">
         <v>44012</v>
       </c>
-      <c r="B31" s="25">
+      <c r="B31" s="26">
         <v>1.25214</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="21">
         <v>1.0521240799999996</v>
       </c>
-      <c r="D31" s="21">
-        <v>0</v>
-      </c>
-      <c r="E31" s="22">
-        <v>0</v>
-      </c>
-      <c r="F31" s="22">
-        <v>0</v>
-      </c>
-      <c r="G31" s="22">
-        <v>0</v>
-      </c>
-      <c r="H31" s="22">
+      <c r="D31" s="22">
+        <v>0</v>
+      </c>
+      <c r="E31" s="23">
+        <v>0</v>
+      </c>
+      <c r="F31" s="23">
+        <v>0</v>
+      </c>
+      <c r="G31" s="23">
+        <v>0</v>
+      </c>
+      <c r="H31" s="23">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I31" s="22">
+      <c r="I31" s="23">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J31" s="22">
+      <c r="J31" s="23">
         <v>535.33104856936575</v>
       </c>
-      <c r="K31" s="21">
+      <c r="K31" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L31" s="7"/>
-    </row>
-    <row r="32" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15">
+      <c r="L31" s="8"/>
+    </row>
+    <row r="32" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A32" s="16">
         <v>44043</v>
       </c>
-      <c r="B32" s="25">
+      <c r="B32" s="26">
         <v>1.3561700000000001</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="21">
         <v>1.09524756</v>
       </c>
-      <c r="D32" s="21">
-        <v>0</v>
-      </c>
-      <c r="E32" s="22">
-        <v>0</v>
-      </c>
-      <c r="F32" s="22">
-        <v>0</v>
-      </c>
-      <c r="G32" s="22">
-        <v>0</v>
-      </c>
-      <c r="H32" s="22">
+      <c r="D32" s="22">
+        <v>0</v>
+      </c>
+      <c r="E32" s="23">
+        <v>0</v>
+      </c>
+      <c r="F32" s="23">
+        <v>0</v>
+      </c>
+      <c r="G32" s="23">
+        <v>0</v>
+      </c>
+      <c r="H32" s="23">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I32" s="22">
+      <c r="I32" s="23">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J32" s="22">
+      <c r="J32" s="23">
         <v>535.33104856936575</v>
       </c>
-      <c r="K32" s="21">
+      <c r="K32" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L32" s="7"/>
-    </row>
-    <row r="33" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15">
+      <c r="L32" s="8"/>
+    </row>
+    <row r="33" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A33" s="16">
         <v>44074</v>
       </c>
-      <c r="B33" s="25">
+      <c r="B33" s="26">
         <v>1.35833</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="21">
         <v>1.1352650000000004</v>
       </c>
-      <c r="D33" s="21">
-        <v>0</v>
-      </c>
-      <c r="E33" s="22">
-        <v>0</v>
-      </c>
-      <c r="F33" s="22">
-        <v>0</v>
-      </c>
-      <c r="G33" s="22">
-        <v>0</v>
-      </c>
-      <c r="H33" s="22">
+      <c r="D33" s="22">
+        <v>0</v>
+      </c>
+      <c r="E33" s="23">
+        <v>0</v>
+      </c>
+      <c r="F33" s="23">
+        <v>0</v>
+      </c>
+      <c r="G33" s="23">
+        <v>0</v>
+      </c>
+      <c r="H33" s="23">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I33" s="22">
+      <c r="I33" s="23">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J33" s="22">
+      <c r="J33" s="23">
         <v>535.33104856936575</v>
       </c>
-      <c r="K33" s="21">
+      <c r="K33" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L33" s="7"/>
-    </row>
-    <row r="34" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15">
+      <c r="L33" s="8"/>
+    </row>
+    <row r="34" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A34" s="16">
         <v>44104</v>
       </c>
-      <c r="B34" s="25">
+      <c r="B34" s="26">
         <v>1.2336199999999999</v>
       </c>
-      <c r="C34" s="20">
+      <c r="C34" s="21">
         <v>1.1624354799999996</v>
       </c>
-      <c r="D34" s="21">
-        <v>0</v>
-      </c>
-      <c r="E34" s="22">
-        <v>0</v>
-      </c>
-      <c r="F34" s="22">
-        <v>0</v>
-      </c>
-      <c r="G34" s="22">
-        <v>0</v>
-      </c>
-      <c r="H34" s="22">
+      <c r="D34" s="22">
+        <v>0</v>
+      </c>
+      <c r="E34" s="23">
+        <v>0</v>
+      </c>
+      <c r="F34" s="23">
+        <v>0</v>
+      </c>
+      <c r="G34" s="23">
+        <v>0</v>
+      </c>
+      <c r="H34" s="23">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I34" s="22">
+      <c r="I34" s="23">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J34" s="22">
+      <c r="J34" s="23">
         <v>535.33104856936575</v>
       </c>
-      <c r="K34" s="21">
+      <c r="K34" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L34" s="7"/>
+      <c r="L34" s="8"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="15">
+    <row r="35" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A35" s="16">
         <v>44134</v>
       </c>
-      <c r="B35" s="25">
+      <c r="B35" s="26">
         <v>1.2367600000000001</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35" s="21">
         <v>1.1809904399999995</v>
       </c>
-      <c r="D35" s="21">
-        <v>0</v>
-      </c>
-      <c r="E35" s="22">
-        <v>0</v>
-      </c>
-      <c r="F35" s="22">
-        <v>0</v>
-      </c>
-      <c r="G35" s="22">
-        <v>0</v>
-      </c>
-      <c r="H35" s="22">
+      <c r="D35" s="22">
+        <v>0</v>
+      </c>
+      <c r="E35" s="23">
+        <v>0</v>
+      </c>
+      <c r="F35" s="23">
+        <v>0</v>
+      </c>
+      <c r="G35" s="23">
+        <v>0</v>
+      </c>
+      <c r="H35" s="23">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I35" s="22">
+      <c r="I35" s="23">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J35" s="22">
+      <c r="J35" s="23">
         <v>535.33104856936575</v>
       </c>
-      <c r="K35" s="21">
+      <c r="K35" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L35" s="7"/>
-    </row>
-    <row r="36" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="15">
+      <c r="L35" s="8"/>
+    </row>
+    <row r="36" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A36" s="16">
         <v>44165</v>
       </c>
-      <c r="B36" s="25">
+      <c r="B36" s="26">
         <v>1.23942</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C36" s="21">
         <v>1.2036349600000003</v>
       </c>
-      <c r="D36" s="21">
-        <v>0</v>
-      </c>
-      <c r="E36" s="22">
-        <v>0</v>
-      </c>
-      <c r="F36" s="22">
-        <v>0</v>
-      </c>
-      <c r="G36" s="22">
-        <v>0</v>
-      </c>
-      <c r="H36" s="22">
+      <c r="D36" s="22">
+        <v>0</v>
+      </c>
+      <c r="E36" s="23">
+        <v>0</v>
+      </c>
+      <c r="F36" s="23">
+        <v>0</v>
+      </c>
+      <c r="G36" s="23">
+        <v>0</v>
+      </c>
+      <c r="H36" s="23">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I36" s="22">
+      <c r="I36" s="23">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J36" s="22">
+      <c r="J36" s="23">
         <v>535.33104856936575</v>
       </c>
-      <c r="K36" s="21">
+      <c r="K36" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L36" s="7"/>
-    </row>
-    <row r="37" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="15">
+      <c r="L36" s="8"/>
+    </row>
+    <row r="37" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A37" s="16">
         <v>44196</v>
       </c>
-      <c r="B37" s="25">
+      <c r="B37" s="26">
         <v>1.2531099999999999</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C37" s="21">
         <v>1.2247530400000011</v>
       </c>
-      <c r="D37" s="21">
-        <v>0</v>
-      </c>
-      <c r="E37" s="22">
-        <v>0</v>
-      </c>
-      <c r="F37" s="22">
-        <v>0</v>
-      </c>
-      <c r="G37" s="22">
-        <v>0</v>
-      </c>
-      <c r="H37" s="22">
+      <c r="D37" s="22">
+        <v>0</v>
+      </c>
+      <c r="E37" s="23">
+        <v>0</v>
+      </c>
+      <c r="F37" s="23">
+        <v>0</v>
+      </c>
+      <c r="G37" s="23">
+        <v>0</v>
+      </c>
+      <c r="H37" s="23">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I37" s="22">
+      <c r="I37" s="23">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J37" s="22">
+      <c r="J37" s="23">
         <v>535.33104856936575</v>
       </c>
-      <c r="K37" s="21">
+      <c r="K37" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L37" s="7"/>
-    </row>
-    <row r="38" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="15">
+      <c r="L37" s="8"/>
+    </row>
+    <row r="38" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A38" s="16">
         <v>44225</v>
       </c>
-      <c r="B38" s="25">
+      <c r="B38" s="26">
         <v>1.2375</v>
       </c>
-      <c r="C38" s="20">
+      <c r="C38" s="21">
         <v>1.2398494000000004</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D38" s="22">
         <v>3.6415700000006046</v>
       </c>
-      <c r="E38" s="22">
+      <c r="E38" s="23">
         <v>2.9426828282833166</v>
       </c>
-      <c r="F38" s="22">
+      <c r="F38" s="23">
         <v>2.9426828282833166</v>
       </c>
-      <c r="G38" s="22">
+      <c r="G38" s="23">
         <v>3.6415700000006046</v>
       </c>
-      <c r="H38" s="22">
+      <c r="H38" s="23">
         <v>1628.6208360000048</v>
       </c>
-      <c r="I38" s="22">
+      <c r="I38" s="23">
         <v>2163.9518845693706</v>
       </c>
-      <c r="J38" s="22">
+      <c r="J38" s="23">
         <v>535.33104856936575</v>
       </c>
-      <c r="K38" s="21">
+      <c r="K38" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L38" s="7"/>
-    </row>
-    <row r="39" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="15">
+      <c r="L38" s="8"/>
+    </row>
+    <row r="39" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A39" s="16">
         <v>44253</v>
       </c>
-      <c r="B39" s="25">
+      <c r="B39" s="26">
         <v>1.23967</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C39" s="21">
         <v>1.2465734400000006</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D39" s="22">
         <v>10.700332000000834</v>
       </c>
-      <c r="E39" s="22">
+      <c r="E39" s="23">
         <v>8.6315971185886848</v>
       </c>
-      <c r="F39" s="22">
+      <c r="F39" s="23">
         <v>11.574279946872002</v>
       </c>
-      <c r="G39" s="22">
+      <c r="G39" s="23">
         <v>14.348287621738816</v>
       </c>
-      <c r="H39" s="22">
+      <c r="H39" s="23">
         <v>1639.3211680000056</v>
       </c>
-      <c r="I39" s="22">
+      <c r="I39" s="23">
         <v>2174.6586021911089</v>
       </c>
-      <c r="J39" s="22">
+      <c r="J39" s="23">
         <v>535.33743419110328</v>
       </c>
-      <c r="K39" s="21">
+      <c r="K39" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L39" s="7"/>
-    </row>
-    <row r="40" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="15">
+      <c r="L39" s="8"/>
+    </row>
+    <row r="40" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A40" s="16">
         <v>44286</v>
       </c>
-      <c r="B40" s="25">
+      <c r="B40" s="26">
         <v>1.15709</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C40" s="21">
         <v>1.2413199199999996</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D40" s="22">
         <v>130.55637599999943</v>
       </c>
-      <c r="E40" s="22">
+      <c r="E40" s="23">
         <v>112.83165181619358</v>
       </c>
-      <c r="F40" s="22">
+      <c r="F40" s="23">
         <v>124.40593176306558</v>
       </c>
-      <c r="G40" s="22">
+      <c r="G40" s="23">
         <v>143.94885958372555</v>
       </c>
-      <c r="H40" s="22">
+      <c r="H40" s="23">
         <v>1769.8775440000049</v>
       </c>
-      <c r="I40" s="22">
+      <c r="I40" s="23">
         <v>2304.2591741530955</v>
       </c>
-      <c r="J40" s="22">
+      <c r="J40" s="23">
         <v>534.38163015309055</v>
       </c>
-      <c r="K40" s="21">
+      <c r="K40" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L40" s="7"/>
-    </row>
-    <row r="41" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="15">
+      <c r="L40" s="8"/>
+    </row>
+    <row r="41" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A41" s="16">
         <v>44316</v>
       </c>
-      <c r="B41" s="25">
+      <c r="B41" s="26">
         <v>1.17998</v>
       </c>
-      <c r="C41" s="20">
+      <c r="C41" s="21">
         <v>1.2470086399999996</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D41" s="22">
         <v>103.89439199999927</v>
       </c>
-      <c r="E41" s="22">
+      <c r="E41" s="23">
         <v>88.047587247240855</v>
       </c>
-      <c r="F41" s="22">
+      <c r="F41" s="23">
         <v>212.45351901030642</v>
       </c>
-      <c r="G41" s="22">
+      <c r="G41" s="23">
         <v>250.69090336178138</v>
       </c>
-      <c r="H41" s="22">
+      <c r="H41" s="23">
         <v>1873.7719360000042</v>
       </c>
-      <c r="I41" s="22">
+      <c r="I41" s="23">
         <v>2411.0012179311511</v>
       </c>
-      <c r="J41" s="22">
+      <c r="J41" s="23">
         <v>537.22928193114694</v>
       </c>
-      <c r="K41" s="21">
+      <c r="K41" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L41" s="7"/>
-    </row>
-    <row r="42" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="15">
+      <c r="L41" s="8"/>
+    </row>
+    <row r="42" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A42" s="16">
         <v>44347</v>
       </c>
-      <c r="B42" s="25">
+      <c r="B42" s="26">
         <v>1.2623</v>
       </c>
-      <c r="C42" s="20">
+      <c r="C42" s="21">
         <v>1.2505698399999998</v>
       </c>
-      <c r="D42" s="21">
+      <c r="D42" s="22">
         <v>-18.18174800000024</v>
       </c>
-      <c r="E42" s="22">
+      <c r="E42" s="23">
         <v>-14.403666323378152</v>
       </c>
-      <c r="F42" s="22">
+      <c r="F42" s="23">
         <v>198.04985268692826</v>
       </c>
-      <c r="G42" s="22">
+      <c r="G42" s="23">
         <v>249.99832904670953</v>
       </c>
-      <c r="H42" s="22">
+      <c r="H42" s="23">
         <v>1873.7719360000042</v>
       </c>
-      <c r="I42" s="22">
+      <c r="I42" s="23">
         <v>2428.4903916160797</v>
       </c>
-      <c r="J42" s="22">
+      <c r="J42" s="23">
         <v>554.71845561607552</v>
       </c>
-      <c r="K42" s="21">
+      <c r="K42" s="22">
         <v>2178.4920625693703</v>
       </c>
-      <c r="L42" s="7"/>
-    </row>
-    <row r="43" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="15">
+      <c r="L42" s="8"/>
+    </row>
+    <row r="43" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A43" s="16">
         <v>44377</v>
       </c>
-      <c r="B43" s="25">
+      <c r="B43" s="26">
         <v>1.33643</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="21">
         <v>1.261064600000001</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D43" s="22">
         <v>-116.8163699999985</v>
       </c>
-      <c r="E43" s="22">
+      <c r="E43" s="23">
         <v>-87.409269471650958</v>
       </c>
-      <c r="F43" s="22">
+      <c r="F43" s="23">
         <v>110.6405832152773</v>
       </c>
-      <c r="G43" s="22">
+      <c r="G43" s="23">
         <v>147.86339462639305</v>
       </c>
-      <c r="H43" s="22">
+      <c r="H43" s="23">
         <v>1873.7719360000042</v>
       </c>
-      <c r="I43" s="22">
+      <c r="I43" s="23">
         <v>2443.171827195762</v>
       </c>
-      <c r="J43" s="22">
+      <c r="J43" s="23">
         <v>569.39989119575785</v>
       </c>
-      <c r="K43" s="21">
+      <c r="K43" s="22">
         <v>2295.308432569369</v>
       </c>
-      <c r="L43" s="7"/>
-    </row>
-    <row r="44" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="15">
+      <c r="L43" s="8"/>
+    </row>
+    <row r="44" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A44" s="16">
         <v>44407</v>
       </c>
-      <c r="B44" s="25">
+      <c r="B44" s="26">
         <v>1.28626</v>
       </c>
-      <c r="C44" s="20">
+      <c r="C44" s="21">
         <v>1.2582182800000008</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D44" s="22">
         <v>-43.464665999998701</v>
       </c>
-      <c r="E44" s="22">
+      <c r="E44" s="23">
         <v>-33.791508715188769</v>
       </c>
-      <c r="F44" s="22">
+      <c r="F44" s="23">
         <v>76.849074500088534</v>
       </c>
-      <c r="G44" s="22">
+      <c r="G44" s="23">
         <v>98.847890566483869</v>
       </c>
-      <c r="H44" s="22">
+      <c r="H44" s="23">
         <v>1873.7719360000042</v>
       </c>
-      <c r="I44" s="22">
+      <c r="I44" s="23">
         <v>2437.6209891358512</v>
       </c>
-      <c r="J44" s="22">
+      <c r="J44" s="23">
         <v>563.84905313584704</v>
       </c>
-      <c r="K44" s="21">
+      <c r="K44" s="22">
         <v>2338.7730985693674</v>
       </c>
-      <c r="L44" s="7"/>
-    </row>
-    <row r="45" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="15">
+      <c r="L44" s="8"/>
+    </row>
+    <row r="45" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A45" s="16">
         <v>44439</v>
       </c>
-      <c r="B45" s="25">
+      <c r="B45" s="26">
         <v>1.2177899999999999</v>
       </c>
-      <c r="C45" s="20">
+      <c r="C45" s="21">
         <v>1.2513532000000005</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D45" s="22">
         <v>52.022960000000886</v>
       </c>
-      <c r="E45" s="22">
+      <c r="E45" s="23">
         <v>42.719155190961402</v>
       </c>
-      <c r="F45" s="22">
+      <c r="F45" s="23">
         <v>119.56822969104994</v>
       </c>
-      <c r="G45" s="22">
+      <c r="G45" s="23">
         <v>145.6089944354637</v>
       </c>
-      <c r="H45" s="22">
+      <c r="H45" s="23">
         <v>1925.7948960000051</v>
       </c>
-      <c r="I45" s="22">
+      <c r="I45" s="23">
         <v>2484.3820930048309</v>
       </c>
-      <c r="J45" s="22">
+      <c r="J45" s="23">
         <v>558.58719700482584</v>
       </c>
-      <c r="K45" s="21">
+      <c r="K45" s="22">
         <v>2338.7730985693674</v>
       </c>
-      <c r="L45" s="7"/>
-    </row>
-    <row r="46" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="15">
+      <c r="L45" s="8"/>
+    </row>
+    <row r="46" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A46" s="16">
         <v>44469</v>
       </c>
-      <c r="B46" s="25">
+      <c r="B46" s="26">
         <v>1.20347</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C46" s="21">
         <v>1.2445208000000001</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D46" s="22">
         <v>63.628740000000086</v>
       </c>
-      <c r="E46" s="22">
+      <c r="E46" s="23">
         <v>52.871064505139373</v>
       </c>
-      <c r="F46" s="22">
+      <c r="F46" s="23">
         <v>172.43929419618931</v>
       </c>
-      <c r="G46" s="22">
+      <c r="G46" s="23">
         <v>207.52551738628796</v>
       </c>
-      <c r="H46" s="22">
+      <c r="H46" s="23">
         <v>1989.4236360000052</v>
       </c>
-      <c r="I46" s="22">
+      <c r="I46" s="23">
         <v>2546.2986159556554</v>
       </c>
-      <c r="J46" s="22">
+      <c r="J46" s="23">
         <v>556.87497995565013</v>
       </c>
-      <c r="K46" s="21">
+      <c r="K46" s="22">
         <v>2338.7730985693674</v>
       </c>
-      <c r="L46" s="7"/>
-    </row>
-    <row r="47" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="15">
+      <c r="L46" s="8"/>
+    </row>
+    <row r="47" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A47" s="16">
         <v>44498</v>
       </c>
-      <c r="B47" s="25">
+      <c r="B47" s="26">
         <v>1.1970999999999998</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C47" s="21">
         <v>1.2406920799999999</v>
       </c>
-      <c r="D47" s="21">
+      <c r="D47" s="22">
         <v>67.567724000000055</v>
       </c>
-      <c r="E47" s="22">
+      <c r="E47" s="23">
         <v>56.442840197143148</v>
       </c>
-      <c r="F47" s="22">
+      <c r="F47" s="23">
         <v>228.88213439333245</v>
       </c>
-      <c r="G47" s="22">
+      <c r="G47" s="23">
         <v>273.99480308225822</v>
       </c>
-      <c r="H47" s="22">
+      <c r="H47" s="23">
         <v>2056.9913600000054</v>
       </c>
-      <c r="I47" s="22">
+      <c r="I47" s="23">
         <v>2612.7679016516258</v>
       </c>
-      <c r="J47" s="22">
+      <c r="J47" s="23">
         <v>555.77654165162039</v>
       </c>
-      <c r="K47" s="21">
+      <c r="K47" s="22">
         <v>2338.7730985693674</v>
       </c>
-      <c r="L47" s="7"/>
-    </row>
-    <row r="48" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="15">
+      <c r="L47" s="8"/>
+    </row>
+    <row r="48" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A48" s="16">
         <v>44530</v>
       </c>
-      <c r="B48" s="25">
+      <c r="B48" s="26">
         <v>1.23373</v>
       </c>
-      <c r="C48" s="20">
+      <c r="C48" s="21">
         <v>1.2385180400000004</v>
       </c>
-      <c r="D48" s="21">
+      <c r="D48" s="22">
         <v>7.4214620000006786</v>
       </c>
-      <c r="E48" s="22">
+      <c r="E48" s="23">
         <v>6.0154669173973874</v>
       </c>
-      <c r="F48" s="22">
+      <c r="F48" s="23">
         <v>234.89760131072984</v>
       </c>
-      <c r="G48" s="22">
+      <c r="G48" s="23">
         <v>289.80021766508673</v>
       </c>
-      <c r="H48" s="22">
+      <c r="H48" s="23">
         <v>2064.4128220000061</v>
       </c>
-      <c r="I48" s="22">
+      <c r="I48" s="23">
         <v>2628.5733162344541</v>
       </c>
-      <c r="J48" s="22">
+      <c r="J48" s="23">
         <v>564.16049423444792</v>
       </c>
-      <c r="K48" s="21">
+      <c r="K48" s="22">
         <v>2338.7730985693674</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="15">
+    <row r="49" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A49" s="16">
         <v>44561</v>
       </c>
-      <c r="B49" s="25">
+      <c r="B49" s="26">
         <v>1.2554100000000001</v>
       </c>
-      <c r="C49" s="20">
+      <c r="C49" s="21">
         <v>1.2381657600000016</v>
       </c>
-      <c r="D49" s="21">
+      <c r="D49" s="22">
         <v>-26.728571999997797</v>
       </c>
-      <c r="E49" s="22">
+      <c r="E49" s="23">
         <v>-21.290711401054473</v>
       </c>
-      <c r="F49" s="22">
+      <c r="F49" s="23">
         <v>213.60688990967537</v>
       </c>
-      <c r="G49" s="22">
+      <c r="G49" s="23">
         <v>268.16422566150561</v>
       </c>
-      <c r="H49" s="22">
+      <c r="H49" s="23">
         <v>2064.4128220000061</v>
       </c>
-      <c r="I49" s="22">
+      <c r="I49" s="23">
         <v>2633.6658962308707</v>
       </c>
-      <c r="J49" s="22">
+      <c r="J49" s="23">
         <v>569.25307423086451</v>
       </c>
-      <c r="K49" s="21">
+      <c r="K49" s="22">
         <v>2365.5016705693652</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="15">
+    <row r="50" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A50" s="16">
         <v>44589</v>
       </c>
-      <c r="B50" s="25">
+      <c r="B50" s="26">
         <v>1.11076</v>
       </c>
-      <c r="C50" s="20">
+      <c r="C50" s="21">
         <v>1.2355355200000004</v>
       </c>
-      <c r="D50" s="21">
+      <c r="D50" s="22">
         <v>193.40205600000073</v>
       </c>
-      <c r="E50" s="22">
+      <c r="E50" s="23">
         <v>174.11687133134137</v>
       </c>
-      <c r="F50" s="22">
+      <c r="F50" s="23">
         <v>387.72376124101675</v>
       </c>
-      <c r="G50" s="22">
+      <c r="G50" s="23">
         <v>430.66804503607176</v>
       </c>
-      <c r="H50" s="22">
+      <c r="H50" s="23">
         <v>2257.814878000007</v>
       </c>
-      <c r="I50" s="22">
+      <c r="I50" s="23">
         <v>2796.169715605437</v>
       </c>
-      <c r="J50" s="22">
+      <c r="J50" s="23">
         <v>538.35483760543002</v>
       </c>
-      <c r="K50" s="21">
+      <c r="K50" s="22">
         <v>2365.5016705693652</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="15">
+    <row r="51" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A51" s="16">
         <v>44620</v>
       </c>
-      <c r="B51" s="25">
+      <c r="B51" s="26">
         <v>1.15177</v>
       </c>
-      <c r="C51" s="20">
+      <c r="C51" s="21">
         <v>1.2277890400000004</v>
       </c>
-      <c r="D51" s="21">
+      <c r="D51" s="22">
         <v>117.82951200000075</v>
       </c>
-      <c r="E51" s="22">
+      <c r="E51" s="23">
         <v>102.30298757564509</v>
       </c>
-      <c r="F51" s="22">
+      <c r="F51" s="23">
         <v>490.02674881666184</v>
       </c>
-      <c r="G51" s="22">
+      <c r="G51" s="23">
         <v>564.39810848456659</v>
       </c>
-      <c r="H51" s="22">
+      <c r="H51" s="23">
         <v>2375.6443900000077</v>
       </c>
-      <c r="I51" s="22">
+      <c r="I51" s="23">
         <v>2929.8997790539315</v>
       </c>
-      <c r="J51" s="22">
+      <c r="J51" s="23">
         <v>554.25538905392386</v>
       </c>
-      <c r="K51" s="21">
+      <c r="K51" s="22">
         <v>2365.5016705693652</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="15">
+    <row r="52" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A52" s="16">
         <v>44651</v>
       </c>
-      <c r="B52" s="25">
+      <c r="B52" s="26">
         <v>1.0468499999999998</v>
       </c>
-      <c r="C52" s="20">
+      <c r="C52" s="21">
         <v>1.2143669200000002</v>
       </c>
-      <c r="D52" s="21">
+      <c r="D52" s="22">
         <v>259.65122600000063</v>
       </c>
-      <c r="E52" s="22">
+      <c r="E52" s="23">
         <v>248.03097482925031</v>
       </c>
-      <c r="F52" s="22">
+      <c r="F52" s="23">
         <v>738.05772364591212</v>
       </c>
-      <c r="G52" s="22">
+      <c r="G52" s="23">
         <v>772.63572799872293</v>
       </c>
-      <c r="H52" s="22">
+      <c r="H52" s="23">
         <v>2635.2956160000085</v>
       </c>
-      <c r="I52" s="22">
+      <c r="I52" s="23">
         <v>3138.137398568088</v>
       </c>
-      <c r="J52" s="22">
+      <c r="J52" s="23">
         <v>502.84178256807945</v>
       </c>
-      <c r="K52" s="21">
+      <c r="K52" s="22">
         <v>2365.5016705693652</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="15">
+    <row r="53" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A53" s="16">
         <v>44680</v>
       </c>
-      <c r="B53" s="25">
+      <c r="B53" s="26">
         <v>0.83169999999999999</v>
       </c>
-      <c r="C53" s="20">
+      <c r="C53" s="21">
         <v>1.1967078799999999</v>
       </c>
-      <c r="D53" s="21">
+      <c r="D53" s="22">
         <v>565.76221399999997</v>
       </c>
-      <c r="E53" s="22">
+      <c r="E53" s="23">
         <v>680.24794276782495</v>
       </c>
-      <c r="F53" s="22">
+      <c r="F53" s="23">
         <v>1418.3056664137371</v>
       </c>
-      <c r="G53" s="22">
+      <c r="G53" s="23">
         <v>1179.6048227563051</v>
       </c>
-      <c r="H53" s="22">
+      <c r="H53" s="23">
         <v>3201.0578300000084</v>
       </c>
-      <c r="I53" s="22">
+      <c r="I53" s="23">
         <v>3545.1064933256703</v>
       </c>
-      <c r="J53" s="22">
+      <c r="J53" s="23">
         <v>344.04866332566189</v>
       </c>
-      <c r="K53" s="21">
+      <c r="K53" s="22">
         <v>2365.5016705693652</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="15">
+    <row r="54" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A54" s="16">
         <v>44712</v>
       </c>
-      <c r="B54" s="25">
+      <c r="B54" s="26">
         <v>0.90644000000000002</v>
       </c>
-      <c r="C54" s="20">
+      <c r="C54" s="21">
         <v>1.1734625999999997</v>
       </c>
-      <c r="D54" s="21">
+      <c r="D54" s="22">
         <v>413.88502999999946</v>
       </c>
-      <c r="E54" s="22">
+      <c r="E54" s="23">
         <v>456.60499316005411</v>
       </c>
-      <c r="F54" s="22">
+      <c r="F54" s="23">
         <v>1874.9106595737912</v>
       </c>
-      <c r="G54" s="22">
+      <c r="G54" s="23">
         <v>1699.4940182640673</v>
       </c>
-      <c r="H54" s="22">
+      <c r="H54" s="23">
         <v>3614.9428600000078</v>
       </c>
-      <c r="I54" s="22">
+      <c r="I54" s="23">
         <v>4064.9956888334327</v>
       </c>
-      <c r="J54" s="22">
+      <c r="J54" s="23">
         <v>450.05282883342488</v>
       </c>
-      <c r="K54" s="21">
+      <c r="K54" s="22">
         <v>2365.5016705693652</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="15">
+    <row r="55" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A55" s="16">
         <v>44742</v>
       </c>
-      <c r="B55" s="25">
+      <c r="B55" s="26">
         <v>0.99066999999999994</v>
       </c>
-      <c r="C55" s="20">
+      <c r="C55" s="21">
         <v>1.1480034399999997</v>
       </c>
-      <c r="D55" s="21">
+      <c r="D55" s="22">
         <v>243.86683199999956</v>
       </c>
-      <c r="E55" s="22">
+      <c r="E55" s="23">
         <v>246.16353780774585</v>
       </c>
-      <c r="F55" s="22">
+      <c r="F55" s="23">
         <v>2121.074197381537</v>
       </c>
-      <c r="G55" s="22">
+      <c r="G55" s="23">
         <v>2101.284575119967</v>
       </c>
-      <c r="H55" s="22">
+      <c r="H55" s="23">
         <v>3858.8096920000075</v>
       </c>
-      <c r="I55" s="22">
+      <c r="I55" s="23">
         <v>4466.7862456893326</v>
       </c>
-      <c r="J55" s="22">
+      <c r="J55" s="23">
         <v>607.9765536893251</v>
       </c>
-      <c r="K55" s="21">
+      <c r="K55" s="22">
         <v>2365.5016705693652</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="15">
+    <row r="56" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A56" s="16">
         <v>44771</v>
       </c>
-      <c r="B56" s="25">
+      <c r="B56" s="26">
         <v>1.01267</v>
       </c>
-      <c r="C56" s="20">
+      <c r="C56" s="21">
         <v>1.1203607999999998</v>
       </c>
-      <c r="D56" s="21">
+      <c r="D56" s="22">
         <v>166.9207399999998</v>
       </c>
-      <c r="E56" s="22">
+      <c r="E56" s="23">
         <v>164.83231457434289</v>
       </c>
-      <c r="F56" s="22">
+      <c r="F56" s="23">
         <v>2285.90651195588</v>
       </c>
-      <c r="G56" s="22">
+      <c r="G56" s="23">
         <v>2314.8689474623607</v>
       </c>
-      <c r="H56" s="22">
+      <c r="H56" s="23">
         <v>4025.7304320000076</v>
       </c>
-      <c r="I56" s="22">
+      <c r="I56" s="23">
         <v>4680.3706180317258</v>
       </c>
-      <c r="J56" s="22">
+      <c r="J56" s="23">
         <v>654.64018603171826</v>
       </c>
-      <c r="K56" s="21">
+      <c r="K56" s="22">
         <v>2365.5016705693652</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="15">
+    <row r="57" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A57" s="16">
         <v>44804</v>
       </c>
-      <c r="B57" s="25">
+      <c r="B57" s="26">
         <v>0.95750000000000002</v>
       </c>
-      <c r="C57" s="20">
+      <c r="C57" s="21">
         <v>1.0959177199999997</v>
       </c>
-      <c r="D57" s="21">
+      <c r="D57" s="22">
         <v>214.54746599999942</v>
       </c>
-      <c r="E57" s="22">
+      <c r="E57" s="23">
         <v>224.07046057441192</v>
       </c>
-      <c r="F57" s="22">
+      <c r="F57" s="23">
         <v>2509.9769725302917</v>
       </c>
-      <c r="G57" s="22">
+      <c r="G57" s="23">
         <v>2403.3029511977543</v>
       </c>
-      <c r="H57" s="22">
+      <c r="H57" s="23">
         <v>4240.2778980000066</v>
       </c>
-      <c r="I57" s="22">
+      <c r="I57" s="23">
         <v>4768.8046217671199</v>
       </c>
-      <c r="J57" s="22">
+      <c r="J57" s="23">
         <v>528.52672376711325</v>
       </c>
-      <c r="K57" s="21">
+      <c r="K57" s="22">
         <v>2365.5016705693652</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="15">
+    <row r="58" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A58" s="16">
         <v>44834</v>
       </c>
-      <c r="B58" s="25">
+      <c r="B58" s="26">
         <v>0.85887999999999998</v>
       </c>
-      <c r="C58" s="20">
+      <c r="C58" s="21">
         <v>1.06964792</v>
       </c>
-      <c r="D58" s="21">
+      <c r="D58" s="22">
         <v>326.69027599999998</v>
       </c>
-      <c r="E58" s="22">
+      <c r="E58" s="23">
         <v>380.36777663934424</v>
       </c>
-      <c r="F58" s="22">
+      <c r="F58" s="23">
         <v>2890.3447491696361</v>
       </c>
-      <c r="G58" s="22">
+      <c r="G58" s="23">
         <v>2482.459298166817</v>
       </c>
-      <c r="H58" s="22">
+      <c r="H58" s="23">
         <v>4566.9681740000069</v>
       </c>
-      <c r="I58" s="22">
+      <c r="I58" s="23">
         <v>4847.9609687361826</v>
       </c>
-      <c r="J58" s="22">
+      <c r="J58" s="23">
         <v>280.99279473617571</v>
       </c>
-      <c r="K58" s="21">
+      <c r="K58" s="22">
         <v>2365.5016705693652</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="15">
+    <row r="59" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A59" s="16">
         <v>44865</v>
       </c>
-      <c r="B59" s="25">
+      <c r="B59" s="26">
         <v>0.96957000000000004</v>
       </c>
-      <c r="C59" s="20">
+      <c r="C59" s="21">
         <v>1.0512867600000002</v>
       </c>
-      <c r="D59" s="21">
+      <c r="D59" s="22">
         <v>126.66097800000026</v>
       </c>
-      <c r="E59" s="22">
+      <c r="E59" s="23">
         <v>130.63623874501093</v>
       </c>
-      <c r="F59" s="22">
+      <c r="F59" s="23">
         <v>3020.9809879146469</v>
       </c>
-      <c r="G59" s="22">
+      <c r="G59" s="23">
         <v>2929.0525364524042</v>
       </c>
-      <c r="H59" s="22">
+      <c r="H59" s="23">
         <v>4693.6291520000068</v>
       </c>
-      <c r="I59" s="22">
+      <c r="I59" s="23">
         <v>5294.5542070217689</v>
       </c>
-      <c r="J59" s="22">
+      <c r="J59" s="23">
         <v>600.92505502176209</v>
       </c>
-      <c r="K59" s="21">
+      <c r="K59" s="22">
         <v>2365.5016705693652</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="15">
+    <row r="60" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A60" s="16">
         <v>44895</v>
       </c>
-      <c r="B60" s="25">
+      <c r="B60" s="26">
         <v>0.99405999999999994</v>
       </c>
-      <c r="C60" s="20">
+      <c r="C60" s="21">
         <v>1.0324731600000001</v>
       </c>
-      <c r="D60" s="21">
+      <c r="D60" s="22">
         <v>59.540398000000259</v>
       </c>
-      <c r="E60" s="22">
+      <c r="E60" s="23">
         <v>59.896181317023384</v>
       </c>
-      <c r="F60" s="22">
+      <c r="F60" s="23">
         <v>3080.8771692316705</v>
       </c>
-      <c r="G60" s="22">
+      <c r="G60" s="23">
         <v>3062.5767588464341</v>
       </c>
-      <c r="H60" s="22">
+      <c r="H60" s="23">
         <v>4753.1695500000069</v>
       </c>
-      <c r="I60" s="22">
+      <c r="I60" s="23">
         <v>5428.0784294157993</v>
       </c>
-      <c r="J60" s="22">
+      <c r="J60" s="23">
         <v>674.9088794157924</v>
       </c>
-      <c r="K60" s="21">
+      <c r="K60" s="22">
         <v>2365.5016705693652</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="15">
+    <row r="61" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A61" s="16">
         <v>44925</v>
       </c>
-      <c r="B61" s="25">
+      <c r="B61" s="26">
         <v>0.95635000000000003</v>
       </c>
-      <c r="C61" s="20">
+      <c r="C61" s="21">
         <v>1.0098818000000001</v>
       </c>
-      <c r="D61" s="21">
+      <c r="D61" s="22">
         <v>82.974290000000025</v>
       </c>
-      <c r="E61" s="22">
+      <c r="E61" s="23">
         <v>86.761426256077812</v>
       </c>
-      <c r="F61" s="22">
+      <c r="F61" s="23">
         <v>3167.6385954877483</v>
       </c>
-      <c r="G61" s="22">
+      <c r="G61" s="23">
         <v>3029.3711707947082</v>
       </c>
-      <c r="H61" s="22">
+      <c r="H61" s="23">
         <v>4836.143840000007</v>
       </c>
-      <c r="I61" s="22">
+      <c r="I61" s="23">
         <v>5394.8728413640729</v>
       </c>
-      <c r="J61" s="22">
+      <c r="J61" s="23">
         <v>558.72900136406588</v>
       </c>
-      <c r="K61" s="21">
+      <c r="K61" s="22">
         <v>2365.5016705693652</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="15">
+    <row r="62" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A62" s="16">
         <v>44957</v>
       </c>
-      <c r="B62" s="25">
+      <c r="B62" s="26">
         <v>1.08087</v>
       </c>
-      <c r="C62" s="20">
+      <c r="C62" s="21">
         <v>0.99600491999999985</v>
       </c>
-      <c r="D62" s="21">
+      <c r="D62" s="22">
         <v>-131.54087400000023</v>
       </c>
-      <c r="E62" s="22">
+      <c r="E62" s="23">
         <v>-121.69907019345548</v>
       </c>
-      <c r="F62" s="22">
+      <c r="F62" s="23">
         <v>3045.9395252942927</v>
       </c>
-      <c r="G62" s="22">
+      <c r="G62" s="23">
         <v>3292.2646547048421</v>
       </c>
-      <c r="H62" s="22">
+      <c r="H62" s="23">
         <v>4836.143840000007</v>
       </c>
-      <c r="I62" s="22">
+      <c r="I62" s="23">
         <v>5789.307199274208</v>
       </c>
-      <c r="J62" s="22">
+      <c r="J62" s="23">
         <v>953.16335927420096</v>
       </c>
-      <c r="K62" s="21">
+      <c r="K62" s="22">
         <v>2497.0425445693654</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="15">
+    <row r="63" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A63" s="16">
         <v>44985</v>
       </c>
-      <c r="B63" s="25">
+      <c r="B63" s="26">
         <v>1.16859</v>
       </c>
-      <c r="C63" s="20">
+      <c r="C63" s="21">
         <v>0.99612511999999998</v>
       </c>
-      <c r="D63" s="21">
+      <c r="D63" s="22">
         <v>-267.32056400000005</v>
       </c>
-      <c r="E63" s="22">
+      <c r="E63" s="23">
         <v>-228.75479338347927</v>
       </c>
-      <c r="F63" s="22">
+      <c r="F63" s="23">
         <v>2817.1847319108133</v>
       </c>
-      <c r="G63" s="22">
+      <c r="G63" s="23">
         <v>3292.1339058636572</v>
       </c>
-      <c r="H63" s="22">
+      <c r="H63" s="23">
         <v>4836.143840000007</v>
       </c>
-      <c r="I63" s="22">
+      <c r="I63" s="23">
         <v>6056.4970144330227</v>
       </c>
-      <c r="J63" s="22">
+      <c r="J63" s="23">
         <v>1220.3531744330157</v>
       </c>
-      <c r="K63" s="21">
+      <c r="K63" s="22">
         <v>2764.3631085693655</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="15">
+    <row r="64" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A64" s="16">
         <v>45016</v>
       </c>
-      <c r="B64" s="25">
+      <c r="B64" s="26">
         <v>1.2989900000000001</v>
       </c>
-      <c r="C64" s="20">
+      <c r="C64" s="21">
         <v>1.0068202799999997</v>
       </c>
-      <c r="D64" s="21">
+      <c r="D64" s="22">
         <v>-452.86306600000063</v>
       </c>
-      <c r="E64" s="22">
+      <c r="E64" s="23">
         <v>-348.62706102433475</v>
       </c>
-      <c r="F64" s="22">
+      <c r="F64" s="23">
         <v>2468.5576708864787</v>
       </c>
-      <c r="G64" s="22">
+      <c r="G64" s="23">
         <v>3206.631728904827</v>
       </c>
-      <c r="H64" s="22">
+      <c r="H64" s="23">
         <v>4836.143840000007</v>
       </c>
-      <c r="I64" s="22">
+      <c r="I64" s="23">
         <v>6423.8579034741933</v>
       </c>
-      <c r="J64" s="22">
+      <c r="J64" s="23">
         <v>1587.7140634741863</v>
       </c>
-      <c r="K64" s="21">
+      <c r="K64" s="22">
         <v>3217.2261745693663</v>
       </c>
+    </row>
+    <row r="65" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A65" s="16">
+        <v>45044</v>
+      </c>
+      <c r="B65" s="26">
+        <v>1.22841</v>
+      </c>
+      <c r="C65" s="21">
+        <v>1.0281103199999995</v>
+      </c>
+      <c r="D65" s="22">
+        <v>-310.46450400000083</v>
+      </c>
+      <c r="E65" s="23">
+        <v>-252.73687449630077</v>
+      </c>
+      <c r="F65" s="23">
+        <v>2215.8207963901777</v>
+      </c>
+      <c r="G65" s="23">
+        <v>2721.9364244936583</v>
+      </c>
+      <c r="H65" s="23">
+        <v>4836.143840000007</v>
+      </c>
+      <c r="I65" s="23">
+        <v>6249.6271030630251</v>
+      </c>
+      <c r="J65" s="23">
+        <v>1413.4832630630181</v>
+      </c>
+      <c r="K65" s="22">
+        <v>3527.6906785693673</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="14.1" customHeight="1"/>
+    <row r="67" spans="1:11" ht="14.1" customHeight="1"/>
+    <row r="68" spans="1:11" ht="14.1" customHeight="1"/>
+    <row r="69" spans="1:11" ht="14.1" customHeight="1"/>
+    <row r="70" spans="1:11" ht="14.1" customHeight="1"/>
+    <row r="71" spans="1:11" ht="14.1" customHeight="1"/>
+    <row r="72" spans="1:11" ht="14.1" customHeight="1"/>
+    <row r="73" spans="1:11" ht="14.1" customHeight="1"/>
+    <row r="74" spans="1:11" ht="14.1" customHeight="1"/>
+    <row r="75" spans="1:11" ht="14.1" customHeight="1"/>
+    <row r="76" spans="1:11" ht="14.1" customHeight="1"/>
+    <row r="77" spans="1:11" ht="14.1" customHeight="1"/>
+    <row r="78" spans="1:11" ht="14.1" customHeight="1"/>
+    <row r="79" spans="1:11" ht="14.1" customHeight="1"/>
+    <row r="80" spans="1:11" ht="14.1" customHeight="1"/>
+    <row r="81" spans="12:15" ht="14.1" customHeight="1"/>
+    <row r="82" spans="12:15" ht="14.1" customHeight="1"/>
+    <row r="83" spans="12:15" ht="14.1" customHeight="1"/>
+    <row r="84" spans="12:15" ht="14.1" customHeight="1"/>
+    <row r="85" spans="12:15" ht="14.1" customHeight="1"/>
+    <row r="86" spans="12:15" ht="14.1" customHeight="1"/>
+    <row r="87" spans="12:15" ht="14.1" customHeight="1"/>
+    <row r="88" spans="12:15" ht="14.1" customHeight="1"/>
+    <row r="89" spans="12:15" ht="14.1" customHeight="1"/>
+    <row r="90" spans="12:15" ht="14.1" customHeight="1"/>
+    <row r="91" spans="12:15" ht="14.1" customHeight="1"/>
+    <row r="92" spans="12:15" ht="14.1" customHeight="1"/>
+    <row r="93" spans="12:15" ht="14.1" customHeight="1">
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L94" s="8"/>
+    </row>
+    <row r="95" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L95" s="8"/>
+    </row>
+    <row r="96" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L96" s="8"/>
+    </row>
+    <row r="97" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L97" s="8"/>
+    </row>
+    <row r="98" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L98" s="8"/>
+    </row>
+    <row r="99" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L99" s="8"/>
+    </row>
+    <row r="100" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L100" s="8"/>
+    </row>
+    <row r="101" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L101" s="8"/>
+    </row>
+    <row r="102" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L102" s="8"/>
+    </row>
+    <row r="103" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L103" s="8"/>
+    </row>
+    <row r="104" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L104" s="8"/>
+    </row>
+    <row r="105" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L105" s="8"/>
+      <c r="O105" s="3"/>
+    </row>
+    <row r="106" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L106" s="8"/>
+    </row>
+    <row r="107" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L107" s="8"/>
+    </row>
+    <row r="108" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L108" s="8"/>
+    </row>
+    <row r="109" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L109" s="8"/>
+    </row>
+    <row r="110" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L110" s="8"/>
+    </row>
+    <row r="111" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L111" s="8"/>
+    </row>
+    <row r="112" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L112" s="8"/>
+    </row>
+    <row r="113" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L113" s="8"/>
+    </row>
+    <row r="114" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L114" s="8"/>
+    </row>
+    <row r="115" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L115" s="8"/>
+    </row>
+    <row r="116" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L116" s="8"/>
+    </row>
+    <row r="117" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L117" s="8"/>
+      <c r="O117" s="3"/>
+    </row>
+    <row r="118" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L118" s="8"/>
+    </row>
+    <row r="119" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L119" s="8"/>
+    </row>
+    <row r="120" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L120" s="8"/>
+    </row>
+    <row r="121" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L121" s="8"/>
+    </row>
+    <row r="122" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L122" s="8"/>
+    </row>
+    <row r="123" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L123" s="8"/>
+    </row>
+    <row r="124" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L124" s="8"/>
+    </row>
+    <row r="125" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L125" s="8"/>
+    </row>
+    <row r="126" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L126" s="8"/>
+    </row>
+    <row r="127" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L127" s="8"/>
+    </row>
+    <row r="128" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L128" s="8"/>
+    </row>
+    <row r="129" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L129" s="8"/>
+      <c r="O129" s="3"/>
+    </row>
+    <row r="130" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L130" s="8"/>
+    </row>
+    <row r="131" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L131" s="8"/>
+    </row>
+    <row r="132" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L132" s="8"/>
+    </row>
+    <row r="133" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L133" s="8"/>
+    </row>
+    <row r="134" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L134" s="8"/>
+    </row>
+    <row r="135" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L135" s="8"/>
+    </row>
+    <row r="136" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L136" s="8"/>
+    </row>
+    <row r="137" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L137" s="8"/>
+    </row>
+    <row r="138" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L138" s="8"/>
+    </row>
+    <row r="139" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L139" s="8"/>
+    </row>
+    <row r="140" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L140" s="8"/>
+    </row>
+    <row r="141" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L141" s="8"/>
+      <c r="O141" s="3"/>
+    </row>
+    <row r="142" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L142" s="8"/>
+    </row>
+    <row r="143" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L143" s="8"/>
+    </row>
+    <row r="144" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L144" s="8"/>
+    </row>
+    <row r="145" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L145" s="8"/>
+    </row>
+    <row r="146" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L146" s="8"/>
+    </row>
+    <row r="147" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L147" s="8"/>
+    </row>
+    <row r="148" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L148" s="8"/>
+    </row>
+    <row r="149" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L149" s="8"/>
+    </row>
+    <row r="150" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L150" s="8"/>
+    </row>
+    <row r="151" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L151" s="8"/>
+    </row>
+    <row r="152" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L152" s="8"/>
+    </row>
+    <row r="153" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L153" s="8"/>
+      <c r="O153" s="3"/>
+    </row>
+    <row r="154" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L154" s="8"/>
+    </row>
+    <row r="155" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L155" s="8"/>
+    </row>
+    <row r="156" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L156" s="8"/>
+    </row>
+    <row r="157" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L157" s="8"/>
+    </row>
+    <row r="158" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L158" s="8"/>
+    </row>
+    <row r="159" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L159" s="8"/>
+    </row>
+    <row r="160" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L160" s="8"/>
+    </row>
+    <row r="161" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L161" s="8"/>
+    </row>
+    <row r="162" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L162" s="8"/>
+    </row>
+    <row r="163" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L163" s="8"/>
+    </row>
+    <row r="164" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L164" s="8"/>
+    </row>
+    <row r="165" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L165" s="8"/>
+      <c r="O165" s="3"/>
+    </row>
+    <row r="166" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L166" s="8"/>
+    </row>
+    <row r="167" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L167" s="8"/>
+    </row>
+    <row r="168" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L168" s="8"/>
+    </row>
+    <row r="169" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L169" s="4"/>
+    </row>
+    <row r="170" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L170" s="4"/>
+    </row>
+    <row r="171" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L171" s="4"/>
+    </row>
+    <row r="172" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L172" s="4"/>
+    </row>
+    <row r="173" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L173" s="4"/>
+    </row>
+    <row r="174" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L174" s="4"/>
+    </row>
+    <row r="175" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L175" s="4"/>
+    </row>
+    <row r="176" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L176" s="4"/>
+    </row>
+    <row r="177" spans="12:12" ht="14.1" customHeight="1">
+      <c r="L177" s="4"/>
+    </row>
+    <row r="178" spans="12:12" ht="14.1" customHeight="1">
+      <c r="L178" s="4"/>
+    </row>
+    <row r="179" spans="12:12" ht="14.1" customHeight="1">
+      <c r="L179" s="4"/>
+    </row>
+    <row r="180" spans="12:12" ht="14.1" customHeight="1">
+      <c r="L180" s="4"/>
+    </row>
+    <row r="181" spans="12:12" ht="14.1" customHeight="1">
+      <c r="L181" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
@@ -11,8 +11,8 @@
     <sheet name="model2(1)MA250" sheetId="10" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'model2(1)MA250'!$O$1:$O$188</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'model2(1)mean'!$O$1:$O$189</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'model2(1)MA250'!$O$1:$O$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'model2(1)mean'!$O$1:$O$77</definedName>
     <definedName name="金额" localSheetId="1">OFFSET('model2(1)MA250'!J1,0,0,COUNTA('model2(1)MA250'!J:J)-1)</definedName>
     <definedName name="金额" localSheetId="0">OFFSET('model2(1)mean'!J1,0,0,COUNTA('model2(1)mean'!J:J)-1)</definedName>
     <definedName name="时间" localSheetId="1">OFFSET('model2(1)MA250'!A1,0,0,COUNTA('model2(1)MA250'!A:A)-1)</definedName>
@@ -499,14 +499,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2220,11 +2219,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="82215680"/>
-        <c:axId val="300118400"/>
+        <c:axId val="103045376"/>
+        <c:axId val="110822912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="82215680"/>
+        <c:axId val="103045376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2267,14 +2266,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300118400"/>
+        <c:crossAx val="110822912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="300118400"/>
+        <c:axId val="110822912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2323,7 +2322,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82215680"/>
+        <c:crossAx val="103045376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3768,11 +3767,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="519096192"/>
-        <c:axId val="535965696"/>
+        <c:axId val="431297280"/>
+        <c:axId val="431298816"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="519096192"/>
+        <c:axId val="431297280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3815,14 +3814,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="535965696"/>
+        <c:crossAx val="431298816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="535965696"/>
+        <c:axId val="431298816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3871,7 +3870,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519096192"/>
+        <c:crossAx val="431297280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4333,7 +4332,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF181"/>
+  <dimension ref="A1:AF77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4373,151 +4372,151 @@
     <col min="52" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="13" customFormat="1" ht="27" customHeight="1">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="14"/>
-    </row>
-    <row r="2" spans="1:32" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="24"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="25"/>
-      <c r="M2" s="20"/>
+      <c r="M1" s="13"/>
+    </row>
+    <row r="2" spans="1:32" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="23"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="24"/>
+      <c r="M2" s="19"/>
     </row>
     <row r="3" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5">
         <v>1550</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5">
         <f>MIN(F:F)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="9"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="8"/>
     </row>
     <row r="4" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A4" s="16">
+      <c r="A4" s="15">
         <v>42825</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="25">
         <v>0.97609000000000001</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="20">
         <v>0.99386428571428564</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="21">
         <v>27.550142857142728</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="22">
         <v>28.225002671006493</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="22">
         <v>28.225002671006493</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="22">
         <v>27.550142857142728</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="22">
         <v>27.550142857142728</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="22">
         <v>27.550142857142728</v>
       </c>
-      <c r="J4" s="23">
-        <v>0</v>
-      </c>
-      <c r="K4" s="22">
-        <v>0</v>
-      </c>
-      <c r="L4" s="8"/>
-      <c r="O4" s="27" t="s">
+      <c r="J4" s="22">
+        <v>0</v>
+      </c>
+      <c r="K4" s="21">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="O4" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="P4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="Q4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="12" t="s">
+      <c r="R4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="S4" s="12" t="s">
+      <c r="S4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="T4" s="28" t="s">
+      <c r="T4" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="U4" s="12" t="s">
+      <c r="U4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="V4" s="12" t="s">
+      <c r="V4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="X4" s="7">
+      <c r="X4" s="6">
         <v>43098</v>
       </c>
-      <c r="Y4" s="8">
+      <c r="Y4" s="7">
         <f>VLOOKUP(X4,O:P,2,)</f>
         <v>304.12500617544276</v>
       </c>
-      <c r="Z4" s="8">
+      <c r="Z4" s="7">
         <f t="shared" ref="Z4:Z5" si="0">0-Y4</f>
         <v>-304.12500617544276</v>
       </c>
-      <c r="AA4" s="7">
+      <c r="AA4" s="6">
         <v>43098</v>
       </c>
       <c r="AB4" s="1">
@@ -4528,89 +4527,89 @@
         <f t="shared" ref="AC4" si="1">0-AB4</f>
         <v>-304.12500617544276</v>
       </c>
-      <c r="AD4" s="7">
+      <c r="AD4" s="6">
         <v>43098</v>
       </c>
-      <c r="AE4" s="8">
+      <c r="AE4" s="7">
         <f>VLOOKUP(AD4,O:P,2,)</f>
         <v>304.12500617544276</v>
       </c>
-      <c r="AF4" s="8">
+      <c r="AF4" s="7">
         <f t="shared" ref="AF4" si="2">0-AE4</f>
         <v>-304.12500617544276</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <v>42853</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="25">
         <v>0.88445000000000007</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="20">
         <v>0.95655781250000005</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="21">
         <v>111.76710937499996</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <v>126.36905350782968</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="22">
         <v>154.59405617883618</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="22">
         <v>136.73071298737167</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="22">
         <v>139.31725223214269</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="22">
         <v>136.73071298737167</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="22">
         <v>-2.5865392447710178</v>
       </c>
-      <c r="K5" s="22">
-        <v>0</v>
-      </c>
-      <c r="L5" s="8"/>
-      <c r="O5" s="7">
+      <c r="K5" s="21">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="O5" s="6">
         <v>43098</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="10">
         <v>304.12500617544276</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="5">
         <v>304.12500617544276</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="5">
         <v>328.80443799445595</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="5">
         <v>24.679431819013189</v>
       </c>
-      <c r="T5" s="6">
+      <c r="T5" s="5">
         <v>251.21204627564666</v>
       </c>
-      <c r="U5" s="10">
+      <c r="U5" s="9">
         <v>8.1148972685186532E-2</v>
       </c>
-      <c r="V5" s="10">
+      <c r="V5" s="9">
         <v>8.1148972685186532E-2</v>
       </c>
-      <c r="X5" s="7">
+      <c r="X5" s="6">
         <v>43462</v>
       </c>
-      <c r="Y5" s="8">
+      <c r="Y5" s="7">
         <f>VLOOKUP(X5,O:P,2,)</f>
         <v>1807.7843670854991</v>
       </c>
-      <c r="Z5" s="8">
+      <c r="Z5" s="7">
         <f t="shared" si="0"/>
         <v>-1807.7843670854991</v>
       </c>
-      <c r="AA5" s="7">
+      <c r="AA5" s="6">
         <v>43462</v>
       </c>
       <c r="AB5" s="1">
@@ -4621,84 +4620,84 @@
         <f t="shared" ref="AC5:AC6" si="3">0-AB5</f>
         <v>-1807.7843670854991</v>
       </c>
-      <c r="AD5" s="7">
+      <c r="AD5" s="6">
         <v>43462</v>
       </c>
-      <c r="AE5" s="8">
+      <c r="AE5" s="7">
         <f>VLOOKUP(AD5,O:P,2,)</f>
         <v>1807.7843670854991</v>
       </c>
-      <c r="AF5" s="8">
+      <c r="AF5" s="7">
         <f t="shared" ref="AF5:AF7" si="4">0-AE5</f>
         <v>-1807.7843670854991</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A6" s="16">
+      <c r="A6" s="15">
         <v>42886</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="25">
         <v>0.84275</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="20">
         <v>0.91796173076923115</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="21">
         <v>116.57818269230829</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="22">
         <v>138.33068251831301</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="22">
         <v>292.92473869714922</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="22">
         <v>246.86232353702252</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="22">
         <v>255.89543492445097</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="22">
         <v>246.86232353702252</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="22">
         <v>-9.0331113874284483</v>
       </c>
-      <c r="K6" s="22">
-        <v>0</v>
-      </c>
-      <c r="L6" s="8"/>
-      <c r="O6" s="7">
+      <c r="K6" s="21">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="O6" s="6">
         <v>43462</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="10">
         <v>1807.7843670854991</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="5">
         <v>2111.9093732609417</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="5">
         <v>1961.8999213933344</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="5">
         <v>-150.00945186760737</v>
       </c>
-      <c r="T6" s="6">
+      <c r="T6" s="5">
         <v>317.52088040945171</v>
       </c>
-      <c r="U6" s="10">
+      <c r="U6" s="9">
         <v>-7.1030250524425617E-2</v>
       </c>
-      <c r="V6" s="10">
+      <c r="V6" s="9">
         <v>-6.2582124461404876E-2</v>
       </c>
-      <c r="X6" s="7">
+      <c r="X6" s="6">
         <v>43462</v>
       </c>
-      <c r="Z6" s="8">
+      <c r="Z6" s="7">
         <v>1961.8999213933344</v>
       </c>
-      <c r="AA6" s="7">
+      <c r="AA6" s="6">
         <v>43830</v>
       </c>
       <c r="AB6" s="1">
@@ -4709,226 +4708,226 @@
         <f t="shared" si="3"/>
         <v>-287.98245355098834</v>
       </c>
-      <c r="AD6" s="7">
+      <c r="AD6" s="6">
         <v>43830</v>
       </c>
-      <c r="AE6" s="8">
+      <c r="AE6" s="7">
         <f>VLOOKUP(AD6,O:P,2,)</f>
         <v>287.98245355098834</v>
       </c>
-      <c r="AF6" s="8">
+      <c r="AF6" s="7">
         <f t="shared" si="4"/>
         <v>-287.98245355098834</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A7" s="16">
+      <c r="A7" s="15">
         <v>42916</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="25">
         <v>0.91246000000000005</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="20">
         <v>0.90437932432432466</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="21">
         <v>-12.525047297296849</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="22">
         <v>-13.726680947435337</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="22">
         <v>279.19805774971388</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="22">
         <v>254.75705977430394</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="22">
         <v>255.89543492445097</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="22">
         <v>267.28210707160076</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="22">
         <v>11.386672147149795</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="21">
         <v>12.525047297296849</v>
       </c>
-      <c r="L7" s="8"/>
-      <c r="O7" s="7">
+      <c r="L7" s="7"/>
+      <c r="O7" s="6">
         <v>43830</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="10">
         <v>287.98245355098834</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="5">
         <v>2399.8918268119301</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7" s="5">
         <v>3217.6093105743603</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7" s="5">
         <v>817.71748376243022</v>
       </c>
-      <c r="T7" s="6">
+      <c r="T7" s="5">
         <v>1365.8977430166979</v>
       </c>
-      <c r="U7" s="10">
+      <c r="U7" s="9">
         <v>0.34073097571597816</v>
       </c>
-      <c r="V7" s="10">
+      <c r="V7" s="9">
         <v>0.15583831681496263</v>
       </c>
-      <c r="Z7" s="9">
+      <c r="Z7" s="8">
         <f>IRR(Z4:Z6)</f>
         <v>-6.2582124461404876E-2</v>
       </c>
-      <c r="AA7" s="7">
+      <c r="AA7" s="6">
         <v>43830</v>
       </c>
       <c r="AC7" s="1">
         <v>3217.6093105743603</v>
       </c>
-      <c r="AD7" s="7">
+      <c r="AD7" s="6">
         <v>44196</v>
       </c>
-      <c r="AE7" s="8">
+      <c r="AE7" s="7">
         <f>VLOOKUP(AD7,O:P,2,)</f>
         <v>0</v>
       </c>
-      <c r="AF7" s="8">
+      <c r="AF7" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A8" s="16">
+      <c r="A8" s="15">
         <v>42947</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="25">
         <v>0.89419999999999999</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="20">
         <v>0.90019273684210555</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="21">
         <v>9.2887421052636032</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="22">
         <v>10.38776795489108</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="22">
         <v>289.58582570460499</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="22">
         <v>258.94764534505777</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="22">
         <v>265.18417702971459</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="22">
         <v>271.47269264235462</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="22">
         <v>6.2885156126400261</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="21">
         <v>12.525047297296849</v>
       </c>
-      <c r="L8" s="8"/>
-      <c r="O8" s="7">
+      <c r="L8" s="7"/>
+      <c r="O8" s="6">
         <v>44196</v>
       </c>
-      <c r="P8" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="6">
+      <c r="P8" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5">
         <v>2399.8918268119301</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="5">
         <v>3420.824392859301</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="5">
         <v>1020.932566047371</v>
       </c>
-      <c r="T8" s="6">
+      <c r="T8" s="5">
         <v>3420.824392859301</v>
       </c>
-      <c r="U8" s="10">
+      <c r="U8" s="9">
         <v>0.42540774323299424</v>
       </c>
-      <c r="V8" s="10">
+      <c r="V8" s="9">
         <v>0.12448297099432648</v>
       </c>
       <c r="AC8" s="2">
         <f>IRR(AC4:AC7)</f>
         <v>0.15583831681496263</v>
       </c>
-      <c r="AD8" s="7">
+      <c r="AD8" s="6">
         <v>44196</v>
       </c>
-      <c r="AF8" s="8">
+      <c r="AF8" s="7">
         <v>3420.824392859301</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A9" s="16">
+      <c r="A9" s="15">
         <v>42978</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="25">
         <v>0.97410000000000008</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="20">
         <v>0.90535008474576273</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="21">
         <v>-106.56236864406789</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="22">
         <v>-109.39571773336195</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="22">
         <v>180.19010797124304</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="22">
         <v>175.52318417478784</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="22">
         <v>265.18417702971459</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="22">
         <v>294.61060011615257</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="22">
         <v>29.426423086437978</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K9" s="21">
         <v>119.08741594136474</v>
       </c>
-      <c r="L9" s="8"/>
-      <c r="O9" s="7">
+      <c r="L9" s="7"/>
+      <c r="O9" s="6">
         <v>44561</v>
       </c>
-      <c r="P9" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="6">
+      <c r="P9" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5">
         <v>2399.8918268119301</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9" s="5">
         <v>3420.824392859301</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S9" s="5">
         <v>1020.932566047371</v>
       </c>
-      <c r="T9" s="6">
+      <c r="T9" s="5">
         <v>3420.824392859301</v>
       </c>
-      <c r="U9" s="10">
+      <c r="U9" s="9">
         <v>0.42540774323299424</v>
       </c>
-      <c r="V9" s="10">
+      <c r="V9" s="9">
         <v>0.11623036743162096</v>
       </c>
       <c r="AF9" s="2">
@@ -4937,65 +4936,65 @@
       </c>
     </row>
     <row r="10" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A10" s="16">
+      <c r="A10" s="15">
         <v>43007</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="25">
         <v>0.97174000000000005</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="20">
         <v>0.91768381294964019</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="21">
         <v>-83.787089928057782</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="22">
         <v>-86.223773774937513</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="22">
         <v>93.966334196305525</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="22">
         <v>91.310845591917939</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="22">
         <v>265.18417702971459</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="22">
         <v>294.18535146134047</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="22">
         <v>29.001174431625884</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="21">
         <v>202.87450586942253</v>
       </c>
-      <c r="L10" s="8"/>
-      <c r="O10" s="7">
+      <c r="L10" s="7"/>
+      <c r="O10" s="6">
         <v>44925</v>
       </c>
-      <c r="P10" s="11">
+      <c r="P10" s="10">
         <v>1191.9854404928446</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10" s="5">
         <v>3591.8772673047747</v>
       </c>
-      <c r="R10" s="6">
+      <c r="R10" s="5">
         <v>4692.9521370177645</v>
       </c>
-      <c r="S10" s="6">
+      <c r="S10" s="5">
         <v>1101.0748697129898</v>
       </c>
-      <c r="T10" s="6">
+      <c r="T10" s="5">
         <v>3420.824392859301</v>
       </c>
-      <c r="U10" s="10">
+      <c r="U10" s="9">
         <v>0.30654579423845396</v>
       </c>
-      <c r="V10" s="10">
+      <c r="V10" s="9">
         <v>9.2107928430304797E-2</v>
       </c>
-      <c r="X10" s="7">
+      <c r="X10" s="6">
         <v>43098</v>
       </c>
       <c r="Y10" s="1">
@@ -5005,7 +5004,7 @@
         <f>-Y10</f>
         <v>-18.350992705669857</v>
       </c>
-      <c r="AA10" s="7">
+      <c r="AA10" s="6">
         <v>43098</v>
       </c>
       <c r="AB10" s="1">
@@ -5017,41 +5016,41 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A11" s="16">
+      <c r="A11" s="15">
         <v>43039</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="25">
         <v>0.94596999999999998</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="20">
         <v>0.92351769230769187</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="21">
         <v>-34.801076923077559</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="22">
         <v>-36.788774404132859</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="22">
         <v>57.177559792172666</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="22">
         <v>54.088256236601573</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="22">
         <v>265.18417702971459</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="22">
         <v>291.76383902910169</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="22">
         <v>26.579661999387099</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K11" s="21">
         <v>237.67558279250011</v>
       </c>
-      <c r="L11" s="8"/>
-      <c r="X11" s="7">
+      <c r="L11" s="7"/>
+      <c r="X11" s="6">
         <v>43462</v>
       </c>
       <c r="Y11" s="1">
@@ -5061,7 +5060,7 @@
         <f>-Y11</f>
         <v>-255.17901000780921</v>
       </c>
-      <c r="AA11" s="7">
+      <c r="AA11" s="6">
         <v>43462</v>
       </c>
       <c r="AB11" s="1">
@@ -5073,41 +5072,41 @@
       </c>
     </row>
     <row r="12" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A12" s="16">
+      <c r="A12" s="15">
         <v>43069</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="25">
         <v>0.93876000000000004</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="20">
         <v>0.93002679775280872</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="21">
         <v>-13.536463483146544</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="22">
         <v>-14.419514554461783</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="22">
         <v>42.758045237710881</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="22">
         <v>40.139542547353471</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="22">
         <v>265.18417702971459</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="22">
         <v>291.35158882300016</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="22">
         <v>26.167411793285567</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K12" s="21">
         <v>251.21204627564666</v>
       </c>
-      <c r="L12" s="8"/>
-      <c r="X12" s="7">
+      <c r="L12" s="7"/>
+      <c r="X12" s="6">
         <v>43830</v>
       </c>
       <c r="Y12" s="1">
@@ -5117,7 +5116,7 @@
         <f>-Y12</f>
         <v>-51.512876965237467</v>
       </c>
-      <c r="AA12" s="7">
+      <c r="AA12" s="6">
         <v>43830</v>
       </c>
       <c r="AB12" s="1">
@@ -5129,41 +5128,41 @@
       </c>
     </row>
     <row r="13" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A13" s="16">
+      <c r="A13" s="15">
         <v>43098</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="25">
         <v>0.90395999999999999</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="20">
         <v>0.92908311557788914</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="21">
         <v>38.940829145728188</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="22">
         <v>43.07804454370568</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="22">
         <v>85.836089781416561</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="22">
         <v>77.59239171880931</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="22">
         <v>304.12500617544276</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="22">
         <v>328.80443799445595</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="22">
         <v>24.679431819013189</v>
       </c>
-      <c r="K13" s="22">
+      <c r="K13" s="21">
         <v>251.21204627564666</v>
       </c>
-      <c r="L13" s="8"/>
-      <c r="X13" s="7">
+      <c r="L13" s="7"/>
+      <c r="X13" s="6">
         <v>44196</v>
       </c>
       <c r="Y13" s="1">
@@ -5173,7 +5172,7 @@
         <f>-Y13</f>
         <v>0</v>
       </c>
-      <c r="AA13" s="7">
+      <c r="AA13" s="6">
         <v>44196</v>
       </c>
       <c r="AB13" s="1">
@@ -5185,41 +5184,41 @@
       </c>
     </row>
     <row r="14" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A14" s="16">
+      <c r="A14" s="15">
         <v>43131</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="25">
         <v>0.86690999999999996</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="20">
         <v>0.92713140271493188</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="21">
         <v>93.34317420814449</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="22">
         <v>107.67343116141755</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="22">
         <v>193.50952094283411</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="22">
         <v>167.75533880055232</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="22">
         <v>397.46818038358725</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="22">
         <v>418.96738507619898</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="22">
         <v>21.499204692611727</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="21">
         <v>251.21204627564666</v>
       </c>
-      <c r="L14" s="8"/>
-      <c r="X14" s="7">
+      <c r="L14" s="7"/>
+      <c r="X14" s="6">
         <v>44561</v>
       </c>
       <c r="Y14" s="1">
@@ -5229,7 +5228,7 @@
         <f>-Y14</f>
         <v>0</v>
       </c>
-      <c r="AA14" s="7">
+      <c r="AA14" s="6">
         <v>44561</v>
       </c>
       <c r="AB14" s="1">
@@ -5241,47 +5240,47 @@
       </c>
     </row>
     <row r="15" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A15" s="16">
+      <c r="A15" s="15">
         <v>43159</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="25">
         <v>0.8518</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="20">
         <v>0.91968983050847442</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="21">
         <v>105.22923728813534</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="22">
         <v>123.53749388135165</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="22">
         <v>317.04701482418579</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="22">
         <v>270.06064722724147</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="22">
         <v>502.69741767172258</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="22">
         <v>521.27269350288816</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="22">
         <v>18.575275831165584</v>
       </c>
-      <c r="K15" s="22">
+      <c r="K15" s="21">
         <v>251.21204627564666</v>
       </c>
-      <c r="L15" s="8"/>
-      <c r="X15" s="7">
+      <c r="L15" s="7"/>
+      <c r="X15" s="6">
         <v>44561</v>
       </c>
       <c r="Z15" s="1">
         <v>499.59426954009558</v>
       </c>
-      <c r="AA15" s="7">
+      <c r="AA15" s="6">
         <v>44925</v>
       </c>
       <c r="AB15" s="1">
@@ -5293,45 +5292,45 @@
       </c>
     </row>
     <row r="16" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A16" s="16">
+      <c r="A16" s="15">
         <v>43189</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="25">
         <v>0.95575999999999994</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="20">
         <v>0.91931608527131781</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="21">
         <v>-56.488067829457314</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="22">
         <v>-59.102774576731939</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="22">
         <v>257.94424024745388</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="22">
         <v>246.53278705890651</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="22">
         <v>502.69741767172258</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="22">
         <v>554.23290116401051</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="22">
         <v>51.535483492287938</v>
       </c>
-      <c r="K16" s="22">
+      <c r="K16" s="21">
         <v>307.70011410510398</v>
       </c>
-      <c r="L16" s="8"/>
+      <c r="L16" s="7"/>
       <c r="Z16" s="2">
         <f>IRR(Z10:Z15)</f>
         <v>0.11623036743162096</v>
       </c>
-      <c r="AA16" s="7">
+      <c r="AA16" s="6">
         <v>44925</v>
       </c>
       <c r="AC16" s="1">
@@ -5339,2464 +5338,2177 @@
       </c>
     </row>
     <row r="17" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A17" s="16">
+      <c r="A17" s="15">
         <v>43217</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="25">
         <v>0.92662</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="20">
         <v>0.92028402173913049</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="21">
         <v>-9.8207663043477442</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="22">
         <v>-10.598482985849371</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="22">
         <v>247.34575726160452</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="22">
         <v>229.19552559374799</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="22">
         <v>502.69741767172258</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="22">
         <v>546.71640600319972</v>
       </c>
-      <c r="J17" s="23">
+      <c r="J17" s="22">
         <v>44.018988331477146</v>
       </c>
-      <c r="K17" s="22">
+      <c r="K17" s="21">
         <v>317.52088040945171</v>
       </c>
-      <c r="L17" s="8"/>
+      <c r="L17" s="7"/>
       <c r="AC17" s="2">
         <f>IRR(AC10:AC16)</f>
         <v>9.2107928430304797E-2</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A18" s="16">
+      <c r="A18" s="15">
         <v>43251</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="25">
         <v>0.88405999999999996</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="20">
         <v>0.91991989932885943</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="21">
         <v>55.582843959732173</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="22">
         <v>62.87225296895253</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="22">
         <v>310.21801023055707</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="22">
         <v>274.25133412442625</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="22">
         <v>558.28026163145478</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="22">
         <v>591.77221453387801</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J18" s="22">
         <v>33.491952902423236</v>
       </c>
-      <c r="K18" s="22">
+      <c r="K18" s="21">
         <v>317.52088040945171</v>
       </c>
-      <c r="L18" s="8"/>
+      <c r="L18" s="7"/>
     </row>
     <row r="19" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A19" s="16">
+      <c r="A19" s="15">
         <v>43280</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="25">
         <v>0.81235999999999997</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="20">
         <v>0.91462415094339644</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="21">
         <v>158.50943396226452</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="22">
         <v>195.12215515567547</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="22">
         <v>505.34016538623257</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="22">
         <v>410.51813675315987</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="22">
         <v>716.78969559371933</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="22">
         <v>728.03901716261157</v>
       </c>
-      <c r="J19" s="23">
+      <c r="J19" s="22">
         <v>11.249321568892242</v>
       </c>
-      <c r="K19" s="22">
+      <c r="K19" s="21">
         <v>317.52088040945171</v>
       </c>
-      <c r="L19" s="8"/>
+      <c r="L19" s="7"/>
     </row>
     <row r="20" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A20" s="16">
+      <c r="A20" s="15">
         <v>43312</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="25">
         <v>0.8131799999999999</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="20">
         <v>0.90820861764705896</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="21">
         <v>147.29435735294155</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="22">
         <v>181.13376786559132</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="22">
         <v>686.47393325182384</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="22">
         <v>558.22687304171802</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="22">
         <v>864.0840529466609</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="22">
         <v>875.74775345116973</v>
       </c>
-      <c r="J20" s="23">
+      <c r="J20" s="22">
         <v>11.663700504508824</v>
       </c>
-      <c r="K20" s="22">
+      <c r="K20" s="21">
         <v>317.52088040945171</v>
       </c>
-      <c r="L20" s="8"/>
+      <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A21" s="16">
+      <c r="A21" s="15">
         <v>43343</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="25">
         <v>0.77766999999999997</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="20">
         <v>0.90034011019283766</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="21">
         <v>190.13867079889843</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="22">
         <v>244.49788573417831</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="22">
         <v>930.97181898600218</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="22">
         <v>723.98885447084433</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="22">
         <v>1054.2227237455593</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="22">
         <v>1041.509734880296</v>
       </c>
-      <c r="J21" s="23">
+      <c r="J21" s="22">
         <v>-12.712988865263242</v>
       </c>
-      <c r="K21" s="22">
+      <c r="K21" s="21">
         <v>317.52088040945171</v>
       </c>
-      <c r="L21" s="9"/>
+      <c r="L21" s="8"/>
     </row>
     <row r="22" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A22" s="16">
+      <c r="A22" s="15">
         <v>43371</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="25">
         <v>0.76784000000000008</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="20">
         <v>0.8937382984293194</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="21">
         <v>195.14236256544496</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="22">
         <v>254.14456470807062</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="22">
         <v>1185.1163836940727</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="22">
         <v>909.97976405565691</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="22">
         <v>1249.3650863110042</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="22">
         <v>1227.5006444651085</v>
       </c>
-      <c r="J22" s="23">
+      <c r="J22" s="22">
         <v>-21.864441845895726</v>
       </c>
-      <c r="K22" s="22">
+      <c r="K22" s="21">
         <v>317.52088040945171</v>
       </c>
-      <c r="L22" s="8"/>
+      <c r="L22" s="7"/>
     </row>
     <row r="23" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A23" s="16">
+      <c r="A23" s="15">
         <v>43404</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B23" s="25">
         <v>0.67677999999999994</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="20">
         <v>0.88415025000000003</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="21">
         <v>321.42388750000015</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="22">
         <v>474.93112606755545</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="22">
         <v>1660.0475097616281</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="22">
         <v>1123.4869536564745</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="22">
         <v>1570.7889738110043</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I23" s="22">
         <v>1441.0078340659261</v>
       </c>
-      <c r="J23" s="23">
+      <c r="J23" s="22">
         <v>-129.78113974507824</v>
       </c>
-      <c r="K23" s="22">
+      <c r="K23" s="21">
         <v>317.52088040945171</v>
       </c>
-      <c r="L23" s="8"/>
+      <c r="L23" s="7"/>
     </row>
     <row r="24" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A24" s="16">
+      <c r="A24" s="15">
         <v>43434</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="25">
         <v>0.7214299999999999</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="20">
         <v>0.87621106635071089</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="21">
         <v>239.91065284360204</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="22">
         <v>332.54876127081224</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="22">
         <v>1992.5962710324404</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="22">
         <v>1437.5187278109333</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="22">
         <v>1810.6996266546064</v>
       </c>
-      <c r="I24" s="23">
+      <c r="I24" s="22">
         <v>1755.0396082203852</v>
       </c>
-      <c r="J24" s="23">
+      <c r="J24" s="22">
         <v>-55.660018434221229</v>
       </c>
-      <c r="K24" s="22">
+      <c r="K24" s="21">
         <v>317.52088040945171</v>
       </c>
-      <c r="L24" s="8"/>
+      <c r="L24" s="7"/>
       <c r="O24" s="3"/>
     </row>
     <row r="25" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A25" s="16">
+      <c r="A25" s="15">
         <v>43462</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="25">
         <v>0.67408000000000001</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="20">
         <v>0.86840886877828072</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="21">
         <v>301.2097466063351</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="22">
         <v>446.84569577251233</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="22">
         <v>2439.4419668049527</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="22">
         <v>1644.3790409838825</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="22">
         <v>2111.9093732609417</v>
       </c>
-      <c r="I25" s="23">
+      <c r="I25" s="22">
         <v>1961.8999213933344</v>
       </c>
-      <c r="J25" s="23">
+      <c r="J25" s="22">
         <v>-150.00945186760737</v>
       </c>
-      <c r="K25" s="22">
+      <c r="K25" s="21">
         <v>317.52088040945171</v>
       </c>
-      <c r="L25" s="8"/>
+      <c r="L25" s="7"/>
     </row>
     <row r="26" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A26" s="16">
+      <c r="A26" s="15">
         <v>43496</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B26" s="25">
         <v>0.67819000000000007</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="20">
         <v>0.86047514038876904</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="21">
         <v>282.54196760259191</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="22">
         <v>416.61181616153567</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="22">
         <v>2856.0537829664881</v>
       </c>
-      <c r="G26" s="23">
+      <c r="G26" s="22">
         <v>1936.9471150700429</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="22">
         <v>2394.4513408635335</v>
       </c>
-      <c r="I26" s="23">
+      <c r="I26" s="22">
         <v>2254.4679954794947</v>
       </c>
-      <c r="J26" s="23">
+      <c r="J26" s="22">
         <v>-139.98334538403878</v>
       </c>
-      <c r="K26" s="22">
+      <c r="K26" s="21">
         <v>317.52088040945171</v>
       </c>
-      <c r="L26" s="8"/>
+      <c r="L26" s="7"/>
     </row>
     <row r="27" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A27" s="16">
+      <c r="A27" s="15">
         <v>43524</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="25">
         <v>0.85648000000000002</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="20">
         <v>0.8580328242677826</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="21">
         <v>2.406877615063002</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="22">
         <v>2.8101971033334134</v>
       </c>
-      <c r="F27" s="23">
+      <c r="F27" s="22">
         <v>2858.8639800698215</v>
       </c>
-      <c r="G27" s="23">
+      <c r="G27" s="22">
         <v>2448.5598216502008</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="22">
         <v>2396.8582184785964</v>
       </c>
-      <c r="I27" s="23">
+      <c r="I27" s="22">
         <v>2766.0807020596526</v>
       </c>
-      <c r="J27" s="23">
+      <c r="J27" s="22">
         <v>369.22248358105617</v>
       </c>
-      <c r="K27" s="22">
+      <c r="K27" s="21">
         <v>317.52088040945171</v>
       </c>
-      <c r="L27" s="8"/>
+      <c r="L27" s="7"/>
     </row>
     <row r="28" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A28" s="16">
+      <c r="A28" s="15">
         <v>43553</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="25">
         <v>0.94580999999999993</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="20">
         <v>0.86124096192384803</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="21">
         <v>-131.08200901803545</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E28" s="22">
         <v>-138.59232723066521</v>
       </c>
-      <c r="F28" s="23">
+      <c r="F28" s="22">
         <v>2720.2716528391566</v>
       </c>
-      <c r="G28" s="23">
+      <c r="G28" s="22">
         <v>2572.8601319718023</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H28" s="22">
         <v>2396.8582184785964</v>
       </c>
-      <c r="I28" s="23">
+      <c r="I28" s="22">
         <v>3021.4630213992896</v>
       </c>
-      <c r="J28" s="23">
+      <c r="J28" s="22">
         <v>624.60480292069315</v>
       </c>
-      <c r="K28" s="22">
+      <c r="K28" s="21">
         <v>448.60288942748718</v>
       </c>
-      <c r="L28" s="8"/>
+      <c r="L28" s="7"/>
     </row>
     <row r="29" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A29" s="16">
+      <c r="A29" s="15">
         <v>43585</v>
       </c>
-      <c r="B29" s="26">
+      <c r="B29" s="25">
         <v>0.9108099999999999</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="20">
         <v>0.86549344230769254</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="21">
         <v>-70.24066442307641</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="22">
         <v>-77.118899027323394</v>
       </c>
-      <c r="F29" s="23">
+      <c r="F29" s="22">
         <v>2643.152753811833</v>
       </c>
-      <c r="G29" s="23">
+      <c r="G29" s="22">
         <v>2407.4099596993556</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H29" s="22">
         <v>2396.8582184785964</v>
       </c>
-      <c r="I29" s="23">
+      <c r="I29" s="22">
         <v>2926.2535135499193</v>
       </c>
-      <c r="J29" s="23">
+      <c r="J29" s="22">
         <v>529.39529507132283</v>
       </c>
-      <c r="K29" s="22">
+      <c r="K29" s="21">
         <v>518.84355385056358</v>
       </c>
-      <c r="L29" s="8"/>
+      <c r="L29" s="7"/>
     </row>
     <row r="30" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A30" s="16">
+      <c r="A30" s="15">
         <v>43616</v>
       </c>
-      <c r="B30" s="26">
+      <c r="B30" s="25">
         <v>0.86360000000000003</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="20">
         <v>0.86555716666666693</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="21">
         <v>3.0336083333336927</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="22">
         <v>3.5127470279454522</v>
       </c>
-      <c r="F30" s="23">
+      <c r="F30" s="22">
         <v>2646.6655008397784</v>
       </c>
-      <c r="G30" s="23">
+      <c r="G30" s="22">
         <v>2285.6603265252329</v>
       </c>
-      <c r="H30" s="23">
+      <c r="H30" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I30" s="23">
+      <c r="I30" s="22">
         <v>2804.5038803757966</v>
       </c>
-      <c r="J30" s="23">
+      <c r="J30" s="22">
         <v>404.61205356386654</v>
       </c>
-      <c r="K30" s="22">
+      <c r="K30" s="21">
         <v>518.84355385056358</v>
       </c>
-      <c r="L30" s="8"/>
+      <c r="L30" s="7"/>
     </row>
     <row r="31" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A31" s="16">
+      <c r="A31" s="15">
         <v>43644</v>
       </c>
-      <c r="B31" s="26">
+      <c r="B31" s="25">
         <v>0.88732</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="20">
         <v>0.86554053667263009</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D31" s="21">
         <v>-33.758168157423356</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E31" s="22">
         <v>-38.045088758760485</v>
       </c>
-      <c r="F31" s="23">
+      <c r="F31" s="22">
         <v>2608.620412081018</v>
       </c>
-      <c r="G31" s="23">
+      <c r="G31" s="22">
         <v>2314.6810640477288</v>
       </c>
-      <c r="H31" s="23">
+      <c r="H31" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I31" s="23">
+      <c r="I31" s="22">
         <v>2867.2827860557159</v>
       </c>
-      <c r="J31" s="23">
+      <c r="J31" s="22">
         <v>467.3909592437858</v>
       </c>
-      <c r="K31" s="22">
+      <c r="K31" s="21">
         <v>552.60172200798695</v>
       </c>
-      <c r="L31" s="8"/>
+      <c r="L31" s="7"/>
     </row>
     <row r="32" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A32" s="16">
+      <c r="A32" s="15">
         <v>43677</v>
       </c>
-      <c r="B32" s="26">
+      <c r="B32" s="25">
         <v>0.89222000000000001</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="20">
         <v>0.86642510309278375</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D32" s="21">
         <v>-39.982090206185198</v>
       </c>
-      <c r="E32" s="23">
+      <c r="E32" s="22">
         <v>-44.811918816194655</v>
       </c>
-      <c r="F32" s="23">
+      <c r="F32" s="22">
         <v>2563.8084932648235</v>
       </c>
-      <c r="G32" s="23">
+      <c r="G32" s="22">
         <v>2287.4812138607408</v>
       </c>
-      <c r="H32" s="23">
+      <c r="H32" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I32" s="23">
+      <c r="I32" s="22">
         <v>2880.065026074913</v>
       </c>
-      <c r="J32" s="23">
+      <c r="J32" s="22">
         <v>480.17319926298296</v>
       </c>
-      <c r="K32" s="22">
+      <c r="K32" s="21">
         <v>592.5838122141721</v>
       </c>
-      <c r="L32" s="8"/>
+      <c r="L32" s="7"/>
     </row>
     <row r="33" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A33" s="16">
+      <c r="A33" s="15">
         <v>43707</v>
       </c>
-      <c r="B33" s="26">
+      <c r="B33" s="25">
         <v>0.92357</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="20">
         <v>0.86719825870646772</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D33" s="21">
         <v>-87.376199004975035</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33" s="22">
         <v>-94.607013009273828</v>
       </c>
-      <c r="F33" s="23">
+      <c r="F33" s="22">
         <v>2469.2014802555495</v>
       </c>
-      <c r="G33" s="23">
+      <c r="G33" s="22">
         <v>2280.4804111196181</v>
       </c>
-      <c r="H33" s="23">
+      <c r="H33" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I33" s="23">
+      <c r="I33" s="22">
         <v>2960.4404223387655</v>
       </c>
-      <c r="J33" s="23">
+      <c r="J33" s="22">
         <v>560.54859552683547</v>
       </c>
-      <c r="K33" s="22">
+      <c r="K33" s="21">
         <v>679.96001121914719</v>
       </c>
-      <c r="L33" s="8"/>
+      <c r="L33" s="7"/>
     </row>
     <row r="34" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A34" s="16">
+      <c r="A34" s="15">
         <v>43738</v>
       </c>
-      <c r="B34" s="26">
+      <c r="B34" s="25">
         <v>0.95855999999999997</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="20">
         <v>0.87132205457463874</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D34" s="21">
         <v>-135.21881540930991</v>
       </c>
-      <c r="E34" s="23">
+      <c r="E34" s="22">
         <v>-141.0645295122996</v>
       </c>
-      <c r="F34" s="23">
+      <c r="F34" s="22">
         <v>2328.1369507432501</v>
       </c>
-      <c r="G34" s="23">
+      <c r="G34" s="22">
         <v>2231.6589555044498</v>
       </c>
-      <c r="H34" s="23">
+      <c r="H34" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I34" s="23">
+      <c r="I34" s="22">
         <v>3046.8377821329068</v>
       </c>
-      <c r="J34" s="23">
+      <c r="J34" s="22">
         <v>646.94595532097674</v>
       </c>
-      <c r="K34" s="22">
+      <c r="K34" s="21">
         <v>815.17882662845705</v>
       </c>
-      <c r="L34" s="8"/>
+      <c r="L34" s="7"/>
     </row>
     <row r="35" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A35" s="16">
+      <c r="A35" s="15">
         <v>43769</v>
       </c>
-      <c r="B35" s="26">
+      <c r="B35" s="25">
         <v>0.97238999999999998</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="20">
         <v>0.87426804992199714</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="21">
         <v>-152.08902262090442</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E35" s="22">
         <v>-156.40743181326877</v>
       </c>
-      <c r="F35" s="23">
+      <c r="F35" s="22">
         <v>2171.7295189299812</v>
       </c>
-      <c r="G35" s="23">
+      <c r="G35" s="22">
         <v>2111.7680669123242</v>
       </c>
-      <c r="H35" s="23">
+      <c r="H35" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I35" s="23">
+      <c r="I35" s="22">
         <v>3079.0359161616857</v>
       </c>
-      <c r="J35" s="23">
+      <c r="J35" s="22">
         <v>679.14408934975563</v>
       </c>
-      <c r="K35" s="22">
+      <c r="K35" s="21">
         <v>967.26784924936146</v>
       </c>
-      <c r="L35" s="8"/>
+      <c r="L35" s="7"/>
     </row>
     <row r="36" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A36" s="16">
+      <c r="A36" s="15">
         <v>43798</v>
       </c>
-      <c r="B36" s="26">
+      <c r="B36" s="25">
         <v>0.97728999999999999</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="20">
         <v>0.87806616314199404</v>
       </c>
-      <c r="D36" s="22">
+      <c r="D36" s="21">
         <v>-153.79694712990923</v>
       </c>
-      <c r="E36" s="23">
+      <c r="E36" s="22">
         <v>-157.37083888089433</v>
       </c>
-      <c r="F36" s="23">
+      <c r="F36" s="22">
         <v>2014.3586800490868</v>
       </c>
-      <c r="G36" s="23">
+      <c r="G36" s="22">
         <v>1968.6125944251721</v>
       </c>
-      <c r="H36" s="23">
+      <c r="H36" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I36" s="23">
+      <c r="I36" s="22">
         <v>3089.6773908044429</v>
       </c>
-      <c r="J36" s="23">
+      <c r="J36" s="22">
         <v>689.78556399251283</v>
       </c>
-      <c r="K36" s="22">
+      <c r="K36" s="21">
         <v>1121.0647963792708</v>
       </c>
-      <c r="L36" s="8"/>
+      <c r="L36" s="7"/>
       <c r="O36" s="3"/>
     </row>
     <row r="37" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A37" s="16">
+      <c r="A37" s="15">
         <v>43830</v>
       </c>
-      <c r="B37" s="26">
+      <c r="B37" s="25">
         <v>1.0407999999999999</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37" s="20">
         <v>0.8828432602339179</v>
       </c>
-      <c r="D37" s="22">
+      <c r="D37" s="21">
         <v>-244.83294663742717</v>
       </c>
-      <c r="E37" s="23">
+      <c r="E37" s="22">
         <v>-235.2353445786195</v>
       </c>
-      <c r="F37" s="23">
+      <c r="F37" s="22">
         <v>1779.1233354704673</v>
       </c>
-      <c r="G37" s="23">
+      <c r="G37" s="22">
         <v>1851.7115675576622</v>
       </c>
-      <c r="H37" s="23">
+      <c r="H37" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I37" s="23">
+      <c r="I37" s="22">
         <v>3217.6093105743603</v>
       </c>
-      <c r="J37" s="23">
+      <c r="J37" s="22">
         <v>817.71748376243022</v>
       </c>
-      <c r="K37" s="22">
+      <c r="K37" s="21">
         <v>1365.8977430166979</v>
       </c>
-      <c r="L37" s="8"/>
+      <c r="L37" s="7"/>
     </row>
     <row r="38" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A38" s="16">
+      <c r="A38" s="15">
         <v>43853</v>
       </c>
-      <c r="B38" s="26">
+      <c r="B38" s="25">
         <v>1.13632</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="20">
         <v>0.88820977142857116</v>
       </c>
-      <c r="D38" s="22">
+      <c r="D38" s="21">
         <v>-384.57085428571469</v>
       </c>
-      <c r="E38" s="23">
+      <c r="E38" s="22">
         <v>-338.43534768878015</v>
       </c>
-      <c r="F38" s="23">
+      <c r="F38" s="22">
         <v>1440.6879877816871</v>
       </c>
-      <c r="G38" s="23">
+      <c r="G38" s="22">
         <v>1637.0825742760867</v>
       </c>
-      <c r="H38" s="23">
+      <c r="H38" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I38" s="23">
+      <c r="I38" s="22">
         <v>3387.5511715784992</v>
       </c>
-      <c r="J38" s="23">
+      <c r="J38" s="22">
         <v>987.65934476656912</v>
       </c>
-      <c r="K38" s="22">
+      <c r="K38" s="21">
         <v>1750.4685973024125</v>
       </c>
-      <c r="L38" s="8"/>
+      <c r="L38" s="7"/>
     </row>
     <row r="39" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A39" s="16">
+      <c r="A39" s="15">
         <v>43889</v>
       </c>
-      <c r="B39" s="26">
+      <c r="B39" s="25">
         <v>1.2075199999999999</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39" s="20">
         <v>0.89720491666666646</v>
       </c>
-      <c r="D39" s="22">
+      <c r="D39" s="21">
         <v>-480.98837916666685</v>
       </c>
-      <c r="E39" s="23">
+      <c r="E39" s="22">
         <v>-398.32746386533296</v>
       </c>
-      <c r="F39" s="23">
+      <c r="F39" s="22">
         <v>1042.3605239163542</v>
       </c>
-      <c r="G39" s="23">
+      <c r="G39" s="22">
         <v>1258.6711798394758</v>
       </c>
-      <c r="H39" s="23">
+      <c r="H39" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I39" s="23">
+      <c r="I39" s="22">
         <v>3490.1281563085554</v>
       </c>
-      <c r="J39" s="23">
+      <c r="J39" s="22">
         <v>1090.2363294966253</v>
       </c>
-      <c r="K39" s="22">
+      <c r="K39" s="21">
         <v>2231.4569764690796</v>
       </c>
-      <c r="L39" s="8"/>
+      <c r="L39" s="7"/>
     </row>
     <row r="40" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A40" s="16">
+      <c r="A40" s="15">
         <v>43921</v>
       </c>
-      <c r="B40" s="26">
+      <c r="B40" s="25">
         <v>1.0721400000000001</v>
       </c>
-      <c r="C40" s="21">
+      <c r="C40" s="20">
         <v>0.90529318059299169</v>
       </c>
-      <c r="D40" s="22">
+      <c r="D40" s="21">
         <v>-258.61257008086301</v>
       </c>
-      <c r="E40" s="23">
+      <c r="E40" s="22">
         <v>-241.21156759458933</v>
       </c>
-      <c r="F40" s="23">
+      <c r="F40" s="22">
         <v>801.1489563217649</v>
       </c>
-      <c r="G40" s="23">
+      <c r="G40" s="22">
         <v>858.94384203081711</v>
       </c>
-      <c r="H40" s="23">
+      <c r="H40" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I40" s="23">
+      <c r="I40" s="22">
         <v>3349.0133885807595</v>
       </c>
-      <c r="J40" s="23">
+      <c r="J40" s="22">
         <v>949.12156176882945</v>
       </c>
-      <c r="K40" s="22">
+      <c r="K40" s="21">
         <v>2490.0695465499425</v>
       </c>
-      <c r="L40" s="8"/>
+      <c r="L40" s="7"/>
     </row>
     <row r="41" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A41" s="16">
+      <c r="A41" s="15">
         <v>43951</v>
       </c>
-      <c r="B41" s="26">
+      <c r="B41" s="25">
         <v>1.13618</v>
       </c>
-      <c r="C41" s="21">
+      <c r="C41" s="20">
         <v>0.91107858453473123</v>
       </c>
-      <c r="D41" s="22">
+      <c r="D41" s="21">
         <v>-348.90719397116652</v>
       </c>
-      <c r="E41" s="23">
+      <c r="E41" s="22">
         <v>-307.08795610833363</v>
       </c>
-      <c r="F41" s="23">
+      <c r="F41" s="22">
         <v>494.06100021343127</v>
       </c>
-      <c r="G41" s="23">
+      <c r="G41" s="22">
         <v>561.34222722249638</v>
       </c>
-      <c r="H41" s="23">
+      <c r="H41" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I41" s="23">
+      <c r="I41" s="22">
         <v>3400.3189677436058</v>
       </c>
-      <c r="J41" s="23">
+      <c r="J41" s="22">
         <v>1000.4271409316757</v>
       </c>
-      <c r="K41" s="22">
+      <c r="K41" s="21">
         <v>2838.9767405211091</v>
       </c>
-      <c r="L41" s="8"/>
+      <c r="L41" s="7"/>
     </row>
     <row r="42" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A42" s="16">
+      <c r="A42" s="15">
         <v>43980</v>
       </c>
-      <c r="B42" s="26">
+      <c r="B42" s="25">
         <v>1.12294</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="20">
         <v>0.91666642765685002</v>
       </c>
-      <c r="D42" s="22">
+      <c r="D42" s="21">
         <v>-319.72403713188254</v>
       </c>
-      <c r="E42" s="23">
+      <c r="E42" s="22">
         <v>-284.72049898648419</v>
       </c>
-      <c r="F42" s="23">
+      <c r="F42" s="22">
         <v>209.34050122694708</v>
       </c>
-      <c r="G42" s="23">
+      <c r="G42" s="22">
         <v>235.07682244778798</v>
       </c>
-      <c r="H42" s="23">
+      <c r="H42" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I42" s="23">
+      <c r="I42" s="22">
         <v>3393.7776001007796</v>
       </c>
-      <c r="J42" s="23">
+      <c r="J42" s="22">
         <v>993.88577328884958</v>
       </c>
-      <c r="K42" s="22">
+      <c r="K42" s="21">
         <v>3158.7007776529917</v>
       </c>
-      <c r="L42" s="8"/>
+      <c r="L42" s="7"/>
     </row>
     <row r="43" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A43" s="16">
+      <c r="A43" s="15">
         <v>44012</v>
       </c>
-      <c r="B43" s="26">
+      <c r="B43" s="25">
         <v>1.25214</v>
       </c>
-      <c r="C43" s="21">
+      <c r="C43" s="20">
         <v>0.92355369538077381</v>
       </c>
-      <c r="D43" s="22">
+      <c r="D43" s="21">
         <v>-262.12361520630952</v>
       </c>
-      <c r="E43" s="23">
+      <c r="E43" s="22">
         <v>-209.34050122694708</v>
       </c>
-      <c r="F43" s="23">
-        <v>0</v>
-      </c>
-      <c r="G43" s="23">
-        <v>0</v>
-      </c>
-      <c r="H43" s="23">
+      <c r="F43" s="22">
+        <v>0</v>
+      </c>
+      <c r="G43" s="22">
+        <v>0</v>
+      </c>
+      <c r="H43" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I43" s="23">
+      <c r="I43" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J43" s="23">
+      <c r="J43" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K43" s="22">
+      <c r="K43" s="21">
         <v>3420.824392859301</v>
       </c>
-      <c r="L43" s="8"/>
+      <c r="L43" s="7"/>
     </row>
     <row r="44" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A44" s="16">
+      <c r="A44" s="15">
         <v>44043</v>
       </c>
-      <c r="B44" s="26">
+      <c r="B44" s="25">
         <v>1.3561700000000001</v>
       </c>
-      <c r="C44" s="21">
+      <c r="C44" s="20">
         <v>0.93564675970873734</v>
       </c>
-      <c r="D44" s="22">
-        <v>0</v>
-      </c>
-      <c r="E44" s="23">
-        <v>0</v>
-      </c>
-      <c r="F44" s="23">
-        <v>0</v>
-      </c>
-      <c r="G44" s="23">
-        <v>0</v>
-      </c>
-      <c r="H44" s="23">
+      <c r="D44" s="21">
+        <v>0</v>
+      </c>
+      <c r="E44" s="22">
+        <v>0</v>
+      </c>
+      <c r="F44" s="22">
+        <v>0</v>
+      </c>
+      <c r="G44" s="22">
+        <v>0</v>
+      </c>
+      <c r="H44" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I44" s="23">
+      <c r="I44" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J44" s="23">
+      <c r="J44" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K44" s="22">
+      <c r="K44" s="21">
         <v>3420.824392859301</v>
       </c>
-      <c r="L44" s="8"/>
+      <c r="L44" s="7"/>
     </row>
     <row r="45" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A45" s="16">
+      <c r="A45" s="15">
         <v>44074</v>
       </c>
-      <c r="B45" s="26">
+      <c r="B45" s="25">
         <v>1.35833</v>
       </c>
-      <c r="C45" s="21">
+      <c r="C45" s="20">
         <v>0.9459795739644965</v>
       </c>
-      <c r="D45" s="22">
-        <v>0</v>
-      </c>
-      <c r="E45" s="23">
-        <v>0</v>
-      </c>
-      <c r="F45" s="23">
-        <v>0</v>
-      </c>
-      <c r="G45" s="23">
-        <v>0</v>
-      </c>
-      <c r="H45" s="23">
+      <c r="D45" s="21">
+        <v>0</v>
+      </c>
+      <c r="E45" s="22">
+        <v>0</v>
+      </c>
+      <c r="F45" s="22">
+        <v>0</v>
+      </c>
+      <c r="G45" s="22">
+        <v>0</v>
+      </c>
+      <c r="H45" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I45" s="23">
+      <c r="I45" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J45" s="23">
+      <c r="J45" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K45" s="22">
+      <c r="K45" s="21">
         <v>3420.824392859301</v>
       </c>
-      <c r="L45" s="8"/>
+      <c r="L45" s="7"/>
     </row>
     <row r="46" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A46" s="16">
+      <c r="A46" s="15">
         <v>44104</v>
       </c>
-      <c r="B46" s="26">
+      <c r="B46" s="25">
         <v>1.2336199999999999</v>
       </c>
-      <c r="C46" s="21">
+      <c r="C46" s="20">
         <v>0.95444417531718506</v>
       </c>
-      <c r="D46" s="22">
-        <v>0</v>
-      </c>
-      <c r="E46" s="23">
-        <v>0</v>
-      </c>
-      <c r="F46" s="23">
-        <v>0</v>
-      </c>
-      <c r="G46" s="23">
-        <v>0</v>
-      </c>
-      <c r="H46" s="23">
+      <c r="D46" s="21">
+        <v>0</v>
+      </c>
+      <c r="E46" s="22">
+        <v>0</v>
+      </c>
+      <c r="F46" s="22">
+        <v>0</v>
+      </c>
+      <c r="G46" s="22">
+        <v>0</v>
+      </c>
+      <c r="H46" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I46" s="23">
+      <c r="I46" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J46" s="23">
+      <c r="J46" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K46" s="22">
+      <c r="K46" s="21">
         <v>3420.824392859301</v>
       </c>
-      <c r="L46" s="8"/>
+      <c r="L46" s="7"/>
     </row>
     <row r="47" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A47" s="16">
+      <c r="A47" s="15">
         <v>44134</v>
       </c>
-      <c r="B47" s="26">
+      <c r="B47" s="25">
         <v>1.2367600000000001</v>
       </c>
-      <c r="C47" s="21">
+      <c r="C47" s="20">
         <v>0.96014630804076961</v>
       </c>
-      <c r="D47" s="22">
-        <v>0</v>
-      </c>
-      <c r="E47" s="23">
-        <v>0</v>
-      </c>
-      <c r="F47" s="23">
-        <v>0</v>
-      </c>
-      <c r="G47" s="23">
-        <v>0</v>
-      </c>
-      <c r="H47" s="23">
+      <c r="D47" s="21">
+        <v>0</v>
+      </c>
+      <c r="E47" s="22">
+        <v>0</v>
+      </c>
+      <c r="F47" s="22">
+        <v>0</v>
+      </c>
+      <c r="G47" s="22">
+        <v>0</v>
+      </c>
+      <c r="H47" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I47" s="23">
+      <c r="I47" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J47" s="23">
+      <c r="J47" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K47" s="22">
+      <c r="K47" s="21">
         <v>3420.824392859301</v>
       </c>
-      <c r="L47" s="8"/>
+      <c r="L47" s="7"/>
     </row>
     <row r="48" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A48" s="16">
+      <c r="A48" s="15">
         <v>44165</v>
       </c>
-      <c r="B48" s="26">
+      <c r="B48" s="25">
         <v>1.23942</v>
       </c>
-      <c r="C48" s="21">
+      <c r="C48" s="20">
         <v>0.96710720132743311</v>
       </c>
-      <c r="D48" s="22">
-        <v>0</v>
-      </c>
-      <c r="E48" s="23">
-        <v>0</v>
-      </c>
-      <c r="F48" s="23">
-        <v>0</v>
-      </c>
-      <c r="G48" s="23">
-        <v>0</v>
-      </c>
-      <c r="H48" s="23">
+      <c r="D48" s="21">
+        <v>0</v>
+      </c>
+      <c r="E48" s="22">
+        <v>0</v>
+      </c>
+      <c r="F48" s="22">
+        <v>0</v>
+      </c>
+      <c r="G48" s="22">
+        <v>0</v>
+      </c>
+      <c r="H48" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I48" s="23">
+      <c r="I48" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J48" s="23">
+      <c r="J48" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K48" s="22">
+      <c r="K48" s="21">
         <v>3420.824392859301</v>
       </c>
-      <c r="L48" s="8"/>
+      <c r="L48" s="7"/>
     </row>
     <row r="49" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A49" s="16">
+      <c r="A49" s="15">
         <v>44196</v>
       </c>
-      <c r="B49" s="26">
+      <c r="B49" s="25">
         <v>1.2531099999999999</v>
       </c>
-      <c r="C49" s="21">
+      <c r="C49" s="20">
         <v>0.97392800431499404</v>
       </c>
-      <c r="D49" s="22">
-        <v>0</v>
-      </c>
-      <c r="E49" s="23">
-        <v>0</v>
-      </c>
-      <c r="F49" s="23">
-        <v>0</v>
-      </c>
-      <c r="G49" s="23">
-        <v>0</v>
-      </c>
-      <c r="H49" s="23">
+      <c r="D49" s="21">
+        <v>0</v>
+      </c>
+      <c r="E49" s="22">
+        <v>0</v>
+      </c>
+      <c r="F49" s="22">
+        <v>0</v>
+      </c>
+      <c r="G49" s="22">
+        <v>0</v>
+      </c>
+      <c r="H49" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I49" s="23">
+      <c r="I49" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J49" s="23">
+      <c r="J49" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K49" s="22">
+      <c r="K49" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A50" s="16">
+      <c r="A50" s="15">
         <v>44225</v>
       </c>
-      <c r="B50" s="26">
+      <c r="B50" s="25">
         <v>1.2375</v>
       </c>
-      <c r="C50" s="21">
+      <c r="C50" s="20">
         <v>0.98019564941921822</v>
       </c>
-      <c r="D50" s="22">
-        <v>0</v>
-      </c>
-      <c r="E50" s="23">
-        <v>0</v>
-      </c>
-      <c r="F50" s="23">
-        <v>0</v>
-      </c>
-      <c r="G50" s="23">
-        <v>0</v>
-      </c>
-      <c r="H50" s="23">
+      <c r="D50" s="21">
+        <v>0</v>
+      </c>
+      <c r="E50" s="22">
+        <v>0</v>
+      </c>
+      <c r="F50" s="22">
+        <v>0</v>
+      </c>
+      <c r="G50" s="22">
+        <v>0</v>
+      </c>
+      <c r="H50" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I50" s="23">
+      <c r="I50" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J50" s="23">
+      <c r="J50" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K50" s="22">
+      <c r="K50" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A51" s="16">
+      <c r="A51" s="15">
         <v>44253</v>
       </c>
-      <c r="B51" s="26">
+      <c r="B51" s="25">
         <v>1.23967</v>
       </c>
-      <c r="C51" s="21">
+      <c r="C51" s="20">
         <v>0.984757931392931</v>
       </c>
-      <c r="D51" s="22">
-        <v>0</v>
-      </c>
-      <c r="E51" s="23">
-        <v>0</v>
-      </c>
-      <c r="F51" s="23">
-        <v>0</v>
-      </c>
-      <c r="G51" s="23">
-        <v>0</v>
-      </c>
-      <c r="H51" s="23">
+      <c r="D51" s="21">
+        <v>0</v>
+      </c>
+      <c r="E51" s="22">
+        <v>0</v>
+      </c>
+      <c r="F51" s="22">
+        <v>0</v>
+      </c>
+      <c r="G51" s="22">
+        <v>0</v>
+      </c>
+      <c r="H51" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I51" s="23">
+      <c r="I51" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J51" s="23">
+      <c r="J51" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K51" s="22">
+      <c r="K51" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A52" s="16">
+      <c r="A52" s="15">
         <v>44286</v>
       </c>
-      <c r="B52" s="26">
+      <c r="B52" s="25">
         <v>1.15709</v>
       </c>
-      <c r="C52" s="21">
+      <c r="C52" s="20">
         <v>0.98919197969543116</v>
       </c>
-      <c r="D52" s="22">
-        <v>0</v>
-      </c>
-      <c r="E52" s="23">
-        <v>0</v>
-      </c>
-      <c r="F52" s="23">
-        <v>0</v>
-      </c>
-      <c r="G52" s="23">
-        <v>0</v>
-      </c>
-      <c r="H52" s="23">
+      <c r="D52" s="21">
+        <v>0</v>
+      </c>
+      <c r="E52" s="22">
+        <v>0</v>
+      </c>
+      <c r="F52" s="22">
+        <v>0</v>
+      </c>
+      <c r="G52" s="22">
+        <v>0</v>
+      </c>
+      <c r="H52" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I52" s="23">
+      <c r="I52" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J52" s="23">
+      <c r="J52" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K52" s="22">
+      <c r="K52" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A53" s="16">
+      <c r="A53" s="15">
         <v>44316</v>
       </c>
-      <c r="B53" s="26">
+      <c r="B53" s="25">
         <v>1.17998</v>
       </c>
-      <c r="C53" s="21">
+      <c r="C53" s="20">
         <v>0.99311644135188804</v>
       </c>
-      <c r="D53" s="22">
-        <v>0</v>
-      </c>
-      <c r="E53" s="23">
-        <v>0</v>
-      </c>
-      <c r="F53" s="23">
-        <v>0</v>
-      </c>
-      <c r="G53" s="23">
-        <v>0</v>
-      </c>
-      <c r="H53" s="23">
+      <c r="D53" s="21">
+        <v>0</v>
+      </c>
+      <c r="E53" s="22">
+        <v>0</v>
+      </c>
+      <c r="F53" s="22">
+        <v>0</v>
+      </c>
+      <c r="G53" s="22">
+        <v>0</v>
+      </c>
+      <c r="H53" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I53" s="23">
+      <c r="I53" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J53" s="23">
+      <c r="J53" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K53" s="22">
+      <c r="K53" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A54" s="16">
+      <c r="A54" s="15">
         <v>44347</v>
       </c>
-      <c r="B54" s="26">
+      <c r="B54" s="25">
         <v>1.2623</v>
       </c>
-      <c r="C54" s="21">
+      <c r="C54" s="20">
         <v>0.99678004882812443</v>
       </c>
-      <c r="D54" s="22">
-        <v>0</v>
-      </c>
-      <c r="E54" s="23">
-        <v>0</v>
-      </c>
-      <c r="F54" s="23">
-        <v>0</v>
-      </c>
-      <c r="G54" s="23">
-        <v>0</v>
-      </c>
-      <c r="H54" s="23">
+      <c r="D54" s="21">
+        <v>0</v>
+      </c>
+      <c r="E54" s="22">
+        <v>0</v>
+      </c>
+      <c r="F54" s="22">
+        <v>0</v>
+      </c>
+      <c r="G54" s="22">
+        <v>0</v>
+      </c>
+      <c r="H54" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I54" s="23">
+      <c r="I54" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J54" s="23">
+      <c r="J54" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K54" s="22">
+      <c r="K54" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A55" s="16">
+      <c r="A55" s="15">
         <v>44377</v>
       </c>
-      <c r="B55" s="26">
+      <c r="B55" s="25">
         <v>1.33643</v>
       </c>
-      <c r="C55" s="21">
+      <c r="C55" s="20">
         <v>1.0025140478468895</v>
       </c>
-      <c r="D55" s="22">
-        <v>0</v>
-      </c>
-      <c r="E55" s="23">
-        <v>0</v>
-      </c>
-      <c r="F55" s="23">
-        <v>0</v>
-      </c>
-      <c r="G55" s="23">
-        <v>0</v>
-      </c>
-      <c r="H55" s="23">
+      <c r="D55" s="21">
+        <v>0</v>
+      </c>
+      <c r="E55" s="22">
+        <v>0</v>
+      </c>
+      <c r="F55" s="22">
+        <v>0</v>
+      </c>
+      <c r="G55" s="22">
+        <v>0</v>
+      </c>
+      <c r="H55" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I55" s="23">
+      <c r="I55" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J55" s="23">
+      <c r="J55" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K55" s="22">
+      <c r="K55" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A56" s="16">
+      <c r="A56" s="15">
         <v>44407</v>
       </c>
-      <c r="B56" s="26">
+      <c r="B56" s="25">
         <v>1.28626</v>
       </c>
-      <c r="C56" s="21">
+      <c r="C56" s="20">
         <v>1.0086370852858479</v>
       </c>
-      <c r="D56" s="22">
-        <v>0</v>
-      </c>
-      <c r="E56" s="23">
-        <v>0</v>
-      </c>
-      <c r="F56" s="23">
-        <v>0</v>
-      </c>
-      <c r="G56" s="23">
-        <v>0</v>
-      </c>
-      <c r="H56" s="23">
+      <c r="D56" s="21">
+        <v>0</v>
+      </c>
+      <c r="E56" s="22">
+        <v>0</v>
+      </c>
+      <c r="F56" s="22">
+        <v>0</v>
+      </c>
+      <c r="G56" s="22">
+        <v>0</v>
+      </c>
+      <c r="H56" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I56" s="23">
+      <c r="I56" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J56" s="23">
+      <c r="J56" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K56" s="22">
+      <c r="K56" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A57" s="16">
+      <c r="A57" s="15">
         <v>44439</v>
       </c>
-      <c r="B57" s="26">
+      <c r="B57" s="25">
         <v>1.2177899999999999</v>
       </c>
-      <c r="C57" s="21">
+      <c r="C57" s="20">
         <v>1.0138825528007342</v>
       </c>
-      <c r="D57" s="22">
-        <v>0</v>
-      </c>
-      <c r="E57" s="23">
-        <v>0</v>
-      </c>
-      <c r="F57" s="23">
-        <v>0</v>
-      </c>
-      <c r="G57" s="23">
-        <v>0</v>
-      </c>
-      <c r="H57" s="23">
+      <c r="D57" s="21">
+        <v>0</v>
+      </c>
+      <c r="E57" s="22">
+        <v>0</v>
+      </c>
+      <c r="F57" s="22">
+        <v>0</v>
+      </c>
+      <c r="G57" s="22">
+        <v>0</v>
+      </c>
+      <c r="H57" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I57" s="23">
+      <c r="I57" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J57" s="23">
+      <c r="J57" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K57" s="22">
+      <c r="K57" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A58" s="16">
+      <c r="A58" s="15">
         <v>44469</v>
       </c>
-      <c r="B58" s="26">
+      <c r="B58" s="25">
         <v>1.20347</v>
       </c>
-      <c r="C58" s="21">
+      <c r="C58" s="20">
         <v>1.0177556176735794</v>
       </c>
-      <c r="D58" s="22">
-        <v>0</v>
-      </c>
-      <c r="E58" s="23">
-        <v>0</v>
-      </c>
-      <c r="F58" s="23">
-        <v>0</v>
-      </c>
-      <c r="G58" s="23">
-        <v>0</v>
-      </c>
-      <c r="H58" s="23">
+      <c r="D58" s="21">
+        <v>0</v>
+      </c>
+      <c r="E58" s="22">
+        <v>0</v>
+      </c>
+      <c r="F58" s="22">
+        <v>0</v>
+      </c>
+      <c r="G58" s="22">
+        <v>0</v>
+      </c>
+      <c r="H58" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I58" s="23">
+      <c r="I58" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J58" s="23">
+      <c r="J58" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K58" s="22">
+      <c r="K58" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A59" s="16">
+      <c r="A59" s="15">
         <v>44498</v>
       </c>
-      <c r="B59" s="26">
+      <c r="B59" s="25">
         <v>1.1970999999999998</v>
       </c>
-      <c r="C59" s="21">
+      <c r="C59" s="20">
         <v>1.0204018311111105</v>
       </c>
-      <c r="D59" s="22">
-        <v>0</v>
-      </c>
-      <c r="E59" s="23">
-        <v>0</v>
-      </c>
-      <c r="F59" s="23">
-        <v>0</v>
-      </c>
-      <c r="G59" s="23">
-        <v>0</v>
-      </c>
-      <c r="H59" s="23">
+      <c r="D59" s="21">
+        <v>0</v>
+      </c>
+      <c r="E59" s="22">
+        <v>0</v>
+      </c>
+      <c r="F59" s="22">
+        <v>0</v>
+      </c>
+      <c r="G59" s="22">
+        <v>0</v>
+      </c>
+      <c r="H59" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I59" s="23">
+      <c r="I59" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J59" s="23">
+      <c r="J59" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K59" s="22">
+      <c r="K59" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A60" s="16">
+      <c r="A60" s="15">
         <v>44530</v>
       </c>
-      <c r="B60" s="26">
+      <c r="B60" s="25">
         <v>1.23373</v>
       </c>
-      <c r="C60" s="21">
+      <c r="C60" s="20">
         <v>1.0245603661726232</v>
       </c>
-      <c r="D60" s="22">
-        <v>0</v>
-      </c>
-      <c r="E60" s="23">
-        <v>0</v>
-      </c>
-      <c r="F60" s="23">
-        <v>0</v>
-      </c>
-      <c r="G60" s="23">
-        <v>0</v>
-      </c>
-      <c r="H60" s="23">
+      <c r="D60" s="21">
+        <v>0</v>
+      </c>
+      <c r="E60" s="22">
+        <v>0</v>
+      </c>
+      <c r="F60" s="22">
+        <v>0</v>
+      </c>
+      <c r="G60" s="22">
+        <v>0</v>
+      </c>
+      <c r="H60" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I60" s="23">
+      <c r="I60" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J60" s="23">
+      <c r="J60" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K60" s="22">
+      <c r="K60" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A61" s="16">
+      <c r="A61" s="15">
         <v>44561</v>
       </c>
-      <c r="B61" s="26">
+      <c r="B61" s="25">
         <v>1.2554100000000001</v>
       </c>
-      <c r="C61" s="21">
+      <c r="C61" s="20">
         <v>1.0289409572649562</v>
       </c>
-      <c r="D61" s="22">
-        <v>0</v>
-      </c>
-      <c r="E61" s="23">
-        <v>0</v>
-      </c>
-      <c r="F61" s="23">
-        <v>0</v>
-      </c>
-      <c r="G61" s="23">
-        <v>0</v>
-      </c>
-      <c r="H61" s="23">
+      <c r="D61" s="21">
+        <v>0</v>
+      </c>
+      <c r="E61" s="22">
+        <v>0</v>
+      </c>
+      <c r="F61" s="22">
+        <v>0</v>
+      </c>
+      <c r="G61" s="22">
+        <v>0</v>
+      </c>
+      <c r="H61" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I61" s="23">
+      <c r="I61" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J61" s="23">
+      <c r="J61" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K61" s="22">
+      <c r="K61" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A62" s="16">
+      <c r="A62" s="15">
         <v>44589</v>
       </c>
-      <c r="B62" s="26">
+      <c r="B62" s="25">
         <v>1.11076</v>
       </c>
-      <c r="C62" s="21">
+      <c r="C62" s="20">
         <v>1.0316563299663286</v>
       </c>
-      <c r="D62" s="22">
-        <v>0</v>
-      </c>
-      <c r="E62" s="23">
-        <v>0</v>
-      </c>
-      <c r="F62" s="23">
-        <v>0</v>
-      </c>
-      <c r="G62" s="23">
-        <v>0</v>
-      </c>
-      <c r="H62" s="23">
+      <c r="D62" s="21">
+        <v>0</v>
+      </c>
+      <c r="E62" s="22">
+        <v>0</v>
+      </c>
+      <c r="F62" s="22">
+        <v>0</v>
+      </c>
+      <c r="G62" s="22">
+        <v>0</v>
+      </c>
+      <c r="H62" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I62" s="23">
+      <c r="I62" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J62" s="23">
+      <c r="J62" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K62" s="22">
+      <c r="K62" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A63" s="16">
+      <c r="A63" s="15">
         <v>44620</v>
       </c>
-      <c r="B63" s="26">
+      <c r="B63" s="25">
         <v>1.15177</v>
       </c>
-      <c r="C63" s="21">
+      <c r="C63" s="20">
         <v>1.0331931727574739</v>
       </c>
-      <c r="D63" s="22">
-        <v>0</v>
-      </c>
-      <c r="E63" s="23">
-        <v>0</v>
-      </c>
-      <c r="F63" s="23">
-        <v>0</v>
-      </c>
-      <c r="G63" s="23">
-        <v>0</v>
-      </c>
-      <c r="H63" s="23">
+      <c r="D63" s="21">
+        <v>0</v>
+      </c>
+      <c r="E63" s="22">
+        <v>0</v>
+      </c>
+      <c r="F63" s="22">
+        <v>0</v>
+      </c>
+      <c r="G63" s="22">
+        <v>0</v>
+      </c>
+      <c r="H63" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I63" s="23">
+      <c r="I63" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J63" s="23">
+      <c r="J63" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K63" s="22">
+      <c r="K63" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A64" s="16">
+      <c r="A64" s="15">
         <v>44651</v>
       </c>
-      <c r="B64" s="26">
+      <c r="B64" s="25">
         <v>1.0468499999999998</v>
       </c>
-      <c r="C64" s="21">
+      <c r="C64" s="20">
         <v>1.0340066340668286</v>
       </c>
-      <c r="D64" s="22">
-        <v>0</v>
-      </c>
-      <c r="E64" s="23">
-        <v>0</v>
-      </c>
-      <c r="F64" s="23">
-        <v>0</v>
-      </c>
-      <c r="G64" s="23">
-        <v>0</v>
-      </c>
-      <c r="H64" s="23">
+      <c r="D64" s="21">
+        <v>0</v>
+      </c>
+      <c r="E64" s="22">
+        <v>0</v>
+      </c>
+      <c r="F64" s="22">
+        <v>0</v>
+      </c>
+      <c r="G64" s="22">
+        <v>0</v>
+      </c>
+      <c r="H64" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I64" s="23">
+      <c r="I64" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J64" s="23">
+      <c r="J64" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K64" s="22">
+      <c r="K64" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A65" s="16">
+      <c r="A65" s="15">
         <v>44680</v>
       </c>
-      <c r="B65" s="26">
+      <c r="B65" s="25">
         <v>0.83169999999999999</v>
       </c>
-      <c r="C65" s="21">
+      <c r="C65" s="20">
         <v>1.032387961476724</v>
       </c>
-      <c r="D65" s="22">
+      <c r="D65" s="21">
         <v>311.06634028892216</v>
       </c>
-      <c r="E65" s="23">
+      <c r="E65" s="22">
         <v>374.01267318615146</v>
       </c>
-      <c r="F65" s="23">
+      <c r="F65" s="22">
         <v>374.01267318615146</v>
       </c>
-      <c r="G65" s="23">
+      <c r="G65" s="22">
         <v>311.06634028892216</v>
       </c>
-      <c r="H65" s="23">
+      <c r="H65" s="22">
         <v>2710.9581671008523</v>
       </c>
-      <c r="I65" s="23">
+      <c r="I65" s="22">
         <v>3731.8907331482233</v>
       </c>
-      <c r="J65" s="23">
+      <c r="J65" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K65" s="22">
+      <c r="K65" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A66" s="16">
+      <c r="A66" s="15">
         <v>44712</v>
       </c>
-      <c r="B66" s="26">
+      <c r="B66" s="25">
         <v>0.90644000000000002</v>
       </c>
-      <c r="C66" s="21">
+      <c r="C66" s="20">
         <v>1.0300312806324092</v>
       </c>
-      <c r="D66" s="22">
+      <c r="D66" s="21">
         <v>191.56648498023426</v>
       </c>
-      <c r="E66" s="23">
+      <c r="E66" s="22">
         <v>211.3393991662264</v>
       </c>
-      <c r="F66" s="23">
+      <c r="F66" s="22">
         <v>585.35207235237783</v>
       </c>
-      <c r="G66" s="23">
+      <c r="G66" s="22">
         <v>530.58653246308938</v>
       </c>
-      <c r="H66" s="23">
+      <c r="H66" s="22">
         <v>2902.5246520810865</v>
       </c>
-      <c r="I66" s="23">
+      <c r="I66" s="22">
         <v>3951.4109253223905</v>
       </c>
-      <c r="J66" s="23">
+      <c r="J66" s="22">
         <v>1048.886273241304</v>
       </c>
-      <c r="K66" s="22">
+      <c r="K66" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A67" s="16">
+      <c r="A67" s="15">
         <v>44742</v>
       </c>
-      <c r="B67" s="26">
+      <c r="B67" s="25">
         <v>0.99066999999999994</v>
       </c>
-      <c r="C67" s="21">
+      <c r="C67" s="20">
         <v>1.0286842768273694</v>
       </c>
-      <c r="D67" s="22">
+      <c r="D67" s="21">
         <v>58.922129082422671</v>
       </c>
-      <c r="E67" s="23">
+      <c r="E67" s="22">
         <v>59.477049958535815</v>
       </c>
-      <c r="F67" s="23">
+      <c r="F67" s="22">
         <v>644.82912231091359</v>
       </c>
-      <c r="G67" s="23">
+      <c r="G67" s="22">
         <v>638.81286659975274</v>
       </c>
-      <c r="H67" s="23">
+      <c r="H67" s="22">
         <v>2961.4467811635091</v>
       </c>
-      <c r="I67" s="23">
+      <c r="I67" s="22">
         <v>4059.6372594590539</v>
       </c>
-      <c r="J67" s="23">
+      <c r="J67" s="22">
         <v>1098.1904782955448</v>
       </c>
-      <c r="K67" s="22">
+      <c r="K67" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A68" s="16">
+      <c r="A68" s="15">
         <v>44771</v>
       </c>
-      <c r="B68" s="26">
+      <c r="B68" s="25">
         <v>1.01267</v>
       </c>
-      <c r="C68" s="21">
+      <c r="C68" s="20">
         <v>1.0278637413924998</v>
       </c>
-      <c r="D68" s="22">
+      <c r="D68" s="21">
         <v>23.550299158374767</v>
       </c>
-      <c r="E68" s="23">
+      <c r="E68" s="22">
         <v>23.255650071962997</v>
       </c>
-      <c r="F68" s="23">
+      <c r="F68" s="22">
         <v>668.08477238287662</v>
       </c>
-      <c r="G68" s="23">
+      <c r="G68" s="22">
         <v>676.5494064489676</v>
       </c>
-      <c r="H68" s="23">
+      <c r="H68" s="22">
         <v>2984.9970803218839</v>
       </c>
-      <c r="I68" s="23">
+      <c r="I68" s="22">
         <v>4097.3737993082686</v>
       </c>
-      <c r="J68" s="23">
+      <c r="J68" s="22">
         <v>1112.3767189863847</v>
       </c>
-      <c r="K68" s="22">
+      <c r="K68" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A69" s="16">
+      <c r="A69" s="15">
         <v>44804</v>
       </c>
-      <c r="B69" s="26">
+      <c r="B69" s="25">
         <v>0.95750000000000002</v>
       </c>
-      <c r="C69" s="21">
+      <c r="C69" s="20">
         <v>1.0277413007518783</v>
       </c>
-      <c r="D69" s="22">
+      <c r="D69" s="21">
         <v>108.87401616541135</v>
       </c>
-      <c r="E69" s="23">
+      <c r="E69" s="22">
         <v>113.70654429807973</v>
       </c>
-      <c r="F69" s="23">
+      <c r="F69" s="22">
         <v>781.79131668095636</v>
       </c>
-      <c r="G69" s="23">
+      <c r="G69" s="22">
         <v>748.56518572201571</v>
       </c>
-      <c r="H69" s="23">
+      <c r="H69" s="22">
         <v>3093.8710964872953</v>
       </c>
-      <c r="I69" s="23">
+      <c r="I69" s="22">
         <v>4169.3895785813165</v>
       </c>
-      <c r="J69" s="23">
+      <c r="J69" s="22">
         <v>1075.5184820940212</v>
       </c>
-      <c r="K69" s="22">
+      <c r="K69" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A70" s="16">
+      <c r="A70" s="15">
         <v>44834</v>
       </c>
-      <c r="B70" s="26">
+      <c r="B70" s="25">
         <v>0.85887999999999998</v>
       </c>
-      <c r="C70" s="21">
+      <c r="C70" s="20">
         <v>1.0261969874167267</v>
       </c>
-      <c r="D70" s="22">
+      <c r="D70" s="21">
         <v>259.34133049592646</v>
       </c>
-      <c r="E70" s="23">
+      <c r="E70" s="22">
         <v>301.95292764521992</v>
       </c>
-      <c r="F70" s="23">
+      <c r="F70" s="22">
         <v>1083.7442443261762</v>
       </c>
-      <c r="G70" s="23">
+      <c r="G70" s="22">
         <v>930.80625656686618</v>
       </c>
-      <c r="H70" s="23">
+      <c r="H70" s="22">
         <v>3353.2124269832216</v>
       </c>
-      <c r="I70" s="23">
+      <c r="I70" s="22">
         <v>4351.6306494261671</v>
       </c>
-      <c r="J70" s="23">
+      <c r="J70" s="22">
         <v>998.41822244294553</v>
       </c>
-      <c r="K70" s="22">
+      <c r="K70" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A71" s="16">
+      <c r="A71" s="15">
         <v>44865</v>
       </c>
-      <c r="B71" s="26">
+      <c r="B71" s="25">
         <v>0.96957000000000004</v>
       </c>
-      <c r="C71" s="21">
+      <c r="C71" s="20">
         <v>1.0250083101682501</v>
       </c>
-      <c r="D71" s="22">
+      <c r="D71" s="21">
         <v>85.929380760787609</v>
       </c>
-      <c r="E71" s="23">
+      <c r="E71" s="22">
         <v>88.626278412891907</v>
       </c>
-      <c r="F71" s="23">
+      <c r="F71" s="22">
         <v>1172.3705227390681</v>
       </c>
-      <c r="G71" s="23">
+      <c r="G71" s="22">
         <v>1136.6952877321182</v>
       </c>
-      <c r="H71" s="23">
+      <c r="H71" s="22">
         <v>3439.1418077440094</v>
       </c>
-      <c r="I71" s="23">
+      <c r="I71" s="22">
         <v>4557.5196805914193</v>
       </c>
-      <c r="J71" s="23">
+      <c r="J71" s="22">
         <v>1118.3778728474099</v>
       </c>
-      <c r="K71" s="22">
+      <c r="K71" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A72" s="16">
+      <c r="A72" s="15">
         <v>44895</v>
       </c>
-      <c r="B72" s="26">
+      <c r="B72" s="25">
         <v>0.99405999999999994</v>
       </c>
-      <c r="C72" s="21">
+      <c r="C72" s="20">
         <v>1.0247448956083498</v>
       </c>
-      <c r="D72" s="22">
+      <c r="D72" s="21">
         <v>47.561588192942281</v>
       </c>
-      <c r="E72" s="23">
+      <c r="E72" s="22">
         <v>47.845792198601977</v>
       </c>
-      <c r="F72" s="23">
+      <c r="F72" s="22">
         <v>1220.2163149376699</v>
       </c>
-      <c r="G72" s="23">
+      <c r="G72" s="22">
         <v>1212.9682300269401</v>
       </c>
-      <c r="H72" s="23">
+      <c r="H72" s="22">
         <v>3486.7033959369519</v>
       </c>
-      <c r="I72" s="23">
+      <c r="I72" s="22">
         <v>4633.7926228862416</v>
       </c>
-      <c r="J72" s="23">
+      <c r="J72" s="22">
         <v>1147.0892269492897</v>
       </c>
-      <c r="K72" s="22">
+      <c r="K72" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A73" s="16">
+      <c r="A73" s="15">
         <v>44925</v>
       </c>
-      <c r="B73" s="26">
+      <c r="B73" s="25">
         <v>0.95635000000000003</v>
       </c>
-      <c r="C73" s="21">
+      <c r="C73" s="20">
         <v>1.0242041105598856</v>
       </c>
-      <c r="D73" s="22">
+      <c r="D73" s="21">
         <v>105.1738713678226</v>
       </c>
-      <c r="E73" s="23">
+      <c r="E73" s="22">
         <v>109.97424726075452</v>
       </c>
-      <c r="F73" s="23">
+      <c r="F73" s="22">
         <v>1330.1905621984245</v>
       </c>
-      <c r="G73" s="23">
+      <c r="G73" s="22">
         <v>1272.1277441584632</v>
       </c>
-      <c r="H73" s="23">
+      <c r="H73" s="22">
         <v>3591.8772673047747</v>
       </c>
-      <c r="I73" s="23">
+      <c r="I73" s="22">
         <v>4692.9521370177645</v>
       </c>
-      <c r="J73" s="23">
+      <c r="J73" s="22">
         <v>1101.0748697129898</v>
       </c>
-      <c r="K73" s="22">
+      <c r="K73" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A74" s="16">
+      <c r="A74" s="15">
         <v>44957</v>
       </c>
-      <c r="B74" s="26">
+      <c r="B74" s="25">
         <v>1.08087</v>
       </c>
-      <c r="C74" s="21">
+      <c r="C74" s="20">
         <v>1.0241600981079177</v>
       </c>
-      <c r="D74" s="22">
+      <c r="D74" s="21">
         <v>-87.900347932727485</v>
       </c>
-      <c r="E74" s="23">
+      <c r="E74" s="22">
         <v>-81.323700290254592</v>
       </c>
-      <c r="F74" s="23">
+      <c r="F74" s="22">
         <v>1248.8668619081698</v>
       </c>
-      <c r="G74" s="23">
+      <c r="G74" s="22">
         <v>1349.8627250306834</v>
       </c>
-      <c r="H74" s="23">
+      <c r="H74" s="22">
         <v>3591.8772673047747</v>
       </c>
-      <c r="I74" s="23">
+      <c r="I74" s="22">
         <v>4858.5874658227121</v>
       </c>
-      <c r="J74" s="23">
+      <c r="J74" s="22">
         <v>1266.7101985179374</v>
       </c>
-      <c r="K74" s="22">
+      <c r="K74" s="21">
         <v>3508.7247407920286</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A75" s="16">
+      <c r="A75" s="15">
         <v>44985</v>
       </c>
-      <c r="B75" s="26">
+      <c r="B75" s="25">
         <v>1.16859</v>
       </c>
-      <c r="C75" s="21">
+      <c r="C75" s="20">
         <v>1.0261586247408419</v>
       </c>
-      <c r="D75" s="22">
+      <c r="D75" s="21">
         <v>-220.76863165169516</v>
       </c>
-      <c r="E75" s="23">
+      <c r="E75" s="22">
         <v>-188.91880954970961</v>
       </c>
-      <c r="F75" s="23">
+      <c r="F75" s="22">
         <v>1059.9480523584602</v>
       </c>
-      <c r="G75" s="23">
+      <c r="G75" s="22">
         <v>1238.6446945055732</v>
       </c>
-      <c r="H75" s="23">
+      <c r="H75" s="22">
         <v>3591.8772673047747</v>
       </c>
-      <c r="I75" s="23">
+      <c r="I75" s="22">
         <v>4968.1380669492974</v>
       </c>
-      <c r="J75" s="23">
+      <c r="J75" s="22">
         <v>1376.2607996445226</v>
       </c>
-      <c r="K75" s="22">
+      <c r="K75" s="21">
         <v>3729.4933724437237</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A76" s="16">
+      <c r="A76" s="15">
         <v>45016</v>
       </c>
-      <c r="B76" s="26">
+      <c r="B76" s="25">
         <v>1.2989900000000001</v>
       </c>
-      <c r="C76" s="21">
+      <c r="C76" s="20">
         <v>1.0293158435374137</v>
       </c>
-      <c r="D76" s="22">
+      <c r="D76" s="21">
         <v>-417.99494251700895</v>
       </c>
-      <c r="E76" s="23">
+      <c r="E76" s="22">
         <v>-321.78457302751286</v>
       </c>
-      <c r="F76" s="23">
+      <c r="F76" s="22">
         <v>738.16347933094744</v>
       </c>
-      <c r="G76" s="23">
+      <c r="G76" s="22">
         <v>958.86697801610751</v>
       </c>
-      <c r="H76" s="23">
+      <c r="H76" s="22">
         <v>3591.8772673047747</v>
       </c>
-      <c r="I76" s="23">
+      <c r="I76" s="22">
         <v>5106.3552929768402</v>
       </c>
-      <c r="J76" s="23">
+      <c r="J76" s="22">
         <v>1514.4780256720655</v>
       </c>
-      <c r="K76" s="22">
+      <c r="K76" s="21">
         <v>4147.4883149607331</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A77" s="16">
+      <c r="A77" s="15">
         <v>45044</v>
       </c>
-      <c r="B77" s="26">
+      <c r="B77" s="25">
         <v>1.22841</v>
       </c>
-      <c r="C77" s="21">
+      <c r="C77" s="20">
         <v>1.0326041370047001</v>
       </c>
-      <c r="D77" s="22">
+      <c r="D77" s="21">
         <v>-303.49908764271481</v>
       </c>
-      <c r="E77" s="23">
+      <c r="E77" s="22">
         <v>-247.06660450722057</v>
       </c>
-      <c r="F77" s="23">
+      <c r="F77" s="22">
         <v>491.09687482372686</v>
       </c>
-      <c r="G77" s="23">
+      <c r="G77" s="22">
         <v>603.26831200221432</v>
       </c>
-      <c r="H77" s="23">
+      <c r="H77" s="22">
         <v>3591.8772673047747</v>
       </c>
-      <c r="I77" s="23">
+      <c r="I77" s="22">
         <v>5054.2557146056624</v>
       </c>
-      <c r="J77" s="23">
+      <c r="J77" s="22">
         <v>1462.3784473008877</v>
       </c>
-      <c r="K77" s="22">
+      <c r="K77" s="21">
         <v>4450.9874026034477</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" ht="14.1" customHeight="1"/>
-    <row r="79" spans="1:11" ht="14.1" customHeight="1"/>
-    <row r="80" spans="1:11" ht="14.1" customHeight="1"/>
-    <row r="81" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="82" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="83" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="84" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="85" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="86" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="87" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="88" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="89" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="90" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="91" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="92" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="93" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="94" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L94" s="8"/>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L95" s="8"/>
-    </row>
-    <row r="96" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L96" s="8"/>
-    </row>
-    <row r="97" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L97" s="8"/>
-    </row>
-    <row r="98" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L98" s="8"/>
-    </row>
-    <row r="99" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L99" s="8"/>
-    </row>
-    <row r="100" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L100" s="8"/>
-    </row>
-    <row r="101" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L101" s="8"/>
-    </row>
-    <row r="102" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L102" s="8"/>
-    </row>
-    <row r="103" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L103" s="8"/>
-    </row>
-    <row r="104" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L104" s="8"/>
-    </row>
-    <row r="105" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L105" s="8"/>
-    </row>
-    <row r="106" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L106" s="8"/>
-      <c r="O106" s="3"/>
-    </row>
-    <row r="107" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L107" s="8"/>
-    </row>
-    <row r="108" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L108" s="8"/>
-    </row>
-    <row r="109" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L109" s="8"/>
-    </row>
-    <row r="110" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L110" s="8"/>
-    </row>
-    <row r="111" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L111" s="8"/>
-    </row>
-    <row r="112" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L112" s="8"/>
-    </row>
-    <row r="113" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L113" s="8"/>
-    </row>
-    <row r="114" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L114" s="8"/>
-    </row>
-    <row r="115" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L115" s="8"/>
-    </row>
-    <row r="116" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L116" s="8"/>
-    </row>
-    <row r="117" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L117" s="8"/>
-    </row>
-    <row r="118" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L118" s="8"/>
-      <c r="O118" s="3"/>
-    </row>
-    <row r="119" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L119" s="8"/>
-    </row>
-    <row r="120" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L120" s="8"/>
-    </row>
-    <row r="121" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L121" s="8"/>
-    </row>
-    <row r="122" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L122" s="8"/>
-    </row>
-    <row r="123" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L123" s="8"/>
-    </row>
-    <row r="124" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L124" s="8"/>
-    </row>
-    <row r="125" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L125" s="8"/>
-    </row>
-    <row r="126" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L126" s="8"/>
-    </row>
-    <row r="127" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L127" s="8"/>
-    </row>
-    <row r="128" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L128" s="8"/>
-    </row>
-    <row r="129" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L129" s="8"/>
-    </row>
-    <row r="130" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L130" s="8"/>
-      <c r="O130" s="3"/>
-    </row>
-    <row r="131" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L131" s="8"/>
-    </row>
-    <row r="132" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L132" s="8"/>
-    </row>
-    <row r="133" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L133" s="8"/>
-    </row>
-    <row r="134" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L134" s="8"/>
-    </row>
-    <row r="135" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L135" s="8"/>
-    </row>
-    <row r="136" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L136" s="8"/>
-    </row>
-    <row r="137" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L137" s="8"/>
-    </row>
-    <row r="138" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L138" s="8"/>
-    </row>
-    <row r="139" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L139" s="8"/>
-    </row>
-    <row r="140" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L140" s="8"/>
-    </row>
-    <row r="141" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L141" s="8"/>
-    </row>
-    <row r="142" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L142" s="8"/>
-      <c r="O142" s="3"/>
-    </row>
-    <row r="143" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L143" s="8"/>
-    </row>
-    <row r="144" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L144" s="8"/>
-    </row>
-    <row r="145" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L145" s="8"/>
-    </row>
-    <row r="146" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L146" s="8"/>
-    </row>
-    <row r="147" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L147" s="8"/>
-    </row>
-    <row r="148" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L148" s="8"/>
-    </row>
-    <row r="149" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L149" s="8"/>
-    </row>
-    <row r="150" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L150" s="8"/>
-    </row>
-    <row r="151" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L151" s="8"/>
-    </row>
-    <row r="152" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L152" s="8"/>
-    </row>
-    <row r="153" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L153" s="8"/>
-    </row>
-    <row r="154" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L154" s="8"/>
-      <c r="O154" s="3"/>
-    </row>
-    <row r="155" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L155" s="8"/>
-    </row>
-    <row r="156" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L156" s="8"/>
-    </row>
-    <row r="157" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L157" s="8"/>
-    </row>
-    <row r="158" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L158" s="8"/>
-    </row>
-    <row r="159" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L159" s="8"/>
-    </row>
-    <row r="160" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L160" s="8"/>
-    </row>
-    <row r="161" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L161" s="8"/>
-    </row>
-    <row r="162" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L162" s="8"/>
-    </row>
-    <row r="163" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L163" s="8"/>
-    </row>
-    <row r="164" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L164" s="8"/>
-    </row>
-    <row r="165" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L165" s="8"/>
-    </row>
-    <row r="166" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L166" s="8"/>
-      <c r="O166" s="3"/>
-    </row>
-    <row r="167" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L167" s="8"/>
-    </row>
-    <row r="168" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L168" s="8"/>
-    </row>
-    <row r="169" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L169" s="4"/>
-    </row>
-    <row r="170" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L170" s="4"/>
-    </row>
-    <row r="171" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L171" s="4"/>
-    </row>
-    <row r="172" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L172" s="4"/>
-    </row>
-    <row r="173" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L173" s="4"/>
-    </row>
-    <row r="174" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L174" s="4"/>
-    </row>
-    <row r="175" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L175" s="4"/>
-    </row>
-    <row r="176" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L176" s="4"/>
-    </row>
-    <row r="177" spans="12:12" ht="14.1" customHeight="1">
-      <c r="L177" s="4"/>
-    </row>
-    <row r="178" spans="12:12" ht="14.1" customHeight="1">
-      <c r="L178" s="4"/>
-    </row>
-    <row r="179" spans="12:12" ht="14.1" customHeight="1">
-      <c r="L179" s="4"/>
-    </row>
-    <row r="180" spans="12:12" ht="14.1" customHeight="1">
-      <c r="L180" s="4"/>
-    </row>
-    <row r="181" spans="12:12" ht="14.1" customHeight="1">
-      <c r="L181" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7814,10 +7526,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF181"/>
+  <dimension ref="A1:AF65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C10" sqref="C10"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
@@ -7854,137 +7566,137 @@
     <col min="52" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="13" customFormat="1" ht="27" customHeight="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1">
+      <c r="A1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="14"/>
-    </row>
-    <row r="2" spans="1:32" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="24"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="25"/>
-      <c r="M2" s="20"/>
+      <c r="M1" s="13"/>
+    </row>
+    <row r="2" spans="1:32" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="23"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="24"/>
+      <c r="M2" s="19"/>
     </row>
     <row r="3" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5">
         <v>1550</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5">
         <f>MIN(F:F)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="8"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A4" s="16">
+      <c r="A4" s="15">
         <v>43189</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="25">
         <v>0.95575999999999994</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="20">
         <v>0.91680896000000012</v>
       </c>
-      <c r="D4" s="22">
-        <v>0</v>
-      </c>
-      <c r="E4" s="23">
-        <v>0</v>
-      </c>
-      <c r="F4" s="23">
-        <v>0</v>
-      </c>
-      <c r="G4" s="23">
-        <v>0</v>
-      </c>
-      <c r="H4" s="23">
-        <v>0</v>
-      </c>
-      <c r="I4" s="23">
-        <v>0</v>
-      </c>
-      <c r="J4" s="23">
-        <v>0</v>
-      </c>
-      <c r="K4" s="22">
-        <v>0</v>
-      </c>
-      <c r="L4" s="8"/>
-      <c r="O4" s="27" t="s">
+      <c r="D4" s="21">
+        <v>0</v>
+      </c>
+      <c r="E4" s="22">
+        <v>0</v>
+      </c>
+      <c r="F4" s="22">
+        <v>0</v>
+      </c>
+      <c r="G4" s="22">
+        <v>0</v>
+      </c>
+      <c r="H4" s="22">
+        <v>0</v>
+      </c>
+      <c r="I4" s="22">
+        <v>0</v>
+      </c>
+      <c r="J4" s="22">
+        <v>0</v>
+      </c>
+      <c r="K4" s="21">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="O4" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="P4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="Q4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="12" t="s">
+      <c r="R4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="S4" s="12" t="s">
+      <c r="S4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="T4" s="28" t="s">
+      <c r="T4" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="U4" s="12" t="s">
+      <c r="U4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="V4" s="12" t="s">
+      <c r="V4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="X4" s="7">
+      <c r="X4" s="6">
         <v>43462</v>
       </c>
       <c r="Y4" s="1">
@@ -7995,18 +7707,18 @@
         <f t="shared" ref="Z4" si="0">0-Y4</f>
         <v>-1431.6926540000038</v>
       </c>
-      <c r="AA4" s="7">
+      <c r="AA4" s="6">
         <v>43462</v>
       </c>
-      <c r="AB4" s="8">
+      <c r="AB4" s="7">
         <f>VLOOKUP(AA4,O:P,2,)</f>
         <v>1431.6926540000038</v>
       </c>
-      <c r="AC4" s="8">
+      <c r="AC4" s="7">
         <f t="shared" ref="AC4:AC6" si="1">0-AB4</f>
         <v>-1431.6926540000038</v>
       </c>
-      <c r="AD4" s="7">
+      <c r="AD4" s="6">
         <v>43462</v>
       </c>
       <c r="AE4" s="1">
@@ -8018,65 +7730,65 @@
       </c>
     </row>
     <row r="5" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <v>43217</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="25">
         <v>0.92662</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="20">
         <v>0.91465696000000007</v>
       </c>
-      <c r="D5" s="22">
-        <v>0</v>
-      </c>
-      <c r="E5" s="23">
-        <v>0</v>
-      </c>
-      <c r="F5" s="23">
-        <v>0</v>
-      </c>
-      <c r="G5" s="23">
-        <v>0</v>
-      </c>
-      <c r="H5" s="23">
-        <v>0</v>
-      </c>
-      <c r="I5" s="23">
-        <v>0</v>
-      </c>
-      <c r="J5" s="23">
-        <v>0</v>
-      </c>
-      <c r="K5" s="22">
-        <v>0</v>
-      </c>
-      <c r="L5" s="8"/>
-      <c r="O5" s="7">
+      <c r="D5" s="21">
+        <v>0</v>
+      </c>
+      <c r="E5" s="22">
+        <v>0</v>
+      </c>
+      <c r="F5" s="22">
+        <v>0</v>
+      </c>
+      <c r="G5" s="22">
+        <v>0</v>
+      </c>
+      <c r="H5" s="22">
+        <v>0</v>
+      </c>
+      <c r="I5" s="22">
+        <v>0</v>
+      </c>
+      <c r="J5" s="22">
+        <v>0</v>
+      </c>
+      <c r="K5" s="21">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="O5" s="6">
         <v>43462</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="10">
         <v>1431.6926540000038</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="5">
         <v>1431.6926540000038</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="5">
         <v>1305.2741513950191</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="5">
         <v>-126.41850260498472</v>
       </c>
-      <c r="T5" s="6">
-        <v>0</v>
-      </c>
-      <c r="U5" s="10">
+      <c r="T5" s="5">
+        <v>0</v>
+      </c>
+      <c r="U5" s="9">
         <v>-8.8300028816788487E-2</v>
       </c>
-      <c r="V5" s="10">
+      <c r="V5" s="9">
         <v>-8.8300028816788487E-2</v>
       </c>
-      <c r="X5" s="7">
+      <c r="X5" s="6">
         <v>43830</v>
       </c>
       <c r="Y5" s="1">
@@ -8087,18 +7799,18 @@
         <f t="shared" ref="Z5" si="2">0-Y5</f>
         <v>-193.28661200000033</v>
       </c>
-      <c r="AA5" s="7">
+      <c r="AA5" s="6">
         <v>43830</v>
       </c>
-      <c r="AB5" s="8">
+      <c r="AB5" s="7">
         <f>VLOOKUP(AA5,O:P,2,)</f>
         <v>193.28661200000033</v>
       </c>
-      <c r="AC5" s="8">
+      <c r="AC5" s="7">
         <f t="shared" si="1"/>
         <v>-193.28661200000033</v>
       </c>
-      <c r="AD5" s="7">
+      <c r="AD5" s="6">
         <v>43830</v>
       </c>
       <c r="AE5" s="1">
@@ -8110,82 +7822,82 @@
       </c>
     </row>
     <row r="6" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A6" s="16">
+      <c r="A6" s="15">
         <v>43251</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="25">
         <v>0.88405999999999996</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="20">
         <v>0.91904036000000011</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="21">
         <v>54.219558000000241</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="22">
         <v>61.330178947130563</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="22">
         <v>61.330178947130563</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="22">
         <v>54.219558000000241</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="22">
         <v>54.219558000000241</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="22">
         <v>54.219558000000241</v>
       </c>
-      <c r="J6" s="23">
-        <v>0</v>
-      </c>
-      <c r="K6" s="22">
-        <v>0</v>
-      </c>
-      <c r="L6" s="8"/>
-      <c r="O6" s="7">
+      <c r="J6" s="22">
+        <v>0</v>
+      </c>
+      <c r="K6" s="21">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="O6" s="6">
         <v>43830</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="10">
         <v>193.28661200000033</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="5">
         <v>1624.9792660000041</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="5">
         <v>2121.5860729661367</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="5">
         <v>496.60680696613258</v>
       </c>
-      <c r="T6" s="6">
+      <c r="T6" s="5">
         <v>1754.5207020000048</v>
       </c>
-      <c r="U6" s="10">
+      <c r="U6" s="9">
         <v>0.30560808827337449</v>
       </c>
-      <c r="V6" s="10">
+      <c r="V6" s="9">
         <v>0.15168919836337369</v>
       </c>
-      <c r="X6" s="7">
+      <c r="X6" s="6">
         <v>43830</v>
       </c>
       <c r="Z6" s="1">
         <v>2121.5860729661367</v>
       </c>
-      <c r="AA6" s="7">
+      <c r="AA6" s="6">
         <v>44196</v>
       </c>
-      <c r="AB6" s="8">
+      <c r="AB6" s="7">
         <f>VLOOKUP(AA6,O:P,2,)</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="8">
+      <c r="AC6" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD6" s="7">
+      <c r="AD6" s="6">
         <v>44196</v>
       </c>
       <c r="AE6" s="1">
@@ -8197,75 +7909,75 @@
       </c>
     </row>
     <row r="7" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A7" s="16">
+      <c r="A7" s="15">
         <v>43280</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="25">
         <v>0.81235999999999997</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="20">
         <v>0.91734940000000031</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="21">
         <v>162.73357000000053</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="22">
         <v>200.32198778866578</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="22">
         <v>261.65216673579636</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="22">
         <v>212.55575416949151</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="22">
         <v>216.95312800000076</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="22">
         <v>212.55575416949151</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="22">
         <v>-4.3973738305092525</v>
       </c>
-      <c r="K7" s="22">
-        <v>0</v>
-      </c>
-      <c r="L7" s="8"/>
-      <c r="O7" s="7">
+      <c r="K7" s="21">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7"/>
+      <c r="O7" s="6">
         <v>44196</v>
       </c>
-      <c r="P7" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="6">
+      <c r="P7" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
         <v>1624.9792660000041</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7" s="5">
         <v>2160.3103145693699</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7" s="5">
         <v>535.33104856936575</v>
       </c>
-      <c r="T7" s="6">
+      <c r="T7" s="5">
         <v>2160.3103145693699</v>
       </c>
-      <c r="U7" s="10">
+      <c r="U7" s="9">
         <v>0.32943869486231608</v>
       </c>
-      <c r="V7" s="10">
+      <c r="V7" s="9">
         <v>0.10369660281505078</v>
       </c>
       <c r="Z7" s="2">
         <f>IRR(Z4:Z6)</f>
         <v>0.15168919836337369</v>
       </c>
-      <c r="AA7" s="7">
+      <c r="AA7" s="6">
         <v>44196</v>
       </c>
-      <c r="AC7" s="8">
+      <c r="AC7" s="7">
         <v>2160.3103145693699</v>
       </c>
-      <c r="AD7" s="7">
+      <c r="AD7" s="6">
         <v>44561</v>
       </c>
       <c r="AE7" s="1">
@@ -8277,69 +7989,69 @@
       </c>
     </row>
     <row r="8" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A8" s="16">
+      <c r="A8" s="15">
         <v>43312</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="25">
         <v>0.8131799999999999</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="20">
         <v>0.91070244000000022</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="21">
         <v>151.15978200000049</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="22">
         <v>185.88723529845853</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="22">
         <v>447.53940203425486</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="22">
         <v>363.93009094621533</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="22">
         <v>368.11291000000125</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="22">
         <v>363.93009094621533</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="22">
         <v>-4.18281905378592</v>
       </c>
-      <c r="K8" s="22">
-        <v>0</v>
-      </c>
-      <c r="L8" s="8"/>
-      <c r="O8" s="7">
+      <c r="K8" s="21">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="O8" s="6">
         <v>44561</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P8" s="10">
         <v>439.433556000002</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="5">
         <v>2064.4128220000061</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="5">
         <v>2633.6658962308707</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="5">
         <v>569.25307423086451</v>
       </c>
-      <c r="T8" s="6">
+      <c r="T8" s="5">
         <v>2365.5016705693652</v>
       </c>
-      <c r="U8" s="10">
+      <c r="U8" s="9">
         <v>0.2757457559672446</v>
       </c>
-      <c r="V8" s="10">
+      <c r="V8" s="9">
         <v>9.161448749478418E-2</v>
       </c>
       <c r="AC8" s="2">
         <f>IRR(AC4:AC7)</f>
         <v>0.10369660281505078</v>
       </c>
-      <c r="AD8" s="7">
+      <c r="AD8" s="6">
         <v>44561</v>
       </c>
       <c r="AF8" s="1">
@@ -8347,62 +8059,62 @@
       </c>
     </row>
     <row r="9" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A9" s="16">
+      <c r="A9" s="15">
         <v>43343</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="25">
         <v>0.77766999999999997</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="20">
         <v>0.89930640000000006</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="21">
         <v>188.53642000000013</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="22">
         <v>242.43756349094107</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="22">
         <v>689.97696552519596</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="22">
         <v>536.57438677997914</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="22">
         <v>556.64933000000133</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="22">
         <v>536.57438677997914</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="22">
         <v>-20.074943220022192</v>
       </c>
-      <c r="K9" s="22">
-        <v>0</v>
-      </c>
-      <c r="L9" s="8"/>
-      <c r="O9" s="7">
+      <c r="K9" s="21">
+        <v>0</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="O9" s="6">
         <v>44925</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P9" s="10">
         <v>2771.7310180000009</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="5">
         <v>4836.143840000007</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9" s="5">
         <v>5394.8728413640729</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S9" s="5">
         <v>558.72900136406588</v>
       </c>
-      <c r="T9" s="6">
+      <c r="T9" s="5">
         <v>2365.5016705693652</v>
       </c>
-      <c r="U9" s="10">
+      <c r="U9" s="9">
         <v>0.11553192374941128</v>
       </c>
-      <c r="V9" s="10">
+      <c r="V9" s="9">
         <v>6.5682800424140098E-2</v>
       </c>
       <c r="AF9" s="2">
@@ -8411,41 +8123,41 @@
       </c>
     </row>
     <row r="10" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A10" s="16">
+      <c r="A10" s="15">
         <v>43371</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="25">
         <v>0.76784000000000008</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="20">
         <v>0.8825278000000002</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="21">
         <v>177.76609000000019</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="22">
         <v>231.51449520733507</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="22">
         <v>921.4914607325311</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="22">
         <v>707.55800320886669</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="22">
         <v>734.41542000000152</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="22">
         <v>707.55800320886669</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="22">
         <v>-26.857416791134824</v>
       </c>
-      <c r="K10" s="22">
-        <v>0</v>
-      </c>
-      <c r="L10" s="8"/>
-      <c r="X10" s="7">
+      <c r="K10" s="21">
+        <v>0</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="X10" s="6">
         <v>43462</v>
       </c>
       <c r="Y10" s="1">
@@ -8457,41 +8169,41 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A11" s="16">
+      <c r="A11" s="15">
         <v>43404</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="25">
         <v>0.67677999999999994</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="20">
         <v>0.86133792000000031</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="21">
         <v>286.06477600000056</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="22">
         <v>422.68503206359611</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="22">
         <v>1344.1764927961271</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="22">
         <v>909.71176679456289</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="22">
         <v>1020.480196000002</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="22">
         <v>909.71176679456289</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="22">
         <v>-110.76842920543913</v>
       </c>
-      <c r="K11" s="22">
-        <v>0</v>
-      </c>
-      <c r="L11" s="8"/>
-      <c r="X11" s="7">
+      <c r="K11" s="21">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="X11" s="6">
         <v>43830</v>
       </c>
       <c r="Y11" s="1">
@@ -8503,41 +8215,41 @@
       </c>
     </row>
     <row r="12" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A12" s="16">
+      <c r="A12" s="15">
         <v>43434</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="25">
         <v>0.7214299999999999</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="20">
         <v>0.83959144000000063</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="21">
         <v>183.15023200000113</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="22">
         <v>253.8711059978115</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="22">
         <v>1598.0475987939387</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="22">
         <v>1152.879479197911</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="22">
         <v>1203.6304280000031</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="22">
         <v>1152.879479197911</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="22">
         <v>-50.750948802092125</v>
       </c>
-      <c r="K12" s="22">
-        <v>0</v>
-      </c>
-      <c r="L12" s="8"/>
-      <c r="X12" s="7">
+      <c r="K12" s="21">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="X12" s="6">
         <v>44196</v>
       </c>
       <c r="Y12" s="1">
@@ -8549,41 +8261,41 @@
       </c>
     </row>
     <row r="13" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A13" s="16">
+      <c r="A13" s="15">
         <v>43462</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="25">
         <v>0.67408000000000001</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="20">
         <v>0.82121692000000046</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="21">
         <v>228.06222600000069</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="22">
         <v>338.33109719914654</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="22">
         <v>1936.3786959930853</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="22">
         <v>1305.2741513950191</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="22">
         <v>1431.6926540000038</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="22">
         <v>1305.2741513950191</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="22">
         <v>-126.41850260498472</v>
       </c>
-      <c r="K13" s="22">
-        <v>0</v>
-      </c>
-      <c r="L13" s="8"/>
-      <c r="X13" s="7">
+      <c r="K13" s="21">
+        <v>0</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="X13" s="6">
         <v>44561</v>
       </c>
       <c r="Y13" s="1">
@@ -8595,41 +8307,41 @@
       </c>
     </row>
     <row r="14" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A14" s="16">
+      <c r="A14" s="15">
         <v>43496</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="25">
         <v>0.67819000000000007</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="20">
         <v>0.80289104000000022</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="21">
         <v>193.28661200000025</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="22">
         <v>285.00363025110988</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="22">
         <v>2221.3823262441952</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="22">
         <v>1506.5192798355508</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="22">
         <v>1506.5192798355508</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="22">
         <v>-118.45998616445331</v>
       </c>
-      <c r="K14" s="22">
-        <v>0</v>
-      </c>
-      <c r="L14" s="8"/>
-      <c r="X14" s="7">
+      <c r="K14" s="21">
+        <v>0</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="X14" s="6">
         <v>44925</v>
       </c>
       <c r="Y14" s="1">
@@ -8641,41 +8353,41 @@
       </c>
     </row>
     <row r="15" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A15" s="16">
+      <c r="A15" s="15">
         <v>43524</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="25">
         <v>0.85648000000000002</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="20">
         <v>0.79863988000000019</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="21">
         <v>-89.65218599999973</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="22">
         <v>-104.67516579488105</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="22">
         <v>2116.707160449314</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="22">
         <v>1812.9173487816286</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="22">
         <v>1902.5695347816284</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="22">
         <v>277.59026878162422</v>
       </c>
-      <c r="K15" s="22">
+      <c r="K15" s="21">
         <v>89.65218599999973</v>
       </c>
-      <c r="L15" s="8"/>
-      <c r="X15" s="7">
+      <c r="L15" s="7"/>
+      <c r="X15" s="6">
         <v>44925</v>
       </c>
       <c r="Z15" s="1">
@@ -8683,2092 +8395,1792 @@
       </c>
     </row>
     <row r="16" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A16" s="16">
+      <c r="A16" s="15">
         <v>43553</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="25">
         <v>0.94580999999999993</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="20">
         <v>0.80337899999999995</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="21">
         <v>-220.76804999999996</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="22">
         <v>-233.41691248770891</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="22">
         <v>1883.290247961605</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="22">
         <v>1781.2347494245655</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="22">
         <v>2091.654985424565</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="22">
         <v>466.67571942456084</v>
       </c>
-      <c r="K16" s="22">
+      <c r="K16" s="21">
         <v>310.4202359999997</v>
       </c>
-      <c r="L16" s="8"/>
+      <c r="L16" s="7"/>
       <c r="Z16" s="2">
         <f>IRR(Z10:Z15)</f>
         <v>6.5682800424140098E-2</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A17" s="16">
+      <c r="A17" s="15">
         <v>43585</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="25">
         <v>0.9108099999999999</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="20">
         <v>0.80660947999999977</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="21">
         <v>-161.5108060000002</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="22">
         <v>-177.32656207112376</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="22">
         <v>1705.9636858904812</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="22">
         <v>1553.808784745909</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="22">
         <v>2025.7398267459089</v>
       </c>
-      <c r="J17" s="23">
+      <c r="J17" s="22">
         <v>400.76056074590474</v>
       </c>
-      <c r="K17" s="22">
+      <c r="K17" s="21">
         <v>471.93104199999993</v>
       </c>
-      <c r="L17" s="8"/>
+      <c r="L17" s="7"/>
     </row>
     <row r="18" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A18" s="16">
+      <c r="A18" s="15">
         <v>43616</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="25">
         <v>0.86360000000000003</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="20">
         <v>0.8020255199999996</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="21">
         <v>-95.440444000000667</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="22">
         <v>-110.51464103751813</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="22">
         <v>1595.449044852963</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="22">
         <v>1377.8297951350189</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="22">
         <v>1945.2012811350196</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J18" s="22">
         <v>320.22201513501545</v>
       </c>
-      <c r="K18" s="22">
+      <c r="K18" s="21">
         <v>567.37148600000057</v>
       </c>
-      <c r="L18" s="8"/>
+      <c r="L18" s="7"/>
     </row>
     <row r="19" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A19" s="16">
+      <c r="A19" s="15">
         <v>43644</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="25">
         <v>0.88732</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="20">
         <v>0.80021431999999926</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="21">
         <v>-135.01380400000116</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="22">
         <v>-152.15909029437086</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="22">
         <v>1443.2899545585922</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="22">
         <v>1280.6600424789301</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="22">
         <v>1983.0453324789319</v>
       </c>
-      <c r="J19" s="23">
+      <c r="J19" s="22">
         <v>358.06606647892772</v>
       </c>
-      <c r="K19" s="22">
+      <c r="K19" s="21">
         <v>702.38529000000176</v>
       </c>
-      <c r="L19" s="8"/>
+      <c r="L19" s="7"/>
     </row>
     <row r="20" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A20" s="16">
+      <c r="A20" s="15">
         <v>43677</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="25">
         <v>0.89222000000000001</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="20">
         <v>0.80840215999999976</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="21">
         <v>-129.9176520000004</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="22">
         <v>-145.61167873394498</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="22">
         <v>1297.6782758246472</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="22">
         <v>1157.8145112562668</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="22">
         <v>1990.1174532562691</v>
       </c>
-      <c r="J20" s="23">
+      <c r="J20" s="22">
         <v>365.13818725626493</v>
       </c>
-      <c r="K20" s="22">
+      <c r="K20" s="21">
         <v>832.30294200000219</v>
       </c>
-      <c r="L20" s="8"/>
+      <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A21" s="16">
+      <c r="A21" s="15">
         <v>43707</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="25">
         <v>0.92357</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="20">
         <v>0.81579543999999959</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="21">
         <v>-167.05056800000062</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="22">
         <v>-180.87483136091538</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="22">
         <v>1116.8034444637319</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="22">
         <v>1031.4461572033688</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="22">
         <v>2030.7996672033717</v>
       </c>
-      <c r="J21" s="23">
+      <c r="J21" s="22">
         <v>405.82040120336751</v>
       </c>
-      <c r="K21" s="22">
+      <c r="K21" s="21">
         <v>999.35351000000287</v>
       </c>
-      <c r="L21" s="9"/>
+      <c r="L21" s="8"/>
     </row>
     <row r="22" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A22" s="16">
+      <c r="A22" s="15">
         <v>43738</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="25">
         <v>0.95855999999999997</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="20">
         <v>0.83312139999999968</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="21">
         <v>-194.42983000000044</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="22">
         <v>-202.83532590552542</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="22">
         <v>913.96811855820647</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="22">
         <v>876.09327972515439</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="22">
         <v>2069.876619725158</v>
       </c>
-      <c r="J22" s="23">
+      <c r="J22" s="22">
         <v>444.89735372515383</v>
       </c>
-      <c r="K22" s="22">
+      <c r="K22" s="21">
         <v>1193.7833400000034</v>
       </c>
-      <c r="L22" s="8"/>
+      <c r="L22" s="7"/>
     </row>
     <row r="23" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A23" s="16">
+      <c r="A23" s="15">
         <v>43769</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B23" s="25">
         <v>0.97238999999999998</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="20">
         <v>0.85132979999999947</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="21">
         <v>-187.64331000000078</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="22">
         <v>-192.97124610495871</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="22">
         <v>720.99687245324776</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="22">
         <v>701.09014880481357</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I23" s="22">
         <v>2082.5167988048179</v>
       </c>
-      <c r="J23" s="23">
+      <c r="J23" s="22">
         <v>457.53753280481374</v>
       </c>
-      <c r="K23" s="22">
+      <c r="K23" s="21">
         <v>1381.4266500000042</v>
       </c>
-      <c r="L23" s="8"/>
+      <c r="L23" s="7"/>
       <c r="O23" s="3"/>
     </row>
     <row r="24" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A24" s="16">
+      <c r="A24" s="15">
         <v>43798</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="25">
         <v>0.97728999999999999</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="20">
         <v>0.87548991999999959</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="21">
         <v>-157.79012400000062</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="22">
         <v>-161.45680811222934</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="22">
         <v>559.54006434101848</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="22">
         <v>546.83290947983392</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I24" s="23">
+      <c r="I24" s="22">
         <v>2086.0496834798387</v>
       </c>
-      <c r="J24" s="23">
+      <c r="J24" s="22">
         <v>461.07041747983453</v>
       </c>
-      <c r="K24" s="22">
+      <c r="K24" s="21">
         <v>1539.2167740000048</v>
       </c>
-      <c r="L24" s="8"/>
+      <c r="L24" s="7"/>
     </row>
     <row r="25" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A25" s="16">
+      <c r="A25" s="15">
         <v>43830</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="25">
         <v>1.0407999999999999</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="20">
         <v>0.90189423999999996</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="21">
         <v>-215.30392799999998</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="22">
         <v>-206.86388162951576</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="22">
         <v>352.67618271150275</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="22">
         <v>367.06537096613204</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I25" s="23">
+      <c r="I25" s="22">
         <v>2121.5860729661367</v>
       </c>
-      <c r="J25" s="23">
+      <c r="J25" s="22">
         <v>496.60680696613258</v>
       </c>
-      <c r="K25" s="22">
+      <c r="K25" s="21">
         <v>1754.5207020000048</v>
       </c>
-      <c r="L25" s="8"/>
+      <c r="L25" s="7"/>
     </row>
     <row r="26" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A26" s="16">
+      <c r="A26" s="15">
         <v>43853</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B26" s="25">
         <v>1.13632</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="20">
         <v>0.92962908</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="21">
         <v>-320.370926</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="22">
         <v>-281.93724127006476</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="22">
         <v>70.738941441437987</v>
       </c>
-      <c r="G26" s="23">
+      <c r="G26" s="22">
         <v>80.38207393873482</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I26" s="23">
+      <c r="I26" s="22">
         <v>2155.2737019387396</v>
       </c>
-      <c r="J26" s="23">
+      <c r="J26" s="22">
         <v>530.29443593873543</v>
       </c>
-      <c r="K26" s="22">
+      <c r="K26" s="21">
         <v>2074.8916280000049</v>
       </c>
-      <c r="L26" s="8"/>
+      <c r="L26" s="7"/>
     </row>
     <row r="27" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A27" s="16">
+      <c r="A27" s="15">
         <v>43889</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="25">
         <v>1.2075199999999999</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="20">
         <v>0.96966315999999997</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="21">
         <v>-85.418686569365192</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="22">
         <v>-70.738941441437987</v>
       </c>
-      <c r="F27" s="23">
-        <v>0</v>
-      </c>
-      <c r="G27" s="23">
-        <v>0</v>
-      </c>
-      <c r="H27" s="23">
+      <c r="F27" s="22">
+        <v>0</v>
+      </c>
+      <c r="G27" s="22">
+        <v>0</v>
+      </c>
+      <c r="H27" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I27" s="23">
+      <c r="I27" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J27" s="23">
+      <c r="J27" s="22">
         <v>535.33104856936575</v>
       </c>
-      <c r="K27" s="22">
+      <c r="K27" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L27" s="8"/>
+      <c r="L27" s="7"/>
     </row>
     <row r="28" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A28" s="16">
+      <c r="A28" s="15">
         <v>43921</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="25">
         <v>1.0721400000000001</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="20">
         <v>0.99416948000000038</v>
       </c>
-      <c r="D28" s="22">
-        <v>0</v>
-      </c>
-      <c r="E28" s="23">
-        <v>0</v>
-      </c>
-      <c r="F28" s="23">
-        <v>0</v>
-      </c>
-      <c r="G28" s="23">
-        <v>0</v>
-      </c>
-      <c r="H28" s="23">
+      <c r="D28" s="21">
+        <v>0</v>
+      </c>
+      <c r="E28" s="22">
+        <v>0</v>
+      </c>
+      <c r="F28" s="22">
+        <v>0</v>
+      </c>
+      <c r="G28" s="22">
+        <v>0</v>
+      </c>
+      <c r="H28" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I28" s="23">
+      <c r="I28" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J28" s="23">
+      <c r="J28" s="22">
         <v>535.33104856936575</v>
       </c>
-      <c r="K28" s="22">
+      <c r="K28" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L28" s="8"/>
+      <c r="L28" s="7"/>
     </row>
     <row r="29" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A29" s="16">
+      <c r="A29" s="15">
         <v>43951</v>
       </c>
-      <c r="B29" s="26">
+      <c r="B29" s="25">
         <v>1.13618</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="20">
         <v>1.0066833200000003</v>
       </c>
-      <c r="D29" s="22">
-        <v>0</v>
-      </c>
-      <c r="E29" s="23">
-        <v>0</v>
-      </c>
-      <c r="F29" s="23">
-        <v>0</v>
-      </c>
-      <c r="G29" s="23">
-        <v>0</v>
-      </c>
-      <c r="H29" s="23">
+      <c r="D29" s="21">
+        <v>0</v>
+      </c>
+      <c r="E29" s="22">
+        <v>0</v>
+      </c>
+      <c r="F29" s="22">
+        <v>0</v>
+      </c>
+      <c r="G29" s="22">
+        <v>0</v>
+      </c>
+      <c r="H29" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I29" s="23">
+      <c r="I29" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J29" s="23">
+      <c r="J29" s="22">
         <v>535.33104856936575</v>
       </c>
-      <c r="K29" s="22">
+      <c r="K29" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L29" s="8"/>
+      <c r="L29" s="7"/>
     </row>
     <row r="30" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A30" s="16">
+      <c r="A30" s="15">
         <v>43980</v>
       </c>
-      <c r="B30" s="26">
+      <c r="B30" s="25">
         <v>1.12294</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="20">
         <v>1.0254032800000001</v>
       </c>
-      <c r="D30" s="22">
-        <v>0</v>
-      </c>
-      <c r="E30" s="23">
-        <v>0</v>
-      </c>
-      <c r="F30" s="23">
-        <v>0</v>
-      </c>
-      <c r="G30" s="23">
-        <v>0</v>
-      </c>
-      <c r="H30" s="23">
+      <c r="D30" s="21">
+        <v>0</v>
+      </c>
+      <c r="E30" s="22">
+        <v>0</v>
+      </c>
+      <c r="F30" s="22">
+        <v>0</v>
+      </c>
+      <c r="G30" s="22">
+        <v>0</v>
+      </c>
+      <c r="H30" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I30" s="23">
+      <c r="I30" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J30" s="23">
+      <c r="J30" s="22">
         <v>535.33104856936575</v>
       </c>
-      <c r="K30" s="22">
+      <c r="K30" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L30" s="8"/>
+      <c r="L30" s="7"/>
     </row>
     <row r="31" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A31" s="16">
+      <c r="A31" s="15">
         <v>44012</v>
       </c>
-      <c r="B31" s="26">
+      <c r="B31" s="25">
         <v>1.25214</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="20">
         <v>1.0521240799999996</v>
       </c>
-      <c r="D31" s="22">
-        <v>0</v>
-      </c>
-      <c r="E31" s="23">
-        <v>0</v>
-      </c>
-      <c r="F31" s="23">
-        <v>0</v>
-      </c>
-      <c r="G31" s="23">
-        <v>0</v>
-      </c>
-      <c r="H31" s="23">
+      <c r="D31" s="21">
+        <v>0</v>
+      </c>
+      <c r="E31" s="22">
+        <v>0</v>
+      </c>
+      <c r="F31" s="22">
+        <v>0</v>
+      </c>
+      <c r="G31" s="22">
+        <v>0</v>
+      </c>
+      <c r="H31" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I31" s="23">
+      <c r="I31" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J31" s="23">
+      <c r="J31" s="22">
         <v>535.33104856936575</v>
       </c>
-      <c r="K31" s="22">
+      <c r="K31" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L31" s="8"/>
+      <c r="L31" s="7"/>
     </row>
     <row r="32" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A32" s="16">
+      <c r="A32" s="15">
         <v>44043</v>
       </c>
-      <c r="B32" s="26">
+      <c r="B32" s="25">
         <v>1.3561700000000001</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="20">
         <v>1.09524756</v>
       </c>
-      <c r="D32" s="22">
-        <v>0</v>
-      </c>
-      <c r="E32" s="23">
-        <v>0</v>
-      </c>
-      <c r="F32" s="23">
-        <v>0</v>
-      </c>
-      <c r="G32" s="23">
-        <v>0</v>
-      </c>
-      <c r="H32" s="23">
+      <c r="D32" s="21">
+        <v>0</v>
+      </c>
+      <c r="E32" s="22">
+        <v>0</v>
+      </c>
+      <c r="F32" s="22">
+        <v>0</v>
+      </c>
+      <c r="G32" s="22">
+        <v>0</v>
+      </c>
+      <c r="H32" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I32" s="23">
+      <c r="I32" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J32" s="23">
+      <c r="J32" s="22">
         <v>535.33104856936575</v>
       </c>
-      <c r="K32" s="22">
+      <c r="K32" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L32" s="8"/>
+      <c r="L32" s="7"/>
     </row>
     <row r="33" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A33" s="16">
+      <c r="A33" s="15">
         <v>44074</v>
       </c>
-      <c r="B33" s="26">
+      <c r="B33" s="25">
         <v>1.35833</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="20">
         <v>1.1352650000000004</v>
       </c>
-      <c r="D33" s="22">
-        <v>0</v>
-      </c>
-      <c r="E33" s="23">
-        <v>0</v>
-      </c>
-      <c r="F33" s="23">
-        <v>0</v>
-      </c>
-      <c r="G33" s="23">
-        <v>0</v>
-      </c>
-      <c r="H33" s="23">
+      <c r="D33" s="21">
+        <v>0</v>
+      </c>
+      <c r="E33" s="22">
+        <v>0</v>
+      </c>
+      <c r="F33" s="22">
+        <v>0</v>
+      </c>
+      <c r="G33" s="22">
+        <v>0</v>
+      </c>
+      <c r="H33" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I33" s="23">
+      <c r="I33" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J33" s="23">
+      <c r="J33" s="22">
         <v>535.33104856936575</v>
       </c>
-      <c r="K33" s="22">
+      <c r="K33" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L33" s="8"/>
+      <c r="L33" s="7"/>
     </row>
     <row r="34" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A34" s="16">
+      <c r="A34" s="15">
         <v>44104</v>
       </c>
-      <c r="B34" s="26">
+      <c r="B34" s="25">
         <v>1.2336199999999999</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="20">
         <v>1.1624354799999996</v>
       </c>
-      <c r="D34" s="22">
-        <v>0</v>
-      </c>
-      <c r="E34" s="23">
-        <v>0</v>
-      </c>
-      <c r="F34" s="23">
-        <v>0</v>
-      </c>
-      <c r="G34" s="23">
-        <v>0</v>
-      </c>
-      <c r="H34" s="23">
+      <c r="D34" s="21">
+        <v>0</v>
+      </c>
+      <c r="E34" s="22">
+        <v>0</v>
+      </c>
+      <c r="F34" s="22">
+        <v>0</v>
+      </c>
+      <c r="G34" s="22">
+        <v>0</v>
+      </c>
+      <c r="H34" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I34" s="23">
+      <c r="I34" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J34" s="23">
+      <c r="J34" s="22">
         <v>535.33104856936575</v>
       </c>
-      <c r="K34" s="22">
+      <c r="K34" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L34" s="8"/>
+      <c r="L34" s="7"/>
       <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A35" s="16">
+      <c r="A35" s="15">
         <v>44134</v>
       </c>
-      <c r="B35" s="26">
+      <c r="B35" s="25">
         <v>1.2367600000000001</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="20">
         <v>1.1809904399999995</v>
       </c>
-      <c r="D35" s="22">
-        <v>0</v>
-      </c>
-      <c r="E35" s="23">
-        <v>0</v>
-      </c>
-      <c r="F35" s="23">
-        <v>0</v>
-      </c>
-      <c r="G35" s="23">
-        <v>0</v>
-      </c>
-      <c r="H35" s="23">
+      <c r="D35" s="21">
+        <v>0</v>
+      </c>
+      <c r="E35" s="22">
+        <v>0</v>
+      </c>
+      <c r="F35" s="22">
+        <v>0</v>
+      </c>
+      <c r="G35" s="22">
+        <v>0</v>
+      </c>
+      <c r="H35" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I35" s="23">
+      <c r="I35" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J35" s="23">
+      <c r="J35" s="22">
         <v>535.33104856936575</v>
       </c>
-      <c r="K35" s="22">
+      <c r="K35" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L35" s="8"/>
+      <c r="L35" s="7"/>
     </row>
     <row r="36" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A36" s="16">
+      <c r="A36" s="15">
         <v>44165</v>
       </c>
-      <c r="B36" s="26">
+      <c r="B36" s="25">
         <v>1.23942</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="20">
         <v>1.2036349600000003</v>
       </c>
-      <c r="D36" s="22">
-        <v>0</v>
-      </c>
-      <c r="E36" s="23">
-        <v>0</v>
-      </c>
-      <c r="F36" s="23">
-        <v>0</v>
-      </c>
-      <c r="G36" s="23">
-        <v>0</v>
-      </c>
-      <c r="H36" s="23">
+      <c r="D36" s="21">
+        <v>0</v>
+      </c>
+      <c r="E36" s="22">
+        <v>0</v>
+      </c>
+      <c r="F36" s="22">
+        <v>0</v>
+      </c>
+      <c r="G36" s="22">
+        <v>0</v>
+      </c>
+      <c r="H36" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I36" s="23">
+      <c r="I36" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J36" s="23">
+      <c r="J36" s="22">
         <v>535.33104856936575</v>
       </c>
-      <c r="K36" s="22">
+      <c r="K36" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L36" s="8"/>
+      <c r="L36" s="7"/>
     </row>
     <row r="37" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A37" s="16">
+      <c r="A37" s="15">
         <v>44196</v>
       </c>
-      <c r="B37" s="26">
+      <c r="B37" s="25">
         <v>1.2531099999999999</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37" s="20">
         <v>1.2247530400000011</v>
       </c>
-      <c r="D37" s="22">
-        <v>0</v>
-      </c>
-      <c r="E37" s="23">
-        <v>0</v>
-      </c>
-      <c r="F37" s="23">
-        <v>0</v>
-      </c>
-      <c r="G37" s="23">
-        <v>0</v>
-      </c>
-      <c r="H37" s="23">
+      <c r="D37" s="21">
+        <v>0</v>
+      </c>
+      <c r="E37" s="22">
+        <v>0</v>
+      </c>
+      <c r="F37" s="22">
+        <v>0</v>
+      </c>
+      <c r="G37" s="22">
+        <v>0</v>
+      </c>
+      <c r="H37" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I37" s="23">
+      <c r="I37" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J37" s="23">
+      <c r="J37" s="22">
         <v>535.33104856936575</v>
       </c>
-      <c r="K37" s="22">
+      <c r="K37" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L37" s="8"/>
+      <c r="L37" s="7"/>
     </row>
     <row r="38" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A38" s="16">
+      <c r="A38" s="15">
         <v>44225</v>
       </c>
-      <c r="B38" s="26">
+      <c r="B38" s="25">
         <v>1.2375</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="20">
         <v>1.2398494000000004</v>
       </c>
-      <c r="D38" s="22">
+      <c r="D38" s="21">
         <v>3.6415700000006046</v>
       </c>
-      <c r="E38" s="23">
+      <c r="E38" s="22">
         <v>2.9426828282833166</v>
       </c>
-      <c r="F38" s="23">
+      <c r="F38" s="22">
         <v>2.9426828282833166</v>
       </c>
-      <c r="G38" s="23">
+      <c r="G38" s="22">
         <v>3.6415700000006046</v>
       </c>
-      <c r="H38" s="23">
+      <c r="H38" s="22">
         <v>1628.6208360000048</v>
       </c>
-      <c r="I38" s="23">
+      <c r="I38" s="22">
         <v>2163.9518845693706</v>
       </c>
-      <c r="J38" s="23">
+      <c r="J38" s="22">
         <v>535.33104856936575</v>
       </c>
-      <c r="K38" s="22">
+      <c r="K38" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L38" s="8"/>
+      <c r="L38" s="7"/>
     </row>
     <row r="39" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A39" s="16">
+      <c r="A39" s="15">
         <v>44253</v>
       </c>
-      <c r="B39" s="26">
+      <c r="B39" s="25">
         <v>1.23967</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39" s="20">
         <v>1.2465734400000006</v>
       </c>
-      <c r="D39" s="22">
+      <c r="D39" s="21">
         <v>10.700332000000834</v>
       </c>
-      <c r="E39" s="23">
+      <c r="E39" s="22">
         <v>8.6315971185886848</v>
       </c>
-      <c r="F39" s="23">
+      <c r="F39" s="22">
         <v>11.574279946872002</v>
       </c>
-      <c r="G39" s="23">
+      <c r="G39" s="22">
         <v>14.348287621738816</v>
       </c>
-      <c r="H39" s="23">
+      <c r="H39" s="22">
         <v>1639.3211680000056</v>
       </c>
-      <c r="I39" s="23">
+      <c r="I39" s="22">
         <v>2174.6586021911089</v>
       </c>
-      <c r="J39" s="23">
+      <c r="J39" s="22">
         <v>535.33743419110328</v>
       </c>
-      <c r="K39" s="22">
+      <c r="K39" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L39" s="8"/>
+      <c r="L39" s="7"/>
     </row>
     <row r="40" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A40" s="16">
+      <c r="A40" s="15">
         <v>44286</v>
       </c>
-      <c r="B40" s="26">
+      <c r="B40" s="25">
         <v>1.15709</v>
       </c>
-      <c r="C40" s="21">
+      <c r="C40" s="20">
         <v>1.2413199199999996</v>
       </c>
-      <c r="D40" s="22">
+      <c r="D40" s="21">
         <v>130.55637599999943</v>
       </c>
-      <c r="E40" s="23">
+      <c r="E40" s="22">
         <v>112.83165181619358</v>
       </c>
-      <c r="F40" s="23">
+      <c r="F40" s="22">
         <v>124.40593176306558</v>
       </c>
-      <c r="G40" s="23">
+      <c r="G40" s="22">
         <v>143.94885958372555</v>
       </c>
-      <c r="H40" s="23">
+      <c r="H40" s="22">
         <v>1769.8775440000049</v>
       </c>
-      <c r="I40" s="23">
+      <c r="I40" s="22">
         <v>2304.2591741530955</v>
       </c>
-      <c r="J40" s="23">
+      <c r="J40" s="22">
         <v>534.38163015309055</v>
       </c>
-      <c r="K40" s="22">
+      <c r="K40" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L40" s="8"/>
+      <c r="L40" s="7"/>
     </row>
     <row r="41" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A41" s="16">
+      <c r="A41" s="15">
         <v>44316</v>
       </c>
-      <c r="B41" s="26">
+      <c r="B41" s="25">
         <v>1.17998</v>
       </c>
-      <c r="C41" s="21">
+      <c r="C41" s="20">
         <v>1.2470086399999996</v>
       </c>
-      <c r="D41" s="22">
+      <c r="D41" s="21">
         <v>103.89439199999927</v>
       </c>
-      <c r="E41" s="23">
+      <c r="E41" s="22">
         <v>88.047587247240855</v>
       </c>
-      <c r="F41" s="23">
+      <c r="F41" s="22">
         <v>212.45351901030642</v>
       </c>
-      <c r="G41" s="23">
+      <c r="G41" s="22">
         <v>250.69090336178138</v>
       </c>
-      <c r="H41" s="23">
+      <c r="H41" s="22">
         <v>1873.7719360000042</v>
       </c>
-      <c r="I41" s="23">
+      <c r="I41" s="22">
         <v>2411.0012179311511</v>
       </c>
-      <c r="J41" s="23">
+      <c r="J41" s="22">
         <v>537.22928193114694</v>
       </c>
-      <c r="K41" s="22">
+      <c r="K41" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L41" s="8"/>
+      <c r="L41" s="7"/>
     </row>
     <row r="42" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A42" s="16">
+      <c r="A42" s="15">
         <v>44347</v>
       </c>
-      <c r="B42" s="26">
+      <c r="B42" s="25">
         <v>1.2623</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="20">
         <v>1.2505698399999998</v>
       </c>
-      <c r="D42" s="22">
+      <c r="D42" s="21">
         <v>-18.18174800000024</v>
       </c>
-      <c r="E42" s="23">
+      <c r="E42" s="22">
         <v>-14.403666323378152</v>
       </c>
-      <c r="F42" s="23">
+      <c r="F42" s="22">
         <v>198.04985268692826</v>
       </c>
-      <c r="G42" s="23">
+      <c r="G42" s="22">
         <v>249.99832904670953</v>
       </c>
-      <c r="H42" s="23">
+      <c r="H42" s="22">
         <v>1873.7719360000042</v>
       </c>
-      <c r="I42" s="23">
+      <c r="I42" s="22">
         <v>2428.4903916160797</v>
       </c>
-      <c r="J42" s="23">
+      <c r="J42" s="22">
         <v>554.71845561607552</v>
       </c>
-      <c r="K42" s="22">
+      <c r="K42" s="21">
         <v>2178.4920625693703</v>
       </c>
-      <c r="L42" s="8"/>
+      <c r="L42" s="7"/>
     </row>
     <row r="43" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A43" s="16">
+      <c r="A43" s="15">
         <v>44377</v>
       </c>
-      <c r="B43" s="26">
+      <c r="B43" s="25">
         <v>1.33643</v>
       </c>
-      <c r="C43" s="21">
+      <c r="C43" s="20">
         <v>1.261064600000001</v>
       </c>
-      <c r="D43" s="22">
+      <c r="D43" s="21">
         <v>-116.8163699999985</v>
       </c>
-      <c r="E43" s="23">
+      <c r="E43" s="22">
         <v>-87.409269471650958</v>
       </c>
-      <c r="F43" s="23">
+      <c r="F43" s="22">
         <v>110.6405832152773</v>
       </c>
-      <c r="G43" s="23">
+      <c r="G43" s="22">
         <v>147.86339462639305</v>
       </c>
-      <c r="H43" s="23">
+      <c r="H43" s="22">
         <v>1873.7719360000042</v>
       </c>
-      <c r="I43" s="23">
+      <c r="I43" s="22">
         <v>2443.171827195762</v>
       </c>
-      <c r="J43" s="23">
+      <c r="J43" s="22">
         <v>569.39989119575785</v>
       </c>
-      <c r="K43" s="22">
+      <c r="K43" s="21">
         <v>2295.308432569369</v>
       </c>
-      <c r="L43" s="8"/>
+      <c r="L43" s="7"/>
     </row>
     <row r="44" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A44" s="16">
+      <c r="A44" s="15">
         <v>44407</v>
       </c>
-      <c r="B44" s="26">
+      <c r="B44" s="25">
         <v>1.28626</v>
       </c>
-      <c r="C44" s="21">
+      <c r="C44" s="20">
         <v>1.2582182800000008</v>
       </c>
-      <c r="D44" s="22">
+      <c r="D44" s="21">
         <v>-43.464665999998701</v>
       </c>
-      <c r="E44" s="23">
+      <c r="E44" s="22">
         <v>-33.791508715188769</v>
       </c>
-      <c r="F44" s="23">
+      <c r="F44" s="22">
         <v>76.849074500088534</v>
       </c>
-      <c r="G44" s="23">
+      <c r="G44" s="22">
         <v>98.847890566483869</v>
       </c>
-      <c r="H44" s="23">
+      <c r="H44" s="22">
         <v>1873.7719360000042</v>
       </c>
-      <c r="I44" s="23">
+      <c r="I44" s="22">
         <v>2437.6209891358512</v>
       </c>
-      <c r="J44" s="23">
+      <c r="J44" s="22">
         <v>563.84905313584704</v>
       </c>
-      <c r="K44" s="22">
+      <c r="K44" s="21">
         <v>2338.7730985693674</v>
       </c>
-      <c r="L44" s="8"/>
+      <c r="L44" s="7"/>
     </row>
     <row r="45" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A45" s="16">
+      <c r="A45" s="15">
         <v>44439</v>
       </c>
-      <c r="B45" s="26">
+      <c r="B45" s="25">
         <v>1.2177899999999999</v>
       </c>
-      <c r="C45" s="21">
+      <c r="C45" s="20">
         <v>1.2513532000000005</v>
       </c>
-      <c r="D45" s="22">
+      <c r="D45" s="21">
         <v>52.022960000000886</v>
       </c>
-      <c r="E45" s="23">
+      <c r="E45" s="22">
         <v>42.719155190961402</v>
       </c>
-      <c r="F45" s="23">
+      <c r="F45" s="22">
         <v>119.56822969104994</v>
       </c>
-      <c r="G45" s="23">
+      <c r="G45" s="22">
         <v>145.6089944354637</v>
       </c>
-      <c r="H45" s="23">
+      <c r="H45" s="22">
         <v>1925.7948960000051</v>
       </c>
-      <c r="I45" s="23">
+      <c r="I45" s="22">
         <v>2484.3820930048309</v>
       </c>
-      <c r="J45" s="23">
+      <c r="J45" s="22">
         <v>558.58719700482584</v>
       </c>
-      <c r="K45" s="22">
+      <c r="K45" s="21">
         <v>2338.7730985693674</v>
       </c>
-      <c r="L45" s="8"/>
+      <c r="L45" s="7"/>
     </row>
     <row r="46" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A46" s="16">
+      <c r="A46" s="15">
         <v>44469</v>
       </c>
-      <c r="B46" s="26">
+      <c r="B46" s="25">
         <v>1.20347</v>
       </c>
-      <c r="C46" s="21">
+      <c r="C46" s="20">
         <v>1.2445208000000001</v>
       </c>
-      <c r="D46" s="22">
+      <c r="D46" s="21">
         <v>63.628740000000086</v>
       </c>
-      <c r="E46" s="23">
+      <c r="E46" s="22">
         <v>52.871064505139373</v>
       </c>
-      <c r="F46" s="23">
+      <c r="F46" s="22">
         <v>172.43929419618931</v>
       </c>
-      <c r="G46" s="23">
+      <c r="G46" s="22">
         <v>207.52551738628796</v>
       </c>
-      <c r="H46" s="23">
+      <c r="H46" s="22">
         <v>1989.4236360000052</v>
       </c>
-      <c r="I46" s="23">
+      <c r="I46" s="22">
         <v>2546.2986159556554</v>
       </c>
-      <c r="J46" s="23">
+      <c r="J46" s="22">
         <v>556.87497995565013</v>
       </c>
-      <c r="K46" s="22">
+      <c r="K46" s="21">
         <v>2338.7730985693674</v>
       </c>
-      <c r="L46" s="8"/>
+      <c r="L46" s="7"/>
     </row>
     <row r="47" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A47" s="16">
+      <c r="A47" s="15">
         <v>44498</v>
       </c>
-      <c r="B47" s="26">
+      <c r="B47" s="25">
         <v>1.1970999999999998</v>
       </c>
-      <c r="C47" s="21">
+      <c r="C47" s="20">
         <v>1.2406920799999999</v>
       </c>
-      <c r="D47" s="22">
+      <c r="D47" s="21">
         <v>67.567724000000055</v>
       </c>
-      <c r="E47" s="23">
+      <c r="E47" s="22">
         <v>56.442840197143148</v>
       </c>
-      <c r="F47" s="23">
+      <c r="F47" s="22">
         <v>228.88213439333245</v>
       </c>
-      <c r="G47" s="23">
+      <c r="G47" s="22">
         <v>273.99480308225822</v>
       </c>
-      <c r="H47" s="23">
+      <c r="H47" s="22">
         <v>2056.9913600000054</v>
       </c>
-      <c r="I47" s="23">
+      <c r="I47" s="22">
         <v>2612.7679016516258</v>
       </c>
-      <c r="J47" s="23">
+      <c r="J47" s="22">
         <v>555.77654165162039</v>
       </c>
-      <c r="K47" s="22">
+      <c r="K47" s="21">
         <v>2338.7730985693674</v>
       </c>
-      <c r="L47" s="8"/>
+      <c r="L47" s="7"/>
     </row>
     <row r="48" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A48" s="16">
+      <c r="A48" s="15">
         <v>44530</v>
       </c>
-      <c r="B48" s="26">
+      <c r="B48" s="25">
         <v>1.23373</v>
       </c>
-      <c r="C48" s="21">
+      <c r="C48" s="20">
         <v>1.2385180400000004</v>
       </c>
-      <c r="D48" s="22">
+      <c r="D48" s="21">
         <v>7.4214620000006786</v>
       </c>
-      <c r="E48" s="23">
+      <c r="E48" s="22">
         <v>6.0154669173973874</v>
       </c>
-      <c r="F48" s="23">
+      <c r="F48" s="22">
         <v>234.89760131072984</v>
       </c>
-      <c r="G48" s="23">
+      <c r="G48" s="22">
         <v>289.80021766508673</v>
       </c>
-      <c r="H48" s="23">
+      <c r="H48" s="22">
         <v>2064.4128220000061</v>
       </c>
-      <c r="I48" s="23">
+      <c r="I48" s="22">
         <v>2628.5733162344541</v>
       </c>
-      <c r="J48" s="23">
+      <c r="J48" s="22">
         <v>564.16049423444792</v>
       </c>
-      <c r="K48" s="22">
+      <c r="K48" s="21">
         <v>2338.7730985693674</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A49" s="16">
+      <c r="A49" s="15">
         <v>44561</v>
       </c>
-      <c r="B49" s="26">
+      <c r="B49" s="25">
         <v>1.2554100000000001</v>
       </c>
-      <c r="C49" s="21">
+      <c r="C49" s="20">
         <v>1.2381657600000016</v>
       </c>
-      <c r="D49" s="22">
+      <c r="D49" s="21">
         <v>-26.728571999997797</v>
       </c>
-      <c r="E49" s="23">
+      <c r="E49" s="22">
         <v>-21.290711401054473</v>
       </c>
-      <c r="F49" s="23">
+      <c r="F49" s="22">
         <v>213.60688990967537</v>
       </c>
-      <c r="G49" s="23">
+      <c r="G49" s="22">
         <v>268.16422566150561</v>
       </c>
-      <c r="H49" s="23">
+      <c r="H49" s="22">
         <v>2064.4128220000061</v>
       </c>
-      <c r="I49" s="23">
+      <c r="I49" s="22">
         <v>2633.6658962308707</v>
       </c>
-      <c r="J49" s="23">
+      <c r="J49" s="22">
         <v>569.25307423086451</v>
       </c>
-      <c r="K49" s="22">
+      <c r="K49" s="21">
         <v>2365.5016705693652</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A50" s="16">
+      <c r="A50" s="15">
         <v>44589</v>
       </c>
-      <c r="B50" s="26">
+      <c r="B50" s="25">
         <v>1.11076</v>
       </c>
-      <c r="C50" s="21">
+      <c r="C50" s="20">
         <v>1.2355355200000004</v>
       </c>
-      <c r="D50" s="22">
+      <c r="D50" s="21">
         <v>193.40205600000073</v>
       </c>
-      <c r="E50" s="23">
+      <c r="E50" s="22">
         <v>174.11687133134137</v>
       </c>
-      <c r="F50" s="23">
+      <c r="F50" s="22">
         <v>387.72376124101675</v>
       </c>
-      <c r="G50" s="23">
+      <c r="G50" s="22">
         <v>430.66804503607176</v>
       </c>
-      <c r="H50" s="23">
+      <c r="H50" s="22">
         <v>2257.814878000007</v>
       </c>
-      <c r="I50" s="23">
+      <c r="I50" s="22">
         <v>2796.169715605437</v>
       </c>
-      <c r="J50" s="23">
+      <c r="J50" s="22">
         <v>538.35483760543002</v>
       </c>
-      <c r="K50" s="22">
+      <c r="K50" s="21">
         <v>2365.5016705693652</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A51" s="16">
+      <c r="A51" s="15">
         <v>44620</v>
       </c>
-      <c r="B51" s="26">
+      <c r="B51" s="25">
         <v>1.15177</v>
       </c>
-      <c r="C51" s="21">
+      <c r="C51" s="20">
         <v>1.2277890400000004</v>
       </c>
-      <c r="D51" s="22">
+      <c r="D51" s="21">
         <v>117.82951200000075</v>
       </c>
-      <c r="E51" s="23">
+      <c r="E51" s="22">
         <v>102.30298757564509</v>
       </c>
-      <c r="F51" s="23">
+      <c r="F51" s="22">
         <v>490.02674881666184</v>
       </c>
-      <c r="G51" s="23">
+      <c r="G51" s="22">
         <v>564.39810848456659</v>
       </c>
-      <c r="H51" s="23">
+      <c r="H51" s="22">
         <v>2375.6443900000077</v>
       </c>
-      <c r="I51" s="23">
+      <c r="I51" s="22">
         <v>2929.8997790539315</v>
       </c>
-      <c r="J51" s="23">
+      <c r="J51" s="22">
         <v>554.25538905392386</v>
       </c>
-      <c r="K51" s="22">
+      <c r="K51" s="21">
         <v>2365.5016705693652</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A52" s="16">
+      <c r="A52" s="15">
         <v>44651</v>
       </c>
-      <c r="B52" s="26">
+      <c r="B52" s="25">
         <v>1.0468499999999998</v>
       </c>
-      <c r="C52" s="21">
+      <c r="C52" s="20">
         <v>1.2143669200000002</v>
       </c>
-      <c r="D52" s="22">
+      <c r="D52" s="21">
         <v>259.65122600000063</v>
       </c>
-      <c r="E52" s="23">
+      <c r="E52" s="22">
         <v>248.03097482925031</v>
       </c>
-      <c r="F52" s="23">
+      <c r="F52" s="22">
         <v>738.05772364591212</v>
       </c>
-      <c r="G52" s="23">
+      <c r="G52" s="22">
         <v>772.63572799872293</v>
       </c>
-      <c r="H52" s="23">
+      <c r="H52" s="22">
         <v>2635.2956160000085</v>
       </c>
-      <c r="I52" s="23">
+      <c r="I52" s="22">
         <v>3138.137398568088</v>
       </c>
-      <c r="J52" s="23">
+      <c r="J52" s="22">
         <v>502.84178256807945</v>
       </c>
-      <c r="K52" s="22">
+      <c r="K52" s="21">
         <v>2365.5016705693652</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A53" s="16">
+      <c r="A53" s="15">
         <v>44680</v>
       </c>
-      <c r="B53" s="26">
+      <c r="B53" s="25">
         <v>0.83169999999999999</v>
       </c>
-      <c r="C53" s="21">
+      <c r="C53" s="20">
         <v>1.1967078799999999</v>
       </c>
-      <c r="D53" s="22">
+      <c r="D53" s="21">
         <v>565.76221399999997</v>
       </c>
-      <c r="E53" s="23">
+      <c r="E53" s="22">
         <v>680.24794276782495</v>
       </c>
-      <c r="F53" s="23">
+      <c r="F53" s="22">
         <v>1418.3056664137371</v>
       </c>
-      <c r="G53" s="23">
+      <c r="G53" s="22">
         <v>1179.6048227563051</v>
       </c>
-      <c r="H53" s="23">
+      <c r="H53" s="22">
         <v>3201.0578300000084</v>
       </c>
-      <c r="I53" s="23">
+      <c r="I53" s="22">
         <v>3545.1064933256703</v>
       </c>
-      <c r="J53" s="23">
+      <c r="J53" s="22">
         <v>344.04866332566189</v>
       </c>
-      <c r="K53" s="22">
+      <c r="K53" s="21">
         <v>2365.5016705693652</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A54" s="16">
+      <c r="A54" s="15">
         <v>44712</v>
       </c>
-      <c r="B54" s="26">
+      <c r="B54" s="25">
         <v>0.90644000000000002</v>
       </c>
-      <c r="C54" s="21">
+      <c r="C54" s="20">
         <v>1.1734625999999997</v>
       </c>
-      <c r="D54" s="22">
+      <c r="D54" s="21">
         <v>413.88502999999946</v>
       </c>
-      <c r="E54" s="23">
+      <c r="E54" s="22">
         <v>456.60499316005411</v>
       </c>
-      <c r="F54" s="23">
+      <c r="F54" s="22">
         <v>1874.9106595737912</v>
       </c>
-      <c r="G54" s="23">
+      <c r="G54" s="22">
         <v>1699.4940182640673</v>
       </c>
-      <c r="H54" s="23">
+      <c r="H54" s="22">
         <v>3614.9428600000078</v>
       </c>
-      <c r="I54" s="23">
+      <c r="I54" s="22">
         <v>4064.9956888334327</v>
       </c>
-      <c r="J54" s="23">
+      <c r="J54" s="22">
         <v>450.05282883342488</v>
       </c>
-      <c r="K54" s="22">
+      <c r="K54" s="21">
         <v>2365.5016705693652</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A55" s="16">
+      <c r="A55" s="15">
         <v>44742</v>
       </c>
-      <c r="B55" s="26">
+      <c r="B55" s="25">
         <v>0.99066999999999994</v>
       </c>
-      <c r="C55" s="21">
+      <c r="C55" s="20">
         <v>1.1480034399999997</v>
       </c>
-      <c r="D55" s="22">
+      <c r="D55" s="21">
         <v>243.86683199999956</v>
       </c>
-      <c r="E55" s="23">
+      <c r="E55" s="22">
         <v>246.16353780774585</v>
       </c>
-      <c r="F55" s="23">
+      <c r="F55" s="22">
         <v>2121.074197381537</v>
       </c>
-      <c r="G55" s="23">
+      <c r="G55" s="22">
         <v>2101.284575119967</v>
       </c>
-      <c r="H55" s="23">
+      <c r="H55" s="22">
         <v>3858.8096920000075</v>
       </c>
-      <c r="I55" s="23">
+      <c r="I55" s="22">
         <v>4466.7862456893326</v>
       </c>
-      <c r="J55" s="23">
+      <c r="J55" s="22">
         <v>607.9765536893251</v>
       </c>
-      <c r="K55" s="22">
+      <c r="K55" s="21">
         <v>2365.5016705693652</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A56" s="16">
+      <c r="A56" s="15">
         <v>44771</v>
       </c>
-      <c r="B56" s="26">
+      <c r="B56" s="25">
         <v>1.01267</v>
       </c>
-      <c r="C56" s="21">
+      <c r="C56" s="20">
         <v>1.1203607999999998</v>
       </c>
-      <c r="D56" s="22">
+      <c r="D56" s="21">
         <v>166.9207399999998</v>
       </c>
-      <c r="E56" s="23">
+      <c r="E56" s="22">
         <v>164.83231457434289</v>
       </c>
-      <c r="F56" s="23">
+      <c r="F56" s="22">
         <v>2285.90651195588</v>
       </c>
-      <c r="G56" s="23">
+      <c r="G56" s="22">
         <v>2314.8689474623607</v>
       </c>
-      <c r="H56" s="23">
+      <c r="H56" s="22">
         <v>4025.7304320000076</v>
       </c>
-      <c r="I56" s="23">
+      <c r="I56" s="22">
         <v>4680.3706180317258</v>
       </c>
-      <c r="J56" s="23">
+      <c r="J56" s="22">
         <v>654.64018603171826</v>
       </c>
-      <c r="K56" s="22">
+      <c r="K56" s="21">
         <v>2365.5016705693652</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A57" s="16">
+      <c r="A57" s="15">
         <v>44804</v>
       </c>
-      <c r="B57" s="26">
+      <c r="B57" s="25">
         <v>0.95750000000000002</v>
       </c>
-      <c r="C57" s="21">
+      <c r="C57" s="20">
         <v>1.0959177199999997</v>
       </c>
-      <c r="D57" s="22">
+      <c r="D57" s="21">
         <v>214.54746599999942</v>
       </c>
-      <c r="E57" s="23">
+      <c r="E57" s="22">
         <v>224.07046057441192</v>
       </c>
-      <c r="F57" s="23">
+      <c r="F57" s="22">
         <v>2509.9769725302917</v>
       </c>
-      <c r="G57" s="23">
+      <c r="G57" s="22">
         <v>2403.3029511977543</v>
       </c>
-      <c r="H57" s="23">
+      <c r="H57" s="22">
         <v>4240.2778980000066</v>
       </c>
-      <c r="I57" s="23">
+      <c r="I57" s="22">
         <v>4768.8046217671199</v>
       </c>
-      <c r="J57" s="23">
+      <c r="J57" s="22">
         <v>528.52672376711325</v>
       </c>
-      <c r="K57" s="22">
+      <c r="K57" s="21">
         <v>2365.5016705693652</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A58" s="16">
+      <c r="A58" s="15">
         <v>44834</v>
       </c>
-      <c r="B58" s="26">
+      <c r="B58" s="25">
         <v>0.85887999999999998</v>
       </c>
-      <c r="C58" s="21">
+      <c r="C58" s="20">
         <v>1.06964792</v>
       </c>
-      <c r="D58" s="22">
+      <c r="D58" s="21">
         <v>326.69027599999998</v>
       </c>
-      <c r="E58" s="23">
+      <c r="E58" s="22">
         <v>380.36777663934424</v>
       </c>
-      <c r="F58" s="23">
+      <c r="F58" s="22">
         <v>2890.3447491696361</v>
       </c>
-      <c r="G58" s="23">
+      <c r="G58" s="22">
         <v>2482.459298166817</v>
       </c>
-      <c r="H58" s="23">
+      <c r="H58" s="22">
         <v>4566.9681740000069</v>
       </c>
-      <c r="I58" s="23">
+      <c r="I58" s="22">
         <v>4847.9609687361826</v>
       </c>
-      <c r="J58" s="23">
+      <c r="J58" s="22">
         <v>280.99279473617571</v>
       </c>
-      <c r="K58" s="22">
+      <c r="K58" s="21">
         <v>2365.5016705693652</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A59" s="16">
+      <c r="A59" s="15">
         <v>44865</v>
       </c>
-      <c r="B59" s="26">
+      <c r="B59" s="25">
         <v>0.96957000000000004</v>
       </c>
-      <c r="C59" s="21">
+      <c r="C59" s="20">
         <v>1.0512867600000002</v>
       </c>
-      <c r="D59" s="22">
+      <c r="D59" s="21">
         <v>126.66097800000026</v>
       </c>
-      <c r="E59" s="23">
+      <c r="E59" s="22">
         <v>130.63623874501093</v>
       </c>
-      <c r="F59" s="23">
+      <c r="F59" s="22">
         <v>3020.9809879146469</v>
       </c>
-      <c r="G59" s="23">
+      <c r="G59" s="22">
         <v>2929.0525364524042</v>
       </c>
-      <c r="H59" s="23">
+      <c r="H59" s="22">
         <v>4693.6291520000068</v>
       </c>
-      <c r="I59" s="23">
+      <c r="I59" s="22">
         <v>5294.5542070217689</v>
       </c>
-      <c r="J59" s="23">
+      <c r="J59" s="22">
         <v>600.92505502176209</v>
       </c>
-      <c r="K59" s="22">
+      <c r="K59" s="21">
         <v>2365.5016705693652</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A60" s="16">
+      <c r="A60" s="15">
         <v>44895</v>
       </c>
-      <c r="B60" s="26">
+      <c r="B60" s="25">
         <v>0.99405999999999994</v>
       </c>
-      <c r="C60" s="21">
+      <c r="C60" s="20">
         <v>1.0324731600000001</v>
       </c>
-      <c r="D60" s="22">
+      <c r="D60" s="21">
         <v>59.540398000000259</v>
       </c>
-      <c r="E60" s="23">
+      <c r="E60" s="22">
         <v>59.896181317023384</v>
       </c>
-      <c r="F60" s="23">
+      <c r="F60" s="22">
         <v>3080.8771692316705</v>
       </c>
-      <c r="G60" s="23">
+      <c r="G60" s="22">
         <v>3062.5767588464341</v>
       </c>
-      <c r="H60" s="23">
+      <c r="H60" s="22">
         <v>4753.1695500000069</v>
       </c>
-      <c r="I60" s="23">
+      <c r="I60" s="22">
         <v>5428.0784294157993</v>
       </c>
-      <c r="J60" s="23">
+      <c r="J60" s="22">
         <v>674.9088794157924</v>
       </c>
-      <c r="K60" s="22">
+      <c r="K60" s="21">
         <v>2365.5016705693652</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A61" s="16">
+      <c r="A61" s="15">
         <v>44925</v>
       </c>
-      <c r="B61" s="26">
+      <c r="B61" s="25">
         <v>0.95635000000000003</v>
       </c>
-      <c r="C61" s="21">
+      <c r="C61" s="20">
         <v>1.0098818000000001</v>
       </c>
-      <c r="D61" s="22">
+      <c r="D61" s="21">
         <v>82.974290000000025</v>
       </c>
-      <c r="E61" s="23">
+      <c r="E61" s="22">
         <v>86.761426256077812</v>
       </c>
-      <c r="F61" s="23">
+      <c r="F61" s="22">
         <v>3167.6385954877483</v>
       </c>
-      <c r="G61" s="23">
+      <c r="G61" s="22">
         <v>3029.3711707947082</v>
       </c>
-      <c r="H61" s="23">
+      <c r="H61" s="22">
         <v>4836.143840000007</v>
       </c>
-      <c r="I61" s="23">
+      <c r="I61" s="22">
         <v>5394.8728413640729</v>
       </c>
-      <c r="J61" s="23">
+      <c r="J61" s="22">
         <v>558.72900136406588</v>
       </c>
-      <c r="K61" s="22">
+      <c r="K61" s="21">
         <v>2365.5016705693652</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A62" s="16">
+      <c r="A62" s="15">
         <v>44957</v>
       </c>
-      <c r="B62" s="26">
+      <c r="B62" s="25">
         <v>1.08087</v>
       </c>
-      <c r="C62" s="21">
+      <c r="C62" s="20">
         <v>0.99600491999999985</v>
       </c>
-      <c r="D62" s="22">
+      <c r="D62" s="21">
         <v>-131.54087400000023</v>
       </c>
-      <c r="E62" s="23">
+      <c r="E62" s="22">
         <v>-121.69907019345548</v>
       </c>
-      <c r="F62" s="23">
+      <c r="F62" s="22">
         <v>3045.9395252942927</v>
       </c>
-      <c r="G62" s="23">
+      <c r="G62" s="22">
         <v>3292.2646547048421</v>
       </c>
-      <c r="H62" s="23">
+      <c r="H62" s="22">
         <v>4836.143840000007</v>
       </c>
-      <c r="I62" s="23">
+      <c r="I62" s="22">
         <v>5789.307199274208</v>
       </c>
-      <c r="J62" s="23">
+      <c r="J62" s="22">
         <v>953.16335927420096</v>
       </c>
-      <c r="K62" s="22">
+      <c r="K62" s="21">
         <v>2497.0425445693654</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A63" s="16">
+      <c r="A63" s="15">
         <v>44985</v>
       </c>
-      <c r="B63" s="26">
+      <c r="B63" s="25">
         <v>1.16859</v>
       </c>
-      <c r="C63" s="21">
+      <c r="C63" s="20">
         <v>0.99612511999999998</v>
       </c>
-      <c r="D63" s="22">
+      <c r="D63" s="21">
         <v>-267.32056400000005</v>
       </c>
-      <c r="E63" s="23">
+      <c r="E63" s="22">
         <v>-228.75479338347927</v>
       </c>
-      <c r="F63" s="23">
+      <c r="F63" s="22">
         <v>2817.1847319108133</v>
       </c>
-      <c r="G63" s="23">
+      <c r="G63" s="22">
         <v>3292.1339058636572</v>
       </c>
-      <c r="H63" s="23">
+      <c r="H63" s="22">
         <v>4836.143840000007</v>
       </c>
-      <c r="I63" s="23">
+      <c r="I63" s="22">
         <v>6056.4970144330227</v>
       </c>
-      <c r="J63" s="23">
+      <c r="J63" s="22">
         <v>1220.3531744330157</v>
       </c>
-      <c r="K63" s="22">
+      <c r="K63" s="21">
         <v>2764.3631085693655</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A64" s="16">
+      <c r="A64" s="15">
         <v>45016</v>
       </c>
-      <c r="B64" s="26">
+      <c r="B64" s="25">
         <v>1.2989900000000001</v>
       </c>
-      <c r="C64" s="21">
+      <c r="C64" s="20">
         <v>1.0068202799999997</v>
       </c>
-      <c r="D64" s="22">
+      <c r="D64" s="21">
         <v>-452.86306600000063</v>
       </c>
-      <c r="E64" s="23">
+      <c r="E64" s="22">
         <v>-348.62706102433475</v>
       </c>
-      <c r="F64" s="23">
+      <c r="F64" s="22">
         <v>2468.5576708864787</v>
       </c>
-      <c r="G64" s="23">
+      <c r="G64" s="22">
         <v>3206.631728904827</v>
       </c>
-      <c r="H64" s="23">
+      <c r="H64" s="22">
         <v>4836.143840000007</v>
       </c>
-      <c r="I64" s="23">
+      <c r="I64" s="22">
         <v>6423.8579034741933</v>
       </c>
-      <c r="J64" s="23">
+      <c r="J64" s="22">
         <v>1587.7140634741863</v>
       </c>
-      <c r="K64" s="22">
+      <c r="K64" s="21">
         <v>3217.2261745693663</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A65" s="16">
+      <c r="A65" s="15">
         <v>45044</v>
       </c>
-      <c r="B65" s="26">
+      <c r="B65" s="25">
         <v>1.22841</v>
       </c>
-      <c r="C65" s="21">
+      <c r="C65" s="20">
         <v>1.0281103199999995</v>
       </c>
-      <c r="D65" s="22">
+      <c r="D65" s="21">
         <v>-310.46450400000083</v>
       </c>
-      <c r="E65" s="23">
+      <c r="E65" s="22">
         <v>-252.73687449630077</v>
       </c>
-      <c r="F65" s="23">
+      <c r="F65" s="22">
         <v>2215.8207963901777</v>
       </c>
-      <c r="G65" s="23">
+      <c r="G65" s="22">
         <v>2721.9364244936583</v>
       </c>
-      <c r="H65" s="23">
+      <c r="H65" s="22">
         <v>4836.143840000007</v>
       </c>
-      <c r="I65" s="23">
+      <c r="I65" s="22">
         <v>6249.6271030630251</v>
       </c>
-      <c r="J65" s="23">
+      <c r="J65" s="22">
         <v>1413.4832630630181</v>
       </c>
-      <c r="K65" s="22">
+      <c r="K65" s="21">
         <v>3527.6906785693673</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" ht="14.1" customHeight="1"/>
-    <row r="67" spans="1:11" ht="14.1" customHeight="1"/>
-    <row r="68" spans="1:11" ht="14.1" customHeight="1"/>
-    <row r="69" spans="1:11" ht="14.1" customHeight="1"/>
-    <row r="70" spans="1:11" ht="14.1" customHeight="1"/>
-    <row r="71" spans="1:11" ht="14.1" customHeight="1"/>
-    <row r="72" spans="1:11" ht="14.1" customHeight="1"/>
-    <row r="73" spans="1:11" ht="14.1" customHeight="1"/>
-    <row r="74" spans="1:11" ht="14.1" customHeight="1"/>
-    <row r="75" spans="1:11" ht="14.1" customHeight="1"/>
-    <row r="76" spans="1:11" ht="14.1" customHeight="1"/>
-    <row r="77" spans="1:11" ht="14.1" customHeight="1"/>
-    <row r="78" spans="1:11" ht="14.1" customHeight="1"/>
-    <row r="79" spans="1:11" ht="14.1" customHeight="1"/>
-    <row r="80" spans="1:11" ht="14.1" customHeight="1"/>
-    <row r="81" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="82" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="83" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="84" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="85" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="86" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="87" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="88" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="89" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="90" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="91" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="92" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="93" spans="12:15" ht="14.1" customHeight="1">
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L94" s="8"/>
-    </row>
-    <row r="95" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L95" s="8"/>
-    </row>
-    <row r="96" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L96" s="8"/>
-    </row>
-    <row r="97" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L97" s="8"/>
-    </row>
-    <row r="98" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L98" s="8"/>
-    </row>
-    <row r="99" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L99" s="8"/>
-    </row>
-    <row r="100" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L100" s="8"/>
-    </row>
-    <row r="101" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L101" s="8"/>
-    </row>
-    <row r="102" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L102" s="8"/>
-    </row>
-    <row r="103" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L103" s="8"/>
-    </row>
-    <row r="104" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L104" s="8"/>
-    </row>
-    <row r="105" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L105" s="8"/>
-      <c r="O105" s="3"/>
-    </row>
-    <row r="106" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L106" s="8"/>
-    </row>
-    <row r="107" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L107" s="8"/>
-    </row>
-    <row r="108" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L108" s="8"/>
-    </row>
-    <row r="109" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L109" s="8"/>
-    </row>
-    <row r="110" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L110" s="8"/>
-    </row>
-    <row r="111" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L111" s="8"/>
-    </row>
-    <row r="112" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L112" s="8"/>
-    </row>
-    <row r="113" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L113" s="8"/>
-    </row>
-    <row r="114" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L114" s="8"/>
-    </row>
-    <row r="115" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L115" s="8"/>
-    </row>
-    <row r="116" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L116" s="8"/>
-    </row>
-    <row r="117" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L117" s="8"/>
-      <c r="O117" s="3"/>
-    </row>
-    <row r="118" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L118" s="8"/>
-    </row>
-    <row r="119" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L119" s="8"/>
-    </row>
-    <row r="120" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L120" s="8"/>
-    </row>
-    <row r="121" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L121" s="8"/>
-    </row>
-    <row r="122" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L122" s="8"/>
-    </row>
-    <row r="123" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L123" s="8"/>
-    </row>
-    <row r="124" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L124" s="8"/>
-    </row>
-    <row r="125" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L125" s="8"/>
-    </row>
-    <row r="126" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L126" s="8"/>
-    </row>
-    <row r="127" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L127" s="8"/>
-    </row>
-    <row r="128" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L128" s="8"/>
-    </row>
-    <row r="129" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L129" s="8"/>
-      <c r="O129" s="3"/>
-    </row>
-    <row r="130" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L130" s="8"/>
-    </row>
-    <row r="131" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L131" s="8"/>
-    </row>
-    <row r="132" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L132" s="8"/>
-    </row>
-    <row r="133" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L133" s="8"/>
-    </row>
-    <row r="134" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L134" s="8"/>
-    </row>
-    <row r="135" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L135" s="8"/>
-    </row>
-    <row r="136" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L136" s="8"/>
-    </row>
-    <row r="137" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L137" s="8"/>
-    </row>
-    <row r="138" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L138" s="8"/>
-    </row>
-    <row r="139" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L139" s="8"/>
-    </row>
-    <row r="140" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L140" s="8"/>
-    </row>
-    <row r="141" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L141" s="8"/>
-      <c r="O141" s="3"/>
-    </row>
-    <row r="142" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L142" s="8"/>
-    </row>
-    <row r="143" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L143" s="8"/>
-    </row>
-    <row r="144" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L144" s="8"/>
-    </row>
-    <row r="145" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L145" s="8"/>
-    </row>
-    <row r="146" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L146" s="8"/>
-    </row>
-    <row r="147" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L147" s="8"/>
-    </row>
-    <row r="148" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L148" s="8"/>
-    </row>
-    <row r="149" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L149" s="8"/>
-    </row>
-    <row r="150" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L150" s="8"/>
-    </row>
-    <row r="151" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L151" s="8"/>
-    </row>
-    <row r="152" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L152" s="8"/>
-    </row>
-    <row r="153" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L153" s="8"/>
-      <c r="O153" s="3"/>
-    </row>
-    <row r="154" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L154" s="8"/>
-    </row>
-    <row r="155" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L155" s="8"/>
-    </row>
-    <row r="156" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L156" s="8"/>
-    </row>
-    <row r="157" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L157" s="8"/>
-    </row>
-    <row r="158" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L158" s="8"/>
-    </row>
-    <row r="159" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L159" s="8"/>
-    </row>
-    <row r="160" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L160" s="8"/>
-    </row>
-    <row r="161" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L161" s="8"/>
-    </row>
-    <row r="162" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L162" s="8"/>
-    </row>
-    <row r="163" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L163" s="8"/>
-    </row>
-    <row r="164" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L164" s="8"/>
-    </row>
-    <row r="165" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L165" s="8"/>
-      <c r="O165" s="3"/>
-    </row>
-    <row r="166" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L166" s="8"/>
-    </row>
-    <row r="167" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L167" s="8"/>
-    </row>
-    <row r="168" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L168" s="8"/>
-    </row>
-    <row r="169" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L169" s="4"/>
-    </row>
-    <row r="170" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L170" s="4"/>
-    </row>
-    <row r="171" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L171" s="4"/>
-    </row>
-    <row r="172" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L172" s="4"/>
-    </row>
-    <row r="173" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L173" s="4"/>
-    </row>
-    <row r="174" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L174" s="4"/>
-    </row>
-    <row r="175" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L175" s="4"/>
-    </row>
-    <row r="176" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L176" s="4"/>
-    </row>
-    <row r="177" spans="12:12" ht="14.1" customHeight="1">
-      <c r="L177" s="4"/>
-    </row>
-    <row r="178" spans="12:12" ht="14.1" customHeight="1">
-      <c r="L178" s="4"/>
-    </row>
-    <row r="179" spans="12:12" ht="14.1" customHeight="1">
-      <c r="L179" s="4"/>
-    </row>
-    <row r="180" spans="12:12" ht="14.1" customHeight="1">
-      <c r="L180" s="4"/>
-    </row>
-    <row r="181" spans="12:12" ht="14.1" customHeight="1">
-      <c r="L181" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
@@ -758,7 +758,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -980,6 +980,12 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -989,7 +995,7 @@
               <c:f>'model2(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1210,6 +1216,12 @@
                   <c:v>3591.8772673047747</c:v>
                 </c:pt>
                 <c:pt idx="73">
+                  <c:v>3591.8772673047747</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3591.8772673047747</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>3591.8772673047747</c:v>
                 </c:pt>
               </c:numCache>
@@ -1253,7 +1265,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1475,6 +1487,12 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1484,7 +1502,7 @@
               <c:f>'model2(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1703,6 +1721,12 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>5106.3552929768402</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5054.2557146056624</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5088.7847358745184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1745,7 +1769,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1967,6 +1991,12 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1976,7 +2006,7 @@
               <c:f>'model2(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2198,6 +2228,12 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>1462.3784473008877</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1496.9074685697437</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1500.729157133032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2219,11 +2255,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103045376"/>
-        <c:axId val="110822912"/>
+        <c:axId val="76104448"/>
+        <c:axId val="314172544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="103045376"/>
+        <c:axId val="76104448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2266,14 +2302,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110822912"/>
+        <c:crossAx val="314172544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="110822912"/>
+        <c:axId val="314172544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2322,7 +2358,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103045376"/>
+        <c:crossAx val="76104448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2519,7 +2555,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2705,6 +2741,12 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2714,7 +2756,7 @@
               <c:f>'model2(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2899,6 +2941,12 @@
                   <c:v>4836.143840000007</c:v>
                 </c:pt>
                 <c:pt idx="61">
+                  <c:v>4836.143840000007</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4836.143840000007</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>4836.143840000007</c:v>
                 </c:pt>
               </c:numCache>
@@ -2942,7 +2990,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3128,6 +3176,12 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3137,7 +3191,7 @@
               <c:f>'model2(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3323,6 +3377,12 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>6249.6271030630251</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6405.4214632572184</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6447.124900650886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3365,7 +3425,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3551,6 +3611,12 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3560,7 +3626,7 @@
               <c:f>'model2(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3746,6 +3812,12 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>1413.4832630630181</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1569.2776232572114</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1610.981060650879</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3767,11 +3839,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="431297280"/>
-        <c:axId val="431298816"/>
+        <c:axId val="503875840"/>
+        <c:axId val="546427264"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="431297280"/>
+        <c:axId val="503875840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3814,14 +3886,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="431298816"/>
+        <c:crossAx val="546427264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="431298816"/>
+        <c:axId val="546427264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3870,7 +3942,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="431297280"/>
+        <c:crossAx val="503875840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3978,7 +4050,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4021,7 +4093,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4331,8 +4403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF77"/>
+  <sheetPr codeName="Sheet1">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:AF79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4435,7 +4509,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>0</v>
+        <v>-153.00333687566422</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -7508,6 +7582,76 @@
       </c>
       <c r="K77" s="21">
         <v>4450.9874026034477</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="12.75">
+      <c r="A78" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B78" s="25">
+        <v>1.2987200000000001</v>
+      </c>
+      <c r="C78" s="20">
+        <v>1.0354160636182892</v>
+      </c>
+      <c r="D78" s="21">
+        <v>-408.12110139165191</v>
+      </c>
+      <c r="E78" s="22">
+        <v>-314.24872288996232</v>
+      </c>
+      <c r="F78" s="22">
+        <v>176.84815193376454</v>
+      </c>
+      <c r="G78" s="22">
+        <v>229.67623187941871</v>
+      </c>
+      <c r="H78" s="22">
+        <v>3591.8772673047747</v>
+      </c>
+      <c r="I78" s="22">
+        <v>5088.7847358745184</v>
+      </c>
+      <c r="J78" s="22">
+        <v>1496.9074685697437</v>
+      </c>
+      <c r="K78" s="21">
+        <v>4859.1085039950995</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="12.75">
+      <c r="A79" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B79" s="25">
+        <v>1.32033</v>
+      </c>
+      <c r="C79" s="20">
+        <v>1.0393539895356432</v>
+      </c>
+      <c r="D79" s="21">
+        <v>-435.51281621975306</v>
+      </c>
+      <c r="E79" s="22">
+        <v>-329.85148880942876</v>
+      </c>
+      <c r="F79" s="22">
+        <v>-153.00333687566422</v>
+      </c>
+      <c r="G79" s="22">
+        <v>-202.01489577704572</v>
+      </c>
+      <c r="H79" s="22">
+        <v>3591.8772673047747</v>
+      </c>
+      <c r="I79" s="22">
+        <v>5092.6064244378067</v>
+      </c>
+      <c r="J79" s="22">
+        <v>1500.729157133032</v>
+      </c>
+      <c r="K79" s="21">
+        <v>5294.6213202148529</v>
       </c>
     </row>
   </sheetData>
@@ -7526,10 +7670,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF65"/>
+  <dimension ref="A1:AF67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C10" sqref="C10"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
@@ -10182,6 +10326,76 @@
         <v>3527.6906785693673</v>
       </c>
     </row>
+    <row r="66" spans="1:11" ht="12.75">
+      <c r="A66" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B66" s="25">
+        <v>1.2987200000000001</v>
+      </c>
+      <c r="C66" s="20">
+        <v>1.0590856</v>
+      </c>
+      <c r="D66" s="21">
+        <v>-371.43332000000021</v>
+      </c>
+      <c r="E66" s="22">
+        <v>-285.99953800665287</v>
+      </c>
+      <c r="F66" s="22">
+        <v>1929.8212583835248</v>
+      </c>
+      <c r="G66" s="22">
+        <v>2506.2974646878515</v>
+      </c>
+      <c r="H66" s="22">
+        <v>4836.143840000007</v>
+      </c>
+      <c r="I66" s="22">
+        <v>6405.4214632572184</v>
+      </c>
+      <c r="J66" s="22">
+        <v>1569.2776232572114</v>
+      </c>
+      <c r="K66" s="21">
+        <v>3899.1239985693674</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="12.75">
+      <c r="A67" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B67" s="25">
+        <v>1.32033</v>
+      </c>
+      <c r="C67" s="20">
+        <v>1.0924141600000008</v>
+      </c>
+      <c r="D67" s="21">
+        <v>-353.26955199999878</v>
+      </c>
+      <c r="E67" s="22">
+        <v>-267.56155809532373</v>
+      </c>
+      <c r="F67" s="22">
+        <v>1662.259700288201</v>
+      </c>
+      <c r="G67" s="22">
+        <v>2194.7313500815203</v>
+      </c>
+      <c r="H67" s="22">
+        <v>4836.143840000007</v>
+      </c>
+      <c r="I67" s="22">
+        <v>6447.124900650886</v>
+      </c>
+      <c r="J67" s="22">
+        <v>1610.981060650879</v>
+      </c>
+      <c r="K67" s="21">
+        <v>4252.3935505693662</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
@@ -758,7 +758,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -986,6 +986,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -995,7 +998,7 @@
               <c:f>'model2(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1222,6 +1225,9 @@
                   <c:v>3591.8772673047747</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>3591.8772673047747</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>3591.8772673047747</c:v>
                 </c:pt>
               </c:numCache>
@@ -1265,7 +1271,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1493,6 +1499,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1502,7 +1511,7 @@
               <c:f>'model2(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1727,6 +1736,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>5088.7847358745184</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5092.6064244378067</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1769,7 +1781,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1997,6 +2009,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2006,7 +2021,7 @@
               <c:f>'model2(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2233,6 +2248,9 @@
                   <c:v>1496.9074685697437</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>1500.729157133032</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>1500.729157133032</c:v>
                 </c:pt>
               </c:numCache>
@@ -2255,11 +2273,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="76104448"/>
-        <c:axId val="314172544"/>
+        <c:axId val="356453760"/>
+        <c:axId val="382688256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="76104448"/>
+        <c:axId val="356453760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2302,14 +2320,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314172544"/>
+        <c:crossAx val="382688256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="314172544"/>
+        <c:axId val="382688256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2358,7 +2376,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76104448"/>
+        <c:crossAx val="356453760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2555,7 +2573,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2747,6 +2765,9 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2756,7 +2777,7 @@
               <c:f>'model2(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2947,6 +2968,9 @@
                   <c:v>4836.143840000007</c:v>
                 </c:pt>
                 <c:pt idx="63">
+                  <c:v>4836.143840000007</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>4836.143840000007</c:v>
                 </c:pt>
               </c:numCache>
@@ -2990,7 +3014,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3182,6 +3206,9 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3191,7 +3218,7 @@
               <c:f>'model2(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3382,6 +3409,9 @@
                   <c:v>6405.4214632572184</c:v>
                 </c:pt>
                 <c:pt idx="63">
+                  <c:v>6447.124900650886</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>6447.124900650886</c:v>
                 </c:pt>
               </c:numCache>
@@ -3425,7 +3455,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3617,6 +3647,9 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3626,7 +3659,7 @@
               <c:f>'model2(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3817,6 +3850,9 @@
                   <c:v>1569.2776232572114</c:v>
                 </c:pt>
                 <c:pt idx="63">
+                  <c:v>1610.981060650879</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>1610.981060650879</c:v>
                 </c:pt>
               </c:numCache>
@@ -3839,11 +3875,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="503875840"/>
-        <c:axId val="546427264"/>
+        <c:axId val="389006080"/>
+        <c:axId val="389007616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="503875840"/>
+        <c:axId val="389006080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3886,14 +3922,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="546427264"/>
+        <c:crossAx val="389007616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="546427264"/>
+        <c:axId val="389007616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3942,7 +3978,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503875840"/>
+        <c:crossAx val="389006080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4406,10 +4442,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF79"/>
+  <dimension ref="A1:AF80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C10" sqref="C10"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
@@ -4509,7 +4545,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>-153.00333687566422</v>
+        <v>0</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -7630,16 +7666,16 @@
         <v>1.0393539895356432</v>
       </c>
       <c r="D79" s="21">
-        <v>-435.51281621975306</v>
+        <v>-233.49792044270734</v>
       </c>
       <c r="E79" s="22">
-        <v>-329.85148880942876</v>
+        <v>-176.84815193376454</v>
       </c>
       <c r="F79" s="22">
-        <v>-153.00333687566422</v>
+        <v>0</v>
       </c>
       <c r="G79" s="22">
-        <v>-202.01489577704572</v>
+        <v>0</v>
       </c>
       <c r="H79" s="22">
         <v>3591.8772673047747</v>
@@ -7651,7 +7687,42 @@
         <v>1500.729157133032</v>
       </c>
       <c r="K79" s="21">
-        <v>5294.6213202148529</v>
+        <v>5092.6064244378067</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="12.75">
+      <c r="A80" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B80" s="25">
+        <v>1.32033</v>
+      </c>
+      <c r="C80" s="20">
+        <v>1.0393539895356432</v>
+      </c>
+      <c r="D80" s="21">
+        <v>0</v>
+      </c>
+      <c r="E80" s="22">
+        <v>0</v>
+      </c>
+      <c r="F80" s="22">
+        <v>0</v>
+      </c>
+      <c r="G80" s="22">
+        <v>0</v>
+      </c>
+      <c r="H80" s="22">
+        <v>3591.8772673047747</v>
+      </c>
+      <c r="I80" s="22">
+        <v>5092.6064244378067</v>
+      </c>
+      <c r="J80" s="22">
+        <v>1500.729157133032</v>
+      </c>
+      <c r="K80" s="21">
+        <v>5092.6064244378067</v>
       </c>
     </row>
   </sheetData>
@@ -7670,7 +7741,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF67"/>
+  <dimension ref="A1:AF68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10396,6 +10467,41 @@
         <v>4252.3935505693662</v>
       </c>
     </row>
+    <row r="68" spans="1:11" ht="12.75">
+      <c r="A68" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B68" s="25">
+        <v>1.32033</v>
+      </c>
+      <c r="C68" s="20">
+        <v>1.0924141600000008</v>
+      </c>
+      <c r="D68" s="21">
+        <v>-353.26955199999878</v>
+      </c>
+      <c r="E68" s="22">
+        <v>-267.56155809532373</v>
+      </c>
+      <c r="F68" s="22">
+        <v>1394.6981421928772</v>
+      </c>
+      <c r="G68" s="22">
+        <v>1841.4617980815215</v>
+      </c>
+      <c r="H68" s="22">
+        <v>4836.143840000007</v>
+      </c>
+      <c r="I68" s="22">
+        <v>6447.124900650886</v>
+      </c>
+      <c r="J68" s="22">
+        <v>1610.981060650879</v>
+      </c>
+      <c r="K68" s="21">
+        <v>4605.663102569365</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
@@ -2273,11 +2273,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="356453760"/>
-        <c:axId val="382688256"/>
+        <c:axId val="549000704"/>
+        <c:axId val="549003264"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="356453760"/>
+        <c:axId val="549000704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2320,14 +2320,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382688256"/>
+        <c:crossAx val="549003264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="382688256"/>
+        <c:axId val="549003264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2376,7 +2376,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356453760"/>
+        <c:crossAx val="549000704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3412,7 +3412,7 @@
                   <c:v>6447.124900650886</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>6447.124900650886</c:v>
+                  <c:v>6344.9790420681766</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3853,7 +3853,7 @@
                   <c:v>1610.981060650879</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1610.981060650879</c:v>
+                  <c:v>1508.8352020681696</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3875,11 +3875,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="389006080"/>
-        <c:axId val="389007616"/>
+        <c:axId val="549618048"/>
+        <c:axId val="549620736"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="389006080"/>
+        <c:axId val="549618048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3922,14 +3922,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389007616"/>
+        <c:crossAx val="549620736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="389007616"/>
+        <c:axId val="549620736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3978,7 +3978,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389006080"/>
+        <c:crossAx val="549618048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4445,7 +4445,7 @@
   <dimension ref="A1:AF80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C10" sqref="C10"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
@@ -7695,10 +7695,10 @@
         <v>45138</v>
       </c>
       <c r="B80" s="25">
-        <v>1.32033</v>
+        <v>1.25888</v>
       </c>
       <c r="C80" s="20">
-        <v>1.0393539895356432</v>
+        <v>1.0426825419354826</v>
       </c>
       <c r="D80" s="21">
         <v>0</v>
@@ -10472,34 +10472,34 @@
         <v>45138</v>
       </c>
       <c r="B68" s="25">
-        <v>1.32033</v>
+        <v>1.25888</v>
       </c>
       <c r="C68" s="20">
-        <v>1.0924141600000008</v>
+        <v>1.1188947600000003</v>
       </c>
       <c r="D68" s="21">
-        <v>-353.26955199999878</v>
+        <v>-216.9771219999995</v>
       </c>
       <c r="E68" s="22">
-        <v>-267.56155809532373</v>
+        <v>-172.35727154295842</v>
       </c>
       <c r="F68" s="22">
-        <v>1394.6981421928772</v>
+        <v>1489.9024287452426</v>
       </c>
       <c r="G68" s="22">
-        <v>1841.4617980815215</v>
+        <v>1875.608369498811</v>
       </c>
       <c r="H68" s="22">
         <v>4836.143840000007</v>
       </c>
       <c r="I68" s="22">
-        <v>6447.124900650886</v>
+        <v>6344.9790420681766</v>
       </c>
       <c r="J68" s="22">
-        <v>1610.981060650879</v>
+        <v>1508.8352020681696</v>
       </c>
       <c r="K68" s="21">
-        <v>4605.663102569365</v>
+        <v>4469.3706725693655</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
@@ -758,7 +758,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -989,6 +989,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -998,7 +1001,7 @@
               <c:f>'model2(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1228,6 +1231,9 @@
                   <c:v>3591.8772673047747</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>3591.8772673047747</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>3591.8772673047747</c:v>
                 </c:pt>
               </c:numCache>
@@ -1271,7 +1277,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1502,6 +1508,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1511,7 +1520,7 @@
               <c:f>'model2(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1738,6 +1747,9 @@
                   <c:v>5088.7847358745184</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>5092.6064244378067</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>5092.6064244378067</c:v>
                 </c:pt>
               </c:numCache>
@@ -1781,7 +1793,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2012,6 +2024,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2021,7 +2036,7 @@
               <c:f>'model2(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2251,6 +2266,9 @@
                   <c:v>1500.729157133032</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>1500.729157133032</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>1500.729157133032</c:v>
                 </c:pt>
               </c:numCache>
@@ -2273,11 +2291,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="549000704"/>
-        <c:axId val="549003264"/>
+        <c:axId val="90329088"/>
+        <c:axId val="90331392"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="549000704"/>
+        <c:axId val="90329088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2320,14 +2338,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549003264"/>
+        <c:crossAx val="90331392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="549003264"/>
+        <c:axId val="90331392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2376,7 +2394,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549000704"/>
+        <c:crossAx val="90329088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2573,7 +2591,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2768,6 +2786,9 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2777,7 +2798,7 @@
               <c:f>'model2(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2971,6 +2992,9 @@
                   <c:v>4836.143840000007</c:v>
                 </c:pt>
                 <c:pt idx="64">
+                  <c:v>4836.143840000007</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>4836.143840000007</c:v>
                 </c:pt>
               </c:numCache>
@@ -3014,7 +3038,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3209,6 +3233,9 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3218,7 +3245,7 @@
               <c:f>'model2(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3413,6 +3440,9 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>6344.9790420681766</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6336.2929109085917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3455,7 +3485,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3650,6 +3680,9 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3659,7 +3692,7 @@
               <c:f>'model2(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3854,6 +3887,9 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>1508.8352020681696</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1500.1490709085847</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3875,11 +3911,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="549618048"/>
-        <c:axId val="549620736"/>
+        <c:axId val="489984384"/>
+        <c:axId val="489985920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="549618048"/>
+        <c:axId val="489984384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3922,14 +3958,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549620736"/>
+        <c:crossAx val="489985920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="549620736"/>
+        <c:axId val="489985920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3978,7 +4014,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549618048"/>
+        <c:crossAx val="489984384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4442,7 +4478,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF80"/>
+  <dimension ref="A1:AF81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -7725,6 +7761,41 @@
         <v>5092.6064244378067</v>
       </c>
     </row>
+    <row r="81" spans="1:11" ht="12.75">
+      <c r="A81" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B81" s="25">
+        <v>1.25305</v>
+      </c>
+      <c r="C81" s="20">
+        <v>1.0455482644628087</v>
+      </c>
+      <c r="D81" s="21">
+        <v>0</v>
+      </c>
+      <c r="E81" s="22">
+        <v>0</v>
+      </c>
+      <c r="F81" s="22">
+        <v>0</v>
+      </c>
+      <c r="G81" s="22">
+        <v>0</v>
+      </c>
+      <c r="H81" s="22">
+        <v>3591.8772673047747</v>
+      </c>
+      <c r="I81" s="22">
+        <v>5092.6064244378067</v>
+      </c>
+      <c r="J81" s="22">
+        <v>1500.729157133032</v>
+      </c>
+      <c r="K81" s="21">
+        <v>5092.6064244378067</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -7741,7 +7812,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF68"/>
+  <dimension ref="A1:AF69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10502,6 +10573,41 @@
         <v>4469.3706725693655</v>
       </c>
     </row>
+    <row r="69" spans="1:11" ht="12.75">
+      <c r="A69" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B69" s="25">
+        <v>1.25305</v>
+      </c>
+      <c r="C69" s="20">
+        <v>1.1386268800000001</v>
+      </c>
+      <c r="D69" s="21">
+        <v>-177.35583599999981</v>
+      </c>
+      <c r="E69" s="22">
+        <v>-141.53931287658099</v>
+      </c>
+      <c r="F69" s="22">
+        <v>1348.3631158686617</v>
+      </c>
+      <c r="G69" s="22">
+        <v>1689.5664023392264</v>
+      </c>
+      <c r="H69" s="22">
+        <v>4836.143840000007</v>
+      </c>
+      <c r="I69" s="22">
+        <v>6336.2929109085917</v>
+      </c>
+      <c r="J69" s="22">
+        <v>1500.1490709085847</v>
+      </c>
+      <c r="K69" s="21">
+        <v>4646.7265085693653</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
@@ -758,7 +758,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -992,6 +992,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1001,7 +1004,7 @@
               <c:f>'model2(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1234,6 +1237,9 @@
                   <c:v>3591.8772673047747</c:v>
                 </c:pt>
                 <c:pt idx="77">
+                  <c:v>3591.8772673047747</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>3591.8772673047747</c:v>
                 </c:pt>
               </c:numCache>
@@ -1277,7 +1283,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1511,6 +1517,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1520,7 +1529,7 @@
               <c:f>'model2(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1750,6 +1759,9 @@
                   <c:v>5092.6064244378067</c:v>
                 </c:pt>
                 <c:pt idx="77">
+                  <c:v>5092.6064244378067</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>5092.6064244378067</c:v>
                 </c:pt>
               </c:numCache>
@@ -1793,7 +1805,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2027,6 +2039,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2036,7 +2051,7 @@
               <c:f>'model2(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2269,6 +2284,9 @@
                   <c:v>1500.729157133032</c:v>
                 </c:pt>
                 <c:pt idx="77">
+                  <c:v>1500.729157133032</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>1500.729157133032</c:v>
                 </c:pt>
               </c:numCache>
@@ -2291,11 +2309,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="90329088"/>
-        <c:axId val="90331392"/>
+        <c:axId val="429628032"/>
+        <c:axId val="429765376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="90329088"/>
+        <c:axId val="429628032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2338,14 +2356,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90331392"/>
+        <c:crossAx val="429765376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="90331392"/>
+        <c:axId val="429765376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2394,7 +2412,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90329088"/>
+        <c:crossAx val="429628032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2591,7 +2609,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="67"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2789,6 +2807,9 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2798,7 +2819,7 @@
               <c:f>'model2(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="67"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2995,6 +3016,9 @@
                   <c:v>4836.143840000007</c:v>
                 </c:pt>
                 <c:pt idx="65">
+                  <c:v>4836.143840000007</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>4836.143840000007</c:v>
                 </c:pt>
               </c:numCache>
@@ -3038,7 +3062,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="67"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3236,6 +3260,9 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3245,7 +3272,7 @@
               <c:f>'model2(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="67"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3443,6 +3470,9 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>6336.2929109085917</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6307.370522073209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3485,7 +3515,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="67"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3683,6 +3713,9 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3692,7 +3725,7 @@
               <c:f>'model2(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="67"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3890,6 +3923,9 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>1500.1490709085847</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1471.226682073202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3911,11 +3947,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="489984384"/>
-        <c:axId val="489985920"/>
+        <c:axId val="453794432"/>
+        <c:axId val="517657344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="489984384"/>
+        <c:axId val="453794432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3958,14 +3994,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489985920"/>
+        <c:crossAx val="517657344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="489985920"/>
+        <c:axId val="517657344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4014,7 +4050,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489984384"/>
+        <c:crossAx val="453794432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4122,7 +4158,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4165,7 +4201,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4478,7 +4514,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF81"/>
+  <dimension ref="A1:AF82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -7796,6 +7832,41 @@
         <v>5092.6064244378067</v>
       </c>
     </row>
+    <row r="82" spans="1:11" ht="12.75">
+      <c r="A82" s="15">
+        <v>45197</v>
+      </c>
+      <c r="B82" s="25">
+        <v>1.2315999999999998</v>
+      </c>
+      <c r="C82" s="20">
+        <v>1.0475409711779438</v>
+      </c>
+      <c r="D82" s="21">
+        <v>0</v>
+      </c>
+      <c r="E82" s="22">
+        <v>0</v>
+      </c>
+      <c r="F82" s="22">
+        <v>0</v>
+      </c>
+      <c r="G82" s="22">
+        <v>0</v>
+      </c>
+      <c r="H82" s="22">
+        <v>3591.8772673047747</v>
+      </c>
+      <c r="I82" s="22">
+        <v>5092.6064244378067</v>
+      </c>
+      <c r="J82" s="22">
+        <v>1500.729157133032</v>
+      </c>
+      <c r="K82" s="21">
+        <v>5092.6064244378067</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -7812,7 +7883,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF69"/>
+  <dimension ref="A1:AF70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10608,6 +10679,41 @@
         <v>4646.7265085693653</v>
       </c>
     </row>
+    <row r="70" spans="1:11" ht="12.75">
+      <c r="A70" s="15">
+        <v>45197</v>
+      </c>
+      <c r="B70" s="25">
+        <v>1.2315999999999998</v>
+      </c>
+      <c r="C70" s="20">
+        <v>1.1595792</v>
+      </c>
+      <c r="D70" s="21">
+        <v>-111.63223999999965</v>
+      </c>
+      <c r="E70" s="22">
+        <v>-90.640012991230648</v>
+      </c>
+      <c r="F70" s="22">
+        <v>1257.7231028774311</v>
+      </c>
+      <c r="G70" s="22">
+        <v>1549.0117735038439</v>
+      </c>
+      <c r="H70" s="22">
+        <v>4836.143840000007</v>
+      </c>
+      <c r="I70" s="22">
+        <v>6307.370522073209</v>
+      </c>
+      <c r="J70" s="22">
+        <v>1471.226682073202</v>
+      </c>
+      <c r="K70" s="21">
+        <v>4758.3587485693652</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
@@ -758,7 +758,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -995,6 +995,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1004,7 +1007,7 @@
               <c:f>'model2(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1072,175 +1075,178 @@
                   <c:v>2111.9093732609417</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2394.4513408635335</c:v>
+                  <c:v>2395.4200068816317</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2396.8582184785964</c:v>
+                  <c:v>2397.2416290110682</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2396.8582184785964</c:v>
+                  <c:v>2397.2416290110682</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2396.8582184785964</c:v>
+                  <c:v>2397.2416290110682</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2710.9581671008523</c:v>
+                  <c:v>2710.3066380378809</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2902.5246520810865</c:v>
+                  <c:v>2901.3939874069629</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2961.4467811635091</c:v>
+                  <c:v>2959.8496460570755</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2984.9970803218839</c:v>
+                  <c:v>2982.9438651410419</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3093.8710964872953</c:v>
+                  <c:v>3091.370097699179</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3353.2124269832216</c:v>
+                  <c:v>3350.2758931201511</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3439.1418077440094</c:v>
+                  <c:v>3435.7788599084693</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3486.7033959369519</c:v>
+                  <c:v>3482.9216533711101</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3591.8772673047747</c:v>
+                  <c:v>3587.6850243046301</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3591.8772673047747</c:v>
+                  <c:v>3587.6850243046301</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3591.8772673047747</c:v>
+                  <c:v>3587.6850243046301</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3591.8772673047747</c:v>
+                  <c:v>3587.6850243046301</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3591.8772673047747</c:v>
+                  <c:v>3587.6850243046301</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3591.8772673047747</c:v>
+                  <c:v>3587.6850243046301</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3591.8772673047747</c:v>
+                  <c:v>3587.6850243046301</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3591.8772673047747</c:v>
+                  <c:v>3587.6850243046301</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3591.8772673047747</c:v>
+                  <c:v>3587.6850243046301</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3591.8772673047747</c:v>
+                  <c:v>3587.6850243046301</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3587.6850243046301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1283,7 +1289,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1520,6 +1526,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1529,7 +1538,7 @@
               <c:f>'model2(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1597,172 +1606,175 @@
                   <c:v>1961.8999213933344</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2254.4679954794947</c:v>
+                  <c:v>2252.948430691451</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2766.0807020596526</c:v>
+                  <c:v>2767.2580750916109</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3021.4630213992896</c:v>
+                  <c:v>3022.7631932507707</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2926.2535135499193</c:v>
+                  <c:v>2927.5266881023304</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2804.5038803757966</c:v>
+                  <c:v>2805.2299385403758</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2867.2827860557159</c:v>
+                  <c:v>2867.9977249046274</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2880.065026074913</c:v>
+                  <c:v>2880.7747887278465</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2960.4404223387655</c:v>
+                  <c:v>2961.099388142412</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3046.8377821329068</c:v>
+                  <c:v>3047.4211447806897</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3079.0359161616857</c:v>
+                  <c:v>3079.5821307106153</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3089.6773908044429</c:v>
+                  <c:v>3090.207905587803</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3217.6093105743603</c:v>
+                  <c:v>3217.9034879507626</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3387.5511715784992</c:v>
+                  <c:v>3387.4430095085036</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3490.1281563085554</c:v>
+                  <c:v>3489.6873280038235</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3349.0133885807595</c:v>
+                  <c:v>3349.2664254597594</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3400.3189677436058</c:v>
+                  <c:v>3400.2100567542902</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3393.7776001007796</c:v>
+                  <c:v>3393.7501919503693</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3420.824392859301</c:v>
+                  <c:v>3419.9347522582125</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3420.824392859301</c:v>
+                  <c:v>3419.9347522582125</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3420.824392859301</c:v>
+                  <c:v>3419.9347522582125</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3420.824392859301</c:v>
+                  <c:v>3419.9347522582125</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3420.824392859301</c:v>
+                  <c:v>3419.9347522582125</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3420.824392859301</c:v>
+                  <c:v>3419.9347522582125</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3420.824392859301</c:v>
+                  <c:v>3419.9347522582125</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3420.824392859301</c:v>
+                  <c:v>3419.9347522582125</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3420.824392859301</c:v>
+                  <c:v>3419.9347522582125</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3420.824392859301</c:v>
+                  <c:v>3419.9347522582125</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3420.824392859301</c:v>
+                  <c:v>3419.9347522582125</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3420.824392859301</c:v>
+                  <c:v>3419.9347522582125</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3420.824392859301</c:v>
+                  <c:v>3419.9347522582125</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3420.824392859301</c:v>
+                  <c:v>3419.9347522582125</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3420.824392859301</c:v>
+                  <c:v>3419.9347522582125</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3420.824392859301</c:v>
+                  <c:v>3419.9347522582125</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3420.824392859301</c:v>
+                  <c:v>3419.9347522582125</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3420.824392859301</c:v>
+                  <c:v>3419.9347522582125</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3420.824392859301</c:v>
+                  <c:v>3419.9347522582125</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3420.824392859301</c:v>
+                  <c:v>3419.9347522582125</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3420.824392859301</c:v>
+                  <c:v>3419.9347522582125</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3420.824392859301</c:v>
+                  <c:v>3419.9347522582125</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3731.8907331482233</c:v>
+                  <c:v>3730.5058943719009</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3951.4109253223905</c:v>
+                  <c:v>3949.5024503798877</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4059.6372594590539</c:v>
+                  <c:v>4057.1676399562484</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4097.3737993082686</c:v>
+                  <c:v>4094.4130128344723</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4169.3895785813165</c:v>
+                  <c:v>4166.0938439923584</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4351.6306494261671</c:v>
+                  <c:v>4348.1472011607748</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4557.5196805914193</c:v>
+                  <c:v>4553.2755358340419</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4633.7926228862416</c:v>
+                  <c:v>4629.0449532534594</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4692.9521370177645</c:v>
+                  <c:v>4687.9403225778906</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4858.5874658227121</c:v>
+                  <c:v>4853.0389304266973</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4968.1380669492974</c:v>
+                  <c:v>4962.1784997953009</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5106.3552929768402</c:v>
+                  <c:v>5099.7393384845409</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5054.2557146056624</c:v>
+                  <c:v>5048.0173225405779</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>5088.7847358745184</c:v>
+                  <c:v>5082.1464599692426</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>5092.6064244378067</c:v>
+                  <c:v>5085.8382814380839</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>5092.6064244378067</c:v>
+                  <c:v>5085.8382814380839</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>5092.6064244378067</c:v>
+                  <c:v>5085.8382814380839</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5085.8382814380839</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1805,7 +1817,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2042,6 +2054,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2051,7 +2066,7 @@
               <c:f>'model2(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2119,175 +2134,178 @@
                   <c:v>-150.00945186760737</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-139.98334538403878</c:v>
+                  <c:v>-142.47157619018071</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>369.22248358105617</c:v>
+                  <c:v>370.01644608054266</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>624.60480292069315</c:v>
+                  <c:v>625.52156423970246</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>529.39529507132283</c:v>
+                  <c:v>530.28505909126216</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>404.61205356386654</c:v>
+                  <c:v>405.49444261618328</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>467.3909592437858</c:v>
+                  <c:v>468.26222898043488</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>480.17319926298296</c:v>
+                  <c:v>481.03929280365401</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>560.54859552683547</c:v>
+                  <c:v>561.36389221821946</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>646.94595532097674</c:v>
+                  <c:v>647.68564885649721</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>679.14408934975563</c:v>
+                  <c:v>679.84663478642278</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>689.78556399251283</c:v>
+                  <c:v>690.47240966361051</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>817.71748376243022</c:v>
+                  <c:v>818.16799202657012</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>987.65934476656912</c:v>
+                  <c:v>987.70751358431107</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1090.2363294966253</c:v>
+                  <c:v>1089.951832079631</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>949.12156176882945</c:v>
+                  <c:v>949.53092953556688</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1000.4271409316757</c:v>
+                  <c:v>1000.4745608300977</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>993.88577328884958</c:v>
+                  <c:v>994.01469602617681</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1020.932566047371</c:v>
+                  <c:v>1020.19925633402</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1020.932566047371</c:v>
+                  <c:v>1020.19925633402</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1020.932566047371</c:v>
+                  <c:v>1020.19925633402</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1020.932566047371</c:v>
+                  <c:v>1020.19925633402</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1020.932566047371</c:v>
+                  <c:v>1020.19925633402</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1020.932566047371</c:v>
+                  <c:v>1020.19925633402</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1020.932566047371</c:v>
+                  <c:v>1020.19925633402</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1020.932566047371</c:v>
+                  <c:v>1020.19925633402</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1020.932566047371</c:v>
+                  <c:v>1020.19925633402</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1020.932566047371</c:v>
+                  <c:v>1020.19925633402</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1020.932566047371</c:v>
+                  <c:v>1020.19925633402</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1020.932566047371</c:v>
+                  <c:v>1020.19925633402</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1020.932566047371</c:v>
+                  <c:v>1020.19925633402</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1020.932566047371</c:v>
+                  <c:v>1020.19925633402</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1020.932566047371</c:v>
+                  <c:v>1020.19925633402</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1020.932566047371</c:v>
+                  <c:v>1020.19925633402</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1020.932566047371</c:v>
+                  <c:v>1020.19925633402</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1020.932566047371</c:v>
+                  <c:v>1020.19925633402</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1020.932566047371</c:v>
+                  <c:v>1020.19925633402</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1020.932566047371</c:v>
+                  <c:v>1020.19925633402</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1020.932566047371</c:v>
+                  <c:v>1020.19925633402</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1020.932566047371</c:v>
+                  <c:v>1020.19925633402</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1020.932566047371</c:v>
+                  <c:v>1020.19925633402</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1048.886273241304</c:v>
+                  <c:v>1048.1084629729248</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1098.1904782955448</c:v>
+                  <c:v>1097.317993899173</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1112.3767189863847</c:v>
+                  <c:v>1111.4691476934304</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1075.5184820940212</c:v>
+                  <c:v>1074.7237462931794</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>998.41822244294553</c:v>
+                  <c:v>997.87130804062372</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1118.3778728474099</c:v>
+                  <c:v>1117.4966759255726</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1147.0892269492897</c:v>
+                  <c:v>1146.1232998823493</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1101.0748697129898</c:v>
+                  <c:v>1100.2552982732605</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1266.7101985179374</c:v>
+                  <c:v>1265.3539061220672</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1376.2607996445226</c:v>
+                  <c:v>1374.4934754906708</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1514.4780256720655</c:v>
+                  <c:v>1512.0543141799108</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1462.3784473008877</c:v>
+                  <c:v>1460.3322982359477</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1496.9074685697437</c:v>
+                  <c:v>1494.4614356646125</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1500.729157133032</c:v>
+                  <c:v>1498.1532571334537</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1500.729157133032</c:v>
+                  <c:v>1498.1532571334537</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1500.729157133032</c:v>
+                  <c:v>1498.1532571334537</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1500.729157133032</c:v>
+                  <c:v>1498.1532571334537</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1498.1532571334537</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2309,11 +2327,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="429628032"/>
-        <c:axId val="429765376"/>
+        <c:axId val="38931456"/>
+        <c:axId val="40720256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="429628032"/>
+        <c:axId val="38931456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2356,14 +2374,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429765376"/>
+        <c:crossAx val="40720256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="429765376"/>
+        <c:axId val="40720256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2412,7 +2430,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429628032"/>
+        <c:crossAx val="38931456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2609,7 +2627,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2810,6 +2828,9 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2819,7 +2840,7 @@
               <c:f>'model2(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2851,175 +2872,178 @@
                   <c:v>1431.6926540000038</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1624.9792660000041</c:v>
+                  <c:v>1625.1494560000042</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1624.9792660000041</c:v>
+                  <c:v>1625.1494560000042</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1624.9792660000041</c:v>
+                  <c:v>1625.1494560000042</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1624.9792660000041</c:v>
+                  <c:v>1625.1494560000042</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1624.9792660000041</c:v>
+                  <c:v>1625.1494560000042</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1624.9792660000041</c:v>
+                  <c:v>1625.1494560000042</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1624.9792660000041</c:v>
+                  <c:v>1625.1494560000042</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1624.9792660000041</c:v>
+                  <c:v>1625.1494560000042</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1624.9792660000041</c:v>
+                  <c:v>1625.1494560000042</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1624.9792660000041</c:v>
+                  <c:v>1625.1494560000042</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1624.9792660000041</c:v>
+                  <c:v>1625.1494560000042</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1624.9792660000041</c:v>
+                  <c:v>1625.1494560000042</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1624.9792660000041</c:v>
+                  <c:v>1625.1494560000042</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1624.9792660000041</c:v>
+                  <c:v>1625.1494560000042</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1624.9792660000041</c:v>
+                  <c:v>1625.1494560000042</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1624.9792660000041</c:v>
+                  <c:v>1625.1494560000042</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1624.9792660000041</c:v>
+                  <c:v>1625.1494560000042</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1624.9792660000041</c:v>
+                  <c:v>1625.1494560000042</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1624.9792660000041</c:v>
+                  <c:v>1625.1494560000042</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1624.9792660000041</c:v>
+                  <c:v>1625.1494560000042</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1624.9792660000041</c:v>
+                  <c:v>1625.1494560000042</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1624.9792660000041</c:v>
+                  <c:v>1625.1494560000042</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1624.9792660000041</c:v>
+                  <c:v>1625.1494560000042</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1624.9792660000041</c:v>
+                  <c:v>1625.1494560000042</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1628.6208360000048</c:v>
+                  <c:v>1628.7910260000049</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1639.3211680000056</c:v>
+                  <c:v>1639.4913580000057</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1769.8775440000049</c:v>
+                  <c:v>1770.0477340000052</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1873.7719360000042</c:v>
+                  <c:v>1873.9421260000045</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1873.7719360000042</c:v>
+                  <c:v>1873.9421260000045</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1873.7719360000042</c:v>
+                  <c:v>1873.9421260000045</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1873.7719360000042</c:v>
+                  <c:v>1873.9421260000045</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1925.7948960000051</c:v>
+                  <c:v>1925.9650860000054</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1989.4236360000052</c:v>
+                  <c:v>1989.5938260000055</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2056.9913600000054</c:v>
+                  <c:v>2057.1615500000057</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2064.4128220000061</c:v>
+                  <c:v>2064.5830120000064</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2064.4128220000061</c:v>
+                  <c:v>2064.5830120000064</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2257.814878000007</c:v>
+                  <c:v>2257.2385880000079</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2375.6443900000077</c:v>
+                  <c:v>2374.1318380000084</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2635.2956160000085</c:v>
+                  <c:v>2633.8218760000091</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3201.0578300000084</c:v>
+                  <c:v>3199.3673380000087</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3614.9428600000078</c:v>
+                  <c:v>3612.957310000008</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3858.8096920000075</c:v>
+                  <c:v>3856.0087800000078</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4025.7304320000076</c:v>
+                  <c:v>4021.9754020000078</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4240.2778980000066</c:v>
+                  <c:v>4235.9798100000071</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4566.9681740000069</c:v>
+                  <c:v>4562.2859340000068</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4693.6291520000068</c:v>
+                  <c:v>4688.6512340000072</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4753.1695500000069</c:v>
+                  <c:v>4747.6790780000074</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4836.143840000007</c:v>
+                  <c:v>4830.1401940000078</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4836.143840000007</c:v>
+                  <c:v>4830.1401940000078</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4836.143840000007</c:v>
+                  <c:v>4830.1401940000078</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4836.143840000007</c:v>
+                  <c:v>4830.1401940000078</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4836.143840000007</c:v>
+                  <c:v>4830.1401940000078</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4836.143840000007</c:v>
+                  <c:v>4830.1401940000078</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4836.143840000007</c:v>
+                  <c:v>4830.1401940000078</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4836.143840000007</c:v>
+                  <c:v>4830.1401940000078</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4836.143840000007</c:v>
+                  <c:v>4830.1401940000078</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4836.143840000007</c:v>
+                  <c:v>4830.1401940000078</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4830.1401940000078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3062,7 +3086,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3263,6 +3287,9 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3272,7 +3299,7 @@
               <c:f>'model2(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3304,175 +3331,178 @@
                   <c:v>1305.2741513950191</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1506.5192798355508</c:v>
+                  <c:v>1504.7143635656378</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1902.5695347816284</c:v>
+                  <c:v>1903.1524699952708</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2091.654985424565</c:v>
+                  <c:v>2092.2213351392056</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2025.7398267459089</c:v>
+                  <c:v>2026.372575113543</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1945.2012811350196</c:v>
+                  <c:v>1946.0036372696127</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1983.0453324789319</c:v>
+                  <c:v>1983.7190710097182</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1990.1174532562691</c:v>
+                  <c:v>1990.7609996678661</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2030.7996672033717</c:v>
+                  <c:v>2031.218755893671</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2069.876619725158</c:v>
+                  <c:v>2070.0424198940818</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2082.5167988048179</c:v>
+                  <c:v>2082.5865168633218</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2086.0496834798387</c:v>
+                  <c:v>2086.0907134770578</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2121.5860729661367</c:v>
+                  <c:v>2121.2666649160242</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2155.2737019387396</c:v>
+                  <c:v>2154.5109296543583</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2160.3103145693699</c:v>
+                  <c:v>2159.2747743102564</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2160.3103145693699</c:v>
+                  <c:v>2159.2747743102564</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2160.3103145693699</c:v>
+                  <c:v>2159.2747743102564</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2160.3103145693699</c:v>
+                  <c:v>2159.2747743102564</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2160.3103145693699</c:v>
+                  <c:v>2159.2747743102564</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2160.3103145693699</c:v>
+                  <c:v>2159.2747743102564</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2160.3103145693699</c:v>
+                  <c:v>2159.2747743102564</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2160.3103145693699</c:v>
+                  <c:v>2159.2747743102564</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2160.3103145693699</c:v>
+                  <c:v>2159.2747743102564</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2160.3103145693699</c:v>
+                  <c:v>2159.2747743102564</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2160.3103145693699</c:v>
+                  <c:v>2159.2747743102564</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2163.9518845693706</c:v>
+                  <c:v>2162.916344310257</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2174.6586021911089</c:v>
+                  <c:v>2173.6230619319954</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2304.2591741530955</c:v>
+                  <c:v>2303.223633893982</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2411.0012179311511</c:v>
+                  <c:v>2409.9656776720376</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2428.4903916160797</c:v>
+                  <c:v>2427.4548513569662</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2443.171827195762</c:v>
+                  <c:v>2442.1362869366485</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2437.6209891358512</c:v>
+                  <c:v>2436.5854488767377</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2484.3820930048309</c:v>
+                  <c:v>2483.3465527457174</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2546.2986159556554</c:v>
+                  <c:v>2545.2630756965418</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2612.7679016516258</c:v>
+                  <c:v>2611.7323613925123</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2628.5733162344541</c:v>
+                  <c:v>2627.5377759753405</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2633.6658962308707</c:v>
+                  <c:v>2632.6303559717571</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2796.169715605437</c:v>
+                  <c:v>2794.3876953463241</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2929.8997790539315</c:v>
+                  <c:v>2927.1539362553685</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3138.137398568088</c:v>
+                  <c:v>3135.5861670544855</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3545.1064933256703</c:v>
+                  <c:v>3542.6500166883184</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4064.9956888334327</c:v>
+                  <c:v>4062.1164629794043</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4466.7862456893326</c:v>
+                  <c:v>4462.9203352572413</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4680.3706180317258</c:v>
+                  <c:v>4675.4877350226261</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4768.8046217671199</c:v>
+                  <c:v>4763.588282997167</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4847.9609687361826</c:v>
+                  <c:v>4842.791089296923</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5294.5542070217689</c:v>
+                  <c:v>5288.5558277635719</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5428.0784294157993</c:v>
+                  <c:v>5421.4421416941914</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5394.8728413640729</c:v>
+                  <c:v>5387.9358458787192</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5789.307199274208</c:v>
+                  <c:v>5781.6018143866768</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6056.4970144330227</c:v>
+                  <c:v>6048.2297512717269</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6423.8579034741933</c:v>
+                  <c:v>6414.7553812283222</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6249.6271030630251</c:v>
+                  <c:v>6240.9766712020419</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6405.4214632572184</c:v>
+                  <c:v>6396.3206704588383</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6447.124900650886</c:v>
+                  <c:v>6437.8856879996092</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>6344.9790420681766</c:v>
+                  <c:v>6336.133438855145</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>6336.2929109085917</c:v>
+                  <c:v>6327.4846509506451</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>6307.370522073209</c:v>
+                  <c:v>6298.6996571103864</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6276.6138989676274</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3515,7 +3545,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3716,6 +3746,9 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3725,7 +3758,7 @@
               <c:f>'model2(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3757,175 +3790,178 @@
                   <c:v>-126.41850260498472</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-118.45998616445331</c:v>
+                  <c:v>-120.43509243436642</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>277.59026878162422</c:v>
+                  <c:v>278.00301399526666</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>466.67571942456084</c:v>
+                  <c:v>467.07187913920143</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>400.76056074590474</c:v>
+                  <c:v>401.22311911353881</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>320.22201513501545</c:v>
+                  <c:v>320.85418126960849</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>358.06606647892772</c:v>
+                  <c:v>358.56961500971397</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>365.13818725626493</c:v>
+                  <c:v>365.61154366786195</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>405.82040120336751</c:v>
+                  <c:v>406.06929989366677</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>444.89735372515383</c:v>
+                  <c:v>444.89296389407764</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>457.53753280481374</c:v>
+                  <c:v>457.43706086331758</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>461.07041747983453</c:v>
+                  <c:v>460.94125747705357</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>496.60680696613258</c:v>
+                  <c:v>496.11720891601999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>530.29443593873543</c:v>
+                  <c:v>529.36147365435409</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>535.33104856936575</c:v>
+                  <c:v>534.12531831025217</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>535.33104856936575</c:v>
+                  <c:v>534.12531831025217</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>535.33104856936575</c:v>
+                  <c:v>534.12531831025217</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>535.33104856936575</c:v>
+                  <c:v>534.12531831025217</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>535.33104856936575</c:v>
+                  <c:v>534.12531831025217</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>535.33104856936575</c:v>
+                  <c:v>534.12531831025217</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>535.33104856936575</c:v>
+                  <c:v>534.12531831025217</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>535.33104856936575</c:v>
+                  <c:v>534.12531831025217</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>535.33104856936575</c:v>
+                  <c:v>534.12531831025217</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>535.33104856936575</c:v>
+                  <c:v>534.12531831025217</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>535.33104856936575</c:v>
+                  <c:v>534.12531831025217</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>535.33104856936575</c:v>
+                  <c:v>534.12531831025217</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>535.33743419110328</c:v>
+                  <c:v>534.1317039319897</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>534.38163015309055</c:v>
+                  <c:v>533.17589989397675</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>537.22928193114694</c:v>
+                  <c:v>536.02355167203314</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>554.71845561607552</c:v>
+                  <c:v>553.51272535696171</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>569.39989119575785</c:v>
+                  <c:v>568.19416093664404</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>563.84905313584704</c:v>
+                  <c:v>562.64332287673324</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>558.58719700482584</c:v>
+                  <c:v>557.38146674571203</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>556.87497995565013</c:v>
+                  <c:v>555.66924969653633</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>555.77654165162039</c:v>
+                  <c:v>554.57081139250658</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>564.16049423444792</c:v>
+                  <c:v>562.95476397533412</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>569.25307423086451</c:v>
+                  <c:v>568.04734397175071</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>538.35483760543002</c:v>
+                  <c:v>537.14910734631621</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>554.25538905392386</c:v>
+                  <c:v>553.02209825536011</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>502.84178256807945</c:v>
+                  <c:v>501.76429105447642</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>344.04866332566189</c:v>
+                  <c:v>343.28267868830972</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>450.05282883342488</c:v>
+                  <c:v>449.15915297939637</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>607.9765536893251</c:v>
+                  <c:v>606.91155525723343</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>654.64018603171826</c:v>
+                  <c:v>653.51233302261835</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>528.52672376711325</c:v>
+                  <c:v>527.60847299715988</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>280.99279473617571</c:v>
+                  <c:v>280.5051552969162</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>600.92505502176209</c:v>
+                  <c:v>599.90459376356466</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>674.9088794157924</c:v>
+                  <c:v>673.76306369418398</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>558.72900136406588</c:v>
+                  <c:v>557.7956518787114</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>953.16335927420096</c:v>
+                  <c:v>951.46162038666898</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1220.3531744330157</c:v>
+                  <c:v>1218.0895572717191</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1587.7140634741863</c:v>
+                  <c:v>1584.6151872283144</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1413.4832630630181</c:v>
+                  <c:v>1410.8364772020341</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1569.2776232572114</c:v>
+                  <c:v>1566.1804764588305</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1610.981060650879</c:v>
+                  <c:v>1607.7454939996014</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1508.8352020681696</c:v>
+                  <c:v>1505.9932448551372</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1500.1490709085847</c:v>
+                  <c:v>1497.3444569506373</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1471.226682073202</c:v>
+                  <c:v>1468.5594631103786</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1446.4737049676196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3947,11 +3983,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="453794432"/>
-        <c:axId val="517657344"/>
+        <c:axId val="444488704"/>
+        <c:axId val="447551744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="453794432"/>
+        <c:axId val="444488704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3994,14 +4030,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517657344"/>
+        <c:crossAx val="447551744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="517657344"/>
+        <c:axId val="447551744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4050,7 +4086,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453794432"/>
+        <c:crossAx val="444488704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4158,7 +4194,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4201,7 +4237,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4514,7 +4550,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF82"/>
+  <dimension ref="A1:AF83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4884,22 +4920,22 @@
       </c>
       <c r="AB6" s="1">
         <f>VLOOKUP(AA6,O:P,2,)</f>
-        <v>287.98245355098834</v>
+        <v>287.82612266325077</v>
       </c>
       <c r="AC6" s="1">
         <f t="shared" si="3"/>
-        <v>-287.98245355098834</v>
+        <v>-287.82612266325077</v>
       </c>
       <c r="AD6" s="6">
         <v>43830</v>
       </c>
       <c r="AE6" s="7">
         <f>VLOOKUP(AD6,O:P,2,)</f>
-        <v>287.98245355098834</v>
+        <v>287.82612266325077</v>
       </c>
       <c r="AF6" s="7">
         <f t="shared" si="4"/>
-        <v>-287.98245355098834</v>
+        <v>-287.82612266325077</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="14.1" customHeight="1">
@@ -4941,25 +4977,25 @@
         <v>43830</v>
       </c>
       <c r="P7" s="10">
-        <v>287.98245355098834</v>
+        <v>287.82612266325077</v>
       </c>
       <c r="Q7" s="5">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="R7" s="5">
-        <v>3217.6093105743603</v>
+        <v>3217.9034879507626</v>
       </c>
       <c r="S7" s="5">
-        <v>817.71748376243022</v>
+        <v>818.16799202657012</v>
       </c>
       <c r="T7" s="5">
-        <v>1365.8977430166979</v>
+        <v>1370.5758703073689</v>
       </c>
       <c r="U7" s="9">
-        <v>0.34073097571597816</v>
+        <v>0.34094090511899316</v>
       </c>
       <c r="V7" s="9">
-        <v>0.15583831681496263</v>
+        <v>0.15592183291771655</v>
       </c>
       <c r="Z7" s="8">
         <f>IRR(Z4:Z6)</f>
@@ -4969,7 +5005,7 @@
         <v>43830</v>
       </c>
       <c r="AC7" s="1">
-        <v>3217.6093105743603</v>
+        <v>3217.9034879507626</v>
       </c>
       <c r="AD7" s="6">
         <v>44196</v>
@@ -5025,32 +5061,32 @@
         <v>0</v>
       </c>
       <c r="Q8" s="5">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="R8" s="5">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="S8" s="5">
-        <v>1020.932566047371</v>
+        <v>1020.19925633402</v>
       </c>
       <c r="T8" s="5">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="U8" s="9">
-        <v>0.42540774323299424</v>
+        <v>0.4251298770496863</v>
       </c>
       <c r="V8" s="9">
-        <v>0.12448297099432648</v>
+        <v>0.12440803408802292</v>
       </c>
       <c r="AC8" s="2">
         <f>IRR(AC4:AC7)</f>
-        <v>0.15583831681496263</v>
+        <v>0.15592183291771655</v>
       </c>
       <c r="AD8" s="6">
         <v>44196</v>
       </c>
       <c r="AF8" s="7">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="14.1" customHeight="1">
@@ -5095,26 +5131,26 @@
         <v>0</v>
       </c>
       <c r="Q9" s="5">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="R9" s="5">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="S9" s="5">
-        <v>1020.932566047371</v>
+        <v>1020.19925633402</v>
       </c>
       <c r="T9" s="5">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="U9" s="9">
-        <v>0.42540774323299424</v>
+        <v>0.4251298770496863</v>
       </c>
       <c r="V9" s="9">
         <v>0.11623036743162096</v>
       </c>
       <c r="AF9" s="2">
         <f>IRR(AF4:AF8)</f>
-        <v>0.12448297099432648</v>
+        <v>0.12440803408802292</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="14.1" customHeight="1">
@@ -5156,22 +5192,22 @@
         <v>44925</v>
       </c>
       <c r="P10" s="10">
-        <v>1191.9854404928446</v>
+        <v>1187.9495283804376</v>
       </c>
       <c r="Q10" s="5">
-        <v>3591.8772673047747</v>
+        <v>3587.6850243046301</v>
       </c>
       <c r="R10" s="5">
-        <v>4692.9521370177645</v>
+        <v>4687.9403225778906</v>
       </c>
       <c r="S10" s="5">
-        <v>1101.0748697129898</v>
+        <v>1100.2552982732605</v>
       </c>
       <c r="T10" s="5">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="U10" s="9">
-        <v>0.30654579423845396</v>
+        <v>0.30667555563535387</v>
       </c>
       <c r="V10" s="9">
         <v>9.2107928430304797E-2</v>
@@ -5853,31 +5889,31 @@
         <v>43496</v>
       </c>
       <c r="B26" s="25">
-        <v>0.67819000000000007</v>
+        <v>0.67716999999999994</v>
       </c>
       <c r="C26" s="20">
-        <v>0.86047514038876904</v>
+        <v>0.86008008620689669</v>
       </c>
       <c r="D26" s="21">
-        <v>282.54196760259191</v>
+        <v>283.51063362068999</v>
       </c>
       <c r="E26" s="22">
-        <v>416.61181616153567</v>
+        <v>418.6698076121063</v>
       </c>
       <c r="F26" s="22">
-        <v>2856.0537829664881</v>
+        <v>2858.1117744170588</v>
       </c>
       <c r="G26" s="22">
-        <v>1936.9471150700429</v>
+        <v>1935.4275502819994</v>
       </c>
       <c r="H26" s="22">
-        <v>2394.4513408635335</v>
+        <v>2395.4200068816317</v>
       </c>
       <c r="I26" s="22">
-        <v>2254.4679954794947</v>
+        <v>2252.948430691451</v>
       </c>
       <c r="J26" s="22">
-        <v>-139.98334538403878</v>
+        <v>-142.47157619018071</v>
       </c>
       <c r="K26" s="21">
         <v>317.52088040945171</v>
@@ -5892,28 +5928,28 @@
         <v>0.85648000000000002</v>
       </c>
       <c r="C27" s="20">
-        <v>0.8580328242677826</v>
+        <v>0.85765524008350746</v>
       </c>
       <c r="D27" s="21">
-        <v>2.406877615063002</v>
+        <v>1.8216221294365398</v>
       </c>
       <c r="E27" s="22">
-        <v>2.8101971033334134</v>
+        <v>2.1268705976047775</v>
       </c>
       <c r="F27" s="22">
-        <v>2858.8639800698215</v>
+        <v>2860.2386450146637</v>
       </c>
       <c r="G27" s="22">
-        <v>2448.5598216502008</v>
+        <v>2449.737194682159</v>
       </c>
       <c r="H27" s="22">
-        <v>2396.8582184785964</v>
+        <v>2397.2416290110682</v>
       </c>
       <c r="I27" s="22">
-        <v>2766.0807020596526</v>
+        <v>2767.2580750916109</v>
       </c>
       <c r="J27" s="22">
-        <v>369.22248358105617</v>
+        <v>370.01644608054266</v>
       </c>
       <c r="K27" s="21">
         <v>317.52088040945171</v>
@@ -5928,31 +5964,31 @@
         <v>0.94580999999999993</v>
       </c>
       <c r="C28" s="20">
-        <v>0.86124096192384803</v>
+        <v>0.86087282000000032</v>
       </c>
       <c r="D28" s="21">
-        <v>-131.08200901803545</v>
+        <v>-131.65262899999939</v>
       </c>
       <c r="E28" s="22">
-        <v>-138.59232723066521</v>
+        <v>-139.19564077351626</v>
       </c>
       <c r="F28" s="22">
-        <v>2720.2716528391566</v>
+        <v>2721.0430042411476</v>
       </c>
       <c r="G28" s="22">
-        <v>2572.8601319718023</v>
+        <v>2573.5896838413196</v>
       </c>
       <c r="H28" s="22">
-        <v>2396.8582184785964</v>
+        <v>2397.2416290110682</v>
       </c>
       <c r="I28" s="22">
-        <v>3021.4630213992896</v>
+        <v>3022.7631932507707</v>
       </c>
       <c r="J28" s="22">
-        <v>624.60480292069315</v>
+        <v>625.52156423970246</v>
       </c>
       <c r="K28" s="21">
-        <v>448.60288942748718</v>
+        <v>449.17350940945107</v>
       </c>
       <c r="L28" s="7"/>
     </row>
@@ -5964,31 +6000,31 @@
         <v>0.9108099999999999</v>
       </c>
       <c r="C29" s="20">
-        <v>0.86549344230769254</v>
+        <v>0.86513197696737065</v>
       </c>
       <c r="D29" s="21">
-        <v>-70.24066442307641</v>
+        <v>-70.800935700575323</v>
       </c>
       <c r="E29" s="22">
-        <v>-77.118899027323394</v>
+        <v>-77.734034211938095</v>
       </c>
       <c r="F29" s="22">
-        <v>2643.152753811833</v>
+        <v>2643.3089700292094</v>
       </c>
       <c r="G29" s="22">
-        <v>2407.4099596993556</v>
+        <v>2407.5522429923039</v>
       </c>
       <c r="H29" s="22">
-        <v>2396.8582184785964</v>
+        <v>2397.2416290110682</v>
       </c>
       <c r="I29" s="22">
-        <v>2926.2535135499193</v>
+        <v>2927.5266881023304</v>
       </c>
       <c r="J29" s="22">
-        <v>529.39529507132283</v>
+        <v>530.28505909126216</v>
       </c>
       <c r="K29" s="21">
-        <v>518.84355385056358</v>
+        <v>519.97444511002641</v>
       </c>
       <c r="L29" s="7"/>
     </row>
@@ -6000,31 +6036,31 @@
         <v>0.86360000000000003</v>
       </c>
       <c r="C30" s="20">
-        <v>0.86555716666666693</v>
+        <v>0.86520894639556412</v>
       </c>
       <c r="D30" s="21">
-        <v>3.0336083333336927</v>
+        <v>2.4938669131243261</v>
       </c>
       <c r="E30" s="22">
-        <v>3.5127470279454522</v>
+        <v>2.8877569628581821</v>
       </c>
       <c r="F30" s="22">
-        <v>2646.6655008397784</v>
+        <v>2646.1967269920674</v>
       </c>
       <c r="G30" s="22">
-        <v>2285.6603265252329</v>
+        <v>2285.2554934303494</v>
       </c>
       <c r="H30" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I30" s="22">
-        <v>2804.5038803757966</v>
+        <v>2805.2299385403758</v>
       </c>
       <c r="J30" s="22">
-        <v>404.61205356386654</v>
+        <v>405.49444261618328</v>
       </c>
       <c r="K30" s="21">
-        <v>518.84355385056358</v>
+        <v>519.97444511002641</v>
       </c>
       <c r="L30" s="7"/>
     </row>
@@ -6036,31 +6072,31 @@
         <v>0.88732</v>
       </c>
       <c r="C31" s="20">
-        <v>0.86554053667263009</v>
+        <v>0.86520416071428607</v>
       </c>
       <c r="D31" s="21">
-        <v>-33.758168157423356</v>
+        <v>-34.279550892856584</v>
       </c>
       <c r="E31" s="22">
-        <v>-38.045088758760485</v>
+        <v>-38.632681437200318</v>
       </c>
       <c r="F31" s="22">
-        <v>2608.620412081018</v>
+        <v>2607.5640455548669</v>
       </c>
       <c r="G31" s="22">
-        <v>2314.6810640477288</v>
+        <v>2313.7437289017444</v>
       </c>
       <c r="H31" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I31" s="22">
-        <v>2867.2827860557159</v>
+        <v>2867.9977249046274</v>
       </c>
       <c r="J31" s="22">
-        <v>467.3909592437858</v>
+        <v>468.26222898043488</v>
       </c>
       <c r="K31" s="21">
-        <v>552.60172200798695</v>
+        <v>554.25399600288301</v>
       </c>
       <c r="L31" s="7"/>
     </row>
@@ -6072,31 +6108,31 @@
         <v>0.89222000000000001</v>
       </c>
       <c r="C32" s="20">
-        <v>0.86642510309278375</v>
+        <v>0.86610048027444275</v>
       </c>
       <c r="D32" s="21">
-        <v>-39.982090206185198</v>
+        <v>-40.485255574613753</v>
       </c>
       <c r="E32" s="22">
-        <v>-44.811918816194655</v>
+        <v>-45.375866461874594</v>
       </c>
       <c r="F32" s="22">
-        <v>2563.8084932648235</v>
+        <v>2562.1881790929924</v>
       </c>
       <c r="G32" s="22">
-        <v>2287.4812138607408</v>
+        <v>2286.0355371503497</v>
       </c>
       <c r="H32" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I32" s="22">
-        <v>2880.065026074913</v>
+        <v>2880.7747887278465</v>
       </c>
       <c r="J32" s="22">
-        <v>480.17319926298296</v>
+        <v>481.03929280365401</v>
       </c>
       <c r="K32" s="21">
-        <v>592.5838122141721</v>
+        <v>594.73925157749682</v>
       </c>
       <c r="L32" s="7"/>
     </row>
@@ -6108,31 +6144,31 @@
         <v>0.92357</v>
       </c>
       <c r="C33" s="20">
-        <v>0.86719825870646772</v>
+        <v>0.86687626446280996</v>
       </c>
       <c r="D33" s="21">
-        <v>-87.376199004975035</v>
+        <v>-87.875290082644554</v>
       </c>
       <c r="E33" s="22">
-        <v>-94.607013009273828</v>
+        <v>-95.147406349972982</v>
       </c>
       <c r="F33" s="22">
-        <v>2469.2014802555495</v>
+        <v>2467.0407727430193</v>
       </c>
       <c r="G33" s="22">
-        <v>2280.4804111196181</v>
+        <v>2278.4848464822703</v>
       </c>
       <c r="H33" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I33" s="22">
-        <v>2960.4404223387655</v>
+        <v>2961.099388142412</v>
       </c>
       <c r="J33" s="22">
-        <v>560.54859552683547</v>
+        <v>561.36389221821946</v>
       </c>
       <c r="K33" s="21">
-        <v>679.96001121914719</v>
+        <v>682.61454166014141</v>
       </c>
       <c r="L33" s="7"/>
     </row>
@@ -6144,31 +6180,31 @@
         <v>0.95855999999999997</v>
       </c>
       <c r="C34" s="20">
-        <v>0.87132205457463874</v>
+        <v>0.87099716799999982</v>
       </c>
       <c r="D34" s="21">
-        <v>-135.21881540930991</v>
+        <v>-135.72238960000021</v>
       </c>
       <c r="E34" s="22">
-        <v>-141.0645295122996</v>
+        <v>-141.58987397763335</v>
       </c>
       <c r="F34" s="22">
-        <v>2328.1369507432501</v>
+        <v>2325.4508987653858</v>
       </c>
       <c r="G34" s="22">
-        <v>2231.6589555044498</v>
+        <v>2229.084213520548</v>
       </c>
       <c r="H34" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I34" s="22">
-        <v>3046.8377821329068</v>
+        <v>3047.4211447806897</v>
       </c>
       <c r="J34" s="22">
-        <v>646.94595532097674</v>
+        <v>647.68564885649721</v>
       </c>
       <c r="K34" s="21">
-        <v>815.17882662845705</v>
+        <v>818.33693126014168</v>
       </c>
       <c r="L34" s="7"/>
     </row>
@@ -6180,31 +6216,31 @@
         <v>0.97238999999999998</v>
       </c>
       <c r="C35" s="20">
-        <v>0.87426804992199714</v>
+        <v>0.87394309486780741</v>
       </c>
       <c r="D35" s="21">
-        <v>-152.08902262090442</v>
+        <v>-152.59270295489847</v>
       </c>
       <c r="E35" s="22">
-        <v>-156.40743181326877</v>
+        <v>-156.92541362508712</v>
       </c>
       <c r="F35" s="22">
-        <v>2171.7295189299812</v>
+        <v>2168.5254851402988</v>
       </c>
       <c r="G35" s="22">
-        <v>2111.7680669123242</v>
+        <v>2108.6524964955752</v>
       </c>
       <c r="H35" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I35" s="22">
-        <v>3079.0359161616857</v>
+        <v>3079.5821307106153</v>
       </c>
       <c r="J35" s="22">
-        <v>679.14408934975563</v>
+        <v>679.84663478642278</v>
       </c>
       <c r="K35" s="21">
-        <v>967.26784924936146</v>
+        <v>970.9296342150401</v>
       </c>
       <c r="L35" s="7"/>
     </row>
@@ -6216,31 +6252,31 @@
         <v>0.97728999999999999</v>
       </c>
       <c r="C36" s="20">
-        <v>0.87806616314199404</v>
+        <v>0.87774004518072291</v>
       </c>
       <c r="D36" s="21">
-        <v>-153.79694712990923</v>
+        <v>-154.30242996987948</v>
       </c>
       <c r="E36" s="22">
-        <v>-157.37083888089433</v>
+        <v>-157.88806799402377</v>
       </c>
       <c r="F36" s="22">
-        <v>2014.3586800490868</v>
+        <v>2010.6374171462751</v>
       </c>
       <c r="G36" s="22">
-        <v>1968.6125944251721</v>
+        <v>1964.9758414028831</v>
       </c>
       <c r="H36" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I36" s="22">
-        <v>3089.6773908044429</v>
+        <v>3090.207905587803</v>
       </c>
       <c r="J36" s="22">
-        <v>689.78556399251283</v>
+        <v>690.47240966361051</v>
       </c>
       <c r="K36" s="21">
-        <v>1121.0647963792708</v>
+        <v>1125.2320641849196</v>
       </c>
       <c r="L36" s="7"/>
       <c r="O36" s="3"/>
@@ -6253,31 +6289,31 @@
         <v>1.0407999999999999</v>
       </c>
       <c r="C37" s="20">
-        <v>0.8828432602339179</v>
+        <v>0.88251367346938747</v>
       </c>
       <c r="D37" s="21">
-        <v>-244.83294663742717</v>
+        <v>-245.34380612244934</v>
       </c>
       <c r="E37" s="22">
-        <v>-235.2353445786195</v>
+        <v>-235.72617805769536</v>
       </c>
       <c r="F37" s="22">
-        <v>1779.1233354704673</v>
+        <v>1774.9112390885798</v>
       </c>
       <c r="G37" s="22">
-        <v>1851.7115675576622</v>
+        <v>1847.3276176433938</v>
       </c>
       <c r="H37" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I37" s="22">
-        <v>3217.6093105743603</v>
+        <v>3217.9034879507626</v>
       </c>
       <c r="J37" s="22">
-        <v>817.71748376243022</v>
+        <v>818.16799202657012</v>
       </c>
       <c r="K37" s="21">
-        <v>1365.8977430166979</v>
+        <v>1370.5758703073689</v>
       </c>
       <c r="L37" s="7"/>
     </row>
@@ -6289,31 +6325,31 @@
         <v>1.13632</v>
       </c>
       <c r="C38" s="20">
-        <v>0.88820977142857116</v>
+        <v>0.88787240740740703</v>
       </c>
       <c r="D38" s="21">
-        <v>-384.57085428571469</v>
+        <v>-385.09376851851908</v>
       </c>
       <c r="E38" s="22">
-        <v>-338.43534768878015</v>
+        <v>-338.89552988464436</v>
       </c>
       <c r="F38" s="22">
-        <v>1440.6879877816871</v>
+        <v>1436.0157092039353</v>
       </c>
       <c r="G38" s="22">
-        <v>1637.0825742760867</v>
+        <v>1631.7733706826157</v>
       </c>
       <c r="H38" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I38" s="22">
-        <v>3387.5511715784992</v>
+        <v>3387.4430095085036</v>
       </c>
       <c r="J38" s="22">
-        <v>987.65934476656912</v>
+        <v>987.70751358431107</v>
       </c>
       <c r="K38" s="21">
-        <v>1750.4685973024125</v>
+        <v>1755.6696388258879</v>
       </c>
       <c r="L38" s="7"/>
     </row>
@@ -6325,31 +6361,31 @@
         <v>1.2075199999999999</v>
       </c>
       <c r="C39" s="20">
-        <v>0.89720491666666646</v>
+        <v>0.89685198060941806</v>
       </c>
       <c r="D39" s="21">
-        <v>-480.98837916666685</v>
+        <v>-481.53543005540189</v>
       </c>
       <c r="E39" s="22">
-        <v>-398.32746386533296</v>
+        <v>-398.78050057589269</v>
       </c>
       <c r="F39" s="22">
-        <v>1042.3605239163542</v>
+        <v>1037.2352086280425</v>
       </c>
       <c r="G39" s="22">
-        <v>1258.6711798394758</v>
+        <v>1252.4822591225338</v>
       </c>
       <c r="H39" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I39" s="22">
-        <v>3490.1281563085554</v>
+        <v>3489.6873280038235</v>
       </c>
       <c r="J39" s="22">
-        <v>1090.2363294966253</v>
+        <v>1089.951832079631</v>
       </c>
       <c r="K39" s="21">
-        <v>2231.4569764690796</v>
+        <v>2237.2050688812897</v>
       </c>
       <c r="L39" s="7"/>
     </row>
@@ -6361,31 +6397,31 @@
         <v>1.0721400000000001</v>
       </c>
       <c r="C40" s="20">
-        <v>0.90529318059299169</v>
+        <v>0.90492893817204278</v>
       </c>
       <c r="D40" s="21">
-        <v>-258.61257008086301</v>
+        <v>-259.17714583333384</v>
       </c>
       <c r="E40" s="22">
-        <v>-241.21156759458933</v>
+        <v>-241.7381553093195</v>
       </c>
       <c r="F40" s="22">
-        <v>801.1489563217649</v>
+        <v>795.49705331872303</v>
       </c>
       <c r="G40" s="22">
-        <v>858.94384203081711</v>
+        <v>852.88421074513576</v>
       </c>
       <c r="H40" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I40" s="22">
-        <v>3349.0133885807595</v>
+        <v>3349.2664254597594</v>
       </c>
       <c r="J40" s="22">
-        <v>949.12156176882945</v>
+        <v>949.53092953556688</v>
       </c>
       <c r="K40" s="21">
-        <v>2490.0695465499425</v>
+        <v>2496.3822147146234</v>
       </c>
       <c r="L40" s="7"/>
     </row>
@@ -6397,31 +6433,31 @@
         <v>1.13618</v>
       </c>
       <c r="C41" s="20">
-        <v>0.91107858453473123</v>
+        <v>0.91070921568627439</v>
       </c>
       <c r="D41" s="21">
-        <v>-348.90719397116652</v>
+        <v>-349.47971568627463</v>
       </c>
       <c r="E41" s="22">
-        <v>-307.08795610833363</v>
+        <v>-307.59185664795598</v>
       </c>
       <c r="F41" s="22">
-        <v>494.06100021343127</v>
+        <v>487.90519667076705</v>
       </c>
       <c r="G41" s="22">
-        <v>561.34222722249638</v>
+        <v>554.3481263533921</v>
       </c>
       <c r="H41" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I41" s="22">
-        <v>3400.3189677436058</v>
+        <v>3400.2100567542902</v>
       </c>
       <c r="J41" s="22">
-        <v>1000.4271409316757</v>
+        <v>1000.4745608300977</v>
       </c>
       <c r="K41" s="21">
-        <v>2838.9767405211091</v>
+        <v>2845.861930400898</v>
       </c>
       <c r="L41" s="7"/>
     </row>
@@ -6433,31 +6469,31 @@
         <v>1.12294</v>
       </c>
       <c r="C42" s="20">
-        <v>0.91666642765685002</v>
+        <v>0.91629127713920799</v>
       </c>
       <c r="D42" s="21">
-        <v>-319.72403713188254</v>
+        <v>-320.30552043422767</v>
       </c>
       <c r="E42" s="22">
-        <v>-284.72049898648419</v>
+        <v>-285.23832122306413</v>
       </c>
       <c r="F42" s="22">
-        <v>209.34050122694708</v>
+        <v>202.66687544770292</v>
       </c>
       <c r="G42" s="22">
-        <v>235.07682244778798</v>
+        <v>227.58274111524352</v>
       </c>
       <c r="H42" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I42" s="22">
-        <v>3393.7776001007796</v>
+        <v>3393.7501919503693</v>
       </c>
       <c r="J42" s="22">
-        <v>993.88577328884958</v>
+        <v>994.01469602617681</v>
       </c>
       <c r="K42" s="21">
-        <v>3158.7007776529917</v>
+        <v>3166.1674508351257</v>
       </c>
       <c r="L42" s="7"/>
     </row>
@@ -6469,13 +6505,13 @@
         <v>1.25214</v>
       </c>
       <c r="C43" s="20">
-        <v>0.92355369538077381</v>
+        <v>0.92317073474470712</v>
       </c>
       <c r="D43" s="21">
-        <v>-262.12361520630952</v>
+        <v>-253.76730142308674</v>
       </c>
       <c r="E43" s="22">
-        <v>-209.34050122694708</v>
+        <v>-202.66687544770292</v>
       </c>
       <c r="F43" s="22">
         <v>0</v>
@@ -6484,16 +6520,16 @@
         <v>0</v>
       </c>
       <c r="H43" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I43" s="22">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="J43" s="22">
-        <v>1020.932566047371</v>
+        <v>1020.19925633402</v>
       </c>
       <c r="K43" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="L43" s="7"/>
     </row>
@@ -6505,7 +6541,7 @@
         <v>1.3561700000000001</v>
       </c>
       <c r="C44" s="20">
-        <v>0.93564675970873734</v>
+        <v>0.93524518159806236</v>
       </c>
       <c r="D44" s="21">
         <v>0</v>
@@ -6520,16 +6556,16 @@
         <v>0</v>
       </c>
       <c r="H44" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I44" s="22">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="J44" s="22">
-        <v>1020.932566047371</v>
+        <v>1020.19925633402</v>
       </c>
       <c r="K44" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="L44" s="7"/>
     </row>
@@ -6541,7 +6577,7 @@
         <v>1.35833</v>
       </c>
       <c r="C45" s="20">
-        <v>0.9459795739644965</v>
+        <v>0.9455635537190078</v>
       </c>
       <c r="D45" s="21">
         <v>0</v>
@@ -6556,16 +6592,16 @@
         <v>0</v>
       </c>
       <c r="H45" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I45" s="22">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="J45" s="22">
-        <v>1020.932566047371</v>
+        <v>1020.19925633402</v>
       </c>
       <c r="K45" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="L45" s="7"/>
     </row>
@@ -6577,7 +6613,7 @@
         <v>1.2336199999999999</v>
       </c>
       <c r="C46" s="20">
-        <v>0.95444417531718506</v>
+        <v>0.9540192059838889</v>
       </c>
       <c r="D46" s="21">
         <v>0</v>
@@ -6592,16 +6628,16 @@
         <v>0</v>
       </c>
       <c r="H46" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I46" s="22">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="J46" s="22">
-        <v>1020.932566047371</v>
+        <v>1020.19925633402</v>
       </c>
       <c r="K46" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="L46" s="7"/>
     </row>
@@ -6613,7 +6649,7 @@
         <v>1.2367600000000001</v>
       </c>
       <c r="C47" s="20">
-        <v>0.96014630804076961</v>
+        <v>0.95971613559321989</v>
       </c>
       <c r="D47" s="21">
         <v>0</v>
@@ -6628,16 +6664,16 @@
         <v>0</v>
       </c>
       <c r="H47" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I47" s="22">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="J47" s="22">
-        <v>1020.932566047371</v>
+        <v>1020.19925633402</v>
       </c>
       <c r="K47" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="L47" s="7"/>
     </row>
@@ -6649,7 +6685,7 @@
         <v>1.23942</v>
       </c>
       <c r="C48" s="20">
-        <v>0.96710720132743311</v>
+        <v>0.96667163355408336</v>
       </c>
       <c r="D48" s="21">
         <v>0</v>
@@ -6664,16 +6700,16 @@
         <v>0</v>
       </c>
       <c r="H48" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I48" s="22">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="J48" s="22">
-        <v>1020.932566047371</v>
+        <v>1020.19925633402</v>
       </c>
       <c r="K48" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="L48" s="7"/>
     </row>
@@ -6685,7 +6721,7 @@
         <v>1.2531099999999999</v>
       </c>
       <c r="C49" s="20">
-        <v>0.97392800431499404</v>
+        <v>0.9734885360602793</v>
       </c>
       <c r="D49" s="21">
         <v>0</v>
@@ -6700,16 +6736,16 @@
         <v>0</v>
       </c>
       <c r="H49" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I49" s="22">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="J49" s="22">
-        <v>1020.932566047371</v>
+        <v>1020.19925633402</v>
       </c>
       <c r="K49" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="14.1" customHeight="1">
@@ -6720,7 +6756,7 @@
         <v>1.2375</v>
       </c>
       <c r="C50" s="20">
-        <v>0.98019564941921822</v>
+        <v>0.97975223393045274</v>
       </c>
       <c r="D50" s="21">
         <v>0</v>
@@ -6735,16 +6771,16 @@
         <v>0</v>
       </c>
       <c r="H50" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I50" s="22">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="J50" s="22">
-        <v>1020.932566047371</v>
+        <v>1020.19925633402</v>
       </c>
       <c r="K50" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="14.1" customHeight="1">
@@ -6755,7 +6791,7 @@
         <v>1.23967</v>
       </c>
       <c r="C51" s="20">
-        <v>0.984757931392931</v>
+        <v>0.98431195020746853</v>
       </c>
       <c r="D51" s="21">
         <v>0</v>
@@ -6770,16 +6806,16 @@
         <v>0</v>
       </c>
       <c r="H51" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I51" s="22">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="J51" s="22">
-        <v>1020.932566047371</v>
+        <v>1020.19925633402</v>
       </c>
       <c r="K51" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="14.1" customHeight="1">
@@ -6790,7 +6826,7 @@
         <v>1.15709</v>
       </c>
       <c r="C52" s="20">
-        <v>0.98919197969543116</v>
+        <v>0.98874740628166125</v>
       </c>
       <c r="D52" s="21">
         <v>0</v>
@@ -6805,16 +6841,16 @@
         <v>0</v>
       </c>
       <c r="H52" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I52" s="22">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="J52" s="22">
-        <v>1020.932566047371</v>
+        <v>1020.19925633402</v>
       </c>
       <c r="K52" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="14.1" customHeight="1">
@@ -6825,7 +6861,7 @@
         <v>1.17998</v>
       </c>
       <c r="C53" s="20">
-        <v>0.99311644135188804</v>
+        <v>0.99267334325396761</v>
       </c>
       <c r="D53" s="21">
         <v>0</v>
@@ -6840,16 +6876,16 @@
         <v>0</v>
       </c>
       <c r="H53" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I53" s="22">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="J53" s="22">
-        <v>1020.932566047371</v>
+        <v>1020.19925633402</v>
       </c>
       <c r="K53" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="14.1" customHeight="1">
@@ -6860,7 +6896,7 @@
         <v>1.2623</v>
       </c>
       <c r="C54" s="20">
-        <v>0.99678004882812443</v>
+        <v>0.99633758284600327</v>
       </c>
       <c r="D54" s="21">
         <v>0</v>
@@ -6875,16 +6911,16 @@
         <v>0</v>
       </c>
       <c r="H54" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I54" s="22">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="J54" s="22">
-        <v>1020.932566047371</v>
+        <v>1020.19925633402</v>
       </c>
       <c r="K54" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="14.1" customHeight="1">
@@ -6895,7 +6931,7 @@
         <v>1.33643</v>
       </c>
       <c r="C55" s="20">
-        <v>1.0025140478468895</v>
+        <v>1.0020695033428839</v>
       </c>
       <c r="D55" s="21">
         <v>0</v>
@@ -6910,16 +6946,16 @@
         <v>0</v>
       </c>
       <c r="H55" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I55" s="22">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="J55" s="22">
-        <v>1020.932566047371</v>
+        <v>1020.19925633402</v>
       </c>
       <c r="K55" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="14.1" customHeight="1">
@@ -6930,7 +6966,7 @@
         <v>1.28626</v>
       </c>
       <c r="C56" s="20">
-        <v>1.0086370852858479</v>
+        <v>1.0081902338634234</v>
       </c>
       <c r="D56" s="21">
         <v>0</v>
@@ -6945,16 +6981,16 @@
         <v>0</v>
       </c>
       <c r="H56" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I56" s="22">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="J56" s="22">
-        <v>1020.932566047371</v>
+        <v>1020.19925633402</v>
       </c>
       <c r="K56" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="14.1" customHeight="1">
@@ -6965,7 +7001,7 @@
         <v>1.2177899999999999</v>
       </c>
       <c r="C57" s="20">
-        <v>1.0138825528007342</v>
+        <v>1.0134350962419794</v>
       </c>
       <c r="D57" s="21">
         <v>0</v>
@@ -6980,16 +7016,16 @@
         <v>0</v>
       </c>
       <c r="H57" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I57" s="22">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="J57" s="22">
-        <v>1020.932566047371</v>
+        <v>1020.19925633402</v>
       </c>
       <c r="K57" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="14.1" customHeight="1">
@@ -7000,7 +7036,7 @@
         <v>1.20347</v>
       </c>
       <c r="C58" s="20">
-        <v>1.0177556176735794</v>
+        <v>1.0173092439243918</v>
       </c>
       <c r="D58" s="21">
         <v>0</v>
@@ -7015,16 +7051,16 @@
         <v>0</v>
       </c>
       <c r="H58" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I58" s="22">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="J58" s="22">
-        <v>1020.932566047371</v>
+        <v>1020.19925633402</v>
       </c>
       <c r="K58" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="14.1" customHeight="1">
@@ -7035,7 +7071,7 @@
         <v>1.1970999999999998</v>
       </c>
       <c r="C59" s="20">
-        <v>1.0204018311111105</v>
+        <v>1.0199570984915698</v>
       </c>
       <c r="D59" s="21">
         <v>0</v>
@@ -7050,16 +7086,16 @@
         <v>0</v>
       </c>
       <c r="H59" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I59" s="22">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="J59" s="22">
-        <v>1020.932566047371</v>
+        <v>1020.19925633402</v>
       </c>
       <c r="K59" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="14.1" customHeight="1">
@@ -7070,7 +7106,7 @@
         <v>1.23373</v>
       </c>
       <c r="C60" s="20">
-        <v>1.0245603661726232</v>
+        <v>1.0241169103568308</v>
       </c>
       <c r="D60" s="21">
         <v>0</v>
@@ -7085,16 +7121,16 @@
         <v>0</v>
       </c>
       <c r="H60" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I60" s="22">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="J60" s="22">
-        <v>1020.932566047371</v>
+        <v>1020.19925633402</v>
       </c>
       <c r="K60" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="14.1" customHeight="1">
@@ -7105,7 +7141,7 @@
         <v>1.2554100000000001</v>
       </c>
       <c r="C61" s="20">
-        <v>1.0289409572649562</v>
+        <v>1.0284987286689407</v>
       </c>
       <c r="D61" s="21">
         <v>0</v>
@@ -7120,16 +7156,16 @@
         <v>0</v>
       </c>
       <c r="H61" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I61" s="22">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="J61" s="22">
-        <v>1020.932566047371</v>
+        <v>1020.19925633402</v>
       </c>
       <c r="K61" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="14.1" customHeight="1">
@@ -7140,7 +7176,7 @@
         <v>1.11076</v>
       </c>
       <c r="C62" s="20">
-        <v>1.0316563299663286</v>
+        <v>1.0313231318219969</v>
       </c>
       <c r="D62" s="21">
         <v>0</v>
@@ -7155,16 +7191,16 @@
         <v>0</v>
       </c>
       <c r="H62" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I62" s="22">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="J62" s="22">
-        <v>1020.932566047371</v>
+        <v>1020.19925633402</v>
       </c>
       <c r="K62" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="14.1" customHeight="1">
@@ -7175,7 +7211,7 @@
         <v>1.15177</v>
       </c>
       <c r="C63" s="20">
-        <v>1.0331931727574739</v>
+        <v>1.0328605716652843</v>
       </c>
       <c r="D63" s="21">
         <v>0</v>
@@ -7190,16 +7226,16 @@
         <v>0</v>
       </c>
       <c r="H63" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I63" s="22">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="J63" s="22">
-        <v>1020.932566047371</v>
+        <v>1020.19925633402</v>
       </c>
       <c r="K63" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="14.1" customHeight="1">
@@ -7210,7 +7246,7 @@
         <v>1.0468499999999998</v>
       </c>
       <c r="C64" s="20">
-        <v>1.0340066340668286</v>
+        <v>1.0336782682926817</v>
       </c>
       <c r="D64" s="21">
         <v>0</v>
@@ -7225,16 +7261,16 @@
         <v>0</v>
       </c>
       <c r="H64" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I64" s="22">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="J64" s="22">
-        <v>1020.932566047371</v>
+        <v>1020.19925633402</v>
       </c>
       <c r="K64" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="14.1" customHeight="1">
@@ -7245,31 +7281,31 @@
         <v>0.83169999999999999</v>
       </c>
       <c r="C65" s="20">
-        <v>1.032387961476724</v>
+        <v>1.0320684787830248</v>
       </c>
       <c r="D65" s="21">
-        <v>311.06634028892216</v>
+        <v>310.57114211368838</v>
       </c>
       <c r="E65" s="22">
-        <v>374.01267318615146</v>
+        <v>373.41726838245569</v>
       </c>
       <c r="F65" s="22">
-        <v>374.01267318615146</v>
+        <v>373.41726838245569</v>
       </c>
       <c r="G65" s="22">
-        <v>311.06634028892216</v>
+        <v>310.57114211368838</v>
       </c>
       <c r="H65" s="22">
-        <v>2710.9581671008523</v>
+        <v>2710.3066380378809</v>
       </c>
       <c r="I65" s="22">
-        <v>3731.8907331482233</v>
+        <v>3730.5058943719009</v>
       </c>
       <c r="J65" s="22">
-        <v>1020.932566047371</v>
+        <v>1020.19925633402</v>
       </c>
       <c r="K65" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="14.1" customHeight="1">
@@ -7280,31 +7316,31 @@
         <v>0.90644000000000002</v>
       </c>
       <c r="C66" s="20">
-        <v>1.0300312806324092</v>
+        <v>1.0297221608832787</v>
       </c>
       <c r="D66" s="21">
-        <v>191.56648498023426</v>
+        <v>191.08734936908198</v>
       </c>
       <c r="E66" s="22">
-        <v>211.3393991662264</v>
+        <v>210.81080862393756</v>
       </c>
       <c r="F66" s="22">
-        <v>585.35207235237783</v>
+        <v>584.22807700639328</v>
       </c>
       <c r="G66" s="22">
-        <v>530.58653246308938</v>
+        <v>529.56769812167511</v>
       </c>
       <c r="H66" s="22">
-        <v>2902.5246520810865</v>
+        <v>2901.3939874069629</v>
       </c>
       <c r="I66" s="22">
-        <v>3951.4109253223905</v>
+        <v>3949.5024503798877</v>
       </c>
       <c r="J66" s="22">
-        <v>1048.886273241304</v>
+        <v>1048.1084629729248</v>
       </c>
       <c r="K66" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="14.1" customHeight="1">
@@ -7315,31 +7351,31 @@
         <v>0.99066999999999994</v>
       </c>
       <c r="C67" s="20">
-        <v>1.0286842768273694</v>
+        <v>1.0283833281613628</v>
       </c>
       <c r="D67" s="21">
-        <v>58.922129082422671</v>
+        <v>58.455658650112433</v>
       </c>
       <c r="E67" s="22">
-        <v>59.477049958535815</v>
+        <v>59.0061863689346</v>
       </c>
       <c r="F67" s="22">
-        <v>644.82912231091359</v>
+        <v>643.23426337532783</v>
       </c>
       <c r="G67" s="22">
-        <v>638.81286659975274</v>
+        <v>637.23288769803594</v>
       </c>
       <c r="H67" s="22">
-        <v>2961.4467811635091</v>
+        <v>2959.8496460570755</v>
       </c>
       <c r="I67" s="22">
-        <v>4059.6372594590539</v>
+        <v>4057.1676399562484</v>
       </c>
       <c r="J67" s="22">
-        <v>1098.1904782955448</v>
+        <v>1097.317993899173</v>
       </c>
       <c r="K67" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="14.1" customHeight="1">
@@ -7350,31 +7386,31 @@
         <v>1.01267</v>
       </c>
       <c r="C68" s="20">
-        <v>1.0278637413924998</v>
+        <v>1.027569496183204</v>
       </c>
       <c r="D68" s="21">
-        <v>23.550299158374767</v>
+        <v>23.094219083966316</v>
       </c>
       <c r="E68" s="22">
-        <v>23.255650071962997</v>
+        <v>22.805276234080516</v>
       </c>
       <c r="F68" s="22">
-        <v>668.08477238287662</v>
+        <v>666.03953960940839</v>
       </c>
       <c r="G68" s="22">
-        <v>676.5494064489676</v>
+        <v>674.47826057625957</v>
       </c>
       <c r="H68" s="22">
-        <v>2984.9970803218839</v>
+        <v>2982.9438651410419</v>
       </c>
       <c r="I68" s="22">
-        <v>4097.3737993082686</v>
+        <v>4094.4130128344723</v>
       </c>
       <c r="J68" s="22">
-        <v>1112.3767189863847</v>
+        <v>1111.4691476934304</v>
       </c>
       <c r="K68" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="14.1" customHeight="1">
@@ -7385,31 +7421,31 @@
         <v>0.95750000000000002</v>
       </c>
       <c r="C69" s="20">
-        <v>1.0277413007518783</v>
+        <v>1.027452408102024</v>
       </c>
       <c r="D69" s="21">
-        <v>108.87401616541135</v>
+        <v>108.42623255813714</v>
       </c>
       <c r="E69" s="22">
-        <v>113.70654429807973</v>
+        <v>113.23888517821112</v>
       </c>
       <c r="F69" s="22">
-        <v>781.79131668095636</v>
+        <v>779.27842478761954</v>
       </c>
       <c r="G69" s="22">
-        <v>748.56518572201571</v>
+        <v>746.1590917341457</v>
       </c>
       <c r="H69" s="22">
-        <v>3093.8710964872953</v>
+        <v>3091.370097699179</v>
       </c>
       <c r="I69" s="22">
-        <v>4169.3895785813165</v>
+        <v>4166.0938439923584</v>
       </c>
       <c r="J69" s="22">
-        <v>1075.5184820940212</v>
+        <v>1074.7237462931794</v>
       </c>
       <c r="K69" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="14.1" customHeight="1">
@@ -7420,31 +7456,31 @@
         <v>0.85887999999999998</v>
       </c>
       <c r="C70" s="20">
-        <v>1.0261969874167267</v>
+        <v>1.0259159970457883</v>
       </c>
       <c r="D70" s="21">
-        <v>259.34133049592646</v>
+        <v>258.90579542097186</v>
       </c>
       <c r="E70" s="22">
-        <v>301.95292764521992</v>
+        <v>301.44583110675745</v>
       </c>
       <c r="F70" s="22">
-        <v>1083.7442443261762</v>
+        <v>1080.7242558943769</v>
       </c>
       <c r="G70" s="22">
-        <v>930.80625656686618</v>
+        <v>928.21244890256241</v>
       </c>
       <c r="H70" s="22">
-        <v>3353.2124269832216</v>
+        <v>3350.2758931201511</v>
       </c>
       <c r="I70" s="22">
-        <v>4351.6306494261671</v>
+        <v>4348.1472011607748</v>
       </c>
       <c r="J70" s="22">
-        <v>998.41822244294553</v>
+        <v>997.87130804062372</v>
       </c>
       <c r="K70" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="14.1" customHeight="1">
@@ -7455,31 +7491,31 @@
         <v>0.96957000000000004</v>
       </c>
       <c r="C71" s="20">
-        <v>1.0250083101682501</v>
+        <v>1.0247332043795603</v>
       </c>
       <c r="D71" s="21">
-        <v>85.929380760787609</v>
+        <v>85.502966788318375</v>
       </c>
       <c r="E71" s="22">
-        <v>88.626278412891907</v>
+        <v>88.186481417863973</v>
       </c>
       <c r="F71" s="22">
-        <v>1172.3705227390681</v>
+        <v>1168.9107373122408</v>
       </c>
       <c r="G71" s="22">
-        <v>1136.6952877321182</v>
+        <v>1133.3407835758294</v>
       </c>
       <c r="H71" s="22">
-        <v>3439.1418077440094</v>
+        <v>3435.7788599084693</v>
       </c>
       <c r="I71" s="22">
-        <v>4557.5196805914193</v>
+        <v>4553.2755358340419</v>
       </c>
       <c r="J71" s="22">
-        <v>1118.3778728474099</v>
+        <v>1117.4966759255726</v>
       </c>
       <c r="K71" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="14.1" customHeight="1">
@@ -7490,31 +7526,31 @@
         <v>0.99405999999999994</v>
       </c>
       <c r="C72" s="20">
-        <v>1.0247448956083498</v>
+        <v>1.0244747054597683</v>
       </c>
       <c r="D72" s="21">
-        <v>47.561588192942281</v>
+        <v>47.142793462640896</v>
       </c>
       <c r="E72" s="22">
-        <v>47.845792198601977</v>
+        <v>47.42449496271945</v>
       </c>
       <c r="F72" s="22">
-        <v>1220.2163149376699</v>
+        <v>1216.3352322749602</v>
       </c>
       <c r="G72" s="22">
-        <v>1212.9682300269401</v>
+        <v>1209.1102009952469</v>
       </c>
       <c r="H72" s="22">
-        <v>3486.7033959369519</v>
+        <v>3482.9216533711101</v>
       </c>
       <c r="I72" s="22">
-        <v>4633.7926228862416</v>
+        <v>4629.0449532534594</v>
       </c>
       <c r="J72" s="22">
-        <v>1147.0892269492897</v>
+        <v>1146.1232998823493</v>
       </c>
       <c r="K72" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="14.1" customHeight="1">
@@ -7525,31 +7561,31 @@
         <v>0.95635000000000003</v>
       </c>
       <c r="C73" s="20">
-        <v>1.0242041105598856</v>
+        <v>1.0239392715700129</v>
       </c>
       <c r="D73" s="21">
-        <v>105.1738713678226</v>
+        <v>104.76337093351987</v>
       </c>
       <c r="E73" s="22">
-        <v>109.97424726075452</v>
+        <v>109.54501064831899</v>
       </c>
       <c r="F73" s="22">
-        <v>1330.1905621984245</v>
+        <v>1325.8802429232792</v>
       </c>
       <c r="G73" s="22">
-        <v>1272.1277441584632</v>
+        <v>1268.0055703196781</v>
       </c>
       <c r="H73" s="22">
-        <v>3591.8772673047747</v>
+        <v>3587.6850243046301</v>
       </c>
       <c r="I73" s="22">
-        <v>4692.9521370177645</v>
+        <v>4687.9403225778906</v>
       </c>
       <c r="J73" s="22">
-        <v>1101.0748697129898</v>
+        <v>1100.2552982732605</v>
       </c>
       <c r="K73" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="14.1" customHeight="1">
@@ -7560,31 +7596,31 @@
         <v>1.08087</v>
       </c>
       <c r="C74" s="20">
-        <v>1.0241600981079177</v>
+        <v>1.0238983146853136</v>
       </c>
       <c r="D74" s="21">
-        <v>-87.900347932727485</v>
+        <v>-88.306112237763983</v>
       </c>
       <c r="E74" s="22">
-        <v>-81.323700290254592</v>
+        <v>-81.699105570294279</v>
       </c>
       <c r="F74" s="22">
-        <v>1248.8668619081698</v>
+        <v>1244.1811373529849</v>
       </c>
       <c r="G74" s="22">
-        <v>1349.8627250306834</v>
+        <v>1344.7980659307209</v>
       </c>
       <c r="H74" s="22">
-        <v>3591.8772673047747</v>
+        <v>3587.6850243046301</v>
       </c>
       <c r="I74" s="22">
-        <v>4858.5874658227121</v>
+        <v>4853.0389304266973</v>
       </c>
       <c r="J74" s="22">
-        <v>1266.7101985179374</v>
+        <v>1265.3539061220672</v>
       </c>
       <c r="K74" s="21">
-        <v>3508.7247407920286</v>
+        <v>3508.2408644959764</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="14.1" customHeight="1">
@@ -7595,31 +7631,31 @@
         <v>1.16859</v>
       </c>
       <c r="C75" s="20">
-        <v>1.0261586247408419</v>
+        <v>1.0258963172413778</v>
       </c>
       <c r="D75" s="21">
-        <v>-220.76863165169516</v>
+        <v>-221.17520827586452</v>
       </c>
       <c r="E75" s="22">
-        <v>-188.91880954970961</v>
+        <v>-189.2667302269098</v>
       </c>
       <c r="F75" s="22">
-        <v>1059.9480523584602</v>
+        <v>1054.914407126075</v>
       </c>
       <c r="G75" s="22">
-        <v>1238.6446945055732</v>
+        <v>1232.7624270234601</v>
       </c>
       <c r="H75" s="22">
-        <v>3591.8772673047747</v>
+        <v>3587.6850243046301</v>
       </c>
       <c r="I75" s="22">
-        <v>4968.1380669492974</v>
+        <v>4962.1784997953009</v>
       </c>
       <c r="J75" s="22">
-        <v>1376.2607996445226</v>
+        <v>1374.4934754906708</v>
       </c>
       <c r="K75" s="21">
-        <v>3729.4933724437237</v>
+        <v>3729.4160727718408</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="14.1" customHeight="1">
@@ -7630,31 +7666,31 @@
         <v>1.2989900000000001</v>
       </c>
       <c r="C76" s="20">
-        <v>1.0293158435374137</v>
+        <v>1.0290512016293265</v>
       </c>
       <c r="D76" s="21">
-        <v>-417.99494251700895</v>
+        <v>-418.40513747454406</v>
       </c>
       <c r="E76" s="22">
-        <v>-321.78457302751286</v>
+        <v>-322.10035294693881</v>
       </c>
       <c r="F76" s="22">
-        <v>738.16347933094744</v>
+        <v>732.81405417913629</v>
       </c>
       <c r="G76" s="22">
-        <v>958.86697801610751</v>
+        <v>951.91812823815633</v>
       </c>
       <c r="H76" s="22">
-        <v>3591.8772673047747</v>
+        <v>3587.6850243046301</v>
       </c>
       <c r="I76" s="22">
-        <v>5106.3552929768402</v>
+        <v>5099.7393384845409</v>
       </c>
       <c r="J76" s="22">
-        <v>1514.4780256720655</v>
+        <v>1512.0543141799108</v>
       </c>
       <c r="K76" s="21">
-        <v>4147.4883149607331</v>
+        <v>4147.8212102463849</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="14.1" customHeight="1">
@@ -7665,31 +7701,31 @@
         <v>1.22841</v>
       </c>
       <c r="C77" s="20">
-        <v>1.0326041370047001</v>
+        <v>1.0323362533512053</v>
       </c>
       <c r="D77" s="21">
-        <v>-303.49908764271481</v>
+        <v>-303.91430730563184</v>
       </c>
       <c r="E77" s="22">
-        <v>-247.06660450722057</v>
+        <v>-247.40461841374773</v>
       </c>
       <c r="F77" s="22">
-        <v>491.09687482372686</v>
+        <v>485.40943576538859</v>
       </c>
       <c r="G77" s="22">
-        <v>603.26831200221432</v>
+        <v>596.28180498856102</v>
       </c>
       <c r="H77" s="22">
-        <v>3591.8772673047747</v>
+        <v>3587.6850243046301</v>
       </c>
       <c r="I77" s="22">
-        <v>5054.2557146056624</v>
+        <v>5048.0173225405779</v>
       </c>
       <c r="J77" s="22">
-        <v>1462.3784473008877</v>
+        <v>1460.3322982359477</v>
       </c>
       <c r="K77" s="21">
-        <v>4450.9874026034477</v>
+        <v>4451.735517552017</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="12.75">
@@ -7700,31 +7736,31 @@
         <v>1.2987200000000001</v>
       </c>
       <c r="C78" s="20">
-        <v>1.0354160636182892</v>
+        <v>1.035146144179893</v>
       </c>
       <c r="D78" s="21">
-        <v>-408.12110139165191</v>
+        <v>-408.53947652116597</v>
       </c>
       <c r="E78" s="22">
-        <v>-314.24872288996232</v>
+        <v>-314.57086710081154</v>
       </c>
       <c r="F78" s="22">
-        <v>176.84815193376454</v>
+        <v>170.83856866457705</v>
       </c>
       <c r="G78" s="22">
-        <v>229.67623187941871</v>
+        <v>221.87146589605953</v>
       </c>
       <c r="H78" s="22">
-        <v>3591.8772673047747</v>
+        <v>3587.6850243046301</v>
       </c>
       <c r="I78" s="22">
-        <v>5088.7847358745184</v>
+        <v>5082.1464599692426</v>
       </c>
       <c r="J78" s="22">
-        <v>1496.9074685697437</v>
+        <v>1494.4614356646125</v>
       </c>
       <c r="K78" s="21">
-        <v>4859.1085039950995</v>
+        <v>4860.2749940731828</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="12.75">
@@ -7735,13 +7771,13 @@
         <v>1.32033</v>
       </c>
       <c r="C79" s="20">
-        <v>1.0393539895356432</v>
+        <v>1.0390798825065262</v>
       </c>
       <c r="D79" s="21">
-        <v>-233.49792044270734</v>
+        <v>-225.56328736490102</v>
       </c>
       <c r="E79" s="22">
-        <v>-176.84815193376454</v>
+        <v>-170.83856866457705</v>
       </c>
       <c r="F79" s="22">
         <v>0</v>
@@ -7750,16 +7786,16 @@
         <v>0</v>
       </c>
       <c r="H79" s="22">
-        <v>3591.8772673047747</v>
+        <v>3587.6850243046301</v>
       </c>
       <c r="I79" s="22">
-        <v>5092.6064244378067</v>
+        <v>5085.8382814380839</v>
       </c>
       <c r="J79" s="22">
-        <v>1500.729157133032</v>
+        <v>1498.1532571334537</v>
       </c>
       <c r="K79" s="21">
-        <v>5092.6064244378067</v>
+        <v>5085.8382814380839</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="12.75">
@@ -7770,7 +7806,7 @@
         <v>1.25888</v>
       </c>
       <c r="C80" s="20">
-        <v>1.0426825419354826</v>
+        <v>1.0424057115260772</v>
       </c>
       <c r="D80" s="21">
         <v>0</v>
@@ -7785,16 +7821,16 @@
         <v>0</v>
       </c>
       <c r="H80" s="22">
-        <v>3591.8772673047747</v>
+        <v>3587.6850243046301</v>
       </c>
       <c r="I80" s="22">
-        <v>5092.6064244378067</v>
+        <v>5085.8382814380839</v>
       </c>
       <c r="J80" s="22">
-        <v>1500.729157133032</v>
+        <v>1498.1532571334537</v>
       </c>
       <c r="K80" s="21">
-        <v>5092.6064244378067</v>
+        <v>5085.8382814380839</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="12.75">
@@ -7805,7 +7841,7 @@
         <v>1.25305</v>
       </c>
       <c r="C81" s="20">
-        <v>1.0455482644628087</v>
+        <v>1.0452700190355317</v>
       </c>
       <c r="D81" s="21">
         <v>0</v>
@@ -7820,16 +7856,16 @@
         <v>0</v>
       </c>
       <c r="H81" s="22">
-        <v>3591.8772673047747</v>
+        <v>3587.6850243046301</v>
       </c>
       <c r="I81" s="22">
-        <v>5092.6064244378067</v>
+        <v>5085.8382814380839</v>
       </c>
       <c r="J81" s="22">
-        <v>1500.729157133032</v>
+        <v>1498.1532571334537</v>
       </c>
       <c r="K81" s="21">
-        <v>5092.6064244378067</v>
+        <v>5085.8382814380839</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="12.75">
@@ -7855,16 +7891,51 @@
         <v>0</v>
       </c>
       <c r="H82" s="22">
-        <v>3591.8772673047747</v>
+        <v>3587.6850243046301</v>
       </c>
       <c r="I82" s="22">
-        <v>5092.6064244378067</v>
+        <v>5085.8382814380839</v>
       </c>
       <c r="J82" s="22">
-        <v>1500.729157133032</v>
+        <v>1498.1532571334537</v>
       </c>
       <c r="K82" s="21">
-        <v>5092.6064244378067</v>
+        <v>5085.8382814380839</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="12.75">
+      <c r="A83" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B83" s="25">
+        <v>1.2139500000000001</v>
+      </c>
+      <c r="C83" s="20">
+        <v>1.0492853130812139</v>
+      </c>
+      <c r="D83" s="21">
+        <v>0</v>
+      </c>
+      <c r="E83" s="22">
+        <v>0</v>
+      </c>
+      <c r="F83" s="22">
+        <v>0</v>
+      </c>
+      <c r="G83" s="22">
+        <v>0</v>
+      </c>
+      <c r="H83" s="22">
+        <v>3587.6850243046301</v>
+      </c>
+      <c r="I83" s="22">
+        <v>5085.8382814380839</v>
+      </c>
+      <c r="J83" s="22">
+        <v>1498.1532571334537</v>
+      </c>
+      <c r="K83" s="21">
+        <v>5085.8382814380839</v>
       </c>
     </row>
   </sheetData>
@@ -7883,7 +7954,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF70"/>
+  <dimension ref="A1:AF71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8150,22 +8221,22 @@
       </c>
       <c r="Y5" s="1">
         <f>VLOOKUP(X5,O:R,2,)</f>
-        <v>193.28661200000033</v>
+        <v>193.45680200000038</v>
       </c>
       <c r="Z5" s="1">
         <f t="shared" ref="Z5" si="2">0-Y5</f>
-        <v>-193.28661200000033</v>
+        <v>-193.45680200000038</v>
       </c>
       <c r="AA5" s="6">
         <v>43830</v>
       </c>
       <c r="AB5" s="7">
         <f>VLOOKUP(AA5,O:P,2,)</f>
-        <v>193.28661200000033</v>
+        <v>193.45680200000038</v>
       </c>
       <c r="AC5" s="7">
         <f t="shared" si="1"/>
-        <v>-193.28661200000033</v>
+        <v>-193.45680200000038</v>
       </c>
       <c r="AD5" s="6">
         <v>43830</v>
@@ -8217,31 +8288,31 @@
         <v>43830</v>
       </c>
       <c r="P6" s="10">
-        <v>193.28661200000033</v>
+        <v>193.45680200000038</v>
       </c>
       <c r="Q6" s="5">
-        <v>1624.9792660000041</v>
+        <v>1625.1494560000042</v>
       </c>
       <c r="R6" s="5">
-        <v>2121.5860729661367</v>
+        <v>2121.2666649160242</v>
       </c>
       <c r="S6" s="5">
-        <v>496.60680696613258</v>
+        <v>496.11720891601999</v>
       </c>
       <c r="T6" s="5">
-        <v>1754.5207020000048</v>
+        <v>1759.0322560000047</v>
       </c>
       <c r="U6" s="9">
-        <v>0.30560808827337449</v>
+        <v>0.30527482077686441</v>
       </c>
       <c r="V6" s="9">
-        <v>0.15168919836337369</v>
+        <v>0.15154155652049006</v>
       </c>
       <c r="X6" s="6">
         <v>43830</v>
       </c>
       <c r="Z6" s="1">
-        <v>2121.5860729661367</v>
+        <v>2121.2666649160242</v>
       </c>
       <c r="AA6" s="6">
         <v>44196</v>
@@ -8307,32 +8378,32 @@
         <v>0</v>
       </c>
       <c r="Q7" s="5">
-        <v>1624.9792660000041</v>
+        <v>1625.1494560000042</v>
       </c>
       <c r="R7" s="5">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="S7" s="5">
-        <v>535.33104856936575</v>
+        <v>534.12531831025217</v>
       </c>
       <c r="T7" s="5">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="U7" s="9">
-        <v>0.32943869486231608</v>
+        <v>0.32866227554535193</v>
       </c>
       <c r="V7" s="9">
-        <v>0.10369660281505078</v>
+        <v>0.103476938623698</v>
       </c>
       <c r="Z7" s="2">
         <f>IRR(Z4:Z6)</f>
-        <v>0.15168919836337369</v>
+        <v>0.15154155652049006</v>
       </c>
       <c r="AA7" s="6">
         <v>44196</v>
       </c>
       <c r="AC7" s="7">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="AD7" s="6">
         <v>44561</v>
@@ -8384,29 +8455,29 @@
         <v>44561</v>
       </c>
       <c r="P8" s="10">
-        <v>439.433556000002</v>
+        <v>439.43355600000223</v>
       </c>
       <c r="Q8" s="5">
-        <v>2064.4128220000061</v>
+        <v>2064.5830120000064</v>
       </c>
       <c r="R8" s="5">
-        <v>2633.6658962308707</v>
+        <v>2632.6303559717571</v>
       </c>
       <c r="S8" s="5">
-        <v>569.25307423086451</v>
+        <v>568.04734397175071</v>
       </c>
       <c r="T8" s="5">
-        <v>2365.5016705693652</v>
+        <v>2364.4661303102516</v>
       </c>
       <c r="U8" s="9">
-        <v>0.2757457559672446</v>
+        <v>0.27513901871229235</v>
       </c>
       <c r="V8" s="9">
         <v>9.161448749478418E-2</v>
       </c>
       <c r="AC8" s="2">
         <f>IRR(AC4:AC7)</f>
-        <v>0.10369660281505078</v>
+        <v>0.103476938623698</v>
       </c>
       <c r="AD8" s="6">
         <v>44561</v>
@@ -8454,22 +8525,22 @@
         <v>44925</v>
       </c>
       <c r="P9" s="10">
-        <v>2771.7310180000009</v>
+        <v>2765.5571820000014</v>
       </c>
       <c r="Q9" s="5">
-        <v>4836.143840000007</v>
+        <v>4830.1401940000078</v>
       </c>
       <c r="R9" s="5">
-        <v>5394.8728413640729</v>
+        <v>5387.9358458787192</v>
       </c>
       <c r="S9" s="5">
-        <v>558.72900136406588</v>
+        <v>557.7956518787114</v>
       </c>
       <c r="T9" s="5">
-        <v>2365.5016705693652</v>
+        <v>2364.4661303102516</v>
       </c>
       <c r="U9" s="9">
-        <v>0.11553192374941128</v>
+        <v>0.11548229025973289</v>
       </c>
       <c r="V9" s="9">
         <v>6.5682800424140098E-2</v>
@@ -8668,31 +8739,31 @@
         <v>43496</v>
       </c>
       <c r="B14" s="25">
-        <v>0.67819000000000007</v>
+        <v>0.67716999999999994</v>
       </c>
       <c r="C14" s="20">
-        <v>0.80289104000000022</v>
+        <v>0.80198084000000014</v>
       </c>
       <c r="D14" s="21">
-        <v>193.28661200000025</v>
+        <v>193.45680200000032</v>
       </c>
       <c r="E14" s="22">
-        <v>285.00363025110988</v>
+        <v>285.6842476778362</v>
       </c>
       <c r="F14" s="22">
-        <v>2221.3823262441952</v>
+        <v>2222.0629436709214</v>
       </c>
       <c r="G14" s="22">
-        <v>1506.5192798355508</v>
+        <v>1504.7143635656378</v>
       </c>
       <c r="H14" s="22">
-        <v>1624.9792660000041</v>
+        <v>1625.1494560000042</v>
       </c>
       <c r="I14" s="22">
-        <v>1506.5192798355508</v>
+        <v>1504.7143635656378</v>
       </c>
       <c r="J14" s="22">
-        <v>-118.45998616445331</v>
+        <v>-120.43509243436642</v>
       </c>
       <c r="K14" s="21">
         <v>0</v>
@@ -8717,31 +8788,31 @@
         <v>0.85648000000000002</v>
       </c>
       <c r="C15" s="20">
-        <v>0.79863988000000019</v>
+        <v>0.79816120000000024</v>
       </c>
       <c r="D15" s="21">
-        <v>-89.65218599999973</v>
+        <v>-90.394139999999666</v>
       </c>
       <c r="E15" s="22">
-        <v>-104.67516579488105</v>
+        <v>-105.54144872034334</v>
       </c>
       <c r="F15" s="22">
-        <v>2116.707160449314</v>
+        <v>2116.521494950578</v>
       </c>
       <c r="G15" s="22">
-        <v>1812.9173487816286</v>
+        <v>1812.7583299952712</v>
       </c>
       <c r="H15" s="22">
-        <v>1624.9792660000041</v>
+        <v>1625.1494560000042</v>
       </c>
       <c r="I15" s="22">
-        <v>1902.5695347816284</v>
+        <v>1903.1524699952708</v>
       </c>
       <c r="J15" s="22">
-        <v>277.59026878162422</v>
+        <v>278.00301399526666</v>
       </c>
       <c r="K15" s="21">
-        <v>89.65218599999973</v>
+        <v>90.394139999999666</v>
       </c>
       <c r="L15" s="7"/>
       <c r="X15" s="6">
@@ -8759,31 +8830,31 @@
         <v>0.94580999999999993</v>
       </c>
       <c r="C16" s="20">
-        <v>0.80337899999999995</v>
+        <v>0.80233468000000008</v>
       </c>
       <c r="D16" s="21">
-        <v>-220.76804999999996</v>
+        <v>-222.38674599999976</v>
       </c>
       <c r="E16" s="22">
-        <v>-233.41691248770891</v>
+        <v>-235.12835136020954</v>
       </c>
       <c r="F16" s="22">
-        <v>1883.290247961605</v>
+        <v>1881.3931435903685</v>
       </c>
       <c r="G16" s="22">
-        <v>1781.2347494245655</v>
+        <v>1779.4404491392063</v>
       </c>
       <c r="H16" s="22">
-        <v>1624.9792660000041</v>
+        <v>1625.1494560000042</v>
       </c>
       <c r="I16" s="22">
-        <v>2091.654985424565</v>
+        <v>2092.2213351392056</v>
       </c>
       <c r="J16" s="22">
-        <v>466.67571942456084</v>
+        <v>467.07187913920143</v>
       </c>
       <c r="K16" s="21">
-        <v>310.4202359999997</v>
+        <v>312.78088599999944</v>
       </c>
       <c r="L16" s="7"/>
       <c r="Z16" s="2">
@@ -8799,31 +8870,31 @@
         <v>0.9108099999999999</v>
       </c>
       <c r="C17" s="20">
-        <v>0.80660947999999977</v>
+        <v>0.80561315999999961</v>
       </c>
       <c r="D17" s="21">
-        <v>-161.5108060000002</v>
+        <v>-163.05510200000046</v>
       </c>
       <c r="E17" s="22">
-        <v>-177.32656207112376</v>
+        <v>-179.02208144398995</v>
       </c>
       <c r="F17" s="22">
-        <v>1705.9636858904812</v>
+        <v>1702.3710621463786</v>
       </c>
       <c r="G17" s="22">
-        <v>1553.808784745909</v>
+        <v>1550.536587113543</v>
       </c>
       <c r="H17" s="22">
-        <v>1624.9792660000041</v>
+        <v>1625.1494560000042</v>
       </c>
       <c r="I17" s="22">
-        <v>2025.7398267459089</v>
+        <v>2026.372575113543</v>
       </c>
       <c r="J17" s="22">
-        <v>400.76056074590474</v>
+        <v>401.22311911353881</v>
       </c>
       <c r="K17" s="21">
-        <v>471.93104199999993</v>
+        <v>475.83598799999993</v>
       </c>
       <c r="L17" s="7"/>
     </row>
@@ -8835,31 +8906,31 @@
         <v>0.86360000000000003</v>
       </c>
       <c r="C18" s="20">
-        <v>0.8020255199999996</v>
+        <v>0.8010060799999994</v>
       </c>
       <c r="D18" s="21">
-        <v>-95.440444000000667</v>
+        <v>-97.020576000000986</v>
       </c>
       <c r="E18" s="22">
-        <v>-110.51464103751813</v>
+        <v>-112.34434460398447</v>
       </c>
       <c r="F18" s="22">
-        <v>1595.449044852963</v>
+        <v>1590.0267175423942</v>
       </c>
       <c r="G18" s="22">
-        <v>1377.8297951350189</v>
+        <v>1373.1470732696116</v>
       </c>
       <c r="H18" s="22">
-        <v>1624.9792660000041</v>
+        <v>1625.1494560000042</v>
       </c>
       <c r="I18" s="22">
-        <v>1945.2012811350196</v>
+        <v>1946.0036372696127</v>
       </c>
       <c r="J18" s="22">
-        <v>320.22201513501545</v>
+        <v>320.85418126960849</v>
       </c>
       <c r="K18" s="21">
-        <v>567.37148600000057</v>
+        <v>572.85656400000096</v>
       </c>
       <c r="L18" s="7"/>
     </row>
@@ -8871,31 +8942,31 @@
         <v>0.88732</v>
       </c>
       <c r="C19" s="20">
-        <v>0.80021431999999926</v>
+        <v>0.79979107999999932</v>
       </c>
       <c r="D19" s="21">
-        <v>-135.01380400000116</v>
+        <v>-135.66982600000105</v>
       </c>
       <c r="E19" s="22">
-        <v>-152.15909029437086</v>
+        <v>-152.89841996123275</v>
       </c>
       <c r="F19" s="22">
-        <v>1443.2899545585922</v>
+        <v>1437.1282975811614</v>
       </c>
       <c r="G19" s="22">
-        <v>1280.6600424789301</v>
+        <v>1275.1926810097161</v>
       </c>
       <c r="H19" s="22">
-        <v>1624.9792660000041</v>
+        <v>1625.1494560000042</v>
       </c>
       <c r="I19" s="22">
-        <v>1983.0453324789319</v>
+        <v>1983.7190710097182</v>
       </c>
       <c r="J19" s="22">
-        <v>358.06606647892772</v>
+        <v>358.56961500971397</v>
       </c>
       <c r="K19" s="21">
-        <v>702.38529000000176</v>
+        <v>708.52639000000204</v>
       </c>
       <c r="L19" s="7"/>
     </row>
@@ -8907,31 +8978,31 @@
         <v>0.89222000000000001</v>
       </c>
       <c r="C20" s="20">
-        <v>0.80840215999999976</v>
+        <v>0.80782763999999974</v>
       </c>
       <c r="D20" s="21">
-        <v>-129.9176520000004</v>
+        <v>-130.80815800000042</v>
       </c>
       <c r="E20" s="22">
-        <v>-145.61167873394498</v>
+        <v>-146.6097576830831</v>
       </c>
       <c r="F20" s="22">
-        <v>1297.6782758246472</v>
+        <v>1290.5185398980784</v>
       </c>
       <c r="G20" s="22">
-        <v>1157.8145112562668</v>
+        <v>1151.4264516678636</v>
       </c>
       <c r="H20" s="22">
-        <v>1624.9792660000041</v>
+        <v>1625.1494560000042</v>
       </c>
       <c r="I20" s="22">
-        <v>1990.1174532562691</v>
+        <v>1990.7609996678661</v>
       </c>
       <c r="J20" s="22">
-        <v>365.13818725626493</v>
+        <v>365.61154366786195</v>
       </c>
       <c r="K20" s="21">
-        <v>832.30294200000219</v>
+        <v>839.33454800000243</v>
       </c>
       <c r="L20" s="7"/>
     </row>
@@ -8943,31 +9014,31 @@
         <v>0.92357</v>
       </c>
       <c r="C21" s="20">
-        <v>0.81579543999999959</v>
+        <v>0.81574827999999955</v>
       </c>
       <c r="D21" s="21">
-        <v>-167.05056800000062</v>
+        <v>-167.1236660000007</v>
       </c>
       <c r="E21" s="22">
-        <v>-180.87483136091538</v>
+        <v>-180.95397858310761</v>
       </c>
       <c r="F21" s="22">
-        <v>1116.8034444637319</v>
+        <v>1109.5645613149709</v>
       </c>
       <c r="G21" s="22">
-        <v>1031.4461572033688</v>
+        <v>1024.7605418936678</v>
       </c>
       <c r="H21" s="22">
-        <v>1624.9792660000041</v>
+        <v>1625.1494560000042</v>
       </c>
       <c r="I21" s="22">
-        <v>2030.7996672033717</v>
+        <v>2031.218755893671</v>
       </c>
       <c r="J21" s="22">
-        <v>405.82040120336751</v>
+        <v>406.06929989366677</v>
       </c>
       <c r="K21" s="21">
-        <v>999.35351000000287</v>
+        <v>1006.4582140000032</v>
       </c>
       <c r="L21" s="8"/>
     </row>
@@ -8979,31 +9050,31 @@
         <v>0.95855999999999997</v>
       </c>
       <c r="C22" s="20">
-        <v>0.83312139999999968</v>
+        <v>0.83330167999999971</v>
       </c>
       <c r="D22" s="21">
-        <v>-194.42983000000044</v>
+        <v>-194.1503960000004</v>
       </c>
       <c r="E22" s="22">
-        <v>-202.83532590552542</v>
+        <v>-202.54381155065974</v>
       </c>
       <c r="F22" s="22">
-        <v>913.96811855820647</v>
+        <v>907.02074976431118</v>
       </c>
       <c r="G22" s="22">
-        <v>876.09327972515439</v>
+        <v>869.43380989407808</v>
       </c>
       <c r="H22" s="22">
-        <v>1624.9792660000041</v>
+        <v>1625.1494560000042</v>
       </c>
       <c r="I22" s="22">
-        <v>2069.876619725158</v>
+        <v>2070.0424198940818</v>
       </c>
       <c r="J22" s="22">
-        <v>444.89735372515383</v>
+        <v>444.89296389407764</v>
       </c>
       <c r="K22" s="21">
-        <v>1193.7833400000034</v>
+        <v>1200.6086100000036</v>
       </c>
       <c r="L22" s="7"/>
     </row>
@@ -9015,31 +9086,31 @@
         <v>0.97238999999999998</v>
       </c>
       <c r="C23" s="20">
-        <v>0.85132979999999947</v>
+        <v>0.85201527999999938</v>
       </c>
       <c r="D23" s="21">
-        <v>-187.64331000000078</v>
+        <v>-186.58081600000094</v>
       </c>
       <c r="E23" s="22">
-        <v>-192.97124610495871</v>
+        <v>-191.87858369584316</v>
       </c>
       <c r="F23" s="22">
-        <v>720.99687245324776</v>
+        <v>715.14216606846799</v>
       </c>
       <c r="G23" s="22">
-        <v>701.09014880481357</v>
+        <v>695.39709086331754</v>
       </c>
       <c r="H23" s="22">
-        <v>1624.9792660000041</v>
+        <v>1625.1494560000042</v>
       </c>
       <c r="I23" s="22">
-        <v>2082.5167988048179</v>
+        <v>2082.5865168633218</v>
       </c>
       <c r="J23" s="22">
-        <v>457.53753280481374</v>
+        <v>457.43706086331758</v>
       </c>
       <c r="K23" s="21">
-        <v>1381.4266500000042</v>
+        <v>1387.1894260000045</v>
       </c>
       <c r="L23" s="7"/>
       <c r="O23" s="3"/>
@@ -9052,31 +9123,31 @@
         <v>0.97728999999999999</v>
       </c>
       <c r="C24" s="20">
-        <v>0.87548991999999959</v>
+        <v>0.87560303999999967</v>
       </c>
       <c r="D24" s="21">
-        <v>-157.79012400000062</v>
+        <v>-157.61478800000052</v>
       </c>
       <c r="E24" s="22">
-        <v>-161.45680811222934</v>
+        <v>-161.27739770180858</v>
       </c>
       <c r="F24" s="22">
-        <v>559.54006434101848</v>
+        <v>553.8647683666594</v>
       </c>
       <c r="G24" s="22">
-        <v>546.83290947983392</v>
+        <v>541.28649947705253</v>
       </c>
       <c r="H24" s="22">
-        <v>1624.9792660000041</v>
+        <v>1625.1494560000042</v>
       </c>
       <c r="I24" s="22">
-        <v>2086.0496834798387</v>
+        <v>2086.0907134770578</v>
       </c>
       <c r="J24" s="22">
-        <v>461.07041747983453</v>
+        <v>460.94125747705357</v>
       </c>
       <c r="K24" s="21">
-        <v>1539.2167740000048</v>
+        <v>1544.804214000005</v>
       </c>
       <c r="L24" s="7"/>
     </row>
@@ -9088,31 +9159,31 @@
         <v>1.0407999999999999</v>
       </c>
       <c r="C25" s="20">
-        <v>0.90189423999999996</v>
+        <v>0.90258836000000009</v>
       </c>
       <c r="D25" s="21">
-        <v>-215.30392799999998</v>
+        <v>-214.22804199999979</v>
       </c>
       <c r="E25" s="22">
-        <v>-206.86388162951576</v>
+        <v>-205.83017102229036</v>
       </c>
       <c r="F25" s="22">
-        <v>352.67618271150275</v>
+        <v>348.03459734436905</v>
       </c>
       <c r="G25" s="22">
-        <v>367.06537096613204</v>
+        <v>362.23440891601928</v>
       </c>
       <c r="H25" s="22">
-        <v>1624.9792660000041</v>
+        <v>1625.1494560000042</v>
       </c>
       <c r="I25" s="22">
-        <v>2121.5860729661367</v>
+        <v>2121.2666649160242</v>
       </c>
       <c r="J25" s="22">
-        <v>496.60680696613258</v>
+        <v>496.11720891601999</v>
       </c>
       <c r="K25" s="21">
-        <v>1754.5207020000048</v>
+        <v>1759.0322560000047</v>
       </c>
       <c r="L25" s="7"/>
     </row>
@@ -9124,31 +9195,31 @@
         <v>1.13632</v>
       </c>
       <c r="C26" s="20">
-        <v>0.92962908</v>
+        <v>0.93022331999999996</v>
       </c>
       <c r="D26" s="21">
-        <v>-320.370926</v>
+        <v>-319.44985400000007</v>
       </c>
       <c r="E26" s="22">
-        <v>-281.93724127006476</v>
+        <v>-281.12666678400456</v>
       </c>
       <c r="F26" s="22">
-        <v>70.738941441437987</v>
+        <v>66.907930560364491</v>
       </c>
       <c r="G26" s="22">
-        <v>80.38207393873482</v>
+        <v>76.028819654353384</v>
       </c>
       <c r="H26" s="22">
-        <v>1624.9792660000041</v>
+        <v>1625.1494560000042</v>
       </c>
       <c r="I26" s="22">
-        <v>2155.2737019387396</v>
+        <v>2154.5109296543583</v>
       </c>
       <c r="J26" s="22">
-        <v>530.29443593873543</v>
+        <v>529.36147365435409</v>
       </c>
       <c r="K26" s="21">
-        <v>2074.8916280000049</v>
+        <v>2078.4821100000049</v>
       </c>
       <c r="L26" s="7"/>
     </row>
@@ -9160,13 +9231,13 @@
         <v>1.2075199999999999</v>
       </c>
       <c r="C27" s="20">
-        <v>0.96966315999999997</v>
+        <v>0.96999144000000015</v>
       </c>
       <c r="D27" s="21">
-        <v>-85.418686569365192</v>
+        <v>-80.792664310251325</v>
       </c>
       <c r="E27" s="22">
-        <v>-70.738941441437987</v>
+        <v>-66.907930560364491</v>
       </c>
       <c r="F27" s="22">
         <v>0</v>
@@ -9175,16 +9246,16 @@
         <v>0</v>
       </c>
       <c r="H27" s="22">
-        <v>1624.9792660000041</v>
+        <v>1625.1494560000042</v>
       </c>
       <c r="I27" s="22">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="J27" s="22">
-        <v>535.33104856936575</v>
+        <v>534.12531831025217</v>
       </c>
       <c r="K27" s="21">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="L27" s="7"/>
     </row>
@@ -9196,7 +9267,7 @@
         <v>1.0721400000000001</v>
       </c>
       <c r="C28" s="20">
-        <v>0.99416948000000038</v>
+        <v>0.9937777600000004</v>
       </c>
       <c r="D28" s="21">
         <v>0</v>
@@ -9211,16 +9282,16 @@
         <v>0</v>
       </c>
       <c r="H28" s="22">
-        <v>1624.9792660000041</v>
+        <v>1625.1494560000042</v>
       </c>
       <c r="I28" s="22">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="J28" s="22">
-        <v>535.33104856936575</v>
+        <v>534.12531831025217</v>
       </c>
       <c r="K28" s="21">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="L28" s="7"/>
     </row>
@@ -9232,7 +9303,7 @@
         <v>1.13618</v>
       </c>
       <c r="C29" s="20">
-        <v>1.0066833200000003</v>
+        <v>1.0062796800000002</v>
       </c>
       <c r="D29" s="21">
         <v>0</v>
@@ -9247,16 +9318,16 @@
         <v>0</v>
       </c>
       <c r="H29" s="22">
-        <v>1624.9792660000041</v>
+        <v>1625.1494560000042</v>
       </c>
       <c r="I29" s="22">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="J29" s="22">
-        <v>535.33104856936575</v>
+        <v>534.12531831025217</v>
       </c>
       <c r="K29" s="21">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="L29" s="7"/>
     </row>
@@ -9268,7 +9339,7 @@
         <v>1.12294</v>
       </c>
       <c r="C30" s="20">
-        <v>1.0254032800000001</v>
+        <v>1.0253235600000004</v>
       </c>
       <c r="D30" s="21">
         <v>0</v>
@@ -9283,16 +9354,16 @@
         <v>0</v>
       </c>
       <c r="H30" s="22">
-        <v>1624.9792660000041</v>
+        <v>1625.1494560000042</v>
       </c>
       <c r="I30" s="22">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="J30" s="22">
-        <v>535.33104856936575</v>
+        <v>534.12531831025217</v>
       </c>
       <c r="K30" s="21">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="L30" s="7"/>
     </row>
@@ -9304,7 +9375,7 @@
         <v>1.25214</v>
       </c>
       <c r="C31" s="20">
-        <v>1.0521240799999996</v>
+        <v>1.0521225599999997</v>
       </c>
       <c r="D31" s="21">
         <v>0</v>
@@ -9319,16 +9390,16 @@
         <v>0</v>
       </c>
       <c r="H31" s="22">
-        <v>1624.9792660000041</v>
+        <v>1625.1494560000042</v>
       </c>
       <c r="I31" s="22">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="J31" s="22">
-        <v>535.33104856936575</v>
+        <v>534.12531831025217</v>
       </c>
       <c r="K31" s="21">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="L31" s="7"/>
     </row>
@@ -9340,7 +9411,7 @@
         <v>1.3561700000000001</v>
       </c>
       <c r="C32" s="20">
-        <v>1.09524756</v>
+        <v>1.09525304</v>
       </c>
       <c r="D32" s="21">
         <v>0</v>
@@ -9355,16 +9426,16 @@
         <v>0</v>
       </c>
       <c r="H32" s="22">
-        <v>1624.9792660000041</v>
+        <v>1625.1494560000042</v>
       </c>
       <c r="I32" s="22">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="J32" s="22">
-        <v>535.33104856936575</v>
+        <v>534.12531831025217</v>
       </c>
       <c r="K32" s="21">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="L32" s="7"/>
     </row>
@@ -9391,16 +9462,16 @@
         <v>0</v>
       </c>
       <c r="H33" s="22">
-        <v>1624.9792660000041</v>
+        <v>1625.1494560000042</v>
       </c>
       <c r="I33" s="22">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="J33" s="22">
-        <v>535.33104856936575</v>
+        <v>534.12531831025217</v>
       </c>
       <c r="K33" s="21">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="L33" s="7"/>
     </row>
@@ -9427,16 +9498,16 @@
         <v>0</v>
       </c>
       <c r="H34" s="22">
-        <v>1624.9792660000041</v>
+        <v>1625.1494560000042</v>
       </c>
       <c r="I34" s="22">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="J34" s="22">
-        <v>535.33104856936575</v>
+        <v>534.12531831025217</v>
       </c>
       <c r="K34" s="21">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="L34" s="7"/>
       <c r="O34" s="3"/>
@@ -9464,16 +9535,16 @@
         <v>0</v>
       </c>
       <c r="H35" s="22">
-        <v>1624.9792660000041</v>
+        <v>1625.1494560000042</v>
       </c>
       <c r="I35" s="22">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="J35" s="22">
-        <v>535.33104856936575</v>
+        <v>534.12531831025217</v>
       </c>
       <c r="K35" s="21">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="L35" s="7"/>
     </row>
@@ -9500,16 +9571,16 @@
         <v>0</v>
       </c>
       <c r="H36" s="22">
-        <v>1624.9792660000041</v>
+        <v>1625.1494560000042</v>
       </c>
       <c r="I36" s="22">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="J36" s="22">
-        <v>535.33104856936575</v>
+        <v>534.12531831025217</v>
       </c>
       <c r="K36" s="21">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="L36" s="7"/>
     </row>
@@ -9536,16 +9607,16 @@
         <v>0</v>
       </c>
       <c r="H37" s="22">
-        <v>1624.9792660000041</v>
+        <v>1625.1494560000042</v>
       </c>
       <c r="I37" s="22">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="J37" s="22">
-        <v>535.33104856936575</v>
+        <v>534.12531831025217</v>
       </c>
       <c r="K37" s="21">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="L37" s="7"/>
     </row>
@@ -9572,16 +9643,16 @@
         <v>3.6415700000006046</v>
       </c>
       <c r="H38" s="22">
-        <v>1628.6208360000048</v>
+        <v>1628.7910260000049</v>
       </c>
       <c r="I38" s="22">
-        <v>2163.9518845693706</v>
+        <v>2162.916344310257</v>
       </c>
       <c r="J38" s="22">
-        <v>535.33104856936575</v>
+        <v>534.12531831025217</v>
       </c>
       <c r="K38" s="21">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="L38" s="7"/>
     </row>
@@ -9608,16 +9679,16 @@
         <v>14.348287621738816</v>
       </c>
       <c r="H39" s="22">
-        <v>1639.3211680000056</v>
+        <v>1639.4913580000057</v>
       </c>
       <c r="I39" s="22">
-        <v>2174.6586021911089</v>
+        <v>2173.6230619319954</v>
       </c>
       <c r="J39" s="22">
-        <v>535.33743419110328</v>
+        <v>534.1317039319897</v>
       </c>
       <c r="K39" s="21">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="L39" s="7"/>
     </row>
@@ -9644,16 +9715,16 @@
         <v>143.94885958372555</v>
       </c>
       <c r="H40" s="22">
-        <v>1769.8775440000049</v>
+        <v>1770.0477340000052</v>
       </c>
       <c r="I40" s="22">
-        <v>2304.2591741530955</v>
+        <v>2303.223633893982</v>
       </c>
       <c r="J40" s="22">
-        <v>534.38163015309055</v>
+        <v>533.17589989397675</v>
       </c>
       <c r="K40" s="21">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="L40" s="7"/>
     </row>
@@ -9680,16 +9751,16 @@
         <v>250.69090336178138</v>
       </c>
       <c r="H41" s="22">
-        <v>1873.7719360000042</v>
+        <v>1873.9421260000045</v>
       </c>
       <c r="I41" s="22">
-        <v>2411.0012179311511</v>
+        <v>2409.9656776720376</v>
       </c>
       <c r="J41" s="22">
-        <v>537.22928193114694</v>
+        <v>536.02355167203314</v>
       </c>
       <c r="K41" s="21">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="L41" s="7"/>
     </row>
@@ -9716,16 +9787,16 @@
         <v>249.99832904670953</v>
       </c>
       <c r="H42" s="22">
-        <v>1873.7719360000042</v>
+        <v>1873.9421260000045</v>
       </c>
       <c r="I42" s="22">
-        <v>2428.4903916160797</v>
+        <v>2427.4548513569662</v>
       </c>
       <c r="J42" s="22">
-        <v>554.71845561607552</v>
+        <v>553.51272535696171</v>
       </c>
       <c r="K42" s="21">
-        <v>2178.4920625693703</v>
+        <v>2177.4565223102568</v>
       </c>
       <c r="L42" s="7"/>
     </row>
@@ -9752,16 +9823,16 @@
         <v>147.86339462639305</v>
       </c>
       <c r="H43" s="22">
-        <v>1873.7719360000042</v>
+        <v>1873.9421260000045</v>
       </c>
       <c r="I43" s="22">
-        <v>2443.171827195762</v>
+        <v>2442.1362869366485</v>
       </c>
       <c r="J43" s="22">
-        <v>569.39989119575785</v>
+        <v>568.19416093664404</v>
       </c>
       <c r="K43" s="21">
-        <v>2295.308432569369</v>
+        <v>2294.2728923102554</v>
       </c>
       <c r="L43" s="7"/>
     </row>
@@ -9788,16 +9859,16 @@
         <v>98.847890566483869</v>
       </c>
       <c r="H44" s="22">
-        <v>1873.7719360000042</v>
+        <v>1873.9421260000045</v>
       </c>
       <c r="I44" s="22">
-        <v>2437.6209891358512</v>
+        <v>2436.5854488767377</v>
       </c>
       <c r="J44" s="22">
-        <v>563.84905313584704</v>
+        <v>562.64332287673324</v>
       </c>
       <c r="K44" s="21">
-        <v>2338.7730985693674</v>
+        <v>2337.7375583102539</v>
       </c>
       <c r="L44" s="7"/>
     </row>
@@ -9824,16 +9895,16 @@
         <v>145.6089944354637</v>
       </c>
       <c r="H45" s="22">
-        <v>1925.7948960000051</v>
+        <v>1925.9650860000054</v>
       </c>
       <c r="I45" s="22">
-        <v>2484.3820930048309</v>
+        <v>2483.3465527457174</v>
       </c>
       <c r="J45" s="22">
-        <v>558.58719700482584</v>
+        <v>557.38146674571203</v>
       </c>
       <c r="K45" s="21">
-        <v>2338.7730985693674</v>
+        <v>2337.7375583102539</v>
       </c>
       <c r="L45" s="7"/>
     </row>
@@ -9860,16 +9931,16 @@
         <v>207.52551738628796</v>
       </c>
       <c r="H46" s="22">
-        <v>1989.4236360000052</v>
+        <v>1989.5938260000055</v>
       </c>
       <c r="I46" s="22">
-        <v>2546.2986159556554</v>
+        <v>2545.2630756965418</v>
       </c>
       <c r="J46" s="22">
-        <v>556.87497995565013</v>
+        <v>555.66924969653633</v>
       </c>
       <c r="K46" s="21">
-        <v>2338.7730985693674</v>
+        <v>2337.7375583102539</v>
       </c>
       <c r="L46" s="7"/>
     </row>
@@ -9896,16 +9967,16 @@
         <v>273.99480308225822</v>
       </c>
       <c r="H47" s="22">
-        <v>2056.9913600000054</v>
+        <v>2057.1615500000057</v>
       </c>
       <c r="I47" s="22">
-        <v>2612.7679016516258</v>
+        <v>2611.7323613925123</v>
       </c>
       <c r="J47" s="22">
-        <v>555.77654165162039</v>
+        <v>554.57081139250658</v>
       </c>
       <c r="K47" s="21">
-        <v>2338.7730985693674</v>
+        <v>2337.7375583102539</v>
       </c>
       <c r="L47" s="7"/>
     </row>
@@ -9932,16 +10003,16 @@
         <v>289.80021766508673</v>
       </c>
       <c r="H48" s="22">
-        <v>2064.4128220000061</v>
+        <v>2064.5830120000064</v>
       </c>
       <c r="I48" s="22">
-        <v>2628.5733162344541</v>
+        <v>2627.5377759753405</v>
       </c>
       <c r="J48" s="22">
-        <v>564.16049423444792</v>
+        <v>562.95476397533412</v>
       </c>
       <c r="K48" s="21">
-        <v>2338.7730985693674</v>
+        <v>2337.7375583102539</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="14.1" customHeight="1">
@@ -9967,16 +10038,16 @@
         <v>268.16422566150561</v>
       </c>
       <c r="H49" s="22">
-        <v>2064.4128220000061</v>
+        <v>2064.5830120000064</v>
       </c>
       <c r="I49" s="22">
-        <v>2633.6658962308707</v>
+        <v>2632.6303559717571</v>
       </c>
       <c r="J49" s="22">
-        <v>569.25307423086451</v>
+        <v>568.04734397175071</v>
       </c>
       <c r="K49" s="21">
-        <v>2365.5016705693652</v>
+        <v>2364.4661303102516</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="14.1" customHeight="1">
@@ -9987,31 +10058,31 @@
         <v>1.11076</v>
       </c>
       <c r="C50" s="20">
-        <v>1.2355355200000004</v>
+        <v>1.2350539200000008</v>
       </c>
       <c r="D50" s="21">
-        <v>193.40205600000073</v>
+        <v>192.6555760000013</v>
       </c>
       <c r="E50" s="22">
-        <v>174.11687133134137</v>
+        <v>173.44482696532222</v>
       </c>
       <c r="F50" s="22">
-        <v>387.72376124101675</v>
+        <v>387.05171687499762</v>
       </c>
       <c r="G50" s="22">
-        <v>430.66804503607176</v>
+        <v>429.92156503607237</v>
       </c>
       <c r="H50" s="22">
-        <v>2257.814878000007</v>
+        <v>2257.2385880000079</v>
       </c>
       <c r="I50" s="22">
-        <v>2796.169715605437</v>
+        <v>2794.3876953463241</v>
       </c>
       <c r="J50" s="22">
-        <v>538.35483760543002</v>
+        <v>537.14910734631621</v>
       </c>
       <c r="K50" s="21">
-        <v>2365.5016705693652</v>
+        <v>2364.4661303102516</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="14.1" customHeight="1">
@@ -10022,31 +10093,31 @@
         <v>1.15177</v>
       </c>
       <c r="C51" s="20">
-        <v>1.2277890400000004</v>
+        <v>1.2271850000000004</v>
       </c>
       <c r="D51" s="21">
-        <v>117.82951200000075</v>
+        <v>116.89325000000071</v>
       </c>
       <c r="E51" s="22">
-        <v>102.30298757564509</v>
+        <v>101.49009784939763</v>
       </c>
       <c r="F51" s="22">
-        <v>490.02674881666184</v>
+        <v>488.54181472439524</v>
       </c>
       <c r="G51" s="22">
-        <v>564.39810848456659</v>
+        <v>562.68780594511668</v>
       </c>
       <c r="H51" s="22">
-        <v>2375.6443900000077</v>
+        <v>2374.1318380000084</v>
       </c>
       <c r="I51" s="22">
-        <v>2929.8997790539315</v>
+        <v>2927.1539362553685</v>
       </c>
       <c r="J51" s="22">
-        <v>554.25538905392386</v>
+        <v>553.02209825536011</v>
       </c>
       <c r="K51" s="21">
-        <v>2365.5016705693652</v>
+        <v>2364.4661303102516</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="14.1" customHeight="1">
@@ -10057,31 +10128,31 @@
         <v>1.0468499999999998</v>
       </c>
       <c r="C52" s="20">
-        <v>1.2143669200000002</v>
+        <v>1.2143919600000004</v>
       </c>
       <c r="D52" s="21">
-        <v>259.65122600000063</v>
+        <v>259.69003800000087</v>
       </c>
       <c r="E52" s="22">
-        <v>248.03097482925031</v>
+        <v>248.0680498638782</v>
       </c>
       <c r="F52" s="22">
-        <v>738.05772364591212</v>
+        <v>736.60986458827347</v>
       </c>
       <c r="G52" s="22">
-        <v>772.63572799872293</v>
+        <v>771.12003674423397</v>
       </c>
       <c r="H52" s="22">
-        <v>2635.2956160000085</v>
+        <v>2633.8218760000091</v>
       </c>
       <c r="I52" s="22">
-        <v>3138.137398568088</v>
+        <v>3135.5861670544855</v>
       </c>
       <c r="J52" s="22">
-        <v>502.84178256807945</v>
+        <v>501.76429105447642</v>
       </c>
       <c r="K52" s="21">
-        <v>2365.5016705693652</v>
+        <v>2364.4661303102516</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="14.1" customHeight="1">
@@ -10092,31 +10163,31 @@
         <v>0.83169999999999999</v>
       </c>
       <c r="C53" s="20">
-        <v>1.1967078799999999</v>
+        <v>1.1965680399999998</v>
       </c>
       <c r="D53" s="21">
-        <v>565.76221399999997</v>
+        <v>565.5454619999997</v>
       </c>
       <c r="E53" s="22">
-        <v>680.24794276782495</v>
+        <v>679.98732956594893</v>
       </c>
       <c r="F53" s="22">
-        <v>1418.3056664137371</v>
+        <v>1416.5971941542225</v>
       </c>
       <c r="G53" s="22">
-        <v>1179.6048227563051</v>
+        <v>1178.1838863780667</v>
       </c>
       <c r="H53" s="22">
-        <v>3201.0578300000084</v>
+        <v>3199.3673380000087</v>
       </c>
       <c r="I53" s="22">
-        <v>3545.1064933256703</v>
+        <v>3542.6500166883184</v>
       </c>
       <c r="J53" s="22">
-        <v>344.04866332566189</v>
+        <v>343.28267868830972</v>
       </c>
       <c r="K53" s="21">
-        <v>2365.5016705693652</v>
+        <v>2364.4661303102516</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="14.1" customHeight="1">
@@ -10127,31 +10198,31 @@
         <v>0.90644000000000002</v>
       </c>
       <c r="C54" s="20">
-        <v>1.1734625999999997</v>
+        <v>1.1732722399999995</v>
       </c>
       <c r="D54" s="21">
-        <v>413.88502999999946</v>
+        <v>413.58997199999925</v>
       </c>
       <c r="E54" s="22">
-        <v>456.60499316005411</v>
+        <v>456.27948016415786</v>
       </c>
       <c r="F54" s="22">
-        <v>1874.9106595737912</v>
+        <v>1872.8766743183803</v>
       </c>
       <c r="G54" s="22">
-        <v>1699.4940182640673</v>
+        <v>1697.6503326691527</v>
       </c>
       <c r="H54" s="22">
-        <v>3614.9428600000078</v>
+        <v>3612.957310000008</v>
       </c>
       <c r="I54" s="22">
-        <v>4064.9956888334327</v>
+        <v>4062.1164629794043</v>
       </c>
       <c r="J54" s="22">
-        <v>450.05282883342488</v>
+        <v>449.15915297939637</v>
       </c>
       <c r="K54" s="21">
-        <v>2365.5016705693652</v>
+        <v>2364.4661303102516</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="14.1" customHeight="1">
@@ -10162,31 +10233,31 @@
         <v>0.99066999999999994</v>
       </c>
       <c r="C55" s="20">
-        <v>1.1480034399999997</v>
+        <v>1.1474773999999999</v>
       </c>
       <c r="D55" s="21">
-        <v>243.86683199999956</v>
+        <v>243.05146999999988</v>
       </c>
       <c r="E55" s="22">
-        <v>246.16353780774585</v>
+        <v>245.34049683547488</v>
       </c>
       <c r="F55" s="22">
-        <v>2121.074197381537</v>
+        <v>2118.2171711538554</v>
       </c>
       <c r="G55" s="22">
-        <v>2101.284575119967</v>
+        <v>2098.4542049469896</v>
       </c>
       <c r="H55" s="22">
-        <v>3858.8096920000075</v>
+        <v>3856.0087800000078</v>
       </c>
       <c r="I55" s="22">
-        <v>4466.7862456893326</v>
+        <v>4462.9203352572413</v>
       </c>
       <c r="J55" s="22">
-        <v>607.9765536893251</v>
+        <v>606.91155525723343</v>
       </c>
       <c r="K55" s="21">
-        <v>2365.5016705693652</v>
+        <v>2364.4661303102516</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="14.1" customHeight="1">
@@ -10197,31 +10268,31 @@
         <v>1.01267</v>
       </c>
       <c r="C56" s="20">
-        <v>1.1203607999999998</v>
+        <v>1.1197452399999999</v>
       </c>
       <c r="D56" s="21">
-        <v>166.9207399999998</v>
+        <v>165.96662199999986</v>
       </c>
       <c r="E56" s="22">
-        <v>164.83231457434289</v>
+        <v>163.8901340021921</v>
       </c>
       <c r="F56" s="22">
-        <v>2285.90651195588</v>
+        <v>2282.1073051560475</v>
       </c>
       <c r="G56" s="22">
-        <v>2314.8689474623607</v>
+        <v>2311.0216047123745</v>
       </c>
       <c r="H56" s="22">
-        <v>4025.7304320000076</v>
+        <v>4021.9754020000078</v>
       </c>
       <c r="I56" s="22">
-        <v>4680.3706180317258</v>
+        <v>4675.4877350226261</v>
       </c>
       <c r="J56" s="22">
-        <v>654.64018603171826</v>
+        <v>653.51233302261835</v>
       </c>
       <c r="K56" s="21">
-        <v>2365.5016705693652</v>
+        <v>2364.4661303102516</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="14.1" customHeight="1">
@@ -10232,31 +10303,31 @@
         <v>0.95750000000000002</v>
       </c>
       <c r="C57" s="20">
-        <v>1.0959177199999997</v>
+        <v>1.0955673599999998</v>
       </c>
       <c r="D57" s="21">
-        <v>214.54746599999942</v>
+        <v>214.00440799999961</v>
       </c>
       <c r="E57" s="22">
-        <v>224.07046057441192</v>
+        <v>223.50329817232335</v>
       </c>
       <c r="F57" s="22">
-        <v>2509.9769725302917</v>
+        <v>2505.6106033283709</v>
       </c>
       <c r="G57" s="22">
-        <v>2403.3029511977543</v>
+        <v>2399.1221526869153</v>
       </c>
       <c r="H57" s="22">
-        <v>4240.2778980000066</v>
+        <v>4235.9798100000071</v>
       </c>
       <c r="I57" s="22">
-        <v>4768.8046217671199</v>
+        <v>4763.588282997167</v>
       </c>
       <c r="J57" s="22">
-        <v>528.52672376711325</v>
+        <v>527.60847299715988</v>
       </c>
       <c r="K57" s="21">
-        <v>2365.5016705693652</v>
+        <v>2364.4661303102516</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="14.1" customHeight="1">
@@ -10267,31 +10338,31 @@
         <v>0.85887999999999998</v>
       </c>
       <c r="C58" s="20">
-        <v>1.06964792</v>
+        <v>1.0694000799999999</v>
       </c>
       <c r="D58" s="21">
-        <v>326.69027599999998</v>
+        <v>326.30612399999984</v>
       </c>
       <c r="E58" s="22">
-        <v>380.36777663934424</v>
+        <v>379.92050577496258</v>
       </c>
       <c r="F58" s="22">
-        <v>2890.3447491696361</v>
+        <v>2885.5311091033336</v>
       </c>
       <c r="G58" s="22">
-        <v>2482.459298166817</v>
+        <v>2478.3249589866709</v>
       </c>
       <c r="H58" s="22">
-        <v>4566.9681740000069</v>
+        <v>4562.2859340000068</v>
       </c>
       <c r="I58" s="22">
-        <v>4847.9609687361826</v>
+        <v>4842.791089296923</v>
       </c>
       <c r="J58" s="22">
-        <v>280.99279473617571</v>
+        <v>280.5051552969162</v>
       </c>
       <c r="K58" s="21">
-        <v>2365.5016705693652</v>
+        <v>2364.4661303102516</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="14.1" customHeight="1">
@@ -10302,31 +10373,31 @@
         <v>0.96957000000000004</v>
       </c>
       <c r="C59" s="20">
-        <v>1.0512867600000002</v>
+        <v>1.0510960000000003</v>
       </c>
       <c r="D59" s="21">
-        <v>126.66097800000026</v>
+        <v>126.36530000000033</v>
       </c>
       <c r="E59" s="22">
-        <v>130.63623874501093</v>
+        <v>130.33128087709019</v>
       </c>
       <c r="F59" s="22">
-        <v>3020.9809879146469</v>
+        <v>3015.8623899804238</v>
       </c>
       <c r="G59" s="22">
-        <v>2929.0525364524042</v>
+        <v>2924.0896974533198</v>
       </c>
       <c r="H59" s="22">
-        <v>4693.6291520000068</v>
+        <v>4688.6512340000072</v>
       </c>
       <c r="I59" s="22">
-        <v>5294.5542070217689</v>
+        <v>5288.5558277635719</v>
       </c>
       <c r="J59" s="22">
-        <v>600.92505502176209</v>
+        <v>599.90459376356466</v>
       </c>
       <c r="K59" s="21">
-        <v>2365.5016705693652</v>
+        <v>2364.4661303102516</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="14.1" customHeight="1">
@@ -10337,31 +10408,31 @@
         <v>0.99405999999999994</v>
       </c>
       <c r="C60" s="20">
-        <v>1.0324731600000001</v>
+        <v>1.0321424800000001</v>
       </c>
       <c r="D60" s="21">
-        <v>59.540398000000259</v>
+        <v>59.027844000000215</v>
       </c>
       <c r="E60" s="22">
-        <v>59.896181317023384</v>
+        <v>59.380564553447698</v>
       </c>
       <c r="F60" s="22">
-        <v>3080.8771692316705</v>
+        <v>3075.2429545338714</v>
       </c>
       <c r="G60" s="22">
-        <v>3062.5767588464341</v>
+        <v>3056.9760113839402</v>
       </c>
       <c r="H60" s="22">
-        <v>4753.1695500000069</v>
+        <v>4747.6790780000074</v>
       </c>
       <c r="I60" s="22">
-        <v>5428.0784294157993</v>
+        <v>5421.4421416941914</v>
       </c>
       <c r="J60" s="22">
-        <v>674.9088794157924</v>
+        <v>673.76306369418398</v>
       </c>
       <c r="K60" s="21">
-        <v>2365.5016705693652</v>
+        <v>2364.4661303102516</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="14.1" customHeight="1">
@@ -10372,31 +10443,31 @@
         <v>0.95635000000000003</v>
       </c>
       <c r="C61" s="20">
-        <v>1.0098818000000001</v>
+        <v>1.00955072</v>
       </c>
       <c r="D61" s="21">
-        <v>82.974290000000025</v>
+        <v>82.461115999999961</v>
       </c>
       <c r="E61" s="22">
-        <v>86.761426256077812</v>
+        <v>86.224829821717947</v>
       </c>
       <c r="F61" s="22">
-        <v>3167.6385954877483</v>
+        <v>3161.4677843555892</v>
       </c>
       <c r="G61" s="22">
-        <v>3029.3711707947082</v>
+        <v>3023.469715568468</v>
       </c>
       <c r="H61" s="22">
-        <v>4836.143840000007</v>
+        <v>4830.1401940000078</v>
       </c>
       <c r="I61" s="22">
-        <v>5394.8728413640729</v>
+        <v>5387.9358458787192</v>
       </c>
       <c r="J61" s="22">
-        <v>558.72900136406588</v>
+        <v>557.7956518787114</v>
       </c>
       <c r="K61" s="21">
-        <v>2365.5016705693652</v>
+        <v>2364.4661303102516</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="14.1" customHeight="1">
@@ -10407,31 +10478,31 @@
         <v>1.08087</v>
       </c>
       <c r="C62" s="20">
-        <v>0.99600491999999985</v>
+        <v>0.9958413599999999</v>
       </c>
       <c r="D62" s="21">
-        <v>-131.54087400000023</v>
+        <v>-131.79439200000016</v>
       </c>
       <c r="E62" s="22">
-        <v>-121.69907019345548</v>
+        <v>-121.93362013933235</v>
       </c>
       <c r="F62" s="22">
-        <v>3045.9395252942927</v>
+        <v>3039.5341642162566</v>
       </c>
       <c r="G62" s="22">
-        <v>3292.2646547048421</v>
+        <v>3285.3412920764254</v>
       </c>
       <c r="H62" s="22">
-        <v>4836.143840000007</v>
+        <v>4830.1401940000078</v>
       </c>
       <c r="I62" s="22">
-        <v>5789.307199274208</v>
+        <v>5781.6018143866768</v>
       </c>
       <c r="J62" s="22">
-        <v>953.16335927420096</v>
+        <v>951.46162038666898</v>
       </c>
       <c r="K62" s="21">
-        <v>2497.0425445693654</v>
+        <v>2496.2605223102519</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="14.1" customHeight="1">
@@ -10451,22 +10522,22 @@
         <v>-228.75479338347927</v>
       </c>
       <c r="F63" s="22">
-        <v>2817.1847319108133</v>
+        <v>2810.7793708327772</v>
       </c>
       <c r="G63" s="22">
-        <v>3292.1339058636572</v>
+        <v>3284.6486649614753</v>
       </c>
       <c r="H63" s="22">
-        <v>4836.143840000007</v>
+        <v>4830.1401940000078</v>
       </c>
       <c r="I63" s="22">
-        <v>6056.4970144330227</v>
+        <v>6048.2297512717269</v>
       </c>
       <c r="J63" s="22">
-        <v>1220.3531744330157</v>
+        <v>1218.0895572717191</v>
       </c>
       <c r="K63" s="21">
-        <v>2764.3631085693655</v>
+        <v>2763.581086310252</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="14.1" customHeight="1">
@@ -10486,22 +10557,22 @@
         <v>-348.62706102433475</v>
       </c>
       <c r="F64" s="22">
-        <v>2468.5576708864787</v>
+        <v>2462.1523098084426</v>
       </c>
       <c r="G64" s="22">
-        <v>3206.631728904827</v>
+        <v>3198.311228918069</v>
       </c>
       <c r="H64" s="22">
-        <v>4836.143840000007</v>
+        <v>4830.1401940000078</v>
       </c>
       <c r="I64" s="22">
-        <v>6423.8579034741933</v>
+        <v>6414.7553812283222</v>
       </c>
       <c r="J64" s="22">
-        <v>1587.7140634741863</v>
+        <v>1584.6151872283144</v>
       </c>
       <c r="K64" s="21">
-        <v>3217.2261745693663</v>
+        <v>3216.4441523102528</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="14.1" customHeight="1">
@@ -10521,22 +10592,22 @@
         <v>-252.73687449630077</v>
       </c>
       <c r="F65" s="22">
-        <v>2215.8207963901777</v>
+        <v>2209.4154353121417</v>
       </c>
       <c r="G65" s="22">
-        <v>2721.9364244936583</v>
+        <v>2714.0680148917882</v>
       </c>
       <c r="H65" s="22">
-        <v>4836.143840000007</v>
+        <v>4830.1401940000078</v>
       </c>
       <c r="I65" s="22">
-        <v>6249.6271030630251</v>
+        <v>6240.9766712020419</v>
       </c>
       <c r="J65" s="22">
-        <v>1413.4832630630181</v>
+        <v>1410.8364772020341</v>
       </c>
       <c r="K65" s="21">
-        <v>3527.6906785693673</v>
+        <v>3526.9086563102537</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="12.75">
@@ -10556,22 +10627,22 @@
         <v>-285.99953800665287</v>
       </c>
       <c r="F66" s="22">
-        <v>1929.8212583835248</v>
+        <v>1923.4158973054887</v>
       </c>
       <c r="G66" s="22">
-        <v>2506.2974646878515</v>
+        <v>2497.9786941485845</v>
       </c>
       <c r="H66" s="22">
-        <v>4836.143840000007</v>
+        <v>4830.1401940000078</v>
       </c>
       <c r="I66" s="22">
-        <v>6405.4214632572184</v>
+        <v>6396.3206704588383</v>
       </c>
       <c r="J66" s="22">
-        <v>1569.2776232572114</v>
+        <v>1566.1804764588305</v>
       </c>
       <c r="K66" s="21">
-        <v>3899.1239985693674</v>
+        <v>3898.3419763102538</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="12.75">
@@ -10591,22 +10662,22 @@
         <v>-267.56155809532373</v>
       </c>
       <c r="F67" s="22">
-        <v>1662.259700288201</v>
+        <v>1655.8543392101649</v>
       </c>
       <c r="G67" s="22">
-        <v>2194.7313500815203</v>
+        <v>2186.274159689357</v>
       </c>
       <c r="H67" s="22">
-        <v>4836.143840000007</v>
+        <v>4830.1401940000078</v>
       </c>
       <c r="I67" s="22">
-        <v>6447.124900650886</v>
+        <v>6437.8856879996092</v>
       </c>
       <c r="J67" s="22">
-        <v>1610.981060650879</v>
+        <v>1607.7454939996014</v>
       </c>
       <c r="K67" s="21">
-        <v>4252.3935505693662</v>
+        <v>4251.6115283102527</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="12.75">
@@ -10626,22 +10697,22 @@
         <v>-172.35727154295842</v>
       </c>
       <c r="F68" s="22">
-        <v>1489.9024287452426</v>
+        <v>1483.4970676672065</v>
       </c>
       <c r="G68" s="22">
-        <v>1875.608369498811</v>
+        <v>1867.544788544893</v>
       </c>
       <c r="H68" s="22">
-        <v>4836.143840000007</v>
+        <v>4830.1401940000078</v>
       </c>
       <c r="I68" s="22">
-        <v>6344.9790420681766</v>
+        <v>6336.133438855145</v>
       </c>
       <c r="J68" s="22">
-        <v>1508.8352020681696</v>
+        <v>1505.9932448551372</v>
       </c>
       <c r="K68" s="21">
-        <v>4469.3706725693655</v>
+        <v>4468.588650310252</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="12.75">
@@ -10661,22 +10732,22 @@
         <v>-141.53931287658099</v>
       </c>
       <c r="F69" s="22">
-        <v>1348.3631158686617</v>
+        <v>1341.9577547906256</v>
       </c>
       <c r="G69" s="22">
-        <v>1689.5664023392264</v>
+        <v>1681.5401646403934</v>
       </c>
       <c r="H69" s="22">
-        <v>4836.143840000007</v>
+        <v>4830.1401940000078</v>
       </c>
       <c r="I69" s="22">
-        <v>6336.2929109085917</v>
+        <v>6327.4846509506451</v>
       </c>
       <c r="J69" s="22">
-        <v>1500.1490709085847</v>
+        <v>1497.3444569506373</v>
       </c>
       <c r="K69" s="21">
-        <v>4646.7265085693653</v>
+        <v>4645.9444863102517</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="12.75">
@@ -10696,22 +10767,57 @@
         <v>-90.640012991230648</v>
       </c>
       <c r="F70" s="22">
-        <v>1257.7231028774311</v>
+        <v>1251.317741799395</v>
       </c>
       <c r="G70" s="22">
-        <v>1549.0117735038439</v>
+        <v>1541.1229308001346</v>
       </c>
       <c r="H70" s="22">
-        <v>4836.143840000007</v>
+        <v>4830.1401940000078</v>
       </c>
       <c r="I70" s="22">
-        <v>6307.370522073209</v>
+        <v>6298.6996571103864</v>
       </c>
       <c r="J70" s="22">
-        <v>1471.226682073202</v>
+        <v>1468.5594631103786</v>
       </c>
       <c r="K70" s="21">
-        <v>4758.3587485693652</v>
+        <v>4757.5767263102516</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="12.75">
+      <c r="A71" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B71" s="25">
+        <v>1.2139500000000001</v>
+      </c>
+      <c r="C71" s="20">
+        <v>1.18105912</v>
+      </c>
+      <c r="D71" s="21">
+        <v>-50.980864000000103</v>
+      </c>
+      <c r="E71" s="22">
+        <v>-41.995851558960503</v>
+      </c>
+      <c r="F71" s="22">
+        <v>1209.3218902404344</v>
+      </c>
+      <c r="G71" s="22">
+        <v>1468.0563086573754</v>
+      </c>
+      <c r="H71" s="22">
+        <v>4830.1401940000078</v>
+      </c>
+      <c r="I71" s="22">
+        <v>6276.6138989676274</v>
+      </c>
+      <c r="J71" s="22">
+        <v>1446.4737049676196</v>
+      </c>
+      <c r="K71" s="21">
+        <v>4808.5575903102517</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
@@ -758,7 +758,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -998,6 +998,12 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1007,7 +1013,7 @@
               <c:f>'model2(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1246,6 +1252,12 @@
                   <c:v>3587.6850243046301</c:v>
                 </c:pt>
                 <c:pt idx="79">
+                  <c:v>3587.6850243046301</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3587.6850243046301</c:v>
+                </c:pt>
+                <c:pt idx="81">
                   <c:v>3587.6850243046301</c:v>
                 </c:pt>
               </c:numCache>
@@ -1289,7 +1301,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1529,6 +1541,12 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1538,7 +1556,7 @@
               <c:f>'model2(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1774,6 +1792,12 @@
                   <c:v>5085.8382814380839</c:v>
                 </c:pt>
                 <c:pt idx="79">
+                  <c:v>5085.8382814380839</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5085.8382814380839</c:v>
+                </c:pt>
+                <c:pt idx="81">
                   <c:v>5085.8382814380839</c:v>
                 </c:pt>
               </c:numCache>
@@ -1817,7 +1841,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2057,6 +2081,12 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2066,7 +2096,7 @@
               <c:f>'model2(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2305,6 +2335,12 @@
                   <c:v>1498.1532571334537</c:v>
                 </c:pt>
                 <c:pt idx="79">
+                  <c:v>1498.1532571334537</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1498.1532571334537</c:v>
+                </c:pt>
+                <c:pt idx="81">
                   <c:v>1498.1532571334537</c:v>
                 </c:pt>
               </c:numCache>
@@ -2327,11 +2363,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="38931456"/>
-        <c:axId val="40720256"/>
+        <c:axId val="493490560"/>
+        <c:axId val="493492096"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="38931456"/>
+        <c:axId val="493490560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2374,14 +2410,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40720256"/>
+        <c:crossAx val="493492096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="40720256"/>
+        <c:axId val="493492096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2430,7 +2466,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38931456"/>
+        <c:crossAx val="493490560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2627,7 +2663,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2831,6 +2867,12 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2840,7 +2882,7 @@
               <c:f>'model2(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3043,6 +3085,12 @@
                   <c:v>4830.1401940000078</c:v>
                 </c:pt>
                 <c:pt idx="67">
+                  <c:v>4830.1401940000078</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4830.1401940000078</c:v>
+                </c:pt>
+                <c:pt idx="69">
                   <c:v>4830.1401940000078</c:v>
                 </c:pt>
               </c:numCache>
@@ -3086,7 +3134,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3290,6 +3338,12 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3299,7 +3353,7 @@
               <c:f>'model2(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3503,6 +3557,12 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>6276.6138989676274</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6352.2932628588742</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6340.8843712169046</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3545,7 +3605,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3749,6 +3809,12 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3758,7 +3824,7 @@
               <c:f>'model2(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3962,6 +4028,12 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>1446.4737049676196</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1522.1530688588664</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1510.7441772168968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3983,11 +4055,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="444488704"/>
-        <c:axId val="447551744"/>
+        <c:axId val="494094592"/>
+        <c:axId val="494104576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="444488704"/>
+        <c:axId val="494094592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4030,14 +4102,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="447551744"/>
+        <c:crossAx val="494104576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="447551744"/>
+        <c:axId val="494104576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4086,7 +4158,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444488704"/>
+        <c:crossAx val="494094592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4194,7 +4266,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4237,7 +4309,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4550,7 +4622,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF83"/>
+  <dimension ref="A1:AF85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5146,7 +5218,7 @@
         <v>0.4251298770496863</v>
       </c>
       <c r="V9" s="9">
-        <v>0.11623036743162096</v>
+        <v>9.2180582832422919E-2</v>
       </c>
       <c r="AF9" s="2">
         <f>IRR(AF4:AF8)</f>
@@ -5210,27 +5282,27 @@
         <v>0.30667555563535387</v>
       </c>
       <c r="V10" s="9">
-        <v>9.2107928430304797E-2</v>
+        <v>7.2787148508788313E-2</v>
       </c>
       <c r="X10" s="6">
         <v>43098</v>
       </c>
       <c r="Y10" s="1">
-        <v>18.350992705669857</v>
+        <v>304.12500617544276</v>
       </c>
       <c r="Z10" s="1">
         <f>-Y10</f>
-        <v>-18.350992705669857</v>
+        <v>-304.12500617544276</v>
       </c>
       <c r="AA10" s="6">
         <v>43098</v>
       </c>
       <c r="AB10" s="1">
-        <v>18.350992705669857</v>
+        <v>304.12500617544276</v>
       </c>
       <c r="AC10" s="1">
         <f t="shared" ref="AC10:AC15" si="5">-AB10</f>
-        <v>-18.350992705669857</v>
+        <v>-304.12500617544276</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="14.1" customHeight="1">
@@ -5272,21 +5344,21 @@
         <v>43462</v>
       </c>
       <c r="Y11" s="1">
-        <v>255.17901000780921</v>
+        <v>1807.7843670854991</v>
       </c>
       <c r="Z11" s="1">
         <f>-Y11</f>
-        <v>-255.17901000780921</v>
+        <v>-1807.7843670854991</v>
       </c>
       <c r="AA11" s="6">
         <v>43462</v>
       </c>
       <c r="AB11" s="1">
-        <v>255.17901000780921</v>
+        <v>1807.7843670854991</v>
       </c>
       <c r="AC11" s="1">
         <f t="shared" si="5"/>
-        <v>-255.17901000780921</v>
+        <v>-1807.7843670854991</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="14.1" customHeight="1">
@@ -5328,21 +5400,21 @@
         <v>43830</v>
       </c>
       <c r="Y12" s="1">
-        <v>51.512876965237467</v>
+        <v>287.82612266325077</v>
       </c>
       <c r="Z12" s="1">
         <f>-Y12</f>
-        <v>-51.512876965237467</v>
+        <v>-287.82612266325077</v>
       </c>
       <c r="AA12" s="6">
         <v>43830</v>
       </c>
       <c r="AB12" s="1">
-        <v>51.512876965237467</v>
+        <v>287.82612266325077</v>
       </c>
       <c r="AC12" s="1">
         <f t="shared" si="5"/>
-        <v>-51.512876965237467</v>
+        <v>-287.82612266325077</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="14.1" customHeight="1">
@@ -5496,17 +5568,17 @@
         <v>44561</v>
       </c>
       <c r="Z15" s="1">
-        <v>499.59426954009558</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="AA15" s="6">
         <v>44925</v>
       </c>
       <c r="AB15" s="1">
-        <v>153.10026037530758</v>
+        <v>1187.9495283804376</v>
       </c>
       <c r="AC15" s="1">
         <f t="shared" si="5"/>
-        <v>-153.10026037530758</v>
+        <v>-1187.9495283804376</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="14.1" customHeight="1">
@@ -5546,13 +5618,13 @@
       <c r="L16" s="7"/>
       <c r="Z16" s="2">
         <f>IRR(Z10:Z15)</f>
-        <v>0.11623036743162096</v>
+        <v>9.2180582832422919E-2</v>
       </c>
       <c r="AA16" s="6">
         <v>44925</v>
       </c>
       <c r="AC16" s="1">
-        <v>668.05173961811045</v>
+        <v>4687.9403225778906</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="14.1" customHeight="1">
@@ -5592,7 +5664,7 @@
       <c r="L17" s="7"/>
       <c r="AC17" s="2">
         <f>IRR(AC10:AC16)</f>
-        <v>9.2107928430304797E-2</v>
+        <v>7.2787148508788313E-2</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="14.1" customHeight="1">
@@ -7935,6 +8007,76 @@
         <v>1498.1532571334537</v>
       </c>
       <c r="K83" s="21">
+        <v>5085.8382814380839</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="12.75">
+      <c r="A84" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B84" s="25">
+        <v>1.2765299999999999</v>
+      </c>
+      <c r="C84" s="20">
+        <v>1.0525251376146776</v>
+      </c>
+      <c r="D84" s="21">
+        <v>0</v>
+      </c>
+      <c r="E84" s="22">
+        <v>0</v>
+      </c>
+      <c r="F84" s="22">
+        <v>0</v>
+      </c>
+      <c r="G84" s="22">
+        <v>0</v>
+      </c>
+      <c r="H84" s="22">
+        <v>3587.6850243046301</v>
+      </c>
+      <c r="I84" s="22">
+        <v>5085.8382814380839</v>
+      </c>
+      <c r="J84" s="22">
+        <v>1498.1532571334537</v>
+      </c>
+      <c r="K84" s="21">
+        <v>5085.8382814380839</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="12.75">
+      <c r="A85" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B85" s="25">
+        <v>1.2663900000000001</v>
+      </c>
+      <c r="C85" s="20">
+        <v>1.0554007487922688</v>
+      </c>
+      <c r="D85" s="21">
+        <v>0</v>
+      </c>
+      <c r="E85" s="22">
+        <v>0</v>
+      </c>
+      <c r="F85" s="22">
+        <v>0</v>
+      </c>
+      <c r="G85" s="22">
+        <v>0</v>
+      </c>
+      <c r="H85" s="22">
+        <v>3587.6850243046301</v>
+      </c>
+      <c r="I85" s="22">
+        <v>5085.8382814380839</v>
+      </c>
+      <c r="J85" s="22">
+        <v>1498.1532571334537</v>
+      </c>
+      <c r="K85" s="21">
         <v>5085.8382814380839</v>
       </c>
     </row>
@@ -7954,7 +8096,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF71"/>
+  <dimension ref="A1:AF73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8150,11 +8292,11 @@
         <v>43462</v>
       </c>
       <c r="AE4" s="1">
-        <v>185.03707217220185</v>
+        <v>1431.6926540000038</v>
       </c>
       <c r="AF4" s="1">
         <f>-AE4</f>
-        <v>-185.03707217220185</v>
+        <v>-1431.6926540000038</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="14.1" customHeight="1">
@@ -8242,11 +8384,11 @@
         <v>43830</v>
       </c>
       <c r="AE5" s="1">
-        <v>24.103041534476546</v>
+        <v>193.45680200000038</v>
       </c>
       <c r="AF5" s="1">
         <f>-AE5</f>
-        <v>-24.103041534476546</v>
+        <v>-193.45680200000038</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="14.1" customHeight="1">
@@ -8409,11 +8551,11 @@
         <v>44561</v>
       </c>
       <c r="AE7" s="1">
-        <v>25.382097087861155</v>
+        <v>439.43355600000223</v>
       </c>
       <c r="AF7" s="1">
         <f>-AE7</f>
-        <v>-25.382097087861155</v>
+        <v>-439.43355600000223</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="14.1" customHeight="1">
@@ -8473,7 +8615,7 @@
         <v>0.27513901871229235</v>
       </c>
       <c r="V8" s="9">
-        <v>9.161448749478418E-2</v>
+        <v>7.596265873352448E-2</v>
       </c>
       <c r="AC8" s="2">
         <f>IRR(AC4:AC7)</f>
@@ -8483,7 +8625,7 @@
         <v>44561</v>
       </c>
       <c r="AF8" s="1">
-        <v>321.80638751270993</v>
+        <v>2632.6303559717571</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="14.1" customHeight="1">
@@ -8543,11 +8685,11 @@
         <v>0.11548229025973289</v>
       </c>
       <c r="V9" s="9">
-        <v>6.5682800424140098E-2</v>
+        <v>4.524456729933557E-2</v>
       </c>
       <c r="AF9" s="2">
         <f>IRR(AF4:AF8)</f>
-        <v>9.161448749478418E-2</v>
+        <v>7.596265873352448E-2</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="14.1" customHeight="1">
@@ -8589,11 +8731,11 @@
         <v>43462</v>
       </c>
       <c r="Y10" s="1">
-        <v>185.03707217220185</v>
+        <v>1431.6926540000038</v>
       </c>
       <c r="Z10" s="1">
         <f>-Y10</f>
-        <v>-185.03707217220185</v>
+        <v>-1431.6926540000038</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="14.1" customHeight="1">
@@ -8635,11 +8777,11 @@
         <v>43830</v>
       </c>
       <c r="Y11" s="1">
-        <v>24.103041534476546</v>
+        <v>193.45680200000038</v>
       </c>
       <c r="Z11" s="1">
         <f>-Y11</f>
-        <v>-24.103041534476546</v>
+        <v>-193.45680200000038</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="14.1" customHeight="1">
@@ -8727,11 +8869,11 @@
         <v>44561</v>
       </c>
       <c r="Y13" s="1">
-        <v>25.382097087861155</v>
+        <v>439.43355600000223</v>
       </c>
       <c r="Z13" s="1">
         <f>-Y13</f>
-        <v>-25.382097087861155</v>
+        <v>-439.43355600000223</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="14.1" customHeight="1">
@@ -8773,11 +8915,11 @@
         <v>44925</v>
       </c>
       <c r="Y14" s="1">
-        <v>565.58588458679435</v>
+        <v>2765.5571820000014</v>
       </c>
       <c r="Z14" s="1">
         <f>-Y14</f>
-        <v>-565.58588458679435</v>
+        <v>-2765.5571820000014</v>
       </c>
     </row>
     <row r="15" spans="1:32" ht="14.1" customHeight="1">
@@ -8819,7 +8961,7 @@
         <v>44925</v>
       </c>
       <c r="Z15" s="1">
-        <v>916.97898329904501</v>
+        <v>5387.9358458787192</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="14.1" customHeight="1">
@@ -8859,7 +9001,7 @@
       <c r="L16" s="7"/>
       <c r="Z16" s="2">
         <f>IRR(Z10:Z15)</f>
-        <v>6.5682800424140098E-2</v>
+        <v>4.524456729933557E-2</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="14.1" customHeight="1">
@@ -10818,6 +10960,76 @@
       </c>
       <c r="K71" s="21">
         <v>4808.5575903102517</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="12.75">
+      <c r="A72" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B72" s="25">
+        <v>1.2765299999999999</v>
+      </c>
+      <c r="C72" s="20">
+        <v>1.2071982400000003</v>
+      </c>
+      <c r="D72" s="21">
+        <v>-107.46422799999942</v>
+      </c>
+      <c r="E72" s="22">
+        <v>-84.18464744267618</v>
+      </c>
+      <c r="F72" s="22">
+        <v>1125.1372427977583</v>
+      </c>
+      <c r="G72" s="22">
+        <v>1436.2714445486224</v>
+      </c>
+      <c r="H72" s="22">
+        <v>4830.1401940000078</v>
+      </c>
+      <c r="I72" s="22">
+        <v>6352.2932628588742</v>
+      </c>
+      <c r="J72" s="22">
+        <v>1522.1530688588664</v>
+      </c>
+      <c r="K72" s="21">
+        <v>4916.0218183102515</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="12.75">
+      <c r="A73" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B73" s="25">
+        <v>1.2663900000000001</v>
+      </c>
+      <c r="C73" s="20">
+        <v>1.2301022400000003</v>
+      </c>
+      <c r="D73" s="21">
+        <v>-56.246027999999662</v>
+      </c>
+      <c r="E73" s="22">
+        <v>-44.414460000473518</v>
+      </c>
+      <c r="F73" s="22">
+        <v>1080.7227827972847</v>
+      </c>
+      <c r="G73" s="22">
+        <v>1368.6165249066535</v>
+      </c>
+      <c r="H73" s="22">
+        <v>4830.1401940000078</v>
+      </c>
+      <c r="I73" s="22">
+        <v>6340.8843712169046</v>
+      </c>
+      <c r="J73" s="22">
+        <v>1510.7441772168968</v>
+      </c>
+      <c r="K73" s="21">
+        <v>4972.2678463102511</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
@@ -758,7 +758,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1004,6 +1004,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1013,7 +1016,7 @@
               <c:f>'model2(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1259,6 +1262,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>3587.6850243046301</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3726.5804042211957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1301,7 +1307,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1547,6 +1553,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1556,7 +1565,7 @@
               <c:f>'model2(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1798,6 +1807,9 @@
                   <c:v>5085.8382814380839</c:v>
                 </c:pt>
                 <c:pt idx="81">
+                  <c:v>5085.8382814380839</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>5085.8382814380839</c:v>
                 </c:pt>
               </c:numCache>
@@ -1841,7 +1853,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2087,6 +2099,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2096,7 +2111,7 @@
               <c:f>'model2(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2341,6 +2356,9 @@
                   <c:v>1498.1532571334537</c:v>
                 </c:pt>
                 <c:pt idx="81">
+                  <c:v>1498.1532571334537</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>1498.1532571334537</c:v>
                 </c:pt>
               </c:numCache>
@@ -2363,11 +2381,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="493490560"/>
-        <c:axId val="493492096"/>
+        <c:axId val="454811008"/>
+        <c:axId val="454865664"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="493490560"/>
+        <c:axId val="454811008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2410,14 +2428,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493492096"/>
+        <c:crossAx val="454865664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="493492096"/>
+        <c:axId val="454865664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2466,7 +2484,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493490560"/>
+        <c:crossAx val="454811008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2663,7 +2681,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2873,6 +2891,9 @@
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2882,7 +2903,7 @@
               <c:f>'model2(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3092,6 +3113,9 @@
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>4830.1401940000078</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5258.4664500000081</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3134,7 +3158,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3344,6 +3368,9 @@
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3353,7 +3380,7 @@
               <c:f>'model2(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3563,6 +3590,9 @@
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>6340.8843712169046</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6445.5449609969455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3605,7 +3635,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3815,6 +3845,9 @@
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3824,7 +3857,7 @@
               <c:f>'model2(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4034,6 +4067,9 @@
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>1510.7441772168968</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1187.0785109969374</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4055,11 +4091,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="494094592"/>
-        <c:axId val="494104576"/>
+        <c:axId val="457732480"/>
+        <c:axId val="457734016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="494094592"/>
+        <c:axId val="457732480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4102,14 +4138,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494104576"/>
+        <c:crossAx val="457734016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="494104576"/>
+        <c:axId val="457734016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4158,7 +4194,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494094592"/>
+        <c:crossAx val="457732480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4266,7 +4302,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4309,7 +4345,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4619,13 +4655,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1">
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:AF85"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:AF86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C10" sqref="C10"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
@@ -8080,6 +8114,41 @@
         <v>5085.8382814380839</v>
       </c>
     </row>
+    <row r="86" spans="1:11" ht="12.75">
+      <c r="A86" s="15">
+        <v>45322</v>
+      </c>
+      <c r="B86" s="25">
+        <v>0.96689999999999998</v>
+      </c>
+      <c r="C86" s="20">
+        <v>1.0565099225268164</v>
+      </c>
+      <c r="D86" s="21">
+        <v>138.89537991656547</v>
+      </c>
+      <c r="E86" s="22">
+        <v>143.6502015891669</v>
+      </c>
+      <c r="F86" s="22">
+        <v>143.6502015891669</v>
+      </c>
+      <c r="G86" s="22">
+        <v>138.89537991656547</v>
+      </c>
+      <c r="H86" s="22">
+        <v>3726.5804042211957</v>
+      </c>
+      <c r="I86" s="22">
+        <v>5224.7336613546495</v>
+      </c>
+      <c r="J86" s="22">
+        <v>1498.1532571334537</v>
+      </c>
+      <c r="K86" s="21">
+        <v>5085.8382814380839</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -8096,7 +8165,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF73"/>
+  <dimension ref="A1:AF74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11032,6 +11101,41 @@
         <v>4972.2678463102511</v>
       </c>
     </row>
+    <row r="74" spans="1:11" ht="12.75">
+      <c r="A74" s="15">
+        <v>45322</v>
+      </c>
+      <c r="B74" s="25">
+        <v>0.96689999999999998</v>
+      </c>
+      <c r="C74" s="20">
+        <v>1.2432395200000002</v>
+      </c>
+      <c r="D74" s="21">
+        <v>428.32625600000028</v>
+      </c>
+      <c r="E74" s="22">
+        <v>442.98919846933529</v>
+      </c>
+      <c r="F74" s="22">
+        <v>1523.7119812666201</v>
+      </c>
+      <c r="G74" s="22">
+        <v>1473.2771146866949</v>
+      </c>
+      <c r="H74" s="22">
+        <v>5258.4664500000081</v>
+      </c>
+      <c r="I74" s="22">
+        <v>6445.5449609969455</v>
+      </c>
+      <c r="J74" s="22">
+        <v>1187.0785109969374</v>
+      </c>
+      <c r="K74" s="21">
+        <v>4972.2678463102511</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
@@ -758,7 +758,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1007,6 +1007,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1016,7 +1019,7 @@
               <c:f>'model2(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1264,6 +1267,9 @@
                   <c:v>3587.6850243046301</c:v>
                 </c:pt>
                 <c:pt idx="82">
+                  <c:v>3726.5804042211957</c:v>
+                </c:pt>
+                <c:pt idx="83">
                   <c:v>3726.5804042211957</c:v>
                 </c:pt>
               </c:numCache>
@@ -1307,7 +1313,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1556,6 +1562,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1565,7 +1574,7 @@
               <c:f>'model2(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1811,6 +1820,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>5085.8382814380839</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5224.7336613546495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1853,7 +1865,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2102,6 +2114,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2111,7 +2126,7 @@
               <c:f>'model2(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2360,6 +2375,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>1498.1532571334537</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1516.9671240355865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2381,11 +2399,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="454811008"/>
-        <c:axId val="454865664"/>
+        <c:axId val="92126592"/>
+        <c:axId val="92247168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="454811008"/>
+        <c:axId val="92126592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2428,14 +2446,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454865664"/>
+        <c:crossAx val="92247168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="454865664"/>
+        <c:axId val="92247168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2484,7 +2502,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454811008"/>
+        <c:crossAx val="92126592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2681,7 +2699,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2894,6 +2912,9 @@
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2903,7 +2924,7 @@
               <c:f>'model2(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3116,6 +3137,9 @@
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>5258.4664500000081</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5467.3450080000084</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3158,7 +3182,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3371,6 +3395,9 @@
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3380,7 +3407,7 @@
               <c:f>'model2(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3593,6 +3620,9 @@
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>6445.5449609969455</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6853.9840771834351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3635,7 +3665,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3848,6 +3878,9 @@
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3857,7 +3890,7 @@
               <c:f>'model2(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4070,6 +4103,9 @@
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>1187.0785109969374</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1386.6390691834267</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4091,11 +4127,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="457732480"/>
-        <c:axId val="457734016"/>
+        <c:axId val="405058304"/>
+        <c:axId val="405059840"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="457732480"/>
+        <c:axId val="405058304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4138,14 +4174,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="457734016"/>
+        <c:crossAx val="405059840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="457734016"/>
+        <c:axId val="405059840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4194,7 +4230,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="457732480"/>
+        <c:crossAx val="405058304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4302,7 +4338,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4345,7 +4381,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4656,10 +4692,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF86"/>
+  <dimension ref="A1:AF87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C10" sqref="C10"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
@@ -8149,6 +8185,41 @@
         <v>5085.8382814380839</v>
       </c>
     </row>
+    <row r="87" spans="1:11" ht="12.75">
+      <c r="A87" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B87" s="25">
+        <v>1.0978699999999999</v>
+      </c>
+      <c r="C87" s="20">
+        <v>1.0558294743059644</v>
+      </c>
+      <c r="D87" s="21">
+        <v>-65.162814825755007</v>
+      </c>
+      <c r="E87" s="22">
+        <v>-59.353853211905793</v>
+      </c>
+      <c r="F87" s="22">
+        <v>84.296348377261097</v>
+      </c>
+      <c r="G87" s="22">
+        <v>92.546431992943639</v>
+      </c>
+      <c r="H87" s="22">
+        <v>3726.5804042211957</v>
+      </c>
+      <c r="I87" s="22">
+        <v>5243.5475282567822</v>
+      </c>
+      <c r="J87" s="22">
+        <v>1516.9671240355865</v>
+      </c>
+      <c r="K87" s="21">
+        <v>5151.0010962638389</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -8165,7 +8236,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF74"/>
+  <dimension ref="A1:AF75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11136,6 +11207,41 @@
         <v>4972.2678463102511</v>
       </c>
     </row>
+    <row r="75" spans="1:11" ht="12.75">
+      <c r="A75" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B75" s="25">
+        <v>1.0978699999999999</v>
+      </c>
+      <c r="C75" s="20">
+        <v>1.2326303600000001</v>
+      </c>
+      <c r="D75" s="21">
+        <v>208.87855800000037</v>
+      </c>
+      <c r="E75" s="22">
+        <v>190.25800686784444</v>
+      </c>
+      <c r="F75" s="22">
+        <v>1713.9699881344645</v>
+      </c>
+      <c r="G75" s="22">
+        <v>1881.7162308731845</v>
+      </c>
+      <c r="H75" s="22">
+        <v>5467.3450080000084</v>
+      </c>
+      <c r="I75" s="22">
+        <v>6853.9840771834351</v>
+      </c>
+      <c r="J75" s="22">
+        <v>1386.6390691834267</v>
+      </c>
+      <c r="K75" s="21">
+        <v>4972.2678463102511</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
@@ -758,7 +758,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1010,6 +1010,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1019,7 +1022,7 @@
               <c:f>'model2(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1270,6 +1273,9 @@
                   <c:v>3726.5804042211957</c:v>
                 </c:pt>
                 <c:pt idx="83">
+                  <c:v>3726.5804042211957</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>3726.5804042211957</c:v>
                 </c:pt>
               </c:numCache>
@@ -1313,7 +1319,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1565,6 +1571,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1574,7 +1583,7 @@
               <c:f>'model2(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1823,6 +1832,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>5224.7336613546495</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5243.5475282567822</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1865,7 +1877,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2117,6 +2129,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2126,7 +2141,7 @@
               <c:f>'model2(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2378,6 +2393,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>1516.9671240355865</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1520.3979854145409</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2399,11 +2417,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92126592"/>
-        <c:axId val="92247168"/>
+        <c:axId val="524281344"/>
+        <c:axId val="524282880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="92126592"/>
+        <c:axId val="524281344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2446,14 +2464,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92247168"/>
+        <c:crossAx val="524282880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="92247168"/>
+        <c:axId val="524282880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2502,7 +2520,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92126592"/>
+        <c:crossAx val="524281344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2699,7 +2717,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="73"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2915,6 +2933,9 @@
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2924,7 +2945,7 @@
               <c:f>'model2(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="73"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3140,6 +3161,9 @@
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>5467.3450080000084</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5609.0739080000076</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3182,7 +3206,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="73"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3398,6 +3422,9 @@
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3407,7 +3434,7 @@
               <c:f>'model2(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="73"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3623,6 +3650,9 @@
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>6853.9840771834351</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7065.4715557005075</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3665,7 +3695,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="73"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3881,6 +3911,9 @@
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3890,7 +3923,7 @@
               <c:f>'model2(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="73"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4106,6 +4139,9 @@
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>1386.6390691834267</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1456.3976477004999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4127,11 +4163,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="405058304"/>
-        <c:axId val="405059840"/>
+        <c:axId val="617545728"/>
+        <c:axId val="617547648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="405058304"/>
+        <c:axId val="617545728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4174,14 +4210,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405059840"/>
+        <c:crossAx val="617547648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="405059840"/>
+        <c:axId val="617547648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4230,7 +4266,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405058304"/>
+        <c:crossAx val="617545728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4691,8 +4727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF87"/>
+  <sheetPr codeName="Sheet1">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:AF88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4795,7 +4833,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>0</v>
+        <v>-26.714728548453351</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -8218,6 +8256,41 @@
       </c>
       <c r="K87" s="21">
         <v>5151.0010962638389</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="12.75">
+      <c r="A88" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B88" s="25">
+        <v>1.1385699999999999</v>
+      </c>
+      <c r="C88" s="20">
+        <v>1.0570255600933478</v>
+      </c>
+      <c r="D88" s="21">
+        <v>-126.39388185531068</v>
+      </c>
+      <c r="E88" s="22">
+        <v>-111.01107692571445</v>
+      </c>
+      <c r="F88" s="22">
+        <v>-26.714728548453351</v>
+      </c>
+      <c r="G88" s="22">
+        <v>-30.416588483412529</v>
+      </c>
+      <c r="H88" s="22">
+        <v>3726.5804042211957</v>
+      </c>
+      <c r="I88" s="22">
+        <v>5246.9783896357367</v>
+      </c>
+      <c r="J88" s="22">
+        <v>1520.3979854145409</v>
+      </c>
+      <c r="K88" s="21">
+        <v>5277.3949781191495</v>
       </c>
     </row>
   </sheetData>
@@ -8236,7 +8309,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF75"/>
+  <dimension ref="A1:AF76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11242,6 +11315,41 @@
         <v>4972.2678463102511</v>
       </c>
     </row>
+    <row r="76" spans="1:11" ht="12.75">
+      <c r="A76" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B76" s="25">
+        <v>1.1385699999999999</v>
+      </c>
+      <c r="C76" s="20">
+        <v>1.2300079999999995</v>
+      </c>
+      <c r="D76" s="21">
+        <v>141.72889999999953</v>
+      </c>
+      <c r="E76" s="22">
+        <v>124.4797421326748</v>
+      </c>
+      <c r="F76" s="22">
+        <v>1838.4497302671393</v>
+      </c>
+      <c r="G76" s="22">
+        <v>2093.2037093902568</v>
+      </c>
+      <c r="H76" s="22">
+        <v>5609.0739080000076</v>
+      </c>
+      <c r="I76" s="22">
+        <v>7065.4715557005075</v>
+      </c>
+      <c r="J76" s="22">
+        <v>1456.3976477004999</v>
+      </c>
+      <c r="K76" s="21">
+        <v>4972.2678463102511</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
@@ -758,7 +758,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1013,6 +1013,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1022,7 +1025,7 @@
               <c:f>'model2(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1276,6 +1279,9 @@
                   <c:v>3726.5804042211957</c:v>
                 </c:pt>
                 <c:pt idx="84">
+                  <c:v>3726.5804042211957</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>3726.5804042211957</c:v>
                 </c:pt>
               </c:numCache>
@@ -1319,7 +1325,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1574,6 +1580,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1583,7 +1592,7 @@
               <c:f>'model2(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1835,6 +1844,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>5243.5475282567822</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5246.9783896357367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1877,7 +1889,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2132,6 +2144,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2141,7 +2156,7 @@
               <c:f>'model2(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2395,6 +2410,9 @@
                   <c:v>1516.9671240355865</c:v>
                 </c:pt>
                 <c:pt idx="84">
+                  <c:v>1520.3979854145409</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>1520.3979854145409</c:v>
                 </c:pt>
               </c:numCache>
@@ -2417,11 +2435,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="524281344"/>
-        <c:axId val="524282880"/>
+        <c:axId val="407598208"/>
+        <c:axId val="407600128"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="524281344"/>
+        <c:axId val="407598208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2464,14 +2482,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524282880"/>
+        <c:crossAx val="407600128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="524282880"/>
+        <c:axId val="407600128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2520,7 +2538,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524281344"/>
+        <c:crossAx val="407598208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2717,7 +2735,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2936,6 +2954,9 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2945,7 +2966,7 @@
               <c:f>'model2(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3164,6 +3185,9 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>5609.0739080000076</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5800.7448620000077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3206,7 +3230,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3425,6 +3449,9 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3434,7 +3461,7 @@
               <c:f>'model2(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3653,6 +3680,9 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>7065.4715557005075</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7160.7342058452996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3695,7 +3725,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3914,6 +3944,9 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3923,7 +3956,7 @@
               <c:f>'model2(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4142,6 +4175,9 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>1456.3976477004999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1359.9893438452918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4163,11 +4199,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617545728"/>
-        <c:axId val="617547648"/>
+        <c:axId val="458234496"/>
+        <c:axId val="458363648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617545728"/>
+        <c:axId val="458234496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4210,14 +4246,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617547648"/>
+        <c:crossAx val="458363648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617547648"/>
+        <c:axId val="458363648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4266,7 +4302,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617545728"/>
+        <c:crossAx val="458234496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4730,7 +4766,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF88"/>
+  <dimension ref="A1:AF89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4833,7 +4869,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>-26.714728548453351</v>
+        <v>0</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -8269,16 +8305,16 @@
         <v>1.0570255600933478</v>
       </c>
       <c r="D88" s="21">
-        <v>-126.39388185531068</v>
+        <v>-95.977293371898156</v>
       </c>
       <c r="E88" s="22">
-        <v>-111.01107692571445</v>
+        <v>-84.296348377261097</v>
       </c>
       <c r="F88" s="22">
-        <v>-26.714728548453351</v>
+        <v>0</v>
       </c>
       <c r="G88" s="22">
-        <v>-30.416588483412529</v>
+        <v>0</v>
       </c>
       <c r="H88" s="22">
         <v>3726.5804042211957</v>
@@ -8290,7 +8326,42 @@
         <v>1520.3979854145409</v>
       </c>
       <c r="K88" s="21">
-        <v>5277.3949781191495</v>
+        <v>5246.9783896357367</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="12.75">
+      <c r="A89" s="15">
+        <v>45412</v>
+      </c>
+      <c r="B89" s="25">
+        <v>1.08613</v>
+      </c>
+      <c r="C89" s="20">
+        <v>1.0569674567474039</v>
+      </c>
+      <c r="D89" s="21">
+        <v>0</v>
+      </c>
+      <c r="E89" s="22">
+        <v>0</v>
+      </c>
+      <c r="F89" s="22">
+        <v>0</v>
+      </c>
+      <c r="G89" s="22">
+        <v>0</v>
+      </c>
+      <c r="H89" s="22">
+        <v>3726.5804042211957</v>
+      </c>
+      <c r="I89" s="22">
+        <v>5246.9783896357367</v>
+      </c>
+      <c r="J89" s="22">
+        <v>1520.3979854145409</v>
+      </c>
+      <c r="K89" s="21">
+        <v>5246.9783896357367</v>
       </c>
     </row>
   </sheetData>
@@ -8309,7 +8380,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF76"/>
+  <dimension ref="A1:AF77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11350,6 +11421,41 @@
         <v>4972.2678463102511</v>
       </c>
     </row>
+    <row r="77" spans="1:11" ht="12.75">
+      <c r="A77" s="15">
+        <v>45412</v>
+      </c>
+      <c r="B77" s="25">
+        <v>1.08613</v>
+      </c>
+      <c r="C77" s="20">
+        <v>1.2097886800000002</v>
+      </c>
+      <c r="D77" s="21">
+        <v>191.67095400000019</v>
+      </c>
+      <c r="E77" s="22">
+        <v>176.47146658319002</v>
+      </c>
+      <c r="F77" s="22">
+        <v>2014.9211968503294</v>
+      </c>
+      <c r="G77" s="22">
+        <v>2188.4663595350485</v>
+      </c>
+      <c r="H77" s="22">
+        <v>5800.7448620000077</v>
+      </c>
+      <c r="I77" s="22">
+        <v>7160.7342058452996</v>
+      </c>
+      <c r="J77" s="22">
+        <v>1359.9893438452918</v>
+      </c>
+      <c r="K77" s="21">
+        <v>4972.2678463102511</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
@@ -758,7 +758,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1016,6 +1016,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1025,7 +1028,7 @@
               <c:f>'model2(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1283,6 +1286,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>3726.5804042211957</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3781.2584127730765</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1325,7 +1331,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1583,6 +1589,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1592,7 +1601,7 @@
               <c:f>'model2(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1846,6 +1855,9 @@
                   <c:v>5243.5475282567822</c:v>
                 </c:pt>
                 <c:pt idx="85">
+                  <c:v>5246.9783896357367</c:v>
+                </c:pt>
+                <c:pt idx="86">
                   <c:v>5246.9783896357367</c:v>
                 </c:pt>
               </c:numCache>
@@ -1889,7 +1901,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2147,6 +2159,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2156,7 +2171,7 @@
               <c:f>'model2(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2414,6 +2429,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>1520.3979854145409</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1520.3979854145405</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2435,11 +2453,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="407598208"/>
-        <c:axId val="407600128"/>
+        <c:axId val="77406208"/>
+        <c:axId val="77408128"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="407598208"/>
+        <c:axId val="77406208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2482,14 +2500,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="407600128"/>
+        <c:crossAx val="77408128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="407600128"/>
+        <c:axId val="77408128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2538,7 +2556,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="407598208"/>
+        <c:crossAx val="77406208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2735,7 +2753,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2957,6 +2975,9 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2966,7 +2987,7 @@
               <c:f>'model2(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3188,6 +3209,9 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>5800.7448620000077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6068.6050120000073</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3230,7 +3254,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3452,6 +3476,9 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3461,7 +3488,7 @@
               <c:f>'model2(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3683,6 +3710,9 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>7160.7342058452996</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7298.5110433766422</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3725,7 +3755,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3947,6 +3977,9 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3956,7 +3989,7 @@
               <c:f>'model2(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4178,6 +4211,9 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>1359.9893438452918</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1229.9060313766349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4199,11 +4235,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="458234496"/>
-        <c:axId val="458363648"/>
+        <c:axId val="101014912"/>
+        <c:axId val="181833728"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="458234496"/>
+        <c:axId val="101014912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4246,14 +4282,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458363648"/>
+        <c:crossAx val="181833728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="458363648"/>
+        <c:axId val="181833728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4302,7 +4338,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458234496"/>
+        <c:crossAx val="101014912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4763,10 +4799,8 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1">
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:AF89"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:AF90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5448,6 +5482,16 @@
         <f t="shared" ref="AC10:AC15" si="5">-AB10</f>
         <v>-304.12500617544276</v>
       </c>
+      <c r="AD10" s="6">
+        <v>43098</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>304.12500617544276</v>
+      </c>
+      <c r="AF10" s="1">
+        <f t="shared" ref="AF10:AF16" si="6">-AE10</f>
+        <v>-304.12500617544276</v>
+      </c>
     </row>
     <row r="11" spans="1:32" ht="14.1" customHeight="1">
       <c r="A11" s="15">
@@ -5484,6 +5528,30 @@
         <v>237.67558279250011</v>
       </c>
       <c r="L11" s="7"/>
+      <c r="O11" s="6">
+        <v>45289</v>
+      </c>
+      <c r="P11" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>3587.6850243046301</v>
+      </c>
+      <c r="R11" s="5">
+        <v>5085.8382814380839</v>
+      </c>
+      <c r="S11" s="5">
+        <v>1498.1532571334537</v>
+      </c>
+      <c r="T11" s="5">
+        <v>5085.8382814380839</v>
+      </c>
+      <c r="U11" s="9">
+        <v>0.41758215868569115</v>
+      </c>
+      <c r="V11" s="9">
+        <v>7.5226508819494331E-2</v>
+      </c>
       <c r="X11" s="6">
         <v>43462</v>
       </c>
@@ -5504,6 +5572,16 @@
         <f t="shared" si="5"/>
         <v>-1807.7843670854991</v>
       </c>
+      <c r="AD11" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>1807.7843670854991</v>
+      </c>
+      <c r="AF11" s="1">
+        <f t="shared" si="6"/>
+        <v>-1807.7843670854991</v>
+      </c>
     </row>
     <row r="12" spans="1:32" ht="14.1" customHeight="1">
       <c r="A12" s="15">
@@ -5560,6 +5638,16 @@
         <f t="shared" si="5"/>
         <v>-287.82612266325077</v>
       </c>
+      <c r="AD12" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>287.82612266325077</v>
+      </c>
+      <c r="AF12" s="1">
+        <f t="shared" si="6"/>
+        <v>-287.82612266325077</v>
+      </c>
     </row>
     <row r="13" spans="1:32" ht="14.1" customHeight="1">
       <c r="A13" s="15">
@@ -5616,6 +5704,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AD13" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:32" ht="14.1" customHeight="1">
       <c r="A14" s="15">
@@ -5672,6 +5770,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AD14" s="6">
+        <v>44561</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:32" ht="14.1" customHeight="1">
       <c r="A15" s="15">
@@ -5722,6 +5830,16 @@
       </c>
       <c r="AC15" s="1">
         <f t="shared" si="5"/>
+        <v>-1187.9495283804376</v>
+      </c>
+      <c r="AD15" s="6">
+        <v>44925</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>1187.9495283804376</v>
+      </c>
+      <c r="AF15" s="1">
+        <f t="shared" si="6"/>
         <v>-1187.9495283804376</v>
       </c>
     </row>
@@ -5770,8 +5888,18 @@
       <c r="AC16" s="1">
         <v>4687.9403225778906</v>
       </c>
-    </row>
-    <row r="17" spans="1:29" ht="14.1" customHeight="1">
+      <c r="AD16" s="6">
+        <v>45289</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" ht="14.1" customHeight="1">
       <c r="A17" s="15">
         <v>43217</v>
       </c>
@@ -5810,8 +5938,14 @@
         <f>IRR(AC10:AC16)</f>
         <v>7.2787148508788313E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:29" ht="14.1" customHeight="1">
+      <c r="AD17" s="6">
+        <v>45289</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>5085.8382814380839</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" ht="14.1" customHeight="1">
       <c r="A18" s="15">
         <v>43251</v>
       </c>
@@ -5846,8 +5980,12 @@
         <v>317.52088040945171</v>
       </c>
       <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="1:29" ht="14.1" customHeight="1">
+      <c r="AF18" s="2">
+        <f>IRR(AF10:AF17)</f>
+        <v>7.5226508819494331E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" ht="14.1" customHeight="1">
       <c r="A19" s="15">
         <v>43280</v>
       </c>
@@ -5883,7 +6021,7 @@
       </c>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:29" ht="14.1" customHeight="1">
+    <row r="20" spans="1:32" ht="14.1" customHeight="1">
       <c r="A20" s="15">
         <v>43312</v>
       </c>
@@ -5919,7 +6057,7 @@
       </c>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:29" ht="14.1" customHeight="1">
+    <row r="21" spans="1:32" ht="14.1" customHeight="1">
       <c r="A21" s="15">
         <v>43343</v>
       </c>
@@ -5955,7 +6093,7 @@
       </c>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="1:29" ht="14.1" customHeight="1">
+    <row r="22" spans="1:32" ht="14.1" customHeight="1">
       <c r="A22" s="15">
         <v>43371</v>
       </c>
@@ -5991,7 +6129,7 @@
       </c>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="1:29" ht="14.1" customHeight="1">
+    <row r="23" spans="1:32" ht="14.1" customHeight="1">
       <c r="A23" s="15">
         <v>43404</v>
       </c>
@@ -6027,7 +6165,7 @@
       </c>
       <c r="L23" s="7"/>
     </row>
-    <row r="24" spans="1:29" ht="14.1" customHeight="1">
+    <row r="24" spans="1:32" ht="14.1" customHeight="1">
       <c r="A24" s="15">
         <v>43434</v>
       </c>
@@ -6064,7 +6202,7 @@
       <c r="L24" s="7"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:29" ht="14.1" customHeight="1">
+    <row r="25" spans="1:32" ht="14.1" customHeight="1">
       <c r="A25" s="15">
         <v>43462</v>
       </c>
@@ -6100,7 +6238,7 @@
       </c>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="1:29" ht="14.1" customHeight="1">
+    <row r="26" spans="1:32" ht="14.1" customHeight="1">
       <c r="A26" s="15">
         <v>43496</v>
       </c>
@@ -6136,7 +6274,7 @@
       </c>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" spans="1:29" ht="14.1" customHeight="1">
+    <row r="27" spans="1:32" ht="14.1" customHeight="1">
       <c r="A27" s="15">
         <v>43524</v>
       </c>
@@ -6172,7 +6310,7 @@
       </c>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" spans="1:29" ht="14.1" customHeight="1">
+    <row r="28" spans="1:32" ht="14.1" customHeight="1">
       <c r="A28" s="15">
         <v>43553</v>
       </c>
@@ -6208,7 +6346,7 @@
       </c>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" spans="1:29" ht="14.1" customHeight="1">
+    <row r="29" spans="1:32" ht="14.1" customHeight="1">
       <c r="A29" s="15">
         <v>43585</v>
       </c>
@@ -6244,7 +6382,7 @@
       </c>
       <c r="L29" s="7"/>
     </row>
-    <row r="30" spans="1:29" ht="14.1" customHeight="1">
+    <row r="30" spans="1:32" ht="14.1" customHeight="1">
       <c r="A30" s="15">
         <v>43616</v>
       </c>
@@ -6280,7 +6418,7 @@
       </c>
       <c r="L30" s="7"/>
     </row>
-    <row r="31" spans="1:29" ht="14.1" customHeight="1">
+    <row r="31" spans="1:32" ht="14.1" customHeight="1">
       <c r="A31" s="15">
         <v>43644</v>
       </c>
@@ -6316,7 +6454,7 @@
       </c>
       <c r="L31" s="7"/>
     </row>
-    <row r="32" spans="1:29" ht="14.1" customHeight="1">
+    <row r="32" spans="1:32" ht="14.1" customHeight="1">
       <c r="A32" s="15">
         <v>43677</v>
       </c>
@@ -8361,6 +8499,41 @@
         <v>1520.3979854145409</v>
       </c>
       <c r="K89" s="21">
+        <v>5246.9783896357367</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="12.75">
+      <c r="A90" s="15">
+        <v>45443</v>
+      </c>
+      <c r="B90" s="25">
+        <v>1.0215700000000001</v>
+      </c>
+      <c r="C90" s="20">
+        <v>1.0568461345496005</v>
+      </c>
+      <c r="D90" s="21">
+        <v>54.678008551880673</v>
+      </c>
+      <c r="E90" s="22">
+        <v>53.523506516323572</v>
+      </c>
+      <c r="F90" s="22">
+        <v>53.523506516323572</v>
+      </c>
+      <c r="G90" s="22">
+        <v>54.678008551880673</v>
+      </c>
+      <c r="H90" s="22">
+        <v>3781.2584127730765</v>
+      </c>
+      <c r="I90" s="22">
+        <v>5301.656398187617</v>
+      </c>
+      <c r="J90" s="22">
+        <v>1520.3979854145405</v>
+      </c>
+      <c r="K90" s="21">
         <v>5246.9783896357367</v>
       </c>
     </row>
@@ -8380,7 +8553,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF77"/>
+  <dimension ref="A1:AF78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9011,6 +9184,30 @@
         <v>0</v>
       </c>
       <c r="L10" s="7"/>
+      <c r="O10" s="6">
+        <v>45289</v>
+      </c>
+      <c r="P10" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>4830.1401940000078</v>
+      </c>
+      <c r="R10" s="5">
+        <v>6340.8843712169046</v>
+      </c>
+      <c r="S10" s="5">
+        <v>1510.7441772168968</v>
+      </c>
+      <c r="T10" s="5">
+        <v>4972.2678463102511</v>
+      </c>
+      <c r="U10" s="9">
+        <v>0.31277439505659499</v>
+      </c>
+      <c r="V10" s="9">
+        <v>8.0252163148518463E-2</v>
+      </c>
       <c r="X10" s="6">
         <v>43462</v>
       </c>
@@ -9021,6 +9218,16 @@
         <f>-Y10</f>
         <v>-1431.6926540000038</v>
       </c>
+      <c r="AA10" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>1431.6926540000038</v>
+      </c>
+      <c r="AC10" s="1">
+        <f t="shared" ref="AC10:AC15" si="3">-AB10</f>
+        <v>-1431.6926540000038</v>
+      </c>
     </row>
     <row r="11" spans="1:32" ht="14.1" customHeight="1">
       <c r="A11" s="15">
@@ -9067,6 +9274,16 @@
         <f>-Y11</f>
         <v>-193.45680200000038</v>
       </c>
+      <c r="AA11" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>193.45680200000038</v>
+      </c>
+      <c r="AC11" s="1">
+        <f t="shared" si="3"/>
+        <v>-193.45680200000038</v>
+      </c>
     </row>
     <row r="12" spans="1:32" ht="14.1" customHeight="1">
       <c r="A12" s="15">
@@ -9113,6 +9330,16 @@
         <f>-Y12</f>
         <v>0</v>
       </c>
+      <c r="AA12" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:32" ht="14.1" customHeight="1">
       <c r="A13" s="15">
@@ -9159,6 +9386,16 @@
         <f>-Y13</f>
         <v>-439.43355600000223</v>
       </c>
+      <c r="AA13" s="6">
+        <v>44561</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>439.43355600000223</v>
+      </c>
+      <c r="AC13" s="1">
+        <f t="shared" si="3"/>
+        <v>-439.43355600000223</v>
+      </c>
     </row>
     <row r="14" spans="1:32" ht="14.1" customHeight="1">
       <c r="A14" s="15">
@@ -9205,6 +9442,16 @@
         <f>-Y14</f>
         <v>-2765.5571820000014</v>
       </c>
+      <c r="AA14" s="6">
+        <v>44925</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>2765.5571820000014</v>
+      </c>
+      <c r="AC14" s="1">
+        <f t="shared" si="3"/>
+        <v>-2765.5571820000014</v>
+      </c>
     </row>
     <row r="15" spans="1:32" ht="14.1" customHeight="1">
       <c r="A15" s="15">
@@ -9246,6 +9493,16 @@
       </c>
       <c r="Z15" s="1">
         <v>5387.9358458787192</v>
+      </c>
+      <c r="AA15" s="6">
+        <v>45289</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="14.1" customHeight="1">
@@ -9287,8 +9544,14 @@
         <f>IRR(Z10:Z15)</f>
         <v>4.524456729933557E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" ht="14.1" customHeight="1">
+      <c r="AA16" s="6">
+        <v>45289</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>6340.8843712169046</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="14.1" customHeight="1">
       <c r="A17" s="15">
         <v>43585</v>
       </c>
@@ -9323,8 +9586,12 @@
         <v>475.83598799999993</v>
       </c>
       <c r="L17" s="7"/>
-    </row>
-    <row r="18" spans="1:15" ht="14.1" customHeight="1">
+      <c r="AC17" s="2">
+        <f>IRR(AC10:AC16)</f>
+        <v>8.0252163148518463E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="14.1" customHeight="1">
       <c r="A18" s="15">
         <v>43616</v>
       </c>
@@ -9360,7 +9627,7 @@
       </c>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" spans="1:15" ht="14.1" customHeight="1">
+    <row r="19" spans="1:29" ht="14.1" customHeight="1">
       <c r="A19" s="15">
         <v>43644</v>
       </c>
@@ -9396,7 +9663,7 @@
       </c>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:15" ht="14.1" customHeight="1">
+    <row r="20" spans="1:29" ht="14.1" customHeight="1">
       <c r="A20" s="15">
         <v>43677</v>
       </c>
@@ -9432,7 +9699,7 @@
       </c>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:15" ht="14.1" customHeight="1">
+    <row r="21" spans="1:29" ht="14.1" customHeight="1">
       <c r="A21" s="15">
         <v>43707</v>
       </c>
@@ -9468,7 +9735,7 @@
       </c>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="1:15" ht="14.1" customHeight="1">
+    <row r="22" spans="1:29" ht="14.1" customHeight="1">
       <c r="A22" s="15">
         <v>43738</v>
       </c>
@@ -9504,7 +9771,7 @@
       </c>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="1:15" ht="14.1" customHeight="1">
+    <row r="23" spans="1:29" ht="14.1" customHeight="1">
       <c r="A23" s="15">
         <v>43769</v>
       </c>
@@ -9541,7 +9808,7 @@
       <c r="L23" s="7"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="14.1" customHeight="1">
+    <row r="24" spans="1:29" ht="14.1" customHeight="1">
       <c r="A24" s="15">
         <v>43798</v>
       </c>
@@ -9577,7 +9844,7 @@
       </c>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="1:15" ht="14.1" customHeight="1">
+    <row r="25" spans="1:29" ht="14.1" customHeight="1">
       <c r="A25" s="15">
         <v>43830</v>
       </c>
@@ -9613,7 +9880,7 @@
       </c>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="1:15" ht="14.1" customHeight="1">
+    <row r="26" spans="1:29" ht="14.1" customHeight="1">
       <c r="A26" s="15">
         <v>43853</v>
       </c>
@@ -9649,7 +9916,7 @@
       </c>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" spans="1:15" ht="14.1" customHeight="1">
+    <row r="27" spans="1:29" ht="14.1" customHeight="1">
       <c r="A27" s="15">
         <v>43889</v>
       </c>
@@ -9685,7 +9952,7 @@
       </c>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" spans="1:15" ht="14.1" customHeight="1">
+    <row r="28" spans="1:29" ht="14.1" customHeight="1">
       <c r="A28" s="15">
         <v>43921</v>
       </c>
@@ -9721,7 +9988,7 @@
       </c>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" spans="1:15" ht="14.1" customHeight="1">
+    <row r="29" spans="1:29" ht="14.1" customHeight="1">
       <c r="A29" s="15">
         <v>43951</v>
       </c>
@@ -9757,7 +10024,7 @@
       </c>
       <c r="L29" s="7"/>
     </row>
-    <row r="30" spans="1:15" ht="14.1" customHeight="1">
+    <row r="30" spans="1:29" ht="14.1" customHeight="1">
       <c r="A30" s="15">
         <v>43980</v>
       </c>
@@ -9793,7 +10060,7 @@
       </c>
       <c r="L30" s="7"/>
     </row>
-    <row r="31" spans="1:15" ht="14.1" customHeight="1">
+    <row r="31" spans="1:29" ht="14.1" customHeight="1">
       <c r="A31" s="15">
         <v>44012</v>
       </c>
@@ -9829,7 +10096,7 @@
       </c>
       <c r="L31" s="7"/>
     </row>
-    <row r="32" spans="1:15" ht="14.1" customHeight="1">
+    <row r="32" spans="1:29" ht="14.1" customHeight="1">
       <c r="A32" s="15">
         <v>44043</v>
       </c>
@@ -11453,6 +11720,41 @@
         <v>1359.9893438452918</v>
       </c>
       <c r="K77" s="21">
+        <v>4972.2678463102511</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="12.75">
+      <c r="A78" s="15">
+        <v>45443</v>
+      </c>
+      <c r="B78" s="25">
+        <v>1.0215700000000001</v>
+      </c>
+      <c r="C78" s="20">
+        <v>1.1943829999999998</v>
+      </c>
+      <c r="D78" s="21">
+        <v>267.86014999999946</v>
+      </c>
+      <c r="E78" s="22">
+        <v>262.20440106894233</v>
+      </c>
+      <c r="F78" s="22">
+        <v>2277.1255979192715</v>
+      </c>
+      <c r="G78" s="22">
+        <v>2326.2431970663906</v>
+      </c>
+      <c r="H78" s="22">
+        <v>6068.6050120000073</v>
+      </c>
+      <c r="I78" s="22">
+        <v>7298.5110433766422</v>
+      </c>
+      <c r="J78" s="22">
+        <v>1229.9060313766349</v>
+      </c>
+      <c r="K78" s="21">
         <v>4972.2678463102511</v>
       </c>
     </row>

--- a/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
@@ -758,7 +758,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1019,6 +1019,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1028,7 +1031,7 @@
               <c:f>'model2(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1289,6 +1292,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>3781.2584127730765</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3935.4982483624722</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1331,7 +1337,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1592,6 +1598,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1601,7 +1610,7 @@
               <c:f>'model2(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1859,6 +1868,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>5246.9783896357367</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5301.656398187617</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1901,7 +1913,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2162,6 +2174,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2171,7 +2186,7 @@
               <c:f>'model2(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2432,6 +2447,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>1520.3979854145405</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1516.9114642000673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2453,11 +2471,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="77406208"/>
-        <c:axId val="77408128"/>
+        <c:axId val="104996224"/>
+        <c:axId val="105024512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="77406208"/>
+        <c:axId val="104996224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2500,14 +2518,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77408128"/>
+        <c:crossAx val="105024512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="77408128"/>
+        <c:axId val="105024512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2556,7 +2574,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77406208"/>
+        <c:crossAx val="104996224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2753,7 +2771,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2978,6 +2996,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2987,7 +3008,7 @@
               <c:f>'model2(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3212,6 +3233,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>6068.6050120000073</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6398.9720740000075</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3254,7 +3278,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3479,6 +3503,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3488,7 +3515,7 @@
               <c:f>'model2(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3713,6 +3740,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>7298.5110433766422</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7480.5461439281798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3755,7 +3785,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3980,6 +4010,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3989,7 +4022,7 @@
               <c:f>'model2(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4214,6 +4247,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>1229.9060313766349</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1081.5740699281723</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4235,11 +4271,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101014912"/>
-        <c:axId val="181833728"/>
+        <c:axId val="493797760"/>
+        <c:axId val="493800064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="101014912"/>
+        <c:axId val="493797760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4282,14 +4318,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181833728"/>
+        <c:crossAx val="493800064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="181833728"/>
+        <c:axId val="493800064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4338,7 +4374,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101014912"/>
+        <c:crossAx val="493797760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4446,7 +4482,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4489,7 +4525,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4800,7 +4836,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF90"/>
+  <dimension ref="A1:AF91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8537,6 +8573,41 @@
         <v>5246.9783896357367</v>
       </c>
     </row>
+    <row r="91" spans="1:11" ht="12.75">
+      <c r="A91" s="15">
+        <v>45471</v>
+      </c>
+      <c r="B91" s="25">
+        <v>0.95643</v>
+      </c>
+      <c r="C91" s="20">
+        <v>1.0559395713479971</v>
+      </c>
+      <c r="D91" s="21">
+        <v>154.23983558939548</v>
+      </c>
+      <c r="E91" s="22">
+        <v>161.26620410212507</v>
+      </c>
+      <c r="F91" s="22">
+        <v>214.78971061844865</v>
+      </c>
+      <c r="G91" s="22">
+        <v>205.43132292680284</v>
+      </c>
+      <c r="H91" s="22">
+        <v>3935.4982483624722</v>
+      </c>
+      <c r="I91" s="22">
+        <v>5452.4097125625394</v>
+      </c>
+      <c r="J91" s="22">
+        <v>1516.9114642000673</v>
+      </c>
+      <c r="K91" s="21">
+        <v>5246.9783896357367</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -8553,7 +8624,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF78"/>
+  <dimension ref="A1:AF79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11758,6 +11829,41 @@
         <v>4972.2678463102511</v>
       </c>
     </row>
+    <row r="79" spans="1:11" ht="12.75">
+      <c r="A79" s="15">
+        <v>45471</v>
+      </c>
+      <c r="B79" s="25">
+        <v>0.95643</v>
+      </c>
+      <c r="C79" s="20">
+        <v>1.16957004</v>
+      </c>
+      <c r="D79" s="21">
+        <v>330.36706199999998</v>
+      </c>
+      <c r="E79" s="22">
+        <v>345.41687525485395</v>
+      </c>
+      <c r="F79" s="22">
+        <v>2622.5424731741255</v>
+      </c>
+      <c r="G79" s="22">
+        <v>2508.2782976179287</v>
+      </c>
+      <c r="H79" s="22">
+        <v>6398.9720740000075</v>
+      </c>
+      <c r="I79" s="22">
+        <v>7480.5461439281798</v>
+      </c>
+      <c r="J79" s="22">
+        <v>1081.5740699281723</v>
+      </c>
+      <c r="K79" s="21">
+        <v>4972.2678463102511</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="17280" windowHeight="8880" activeTab="1"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="15600" windowHeight="8880" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="model2(1)mean" sheetId="13" r:id="rId1"/>
@@ -758,7 +758,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1022,6 +1022,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1031,7 +1034,7 @@
               <c:f>'model2(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1295,6 +1298,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>3935.4982483624722</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4051.8552984738299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1337,7 +1343,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1601,6 +1607,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1610,7 +1619,7 @@
               <c:f>'model2(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1871,6 +1880,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>5301.656398187617</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5452.4097125625394</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1913,7 +1925,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2177,6 +2189,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2186,7 +2201,7 @@
               <c:f>'model2(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2450,6 +2465,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>1516.9114642000673</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1521.8344443674423</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2471,11 +2489,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="104996224"/>
-        <c:axId val="105024512"/>
+        <c:axId val="384454656"/>
+        <c:axId val="391188864"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="104996224"/>
+        <c:axId val="384454656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2518,14 +2536,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105024512"/>
+        <c:crossAx val="391188864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="105024512"/>
+        <c:axId val="391188864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2574,7 +2592,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104996224"/>
+        <c:crossAx val="384454656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2771,7 +2789,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2999,6 +3017,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3008,7 +3029,7 @@
               <c:f>'model2(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3236,6 +3257,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>6398.9720740000075</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6639.8119420000066</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3278,7 +3302,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3506,6 +3530,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3515,7 +3542,7 @@
               <c:f>'model2(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3743,6 +3770,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>7480.5461439281798</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7781.4946854133304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3785,7 +3815,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4013,6 +4043,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4022,7 +4055,7 @@
               <c:f>'model2(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4250,6 +4283,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>1081.5740699281723</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1141.6827434133238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4271,11 +4307,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="493797760"/>
-        <c:axId val="493800064"/>
+        <c:axId val="500826496"/>
+        <c:axId val="500828032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="493797760"/>
+        <c:axId val="500826496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4318,14 +4354,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493800064"/>
+        <c:crossAx val="500828032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="493800064"/>
+        <c:axId val="500828032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4374,7 +4410,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493797760"/>
+        <c:crossAx val="500826496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4482,7 +4518,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4525,7 +4561,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4836,7 +4872,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF91"/>
+  <dimension ref="A1:AF92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8608,6 +8644,41 @@
         <v>5246.9783896357367</v>
       </c>
     </row>
+    <row r="92" spans="1:11" ht="12.75">
+      <c r="A92" s="15">
+        <v>45504</v>
+      </c>
+      <c r="B92" s="25">
+        <v>0.97935000000000005</v>
+      </c>
+      <c r="C92" s="20">
+        <v>1.0544190645879727</v>
+      </c>
+      <c r="D92" s="21">
+        <v>116.35705011135767</v>
+      </c>
+      <c r="E92" s="22">
+        <v>118.81048666090535</v>
+      </c>
+      <c r="F92" s="22">
+        <v>333.60019727935401</v>
+      </c>
+      <c r="G92" s="22">
+        <v>326.71135320553537</v>
+      </c>
+      <c r="H92" s="22">
+        <v>4051.8552984738299</v>
+      </c>
+      <c r="I92" s="22">
+        <v>5573.6897428412722</v>
+      </c>
+      <c r="J92" s="22">
+        <v>1521.8344443674423</v>
+      </c>
+      <c r="K92" s="21">
+        <v>5246.9783896357367</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -8624,7 +8695,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF79"/>
+  <dimension ref="A1:AF80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11864,6 +11935,41 @@
         <v>4972.2678463102511</v>
       </c>
     </row>
+    <row r="80" spans="1:11" ht="12.75">
+      <c r="A80" s="15">
+        <v>45504</v>
+      </c>
+      <c r="B80" s="25">
+        <v>0.97935000000000005</v>
+      </c>
+      <c r="C80" s="20">
+        <v>1.1347305599999995</v>
+      </c>
+      <c r="D80" s="21">
+        <v>240.83986799999914</v>
+      </c>
+      <c r="E80" s="22">
+        <v>245.91807627507953</v>
+      </c>
+      <c r="F80" s="22">
+        <v>2868.4605494492048</v>
+      </c>
+      <c r="G80" s="22">
+        <v>2809.2268391030789</v>
+      </c>
+      <c r="H80" s="22">
+        <v>6639.8119420000066</v>
+      </c>
+      <c r="I80" s="22">
+        <v>7781.4946854133304</v>
+      </c>
+      <c r="J80" s="22">
+        <v>1141.6827434133238</v>
+      </c>
+      <c r="K80" s="21">
+        <v>4972.2678463102511</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
@@ -758,7 +758,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1025,6 +1025,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1034,7 +1037,7 @@
               <c:f>'model2(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1301,6 +1304,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>4051.8552984738299</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4228.3228496289457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1343,7 +1349,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1610,6 +1616,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1619,7 +1628,7 @@
               <c:f>'model2(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1883,6 +1892,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>5452.4097125625394</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5573.6897428412722</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1925,7 +1937,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2192,6 +2204,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2201,7 +2216,7 @@
               <c:f>'model2(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2468,6 +2483,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>1521.8344443674423</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1508.3836844131383</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2489,11 +2507,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="384454656"/>
-        <c:axId val="391188864"/>
+        <c:axId val="489417728"/>
+        <c:axId val="489424384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="384454656"/>
+        <c:axId val="489417728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2536,14 +2554,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391188864"/>
+        <c:crossAx val="489424384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="391188864"/>
+        <c:axId val="489424384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2592,7 +2610,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384454656"/>
+        <c:crossAx val="489417728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2789,7 +2807,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3020,6 +3038,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3029,7 +3050,7 @@
               <c:f>'model2(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3260,6 +3281,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>6639.8119420000066</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6898.9353000000046</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3302,7 +3326,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3533,6 +3557,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3542,7 +3569,7 @@
               <c:f>'model2(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3773,6 +3800,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>7781.4946854133304</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7924.9617140595365</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3815,7 +3845,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4046,6 +4076,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4055,7 +4088,7 @@
               <c:f>'model2(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4286,6 +4319,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>1141.6827434133238</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1026.0264140595318</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4307,11 +4343,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="500826496"/>
-        <c:axId val="500828032"/>
+        <c:axId val="533934080"/>
+        <c:axId val="533935616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="500826496"/>
+        <c:axId val="533934080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4354,14 +4390,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500828032"/>
+        <c:crossAx val="533935616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="500828032"/>
+        <c:axId val="533935616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4410,7 +4446,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500826496"/>
+        <c:crossAx val="533934080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4518,7 +4554,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4561,7 +4597,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4872,7 +4908,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF92"/>
+  <dimension ref="A1:AF93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8679,6 +8715,41 @@
         <v>5246.9783896357367</v>
       </c>
     </row>
+    <row r="93" spans="1:11" ht="12.75">
+      <c r="A93" s="15">
+        <v>45534</v>
+      </c>
+      <c r="B93" s="25">
+        <v>0.93902999999999992</v>
+      </c>
+      <c r="C93" s="20">
+        <v>1.0528800330033004</v>
+      </c>
+      <c r="D93" s="21">
+        <v>176.46755115511567</v>
+      </c>
+      <c r="E93" s="22">
+        <v>187.92536037732094</v>
+      </c>
+      <c r="F93" s="22">
+        <v>521.52555765667489</v>
+      </c>
+      <c r="G93" s="22">
+        <v>489.72814440634738</v>
+      </c>
+      <c r="H93" s="22">
+        <v>4228.3228496289457</v>
+      </c>
+      <c r="I93" s="22">
+        <v>5736.7065340420841</v>
+      </c>
+      <c r="J93" s="22">
+        <v>1508.3836844131383</v>
+      </c>
+      <c r="K93" s="21">
+        <v>5246.9783896357367</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -8695,7 +8766,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF80"/>
+  <dimension ref="A1:AF81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11970,6 +12041,41 @@
         <v>4972.2678463102511</v>
       </c>
     </row>
+    <row r="81" spans="1:11" ht="12.75">
+      <c r="A81" s="15">
+        <v>45534</v>
+      </c>
+      <c r="B81" s="25">
+        <v>0.93902999999999992</v>
+      </c>
+      <c r="C81" s="20">
+        <v>1.1062063599999989</v>
+      </c>
+      <c r="D81" s="21">
+        <v>259.12335799999846</v>
+      </c>
+      <c r="E81" s="22">
+        <v>275.9479015579891</v>
+      </c>
+      <c r="F81" s="22">
+        <v>3144.4084510071939</v>
+      </c>
+      <c r="G81" s="22">
+        <v>2952.6938677492849</v>
+      </c>
+      <c r="H81" s="22">
+        <v>6898.9353000000046</v>
+      </c>
+      <c r="I81" s="22">
+        <v>7924.9617140595365</v>
+      </c>
+      <c r="J81" s="22">
+        <v>1026.0264140595318</v>
+      </c>
+      <c r="K81" s="21">
+        <v>4972.2678463102511</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
@@ -758,7 +758,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1028,6 +1028,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1037,7 +1040,7 @@
               <c:f>'model2(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1306,6 +1309,9 @@
                   <c:v>4051.8552984738299</c:v>
                 </c:pt>
                 <c:pt idx="89">
+                  <c:v>4228.3228496289457</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
               </c:numCache>
@@ -1349,7 +1355,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1619,6 +1625,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1628,7 +1637,7 @@
               <c:f>'model2(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1895,6 +1904,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>5573.6897428412722</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5736.7065340420841</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1937,7 +1949,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2207,6 +2219,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2216,7 +2231,7 @@
               <c:f>'model2(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2486,6 +2501,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>1508.3836844131383</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1653.9571133218469</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2507,11 +2525,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="489417728"/>
-        <c:axId val="489424384"/>
+        <c:axId val="370582656"/>
+        <c:axId val="370584192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="489417728"/>
+        <c:axId val="370582656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2554,14 +2572,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489424384"/>
+        <c:crossAx val="370584192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="489424384"/>
+        <c:axId val="370584192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2610,7 +2628,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489417728"/>
+        <c:crossAx val="370582656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2807,7 +2825,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3041,6 +3059,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3050,7 +3071,7 @@
               <c:f>'model2(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3283,6 +3304,9 @@
                   <c:v>6639.8119420000066</c:v>
                 </c:pt>
                 <c:pt idx="77">
+                  <c:v>6898.9353000000046</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
               </c:numCache>
@@ -3326,7 +3350,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3560,6 +3584,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3569,7 +3596,7 @@
               <c:f>'model2(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3803,6 +3830,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>7924.9617140595365</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8802.6604449891747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3845,7 +3875,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4079,6 +4109,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4088,7 +4121,7 @@
               <c:f>'model2(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4322,6 +4355,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>1026.0264140595318</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1903.7251449891701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4343,11 +4379,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="533934080"/>
-        <c:axId val="533935616"/>
+        <c:axId val="467804160"/>
+        <c:axId val="467805696"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="533934080"/>
+        <c:axId val="467804160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4390,14 +4426,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533935616"/>
+        <c:crossAx val="467805696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="533935616"/>
+        <c:axId val="467805696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4446,7 +4482,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533934080"/>
+        <c:crossAx val="467804160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4554,7 +4590,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4597,7 +4633,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4908,7 +4944,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF93"/>
+  <dimension ref="A1:AF94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8750,6 +8786,41 @@
         <v>5246.9783896357367</v>
       </c>
     </row>
+    <row r="94" spans="1:11" ht="12.75">
+      <c r="A94" s="15">
+        <v>45565</v>
+      </c>
+      <c r="B94" s="25">
+        <v>1.2181600000000001</v>
+      </c>
+      <c r="C94" s="20">
+        <v>1.0519209798584648</v>
+      </c>
+      <c r="D94" s="21">
+        <v>-257.67048121937978</v>
+      </c>
+      <c r="E94" s="22">
+        <v>-211.52433278007794</v>
+      </c>
+      <c r="F94" s="22">
+        <v>310.00122487659695</v>
+      </c>
+      <c r="G94" s="22">
+        <v>377.6310920956754</v>
+      </c>
+      <c r="H94" s="22">
+        <v>4228.3228496289457</v>
+      </c>
+      <c r="I94" s="22">
+        <v>5882.2799629507927</v>
+      </c>
+      <c r="J94" s="22">
+        <v>1653.9571133218469</v>
+      </c>
+      <c r="K94" s="21">
+        <v>5504.6488708551169</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -8766,7 +8837,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF81"/>
+  <dimension ref="A1:AF82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12076,6 +12147,41 @@
         <v>4972.2678463102511</v>
       </c>
     </row>
+    <row r="82" spans="1:11" ht="12.75">
+      <c r="A82" s="15">
+        <v>45565</v>
+      </c>
+      <c r="B82" s="25">
+        <v>1.2181600000000001</v>
+      </c>
+      <c r="C82" s="20">
+        <v>1.0854110799999994</v>
+      </c>
+      <c r="D82" s="21">
+        <v>-205.76082600000112</v>
+      </c>
+      <c r="E82" s="22">
+        <v>-168.91116602088485</v>
+      </c>
+      <c r="F82" s="22">
+        <v>2975.4972849863088</v>
+      </c>
+      <c r="G82" s="22">
+        <v>3624.6317726789225</v>
+      </c>
+      <c r="H82" s="22">
+        <v>6898.9353000000046</v>
+      </c>
+      <c r="I82" s="22">
+        <v>8802.6604449891747</v>
+      </c>
+      <c r="J82" s="22">
+        <v>1903.7251449891701</v>
+      </c>
+      <c r="K82" s="21">
+        <v>5178.0286723102527</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
@@ -758,7 +758,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1031,6 +1031,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1040,7 +1043,7 @@
               <c:f>'model2(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1312,6 +1315,9 @@
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>4228.3228496289457</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
               </c:numCache>
@@ -1355,7 +1361,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1628,6 +1634,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1637,7 +1646,7 @@
               <c:f>'model2(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1907,6 +1916,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>5736.7065340420841</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5882.2799629507927</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1949,7 +1961,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2222,6 +2234,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2231,7 +2246,7 @@
               <c:f>'model2(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2504,6 +2519,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>1653.9571133218469</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1706.0838192848469</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2525,11 +2543,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="370582656"/>
-        <c:axId val="370584192"/>
+        <c:axId val="70777856"/>
+        <c:axId val="70800512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="370582656"/>
+        <c:axId val="70777856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2572,14 +2590,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370584192"/>
+        <c:crossAx val="70800512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="370584192"/>
+        <c:axId val="70800512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2628,7 +2646,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370582656"/>
+        <c:crossAx val="70777856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2825,7 +2843,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3062,6 +3080,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3071,7 +3092,7 @@
               <c:f>'model2(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3307,6 +3328,9 @@
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
                 <c:pt idx="78">
+                  <c:v>6898.9353000000046</c:v>
+                </c:pt>
+                <c:pt idx="79">
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
               </c:numCache>
@@ -3350,7 +3374,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3587,6 +3611,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3596,7 +3623,7 @@
               <c:f>'model2(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3833,6 +3860,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>8802.6604449891747</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9302.9903134596225</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3875,7 +3905,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4112,6 +4142,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4121,7 +4154,7 @@
               <c:f>'model2(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4358,6 +4391,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>1903.7251449891701</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2404.0550134596178</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4379,11 +4415,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="467804160"/>
-        <c:axId val="467805696"/>
+        <c:axId val="87977344"/>
+        <c:axId val="91389312"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="467804160"/>
+        <c:axId val="87977344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4426,14 +4462,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467805696"/>
+        <c:crossAx val="91389312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="467805696"/>
+        <c:axId val="91389312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4482,7 +4518,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467804160"/>
+        <c:crossAx val="87977344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4943,8 +4979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF94"/>
+  <sheetPr codeName="Sheet1">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:AF95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5047,7 +5085,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>0</v>
+        <v>-61.090677857192247</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -8819,6 +8857,41 @@
       </c>
       <c r="K94" s="21">
         <v>5504.6488708551169</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="12.75">
+      <c r="A95" s="15">
+        <v>45596</v>
+      </c>
+      <c r="B95" s="25">
+        <v>1.3863099999999999</v>
+      </c>
+      <c r="C95" s="20">
+        <v>1.0544077963362068</v>
+      </c>
+      <c r="D95" s="21">
+        <v>-514.44841567887931</v>
+      </c>
+      <c r="E95" s="22">
+        <v>-371.0919027337892</v>
+      </c>
+      <c r="F95" s="22">
+        <v>-61.090677857192247</v>
+      </c>
+      <c r="G95" s="22">
+        <v>-84.690617620204179</v>
+      </c>
+      <c r="H95" s="22">
+        <v>4228.3228496289457</v>
+      </c>
+      <c r="I95" s="22">
+        <v>5934.4066689137926</v>
+      </c>
+      <c r="J95" s="22">
+        <v>1706.0838192848469</v>
+      </c>
+      <c r="K95" s="21">
+        <v>6019.0972865339963</v>
       </c>
     </row>
   </sheetData>
@@ -8837,7 +8910,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF82"/>
+  <dimension ref="A1:AF83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12182,6 +12255,41 @@
         <v>5178.0286723102527</v>
       </c>
     </row>
+    <row r="83" spans="1:11" ht="12.75">
+      <c r="A83" s="15">
+        <v>45596</v>
+      </c>
+      <c r="B83" s="25">
+        <v>1.3863099999999999</v>
+      </c>
+      <c r="C83" s="20">
+        <v>1.0912980399999994</v>
+      </c>
+      <c r="D83" s="21">
+        <v>-457.26853800000077</v>
+      </c>
+      <c r="E83" s="22">
+        <v>-329.84580505081891</v>
+      </c>
+      <c r="F83" s="22">
+        <v>2645.65147993549</v>
+      </c>
+      <c r="G83" s="22">
+        <v>3667.6931031493691</v>
+      </c>
+      <c r="H83" s="22">
+        <v>6898.9353000000046</v>
+      </c>
+      <c r="I83" s="22">
+        <v>9302.9903134596225</v>
+      </c>
+      <c r="J83" s="22">
+        <v>2404.0550134596178</v>
+      </c>
+      <c r="K83" s="21">
+        <v>5635.2972103102538</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
@@ -758,7 +758,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1034,6 +1034,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1043,7 +1046,7 @@
               <c:f>'model2(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1318,6 +1321,9 @@
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>4228.3228496289457</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
               </c:numCache>
@@ -1361,7 +1367,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1637,6 +1643,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1646,7 +1655,7 @@
               <c:f>'model2(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1919,6 +1928,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>5882.2799629507927</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5934.4066689137917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1961,7 +1973,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2237,6 +2249,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2246,7 +2261,7 @@
               <c:f>'model2(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2521,7 +2536,10 @@
                   <c:v>1653.9571133218469</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1706.0838192848469</c:v>
+                  <c:v>1706.083819284846</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1706.083819284846</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2543,11 +2561,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="70777856"/>
-        <c:axId val="70800512"/>
+        <c:axId val="436231168"/>
+        <c:axId val="472617728"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="70777856"/>
+        <c:axId val="436231168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2590,14 +2608,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70800512"/>
+        <c:crossAx val="472617728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="70800512"/>
+        <c:axId val="472617728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2646,7 +2664,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70777856"/>
+        <c:crossAx val="436231168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2843,7 +2861,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3083,6 +3101,9 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3092,7 +3113,7 @@
               <c:f>'model2(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3331,6 +3352,9 @@
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
                 <c:pt idx="79">
+                  <c:v>6898.9353000000046</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
               </c:numCache>
@@ -3374,7 +3398,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3614,6 +3638,9 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3623,7 +3650,7 @@
               <c:f>'model2(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3863,6 +3890,9 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>9302.9903134596225</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9505.0651734970961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3905,7 +3935,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4145,6 +4175,9 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4154,7 +4187,7 @@
               <c:f>'model2(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4394,6 +4427,9 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>2404.0550134596178</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2606.1298734970915</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4415,11 +4451,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87977344"/>
-        <c:axId val="91389312"/>
+        <c:axId val="607338880"/>
+        <c:axId val="607340800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="87977344"/>
+        <c:axId val="607338880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4462,14 +4498,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91389312"/>
+        <c:crossAx val="607340800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="91389312"/>
+        <c:axId val="607340800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4518,7 +4554,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87977344"/>
+        <c:crossAx val="607338880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4982,10 +5018,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF95"/>
+  <dimension ref="A1:AF96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C10" sqref="C10"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
@@ -5085,7 +5121,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>-61.090677857192247</v>
+        <v>0</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -8870,28 +8906,63 @@
         <v>1.0544077963362068</v>
       </c>
       <c r="D95" s="21">
-        <v>-514.44841567887931</v>
+        <v>-429.75779805867512</v>
       </c>
       <c r="E95" s="22">
-        <v>-371.0919027337892</v>
+        <v>-310.00122487659695</v>
       </c>
       <c r="F95" s="22">
-        <v>-61.090677857192247</v>
+        <v>0</v>
       </c>
       <c r="G95" s="22">
-        <v>-84.690617620204179</v>
+        <v>0</v>
       </c>
       <c r="H95" s="22">
         <v>4228.3228496289457</v>
       </c>
       <c r="I95" s="22">
-        <v>5934.4066689137926</v>
+        <v>5934.4066689137917</v>
       </c>
       <c r="J95" s="22">
-        <v>1706.0838192848469</v>
+        <v>1706.083819284846</v>
       </c>
       <c r="K95" s="21">
-        <v>6019.0972865339963</v>
+        <v>5934.4066689137917</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="12.75">
+      <c r="A96" s="15">
+        <v>45625</v>
+      </c>
+      <c r="B96" s="25">
+        <v>1.46269</v>
+      </c>
+      <c r="C96" s="20">
+        <v>1.0582540618336882</v>
+      </c>
+      <c r="D96" s="21">
+        <v>0</v>
+      </c>
+      <c r="E96" s="22">
+        <v>0</v>
+      </c>
+      <c r="F96" s="22">
+        <v>0</v>
+      </c>
+      <c r="G96" s="22">
+        <v>0</v>
+      </c>
+      <c r="H96" s="22">
+        <v>4228.3228496289457</v>
+      </c>
+      <c r="I96" s="22">
+        <v>5934.4066689137917</v>
+      </c>
+      <c r="J96" s="22">
+        <v>1706.083819284846</v>
+      </c>
+      <c r="K96" s="21">
+        <v>5934.4066689137917</v>
       </c>
     </row>
   </sheetData>
@@ -8910,7 +8981,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF83"/>
+  <dimension ref="A1:AF84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12290,6 +12361,41 @@
         <v>5635.2972103102538</v>
       </c>
     </row>
+    <row r="84" spans="1:11" ht="12.75">
+      <c r="A84" s="15">
+        <v>45625</v>
+      </c>
+      <c r="B84" s="25">
+        <v>1.46269</v>
+      </c>
+      <c r="C84" s="20">
+        <v>1.1046611600000003</v>
+      </c>
+      <c r="D84" s="21">
+        <v>-554.94470199999967</v>
+      </c>
+      <c r="E84" s="22">
+        <v>-379.40007930593606</v>
+      </c>
+      <c r="F84" s="22">
+        <v>2266.2514006295542</v>
+      </c>
+      <c r="G84" s="22">
+        <v>3314.8232611868425</v>
+      </c>
+      <c r="H84" s="22">
+        <v>6898.9353000000046</v>
+      </c>
+      <c r="I84" s="22">
+        <v>9505.0651734970961</v>
+      </c>
+      <c r="J84" s="22">
+        <v>2606.1298734970915</v>
+      </c>
+      <c r="K84" s="21">
+        <v>6190.2419123102536</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
@@ -11,8 +11,8 @@
     <sheet name="model2(1)MA250" sheetId="10" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'model2(1)MA250'!$O$1:$O$65</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'model2(1)mean'!$O$1:$O$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'model2(1)MA250'!$O$1:$O$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'model2(1)mean'!$O$1:$O$76</definedName>
     <definedName name="金额" localSheetId="1">OFFSET('model2(1)MA250'!J1,0,0,COUNTA('model2(1)MA250'!J:J)-1)</definedName>
     <definedName name="金额" localSheetId="0">OFFSET('model2(1)mean'!J1,0,0,COUNTA('model2(1)mean'!J:J)-1)</definedName>
     <definedName name="时间" localSheetId="1">OFFSET('model2(1)MA250'!A1,0,0,COUNTA('model2(1)MA250'!A:A)-1)</definedName>
@@ -758,7 +758,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1037,6 +1037,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1046,7 +1049,7 @@
               <c:f>'model2(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1324,6 +1327,9 @@
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>4228.3228496289457</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
               </c:numCache>
@@ -1367,7 +1373,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1646,6 +1652,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1655,7 +1664,7 @@
               <c:f>'model2(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1930,6 +1939,9 @@
                   <c:v>5882.2799629507927</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>5934.4066689137917</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>5934.4066689137917</c:v>
                 </c:pt>
               </c:numCache>
@@ -1973,7 +1985,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2252,6 +2264,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2261,7 +2276,7 @@
               <c:f>'model2(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2539,6 +2554,9 @@
                   <c:v>1706.083819284846</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>1706.083819284846</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>1706.083819284846</c:v>
                 </c:pt>
               </c:numCache>
@@ -2561,11 +2579,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="436231168"/>
-        <c:axId val="472617728"/>
+        <c:axId val="395070080"/>
+        <c:axId val="395085312"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="436231168"/>
+        <c:axId val="395070080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2608,14 +2626,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472617728"/>
+        <c:crossAx val="395085312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="472617728"/>
+        <c:axId val="395085312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2664,7 +2682,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436231168"/>
+        <c:crossAx val="395070080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2861,7 +2879,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3104,6 +3122,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3113,7 +3134,7 @@
               <c:f>'model2(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3355,6 +3376,9 @@
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
                 <c:pt idx="80">
+                  <c:v>6898.9353000000046</c:v>
+                </c:pt>
+                <c:pt idx="81">
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
               </c:numCache>
@@ -3398,7 +3422,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3641,6 +3665,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3650,7 +3677,7 @@
               <c:f>'model2(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3892,7 +3919,10 @@
                   <c:v>9302.9903134596225</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>9505.0651734970961</c:v>
+                  <c:v>9504.9923728574704</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9328.1858434175265</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3935,7 +3965,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4178,6 +4208,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4187,7 +4220,7 @@
               <c:f>'model2(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4429,7 +4462,10 @@
                   <c:v>2404.0550134596178</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2606.1298734970915</c:v>
+                  <c:v>2606.0570728574658</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2429.2505434175218</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4451,11 +4487,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="607338880"/>
-        <c:axId val="607340800"/>
+        <c:axId val="426409344"/>
+        <c:axId val="435381760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="607338880"/>
+        <c:axId val="426409344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4498,14 +4534,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="607340800"/>
+        <c:crossAx val="435381760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="607340800"/>
+        <c:axId val="435381760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4554,7 +4590,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="607338880"/>
+        <c:crossAx val="426409344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4654,7 +4690,7 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5018,10 +5054,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF96"/>
+  <dimension ref="A1:AF97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C10" sqref="C10"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
@@ -5836,6 +5872,30 @@
         <v>251.21204627564666</v>
       </c>
       <c r="L12" s="7"/>
+      <c r="O12" s="6">
+        <v>45657</v>
+      </c>
+      <c r="P12" s="10">
+        <v>640.6378253243156</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>4228.3228496289457</v>
+      </c>
+      <c r="R12" s="5">
+        <v>5934.4066689137917</v>
+      </c>
+      <c r="S12" s="5">
+        <v>1706.083819284846</v>
+      </c>
+      <c r="T12" s="5">
+        <v>5934.4066689137917</v>
+      </c>
+      <c r="U12" s="9">
+        <v>0.40348948742988311</v>
+      </c>
+      <c r="V12" s="9">
+        <v>6.7866001631279316E-2</v>
+      </c>
       <c r="X12" s="6">
         <v>43830</v>
       </c>
@@ -6238,6 +6298,16 @@
         <v>317.52088040945171</v>
       </c>
       <c r="L19" s="7"/>
+      <c r="X19" s="6">
+        <v>43098</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>304.12500617544276</v>
+      </c>
+      <c r="Z19" s="1">
+        <f t="shared" ref="Z19:Z26" si="7">-Y19</f>
+        <v>-304.12500617544276</v>
+      </c>
     </row>
     <row r="20" spans="1:32" ht="14.1" customHeight="1">
       <c r="A20" s="15">
@@ -6274,6 +6344,16 @@
         <v>317.52088040945171</v>
       </c>
       <c r="L20" s="7"/>
+      <c r="X20" s="6">
+        <v>43462</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>1807.7843670854991</v>
+      </c>
+      <c r="Z20" s="1">
+        <f t="shared" si="7"/>
+        <v>-1807.7843670854991</v>
+      </c>
     </row>
     <row r="21" spans="1:32" ht="14.1" customHeight="1">
       <c r="A21" s="15">
@@ -6310,6 +6390,16 @@
         <v>317.52088040945171</v>
       </c>
       <c r="L21" s="8"/>
+      <c r="X21" s="6">
+        <v>43830</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>287.82612266325077</v>
+      </c>
+      <c r="Z21" s="1">
+        <f t="shared" si="7"/>
+        <v>-287.82612266325077</v>
+      </c>
     </row>
     <row r="22" spans="1:32" ht="14.1" customHeight="1">
       <c r="A22" s="15">
@@ -6346,6 +6436,16 @@
         <v>317.52088040945171</v>
       </c>
       <c r="L22" s="7"/>
+      <c r="X22" s="6">
+        <v>44196</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:32" ht="14.1" customHeight="1">
       <c r="A23" s="15">
@@ -6382,6 +6482,17 @@
         <v>317.52088040945171</v>
       </c>
       <c r="L23" s="7"/>
+      <c r="O23" s="3"/>
+      <c r="X23" s="6">
+        <v>44561</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:32" ht="14.1" customHeight="1">
       <c r="A24" s="15">
@@ -6418,7 +6529,16 @@
         <v>317.52088040945171</v>
       </c>
       <c r="L24" s="7"/>
-      <c r="O24" s="3"/>
+      <c r="X24" s="6">
+        <v>44925</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>1187.9495283804376</v>
+      </c>
+      <c r="Z24" s="1">
+        <f t="shared" si="7"/>
+        <v>-1187.9495283804376</v>
+      </c>
     </row>
     <row r="25" spans="1:32" ht="14.1" customHeight="1">
       <c r="A25" s="15">
@@ -6455,6 +6575,16 @@
         <v>317.52088040945171</v>
       </c>
       <c r="L25" s="7"/>
+      <c r="X25" s="6">
+        <v>45289</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:32" ht="14.1" customHeight="1">
       <c r="A26" s="15">
@@ -6491,6 +6621,16 @@
         <v>317.52088040945171</v>
       </c>
       <c r="L26" s="7"/>
+      <c r="X26" s="6">
+        <v>45657</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>640.6378253243156</v>
+      </c>
+      <c r="Z26" s="1">
+        <f t="shared" si="7"/>
+        <v>-640.6378253243156</v>
+      </c>
     </row>
     <row r="27" spans="1:32" ht="14.1" customHeight="1">
       <c r="A27" s="15">
@@ -6527,6 +6667,12 @@
         <v>317.52088040945171</v>
       </c>
       <c r="L27" s="7"/>
+      <c r="X27" s="6">
+        <v>45657</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>5934.4066689137917</v>
+      </c>
     </row>
     <row r="28" spans="1:32" ht="14.1" customHeight="1">
       <c r="A28" s="15">
@@ -6563,6 +6709,10 @@
         <v>449.17350940945107</v>
       </c>
       <c r="L28" s="7"/>
+      <c r="Z28" s="2">
+        <f>IRR(Z19:Z27)</f>
+        <v>6.7866001631279316E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:32" ht="14.1" customHeight="1">
       <c r="A29" s="15">
@@ -6815,6 +6965,7 @@
         <v>970.9296342150401</v>
       </c>
       <c r="L35" s="7"/>
+      <c r="O35" s="3"/>
     </row>
     <row r="36" spans="1:15" ht="14.1" customHeight="1">
       <c r="A36" s="15">
@@ -6851,7 +7002,6 @@
         <v>1125.2320641849196</v>
       </c>
       <c r="L36" s="7"/>
-      <c r="O36" s="3"/>
     </row>
     <row r="37" spans="1:15" ht="14.1" customHeight="1">
       <c r="A37" s="15">
@@ -8903,7 +9053,7 @@
         <v>1.3863099999999999</v>
       </c>
       <c r="C95" s="20">
-        <v>1.0544077963362068</v>
+        <v>1.054228873315364</v>
       </c>
       <c r="D95" s="21">
         <v>-429.75779805867512</v>
@@ -8962,6 +9112,41 @@
         <v>1706.083819284846</v>
       </c>
       <c r="K96" s="21">
+        <v>5934.4066689137917</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="12.75">
+      <c r="A97" s="15">
+        <v>45657</v>
+      </c>
+      <c r="B97" s="25">
+        <v>1.3846400000000001</v>
+      </c>
+      <c r="C97" s="20">
+        <v>1.0632972391991562</v>
+      </c>
+      <c r="D97" s="21">
+        <v>0</v>
+      </c>
+      <c r="E97" s="22">
+        <v>0</v>
+      </c>
+      <c r="F97" s="22">
+        <v>0</v>
+      </c>
+      <c r="G97" s="22">
+        <v>0</v>
+      </c>
+      <c r="H97" s="22">
+        <v>4228.3228496289457</v>
+      </c>
+      <c r="I97" s="22">
+        <v>5934.4066689137917</v>
+      </c>
+      <c r="J97" s="22">
+        <v>1706.083819284846</v>
+      </c>
+      <c r="K97" s="21">
         <v>5934.4066689137917</v>
       </c>
     </row>
@@ -8981,7 +9166,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF84"/>
+  <dimension ref="A1:AF85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9656,6 +9841,16 @@
         <f t="shared" ref="AC10:AC15" si="3">-AB10</f>
         <v>-1431.6926540000038</v>
       </c>
+      <c r="AD10" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>1431.6926540000038</v>
+      </c>
+      <c r="AF10" s="1">
+        <f t="shared" ref="AF10:AF16" si="4">-AE10</f>
+        <v>-1431.6926540000038</v>
+      </c>
     </row>
     <row r="11" spans="1:32" ht="14.1" customHeight="1">
       <c r="A11" s="15">
@@ -9692,6 +9887,30 @@
         <v>0</v>
       </c>
       <c r="L11" s="7"/>
+      <c r="O11" s="6">
+        <v>45657</v>
+      </c>
+      <c r="P11" s="10">
+        <v>2068.7951059999968</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>6898.9353000000046</v>
+      </c>
+      <c r="R11" s="5">
+        <v>9328.1858434175265</v>
+      </c>
+      <c r="S11" s="5">
+        <v>2429.2505434175218</v>
+      </c>
+      <c r="T11" s="5">
+        <v>6599.8088903102534</v>
+      </c>
+      <c r="U11" s="9">
+        <v>0.35211962973729005</v>
+      </c>
+      <c r="V11" s="9">
+        <v>8.7850386892617482E-2</v>
+      </c>
       <c r="X11" s="6">
         <v>43830</v>
       </c>
@@ -9712,6 +9931,16 @@
         <f t="shared" si="3"/>
         <v>-193.45680200000038</v>
       </c>
+      <c r="AD11" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>193.45680200000038</v>
+      </c>
+      <c r="AF11" s="1">
+        <f t="shared" si="4"/>
+        <v>-193.45680200000038</v>
+      </c>
     </row>
     <row r="12" spans="1:32" ht="14.1" customHeight="1">
       <c r="A12" s="15">
@@ -9768,6 +9997,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="AD12" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:32" ht="14.1" customHeight="1">
       <c r="A13" s="15">
@@ -9824,6 +10063,16 @@
         <f t="shared" si="3"/>
         <v>-439.43355600000223</v>
       </c>
+      <c r="AD13" s="6">
+        <v>44561</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>439.43355600000223</v>
+      </c>
+      <c r="AF13" s="1">
+        <f t="shared" si="4"/>
+        <v>-439.43355600000223</v>
+      </c>
     </row>
     <row r="14" spans="1:32" ht="14.1" customHeight="1">
       <c r="A14" s="15">
@@ -9880,6 +10129,16 @@
         <f t="shared" si="3"/>
         <v>-2765.5571820000014</v>
       </c>
+      <c r="AD14" s="6">
+        <v>44925</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>2765.5571820000014</v>
+      </c>
+      <c r="AF14" s="1">
+        <f t="shared" si="4"/>
+        <v>-2765.5571820000014</v>
+      </c>
     </row>
     <row r="15" spans="1:32" ht="14.1" customHeight="1">
       <c r="A15" s="15">
@@ -9930,6 +10189,16 @@
       </c>
       <c r="AC15" s="1">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="6">
+        <v>45289</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="1">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -9978,8 +10247,18 @@
       <c r="AC16" s="1">
         <v>6340.8843712169046</v>
       </c>
-    </row>
-    <row r="17" spans="1:29" ht="14.1" customHeight="1">
+      <c r="AD16" s="6">
+        <v>45657</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>2068.7951059999968</v>
+      </c>
+      <c r="AF16" s="1">
+        <f t="shared" si="4"/>
+        <v>-2068.7951059999968</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" ht="14.1" customHeight="1">
       <c r="A17" s="15">
         <v>43585</v>
       </c>
@@ -10018,8 +10297,14 @@
         <f>IRR(AC10:AC16)</f>
         <v>8.0252163148518463E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:29" ht="14.1" customHeight="1">
+      <c r="AD17" s="6">
+        <v>45657</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>9328.1858434175265</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" ht="14.1" customHeight="1">
       <c r="A18" s="15">
         <v>43616</v>
       </c>
@@ -10054,8 +10339,12 @@
         <v>572.85656400000096</v>
       </c>
       <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="1:29" ht="14.1" customHeight="1">
+      <c r="AF18" s="2">
+        <f>IRR(AF10:AF17)</f>
+        <v>8.7850386892617482E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" ht="14.1" customHeight="1">
       <c r="A19" s="15">
         <v>43644</v>
       </c>
@@ -10091,7 +10380,7 @@
       </c>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:29" ht="14.1" customHeight="1">
+    <row r="20" spans="1:32" ht="14.1" customHeight="1">
       <c r="A20" s="15">
         <v>43677</v>
       </c>
@@ -10127,7 +10416,7 @@
       </c>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:29" ht="14.1" customHeight="1">
+    <row r="21" spans="1:32" ht="14.1" customHeight="1">
       <c r="A21" s="15">
         <v>43707</v>
       </c>
@@ -10163,7 +10452,7 @@
       </c>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="1:29" ht="14.1" customHeight="1">
+    <row r="22" spans="1:32" ht="14.1" customHeight="1">
       <c r="A22" s="15">
         <v>43738</v>
       </c>
@@ -10198,8 +10487,9 @@
         <v>1200.6086100000036</v>
       </c>
       <c r="L22" s="7"/>
-    </row>
-    <row r="23" spans="1:29" ht="14.1" customHeight="1">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="1:32" ht="14.1" customHeight="1">
       <c r="A23" s="15">
         <v>43769</v>
       </c>
@@ -10234,9 +10524,8 @@
         <v>1387.1894260000045</v>
       </c>
       <c r="L23" s="7"/>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="1:29" ht="14.1" customHeight="1">
+    </row>
+    <row r="24" spans="1:32" ht="14.1" customHeight="1">
       <c r="A24" s="15">
         <v>43798</v>
       </c>
@@ -10272,7 +10561,7 @@
       </c>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="1:29" ht="14.1" customHeight="1">
+    <row r="25" spans="1:32" ht="14.1" customHeight="1">
       <c r="A25" s="15">
         <v>43830</v>
       </c>
@@ -10308,7 +10597,7 @@
       </c>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="1:29" ht="14.1" customHeight="1">
+    <row r="26" spans="1:32" ht="14.1" customHeight="1">
       <c r="A26" s="15">
         <v>43853</v>
       </c>
@@ -10344,7 +10633,7 @@
       </c>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" spans="1:29" ht="14.1" customHeight="1">
+    <row r="27" spans="1:32" ht="14.1" customHeight="1">
       <c r="A27" s="15">
         <v>43889</v>
       </c>
@@ -10380,7 +10669,7 @@
       </c>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" spans="1:29" ht="14.1" customHeight="1">
+    <row r="28" spans="1:32" ht="14.1" customHeight="1">
       <c r="A28" s="15">
         <v>43921</v>
       </c>
@@ -10416,7 +10705,7 @@
       </c>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" spans="1:29" ht="14.1" customHeight="1">
+    <row r="29" spans="1:32" ht="14.1" customHeight="1">
       <c r="A29" s="15">
         <v>43951</v>
       </c>
@@ -10452,7 +10741,7 @@
       </c>
       <c r="L29" s="7"/>
     </row>
-    <row r="30" spans="1:29" ht="14.1" customHeight="1">
+    <row r="30" spans="1:32" ht="14.1" customHeight="1">
       <c r="A30" s="15">
         <v>43980</v>
       </c>
@@ -10488,7 +10777,7 @@
       </c>
       <c r="L30" s="7"/>
     </row>
-    <row r="31" spans="1:29" ht="14.1" customHeight="1">
+    <row r="31" spans="1:32" ht="14.1" customHeight="1">
       <c r="A31" s="15">
         <v>44012</v>
       </c>
@@ -10524,7 +10813,7 @@
       </c>
       <c r="L31" s="7"/>
     </row>
-    <row r="32" spans="1:29" ht="14.1" customHeight="1">
+    <row r="32" spans="1:32" ht="14.1" customHeight="1">
       <c r="A32" s="15">
         <v>44043</v>
       </c>
@@ -10595,6 +10884,7 @@
         <v>2159.2747743102564</v>
       </c>
       <c r="L33" s="7"/>
+      <c r="O33" s="3"/>
     </row>
     <row r="34" spans="1:15" ht="14.1" customHeight="1">
       <c r="A34" s="15">
@@ -10631,7 +10921,6 @@
         <v>2159.2747743102564</v>
       </c>
       <c r="L34" s="7"/>
-      <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:15" ht="14.1" customHeight="1">
       <c r="A35" s="15">
@@ -12334,19 +12623,19 @@
         <v>1.3863099999999999</v>
       </c>
       <c r="C83" s="20">
-        <v>1.0912980399999994</v>
+        <v>1.0904455599999994</v>
       </c>
       <c r="D83" s="21">
-        <v>-457.26853800000077</v>
+        <v>-458.5898820000009</v>
       </c>
       <c r="E83" s="22">
-        <v>-329.84580505081891</v>
+        <v>-330.79894251646522</v>
       </c>
       <c r="F83" s="22">
-        <v>2645.65147993549</v>
+        <v>2644.6983424698437</v>
       </c>
       <c r="G83" s="22">
-        <v>3667.6931031493691</v>
+        <v>3666.3717591493687</v>
       </c>
       <c r="H83" s="22">
         <v>6898.9353000000046</v>
@@ -12358,7 +12647,7 @@
         <v>2404.0550134596178</v>
       </c>
       <c r="K83" s="21">
-        <v>5635.2972103102538</v>
+        <v>5636.6185543102538</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="12.75">
@@ -12378,22 +12667,57 @@
         <v>-379.40007930593606</v>
       </c>
       <c r="F84" s="22">
-        <v>2266.2514006295542</v>
+        <v>2265.2982631639079</v>
       </c>
       <c r="G84" s="22">
-        <v>3314.8232611868425</v>
+        <v>3313.4291165472164</v>
       </c>
       <c r="H84" s="22">
         <v>6898.9353000000046</v>
       </c>
       <c r="I84" s="22">
-        <v>9505.0651734970961</v>
+        <v>9504.9923728574704</v>
       </c>
       <c r="J84" s="22">
-        <v>2606.1298734970915</v>
+        <v>2606.0570728574658</v>
       </c>
       <c r="K84" s="21">
-        <v>6190.2419123102536</v>
+        <v>6191.5632563102536</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="12.75">
+      <c r="A85" s="15">
+        <v>45657</v>
+      </c>
+      <c r="B85" s="25">
+        <v>1.3846400000000001</v>
+      </c>
+      <c r="C85" s="20">
+        <v>1.1212557200000004</v>
+      </c>
+      <c r="D85" s="21">
+        <v>-408.24563399999954</v>
+      </c>
+      <c r="E85" s="22">
+        <v>-294.83882742084552</v>
+      </c>
+      <c r="F85" s="22">
+        <v>1970.4594357430624</v>
+      </c>
+      <c r="G85" s="22">
+        <v>2728.3769531072739</v>
+      </c>
+      <c r="H85" s="22">
+        <v>6898.9353000000046</v>
+      </c>
+      <c r="I85" s="22">
+        <v>9328.1858434175265</v>
+      </c>
+      <c r="J85" s="22">
+        <v>2429.2505434175218</v>
+      </c>
+      <c r="K85" s="21">
+        <v>6599.8088903102534</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
@@ -2579,11 +2579,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="395070080"/>
-        <c:axId val="395085312"/>
+        <c:axId val="424904960"/>
+        <c:axId val="428999040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="395070080"/>
+        <c:axId val="424904960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2626,14 +2626,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395085312"/>
+        <c:crossAx val="428999040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="395085312"/>
+        <c:axId val="428999040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2682,7 +2682,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395070080"/>
+        <c:crossAx val="424904960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4487,11 +4487,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="426409344"/>
-        <c:axId val="435381760"/>
+        <c:axId val="455309184"/>
+        <c:axId val="457084928"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="426409344"/>
+        <c:axId val="455309184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4534,14 +4534,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435381760"/>
+        <c:crossAx val="457084928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="435381760"/>
+        <c:axId val="457084928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4590,7 +4590,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426409344"/>
+        <c:crossAx val="455309184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>

--- a/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
@@ -758,7 +758,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1040,6 +1040,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1049,7 +1052,7 @@
               <c:f>'model2(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1330,6 +1333,9 @@
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>4228.3228496289457</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
               </c:numCache>
@@ -1373,7 +1379,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1655,6 +1661,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1664,7 +1673,7 @@
               <c:f>'model2(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1942,6 +1951,9 @@
                   <c:v>5934.4066689137917</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>5934.4066689137917</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>5934.4066689137917</c:v>
                 </c:pt>
               </c:numCache>
@@ -1985,7 +1997,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2267,6 +2279,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2276,7 +2291,7 @@
               <c:f>'model2(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2557,6 +2572,9 @@
                   <c:v>1706.083819284846</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>1706.083819284846</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>1706.083819284846</c:v>
                 </c:pt>
               </c:numCache>
@@ -2579,11 +2597,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="424904960"/>
-        <c:axId val="428999040"/>
+        <c:axId val="87006208"/>
+        <c:axId val="87111936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="424904960"/>
+        <c:axId val="87006208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2626,14 +2644,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428999040"/>
+        <c:crossAx val="87111936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="428999040"/>
+        <c:axId val="87111936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2682,7 +2700,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="424904960"/>
+        <c:crossAx val="87006208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2879,7 +2897,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3125,6 +3143,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3134,7 +3155,7 @@
               <c:f>'model2(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3379,6 +3400,9 @@
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
                 <c:pt idx="81">
+                  <c:v>6898.9353000000046</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
               </c:numCache>
@@ -3422,7 +3446,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3668,6 +3692,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3677,7 +3704,7 @@
               <c:f>'model2(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3923,6 +3950,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>9328.1858434175265</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9338.7080968043956</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3965,7 +3995,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4211,6 +4241,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4220,7 +4253,7 @@
               <c:f>'model2(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4466,6 +4499,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>2429.2505434175218</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2439.772796804391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4487,11 +4523,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="455309184"/>
-        <c:axId val="457084928"/>
+        <c:axId val="385889024"/>
+        <c:axId val="385891712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="455309184"/>
+        <c:axId val="385889024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4534,14 +4570,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="457084928"/>
+        <c:crossAx val="385891712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="457084928"/>
+        <c:axId val="385891712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4590,7 +4626,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455309184"/>
+        <c:crossAx val="385889024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4698,7 +4734,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4741,7 +4777,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5054,7 +5090,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF97"/>
+  <dimension ref="A1:AF98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9150,6 +9186,41 @@
         <v>5934.4066689137917</v>
       </c>
     </row>
+    <row r="98" spans="1:11" ht="12.75">
+      <c r="A98" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B98" s="25">
+        <v>1.38998</v>
+      </c>
+      <c r="C98" s="20">
+        <v>1.0659416127348635</v>
+      </c>
+      <c r="D98" s="21">
+        <v>0</v>
+      </c>
+      <c r="E98" s="22">
+        <v>0</v>
+      </c>
+      <c r="F98" s="22">
+        <v>0</v>
+      </c>
+      <c r="G98" s="22">
+        <v>0</v>
+      </c>
+      <c r="H98" s="22">
+        <v>4228.3228496289457</v>
+      </c>
+      <c r="I98" s="22">
+        <v>5934.4066689137917</v>
+      </c>
+      <c r="J98" s="22">
+        <v>1706.083819284846</v>
+      </c>
+      <c r="K98" s="21">
+        <v>5934.4066689137917</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -9166,7 +9237,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF85"/>
+  <dimension ref="A1:AF86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12720,6 +12791,41 @@
         <v>6599.8088903102534</v>
       </c>
     </row>
+    <row r="86" spans="1:11" ht="12.75">
+      <c r="A86" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B86" s="25">
+        <v>1.38998</v>
+      </c>
+      <c r="C86" s="20">
+        <v>1.1301867999999995</v>
+      </c>
+      <c r="D86" s="21">
+        <v>-402.6794600000008</v>
+      </c>
+      <c r="E86" s="22">
+        <v>-289.70162160606685</v>
+      </c>
+      <c r="F86" s="22">
+        <v>1680.7578141369954</v>
+      </c>
+      <c r="G86" s="22">
+        <v>2336.219746494141</v>
+      </c>
+      <c r="H86" s="22">
+        <v>6898.9353000000046</v>
+      </c>
+      <c r="I86" s="22">
+        <v>9338.7080968043956</v>
+      </c>
+      <c r="J86" s="22">
+        <v>2439.772796804391</v>
+      </c>
+      <c r="K86" s="21">
+        <v>7002.4883503102546</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
@@ -758,7 +758,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1043,6 +1043,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1052,7 +1055,7 @@
               <c:f>'model2(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1336,6 +1339,9 @@
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>4228.3228496289457</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
               </c:numCache>
@@ -1379,7 +1385,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1664,6 +1670,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1673,7 +1682,7 @@
               <c:f>'model2(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1954,6 +1963,9 @@
                   <c:v>5934.4066689137917</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>5934.4066689137917</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>5934.4066689137917</c:v>
                 </c:pt>
               </c:numCache>
@@ -1997,7 +2009,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2282,6 +2294,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2291,7 +2306,7 @@
               <c:f>'model2(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2575,6 +2590,9 @@
                   <c:v>1706.083819284846</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>1706.083819284846</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>1706.083819284846</c:v>
                 </c:pt>
               </c:numCache>
@@ -2597,11 +2615,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87006208"/>
-        <c:axId val="87111936"/>
+        <c:axId val="100817920"/>
+        <c:axId val="409110784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="87006208"/>
+        <c:axId val="100817920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2644,14 +2662,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87111936"/>
+        <c:crossAx val="409110784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="87111936"/>
+        <c:axId val="409110784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2700,7 +2718,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87006208"/>
+        <c:crossAx val="100817920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2897,7 +2915,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3146,6 +3164,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3155,7 +3176,7 @@
               <c:f>'model2(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3403,6 +3424,9 @@
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
                 <c:pt idx="82">
+                  <c:v>6898.9353000000046</c:v>
+                </c:pt>
+                <c:pt idx="83">
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
               </c:numCache>
@@ -3446,7 +3470,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3695,6 +3719,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3704,7 +3731,7 @@
               <c:f>'model2(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3953,6 +3980,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>9338.7080968043956</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9660.119413601813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3995,7 +4025,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4244,6 +4274,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4253,7 +4286,7 @@
               <c:f>'model2(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4502,6 +4535,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>2439.772796804391</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2761.1841136018083</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4523,11 +4559,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="385889024"/>
-        <c:axId val="385891712"/>
+        <c:axId val="492526592"/>
+        <c:axId val="516891776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="385889024"/>
+        <c:axId val="492526592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4570,14 +4606,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385891712"/>
+        <c:crossAx val="516891776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="385891712"/>
+        <c:axId val="516891776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4626,7 +4662,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385889024"/>
+        <c:crossAx val="492526592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4734,7 +4770,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4777,7 +4813,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5090,7 +5126,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF98"/>
+  <dimension ref="A1:AF99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9221,6 +9257,41 @@
         <v>5934.4066689137917</v>
       </c>
     </row>
+    <row r="99" spans="1:11" ht="12.75">
+      <c r="A99" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B99" s="25">
+        <v>1.58121</v>
+      </c>
+      <c r="C99" s="20">
+        <v>1.0711721033591723</v>
+      </c>
+      <c r="D99" s="21">
+        <v>0</v>
+      </c>
+      <c r="E99" s="22">
+        <v>0</v>
+      </c>
+      <c r="F99" s="22">
+        <v>0</v>
+      </c>
+      <c r="G99" s="22">
+        <v>0</v>
+      </c>
+      <c r="H99" s="22">
+        <v>4228.3228496289457</v>
+      </c>
+      <c r="I99" s="22">
+        <v>5934.4066689137917</v>
+      </c>
+      <c r="J99" s="22">
+        <v>1706.083819284846</v>
+      </c>
+      <c r="K99" s="21">
+        <v>5934.4066689137917</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -9237,7 +9308,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF86"/>
+  <dimension ref="A1:AF87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12826,6 +12897,41 @@
         <v>7002.4883503102546</v>
       </c>
     </row>
+    <row r="87" spans="1:11" ht="12.75">
+      <c r="A87" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B87" s="25">
+        <v>1.58121</v>
+      </c>
+      <c r="C87" s="20">
+        <v>1.1746116400000002</v>
+      </c>
+      <c r="D87" s="21">
+        <v>-630.22745799999973</v>
+      </c>
+      <c r="E87" s="22">
+        <v>-398.57290176510378</v>
+      </c>
+      <c r="F87" s="22">
+        <v>1282.1849123718916</v>
+      </c>
+      <c r="G87" s="22">
+        <v>2027.4036052915587</v>
+      </c>
+      <c r="H87" s="22">
+        <v>6898.9353000000046</v>
+      </c>
+      <c r="I87" s="22">
+        <v>9660.119413601813</v>
+      </c>
+      <c r="J87" s="22">
+        <v>2761.1841136018083</v>
+      </c>
+      <c r="K87" s="21">
+        <v>7632.715808310254</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
@@ -758,7 +758,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1046,6 +1046,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1055,7 +1058,7 @@
               <c:f>'model2(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1342,6 +1345,9 @@
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>4228.3228496289457</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
               </c:numCache>
@@ -1385,7 +1391,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1673,6 +1679,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1682,7 +1691,7 @@
               <c:f>'model2(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1966,6 +1975,9 @@
                   <c:v>5934.4066689137917</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>5934.4066689137917</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>5934.4066689137917</c:v>
                 </c:pt>
               </c:numCache>
@@ -2009,7 +2021,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2297,6 +2309,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2306,7 +2321,7 @@
               <c:f>'model2(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2593,6 +2608,9 @@
                   <c:v>1706.083819284846</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>1706.083819284846</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>1706.083819284846</c:v>
                 </c:pt>
               </c:numCache>
@@ -2615,11 +2633,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100817920"/>
-        <c:axId val="409110784"/>
+        <c:axId val="115383680"/>
+        <c:axId val="115545984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="100817920"/>
+        <c:axId val="115383680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2662,14 +2680,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="409110784"/>
+        <c:crossAx val="115545984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="409110784"/>
+        <c:axId val="115545984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2718,7 +2736,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100817920"/>
+        <c:crossAx val="115383680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2915,7 +2933,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3167,6 +3185,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3176,7 +3197,7 @@
               <c:f>'model2(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3427,6 +3448,9 @@
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
                 <c:pt idx="83">
+                  <c:v>6898.9353000000046</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
               </c:numCache>
@@ -3470,7 +3494,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3722,6 +3746,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3731,7 +3758,7 @@
               <c:f>'model2(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3983,6 +4010,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>9660.119413601813</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9611.0758407035883</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4025,7 +4055,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4277,6 +4307,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4286,7 +4319,7 @@
               <c:f>'model2(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4538,6 +4571,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>2761.1841136018083</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2712.1405407035836</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4559,11 +4595,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="492526592"/>
-        <c:axId val="516891776"/>
+        <c:axId val="564147328"/>
+        <c:axId val="564148864"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="492526592"/>
+        <c:axId val="564147328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4606,14 +4642,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516891776"/>
+        <c:crossAx val="564148864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="516891776"/>
+        <c:axId val="564148864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4662,7 +4698,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492526592"/>
+        <c:crossAx val="564147328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4770,7 +4806,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4813,7 +4849,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5126,7 +5162,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF99"/>
+  <dimension ref="A1:AF100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9292,6 +9328,41 @@
         <v>5934.4066689137917</v>
       </c>
     </row>
+    <row r="100" spans="1:11" ht="12.75">
+      <c r="A100" s="15">
+        <v>45747</v>
+      </c>
+      <c r="B100" s="25">
+        <v>1.5429600000000001</v>
+      </c>
+      <c r="C100" s="20">
+        <v>1.0770359795396409</v>
+      </c>
+      <c r="D100" s="21">
+        <v>0</v>
+      </c>
+      <c r="E100" s="22">
+        <v>0</v>
+      </c>
+      <c r="F100" s="22">
+        <v>0</v>
+      </c>
+      <c r="G100" s="22">
+        <v>0</v>
+      </c>
+      <c r="H100" s="22">
+        <v>4228.3228496289457</v>
+      </c>
+      <c r="I100" s="22">
+        <v>5934.4066689137917</v>
+      </c>
+      <c r="J100" s="22">
+        <v>1706.083819284846</v>
+      </c>
+      <c r="K100" s="21">
+        <v>5934.4066689137917</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -9308,7 +9379,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF87"/>
+  <dimension ref="A1:AF88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12932,6 +13003,41 @@
         <v>7632.715808310254</v>
       </c>
     </row>
+    <row r="88" spans="1:11" ht="12.75">
+      <c r="A88" s="15">
+        <v>45747</v>
+      </c>
+      <c r="B88" s="25">
+        <v>1.5429600000000001</v>
+      </c>
+      <c r="C88" s="20">
+        <v>1.21761052</v>
+      </c>
+      <c r="D88" s="21">
+        <v>-504.29169400000012</v>
+      </c>
+      <c r="E88" s="22">
+        <v>-326.83393866334842</v>
+      </c>
+      <c r="F88" s="22">
+        <v>955.35097370854328</v>
+      </c>
+      <c r="G88" s="22">
+        <v>1474.068338393334</v>
+      </c>
+      <c r="H88" s="22">
+        <v>6898.9353000000046</v>
+      </c>
+      <c r="I88" s="22">
+        <v>9611.0758407035883</v>
+      </c>
+      <c r="J88" s="22">
+        <v>2712.1405407035836</v>
+      </c>
+      <c r="K88" s="21">
+        <v>8137.0075023102545</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
@@ -758,7 +758,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1049,6 +1049,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1058,7 +1061,7 @@
               <c:f>'model2(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1348,6 +1351,9 @@
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>4228.3228496289457</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
               </c:numCache>
@@ -1391,7 +1397,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1682,6 +1688,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1691,7 +1700,7 @@
               <c:f>'model2(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1978,6 +1987,9 @@
                   <c:v>5934.4066689137917</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>5934.4066689137917</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>5934.4066689137917</c:v>
                 </c:pt>
               </c:numCache>
@@ -2021,7 +2033,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2312,6 +2324,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2321,7 +2336,7 @@
               <c:f>'model2(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2611,6 +2626,9 @@
                   <c:v>1706.083819284846</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>1706.083819284846</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>1706.083819284846</c:v>
                 </c:pt>
               </c:numCache>
@@ -2633,11 +2651,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="115383680"/>
-        <c:axId val="115545984"/>
+        <c:axId val="75858688"/>
+        <c:axId val="75860608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="115383680"/>
+        <c:axId val="75858688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2680,14 +2698,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115545984"/>
+        <c:crossAx val="75860608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="115545984"/>
+        <c:axId val="75860608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2736,7 +2754,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115383680"/>
+        <c:crossAx val="75858688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2933,7 +2951,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3188,6 +3206,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3197,7 +3218,7 @@
               <c:f>'model2(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3451,6 +3472,9 @@
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
                 <c:pt idx="84">
+                  <c:v>6898.9353000000046</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
               </c:numCache>
@@ -3494,7 +3518,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3749,6 +3773,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3758,7 +3785,7 @@
               <c:f>'model2(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4013,6 +4040,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>9611.0758407035883</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>9551.9109549018176</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4055,7 +4085,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4310,6 +4340,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4319,7 +4352,7 @@
               <c:f>'model2(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4574,6 +4607,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>2712.1405407035836</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2652.975654901813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4595,11 +4631,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="564147328"/>
-        <c:axId val="564148864"/>
+        <c:axId val="530976128"/>
+        <c:axId val="533492864"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="564147328"/>
+        <c:axId val="530976128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4642,14 +4678,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564148864"/>
+        <c:crossAx val="533492864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="564148864"/>
+        <c:axId val="533492864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4698,7 +4734,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564147328"/>
+        <c:crossAx val="530976128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4806,7 +4842,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4849,7 +4885,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5162,7 +5198,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF100"/>
+  <dimension ref="A1:AF101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9363,6 +9399,41 @@
         <v>5934.4066689137917</v>
       </c>
     </row>
+    <row r="101" spans="1:11" ht="12.75">
+      <c r="A101" s="15">
+        <v>45777</v>
+      </c>
+      <c r="B101" s="25">
+        <v>1.4810300000000001</v>
+      </c>
+      <c r="C101" s="20">
+        <v>1.0809745698380564</v>
+      </c>
+      <c r="D101" s="21">
+        <v>0</v>
+      </c>
+      <c r="E101" s="22">
+        <v>0</v>
+      </c>
+      <c r="F101" s="22">
+        <v>0</v>
+      </c>
+      <c r="G101" s="22">
+        <v>0</v>
+      </c>
+      <c r="H101" s="22">
+        <v>4228.3228496289457</v>
+      </c>
+      <c r="I101" s="22">
+        <v>5934.4066689137917</v>
+      </c>
+      <c r="J101" s="22">
+        <v>1706.083819284846</v>
+      </c>
+      <c r="K101" s="21">
+        <v>5934.4066689137917</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -9379,7 +9450,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF88"/>
+  <dimension ref="A1:AF89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13038,6 +13109,41 @@
         <v>8137.0075023102545</v>
       </c>
     </row>
+    <row r="89" spans="1:11" ht="12.75">
+      <c r="A89" s="15">
+        <v>45777</v>
+      </c>
+      <c r="B89" s="25">
+        <v>1.4810300000000001</v>
+      </c>
+      <c r="C89" s="20">
+        <v>1.2460871999999994</v>
+      </c>
+      <c r="D89" s="21">
+        <v>-364.16134000000102</v>
+      </c>
+      <c r="E89" s="22">
+        <v>-245.88383759950912</v>
+      </c>
+      <c r="F89" s="22">
+        <v>709.46713610903419</v>
+      </c>
+      <c r="G89" s="22">
+        <v>1050.742112591563</v>
+      </c>
+      <c r="H89" s="22">
+        <v>6898.9353000000046</v>
+      </c>
+      <c r="I89" s="22">
+        <v>9551.9109549018176</v>
+      </c>
+      <c r="J89" s="22">
+        <v>2652.975654901813</v>
+      </c>
+      <c r="K89" s="21">
+        <v>8501.1688423102551</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
@@ -758,7 +758,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1052,6 +1052,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1061,7 +1064,7 @@
               <c:f>'model2(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1354,6 +1357,9 @@
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>4228.3228496289457</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
               </c:numCache>
@@ -1397,7 +1403,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1691,6 +1697,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1700,7 +1709,7 @@
               <c:f>'model2(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1990,6 +1999,9 @@
                   <c:v>5934.4066689137917</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>5934.4066689137917</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>5934.4066689137917</c:v>
                 </c:pt>
               </c:numCache>
@@ -2033,7 +2045,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2327,6 +2339,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2336,7 +2351,7 @@
               <c:f>'model2(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2629,6 +2644,9 @@
                   <c:v>1706.083819284846</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>1706.083819284846</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>1706.083819284846</c:v>
                 </c:pt>
               </c:numCache>
@@ -2651,11 +2669,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="75858688"/>
-        <c:axId val="75860608"/>
+        <c:axId val="256782336"/>
+        <c:axId val="256784640"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="75858688"/>
+        <c:axId val="256782336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2698,14 +2716,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75860608"/>
+        <c:crossAx val="256784640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="75860608"/>
+        <c:axId val="256784640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2754,7 +2772,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75858688"/>
+        <c:crossAx val="256782336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2951,7 +2969,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3209,6 +3227,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3218,7 +3239,7 @@
               <c:f>'model2(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3475,6 +3496,9 @@
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
                 <c:pt idx="85">
+                  <c:v>6898.9353000000046</c:v>
+                </c:pt>
+                <c:pt idx="86">
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
               </c:numCache>
@@ -3518,7 +3542,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3776,6 +3800,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3785,7 +3812,7 @@
               <c:f>'model2(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4043,6 +4070,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>9551.9109549018176</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9593.2161315660869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4085,7 +4115,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4343,6 +4373,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4352,7 +4385,7 @@
               <c:f>'model2(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4610,6 +4643,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>2652.975654901813</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2694.2808315660823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4631,11 +4667,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="530976128"/>
-        <c:axId val="533492864"/>
+        <c:axId val="704077184"/>
+        <c:axId val="92443776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="530976128"/>
+        <c:axId val="704077184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4678,14 +4714,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533492864"/>
+        <c:crossAx val="92443776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="533492864"/>
+        <c:axId val="92443776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4734,7 +4770,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="530976128"/>
+        <c:crossAx val="704077184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4842,7 +4878,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4885,7 +4921,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5198,7 +5234,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF101"/>
+  <dimension ref="A1:AF102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9434,6 +9470,41 @@
         <v>5934.4066689137917</v>
       </c>
     </row>
+    <row r="102" spans="1:11" ht="12.75">
+      <c r="A102" s="15">
+        <v>45807</v>
+      </c>
+      <c r="B102" s="25">
+        <v>1.53925</v>
+      </c>
+      <c r="C102" s="20">
+        <v>1.0853151779448618</v>
+      </c>
+      <c r="D102" s="21">
+        <v>0</v>
+      </c>
+      <c r="E102" s="22">
+        <v>0</v>
+      </c>
+      <c r="F102" s="22">
+        <v>0</v>
+      </c>
+      <c r="G102" s="22">
+        <v>0</v>
+      </c>
+      <c r="H102" s="22">
+        <v>4228.3228496289457</v>
+      </c>
+      <c r="I102" s="22">
+        <v>5934.4066689137917</v>
+      </c>
+      <c r="J102" s="22">
+        <v>1706.083819284846</v>
+      </c>
+      <c r="K102" s="21">
+        <v>5934.4066689137917</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -9450,7 +9521,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF89"/>
+  <dimension ref="A1:AF90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13144,6 +13215,41 @@
         <v>8501.1688423102551</v>
       </c>
     </row>
+    <row r="90" spans="1:11" ht="12.75">
+      <c r="A90" s="15">
+        <v>45807</v>
+      </c>
+      <c r="B90" s="25">
+        <v>1.53925</v>
+      </c>
+      <c r="C90" s="20">
+        <v>1.282875679999999</v>
+      </c>
+      <c r="D90" s="21">
+        <v>-397.3801960000016</v>
+      </c>
+      <c r="E90" s="22">
+        <v>-258.16481793081152</v>
+      </c>
+      <c r="F90" s="22">
+        <v>451.30231817822266</v>
+      </c>
+      <c r="G90" s="22">
+        <v>694.66709325582929</v>
+      </c>
+      <c r="H90" s="22">
+        <v>6898.9353000000046</v>
+      </c>
+      <c r="I90" s="22">
+        <v>9593.2161315660869</v>
+      </c>
+      <c r="J90" s="22">
+        <v>2694.2808315660823</v>
+      </c>
+      <c r="K90" s="21">
+        <v>8898.5490383102569</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
@@ -758,7 +758,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1055,6 +1055,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1064,7 +1067,7 @@
               <c:f>'model2(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1360,6 +1363,9 @@
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>4228.3228496289457</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
               </c:numCache>
@@ -1403,7 +1409,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1700,6 +1706,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1709,7 +1718,7 @@
               <c:f>'model2(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -2002,6 +2011,9 @@
                   <c:v>5934.4066689137917</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>5934.4066689137917</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>5934.4066689137917</c:v>
                 </c:pt>
               </c:numCache>
@@ -2045,7 +2057,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2342,6 +2354,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2351,7 +2366,7 @@
               <c:f>'model2(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2647,6 +2662,9 @@
                   <c:v>1706.083819284846</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>1706.083819284846</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>1706.083819284846</c:v>
                 </c:pt>
               </c:numCache>
@@ -2669,11 +2687,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="256782336"/>
-        <c:axId val="256784640"/>
+        <c:axId val="90975232"/>
+        <c:axId val="103443456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="256782336"/>
+        <c:axId val="90975232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2716,14 +2734,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256784640"/>
+        <c:crossAx val="103443456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="256784640"/>
+        <c:axId val="103443456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2772,7 +2790,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256782336"/>
+        <c:crossAx val="90975232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2969,7 +2987,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3230,6 +3248,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3239,7 +3260,7 @@
               <c:f>'model2(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3499,6 +3520,9 @@
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
                 <c:pt idx="86">
+                  <c:v>6898.9353000000046</c:v>
+                </c:pt>
+                <c:pt idx="87">
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
               </c:numCache>
@@ -3542,7 +3566,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3803,6 +3827,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3812,7 +3839,7 @@
               <c:f>'model2(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4073,6 +4100,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>9593.2161315660869</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9643.7845563179562</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4115,7 +4145,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4376,6 +4406,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4385,7 +4418,7 @@
               <c:f>'model2(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4646,6 +4679,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>2694.2808315660823</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2744.8492563179516</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4667,11 +4703,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="704077184"/>
-        <c:axId val="92443776"/>
+        <c:axId val="297877504"/>
+        <c:axId val="341526400"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="704077184"/>
+        <c:axId val="297877504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4714,14 +4750,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92443776"/>
+        <c:crossAx val="341526400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="92443776"/>
+        <c:axId val="341526400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4770,7 +4806,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="704077184"/>
+        <c:crossAx val="297877504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4878,7 +4914,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4921,7 +4957,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5234,7 +5270,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF102"/>
+  <dimension ref="A1:AF103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9505,6 +9541,41 @@
         <v>5934.4066689137917</v>
       </c>
     </row>
+    <row r="103" spans="1:11" ht="12.75">
+      <c r="A103" s="15">
+        <v>45838</v>
+      </c>
+      <c r="B103" s="25">
+        <v>1.6513</v>
+      </c>
+      <c r="C103" s="20">
+        <v>1.0902648933002479</v>
+      </c>
+      <c r="D103" s="21">
+        <v>0</v>
+      </c>
+      <c r="E103" s="22">
+        <v>0</v>
+      </c>
+      <c r="F103" s="22">
+        <v>0</v>
+      </c>
+      <c r="G103" s="22">
+        <v>0</v>
+      </c>
+      <c r="H103" s="22">
+        <v>4228.3228496289457</v>
+      </c>
+      <c r="I103" s="22">
+        <v>5934.4066689137917</v>
+      </c>
+      <c r="J103" s="22">
+        <v>1706.083819284846</v>
+      </c>
+      <c r="K103" s="21">
+        <v>5934.4066689137917</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -9521,7 +9592,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF90"/>
+  <dimension ref="A1:AF91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13250,6 +13321,41 @@
         <v>8898.5490383102569</v>
       </c>
     </row>
+    <row r="91" spans="1:11" ht="12.75">
+      <c r="A91" s="15">
+        <v>45838</v>
+      </c>
+      <c r="B91" s="25">
+        <v>1.6513</v>
+      </c>
+      <c r="C91" s="20">
+        <v>1.3296850799999993</v>
+      </c>
+      <c r="D91" s="21">
+        <v>-498.50312600000109</v>
+      </c>
+      <c r="E91" s="22">
+        <v>-301.88525767577124</v>
+      </c>
+      <c r="F91" s="22">
+        <v>149.41706050245142</v>
+      </c>
+      <c r="G91" s="22">
+        <v>246.73239200769802</v>
+      </c>
+      <c r="H91" s="22">
+        <v>6898.9353000000046</v>
+      </c>
+      <c r="I91" s="22">
+        <v>9643.7845563179562</v>
+      </c>
+      <c r="J91" s="22">
+        <v>2744.8492563179516</v>
+      </c>
+      <c r="K91" s="21">
+        <v>9397.0521643102584</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
@@ -758,7 +758,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1058,6 +1058,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1067,7 +1070,7 @@
               <c:f>'model2(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1366,6 +1369,9 @@
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>4228.3228496289457</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
               </c:numCache>
@@ -1409,7 +1415,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1709,6 +1715,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1718,7 +1727,7 @@
               <c:f>'model2(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -2014,6 +2023,9 @@
                   <c:v>5934.4066689137917</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>5934.4066689137917</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>5934.4066689137917</c:v>
                 </c:pt>
               </c:numCache>
@@ -2057,7 +2069,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2357,6 +2369,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2366,7 +2381,7 @@
               <c:f>'model2(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2665,6 +2680,9 @@
                   <c:v>1706.083819284846</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>1706.083819284846</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>1706.083819284846</c:v>
                 </c:pt>
               </c:numCache>
@@ -2687,11 +2705,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="90975232"/>
-        <c:axId val="103443456"/>
+        <c:axId val="452011136"/>
+        <c:axId val="452012672"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="90975232"/>
+        <c:axId val="452011136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2734,14 +2752,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103443456"/>
+        <c:crossAx val="452012672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="103443456"/>
+        <c:axId val="452012672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2790,7 +2808,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90975232"/>
+        <c:crossAx val="452011136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2987,7 +3005,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3251,6 +3269,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3260,7 +3281,7 @@
               <c:f>'model2(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3523,6 +3544,9 @@
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
                 <c:pt idx="87">
+                  <c:v>6898.9353000000046</c:v>
+                </c:pt>
+                <c:pt idx="88">
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
               </c:numCache>
@@ -3566,7 +3590,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3830,6 +3854,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3839,7 +3866,7 @@
               <c:f>'model2(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4103,6 +4130,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>9643.7845563179562</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9655.3867910659719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4145,7 +4175,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4409,6 +4439,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4418,7 +4451,7 @@
               <c:f>'model2(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4682,6 +4715,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>2744.8492563179516</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2756.4514910659673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4703,11 +4739,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="297877504"/>
-        <c:axId val="341526400"/>
+        <c:axId val="532851328"/>
+        <c:axId val="534339968"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="297877504"/>
+        <c:axId val="532851328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4750,14 +4786,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="341526400"/>
+        <c:crossAx val="534339968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="341526400"/>
+        <c:axId val="534339968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4806,7 +4842,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297877504"/>
+        <c:crossAx val="532851328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5270,7 +5306,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF103"/>
+  <dimension ref="A1:AF104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9576,6 +9612,41 @@
         <v>5934.4066689137917</v>
       </c>
     </row>
+    <row r="104" spans="1:11" ht="12.75">
+      <c r="A104" s="15">
+        <v>45869</v>
+      </c>
+      <c r="B104" s="25">
+        <v>1.72895</v>
+      </c>
+      <c r="C104" s="20">
+        <v>1.0969903631010793</v>
+      </c>
+      <c r="D104" s="21">
+        <v>0</v>
+      </c>
+      <c r="E104" s="22">
+        <v>0</v>
+      </c>
+      <c r="F104" s="22">
+        <v>0</v>
+      </c>
+      <c r="G104" s="22">
+        <v>0</v>
+      </c>
+      <c r="H104" s="22">
+        <v>4228.3228496289457</v>
+      </c>
+      <c r="I104" s="22">
+        <v>5934.4066689137917</v>
+      </c>
+      <c r="J104" s="22">
+        <v>1706.083819284846</v>
+      </c>
+      <c r="K104" s="21">
+        <v>5934.4066689137917</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -9591,8 +9662,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF91"/>
+  <sheetPr codeName="Sheet2">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:AF92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9695,7 +9768,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>0</v>
+        <v>-147.59867390282386</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -13354,6 +13427,41 @@
       </c>
       <c r="K91" s="21">
         <v>9397.0521643102584</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="12.75">
+      <c r="A92" s="15">
+        <v>45869</v>
+      </c>
+      <c r="B92" s="25">
+        <v>1.72895</v>
+      </c>
+      <c r="C92" s="20">
+        <v>1.3976433199999996</v>
+      </c>
+      <c r="D92" s="21">
+        <v>-513.52535400000068</v>
+      </c>
+      <c r="E92" s="22">
+        <v>-297.01573440527528</v>
+      </c>
+      <c r="F92" s="22">
+        <v>-147.59867390282386</v>
+      </c>
+      <c r="G92" s="22">
+        <v>-255.1907272442873</v>
+      </c>
+      <c r="H92" s="22">
+        <v>6898.9353000000046</v>
+      </c>
+      <c r="I92" s="22">
+        <v>9655.3867910659719</v>
+      </c>
+      <c r="J92" s="22">
+        <v>2756.4514910659673</v>
+      </c>
+      <c r="K92" s="21">
+        <v>9910.5775183102596</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
@@ -758,7 +758,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1061,6 +1061,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1070,7 +1073,7 @@
               <c:f>'model2(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1372,6 +1375,9 @@
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>4228.3228496289457</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
               </c:numCache>
@@ -1415,7 +1421,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1718,6 +1724,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1727,7 +1736,7 @@
               <c:f>'model2(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -2026,6 +2035,9 @@
                   <c:v>5934.4066689137917</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>5934.4066689137917</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>5934.4066689137917</c:v>
                 </c:pt>
               </c:numCache>
@@ -2069,7 +2081,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2372,6 +2384,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2381,7 +2396,7 @@
               <c:f>'model2(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2683,6 +2698,9 @@
                   <c:v>1706.083819284846</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>1706.083819284846</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>1706.083819284846</c:v>
                 </c:pt>
               </c:numCache>
@@ -2705,11 +2723,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="452011136"/>
-        <c:axId val="452012672"/>
+        <c:axId val="94622464"/>
+        <c:axId val="94624000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="452011136"/>
+        <c:axId val="94622464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2752,14 +2770,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452012672"/>
+        <c:crossAx val="94624000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="452012672"/>
+        <c:axId val="94624000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2808,7 +2826,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452011136"/>
+        <c:crossAx val="94622464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3005,7 +3023,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3272,6 +3290,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3281,7 +3302,7 @@
               <c:f>'model2(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3547,6 +3568,9 @@
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>6898.9353000000046</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
               </c:numCache>
@@ -3590,7 +3614,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3857,6 +3881,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3866,7 +3893,7 @@
               <c:f>'model2(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4132,6 +4159,9 @@
                   <c:v>9643.7845563179562</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>9655.3867910659719</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>9655.3867910659719</c:v>
                 </c:pt>
               </c:numCache>
@@ -4175,7 +4205,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4442,6 +4472,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4451,7 +4484,7 @@
               <c:f>'model2(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4717,6 +4750,9 @@
                   <c:v>2744.8492563179516</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>2756.4514910659673</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>2756.4514910659673</c:v>
                 </c:pt>
               </c:numCache>
@@ -4739,11 +4775,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="532851328"/>
-        <c:axId val="534339968"/>
+        <c:axId val="183073408"/>
+        <c:axId val="183083392"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="532851328"/>
+        <c:axId val="183073408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4786,14 +4822,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="534339968"/>
+        <c:crossAx val="183083392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="534339968"/>
+        <c:axId val="183083392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4842,7 +4878,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532851328"/>
+        <c:crossAx val="183073408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5306,7 +5342,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF104"/>
+  <dimension ref="A1:AF105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9647,6 +9683,41 @@
         <v>5934.4066689137917</v>
       </c>
     </row>
+    <row r="105" spans="1:11" ht="12.75">
+      <c r="A105" s="15">
+        <v>45898</v>
+      </c>
+      <c r="B105" s="25">
+        <v>1.9015899999999999</v>
+      </c>
+      <c r="C105" s="20">
+        <v>1.1046083681398731</v>
+      </c>
+      <c r="D105" s="21">
+        <v>0</v>
+      </c>
+      <c r="E105" s="22">
+        <v>0</v>
+      </c>
+      <c r="F105" s="22">
+        <v>0</v>
+      </c>
+      <c r="G105" s="22">
+        <v>0</v>
+      </c>
+      <c r="H105" s="22">
+        <v>4228.3228496289457</v>
+      </c>
+      <c r="I105" s="22">
+        <v>5934.4066689137917</v>
+      </c>
+      <c r="J105" s="22">
+        <v>1706.083819284846</v>
+      </c>
+      <c r="K105" s="21">
+        <v>5934.4066689137917</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -9665,7 +9736,7 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF92"/>
+  <dimension ref="A1:AF93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9768,7 +9839,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>-147.59867390282386</v>
+        <v>0</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -13440,16 +13511,16 @@
         <v>1.3976433199999996</v>
       </c>
       <c r="D92" s="21">
-        <v>-513.52535400000068</v>
+        <v>-258.33462675571337</v>
       </c>
       <c r="E92" s="22">
-        <v>-297.01573440527528</v>
+        <v>-149.41706050245142</v>
       </c>
       <c r="F92" s="22">
-        <v>-147.59867390282386</v>
+        <v>0</v>
       </c>
       <c r="G92" s="22">
-        <v>-255.1907272442873</v>
+        <v>0</v>
       </c>
       <c r="H92" s="22">
         <v>6898.9353000000046</v>
@@ -13461,7 +13532,42 @@
         <v>2756.4514910659673</v>
       </c>
       <c r="K92" s="21">
-        <v>9910.5775183102596</v>
+        <v>9655.3867910659719</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="12.75">
+      <c r="A93" s="15">
+        <v>45898</v>
+      </c>
+      <c r="B93" s="25">
+        <v>1.9015899999999999</v>
+      </c>
+      <c r="C93" s="20">
+        <v>1.4737925600000001</v>
+      </c>
+      <c r="D93" s="21">
+        <v>0</v>
+      </c>
+      <c r="E93" s="22">
+        <v>0</v>
+      </c>
+      <c r="F93" s="22">
+        <v>0</v>
+      </c>
+      <c r="G93" s="22">
+        <v>0</v>
+      </c>
+      <c r="H93" s="22">
+        <v>6898.9353000000046</v>
+      </c>
+      <c r="I93" s="22">
+        <v>9655.3867910659719</v>
+      </c>
+      <c r="J93" s="22">
+        <v>2756.4514910659673</v>
+      </c>
+      <c r="K93" s="21">
+        <v>9655.3867910659719</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
@@ -758,7 +758,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1064,6 +1064,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1073,7 +1076,7 @@
               <c:f>'model2(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1378,6 +1381,9 @@
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>4228.3228496289457</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
               </c:numCache>
@@ -1421,7 +1427,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1727,6 +1733,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1736,7 +1745,7 @@
               <c:f>'model2(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -2038,6 +2047,9 @@
                   <c:v>5934.4066689137917</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>5934.4066689137917</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>5934.4066689137917</c:v>
                 </c:pt>
               </c:numCache>
@@ -2081,7 +2093,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2387,6 +2399,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2396,7 +2411,7 @@
               <c:f>'model2(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2701,6 +2716,9 @@
                   <c:v>1706.083819284846</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>1706.083819284846</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>1706.083819284846</c:v>
                 </c:pt>
               </c:numCache>
@@ -2723,11 +2741,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="94622464"/>
-        <c:axId val="94624000"/>
+        <c:axId val="519142016"/>
+        <c:axId val="536139264"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="94622464"/>
+        <c:axId val="519142016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2770,14 +2788,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94624000"/>
+        <c:crossAx val="536139264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="94624000"/>
+        <c:axId val="536139264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2826,7 +2844,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94622464"/>
+        <c:crossAx val="519142016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3023,7 +3041,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3293,6 +3311,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3302,7 +3323,7 @@
               <c:f>'model2(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3571,6 +3592,9 @@
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
                 <c:pt idx="89">
+                  <c:v>6898.9353000000046</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
               </c:numCache>
@@ -3614,7 +3638,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3884,6 +3908,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3893,7 +3920,7 @@
               <c:f>'model2(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4162,6 +4189,9 @@
                   <c:v>9655.3867910659719</c:v>
                 </c:pt>
                 <c:pt idx="89">
+                  <c:v>9655.3867910659719</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>9655.3867910659719</c:v>
                 </c:pt>
               </c:numCache>
@@ -4205,7 +4235,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4475,6 +4505,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4484,7 +4517,7 @@
               <c:f>'model2(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4753,6 +4786,9 @@
                   <c:v>2756.4514910659673</c:v>
                 </c:pt>
                 <c:pt idx="89">
+                  <c:v>2756.4514910659673</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>2756.4514910659673</c:v>
                 </c:pt>
               </c:numCache>
@@ -4775,11 +4811,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="183073408"/>
-        <c:axId val="183083392"/>
+        <c:axId val="613683584"/>
+        <c:axId val="613685504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="183073408"/>
+        <c:axId val="613683584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4822,14 +4858,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183083392"/>
+        <c:crossAx val="613685504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="183083392"/>
+        <c:axId val="613685504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4878,7 +4914,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183073408"/>
+        <c:crossAx val="613683584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4986,7 +5022,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5029,7 +5065,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5342,7 +5378,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF105"/>
+  <dimension ref="A1:AF106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9718,6 +9754,41 @@
         <v>5934.4066689137917</v>
       </c>
     </row>
+    <row r="106" spans="1:11" ht="12.75">
+      <c r="A106" s="15">
+        <v>45930</v>
+      </c>
+      <c r="B106" s="25">
+        <v>1.87385</v>
+      </c>
+      <c r="C106" s="20">
+        <v>1.1126600432484375</v>
+      </c>
+      <c r="D106" s="21">
+        <v>0</v>
+      </c>
+      <c r="E106" s="22">
+        <v>0</v>
+      </c>
+      <c r="F106" s="22">
+        <v>0</v>
+      </c>
+      <c r="G106" s="22">
+        <v>0</v>
+      </c>
+      <c r="H106" s="22">
+        <v>4228.3228496289457</v>
+      </c>
+      <c r="I106" s="22">
+        <v>5934.4066689137917</v>
+      </c>
+      <c r="J106" s="22">
+        <v>1706.083819284846</v>
+      </c>
+      <c r="K106" s="21">
+        <v>5934.4066689137917</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -9736,7 +9807,7 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF93"/>
+  <dimension ref="A1:AF94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13570,6 +13641,41 @@
         <v>9655.3867910659719</v>
       </c>
     </row>
+    <row r="94" spans="1:11" ht="12.75">
+      <c r="A94" s="15">
+        <v>45930</v>
+      </c>
+      <c r="B94" s="25">
+        <v>1.87385</v>
+      </c>
+      <c r="C94" s="20">
+        <v>1.5571432000000014</v>
+      </c>
+      <c r="D94" s="21">
+        <v>0</v>
+      </c>
+      <c r="E94" s="22">
+        <v>0</v>
+      </c>
+      <c r="F94" s="22">
+        <v>0</v>
+      </c>
+      <c r="G94" s="22">
+        <v>0</v>
+      </c>
+      <c r="H94" s="22">
+        <v>6898.9353000000046</v>
+      </c>
+      <c r="I94" s="22">
+        <v>9655.3867910659719</v>
+      </c>
+      <c r="J94" s="22">
+        <v>2756.4514910659673</v>
+      </c>
+      <c r="K94" s="21">
+        <v>9655.3867910659719</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
@@ -758,7 +758,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1067,6 +1067,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1076,7 +1079,7 @@
               <c:f>'model2(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1384,6 +1387,9 @@
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>4228.3228496289457</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
               </c:numCache>
@@ -1427,7 +1433,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1736,6 +1742,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1745,7 +1754,7 @@
               <c:f>'model2(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -2050,6 +2059,9 @@
                   <c:v>5934.4066689137917</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>5934.4066689137917</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>5934.4066689137917</c:v>
                 </c:pt>
               </c:numCache>
@@ -2093,7 +2105,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2402,6 +2414,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2411,7 +2426,7 @@
               <c:f>'model2(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2719,6 +2734,9 @@
                   <c:v>1706.083819284846</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>1706.083819284846</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>1706.083819284846</c:v>
                 </c:pt>
               </c:numCache>
@@ -2741,11 +2759,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="519142016"/>
-        <c:axId val="536139264"/>
+        <c:axId val="431637632"/>
+        <c:axId val="431639168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="519142016"/>
+        <c:axId val="431637632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2788,14 +2806,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536139264"/>
+        <c:crossAx val="431639168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="536139264"/>
+        <c:axId val="431639168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2844,7 +2862,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519142016"/>
+        <c:crossAx val="431637632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3041,7 +3059,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3314,6 +3332,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3323,7 +3344,7 @@
               <c:f>'model2(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3595,6 +3616,9 @@
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>6898.9353000000046</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
               </c:numCache>
@@ -3638,7 +3662,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3911,6 +3935,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3920,7 +3947,7 @@
               <c:f>'model2(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4192,6 +4219,9 @@
                   <c:v>9655.3867910659719</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>9655.3867910659719</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>9655.3867910659719</c:v>
                 </c:pt>
               </c:numCache>
@@ -4235,7 +4265,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4508,6 +4538,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4517,7 +4550,7 @@
               <c:f>'model2(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4789,6 +4822,9 @@
                   <c:v>2756.4514910659673</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>2756.4514910659673</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>2756.4514910659673</c:v>
                 </c:pt>
               </c:numCache>
@@ -4811,11 +4847,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="613683584"/>
-        <c:axId val="613685504"/>
+        <c:axId val="513745664"/>
+        <c:axId val="513747200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="613683584"/>
+        <c:axId val="513745664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4858,14 +4894,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613685504"/>
+        <c:crossAx val="513747200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="613685504"/>
+        <c:axId val="513747200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4914,7 +4950,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613683584"/>
+        <c:crossAx val="513745664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5022,7 +5058,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5065,7 +5101,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5378,7 +5414,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF106"/>
+  <dimension ref="A1:AF107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9789,6 +9825,41 @@
         <v>5934.4066689137917</v>
       </c>
     </row>
+    <row r="107" spans="1:11" ht="12.75">
+      <c r="A107" s="15">
+        <v>45961</v>
+      </c>
+      <c r="B107" s="25">
+        <v>1.88497</v>
+      </c>
+      <c r="C107" s="20">
+        <v>1.1186502812202088</v>
+      </c>
+      <c r="D107" s="21">
+        <v>0</v>
+      </c>
+      <c r="E107" s="22">
+        <v>0</v>
+      </c>
+      <c r="F107" s="22">
+        <v>0</v>
+      </c>
+      <c r="G107" s="22">
+        <v>0</v>
+      </c>
+      <c r="H107" s="22">
+        <v>4228.3228496289457</v>
+      </c>
+      <c r="I107" s="22">
+        <v>5934.4066689137917</v>
+      </c>
+      <c r="J107" s="22">
+        <v>1706.083819284846</v>
+      </c>
+      <c r="K107" s="21">
+        <v>5934.4066689137917</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -9807,7 +9878,7 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF94"/>
+  <dimension ref="A1:AF95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13676,6 +13747,41 @@
         <v>9655.3867910659719</v>
       </c>
     </row>
+    <row r="95" spans="1:11" ht="12.75">
+      <c r="A95" s="15">
+        <v>45961</v>
+      </c>
+      <c r="B95" s="25">
+        <v>1.88497</v>
+      </c>
+      <c r="C95" s="20">
+        <v>1.6029035600000012</v>
+      </c>
+      <c r="D95" s="21">
+        <v>0</v>
+      </c>
+      <c r="E95" s="22">
+        <v>0</v>
+      </c>
+      <c r="F95" s="22">
+        <v>0</v>
+      </c>
+      <c r="G95" s="22">
+        <v>0</v>
+      </c>
+      <c r="H95" s="22">
+        <v>6898.9353000000046</v>
+      </c>
+      <c r="I95" s="22">
+        <v>9655.3867910659719</v>
+      </c>
+      <c r="J95" s="22">
+        <v>2756.4514910659673</v>
+      </c>
+      <c r="K95" s="21">
+        <v>9655.3867910659719</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2.xlsx
@@ -758,7 +758,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1070,6 +1070,9 @@
                 </c:pt>
                 <c:pt idx="103">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1079,7 +1082,7 @@
               <c:f>'model2(1)mean'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1390,6 +1393,9 @@
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
                 <c:pt idx="103">
+                  <c:v>4228.3228496289457</c:v>
+                </c:pt>
+                <c:pt idx="104">
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
               </c:numCache>
@@ -1433,7 +1439,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1745,6 +1751,9 @@
                 </c:pt>
                 <c:pt idx="103">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1754,7 +1763,7 @@
               <c:f>'model2(1)mean'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -2062,6 +2071,9 @@
                   <c:v>5934.4066689137917</c:v>
                 </c:pt>
                 <c:pt idx="103">
+                  <c:v>5934.4066689137917</c:v>
+                </c:pt>
+                <c:pt idx="104">
                   <c:v>5934.4066689137917</c:v>
                 </c:pt>
               </c:numCache>
@@ -2105,7 +2117,7 @@
               <c:f>'model2(1)mean'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2417,6 +2429,9 @@
                 </c:pt>
                 <c:pt idx="103">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2426,7 +2441,7 @@
               <c:f>'model2(1)mean'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2737,6 +2752,9 @@
                   <c:v>1706.083819284846</c:v>
                 </c:pt>
                 <c:pt idx="103">
+                  <c:v>1706.083819284846</c:v>
+                </c:pt>
+                <c:pt idx="104">
                   <c:v>1706.083819284846</c:v>
                 </c:pt>
               </c:numCache>
@@ -2759,11 +2777,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="431637632"/>
-        <c:axId val="431639168"/>
+        <c:axId val="433547520"/>
+        <c:axId val="439703808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="431637632"/>
+        <c:axId val="433547520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2806,14 +2824,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="431639168"/>
+        <c:crossAx val="439703808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="431639168"/>
+        <c:axId val="439703808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2862,7 +2880,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="431637632"/>
+        <c:crossAx val="433547520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3059,7 +3077,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3335,6 +3353,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3344,7 +3365,7 @@
               <c:f>'model2(1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3619,6 +3640,9 @@
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>6898.9353000000046</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
               </c:numCache>
@@ -3662,7 +3686,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3938,6 +3962,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3947,7 +3974,7 @@
               <c:f>'model2(1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4222,6 +4249,9 @@
                   <c:v>9655.3867910659719</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>9655.3867910659719</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>9655.3867910659719</c:v>
                 </c:pt>
               </c:numCache>
@@ -4265,7 +4295,7 @@
               <c:f>'model2(1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4541,6 +4571,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4550,7 +4583,7 @@
               <c:f>'model2(1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4825,6 +4858,9 @@
                   <c:v>2756.4514910659673</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>2756.4514910659673</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>2756.4514910659673</c:v>
                 </c:pt>
               </c:numCache>
@@ -4847,11 +4883,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="513745664"/>
-        <c:axId val="513747200"/>
+        <c:axId val="510284544"/>
+        <c:axId val="510286464"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="513745664"/>
+        <c:axId val="510284544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4894,14 +4930,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513747200"/>
+        <c:crossAx val="510286464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="513747200"/>
+        <c:axId val="510286464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4950,7 +4986,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513745664"/>
+        <c:crossAx val="510284544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5058,7 +5094,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5101,7 +5137,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5414,7 +5450,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF107"/>
+  <dimension ref="A1:AF108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9860,6 +9896,41 @@
         <v>5934.4066689137917</v>
       </c>
     </row>
+    <row r="108" spans="1:11" ht="12.75">
+      <c r="A108" s="15">
+        <v>45989</v>
+      </c>
+      <c r="B108" s="25">
+        <v>1.87002</v>
+      </c>
+      <c r="C108" s="20">
+        <v>1.1261140396413394</v>
+      </c>
+      <c r="D108" s="21">
+        <v>0</v>
+      </c>
+      <c r="E108" s="22">
+        <v>0</v>
+      </c>
+      <c r="F108" s="22">
+        <v>0</v>
+      </c>
+      <c r="G108" s="22">
+        <v>0</v>
+      </c>
+      <c r="H108" s="22">
+        <v>4228.3228496289457</v>
+      </c>
+      <c r="I108" s="22">
+        <v>5934.4066689137917</v>
+      </c>
+      <c r="J108" s="22">
+        <v>1706.083819284846</v>
+      </c>
+      <c r="K108" s="21">
+        <v>5934.4066689137917</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -9878,7 +9949,7 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF95"/>
+  <dimension ref="A1:AF96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13782,6 +13853,41 @@
         <v>9655.3867910659719</v>
       </c>
     </row>
+    <row r="96" spans="1:11" ht="12.75">
+      <c r="A96" s="15">
+        <v>45989</v>
+      </c>
+      <c r="B96" s="25">
+        <v>1.87002</v>
+      </c>
+      <c r="C96" s="20">
+        <v>1.6436552000000013</v>
+      </c>
+      <c r="D96" s="21">
+        <v>0</v>
+      </c>
+      <c r="E96" s="22">
+        <v>0</v>
+      </c>
+      <c r="F96" s="22">
+        <v>0</v>
+      </c>
+      <c r="G96" s="22">
+        <v>0</v>
+      </c>
+      <c r="H96" s="22">
+        <v>6898.9353000000046</v>
+      </c>
+      <c r="I96" s="22">
+        <v>9655.3867910659719</v>
+      </c>
+      <c r="J96" s="22">
+        <v>2756.4514910659673</v>
+      </c>
+      <c r="K96" s="21">
+        <v>9655.3867910659719</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
